--- a/POS Code/Experiments/attachments/detailed_results.xlsx
+++ b/POS Code/Experiments/attachments/detailed_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuh/Documents/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E4FDEE-DF59-3849-99B4-049722541800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF221A14-CC88-DE4A-97C7-F0DB7E734634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="28800" windowHeight="15440" activeTab="3" xr2:uid="{BEC22610-DBDE-49A5-ABDC-7DB261D6BA7F}"/>
+    <workbookView xWindow="3760" yWindow="2700" windowWidth="27540" windowHeight="17700" xr2:uid="{BEC22610-DBDE-49A5-ABDC-7DB261D6BA7F}"/>
   </bookViews>
   <sheets>
     <sheet name="POSSummary" sheetId="3" r:id="rId1"/>
@@ -28,11 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="47">
   <si>
     <t>Selection</t>
   </si>
@@ -49,9 +45,6 @@
   </si>
   <si>
     <t>Baseline accuracy</t>
-  </si>
-  <si>
-    <t>All</t>
   </si>
   <si>
     <t>None</t>
@@ -163,13 +156,28 @@
     <t>Layer</t>
   </si>
   <si>
-    <t>Layer 11</t>
+    <t>NA</t>
   </si>
   <si>
-    <t>Layer 12</t>
+    <t>0-11</t>
   </si>
   <si>
-    <t>Layer 3</t>
+    <t>0-12</t>
+  </si>
+  <si>
+    <t>0-0</t>
+  </si>
+  <si>
+    <t>0-8</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>Diff.</t>
   </si>
 </sst>
 </file>
@@ -302,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -377,6 +385,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -390,6 +404,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -23899,10 +23916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1929D321-160C-41CB-828A-0FA5B23B672C}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23929,45 +23946,45 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>3</v>
+      <c r="A2" s="28" t="s">
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -24010,7 +24027,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -24052,11 +24069,11 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -24096,9 +24113,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="5">
         <v>0.25</v>
@@ -24138,11 +24155,11 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
-        <v>7</v>
+      <c r="A6" s="28" t="s">
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
         <v>169</v>
@@ -24182,9 +24199,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="15">
         <v>0.97099999999999997</v>
@@ -24224,820 +24241,1090 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="16">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.998</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.99</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.995</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="J8" s="16">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="K8" s="16">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="L8" s="16">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="M8" s="16">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="N8" s="6">
-        <v>0.996</v>
+      <c r="A8" s="29"/>
+      <c r="B8" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="33">
+        <f>C7-C3</f>
+        <v>-4.0000000000000036E-3</v>
+      </c>
+      <c r="D8" s="33">
+        <f t="shared" ref="D8:N8" si="0">D7-D3</f>
+        <v>2.5999999999999912E-2</v>
+      </c>
+      <c r="E8" s="33">
+        <f t="shared" si="0"/>
+        <v>-1.0999999999999899E-2</v>
+      </c>
+      <c r="F8" s="33">
+        <f t="shared" si="0"/>
+        <v>-4.6000000000000041E-2</v>
+      </c>
+      <c r="G8" s="33">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000011E-2</v>
+      </c>
+      <c r="H8" s="33">
+        <f t="shared" si="0"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+      <c r="I8" s="33">
+        <f t="shared" si="0"/>
+        <v>-3.0000000000000027E-3</v>
+      </c>
+      <c r="J8" s="33">
+        <f t="shared" si="0"/>
+        <v>6.4999999999999947E-2</v>
+      </c>
+      <c r="K8" s="33">
+        <f t="shared" si="0"/>
+        <v>6.5999999999999948E-2</v>
+      </c>
+      <c r="L8" s="33">
+        <f t="shared" si="0"/>
+        <v>-6.0000000000000053E-3</v>
+      </c>
+      <c r="M8" s="33">
+        <f t="shared" si="0"/>
+        <v>-6.0000000000000053E-3</v>
+      </c>
+      <c r="N8" s="33">
+        <f t="shared" si="0"/>
+        <v>-1.6000000000000014E-2</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="9">
-        <v>199</v>
-      </c>
-      <c r="D9" s="2">
-        <v>209</v>
-      </c>
-      <c r="E9" s="2">
-        <v>430</v>
-      </c>
-      <c r="F9" s="2">
-        <v>399</v>
-      </c>
-      <c r="G9" s="2">
-        <v>9</v>
-      </c>
-      <c r="H9" s="2">
-        <v>609</v>
-      </c>
-      <c r="I9" s="2">
-        <v>29</v>
-      </c>
-      <c r="J9" s="2">
-        <v>129</v>
-      </c>
-      <c r="K9" s="2">
-        <v>9</v>
-      </c>
-      <c r="L9" s="2">
-        <v>159</v>
-      </c>
-      <c r="M9" s="2">
-        <v>9</v>
-      </c>
-      <c r="N9" s="3">
-        <v>169</v>
+      <c r="A9" s="30"/>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.995</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="L9" s="16">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="M9" s="16">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0.996</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="15">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="D10" s="15">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="F10" s="15">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0.878</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="I10" s="15">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="J10" s="15">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="L10" s="15">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="N10" s="18">
-        <v>0.96299999999999997</v>
+      <c r="A10" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="9">
+        <v>199</v>
+      </c>
+      <c r="D10" s="2">
+        <v>209</v>
+      </c>
+      <c r="E10" s="2">
+        <v>430</v>
+      </c>
+      <c r="F10" s="2">
+        <v>399</v>
+      </c>
+      <c r="G10" s="2">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2">
+        <v>609</v>
+      </c>
+      <c r="I10" s="2">
+        <v>29</v>
+      </c>
+      <c r="J10" s="2">
+        <v>129</v>
+      </c>
+      <c r="K10" s="2">
+        <v>9</v>
+      </c>
+      <c r="L10" s="2">
+        <v>159</v>
+      </c>
+      <c r="M10" s="2">
+        <v>9</v>
+      </c>
+      <c r="N10" s="3">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="16">
-        <v>0.98</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0.96</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.999</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="A11" s="29"/>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.878</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="I11" s="15">
         <v>0.93899999999999995</v>
       </c>
-      <c r="I11" s="16">
-        <v>0.997</v>
-      </c>
-      <c r="J11" s="16">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0.999</v>
-      </c>
-      <c r="L11" s="16">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0.999</v>
-      </c>
-      <c r="N11" s="19">
-        <v>0.98299999999999998</v>
+      <c r="J11" s="15">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="N11" s="18">
+        <v>0.96299999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="J12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="K12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0.4</v>
+      <c r="A12" s="29"/>
+      <c r="B12" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="33">
+        <f>C11-C3</f>
+        <v>-1.2000000000000011E-2</v>
+      </c>
+      <c r="D12" s="33">
+        <f t="shared" ref="D12:N12" si="1">D11-D3</f>
+        <v>5.4999999999999938E-2</v>
+      </c>
+      <c r="E12" s="33">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="F12" s="33">
+        <f t="shared" si="1"/>
+        <v>-1.100000000000001E-2</v>
+      </c>
+      <c r="G12" s="33">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="H12" s="33">
+        <f t="shared" si="1"/>
+        <v>6.5999999999999948E-2</v>
+      </c>
+      <c r="I12" s="33">
+        <f t="shared" si="1"/>
+        <v>0.10299999999999998</v>
+      </c>
+      <c r="J12" s="33">
+        <f t="shared" si="1"/>
+        <v>6.3999999999999946E-2</v>
+      </c>
+      <c r="K12" s="33">
+        <f t="shared" si="1"/>
+        <v>-4.500000000000004E-2</v>
+      </c>
+      <c r="L12" s="33">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="M12" s="33">
+        <f t="shared" si="1"/>
+        <v>-0.16100000000000003</v>
+      </c>
+      <c r="N12" s="33">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000027E-3</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="17">
-        <v>932</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3229</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2352</v>
-      </c>
-      <c r="F13" s="1">
-        <v>495</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1388</v>
-      </c>
-      <c r="H13" s="1">
-        <v>4836</v>
-      </c>
-      <c r="I13" s="1">
-        <v>644</v>
-      </c>
-      <c r="J13" s="1">
-        <v>9984</v>
-      </c>
-      <c r="K13" s="1">
-        <v>9984</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1016</v>
-      </c>
-      <c r="M13" s="1">
-        <v>902</v>
-      </c>
-      <c r="N13" s="11">
-        <v>3406</v>
+      <c r="A13" s="30"/>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0.98</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0.96</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0.997</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="L13" s="16">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="N13" s="19">
+        <v>0.98299999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="F14" s="15">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="I14" s="15">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="J14" s="7">
-        <v>0.995</v>
-      </c>
-      <c r="K14" s="7">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="L14" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="N14" s="8">
-        <v>0.99</v>
+      <c r="A14" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="J14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.67700000000000005</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="F15" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="I15" s="16">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="M15" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0.65900000000000003</v>
+      <c r="A15" s="29"/>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="17">
+        <v>932</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3229</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2352</v>
+      </c>
+      <c r="F15" s="1">
+        <v>495</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1388</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4836</v>
+      </c>
+      <c r="I15" s="1">
+        <v>644</v>
+      </c>
+      <c r="J15" s="1">
+        <v>9984</v>
+      </c>
+      <c r="K15" s="1">
+        <v>9984</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1016</v>
+      </c>
+      <c r="M15" s="1">
+        <v>902</v>
+      </c>
+      <c r="N15" s="11">
+        <v>3406</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>33</v>
+      <c r="A16" s="29"/>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="I16" s="15">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.995</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0.99</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>3</v>
-      </c>
-      <c r="F17" s="1">
-        <v>3</v>
-      </c>
-      <c r="G17" s="1">
-        <v>3</v>
-      </c>
-      <c r="H17" s="1">
-        <v>3</v>
-      </c>
-      <c r="I17" s="1">
-        <v>3</v>
-      </c>
-      <c r="J17" s="1">
-        <v>3</v>
-      </c>
-      <c r="K17" s="1">
-        <v>3</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1</v>
-      </c>
-      <c r="M17" s="1">
-        <v>1</v>
-      </c>
-      <c r="N17" s="11">
-        <v>3</v>
+      <c r="A17" s="29"/>
+      <c r="B17" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="7">
+        <f>C16-C3</f>
+        <v>1.5000000000000013E-2</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" ref="D17:N17" si="2">D16-D3</f>
+        <v>3.499999999999992E-2</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000015E-2</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="2"/>
+        <v>9.000000000000008E-3</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="2"/>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="2"/>
+        <v>6.4999999999999947E-2</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="2"/>
+        <v>0.15200000000000002</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="2"/>
+        <v>8.2999999999999963E-2</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" si="2"/>
+        <v>8.8999999999999968E-2</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="2"/>
+        <v>9.000000000000008E-3</v>
+      </c>
+      <c r="M17" s="7">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="N17" s="7">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000027E-2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3840</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1536</v>
-      </c>
-      <c r="E18" s="1">
-        <v>3840</v>
-      </c>
-      <c r="F18" s="1">
-        <v>768</v>
-      </c>
-      <c r="G18" s="1">
-        <v>768</v>
-      </c>
-      <c r="H18" s="1">
-        <v>768</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1536</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1536</v>
-      </c>
-      <c r="K18" s="1">
-        <v>768</v>
-      </c>
-      <c r="L18" s="1">
-        <v>6912</v>
-      </c>
-      <c r="M18" s="1">
-        <v>3840</v>
-      </c>
-      <c r="N18" s="11">
-        <v>768</v>
+      <c r="A18" s="30"/>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="I18" s="16">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0.65900000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="G19" s="15">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="J19" s="7">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="K19" s="7">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="L19" s="7">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="N19" s="8">
-        <v>0.99299999999999999</v>
+      <c r="A19" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="G20" s="16">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="I20" s="5">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="J20" s="5">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="K20" s="5">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="L20" s="5">
-        <v>0.308</v>
-      </c>
-      <c r="M20" s="5">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="N20" s="6">
-        <v>0.92300000000000004</v>
+      <c r="A20" s="29"/>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1">
+        <v>3</v>
+      </c>
+      <c r="J20" s="1">
+        <v>3</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="11">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>33</v>
+      <c r="A21" s="29"/>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3840</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1536</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3840</v>
+      </c>
+      <c r="F21" s="1">
+        <v>768</v>
+      </c>
+      <c r="G21" s="1">
+        <v>768</v>
+      </c>
+      <c r="H21" s="1">
+        <v>768</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1536</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1536</v>
+      </c>
+      <c r="K21" s="1">
+        <v>768</v>
+      </c>
+      <c r="L21" s="1">
+        <v>6912</v>
+      </c>
+      <c r="M21" s="1">
+        <v>3840</v>
+      </c>
+      <c r="N21" s="11">
+        <v>768</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="N22" s="13" t="s">
-        <v>32</v>
+        <v>5</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0.99299999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
-      <c r="B23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="D23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="I23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="N23" s="11">
-        <v>0.3</v>
+      <c r="A23" s="29"/>
+      <c r="B23" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="7">
+        <f>C22-C3</f>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" ref="D23:N23" si="3">D22-D3</f>
+        <v>2.200000000000002E-2</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="3"/>
+        <v>-3.0000000000000027E-3</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="3"/>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="3"/>
+        <v>0.11599999999999999</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="3"/>
+        <v>7.0999999999999952E-2</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="3"/>
+        <v>1.5000000000000013E-2</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" si="3"/>
+        <v>6.1999999999999944E-2</v>
+      </c>
+      <c r="K23" s="7">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="3"/>
+        <v>-7.0000000000000062E-3</v>
+      </c>
+      <c r="M23" s="7">
+        <f t="shared" si="3"/>
+        <v>-6.0000000000000053E-3</v>
+      </c>
+      <c r="N23" s="7">
+        <f t="shared" si="3"/>
+        <v>3.3000000000000029E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="1">
-        <v>199</v>
-      </c>
-      <c r="D24" s="1">
-        <v>29</v>
-      </c>
-      <c r="E24" s="1">
-        <v>161</v>
-      </c>
-      <c r="F24" s="1">
-        <v>499</v>
-      </c>
-      <c r="G24" s="1">
-        <v>768</v>
-      </c>
-      <c r="H24" s="1">
-        <v>499</v>
-      </c>
-      <c r="I24" s="1">
-        <v>9</v>
-      </c>
-      <c r="J24" s="1">
-        <v>1536</v>
-      </c>
-      <c r="K24" s="1">
-        <v>49</v>
-      </c>
-      <c r="L24" s="1">
-        <v>199</v>
-      </c>
-      <c r="M24" s="1">
-        <v>199</v>
-      </c>
-      <c r="N24" s="11">
-        <v>199</v>
+      <c r="A24" s="30"/>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0.308</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="N24" s="6">
+        <v>0.92300000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="15">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="E25" s="15">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="F25" s="15">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="G25" s="15">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="H25" s="15">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="I25" s="14">
-        <v>0.87</v>
-      </c>
-      <c r="J25" s="7">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="K25" s="7">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="L25" s="15">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="M25" s="15">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="N25" s="18">
-        <v>0.99</v>
+      <c r="A25" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
-      <c r="B26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="16">
+      <c r="A26" s="29"/>
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="29"/>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N27" s="11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="29"/>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>199</v>
+      </c>
+      <c r="D28" s="1">
+        <v>29</v>
+      </c>
+      <c r="E28" s="1">
+        <v>161</v>
+      </c>
+      <c r="F28" s="1">
+        <v>499</v>
+      </c>
+      <c r="G28" s="1">
+        <v>768</v>
+      </c>
+      <c r="H28" s="1">
+        <v>499</v>
+      </c>
+      <c r="I28" s="1">
+        <v>9</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1536</v>
+      </c>
+      <c r="K28" s="1">
+        <v>49</v>
+      </c>
+      <c r="L28" s="1">
+        <v>199</v>
+      </c>
+      <c r="M28" s="1">
+        <v>199</v>
+      </c>
+      <c r="N28" s="11">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="29"/>
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="15">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="E29" s="15">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="F29" s="15">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="G29" s="15">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="H29" s="15">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="I29" s="14">
+        <v>0.87</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="L29" s="15">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M29" s="15">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="N29" s="18">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="29"/>
+      <c r="B30" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="33">
+        <f>C29-C3</f>
+        <v>9.000000000000008E-3</v>
+      </c>
+      <c r="D30" s="33">
+        <f t="shared" ref="D30:N30" si="4">D29-D3</f>
+        <v>2.7999999999999914E-2</v>
+      </c>
+      <c r="E30" s="33">
+        <f t="shared" si="4"/>
+        <v>2.4000000000000021E-2</v>
+      </c>
+      <c r="F30" s="33">
+        <f t="shared" si="4"/>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="G30" s="33">
+        <f t="shared" si="4"/>
+        <v>0.11299999999999999</v>
+      </c>
+      <c r="H30" s="33">
+        <f t="shared" si="4"/>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="I30" s="33">
+        <f t="shared" si="4"/>
+        <v>3.400000000000003E-2</v>
+      </c>
+      <c r="J30" s="33">
+        <f t="shared" si="4"/>
+        <v>4.599999999999993E-2</v>
+      </c>
+      <c r="K30" s="33">
+        <f t="shared" si="4"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="L30" s="33">
+        <f t="shared" si="4"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="M30" s="33">
+        <f t="shared" si="4"/>
+        <v>-3.0000000000000027E-3</v>
+      </c>
+      <c r="N30" s="33">
+        <f t="shared" si="4"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="30"/>
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="16">
         <v>0.98</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D31" s="5">
         <v>0.997</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E31" s="16">
         <v>0.97</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F31" s="16">
         <v>0.95</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G31" s="16">
         <v>0.92300000000000004</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H31" s="16">
         <v>0.95</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I31" s="5">
         <v>0.999</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J31" s="5">
         <v>0.84599999999999997</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K31" s="5">
         <v>0.995</v>
       </c>
-      <c r="L26" s="16">
+      <c r="L31" s="16">
         <v>0.98</v>
       </c>
-      <c r="M26" s="16">
+      <c r="M31" s="16">
         <v>0.98</v>
       </c>
-      <c r="N26" s="19">
+      <c r="N31" s="19">
         <v>0.98</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A25:A31"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25046,10 +25333,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0465932-552D-0D41-8E69-A964B5E4ACC3}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25058,63 +25345,55 @@
     <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>3</v>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -25126,7 +25405,7 @@
         <v>9984</v>
       </c>
       <c r="E2" s="2">
-        <v>5376</v>
+        <v>9984</v>
       </c>
       <c r="F2" s="2">
         <v>9984</v>
@@ -25146,18 +25425,12 @@
       <c r="K2" s="2">
         <v>9984</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="3">
         <v>9984</v>
       </c>
-      <c r="M2" s="2">
-        <v>9984</v>
-      </c>
-      <c r="N2" s="3">
-        <v>9984</v>
-      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="30"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -25167,896 +25440,924 @@
       <c r="D3" s="5">
         <v>0.64019999999999999</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>0.61270000000000002</v>
+      </c>
       <c r="F3" s="5">
-        <v>0.61270000000000002</v>
+        <v>0.51390000000000002</v>
       </c>
       <c r="G3" s="5">
-        <v>0.51390000000000002</v>
+        <v>0.63580000000000003</v>
       </c>
       <c r="H3" s="5">
-        <v>0.63580000000000003</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+        <v>0.59260000000000002</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.63870000000000005</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.57279999999999998</v>
+      </c>
       <c r="K3" s="5">
-        <v>0.63870000000000005</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0.57279999999999998</v>
-      </c>
-      <c r="M3" s="5">
         <v>0.4839</v>
       </c>
-      <c r="N3" s="6">
+      <c r="L3" s="6">
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2">
+        <v>79</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2">
+        <v>79</v>
+      </c>
+      <c r="H4" s="2">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2">
+        <v>489</v>
+      </c>
+      <c r="J4" s="2">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2">
+        <v>9</v>
+      </c>
+      <c r="L4" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="29"/>
+      <c r="B5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
+      <c r="C5" s="15">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.64239999999999997</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.58819999999999995</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0.60809999999999997</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.62590000000000001</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0.5706</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0.5696</v>
+      </c>
+      <c r="L5" s="18">
+        <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="6"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="29"/>
+      <c r="B6" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="7">
+        <f>C5-C3</f>
+        <v>2.9999999999996696E-4</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" ref="D6:L6" si="0">D5-D3</f>
+        <v>2.1999999999999797E-3</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>-2.4500000000000077E-2</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>9.419999999999995E-2</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>-1.980000000000004E-2</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>1.8399999999999972E-2</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="0"/>
+        <v>-1.2800000000000034E-2</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
+        <v>-2.1999999999999797E-3</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="0"/>
+        <v>-1.5000000000000013E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="30"/>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C7" s="16">
+        <f t="shared" ref="C7:L7" si="1">1-C4/C2</f>
+        <v>0.99709535256410253</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.99208733974358976</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.99909855769230771</v>
+      </c>
+      <c r="F7" s="16">
+        <f t="shared" si="1"/>
+        <v>0.99709535256410253</v>
+      </c>
+      <c r="G7" s="16">
+        <f t="shared" si="1"/>
+        <v>0.99208733974358976</v>
+      </c>
+      <c r="H7" s="16">
+        <f t="shared" si="1"/>
+        <v>0.99809695512820518</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.95102163461538458</v>
+      </c>
+      <c r="J7" s="16">
+        <f t="shared" si="1"/>
+        <v>0.99609375</v>
+      </c>
+      <c r="K7" s="16">
+        <f t="shared" si="1"/>
+        <v>0.99909855769230771</v>
+      </c>
+      <c r="L7" s="19">
+        <f t="shared" si="1"/>
+        <v>0.99709535256410253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="17">
+        <v>29</v>
+      </c>
+      <c r="D9" s="26">
+        <v>1742</v>
+      </c>
+      <c r="E9" s="26">
+        <v>1023</v>
+      </c>
+      <c r="F9" s="26">
+        <v>623</v>
+      </c>
+      <c r="G9" s="26">
+        <v>1023</v>
+      </c>
+      <c r="H9" s="26">
+        <v>1283</v>
+      </c>
+      <c r="I9" s="26">
+        <v>2555</v>
+      </c>
+      <c r="J9" s="26">
+        <v>843</v>
+      </c>
+      <c r="K9" s="26">
+        <v>1977</v>
+      </c>
+      <c r="L9" s="24">
+        <v>8890</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2">
-        <v>79</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2">
-        <v>29</v>
-      </c>
-      <c r="H6" s="2">
-        <v>79</v>
-      </c>
-      <c r="I6" s="2">
-        <v>19</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2">
-        <v>489</v>
-      </c>
-      <c r="L6" s="2">
-        <v>39</v>
-      </c>
-      <c r="M6" s="2">
-        <v>9</v>
-      </c>
-      <c r="N6" s="3">
-        <v>29</v>
+      <c r="C10" s="15">
+        <v>0.62960000000000005</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.6552</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.62590000000000001</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.64129999999999998</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.62590000000000001</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.64349999999999996</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.58420000000000005</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0.67020000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.64239999999999997</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7">
-        <v>0.58819999999999995</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.60809999999999997</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="7">
-        <v>0.62590000000000001</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0.5706</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0.5696</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0.65300000000000002</v>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="7">
+        <f>C10-C3</f>
+        <v>1.3900000000000023E-2</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" ref="D11:L11" si="2">D10-D3</f>
+        <v>1.5000000000000013E-2</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="2"/>
+        <v>1.319999999999999E-2</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="2"/>
+        <v>0.12739999999999996</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="2"/>
+        <v>-9.9000000000000199E-3</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="2"/>
+        <v>2.9100000000000015E-2</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="2"/>
+        <v>4.7999999999999154E-3</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="2"/>
+        <v>1.1400000000000077E-2</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="2"/>
+        <v>9.1099999999999959E-2</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="2"/>
+        <v>2.1999999999999797E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5">
-        <f>1-C6/C2</f>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="30"/>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="16">
+        <f t="shared" ref="C12:L12" si="3">1-C9/C2</f>
         <v>0.99709535256410253</v>
       </c>
-      <c r="D8" s="5">
-        <f>1-D6/D2</f>
-        <v>0.99208733974358976</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5">
-        <f t="shared" ref="F8:N8" si="0">1-F6/F2</f>
-        <v>0.99909855769230771</v>
-      </c>
-      <c r="G8" s="5">
-        <f t="shared" si="0"/>
-        <v>0.99709535256410253</v>
-      </c>
-      <c r="H8" s="5">
-        <f t="shared" si="0"/>
-        <v>0.99208733974358976</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="0"/>
-        <v>0.99809695512820518</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5">
-        <f t="shared" si="0"/>
-        <v>0.95102163461538458</v>
-      </c>
-      <c r="L8" s="5">
-        <f t="shared" si="0"/>
-        <v>0.99609375</v>
-      </c>
-      <c r="M8" s="5">
-        <f t="shared" si="0"/>
-        <v>0.99909855769230771</v>
-      </c>
-      <c r="N8" s="6">
-        <f t="shared" si="0"/>
-        <v>0.99709535256410253</v>
+      <c r="D12" s="5">
+        <f t="shared" si="3"/>
+        <v>0.82552083333333337</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="3"/>
+        <v>0.89753605769230771</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="3"/>
+        <v>0.93760016025641024</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="3"/>
+        <v>0.89753605769230771</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="3"/>
+        <v>0.87149439102564097</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="3"/>
+        <v>0.74409054487179493</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="3"/>
+        <v>0.91556490384615385</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="3"/>
+        <v>0.80198317307692313</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="3"/>
+        <v>0.10957532051282048</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="3"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="18"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="26">
+        <v>3</v>
+      </c>
+      <c r="D14" s="26">
+        <v>1</v>
+      </c>
+      <c r="E14" s="26">
+        <v>3</v>
+      </c>
+      <c r="F14" s="26">
+        <v>3</v>
+      </c>
+      <c r="G14" s="26">
+        <v>3</v>
+      </c>
+      <c r="H14" s="26">
+        <v>3</v>
+      </c>
+      <c r="I14" s="26">
+        <v>3</v>
+      </c>
+      <c r="J14" s="26">
+        <v>3</v>
+      </c>
+      <c r="K14" s="26">
+        <v>3</v>
+      </c>
+      <c r="L14" s="11">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="19"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="9">
-        <v>-1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="17">
-        <v>29</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1742</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1">
-        <v>1023</v>
-      </c>
-      <c r="G13" s="1">
-        <v>623</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1023</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1283</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1">
-        <v>2555</v>
-      </c>
-      <c r="L13" s="1">
-        <v>843</v>
-      </c>
-      <c r="M13" s="1">
-        <v>1977</v>
-      </c>
-      <c r="N13" s="24">
-        <v>8890</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.62960000000000005</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0.6552</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7">
-        <v>0.62590000000000001</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0.64129999999999998</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0.62590000000000001</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0.62170000000000003</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7">
-        <v>0.64349999999999996</v>
-      </c>
-      <c r="L14" s="7">
-        <v>0.58420000000000005</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="N14" s="8">
-        <v>0.67020000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="5">
-        <f>1-C13/C2</f>
-        <v>0.99709535256410253</v>
-      </c>
-      <c r="D15" s="5">
-        <f>1-D13/D2</f>
-        <v>0.82552083333333337</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5">
-        <f t="shared" ref="F15:N15" si="1">1-F13/F2</f>
-        <v>0.89753605769230771</v>
-      </c>
-      <c r="G15" s="5">
-        <f t="shared" si="1"/>
-        <v>0.93760016025641024</v>
-      </c>
-      <c r="H15" s="5">
-        <f t="shared" si="1"/>
-        <v>0.89753605769230771</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" si="1"/>
-        <v>0.87149439102564097</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5">
-        <f t="shared" si="1"/>
-        <v>0.74409054487179493</v>
-      </c>
-      <c r="L15" s="5">
-        <f t="shared" si="1"/>
-        <v>0.91556490384615385</v>
-      </c>
-      <c r="M15" s="5">
-        <f t="shared" si="1"/>
-        <v>0.80198317307692313</v>
-      </c>
-      <c r="N15" s="6">
-        <f t="shared" si="1"/>
-        <v>0.10957532051282048</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1">
-        <v>3</v>
-      </c>
-      <c r="G17" s="1">
-        <v>3</v>
-      </c>
-      <c r="H17" s="1">
-        <v>3</v>
-      </c>
-      <c r="I17" s="1">
-        <v>3</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1">
-        <v>3</v>
-      </c>
-      <c r="L17" s="1">
-        <v>3</v>
-      </c>
-      <c r="M17" s="1">
-        <v>3</v>
-      </c>
-      <c r="N17" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="26">
         <f>12*768</f>
         <v>9216</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D15" s="26">
         <f>13*768</f>
         <v>9984</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1">
+      <c r="E15" s="26">
         <f>13*768</f>
         <v>9984</v>
       </c>
-      <c r="G18" s="1">
+      <c r="F15" s="26">
         <f>1*768</f>
         <v>768</v>
       </c>
-      <c r="H18" s="1">
+      <c r="G15" s="26">
         <v>9984</v>
       </c>
-      <c r="I18" s="1">
+      <c r="H15" s="26">
         <f>8*768</f>
         <v>6144</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1">
+      <c r="I15" s="26">
         <v>9984</v>
       </c>
-      <c r="L18" s="1">
+      <c r="J15" s="26">
         <f>3*768</f>
         <v>2304</v>
       </c>
-      <c r="M18" s="1">
+      <c r="K15" s="26">
         <v>768</v>
       </c>
-      <c r="N18" s="11">
+      <c r="L15" s="11">
         <v>9984</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="7">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="29"/>
+      <c r="B16" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="7">
         <v>0.74199999999999999</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D16" s="7">
         <v>0.83320000000000005</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7">
+      <c r="E16" s="7">
         <v>0.69989999999999997</v>
       </c>
-      <c r="G19" s="7">
+      <c r="F16" s="7">
         <v>0.56269999999999998</v>
       </c>
-      <c r="H19" s="7">
+      <c r="G16" s="7">
         <v>0.70720000000000005</v>
       </c>
-      <c r="I19" s="7">
+      <c r="H16" s="7">
         <v>0.65049999999999997</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7">
+      <c r="I16" s="7">
         <v>0.73599999999999999</v>
       </c>
-      <c r="L19" s="7">
+      <c r="J16" s="7">
         <v>0.59240000000000004</v>
       </c>
-      <c r="M19" s="7">
+      <c r="K16" s="7">
         <v>0.56269999999999998</v>
       </c>
-      <c r="N19" s="8">
+      <c r="L16" s="8">
         <v>0.73650000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="5">
-        <f>1-C18/C2</f>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="29"/>
+      <c r="B17" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="7">
+        <f>C16-C3</f>
+        <v>0.12629999999999997</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" ref="D17:L17" si="4">D16-D3</f>
+        <v>0.19300000000000006</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="4"/>
+        <v>8.7199999999999944E-2</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="4"/>
+        <v>4.8799999999999955E-2</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="4"/>
+        <v>7.1400000000000019E-2</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="4"/>
+        <v>5.7899999999999952E-2</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="4"/>
+        <v>9.7299999999999942E-2</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="4"/>
+        <v>1.9600000000000062E-2</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" si="4"/>
+        <v>7.8799999999999981E-2</v>
+      </c>
+      <c r="L17" s="8">
+        <f t="shared" si="4"/>
+        <v>6.8500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="30"/>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" ref="C18:L18" si="5">1-C15/C2</f>
         <v>7.6923076923076872E-2</v>
       </c>
-      <c r="D20" s="5">
-        <f>1-D18/D2</f>
+      <c r="D18" s="5">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5">
-        <f t="shared" ref="F20:N20" si="2">1-F18/F2</f>
+      <c r="E18" s="5">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G20" s="5">
-        <f t="shared" si="2"/>
+      <c r="F18" s="5">
+        <f t="shared" si="5"/>
         <v>0.92307692307692313</v>
       </c>
-      <c r="H20" s="5">
-        <f t="shared" si="2"/>
+      <c r="G18" s="5">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I20" s="5">
-        <f t="shared" si="2"/>
+      <c r="H18" s="5">
+        <f t="shared" si="5"/>
         <v>0.38461538461538458</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5">
-        <f t="shared" si="2"/>
+      <c r="I18" s="5">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L20" s="5">
-        <f t="shared" si="2"/>
+      <c r="J18" s="5">
+        <f t="shared" si="5"/>
         <v>0.76923076923076916</v>
       </c>
-      <c r="M20" s="5">
-        <f t="shared" si="2"/>
+      <c r="K18" s="5">
+        <f t="shared" si="5"/>
         <v>0.92307692307692313</v>
       </c>
-      <c r="N20" s="6">
-        <f t="shared" si="2"/>
+      <c r="L18" s="6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="2" t="s">
+      <c r="F19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2" t="s">
+      <c r="H19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="J19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N21" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
-      <c r="B22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N22" s="13" t="s">
-        <v>20</v>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="29"/>
+      <c r="B20" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
-      <c r="B23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="29"/>
+      <c r="B21" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="26">
         <v>0.3</v>
       </c>
-      <c r="L23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N23" s="11">
+      <c r="J21" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="11">
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="1" t="s">
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="29"/>
+      <c r="B22" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="26">
+        <v>29</v>
+      </c>
+      <c r="D22" s="26">
+        <v>99</v>
+      </c>
+      <c r="E22" s="26">
+        <v>49</v>
+      </c>
+      <c r="F22" s="26">
+        <v>9</v>
+      </c>
+      <c r="G22" s="26">
+        <v>199</v>
+      </c>
+      <c r="H22" s="26">
+        <v>199</v>
+      </c>
+      <c r="I22" s="23">
+        <v>399</v>
+      </c>
+      <c r="J22" s="26">
+        <v>99</v>
+      </c>
+      <c r="K22" s="26">
+        <v>9</v>
+      </c>
+      <c r="L22" s="11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="29"/>
+      <c r="B23" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="1">
-        <v>29</v>
-      </c>
-      <c r="D24" s="1">
-        <v>99</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1">
-        <v>49</v>
-      </c>
-      <c r="G24" s="1">
-        <v>9</v>
-      </c>
-      <c r="H24" s="1">
-        <v>199</v>
-      </c>
-      <c r="I24" s="1">
-        <v>199</v>
-      </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="23">
-        <v>399</v>
-      </c>
-      <c r="L24" s="1">
-        <v>99</v>
-      </c>
-      <c r="M24" s="1">
-        <v>9</v>
-      </c>
-      <c r="N24" s="11">
-        <v>29</v>
+      <c r="C23" s="15">
+        <v>0.61380000000000001</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.65149999999999997</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0.61050000000000004</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.5655</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.61119999999999997</v>
+      </c>
+      <c r="I23" s="15">
+        <v>0.63649999999999995</v>
+      </c>
+      <c r="J23" s="15">
+        <v>0.57869999999999999</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0.5655</v>
+      </c>
+      <c r="L23" s="18">
+        <v>0.65559999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0.61380000000000001</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0.65149999999999997</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="7">
-        <v>0.61050000000000004</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0.5655</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0.64600000000000002</v>
-      </c>
-      <c r="I25" s="14">
-        <v>0.61119999999999997</v>
-      </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7">
-        <v>0.63649999999999995</v>
-      </c>
-      <c r="L25" s="7">
-        <v>0.57869999999999999</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0.5655</v>
-      </c>
-      <c r="N25" s="8">
-        <v>0.65559999999999996</v>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="29"/>
+      <c r="B24" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="7">
+        <f>C23-C3</f>
+        <v>-1.9000000000000128E-3</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" ref="D24:K24" si="6">D23-D3</f>
+        <v>1.1299999999999977E-2</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" si="6"/>
+        <v>-2.1999999999999797E-3</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="6"/>
+        <v>5.1599999999999979E-2</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="6"/>
+        <v>1.0199999999999987E-2</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="6"/>
+        <v>1.859999999999995E-2</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="6"/>
+        <v>-2.2000000000000908E-3</v>
+      </c>
+      <c r="J24" s="7">
+        <f t="shared" si="6"/>
+        <v>5.9000000000000163E-3</v>
+      </c>
+      <c r="K24" s="7">
+        <f t="shared" si="6"/>
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="L24" s="8">
+        <f>L23-L3</f>
+        <v>-1.2400000000000078E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
-      <c r="B26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="5">
-        <f>1-C24/C2</f>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="30"/>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="16">
+        <f t="shared" ref="C25:L25" si="7">1-C22/C2</f>
         <v>0.99709535256410253</v>
       </c>
-      <c r="D26" s="5">
-        <f>1-D24/D2</f>
+      <c r="D25" s="16">
+        <f t="shared" si="7"/>
         <v>0.99008413461538458</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5">
-        <f t="shared" ref="F26:N26" si="3">1-F24/F2</f>
+      <c r="E25" s="16">
+        <f t="shared" si="7"/>
         <v>0.99509214743589747</v>
       </c>
-      <c r="G26" s="5">
-        <f t="shared" si="3"/>
+      <c r="F25" s="5">
+        <f t="shared" si="7"/>
         <v>0.99909855769230771</v>
       </c>
-      <c r="H26" s="5">
-        <f t="shared" si="3"/>
+      <c r="G25" s="16">
+        <f t="shared" si="7"/>
         <v>0.98006810897435903</v>
       </c>
-      <c r="I26" s="5">
-        <f t="shared" si="3"/>
+      <c r="H25" s="5">
+        <f t="shared" si="7"/>
         <v>0.98006810897435903</v>
       </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5">
-        <f t="shared" si="3"/>
+      <c r="I25" s="16">
+        <f t="shared" si="7"/>
         <v>0.96003605769230771</v>
       </c>
-      <c r="L26" s="5">
-        <f t="shared" si="3"/>
+      <c r="J25" s="16">
+        <f t="shared" si="7"/>
         <v>0.99008413461538458</v>
       </c>
-      <c r="M26" s="5">
-        <f t="shared" si="3"/>
+      <c r="K25" s="5">
+        <f t="shared" si="7"/>
         <v>0.99909855769230771</v>
       </c>
-      <c r="N26" s="6">
-        <f t="shared" si="3"/>
+      <c r="L25" s="19">
+        <f t="shared" si="7"/>
         <v>0.99709535256410253</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A21:A26"/>
+  <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26079,31 +26380,31 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -26116,8 +26417,8 @@
       <c r="C2" s="21">
         <v>0.94899999999999995</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>17</v>
+      <c r="D2" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -26128,8 +26429,8 @@
       <c r="H2" s="21">
         <v>0.89500000000000002</v>
       </c>
-      <c r="I2" s="30" t="s">
-        <v>18</v>
+      <c r="I2" s="32" t="s">
+        <v>17</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -26140,8 +26441,8 @@
       <c r="M2" s="21">
         <v>0.91100000000000003</v>
       </c>
-      <c r="N2" s="30" t="s">
-        <v>21</v>
+      <c r="N2" s="32" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -26154,7 +26455,7 @@
       <c r="C3" s="21">
         <v>0.84</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="32"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -26164,7 +26465,7 @@
       <c r="H3" s="21">
         <v>0.93100000000000005</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="32"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
@@ -26174,7 +26475,7 @@
       <c r="M3" s="21">
         <v>0.90900000000000003</v>
       </c>
-      <c r="N3" s="30"/>
+      <c r="N3" s="32"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -26186,7 +26487,7 @@
       <c r="C4" s="21">
         <v>0.876</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="32"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -26196,7 +26497,7 @@
       <c r="H4" s="21">
         <v>0.873</v>
       </c>
-      <c r="I4" s="30"/>
+      <c r="I4" s="32"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
@@ -26206,7 +26507,7 @@
       <c r="M4" s="21">
         <v>0.90100000000000002</v>
       </c>
-      <c r="N4" s="30"/>
+      <c r="N4" s="32"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -26218,7 +26519,7 @@
       <c r="C5" s="21">
         <v>0.93600000000000005</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="32"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -26228,7 +26529,7 @@
       <c r="H5" s="21">
         <v>0.83799999999999997</v>
       </c>
-      <c r="I5" s="30"/>
+      <c r="I5" s="32"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
@@ -26238,7 +26539,7 @@
       <c r="M5" s="21">
         <v>0.88400000000000001</v>
       </c>
-      <c r="N5" s="30"/>
+      <c r="N5" s="32"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -26250,7 +26551,7 @@
       <c r="C6" s="21">
         <v>0.97</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="32"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -26260,7 +26561,7 @@
       <c r="H6" s="21">
         <v>0.97799999999999998</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="32"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
@@ -26270,7 +26571,7 @@
       <c r="M6" s="21">
         <v>0.93899999999999995</v>
       </c>
-      <c r="N6" s="30"/>
+      <c r="N6" s="32"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -26282,7 +26583,7 @@
       <c r="C7" s="21">
         <v>0.97199999999999998</v>
       </c>
-      <c r="D7" s="30"/>
+      <c r="D7" s="32"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -26292,7 +26593,7 @@
       <c r="H7" s="21">
         <v>0.97899999999999998</v>
       </c>
-      <c r="I7" s="30"/>
+      <c r="I7" s="32"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
@@ -26302,7 +26603,7 @@
       <c r="M7" s="21">
         <v>0.91700000000000004</v>
       </c>
-      <c r="N7" s="30"/>
+      <c r="N7" s="32"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -26314,7 +26615,7 @@
       <c r="C8" s="21">
         <v>0.97399999999999998</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="32"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -26324,7 +26625,7 @@
       <c r="H8" s="21">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I8" s="30"/>
+      <c r="I8" s="32"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
@@ -26334,7 +26635,7 @@
       <c r="M8" s="21">
         <v>0.92300000000000004</v>
       </c>
-      <c r="N8" s="30"/>
+      <c r="N8" s="32"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -26346,7 +26647,7 @@
       <c r="C9" s="21">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="32"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -26356,7 +26657,7 @@
       <c r="H9" s="21">
         <v>0.96499999999999997</v>
       </c>
-      <c r="I9" s="30"/>
+      <c r="I9" s="32"/>
       <c r="K9" s="1"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
@@ -26372,7 +26673,7 @@
       <c r="C10" s="21">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D10" s="30"/>
+      <c r="D10" s="32"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -26382,7 +26683,7 @@
       <c r="H10" s="21">
         <v>0.94899999999999995</v>
       </c>
-      <c r="I10" s="30"/>
+      <c r="I10" s="32"/>
       <c r="K10" s="1"/>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
@@ -26398,7 +26699,7 @@
       <c r="C11" s="21">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D11" s="30"/>
+      <c r="D11" s="32"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -26408,7 +26709,7 @@
       <c r="H11" s="21">
         <v>0.93</v>
       </c>
-      <c r="I11" s="30"/>
+      <c r="I11" s="32"/>
       <c r="K11" s="1"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
@@ -26424,7 +26725,7 @@
       <c r="C12" s="21">
         <v>0.98099999999999998</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="32"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -26434,7 +26735,7 @@
       <c r="H12" s="21">
         <v>0.91500000000000004</v>
       </c>
-      <c r="I12" s="30"/>
+      <c r="I12" s="32"/>
       <c r="K12" s="1"/>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
@@ -26450,7 +26751,7 @@
       <c r="C13" s="21">
         <v>0.97899999999999998</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="32"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -26460,7 +26761,7 @@
       <c r="H13" s="21">
         <v>0.91500000000000004</v>
       </c>
-      <c r="I13" s="30"/>
+      <c r="I13" s="32"/>
       <c r="K13" s="1"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
@@ -26476,7 +26777,7 @@
       <c r="C14" s="21">
         <v>0.97399999999999998</v>
       </c>
-      <c r="D14" s="30"/>
+      <c r="D14" s="32"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -26486,7 +26787,7 @@
       <c r="H14" s="21">
         <v>0.91900000000000004</v>
       </c>
-      <c r="I14" s="30"/>
+      <c r="I14" s="32"/>
       <c r="K14" s="1"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
@@ -26494,31 +26795,31 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="G33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="L33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -26531,8 +26832,8 @@
       <c r="C34" s="21">
         <v>0.98199999999999998</v>
       </c>
-      <c r="D34" s="30" t="s">
-        <v>22</v>
+      <c r="D34" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -26543,8 +26844,8 @@
       <c r="H34" s="21">
         <v>0.98899999999999999</v>
       </c>
-      <c r="I34" s="30" t="s">
-        <v>23</v>
+      <c r="I34" s="32" t="s">
+        <v>22</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
@@ -26555,8 +26856,8 @@
       <c r="M34" s="21">
         <v>0.99399999999999999</v>
       </c>
-      <c r="N34" s="30" t="s">
-        <v>24</v>
+      <c r="N34" s="32" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -26569,7 +26870,7 @@
       <c r="C35" s="21">
         <v>0.91800000000000004</v>
       </c>
-      <c r="D35" s="30"/>
+      <c r="D35" s="32"/>
       <c r="F35" s="1">
         <v>1</v>
       </c>
@@ -26579,7 +26880,7 @@
       <c r="H35" s="21">
         <v>0.96399999999999997</v>
       </c>
-      <c r="I35" s="30"/>
+      <c r="I35" s="32"/>
       <c r="K35" s="1">
         <v>1</v>
       </c>
@@ -26589,7 +26890,7 @@
       <c r="M35" s="21">
         <v>0.99099999999999999</v>
       </c>
-      <c r="N35" s="30"/>
+      <c r="N35" s="32"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
@@ -26601,7 +26902,7 @@
       <c r="C36" s="21">
         <v>0.91900000000000004</v>
       </c>
-      <c r="D36" s="30"/>
+      <c r="D36" s="32"/>
       <c r="F36" s="1">
         <v>2</v>
       </c>
@@ -26611,7 +26912,7 @@
       <c r="H36" s="21">
         <v>0.97</v>
       </c>
-      <c r="I36" s="30"/>
+      <c r="I36" s="32"/>
       <c r="K36" s="1">
         <v>2</v>
       </c>
@@ -26621,7 +26922,7 @@
       <c r="M36" s="21">
         <v>0.98299999999999998</v>
       </c>
-      <c r="N36" s="30"/>
+      <c r="N36" s="32"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
@@ -26633,7 +26934,7 @@
       <c r="C37" s="21">
         <v>0.97899999999999998</v>
       </c>
-      <c r="D37" s="30"/>
+      <c r="D37" s="32"/>
       <c r="F37" s="1">
         <v>3</v>
       </c>
@@ -26643,7 +26944,7 @@
       <c r="H37" s="21">
         <v>0.96599999999999997</v>
       </c>
-      <c r="I37" s="30"/>
+      <c r="I37" s="32"/>
       <c r="K37" s="1">
         <v>3</v>
       </c>
@@ -26653,7 +26954,7 @@
       <c r="M37" s="21">
         <v>0.98</v>
       </c>
-      <c r="N37" s="30"/>
+      <c r="N37" s="32"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
@@ -26665,7 +26966,7 @@
       <c r="C38" s="21">
         <v>0.97699999999999998</v>
       </c>
-      <c r="D38" s="30"/>
+      <c r="D38" s="32"/>
       <c r="F38" s="1">
         <v>4</v>
       </c>
@@ -26675,7 +26976,7 @@
       <c r="H38" s="21">
         <v>0.96799999999999997</v>
       </c>
-      <c r="I38" s="30"/>
+      <c r="I38" s="32"/>
       <c r="K38" s="1">
         <v>4</v>
       </c>
@@ -26685,7 +26986,7 @@
       <c r="M38" s="21">
         <v>0.97099999999999997</v>
       </c>
-      <c r="N38" s="30"/>
+      <c r="N38" s="32"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
@@ -26697,7 +26998,7 @@
       <c r="C39" s="21">
         <v>0.98199999999999998</v>
       </c>
-      <c r="D39" s="30"/>
+      <c r="D39" s="32"/>
       <c r="F39" s="1">
         <v>5</v>
       </c>
@@ -26707,7 +27008,7 @@
       <c r="H39" s="21">
         <v>0.96699999999999997</v>
       </c>
-      <c r="I39" s="30"/>
+      <c r="I39" s="32"/>
       <c r="K39" s="1">
         <v>5</v>
       </c>
@@ -26717,7 +27018,7 @@
       <c r="M39" s="21">
         <v>0.873</v>
       </c>
-      <c r="N39" s="30"/>
+      <c r="N39" s="32"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
@@ -26729,7 +27030,7 @@
       <c r="C40" s="21">
         <v>0.94399999999999995</v>
       </c>
-      <c r="D40" s="30"/>
+      <c r="D40" s="32"/>
       <c r="F40" s="1">
         <v>6</v>
       </c>
@@ -26739,7 +27040,7 @@
       <c r="H40" s="21">
         <v>0.96399999999999997</v>
       </c>
-      <c r="I40" s="30"/>
+      <c r="I40" s="32"/>
       <c r="K40" s="1">
         <v>6</v>
       </c>
@@ -26749,7 +27050,7 @@
       <c r="M40" s="21">
         <v>0.97899999999999998</v>
       </c>
-      <c r="N40" s="30"/>
+      <c r="N40" s="32"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
@@ -26761,7 +27062,7 @@
       <c r="C41" s="21">
         <v>0.99299999999999999</v>
       </c>
-      <c r="D41" s="30"/>
+      <c r="D41" s="32"/>
       <c r="F41" s="1">
         <v>7</v>
       </c>
@@ -26771,7 +27072,7 @@
       <c r="H41" s="21">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I41" s="30"/>
+      <c r="I41" s="32"/>
       <c r="K41" s="1">
         <v>7</v>
       </c>
@@ -26781,7 +27082,7 @@
       <c r="M41" s="21">
         <v>0.93</v>
       </c>
-      <c r="N41" s="30"/>
+      <c r="N41" s="32"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
@@ -26793,7 +27094,7 @@
       <c r="C42" s="21">
         <v>0.94599999999999995</v>
       </c>
-      <c r="D42" s="30"/>
+      <c r="D42" s="32"/>
       <c r="F42" s="1">
         <v>8</v>
       </c>
@@ -26803,7 +27104,7 @@
       <c r="H42" s="21">
         <v>0.82099999999999995</v>
       </c>
-      <c r="I42" s="30"/>
+      <c r="I42" s="32"/>
       <c r="K42" s="1">
         <v>8</v>
       </c>
@@ -26813,7 +27114,7 @@
       <c r="M42" s="21">
         <v>0.98699999999999999</v>
       </c>
-      <c r="N42" s="30"/>
+      <c r="N42" s="32"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
@@ -26825,7 +27126,7 @@
       <c r="C43" s="21">
         <v>0.98099999999999998</v>
       </c>
-      <c r="D43" s="30"/>
+      <c r="D43" s="32"/>
       <c r="F43" s="1">
         <v>9</v>
       </c>
@@ -26835,7 +27136,7 @@
       <c r="H43" s="21">
         <v>0.82799999999999996</v>
       </c>
-      <c r="I43" s="30"/>
+      <c r="I43" s="32"/>
       <c r="K43" s="1">
         <v>9</v>
       </c>
@@ -26845,7 +27146,7 @@
       <c r="M43" s="21">
         <v>0.93500000000000005</v>
       </c>
-      <c r="N43" s="30"/>
+      <c r="N43" s="32"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
@@ -26857,7 +27158,7 @@
       <c r="C44" s="21">
         <v>0.98399999999999999</v>
       </c>
-      <c r="D44" s="30"/>
+      <c r="D44" s="32"/>
       <c r="F44" s="1">
         <v>10</v>
       </c>
@@ -26867,7 +27168,7 @@
       <c r="H44" s="21">
         <v>0.84099999999999997</v>
       </c>
-      <c r="I44" s="30"/>
+      <c r="I44" s="32"/>
       <c r="K44" s="1">
         <v>10</v>
       </c>
@@ -26877,7 +27178,7 @@
       <c r="M44" s="21">
         <v>0.92500000000000004</v>
       </c>
-      <c r="N44" s="30"/>
+      <c r="N44" s="32"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
@@ -26889,7 +27190,7 @@
       <c r="C45" s="21">
         <v>0.95299999999999996</v>
       </c>
-      <c r="D45" s="30"/>
+      <c r="D45" s="32"/>
       <c r="F45" s="1">
         <v>11</v>
       </c>
@@ -26899,7 +27200,7 @@
       <c r="H45" s="21">
         <v>0.98</v>
       </c>
-      <c r="I45" s="30"/>
+      <c r="I45" s="32"/>
       <c r="K45" s="1">
         <v>11</v>
       </c>
@@ -26909,7 +27210,7 @@
       <c r="M45" s="21">
         <v>0.92400000000000004</v>
       </c>
-      <c r="N45" s="30"/>
+      <c r="N45" s="32"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
@@ -26921,7 +27222,7 @@
       <c r="C46" s="21">
         <v>0.92100000000000004</v>
       </c>
-      <c r="D46" s="30"/>
+      <c r="D46" s="32"/>
       <c r="F46" s="1">
         <v>12</v>
       </c>
@@ -26931,7 +27232,7 @@
       <c r="H46" s="21">
         <v>0.84</v>
       </c>
-      <c r="I46" s="30"/>
+      <c r="I46" s="32"/>
       <c r="K46" s="1">
         <v>12</v>
       </c>
@@ -26941,35 +27242,35 @@
       <c r="M46" s="21">
         <v>0.93300000000000005</v>
       </c>
-      <c r="N46" s="30"/>
+      <c r="N46" s="32"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="G66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="K66" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K66" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="L66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M66" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -26982,8 +27283,8 @@
       <c r="C67" s="21">
         <v>0.77700000000000002</v>
       </c>
-      <c r="D67" s="30" t="s">
-        <v>25</v>
+      <c r="D67" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -26994,8 +27295,8 @@
       <c r="H67" s="21">
         <v>0.75900000000000001</v>
       </c>
-      <c r="I67" s="30" t="s">
-        <v>26</v>
+      <c r="I67" s="32" t="s">
+        <v>25</v>
       </c>
       <c r="K67" s="1">
         <v>0</v>
@@ -27006,8 +27307,8 @@
       <c r="M67" s="21">
         <v>0.89400000000000002</v>
       </c>
-      <c r="N67" s="30" t="s">
-        <v>27</v>
+      <c r="N67" s="32" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -27020,7 +27321,7 @@
       <c r="C68" s="21">
         <v>0.85099999999999998</v>
       </c>
-      <c r="D68" s="30"/>
+      <c r="D68" s="32"/>
       <c r="F68" s="1">
         <v>1</v>
       </c>
@@ -27030,7 +27331,7 @@
       <c r="H68" s="21">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I68" s="30"/>
+      <c r="I68" s="32"/>
       <c r="K68" s="1">
         <v>1</v>
       </c>
@@ -27040,7 +27341,7 @@
       <c r="M68" s="21">
         <v>0.94299999999999995</v>
       </c>
-      <c r="N68" s="30"/>
+      <c r="N68" s="32"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
@@ -27052,7 +27353,7 @@
       <c r="C69" s="21">
         <v>0.93300000000000005</v>
       </c>
-      <c r="D69" s="30"/>
+      <c r="D69" s="32"/>
       <c r="F69" s="1">
         <v>2</v>
       </c>
@@ -27062,7 +27363,7 @@
       <c r="H69" s="21">
         <v>0.81899999999999995</v>
       </c>
-      <c r="I69" s="30"/>
+      <c r="I69" s="32"/>
       <c r="K69" s="1">
         <v>2</v>
       </c>
@@ -27072,7 +27373,7 @@
       <c r="M69" s="21">
         <v>0.97799999999999998</v>
       </c>
-      <c r="N69" s="30"/>
+      <c r="N69" s="32"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
@@ -27084,7 +27385,7 @@
       <c r="C70" s="21">
         <v>0.92700000000000005</v>
       </c>
-      <c r="D70" s="30"/>
+      <c r="D70" s="32"/>
       <c r="F70" s="1">
         <v>3</v>
       </c>
@@ -27094,7 +27395,7 @@
       <c r="H70" s="21">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I70" s="30"/>
+      <c r="I70" s="32"/>
       <c r="K70" s="1">
         <v>3</v>
       </c>
@@ -27104,7 +27405,7 @@
       <c r="M70" s="21">
         <v>0.97499999999999998</v>
       </c>
-      <c r="N70" s="30"/>
+      <c r="N70" s="32"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
@@ -27116,7 +27417,7 @@
       <c r="C71" s="21">
         <v>0.90600000000000003</v>
       </c>
-      <c r="D71" s="30"/>
+      <c r="D71" s="32"/>
       <c r="F71" s="1">
         <v>4</v>
       </c>
@@ -27126,7 +27427,7 @@
       <c r="H71" s="21">
         <v>0.96899999999999997</v>
       </c>
-      <c r="I71" s="30"/>
+      <c r="I71" s="32"/>
       <c r="K71" s="1">
         <v>4</v>
       </c>
@@ -27136,7 +27437,7 @@
       <c r="M71" s="21">
         <v>0.85199999999999998</v>
       </c>
-      <c r="N71" s="30"/>
+      <c r="N71" s="32"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
@@ -27148,7 +27449,7 @@
       <c r="C72" s="21">
         <v>0.92</v>
       </c>
-      <c r="D72" s="30"/>
+      <c r="D72" s="32"/>
       <c r="F72" s="1">
         <v>5</v>
       </c>
@@ -27158,7 +27459,7 @@
       <c r="H72" s="21">
         <v>0.96499999999999997</v>
       </c>
-      <c r="I72" s="30"/>
+      <c r="I72" s="32"/>
       <c r="K72" s="1">
         <v>5</v>
       </c>
@@ -27168,7 +27469,7 @@
       <c r="M72" s="21">
         <v>0.86899999999999999</v>
       </c>
-      <c r="N72" s="30"/>
+      <c r="N72" s="32"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
@@ -27180,7 +27481,7 @@
       <c r="C73" s="21">
         <v>0.96199999999999997</v>
       </c>
-      <c r="D73" s="30"/>
+      <c r="D73" s="32"/>
       <c r="F73" s="1">
         <v>6</v>
       </c>
@@ -27190,7 +27491,7 @@
       <c r="H73" s="21">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I73" s="30"/>
+      <c r="I73" s="32"/>
       <c r="K73" s="1">
         <v>6</v>
       </c>
@@ -27200,7 +27501,7 @@
       <c r="M73" s="21">
         <v>0.876</v>
       </c>
-      <c r="N73" s="30"/>
+      <c r="N73" s="32"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
@@ -27212,7 +27513,7 @@
       <c r="C74" s="21">
         <v>0.82199999999999995</v>
       </c>
-      <c r="D74" s="30"/>
+      <c r="D74" s="32"/>
       <c r="F74" s="1">
         <v>7</v>
       </c>
@@ -27222,7 +27523,7 @@
       <c r="H74" s="21">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I74" s="30"/>
+      <c r="I74" s="32"/>
       <c r="K74" s="1">
         <v>7</v>
       </c>
@@ -27232,7 +27533,7 @@
       <c r="M74" s="21">
         <v>0.89300000000000002</v>
       </c>
-      <c r="N74" s="30"/>
+      <c r="N74" s="32"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
@@ -27244,7 +27545,7 @@
       <c r="C75" s="21">
         <v>0.82399999999999995</v>
       </c>
-      <c r="D75" s="30"/>
+      <c r="D75" s="32"/>
       <c r="F75" s="1">
         <v>8</v>
       </c>
@@ -27254,7 +27555,7 @@
       <c r="H75" s="21">
         <v>0.91800000000000004</v>
       </c>
-      <c r="I75" s="30"/>
+      <c r="I75" s="32"/>
       <c r="K75" s="1">
         <v>8</v>
       </c>
@@ -27264,7 +27565,7 @@
       <c r="M75" s="21">
         <v>0.98799999999999999</v>
       </c>
-      <c r="N75" s="30"/>
+      <c r="N75" s="32"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
@@ -27276,7 +27577,7 @@
       <c r="C76" s="21">
         <v>0.92500000000000004</v>
       </c>
-      <c r="D76" s="30"/>
+      <c r="D76" s="32"/>
       <c r="F76" s="1">
         <v>9</v>
       </c>
@@ -27286,7 +27587,7 @@
       <c r="H76" s="21">
         <v>0.97899999999999998</v>
       </c>
-      <c r="I76" s="30"/>
+      <c r="I76" s="32"/>
       <c r="K76" s="1">
         <v>9</v>
       </c>
@@ -27296,7 +27597,7 @@
       <c r="M76" s="21">
         <v>0.89500000000000002</v>
       </c>
-      <c r="N76" s="30"/>
+      <c r="N76" s="32"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
@@ -27308,7 +27609,7 @@
       <c r="C77" s="21">
         <v>0.83199999999999996</v>
       </c>
-      <c r="D77" s="30"/>
+      <c r="D77" s="32"/>
       <c r="F77" s="1">
         <v>10</v>
       </c>
@@ -27318,7 +27619,7 @@
       <c r="H77" s="21">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I77" s="30"/>
+      <c r="I77" s="32"/>
       <c r="K77" s="1">
         <v>10</v>
       </c>
@@ -27328,7 +27629,7 @@
       <c r="M77" s="21">
         <v>0.98199999999999998</v>
       </c>
-      <c r="N77" s="30"/>
+      <c r="N77" s="32"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
@@ -27340,7 +27641,7 @@
       <c r="C78" s="21">
         <v>0.82899999999999996</v>
       </c>
-      <c r="D78" s="30"/>
+      <c r="D78" s="32"/>
       <c r="F78" s="1">
         <v>11</v>
       </c>
@@ -27350,7 +27651,7 @@
       <c r="H78" s="21">
         <v>0.94899999999999995</v>
       </c>
-      <c r="I78" s="30"/>
+      <c r="I78" s="32"/>
       <c r="K78" s="1">
         <v>11</v>
       </c>
@@ -27360,7 +27661,7 @@
       <c r="M78" s="21">
         <v>0.98099999999999998</v>
       </c>
-      <c r="N78" s="30"/>
+      <c r="N78" s="32"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -27372,7 +27673,7 @@
       <c r="C79" s="21">
         <v>0.95399999999999996</v>
       </c>
-      <c r="D79" s="30"/>
+      <c r="D79" s="32"/>
       <c r="F79" s="1">
         <v>12</v>
       </c>
@@ -27382,7 +27683,7 @@
       <c r="H79" s="21">
         <v>0.99299999999999999</v>
       </c>
-      <c r="I79" s="30"/>
+      <c r="I79" s="32"/>
       <c r="K79" s="1">
         <v>12</v>
       </c>
@@ -27392,35 +27693,35 @@
       <c r="M79" s="21">
         <v>0.95899999999999996</v>
       </c>
-      <c r="N79" s="30"/>
+      <c r="N79" s="32"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="F98" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="G98" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H98" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="K98" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K98" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="L98" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M98" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
@@ -27433,8 +27734,8 @@
       <c r="C99" s="21">
         <v>0.92200000000000004</v>
       </c>
-      <c r="D99" s="30" t="s">
-        <v>28</v>
+      <c r="D99" s="32" t="s">
+        <v>27</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
@@ -27445,8 +27746,8 @@
       <c r="H99" s="21">
         <v>0.874</v>
       </c>
-      <c r="I99" s="30" t="s">
-        <v>29</v>
+      <c r="I99" s="32" t="s">
+        <v>28</v>
       </c>
       <c r="K99" s="1">
         <v>0</v>
@@ -27457,8 +27758,8 @@
       <c r="M99" s="21">
         <v>0.99299999999999999</v>
       </c>
-      <c r="N99" s="30" t="s">
-        <v>30</v>
+      <c r="N99" s="32" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
@@ -27471,7 +27772,7 @@
       <c r="C100" s="21">
         <v>0.91600000000000004</v>
       </c>
-      <c r="D100" s="30"/>
+      <c r="D100" s="32"/>
       <c r="F100" s="1">
         <v>1</v>
       </c>
@@ -27481,7 +27782,7 @@
       <c r="H100" s="21">
         <v>0.89500000000000002</v>
       </c>
-      <c r="I100" s="30"/>
+      <c r="I100" s="32"/>
       <c r="K100" s="1">
         <v>1</v>
       </c>
@@ -27491,7 +27792,7 @@
       <c r="M100" s="21">
         <v>0.98499999999999999</v>
       </c>
-      <c r="N100" s="30"/>
+      <c r="N100" s="32"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
@@ -27503,7 +27804,7 @@
       <c r="C101" s="21">
         <v>0.89200000000000002</v>
       </c>
-      <c r="D101" s="30"/>
+      <c r="D101" s="32"/>
       <c r="F101" s="1">
         <v>2</v>
       </c>
@@ -27513,7 +27814,7 @@
       <c r="H101" s="21">
         <v>0.96299999999999997</v>
       </c>
-      <c r="I101" s="30"/>
+      <c r="I101" s="32"/>
       <c r="K101" s="1">
         <v>2</v>
       </c>
@@ -27523,7 +27824,7 @@
       <c r="M101" s="21">
         <v>0.96699999999999997</v>
       </c>
-      <c r="N101" s="30"/>
+      <c r="N101" s="32"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
@@ -27535,7 +27836,7 @@
       <c r="C102" s="21">
         <v>0.91</v>
       </c>
-      <c r="D102" s="30"/>
+      <c r="D102" s="32"/>
       <c r="F102" s="1">
         <v>3</v>
       </c>
@@ -27545,7 +27846,7 @@
       <c r="H102" s="21">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I102" s="30"/>
+      <c r="I102" s="32"/>
       <c r="K102" s="1">
         <v>3</v>
       </c>
@@ -27555,7 +27856,7 @@
       <c r="M102" s="21">
         <v>0.995</v>
       </c>
-      <c r="N102" s="30"/>
+      <c r="N102" s="32"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
@@ -27567,7 +27868,7 @@
       <c r="C103" s="21">
         <v>0.89800000000000002</v>
       </c>
-      <c r="D103" s="30"/>
+      <c r="D103" s="32"/>
       <c r="F103" s="1">
         <v>4</v>
       </c>
@@ -27577,7 +27878,7 @@
       <c r="H103" s="21">
         <v>0.98399999999999999</v>
       </c>
-      <c r="I103" s="30"/>
+      <c r="I103" s="32"/>
       <c r="K103" s="1">
         <v>4</v>
       </c>
@@ -27587,7 +27888,7 @@
       <c r="M103" s="21">
         <v>0.98699999999999999</v>
       </c>
-      <c r="N103" s="30"/>
+      <c r="N103" s="32"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
@@ -27599,7 +27900,7 @@
       <c r="C104" s="21">
         <v>0.88</v>
       </c>
-      <c r="D104" s="30"/>
+      <c r="D104" s="32"/>
       <c r="F104" s="1">
         <v>5</v>
       </c>
@@ -27609,7 +27910,7 @@
       <c r="H104" s="21">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I104" s="30"/>
+      <c r="I104" s="32"/>
       <c r="K104" s="1">
         <v>5</v>
       </c>
@@ -27619,7 +27920,7 @@
       <c r="M104" s="21">
         <v>0.996</v>
       </c>
-      <c r="N104" s="30"/>
+      <c r="N104" s="32"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
@@ -27631,7 +27932,7 @@
       <c r="C105" s="21">
         <v>0.90400000000000003</v>
       </c>
-      <c r="D105" s="30"/>
+      <c r="D105" s="32"/>
       <c r="F105" s="1">
         <v>6</v>
       </c>
@@ -27641,7 +27942,7 @@
       <c r="H105" s="21">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I105" s="30"/>
+      <c r="I105" s="32"/>
       <c r="K105" s="1">
         <v>6</v>
       </c>
@@ -27651,7 +27952,7 @@
       <c r="M105" s="21">
         <v>0.99299999999999999</v>
       </c>
-      <c r="N105" s="30"/>
+      <c r="N105" s="32"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
@@ -27663,7 +27964,7 @@
       <c r="C106" s="21">
         <v>0.96699999999999997</v>
       </c>
-      <c r="D106" s="30"/>
+      <c r="D106" s="32"/>
       <c r="F106" s="1">
         <v>7</v>
       </c>
@@ -27673,7 +27974,7 @@
       <c r="H106" s="21">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I106" s="30"/>
+      <c r="I106" s="32"/>
       <c r="K106" s="1">
         <v>7</v>
       </c>
@@ -27683,7 +27984,7 @@
       <c r="M106" s="21">
         <v>0.98899999999999999</v>
       </c>
-      <c r="N106" s="30"/>
+      <c r="N106" s="32"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
@@ -27695,7 +27996,7 @@
       <c r="C107" s="21">
         <v>0.97399999999999998</v>
       </c>
-      <c r="D107" s="30"/>
+      <c r="D107" s="32"/>
       <c r="F107" s="1">
         <v>8</v>
       </c>
@@ -27705,7 +28006,7 @@
       <c r="H107" s="21">
         <v>0.98899999999999999</v>
       </c>
-      <c r="I107" s="30"/>
+      <c r="I107" s="32"/>
       <c r="K107" s="1">
         <v>8</v>
       </c>
@@ -27715,7 +28016,7 @@
       <c r="M107" s="21">
         <v>0.96099999999999997</v>
       </c>
-      <c r="N107" s="30"/>
+      <c r="N107" s="32"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
@@ -27727,7 +28028,7 @@
       <c r="C108" s="21">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D108" s="30"/>
+      <c r="D108" s="32"/>
       <c r="F108" s="1">
         <v>9</v>
       </c>
@@ -27737,7 +28038,7 @@
       <c r="H108" s="21">
         <v>0.89900000000000002</v>
       </c>
-      <c r="I108" s="30"/>
+      <c r="I108" s="32"/>
       <c r="K108" s="1">
         <v>9</v>
       </c>
@@ -27747,7 +28048,7 @@
       <c r="M108" s="21">
         <v>0.96</v>
       </c>
-      <c r="N108" s="30"/>
+      <c r="N108" s="32"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
@@ -27759,7 +28060,7 @@
       <c r="C109" s="21">
         <v>0.97699999999999998</v>
       </c>
-      <c r="D109" s="30"/>
+      <c r="D109" s="32"/>
       <c r="F109" s="1">
         <v>10</v>
       </c>
@@ -27769,7 +28070,7 @@
       <c r="H109" s="21">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I109" s="30"/>
+      <c r="I109" s="32"/>
       <c r="K109" s="1">
         <v>10</v>
       </c>
@@ -27779,7 +28080,7 @@
       <c r="M109" s="21">
         <v>0.96399999999999997</v>
       </c>
-      <c r="N109" s="30"/>
+      <c r="N109" s="32"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
@@ -27791,7 +28092,7 @@
       <c r="C110" s="21">
         <v>0.97599999999999998</v>
       </c>
-      <c r="D110" s="30"/>
+      <c r="D110" s="32"/>
       <c r="F110" s="1">
         <v>11</v>
       </c>
@@ -27801,7 +28102,7 @@
       <c r="H110" s="21">
         <v>0.85599999999999998</v>
       </c>
-      <c r="I110" s="30"/>
+      <c r="I110" s="32"/>
       <c r="K110" s="1">
         <v>11</v>
       </c>
@@ -27811,7 +28112,7 @@
       <c r="M110" s="21">
         <v>0.96</v>
       </c>
-      <c r="N110" s="30"/>
+      <c r="N110" s="32"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
@@ -27823,7 +28124,7 @@
       <c r="C111" s="21">
         <v>0.97899999999999998</v>
       </c>
-      <c r="D111" s="30"/>
+      <c r="D111" s="32"/>
       <c r="F111" s="1">
         <v>12</v>
       </c>
@@ -27833,7 +28134,7 @@
       <c r="H111" s="21">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I111" s="30"/>
+      <c r="I111" s="32"/>
       <c r="K111" s="1">
         <v>12</v>
       </c>
@@ -27843,22 +28144,22 @@
       <c r="M111" s="21">
         <v>0.96599999999999997</v>
       </c>
-      <c r="N111" s="30"/>
+      <c r="N111" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D2:D14"/>
+    <mergeCell ref="I2:I14"/>
+    <mergeCell ref="N2:N8"/>
+    <mergeCell ref="D34:D46"/>
+    <mergeCell ref="I34:I46"/>
+    <mergeCell ref="N34:N46"/>
     <mergeCell ref="D67:D79"/>
     <mergeCell ref="I67:I79"/>
     <mergeCell ref="N67:N79"/>
     <mergeCell ref="D99:D111"/>
     <mergeCell ref="I99:I111"/>
     <mergeCell ref="N99:N111"/>
-    <mergeCell ref="D2:D14"/>
-    <mergeCell ref="I2:I14"/>
-    <mergeCell ref="N2:N8"/>
-    <mergeCell ref="D34:D46"/>
-    <mergeCell ref="I34:I46"/>
-    <mergeCell ref="N34:N46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -27869,7 +28170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD302C83-6A19-1746-8058-E37651EDB290}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
@@ -27880,31 +28181,31 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.25">
@@ -27917,8 +28218,8 @@
       <c r="C2" s="25">
         <v>0.66666700000000001</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>27</v>
+      <c r="D2" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -27929,8 +28230,8 @@
       <c r="H2" s="25">
         <v>0</v>
       </c>
-      <c r="I2" s="30" t="s">
-        <v>30</v>
+      <c r="I2" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="L2" s="1">
         <v>0</v>
@@ -27941,8 +28242,8 @@
       <c r="N2" s="25">
         <v>0.66666700000000001</v>
       </c>
-      <c r="O2" s="30" t="s">
-        <v>18</v>
+      <c r="O2" s="32" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.25">
@@ -27955,7 +28256,7 @@
       <c r="C3" s="25">
         <v>0.51964299999999997</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="32"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -27965,7 +28266,7 @@
       <c r="H3" s="25">
         <v>9.1979999999999996E-3</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="32"/>
       <c r="L3" s="1">
         <v>1</v>
       </c>
@@ -27975,7 +28276,7 @@
       <c r="N3" s="25">
         <v>0.61618799999999996</v>
       </c>
-      <c r="O3" s="30"/>
+      <c r="O3" s="32"/>
     </row>
     <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -27987,7 +28288,7 @@
       <c r="C4" s="25">
         <v>0.54270200000000002</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="32"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -27997,7 +28298,7 @@
       <c r="H4" s="25">
         <v>0.66666700000000001</v>
       </c>
-      <c r="I4" s="30"/>
+      <c r="I4" s="32"/>
       <c r="L4" s="1">
         <v>2</v>
       </c>
@@ -28007,7 +28308,7 @@
       <c r="N4" s="25">
         <v>8.9940999999999993E-2</v>
       </c>
-      <c r="O4" s="30"/>
+      <c r="O4" s="32"/>
     </row>
     <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -28019,7 +28320,7 @@
       <c r="C5" s="25">
         <v>0.58758500000000002</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="32"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -28029,7 +28330,7 @@
       <c r="H5" s="25">
         <v>0.66666700000000001</v>
       </c>
-      <c r="I5" s="30"/>
+      <c r="I5" s="32"/>
       <c r="L5" s="1">
         <v>3</v>
       </c>
@@ -28039,7 +28340,7 @@
       <c r="N5" s="25">
         <v>0</v>
       </c>
-      <c r="O5" s="30"/>
+      <c r="O5" s="32"/>
     </row>
     <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -28051,7 +28352,7 @@
       <c r="C6" s="25">
         <v>0.59606400000000004</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="32"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -28061,7 +28362,7 @@
       <c r="H6" s="25">
         <v>0</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="32"/>
       <c r="L6" s="1">
         <v>4</v>
       </c>
@@ -28071,7 +28372,7 @@
       <c r="N6" s="25">
         <v>0</v>
       </c>
-      <c r="O6" s="30"/>
+      <c r="O6" s="32"/>
     </row>
     <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -28083,7 +28384,7 @@
       <c r="C7" s="25">
         <v>0.63406600000000002</v>
       </c>
-      <c r="D7" s="30"/>
+      <c r="D7" s="32"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -28093,7 +28394,7 @@
       <c r="H7" s="25">
         <v>0</v>
       </c>
-      <c r="I7" s="30"/>
+      <c r="I7" s="32"/>
       <c r="L7" s="1">
         <v>5</v>
       </c>
@@ -28103,7 +28404,7 @@
       <c r="N7" s="25">
         <v>0</v>
       </c>
-      <c r="O7" s="30"/>
+      <c r="O7" s="32"/>
     </row>
     <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -28115,7 +28416,7 @@
       <c r="C8" s="25">
         <v>0.63100100000000003</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="32"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -28125,7 +28426,7 @@
       <c r="H8" s="25">
         <v>0</v>
       </c>
-      <c r="I8" s="30"/>
+      <c r="I8" s="32"/>
       <c r="L8" s="1">
         <v>6</v>
       </c>
@@ -28135,7 +28436,7 @@
       <c r="N8" s="25">
         <v>1.853E-3</v>
       </c>
-      <c r="O8" s="30"/>
+      <c r="O8" s="32"/>
     </row>
     <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -28147,7 +28448,7 @@
       <c r="C9" s="25">
         <v>0.62990500000000005</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="32"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -28157,7 +28458,7 @@
       <c r="H9" s="25">
         <v>0</v>
       </c>
-      <c r="I9" s="30"/>
+      <c r="I9" s="32"/>
       <c r="L9" s="1">
         <v>7</v>
       </c>
@@ -28167,7 +28468,7 @@
       <c r="N9" s="25">
         <v>4.8050000000000002E-3</v>
       </c>
-      <c r="O9" s="30"/>
+      <c r="O9" s="32"/>
     </row>
     <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -28179,7 +28480,7 @@
       <c r="C10" s="25">
         <v>0.62997499999999995</v>
       </c>
-      <c r="D10" s="30"/>
+      <c r="D10" s="32"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -28189,7 +28490,7 @@
       <c r="H10" s="25">
         <v>0</v>
       </c>
-      <c r="I10" s="30"/>
+      <c r="I10" s="32"/>
       <c r="L10" s="1">
         <v>8</v>
       </c>
@@ -28199,7 +28500,7 @@
       <c r="N10" s="25">
         <v>9.9369999999999997E-3</v>
       </c>
-      <c r="O10" s="30"/>
+      <c r="O10" s="32"/>
     </row>
     <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -28211,7 +28512,7 @@
       <c r="C11" s="25">
         <v>0.629741</v>
       </c>
-      <c r="D11" s="30"/>
+      <c r="D11" s="32"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -28221,7 +28522,7 @@
       <c r="H11" s="25">
         <v>0</v>
       </c>
-      <c r="I11" s="30"/>
+      <c r="I11" s="32"/>
       <c r="L11" s="1">
         <v>9</v>
       </c>
@@ -28231,7 +28532,7 @@
       <c r="N11" s="25">
         <v>7.0303000000000004E-2</v>
       </c>
-      <c r="O11" s="30"/>
+      <c r="O11" s="32"/>
     </row>
     <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -28243,7 +28544,7 @@
       <c r="C12" s="25">
         <v>0.62902800000000003</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="32"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -28253,7 +28554,7 @@
       <c r="H12" s="25">
         <v>0</v>
       </c>
-      <c r="I12" s="30"/>
+      <c r="I12" s="32"/>
       <c r="L12" s="1">
         <v>10</v>
       </c>
@@ -28263,7 +28564,7 @@
       <c r="N12" s="25">
         <v>0.25535999999999998</v>
       </c>
-      <c r="O12" s="30"/>
+      <c r="O12" s="32"/>
     </row>
     <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -28275,7 +28576,7 @@
       <c r="C13" s="25">
         <v>0.65797799999999995</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="32"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -28285,7 +28586,7 @@
       <c r="H13" s="25">
         <v>0</v>
       </c>
-      <c r="I13" s="30"/>
+      <c r="I13" s="32"/>
       <c r="L13" s="1">
         <v>11</v>
       </c>
@@ -28295,7 +28596,7 @@
       <c r="N13" s="25">
         <v>0.30926500000000001</v>
       </c>
-      <c r="O13" s="30"/>
+      <c r="O13" s="32"/>
     </row>
     <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -28307,7 +28608,7 @@
       <c r="C14" s="25">
         <v>0.57034200000000002</v>
       </c>
-      <c r="D14" s="30"/>
+      <c r="D14" s="32"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -28317,7 +28618,7 @@
       <c r="H14" s="25">
         <v>0.212117</v>
       </c>
-      <c r="I14" s="30"/>
+      <c r="I14" s="32"/>
       <c r="L14" s="1">
         <v>12</v>
       </c>
@@ -28327,7 +28628,7 @@
       <c r="N14" s="25">
         <v>0.25233499999999998</v>
       </c>
-      <c r="O14" s="30"/>
+      <c r="O14" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -28356,31 +28657,31 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.25">
@@ -28393,8 +28694,8 @@
       <c r="C2" s="25">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>18</v>
+      <c r="D2" s="32" t="s">
+        <v>17</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -28405,8 +28706,8 @@
       <c r="H2" s="25">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I2" s="30" t="s">
-        <v>30</v>
+      <c r="I2" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -28417,8 +28718,8 @@
       <c r="M2" s="25">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N2" s="30" t="s">
-        <v>27</v>
+      <c r="N2" s="32" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.25">
@@ -28431,7 +28732,7 @@
       <c r="C3" s="25">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="32"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -28441,7 +28742,7 @@
       <c r="H3" s="25">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="32"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
@@ -28451,7 +28752,7 @@
       <c r="M3" s="25">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N3" s="30"/>
+      <c r="N3" s="32"/>
     </row>
     <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -28463,7 +28764,7 @@
       <c r="C4" s="25">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="32"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -28473,7 +28774,7 @@
       <c r="H4" s="25">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I4" s="30"/>
+      <c r="I4" s="32"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
@@ -28483,7 +28784,7 @@
       <c r="M4" s="25">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N4" s="30"/>
+      <c r="N4" s="32"/>
     </row>
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -28495,7 +28796,7 @@
       <c r="C5" s="25">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="32"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -28505,7 +28806,7 @@
       <c r="H5" s="25">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I5" s="30"/>
+      <c r="I5" s="32"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
@@ -28515,7 +28816,7 @@
       <c r="M5" s="25">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N5" s="30"/>
+      <c r="N5" s="32"/>
     </row>
     <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -28527,7 +28828,7 @@
       <c r="C6" s="25">
         <v>0.480132</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="32"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -28537,7 +28838,7 @@
       <c r="H6" s="25">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="32"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
@@ -28547,7 +28848,7 @@
       <c r="M6" s="25">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N6" s="30"/>
+      <c r="N6" s="32"/>
     </row>
     <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -28559,7 +28860,7 @@
       <c r="C7" s="25">
         <v>0.46854299999999999</v>
       </c>
-      <c r="D7" s="30"/>
+      <c r="D7" s="32"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -28569,7 +28870,7 @@
       <c r="H7" s="25">
         <v>0.480132</v>
       </c>
-      <c r="I7" s="30"/>
+      <c r="I7" s="32"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
@@ -28579,7 +28880,7 @@
       <c r="M7" s="25">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N7" s="30"/>
+      <c r="N7" s="32"/>
     </row>
     <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -28591,7 +28892,7 @@
       <c r="C8" s="25">
         <v>0.47682099999999999</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="32"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -28601,7 +28902,7 @@
       <c r="H8" s="25">
         <v>0.49337700000000001</v>
       </c>
-      <c r="I8" s="30"/>
+      <c r="I8" s="32"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
@@ -28611,7 +28912,7 @@
       <c r="M8" s="25">
         <v>0.48344399999999998</v>
       </c>
-      <c r="N8" s="30"/>
+      <c r="N8" s="32"/>
     </row>
     <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -28623,7 +28924,7 @@
       <c r="C9" s="25">
         <v>0.480132</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="32"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -28633,7 +28934,7 @@
       <c r="H9" s="25">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I9" s="30"/>
+      <c r="I9" s="32"/>
       <c r="K9" s="1">
         <v>7</v>
       </c>
@@ -28643,7 +28944,7 @@
       <c r="M9" s="25">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N9" s="30"/>
+      <c r="N9" s="32"/>
     </row>
     <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -28655,7 +28956,7 @@
       <c r="C10" s="25">
         <v>0.480132</v>
       </c>
-      <c r="D10" s="30"/>
+      <c r="D10" s="32"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -28665,7 +28966,7 @@
       <c r="H10" s="25">
         <v>0.480132</v>
       </c>
-      <c r="I10" s="30"/>
+      <c r="I10" s="32"/>
       <c r="K10" s="1">
         <v>8</v>
       </c>
@@ -28675,7 +28976,7 @@
       <c r="M10" s="25">
         <v>0.47847699999999999</v>
       </c>
-      <c r="N10" s="30"/>
+      <c r="N10" s="32"/>
     </row>
     <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -28687,7 +28988,7 @@
       <c r="C11" s="25">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D11" s="30"/>
+      <c r="D11" s="32"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -28697,7 +28998,7 @@
       <c r="H11" s="25">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I11" s="30"/>
+      <c r="I11" s="32"/>
       <c r="K11" s="1">
         <v>9</v>
       </c>
@@ -28707,7 +29008,7 @@
       <c r="M11" s="25">
         <v>0.47682099999999999</v>
       </c>
-      <c r="N11" s="30"/>
+      <c r="N11" s="32"/>
     </row>
     <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -28719,7 +29020,7 @@
       <c r="C12" s="25">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="32"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -28729,7 +29030,7 @@
       <c r="H12" s="25">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I12" s="30"/>
+      <c r="I12" s="32"/>
       <c r="K12" s="1">
         <v>10</v>
       </c>
@@ -28739,7 +29040,7 @@
       <c r="M12" s="25">
         <v>0.47682099999999999</v>
       </c>
-      <c r="N12" s="30"/>
+      <c r="N12" s="32"/>
     </row>
     <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -28751,7 +29052,7 @@
       <c r="C13" s="25">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="32"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -28761,7 +29062,7 @@
       <c r="H13" s="25">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I13" s="30"/>
+      <c r="I13" s="32"/>
       <c r="K13" s="1">
         <v>11</v>
       </c>
@@ -28771,7 +29072,7 @@
       <c r="M13" s="25">
         <v>0.52152299999999996</v>
       </c>
-      <c r="N13" s="30"/>
+      <c r="N13" s="32"/>
     </row>
     <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -28783,7 +29084,7 @@
       <c r="C14" s="25">
         <v>0.47516599999999998</v>
       </c>
-      <c r="D14" s="30"/>
+      <c r="D14" s="32"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -28793,7 +29094,7 @@
       <c r="H14" s="25">
         <v>0.48675499999999999</v>
       </c>
-      <c r="I14" s="30"/>
+      <c r="I14" s="32"/>
       <c r="K14" s="1">
         <v>12</v>
       </c>
@@ -28803,7 +29104,7 @@
       <c r="M14" s="25">
         <v>0.50331099999999995</v>
       </c>
-      <c r="N14" s="30"/>
+      <c r="N14" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -28828,31 +29129,31 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.25">
@@ -28865,8 +29166,8 @@
       <c r="C2" s="25">
         <v>0.56552000000000002</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>18</v>
+      <c r="D2" s="32" t="s">
+        <v>17</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -28877,8 +29178,8 @@
       <c r="H2" s="25">
         <v>0.56552000000000002</v>
       </c>
-      <c r="I2" s="30" t="s">
-        <v>27</v>
+      <c r="I2" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -28889,8 +29190,8 @@
       <c r="M2" s="25">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N2" s="30" t="s">
-        <v>30</v>
+      <c r="N2" s="32" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.25">
@@ -28903,7 +29204,7 @@
       <c r="C3" s="25">
         <v>0.569546</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="32"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -28913,7 +29214,7 @@
       <c r="H3" s="25">
         <v>0.56991199999999997</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="32"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
@@ -28923,7 +29224,7 @@
       <c r="M3" s="25">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N3" s="30"/>
+      <c r="N3" s="32"/>
     </row>
     <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -28935,7 +29236,7 @@
       <c r="C4" s="25">
         <v>0.567716</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="32"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -28945,7 +29246,7 @@
       <c r="H4" s="25">
         <v>0.56881400000000004</v>
       </c>
-      <c r="I4" s="30"/>
+      <c r="I4" s="32"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
@@ -28955,7 +29256,7 @@
       <c r="M4" s="25">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N4" s="30"/>
+      <c r="N4" s="32"/>
     </row>
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -28967,7 +29268,7 @@
       <c r="C5" s="25">
         <v>0.58894599999999997</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="32"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -28977,7 +29278,7 @@
       <c r="H5" s="25">
         <v>0.58308899999999997</v>
       </c>
-      <c r="I5" s="30"/>
+      <c r="I5" s="32"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
@@ -28987,7 +29288,7 @@
       <c r="M5" s="25">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N5" s="30"/>
+      <c r="N5" s="32"/>
     </row>
     <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -28999,7 +29300,7 @@
       <c r="C6" s="25">
         <v>0.60175699999999999</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="32"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -29009,7 +29310,7 @@
       <c r="H6" s="25">
         <v>0.60651500000000003</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="32"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
@@ -29019,7 +29320,7 @@
       <c r="M6" s="25">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N6" s="30"/>
+      <c r="N6" s="32"/>
     </row>
     <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -29031,7 +29332,7 @@
       <c r="C7" s="25">
         <v>0.61712999999999996</v>
       </c>
-      <c r="D7" s="30"/>
+      <c r="D7" s="32"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -29041,7 +29342,7 @@
       <c r="H7" s="25">
         <v>0.61786200000000002</v>
       </c>
-      <c r="I7" s="30"/>
+      <c r="I7" s="32"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
@@ -29051,7 +29352,7 @@
       <c r="M7" s="25">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N7" s="30"/>
+      <c r="N7" s="32"/>
     </row>
     <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -29063,7 +29364,7 @@
       <c r="C8" s="25">
         <v>0.620425</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="32"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -29073,7 +29374,7 @@
       <c r="H8" s="25">
         <v>0.61090800000000001</v>
       </c>
-      <c r="I8" s="30"/>
+      <c r="I8" s="32"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
@@ -29083,7 +29384,7 @@
       <c r="M8" s="25">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N8" s="30"/>
+      <c r="N8" s="32"/>
     </row>
     <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -29095,7 +29396,7 @@
       <c r="C9" s="25">
         <v>0.633602</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="32"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -29105,7 +29406,7 @@
       <c r="H9" s="25">
         <v>0.61786200000000002</v>
       </c>
-      <c r="I9" s="30"/>
+      <c r="I9" s="32"/>
       <c r="K9" s="1">
         <v>7</v>
       </c>
@@ -29115,7 +29416,7 @@
       <c r="M9" s="25">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N9" s="30"/>
+      <c r="N9" s="32"/>
     </row>
     <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -29127,7 +29428,7 @@
       <c r="C10" s="25">
         <v>0.62847699999999995</v>
       </c>
-      <c r="D10" s="30"/>
+      <c r="D10" s="32"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -29137,7 +29438,7 @@
       <c r="H10" s="25">
         <v>0.620425</v>
       </c>
-      <c r="I10" s="30"/>
+      <c r="I10" s="32"/>
       <c r="K10" s="1">
         <v>8</v>
       </c>
@@ -29147,7 +29448,7 @@
       <c r="M10" s="25">
         <v>0.57906299999999999</v>
       </c>
-      <c r="N10" s="30"/>
+      <c r="N10" s="32"/>
     </row>
     <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -29159,7 +29460,7 @@
       <c r="C11" s="25">
         <v>0.62664699999999995</v>
       </c>
-      <c r="D11" s="30"/>
+      <c r="D11" s="32"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -29169,7 +29470,7 @@
       <c r="H11" s="25">
         <v>0.61712999999999996</v>
       </c>
-      <c r="I11" s="30"/>
+      <c r="I11" s="32"/>
       <c r="K11" s="1">
         <v>9</v>
       </c>
@@ -29179,7 +29480,7 @@
       <c r="M11" s="25">
         <v>0.58491899999999997</v>
       </c>
-      <c r="N11" s="30"/>
+      <c r="N11" s="32"/>
     </row>
     <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -29191,7 +29492,7 @@
       <c r="C12" s="25">
         <v>0.63250399999999996</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="32"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -29201,7 +29502,7 @@
       <c r="H12" s="25">
         <v>0.62005900000000003</v>
       </c>
-      <c r="I12" s="30"/>
+      <c r="I12" s="32"/>
       <c r="K12" s="1">
         <v>10</v>
       </c>
@@ -29211,7 +29512,7 @@
       <c r="M12" s="25">
         <v>0.59553400000000001</v>
       </c>
-      <c r="N12" s="30"/>
+      <c r="N12" s="32"/>
     </row>
     <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -29223,7 +29524,7 @@
       <c r="C13" s="25">
         <v>0.63689600000000002</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="32"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -29233,7 +29534,7 @@
       <c r="H13" s="25">
         <v>0.62884300000000004</v>
       </c>
-      <c r="I13" s="30"/>
+      <c r="I13" s="32"/>
       <c r="K13" s="1">
         <v>11</v>
       </c>
@@ -29243,7 +29544,7 @@
       <c r="M13" s="25">
         <v>0.64055600000000001</v>
       </c>
-      <c r="N13" s="30"/>
+      <c r="N13" s="32"/>
     </row>
     <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -29255,7 +29556,7 @@
       <c r="C14" s="25">
         <v>0.64019000000000004</v>
       </c>
-      <c r="D14" s="30"/>
+      <c r="D14" s="32"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -29265,7 +29566,7 @@
       <c r="H14" s="25">
         <v>0.63872600000000002</v>
       </c>
-      <c r="I14" s="30"/>
+      <c r="I14" s="32"/>
       <c r="K14" s="1">
         <v>12</v>
       </c>
@@ -29275,7 +29576,7 @@
       <c r="M14" s="25">
         <v>0.66800899999999996</v>
       </c>
-      <c r="N14" s="30"/>
+      <c r="N14" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/POS Code/Experiments/attachments/detailed_results.xlsx
+++ b/POS Code/Experiments/attachments/detailed_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF221A14-CC88-DE4A-97C7-F0DB7E734634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3293BA3-223F-144A-9F38-7EBDB4292E35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3760" yWindow="2700" windowWidth="27540" windowHeight="17700" xr2:uid="{BEC22610-DBDE-49A5-ABDC-7DB261D6BA7F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="57">
   <si>
     <t>Selection</t>
   </si>
@@ -93,9 +93,6 @@
     <t>CodeBERT</t>
   </si>
   <si>
-    <t>Layer 4</t>
-  </si>
-  <si>
     <t>2-1</t>
   </si>
   <si>
@@ -129,19 +126,7 @@
     <t>UniXCoder</t>
   </si>
   <si>
-    <t>Layer 1</t>
-  </si>
-  <si>
     <t>3-1</t>
-  </si>
-  <si>
-    <t>Layer 0</t>
-  </si>
-  <si>
-    <t>Layer 8</t>
-  </si>
-  <si>
-    <t>Layer 7</t>
   </si>
   <si>
     <t>1-1</t>
@@ -178,6 +163,51 @@
   </si>
   <si>
     <t>Diff.</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>0- 4</t>
+  </si>
+  <si>
+    <t>0- 0</t>
+  </si>
+  <si>
+    <t>0-7</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>Cba</t>
+  </si>
+  <si>
+    <t>CGJ</t>
+  </si>
+  <si>
+    <t>CGJA</t>
+  </si>
+  <si>
+    <t>CGP</t>
+  </si>
+  <si>
+    <t>CGPA</t>
+  </si>
+  <si>
+    <t>GCB</t>
+  </si>
+  <si>
+    <t>JB</t>
+  </si>
+  <si>
+    <t>Rba</t>
+  </si>
+  <si>
+    <t>UC</t>
   </si>
 </sst>
 </file>
@@ -310,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -351,9 +381,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -391,6 +418,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -404,9 +434,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -23919,7 +23946,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23949,42 +23976,42 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -24035,37 +24062,37 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="D3" s="5">
-        <v>0.91400000000000003</v>
+        <v>0.91459999999999997</v>
       </c>
       <c r="E3" s="5">
-        <v>0.94199999999999995</v>
+        <v>0.94220000000000004</v>
       </c>
       <c r="F3" s="5">
         <v>0.98399999999999999</v>
       </c>
       <c r="G3" s="5">
-        <v>0.873</v>
+        <v>0.87309999999999999</v>
       </c>
       <c r="H3" s="5">
-        <v>0.92300000000000004</v>
+        <v>0.92310000000000003</v>
       </c>
       <c r="I3" s="5">
-        <v>0.83599999999999997</v>
+        <v>0.83579999999999999</v>
       </c>
       <c r="J3" s="5">
-        <v>0.91200000000000003</v>
+        <v>0.91190000000000004</v>
       </c>
       <c r="K3" s="5">
-        <v>0.89300000000000002</v>
+        <v>0.89290000000000003</v>
       </c>
       <c r="L3" s="5">
-        <v>0.98099999999999998</v>
+        <v>0.98129999999999995</v>
       </c>
       <c r="M3" s="5">
-        <v>0.99</v>
+        <v>0.99029999999999996</v>
       </c>
       <c r="N3" s="6">
-        <v>0.96</v>
+        <v>0.96009999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -24203,37 +24230,37 @@
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="15">
-        <v>0.97099999999999997</v>
+      <c r="C7" s="14">
+        <v>0.97050000000000003</v>
       </c>
       <c r="D7" s="7">
-        <v>0.94</v>
+        <v>0.93959999999999999</v>
       </c>
       <c r="E7" s="7">
         <v>0.93100000000000005</v>
       </c>
       <c r="F7" s="7">
-        <v>0.93799999999999994</v>
+        <v>0.93810000000000004</v>
       </c>
       <c r="G7" s="7">
-        <v>0.88500000000000001</v>
+        <v>0.8851</v>
       </c>
       <c r="H7" s="7">
-        <v>0.91800000000000004</v>
+        <v>0.91830000000000001</v>
       </c>
       <c r="I7" s="7">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="K7" s="15">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="K7" s="14">
         <v>0.95899999999999996</v>
       </c>
-      <c r="L7" s="15">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="M7" s="15">
+      <c r="L7" s="14">
+        <v>0.97540000000000004</v>
+      </c>
+      <c r="M7" s="14">
         <v>0.98399999999999999</v>
       </c>
       <c r="N7" s="8">
@@ -24242,56 +24269,56 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
-      <c r="B8" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="33">
+      <c r="B8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="27">
         <f>C7-C3</f>
-        <v>-4.0000000000000036E-3</v>
-      </c>
-      <c r="D8" s="33">
+        <v>-4.4999999999999485E-3</v>
+      </c>
+      <c r="D8" s="27">
         <f t="shared" ref="D8:N8" si="0">D7-D3</f>
-        <v>2.5999999999999912E-2</v>
-      </c>
-      <c r="E8" s="33">
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="E8" s="27">
         <f t="shared" si="0"/>
-        <v>-1.0999999999999899E-2</v>
-      </c>
-      <c r="F8" s="33">
+        <v>-1.1199999999999988E-2</v>
+      </c>
+      <c r="F8" s="27">
         <f t="shared" si="0"/>
-        <v>-4.6000000000000041E-2</v>
-      </c>
-      <c r="G8" s="33">
+        <v>-4.5899999999999941E-2</v>
+      </c>
+      <c r="G8" s="27">
         <f t="shared" si="0"/>
         <v>1.2000000000000011E-2</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="27">
         <f t="shared" si="0"/>
-        <v>-5.0000000000000044E-3</v>
-      </c>
-      <c r="I8" s="33">
+        <v>-4.8000000000000265E-3</v>
+      </c>
+      <c r="I8" s="27">
         <f t="shared" si="0"/>
-        <v>-3.0000000000000027E-3</v>
-      </c>
-      <c r="J8" s="33">
+        <v>-1.8000000000000238E-3</v>
+      </c>
+      <c r="J8" s="27">
         <f t="shared" si="0"/>
-        <v>6.4999999999999947E-2</v>
-      </c>
-      <c r="K8" s="33">
+        <v>6.5299999999999914E-2</v>
+      </c>
+      <c r="K8" s="27">
         <f t="shared" si="0"/>
-        <v>6.5999999999999948E-2</v>
-      </c>
-      <c r="L8" s="33">
+        <v>6.6099999999999937E-2</v>
+      </c>
+      <c r="L8" s="27">
         <f t="shared" si="0"/>
-        <v>-6.0000000000000053E-3</v>
-      </c>
-      <c r="M8" s="33">
+        <v>-5.8999999999999053E-3</v>
+      </c>
+      <c r="M8" s="27">
         <f t="shared" si="0"/>
-        <v>-6.0000000000000053E-3</v>
-      </c>
-      <c r="N8" s="33">
+        <v>-6.2999999999999723E-3</v>
+      </c>
+      <c r="N8" s="27">
         <f t="shared" si="0"/>
-        <v>-1.6000000000000014E-2</v>
+        <v>-1.6100000000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -24299,41 +24326,41 @@
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="16">
-        <v>0.98299999999999998</v>
+      <c r="C9" s="15">
+        <v>0.98309999999999997</v>
       </c>
       <c r="D9" s="5">
-        <v>0.998</v>
+        <v>0.99809999999999999</v>
       </c>
       <c r="E9" s="5">
-        <v>0.99</v>
+        <v>0.99009999999999998</v>
       </c>
       <c r="F9" s="5">
-        <v>0.995</v>
+        <v>0.99509999999999998</v>
       </c>
       <c r="G9" s="5">
-        <v>0.97</v>
+        <v>0.97009999999999996</v>
       </c>
       <c r="H9" s="5">
-        <v>0.99199999999999999</v>
+        <v>0.99209999999999998</v>
       </c>
       <c r="I9" s="5">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="J9" s="16">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="K9" s="16">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="L9" s="16">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="M9" s="16">
-        <v>0.97699999999999998</v>
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="L9" s="15">
+        <v>0.98109999999999997</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0.97709999999999997</v>
       </c>
       <c r="N9" s="6">
-        <v>0.996</v>
+        <v>0.99609999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -24385,93 +24412,93 @@
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="15">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="D11" s="15">
-        <v>0.96899999999999997</v>
+      <c r="C11" s="14">
+        <v>0.96309999999999996</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.96940000000000004</v>
       </c>
       <c r="E11" s="7">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="F11" s="15">
-        <v>0.97299999999999998</v>
+        <v>0.9456</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0.9728</v>
       </c>
       <c r="G11" s="7">
         <v>0.878</v>
       </c>
       <c r="H11" s="7">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="I11" s="15">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="J11" s="15">
-        <v>0.97599999999999998</v>
+        <v>0.9889</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0.97570000000000001</v>
       </c>
       <c r="K11" s="7">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="L11" s="15">
-        <v>0.97099999999999997</v>
+        <v>0.84809999999999997</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0.97089999999999999</v>
       </c>
       <c r="M11" s="7">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="N11" s="18">
-        <v>0.96299999999999997</v>
+        <v>0.82950000000000002</v>
+      </c>
+      <c r="N11" s="17">
+        <v>0.96309999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
-      <c r="B12" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="33">
+      <c r="B12" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="27">
         <f>C11-C3</f>
-        <v>-1.2000000000000011E-2</v>
-      </c>
-      <c r="D12" s="33">
+        <v>-1.1900000000000022E-2</v>
+      </c>
+      <c r="D12" s="27">
         <f t="shared" ref="D12:N12" si="1">D11-D3</f>
-        <v>5.4999999999999938E-2</v>
-      </c>
-      <c r="E12" s="33">
+        <v>5.4800000000000071E-2</v>
+      </c>
+      <c r="E12" s="27">
         <f t="shared" si="1"/>
-        <v>4.0000000000000036E-3</v>
-      </c>
-      <c r="F12" s="33">
+        <v>3.3999999999999586E-3</v>
+      </c>
+      <c r="F12" s="27">
         <f t="shared" si="1"/>
-        <v>-1.100000000000001E-2</v>
-      </c>
-      <c r="G12" s="33">
+        <v>-1.1199999999999988E-2</v>
+      </c>
+      <c r="G12" s="27">
         <f t="shared" si="1"/>
-        <v>5.0000000000000044E-3</v>
-      </c>
-      <c r="H12" s="33">
+        <v>4.9000000000000155E-3</v>
+      </c>
+      <c r="H12" s="27">
         <f t="shared" si="1"/>
-        <v>6.5999999999999948E-2</v>
-      </c>
-      <c r="I12" s="33">
+        <v>6.579999999999997E-2</v>
+      </c>
+      <c r="I12" s="27">
         <f t="shared" si="1"/>
         <v>0.10299999999999998</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="27">
         <f t="shared" si="1"/>
-        <v>6.3999999999999946E-2</v>
-      </c>
-      <c r="K12" s="33">
+        <v>6.3799999999999968E-2</v>
+      </c>
+      <c r="K12" s="27">
         <f t="shared" si="1"/>
-        <v>-4.500000000000004E-2</v>
-      </c>
-      <c r="L12" s="33">
+        <v>-4.4800000000000062E-2</v>
+      </c>
+      <c r="L12" s="27">
         <f t="shared" si="1"/>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="M12" s="33">
+        <v>-1.0399999999999965E-2</v>
+      </c>
+      <c r="M12" s="27">
         <f t="shared" si="1"/>
-        <v>-0.16100000000000003</v>
-      </c>
-      <c r="N12" s="33">
+        <v>-0.16079999999999994</v>
+      </c>
+      <c r="N12" s="27">
         <f t="shared" si="1"/>
         <v>3.0000000000000027E-3</v>
       </c>
@@ -24481,41 +24508,41 @@
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <v>0.98</v>
       </c>
-      <c r="D13" s="16">
-        <v>0.97899999999999998</v>
+      <c r="D13" s="15">
+        <v>0.97909999999999997</v>
       </c>
       <c r="E13" s="5">
         <v>0.92</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>0.96</v>
       </c>
       <c r="G13" s="5">
-        <v>0.999</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="H13" s="5">
         <v>0.93899999999999995</v>
       </c>
-      <c r="I13" s="16">
-        <v>0.997</v>
-      </c>
-      <c r="J13" s="16">
-        <v>0.98699999999999999</v>
+      <c r="I13" s="15">
+        <v>0.99709999999999999</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0.98709999999999998</v>
       </c>
       <c r="K13" s="5">
-        <v>0.999</v>
-      </c>
-      <c r="L13" s="16">
-        <v>0.98399999999999999</v>
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="L13" s="15">
+        <v>0.98409999999999997</v>
       </c>
       <c r="M13" s="5">
-        <v>0.999</v>
-      </c>
-      <c r="N13" s="19">
-        <v>0.98299999999999998</v>
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="N13" s="18">
+        <v>0.98309999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -24567,7 +24594,7 @@
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>932</v>
       </c>
       <c r="D15" s="1">
@@ -24610,94 +24637,94 @@
         <v>5</v>
       </c>
       <c r="C16" s="7">
-        <v>0.99</v>
+        <v>0.99029999999999996</v>
       </c>
       <c r="D16" s="7">
-        <v>0.94899999999999995</v>
+        <v>0.94920000000000004</v>
       </c>
       <c r="E16" s="7">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="F16" s="15">
-        <v>0.99299999999999999</v>
+        <v>0.95930000000000004</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.9929</v>
       </c>
       <c r="G16" s="7">
-        <v>0.99</v>
+        <v>0.9899</v>
       </c>
       <c r="H16" s="7">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="I16" s="15">
-        <v>0.98799999999999999</v>
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.98839999999999995</v>
       </c>
       <c r="J16" s="7">
-        <v>0.995</v>
+        <v>0.99480000000000002</v>
       </c>
       <c r="K16" s="7">
-        <v>0.98199999999999998</v>
+        <v>0.98209999999999997</v>
       </c>
       <c r="L16" s="7">
-        <v>0.99</v>
+        <v>0.98960000000000004</v>
       </c>
       <c r="M16" s="7">
-        <v>0.99099999999999999</v>
+        <v>0.99180000000000001</v>
       </c>
       <c r="N16" s="8">
-        <v>0.99</v>
+        <v>0.99029999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="29"/>
-      <c r="B17" s="27" t="s">
-        <v>46</v>
+      <c r="B17" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="C17" s="7">
         <f>C16-C3</f>
-        <v>1.5000000000000013E-2</v>
+        <v>1.529999999999998E-2</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" ref="D17:N17" si="2">D16-D3</f>
-        <v>3.499999999999992E-2</v>
+        <v>3.4600000000000075E-2</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="2"/>
-        <v>1.7000000000000015E-2</v>
+        <v>1.7100000000000004E-2</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" si="2"/>
-        <v>9.000000000000008E-3</v>
+        <v>8.900000000000019E-3</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="2"/>
-        <v>0.11699999999999999</v>
+        <v>0.11680000000000001</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" si="2"/>
-        <v>6.4999999999999947E-2</v>
+        <v>6.4599999999999991E-2</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="2"/>
-        <v>0.15200000000000002</v>
+        <v>0.15259999999999996</v>
       </c>
       <c r="J17" s="7">
         <f t="shared" si="2"/>
-        <v>8.2999999999999963E-2</v>
+        <v>8.2899999999999974E-2</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="2"/>
-        <v>8.8999999999999968E-2</v>
+        <v>8.9199999999999946E-2</v>
       </c>
       <c r="L17" s="7">
         <f t="shared" si="2"/>
-        <v>9.000000000000008E-3</v>
+        <v>8.3000000000000851E-3</v>
       </c>
       <c r="M17" s="7">
         <f t="shared" si="2"/>
-        <v>1.0000000000000009E-3</v>
+        <v>1.5000000000000568E-3</v>
       </c>
       <c r="N17" s="7">
         <f t="shared" si="2"/>
-        <v>3.0000000000000027E-2</v>
+        <v>3.0200000000000005E-2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -24706,25 +24733,25 @@
         <v>7</v>
       </c>
       <c r="C18" s="5">
-        <v>0.90700000000000003</v>
+        <v>0.90669999999999995</v>
       </c>
       <c r="D18" s="5">
-        <v>0.67700000000000005</v>
+        <v>0.67659999999999998</v>
       </c>
       <c r="E18" s="5">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="F18" s="16">
-        <v>0.95</v>
+        <v>0.5625</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0.95040000000000002</v>
       </c>
       <c r="G18" s="5">
         <v>0.86099999999999999</v>
       </c>
       <c r="H18" s="5">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="I18" s="16">
-        <v>0.93500000000000005</v>
+        <v>0.51559999999999995</v>
+      </c>
+      <c r="I18" s="15">
+        <v>0.9355</v>
       </c>
       <c r="J18" s="5">
         <v>0</v>
@@ -24733,13 +24760,14 @@
         <v>0</v>
       </c>
       <c r="L18" s="5">
-        <v>0.89800000000000002</v>
+        <v>0.8982</v>
       </c>
       <c r="M18" s="5">
-        <v>0.91</v>
+        <f>1-M15/M2</f>
+        <v>0.90965544871794868</v>
       </c>
       <c r="N18" s="6">
-        <v>0.65900000000000003</v>
+        <v>0.65890000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -24750,40 +24778,40 @@
         <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -24876,54 +24904,54 @@
         <v>5</v>
       </c>
       <c r="C22" s="7">
-        <v>0.97</v>
+        <v>0.97009999999999996</v>
       </c>
       <c r="D22" s="7">
-        <v>0.93600000000000005</v>
+        <v>0.93059999999999998</v>
       </c>
       <c r="E22" s="7">
-        <v>0.93899999999999995</v>
+        <v>0.93920000000000003</v>
       </c>
       <c r="F22" s="7">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="G22" s="15">
-        <v>0.98899999999999999</v>
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="G22" s="14">
+        <v>0.98880000000000001</v>
       </c>
       <c r="H22" s="7">
         <v>0.99399999999999999</v>
       </c>
       <c r="I22" s="7">
-        <v>0.85099999999999998</v>
+        <v>0.85150000000000003</v>
       </c>
       <c r="J22" s="7">
-        <v>0.97399999999999998</v>
+        <v>0.97389999999999999</v>
       </c>
       <c r="K22" s="7">
-        <v>0.89400000000000002</v>
+        <v>0.89370000000000005</v>
       </c>
       <c r="L22" s="7">
-        <v>0.97399999999999998</v>
+        <v>0.97389999999999999</v>
       </c>
       <c r="M22" s="7">
-        <v>0.98399999999999999</v>
+        <v>0.98429999999999995</v>
       </c>
       <c r="N22" s="8">
-        <v>0.99299999999999999</v>
+        <v>0.99329999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="29"/>
-      <c r="B23" s="27" t="s">
-        <v>46</v>
+      <c r="B23" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="C23" s="7">
         <f>C22-C3</f>
-        <v>-5.0000000000000044E-3</v>
+        <v>-4.9000000000000155E-3</v>
       </c>
       <c r="D23" s="7">
         <f t="shared" ref="D23:N23" si="3">D22-D3</f>
-        <v>2.200000000000002E-2</v>
+        <v>1.6000000000000014E-2</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" si="3"/>
@@ -24931,19 +24959,19 @@
       </c>
       <c r="F23" s="7">
         <f t="shared" si="3"/>
-        <v>-2.0000000000000018E-3</v>
+        <v>-2.2999999999999687E-3</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="3"/>
-        <v>0.11599999999999999</v>
+        <v>0.11570000000000003</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="3"/>
-        <v>7.0999999999999952E-2</v>
+        <v>7.0899999999999963E-2</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="3"/>
-        <v>1.5000000000000013E-2</v>
+        <v>1.5700000000000047E-2</v>
       </c>
       <c r="J23" s="7">
         <f t="shared" si="3"/>
@@ -24951,11 +24979,11 @@
       </c>
       <c r="K23" s="7">
         <f t="shared" si="3"/>
-        <v>1.0000000000000009E-3</v>
+        <v>8.0000000000002292E-4</v>
       </c>
       <c r="L23" s="7">
         <f t="shared" si="3"/>
-        <v>-7.0000000000000062E-3</v>
+        <v>-7.3999999999999622E-3</v>
       </c>
       <c r="M23" s="7">
         <f t="shared" si="3"/>
@@ -24963,7 +24991,7 @@
       </c>
       <c r="N23" s="7">
         <f t="shared" si="3"/>
-        <v>3.3000000000000029E-2</v>
+        <v>3.3200000000000007E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -24972,40 +25000,40 @@
         <v>7</v>
       </c>
       <c r="C24" s="5">
-        <v>0.61499999999999999</v>
+        <v>0.61539999999999995</v>
       </c>
       <c r="D24" s="5">
-        <v>0.84599999999999997</v>
+        <v>0.84619999999999995</v>
       </c>
       <c r="E24" s="5">
-        <v>0.28599999999999998</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="F24" s="5">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="G24" s="16">
-        <v>0.92300000000000004</v>
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0.92310000000000003</v>
       </c>
       <c r="H24" s="5">
-        <v>0.92300000000000004</v>
+        <v>0.92310000000000003</v>
       </c>
       <c r="I24" s="5">
-        <v>0.84599999999999997</v>
+        <v>0.84619999999999995</v>
       </c>
       <c r="J24" s="5">
-        <v>0.84599999999999997</v>
+        <v>0.84619999999999995</v>
       </c>
       <c r="K24" s="5">
-        <v>0.92300000000000004</v>
+        <v>0.92310000000000003</v>
       </c>
       <c r="L24" s="5">
-        <v>0.308</v>
+        <v>0.30769999999999997</v>
       </c>
       <c r="M24" s="5">
-        <v>0.61499999999999999</v>
+        <v>0.61539999999999995</v>
       </c>
       <c r="N24" s="6">
-        <v>0.92300000000000004</v>
+        <v>0.92310000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -25016,40 +25044,40 @@
         <v>11</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -25058,40 +25086,40 @@
         <v>13</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -25102,8 +25130,8 @@
       <c r="C27" s="1">
         <v>0.3</v>
       </c>
-      <c r="D27" s="1">
-        <v>-1</v>
+      <c r="D27" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E27" s="1">
         <v>0.3</v>
@@ -25111,20 +25139,20 @@
       <c r="F27" s="1">
         <v>0.3</v>
       </c>
-      <c r="G27" s="1">
-        <v>-1</v>
+      <c r="G27" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="H27" s="1">
         <v>0.3</v>
       </c>
-      <c r="I27" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J27" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K27" s="1">
-        <v>-1</v>
+      <c r="I27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="L27" s="1">
         <v>0.3</v>
@@ -25183,95 +25211,95 @@
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="14">
         <v>0.98399999999999999</v>
       </c>
       <c r="D29" s="7">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="E29" s="15">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="F29" s="15">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="G29" s="15">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="H29" s="15">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="I29" s="14">
-        <v>0.87</v>
+        <v>0.94179999999999997</v>
+      </c>
+      <c r="E29" s="14">
+        <v>0.96640000000000004</v>
+      </c>
+      <c r="F29" s="14">
+        <v>0.98250000000000004</v>
+      </c>
+      <c r="G29" s="14">
+        <v>0.98619999999999997</v>
+      </c>
+      <c r="H29" s="14">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.87090000000000001</v>
       </c>
       <c r="J29" s="7">
-        <v>0.95799999999999996</v>
+        <v>0.95779999999999998</v>
       </c>
       <c r="K29" s="7">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="L29" s="15">
+        <v>0.89590000000000003</v>
+      </c>
+      <c r="L29" s="14">
         <v>0.98399999999999999</v>
       </c>
-      <c r="M29" s="15">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="N29" s="18">
-        <v>0.99</v>
+      <c r="M29" s="14">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="N29" s="17">
+        <v>0.99029999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="29"/>
-      <c r="B30" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="33">
+      <c r="B30" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="27">
         <f>C29-C3</f>
         <v>9.000000000000008E-3</v>
       </c>
-      <c r="D30" s="33">
+      <c r="D30" s="27">
         <f t="shared" ref="D30:N30" si="4">D29-D3</f>
-        <v>2.7999999999999914E-2</v>
-      </c>
-      <c r="E30" s="33">
+        <v>2.7200000000000002E-2</v>
+      </c>
+      <c r="E30" s="27">
         <f t="shared" si="4"/>
-        <v>2.4000000000000021E-2</v>
-      </c>
-      <c r="F30" s="33">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="F30" s="27">
         <f t="shared" si="4"/>
-        <v>-2.0000000000000018E-3</v>
-      </c>
-      <c r="G30" s="33">
+        <v>-1.4999999999999458E-3</v>
+      </c>
+      <c r="G30" s="27">
         <f t="shared" si="4"/>
-        <v>0.11299999999999999</v>
-      </c>
-      <c r="H30" s="33">
+        <v>0.11309999999999998</v>
+      </c>
+      <c r="H30" s="27">
         <f t="shared" si="4"/>
-        <v>6.9999999999999951E-2</v>
-      </c>
-      <c r="I30" s="33">
+        <v>7.0199999999999929E-2</v>
+      </c>
+      <c r="I30" s="27">
         <f t="shared" si="4"/>
-        <v>3.400000000000003E-2</v>
-      </c>
-      <c r="J30" s="33">
+        <v>3.510000000000002E-2</v>
+      </c>
+      <c r="J30" s="27">
         <f t="shared" si="4"/>
-        <v>4.599999999999993E-2</v>
-      </c>
-      <c r="K30" s="33">
+        <v>4.5899999999999941E-2</v>
+      </c>
+      <c r="K30" s="27">
         <f t="shared" si="4"/>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="L30" s="33">
+      <c r="L30" s="27">
         <f t="shared" si="4"/>
-        <v>3.0000000000000027E-3</v>
-      </c>
-      <c r="M30" s="33">
+        <v>2.7000000000000357E-3</v>
+      </c>
+      <c r="M30" s="27">
         <f t="shared" si="4"/>
-        <v>-3.0000000000000027E-3</v>
-      </c>
-      <c r="N30" s="33">
+        <v>-3.6999999999999256E-3</v>
+      </c>
+      <c r="N30" s="27">
         <f t="shared" si="4"/>
-        <v>3.0000000000000027E-2</v>
+        <v>3.0200000000000005E-2</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -25279,41 +25307,41 @@
       <c r="B31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="15">
+        <v>0.98009999999999997</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.99709999999999999</v>
+      </c>
+      <c r="E31" s="15">
+        <v>0.97</v>
+      </c>
+      <c r="F31" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="G31" s="15">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="H31" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.84619999999999995</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="L31" s="15">
         <v>0.98</v>
       </c>
-      <c r="D31" s="5">
-        <v>0.997</v>
-      </c>
-      <c r="E31" s="16">
-        <v>0.97</v>
-      </c>
-      <c r="F31" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="G31" s="16">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="H31" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="I31" s="5">
-        <v>0.999</v>
-      </c>
-      <c r="J31" s="5">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="K31" s="5">
-        <v>0.995</v>
-      </c>
-      <c r="L31" s="16">
-        <v>0.98</v>
-      </c>
-      <c r="M31" s="16">
-        <v>0.98</v>
-      </c>
-      <c r="N31" s="19">
-        <v>0.98</v>
+      <c r="M31" s="15">
+        <v>0.98009999999999997</v>
+      </c>
+      <c r="N31" s="18">
+        <v>0.98009999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -25356,44 +25384,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="L1" s="25" t="s">
         <v>28</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -25505,10 +25533,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="29"/>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>0.61599999999999999</v>
       </c>
       <c r="D5" s="7">
@@ -25517,32 +25545,32 @@
       <c r="E5" s="7">
         <v>0.58819999999999995</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>0.60809999999999997</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>0.61599999999999999</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>0.61099999999999999</v>
       </c>
       <c r="I5" s="7">
         <v>0.62590000000000001</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="14">
         <v>0.5706</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <v>0.5696</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="17">
         <v>0.65300000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="29"/>
-      <c r="B6" s="26" t="s">
-        <v>46</v>
+      <c r="B6" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="C6" s="7">
         <f>C5-C3</f>
@@ -25590,7 +25618,7 @@
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <f t="shared" ref="C7:L7" si="1">1-C4/C2</f>
         <v>0.99709535256410253</v>
       </c>
@@ -25602,15 +25630,15 @@
         <f t="shared" si="1"/>
         <v>0.99909855769230771</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <f t="shared" si="1"/>
         <v>0.99709535256410253</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <f t="shared" si="1"/>
         <v>0.99208733974358976</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <f t="shared" si="1"/>
         <v>0.99809695512820518</v>
       </c>
@@ -25618,15 +25646,15 @@
         <f t="shared" si="1"/>
         <v>0.95102163461538458</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="15">
         <f t="shared" si="1"/>
         <v>0.99609375</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="15">
         <f t="shared" si="1"/>
         <v>0.99909855769230771</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="18">
         <f t="shared" si="1"/>
         <v>0.99709535256410253</v>
       </c>
@@ -25639,7 +25667,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
         <v>0.7</v>
@@ -25671,46 +25699,46 @@
     </row>
     <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>29</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="25">
         <v>1742</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="25">
         <v>1023</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="25">
         <v>623</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="25">
         <v>1023</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="25">
         <v>1283</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="25">
         <v>2555</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="25">
         <v>843</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="25">
         <v>1977</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="23">
         <v>8890</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>0.62960000000000005</v>
       </c>
       <c r="D10" s="7">
@@ -25743,8 +25771,8 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
-      <c r="B11" s="26" t="s">
-        <v>46</v>
+      <c r="B11" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="C11" s="7">
         <f>C10-C3</f>
@@ -25792,7 +25820,7 @@
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <f t="shared" ref="C12:L12" si="3">1-C9/C2</f>
         <v>0.99709535256410253</v>
       </c>
@@ -25840,67 +25868,67 @@
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>40</v>
+      <c r="C13" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <v>3</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="25">
         <v>1</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="25">
         <v>3</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="25">
         <v>3</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="25">
         <v>3</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="25">
         <v>3</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="25">
         <v>3</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="25">
         <v>3</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="25">
         <v>3</v>
       </c>
       <c r="L14" s="11">
@@ -25909,40 +25937,40 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="29"/>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="25">
         <f>12*768</f>
         <v>9216</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="25">
         <f>13*768</f>
         <v>9984</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="25">
         <f>13*768</f>
         <v>9984</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="25">
         <f>1*768</f>
         <v>768</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="25">
         <v>9984</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="25">
         <f>8*768</f>
         <v>6144</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="25">
         <v>9984</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="25">
         <f>3*768</f>
         <v>2304</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="25">
         <v>768</v>
       </c>
       <c r="L15" s="11">
@@ -25951,7 +25979,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="29"/>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="7">
@@ -25987,8 +26015,8 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="29"/>
-      <c r="B17" s="26" t="s">
-        <v>46</v>
+      <c r="B17" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="C17" s="7">
         <f>C16-C3</f>
@@ -26085,103 +26113,103 @@
         <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="29"/>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="29"/>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="26">
+      <c r="C21" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="25">
         <v>0.3</v>
       </c>
-      <c r="J21" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" s="26" t="s">
-        <v>39</v>
+      <c r="J21" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="L21" s="11">
         <v>0.1</v>
@@ -26189,34 +26217,34 @@
     </row>
     <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="29"/>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="25">
         <v>29</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="25">
         <v>99</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="25">
         <v>49</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="25">
         <v>9</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="25">
         <v>199</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="25">
         <v>199</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="22">
         <v>399</v>
       </c>
-      <c r="J22" s="26">
+      <c r="J22" s="25">
         <v>99</v>
       </c>
-      <c r="K22" s="26">
+      <c r="K22" s="25">
         <v>9</v>
       </c>
       <c r="L22" s="11">
@@ -26225,44 +26253,44 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="29"/>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <v>0.61380000000000001</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
         <v>0.65149999999999997</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="14">
         <v>0.61050000000000004</v>
       </c>
       <c r="F23" s="7">
         <v>0.5655</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="14">
         <v>0.64600000000000002</v>
       </c>
       <c r="H23" s="7">
         <v>0.61119999999999997</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="14">
         <v>0.63649999999999995</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="14">
         <v>0.57869999999999999</v>
       </c>
       <c r="K23" s="7">
         <v>0.5655</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L23" s="17">
         <v>0.65559999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="29"/>
-      <c r="B24" s="26" t="s">
-        <v>46</v>
+      <c r="B24" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="C24" s="7">
         <f>C23-C3</f>
@@ -26310,15 +26338,15 @@
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="15">
         <f t="shared" ref="C25:L25" si="7">1-C22/C2</f>
         <v>0.99709535256410253</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="15">
         <f t="shared" si="7"/>
         <v>0.99008413461538458</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="15">
         <f t="shared" si="7"/>
         <v>0.99509214743589747</v>
       </c>
@@ -26326,7 +26354,7 @@
         <f t="shared" si="7"/>
         <v>0.99909855769230771</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="15">
         <f t="shared" si="7"/>
         <v>0.98006810897435903</v>
       </c>
@@ -26334,11 +26362,11 @@
         <f t="shared" si="7"/>
         <v>0.98006810897435903</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="15">
         <f t="shared" si="7"/>
         <v>0.96003605769230771</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="15">
         <f t="shared" si="7"/>
         <v>0.99008413461538458</v>
       </c>
@@ -26346,7 +26374,7 @@
         <f t="shared" si="7"/>
         <v>0.99909855769230771</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="18">
         <f t="shared" si="7"/>
         <v>0.99709535256410253</v>
       </c>
@@ -26380,41 +26408,41 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="20">
         <v>0.96499999999999997</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="20">
         <v>0.94899999999999995</v>
       </c>
       <c r="D2" s="32" t="s">
@@ -26423,10 +26451,10 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="20">
         <v>0.89800000000000002</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="20">
         <v>0.89500000000000002</v>
       </c>
       <c r="I2" s="32" t="s">
@@ -26435,44 +26463,44 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="20">
         <v>0.82799999999999996</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="20">
         <v>0.91100000000000003</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <v>0.85699999999999998</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="20">
         <v>0.84</v>
       </c>
       <c r="D3" s="32"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="20">
         <v>0.86799999999999999</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="20">
         <v>0.93100000000000005</v>
       </c>
       <c r="I3" s="32"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="20">
         <v>0.95799999999999996</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="20">
         <v>0.90900000000000003</v>
       </c>
       <c r="N3" s="32"/>
@@ -26481,30 +26509,30 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>0.96299999999999997</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>0.876</v>
       </c>
       <c r="D4" s="32"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="20">
         <v>0.93400000000000005</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="20">
         <v>0.873</v>
       </c>
       <c r="I4" s="32"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="20">
         <v>0.91400000000000003</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="20">
         <v>0.90100000000000002</v>
       </c>
       <c r="N4" s="32"/>
@@ -26513,30 +26541,30 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>0.93600000000000005</v>
       </c>
       <c r="D5" s="32"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <v>0.85399999999999998</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <v>0.83799999999999997</v>
       </c>
       <c r="I5" s="32"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="20">
         <v>0.81599999999999995</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="20">
         <v>0.88400000000000001</v>
       </c>
       <c r="N5" s="32"/>
@@ -26545,30 +26573,30 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>0.99199999999999999</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>0.97</v>
       </c>
       <c r="D6" s="32"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>0.89300000000000002</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <v>0.97799999999999998</v>
       </c>
       <c r="I6" s="32"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="20">
         <v>0.96899999999999997</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="20">
         <v>0.93899999999999995</v>
       </c>
       <c r="N6" s="32"/>
@@ -26577,30 +26605,30 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>0.99199999999999999</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>0.97199999999999998</v>
       </c>
       <c r="D7" s="32"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="20">
         <v>0.877</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="20">
         <v>0.97899999999999998</v>
       </c>
       <c r="I7" s="32"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="20">
         <v>0.91100000000000003</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="20">
         <v>0.91700000000000004</v>
       </c>
       <c r="N7" s="32"/>
@@ -26609,30 +26637,30 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <v>0.99</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>0.97399999999999998</v>
       </c>
       <c r="D8" s="32"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <v>0.94599999999999995</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="20">
         <v>0.97199999999999998</v>
       </c>
       <c r="I8" s="32"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="20">
         <v>0.90100000000000002</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="20">
         <v>0.92300000000000004</v>
       </c>
       <c r="N8" s="32"/>
@@ -26641,253 +26669,253 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>0.99099999999999999</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>0.97799999999999998</v>
       </c>
       <c r="D9" s="32"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <v>0.92200000000000004</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="20">
         <v>0.96499999999999997</v>
       </c>
       <c r="I9" s="32"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="19"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="20">
         <v>0.98699999999999999</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>0.97799999999999998</v>
       </c>
       <c r="D10" s="32"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="20">
         <v>0.93500000000000005</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="20">
         <v>0.94899999999999995</v>
       </c>
       <c r="I10" s="32"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="19"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="20">
         <v>0.98299999999999998</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>0.97799999999999998</v>
       </c>
       <c r="D11" s="32"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="20">
         <v>0.93899999999999995</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="20">
         <v>0.93</v>
       </c>
       <c r="I11" s="32"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="19"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="20">
         <v>0.98199999999999998</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>0.98099999999999998</v>
       </c>
       <c r="D12" s="32"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="20">
         <v>0.89100000000000001</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="20">
         <v>0.91500000000000004</v>
       </c>
       <c r="I12" s="32"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="19"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>0.97899999999999998</v>
       </c>
       <c r="D13" s="32"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="20">
         <v>0.89100000000000001</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="20">
         <v>0.91500000000000004</v>
       </c>
       <c r="I13" s="32"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="19"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="20">
         <v>0.95899999999999996</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>0.97399999999999998</v>
       </c>
       <c r="D14" s="32"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="20">
         <v>0.92600000000000005</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="20">
         <v>0.91900000000000004</v>
       </c>
       <c r="I14" s="32"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="19"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>0</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="20">
         <v>0.98799999999999999</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="20">
         <v>0.98199999999999998</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="20">
         <v>0.98799999999999999</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="20">
         <v>0.98899999999999999</v>
       </c>
       <c r="I34" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
       </c>
-      <c r="L34" s="21">
+      <c r="L34" s="20">
         <v>0.90300000000000002</v>
       </c>
-      <c r="M34" s="21">
+      <c r="M34" s="20">
         <v>0.99399999999999999</v>
       </c>
       <c r="N34" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>1</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="20">
         <v>0.91800000000000004</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="20">
         <v>0.91800000000000004</v>
       </c>
       <c r="D35" s="32"/>
       <c r="F35" s="1">
         <v>1</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="20">
         <v>0.86499999999999999</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="20">
         <v>0.96399999999999997</v>
       </c>
       <c r="I35" s="32"/>
       <c r="K35" s="1">
         <v>1</v>
       </c>
-      <c r="L35" s="21">
+      <c r="L35" s="20">
         <v>0.81299999999999994</v>
       </c>
-      <c r="M35" s="21">
+      <c r="M35" s="20">
         <v>0.99099999999999999</v>
       </c>
       <c r="N35" s="32"/>
@@ -26896,30 +26924,30 @@
       <c r="A36" s="1">
         <v>2</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="20">
         <v>0.88700000000000001</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="20">
         <v>0.91900000000000004</v>
       </c>
       <c r="D36" s="32"/>
       <c r="F36" s="1">
         <v>2</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="20">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="20">
         <v>0.97</v>
       </c>
       <c r="I36" s="32"/>
       <c r="K36" s="1">
         <v>2</v>
       </c>
-      <c r="L36" s="21">
+      <c r="L36" s="20">
         <v>0.81499999999999995</v>
       </c>
-      <c r="M36" s="21">
+      <c r="M36" s="20">
         <v>0.98299999999999998</v>
       </c>
       <c r="N36" s="32"/>
@@ -26928,30 +26956,30 @@
       <c r="A37" s="1">
         <v>3</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="20">
         <v>0.98</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="20">
         <v>0.97899999999999998</v>
       </c>
       <c r="D37" s="32"/>
       <c r="F37" s="1">
         <v>3</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="20">
         <v>0.98799999999999999</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="20">
         <v>0.96599999999999997</v>
       </c>
       <c r="I37" s="32"/>
       <c r="K37" s="1">
         <v>3</v>
       </c>
-      <c r="L37" s="21">
+      <c r="L37" s="20">
         <v>0.99</v>
       </c>
-      <c r="M37" s="21">
+      <c r="M37" s="20">
         <v>0.98</v>
       </c>
       <c r="N37" s="32"/>
@@ -26960,30 +26988,30 @@
       <c r="A38" s="1">
         <v>4</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="20">
         <v>0.99099999999999999</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="20">
         <v>0.97699999999999998</v>
       </c>
       <c r="D38" s="32"/>
       <c r="F38" s="1">
         <v>4</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="20">
         <v>0.98399999999999999</v>
       </c>
-      <c r="H38" s="21">
+      <c r="H38" s="20">
         <v>0.96799999999999997</v>
       </c>
       <c r="I38" s="32"/>
       <c r="K38" s="1">
         <v>4</v>
       </c>
-      <c r="L38" s="21">
+      <c r="L38" s="20">
         <v>0.93400000000000005</v>
       </c>
-      <c r="M38" s="21">
+      <c r="M38" s="20">
         <v>0.97099999999999997</v>
       </c>
       <c r="N38" s="32"/>
@@ -26992,30 +27020,30 @@
       <c r="A39" s="1">
         <v>5</v>
       </c>
-      <c r="B39" s="21">
+      <c r="B39" s="20">
         <v>0.98899999999999999</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="20">
         <v>0.98199999999999998</v>
       </c>
       <c r="D39" s="32"/>
       <c r="F39" s="1">
         <v>5</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="20">
         <v>0.98699999999999999</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="20">
         <v>0.96699999999999997</v>
       </c>
       <c r="I39" s="32"/>
       <c r="K39" s="1">
         <v>5</v>
       </c>
-      <c r="L39" s="21">
+      <c r="L39" s="20">
         <v>0.93100000000000005</v>
       </c>
-      <c r="M39" s="21">
+      <c r="M39" s="20">
         <v>0.873</v>
       </c>
       <c r="N39" s="32"/>
@@ -27024,30 +27052,30 @@
       <c r="A40" s="1">
         <v>6</v>
       </c>
-      <c r="B40" s="21">
+      <c r="B40" s="20">
         <v>0.98</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="20">
         <v>0.94399999999999995</v>
       </c>
       <c r="D40" s="32"/>
       <c r="F40" s="1">
         <v>6</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G40" s="20">
         <v>0.98899999999999999</v>
       </c>
-      <c r="H40" s="21">
+      <c r="H40" s="20">
         <v>0.96399999999999997</v>
       </c>
       <c r="I40" s="32"/>
       <c r="K40" s="1">
         <v>6</v>
       </c>
-      <c r="L40" s="21">
+      <c r="L40" s="20">
         <v>0.94</v>
       </c>
-      <c r="M40" s="21">
+      <c r="M40" s="20">
         <v>0.97899999999999998</v>
       </c>
       <c r="N40" s="32"/>
@@ -27056,30 +27084,30 @@
       <c r="A41" s="1">
         <v>7</v>
       </c>
-      <c r="B41" s="21">
+      <c r="B41" s="20">
         <v>0.99</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="20">
         <v>0.99299999999999999</v>
       </c>
       <c r="D41" s="32"/>
       <c r="F41" s="1">
         <v>7</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G41" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="H41" s="21">
+      <c r="H41" s="20">
         <v>0.97399999999999998</v>
       </c>
       <c r="I41" s="32"/>
       <c r="K41" s="1">
         <v>7</v>
       </c>
-      <c r="L41" s="21">
+      <c r="L41" s="20">
         <v>0.93500000000000005</v>
       </c>
-      <c r="M41" s="21">
+      <c r="M41" s="20">
         <v>0.93</v>
       </c>
       <c r="N41" s="32"/>
@@ -27088,30 +27116,30 @@
       <c r="A42" s="1">
         <v>8</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B42" s="20">
         <v>0.98699999999999999</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="20">
         <v>0.94599999999999995</v>
       </c>
       <c r="D42" s="32"/>
       <c r="F42" s="1">
         <v>8</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="20">
         <v>0.99199999999999999</v>
       </c>
-      <c r="H42" s="21">
+      <c r="H42" s="20">
         <v>0.82099999999999995</v>
       </c>
       <c r="I42" s="32"/>
       <c r="K42" s="1">
         <v>8</v>
       </c>
-      <c r="L42" s="21">
+      <c r="L42" s="20">
         <v>0.93899999999999995</v>
       </c>
-      <c r="M42" s="21">
+      <c r="M42" s="20">
         <v>0.98699999999999999</v>
       </c>
       <c r="N42" s="32"/>
@@ -27120,30 +27148,30 @@
       <c r="A43" s="1">
         <v>9</v>
       </c>
-      <c r="B43" s="21">
+      <c r="B43" s="20">
         <v>0.996</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="20">
         <v>0.98099999999999998</v>
       </c>
       <c r="D43" s="32"/>
       <c r="F43" s="1">
         <v>9</v>
       </c>
-      <c r="G43" s="21">
+      <c r="G43" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H43" s="20">
         <v>0.82799999999999996</v>
       </c>
       <c r="I43" s="32"/>
       <c r="K43" s="1">
         <v>9</v>
       </c>
-      <c r="L43" s="21">
+      <c r="L43" s="20">
         <v>0.94</v>
       </c>
-      <c r="M43" s="21">
+      <c r="M43" s="20">
         <v>0.93500000000000005</v>
       </c>
       <c r="N43" s="32"/>
@@ -27152,30 +27180,30 @@
       <c r="A44" s="1">
         <v>10</v>
       </c>
-      <c r="B44" s="21">
+      <c r="B44" s="20">
         <v>0.995</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="20">
         <v>0.98399999999999999</v>
       </c>
       <c r="D44" s="32"/>
       <c r="F44" s="1">
         <v>10</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G44" s="20">
         <v>0.99099999999999999</v>
       </c>
-      <c r="H44" s="21">
+      <c r="H44" s="20">
         <v>0.84099999999999997</v>
       </c>
       <c r="I44" s="32"/>
       <c r="K44" s="1">
         <v>10</v>
       </c>
-      <c r="L44" s="21">
+      <c r="L44" s="20">
         <v>0.94</v>
       </c>
-      <c r="M44" s="21">
+      <c r="M44" s="20">
         <v>0.92500000000000004</v>
       </c>
       <c r="N44" s="32"/>
@@ -27184,30 +27212,30 @@
       <c r="A45" s="1">
         <v>11</v>
       </c>
-      <c r="B45" s="21">
+      <c r="B45" s="20">
         <v>0.995</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="20">
         <v>0.95299999999999996</v>
       </c>
       <c r="D45" s="32"/>
       <c r="F45" s="1">
         <v>11</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G45" s="20">
         <v>0.99099999999999999</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H45" s="20">
         <v>0.98</v>
       </c>
       <c r="I45" s="32"/>
       <c r="K45" s="1">
         <v>11</v>
       </c>
-      <c r="L45" s="21">
+      <c r="L45" s="20">
         <v>0.99</v>
       </c>
-      <c r="M45" s="21">
+      <c r="M45" s="20">
         <v>0.92400000000000004</v>
       </c>
       <c r="N45" s="32"/>
@@ -27216,109 +27244,109 @@
       <c r="A46" s="1">
         <v>12</v>
       </c>
-      <c r="B46" s="21">
+      <c r="B46" s="20">
         <v>0.997</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="20">
         <v>0.92100000000000004</v>
       </c>
       <c r="D46" s="32"/>
       <c r="F46" s="1">
         <v>12</v>
       </c>
-      <c r="G46" s="21">
+      <c r="G46" s="20">
         <v>0.98699999999999999</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H46" s="20">
         <v>0.84</v>
       </c>
       <c r="I46" s="32"/>
       <c r="K46" s="1">
         <v>12</v>
       </c>
-      <c r="L46" s="21">
+      <c r="L46" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="M46" s="21">
+      <c r="M46" s="20">
         <v>0.93300000000000005</v>
       </c>
       <c r="N46" s="32"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>0</v>
       </c>
-      <c r="B67" s="21">
+      <c r="B67" s="20">
         <v>0.78</v>
       </c>
-      <c r="C67" s="21">
+      <c r="C67" s="20">
         <v>0.77700000000000002</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
       </c>
-      <c r="G67" s="21">
+      <c r="G67" s="20">
         <v>0.878</v>
       </c>
-      <c r="H67" s="21">
+      <c r="H67" s="20">
         <v>0.75900000000000001</v>
       </c>
       <c r="I67" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K67" s="1">
         <v>0</v>
       </c>
-      <c r="L67" s="21">
+      <c r="L67" s="20">
         <v>0.89500000000000002</v>
       </c>
-      <c r="M67" s="21">
+      <c r="M67" s="20">
         <v>0.89400000000000002</v>
       </c>
       <c r="N67" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>1</v>
       </c>
-      <c r="B68" s="21">
+      <c r="B68" s="20">
         <v>0.81599999999999995</v>
       </c>
-      <c r="C68" s="21">
+      <c r="C68" s="20">
         <v>0.85099999999999998</v>
       </c>
       <c r="D68" s="32"/>
@@ -27328,7 +27356,7 @@
       <c r="G68" s="1">
         <v>0.81200000000000006</v>
       </c>
-      <c r="H68" s="21">
+      <c r="H68" s="20">
         <v>0.97399999999999998</v>
       </c>
       <c r="I68" s="32"/>
@@ -27338,7 +27366,7 @@
       <c r="L68" s="1">
         <v>0.878</v>
       </c>
-      <c r="M68" s="21">
+      <c r="M68" s="20">
         <v>0.94299999999999995</v>
       </c>
       <c r="N68" s="32"/>
@@ -27347,30 +27375,30 @@
       <c r="A69" s="1">
         <v>2</v>
       </c>
-      <c r="B69" s="21">
+      <c r="B69" s="20">
         <v>0.91900000000000004</v>
       </c>
-      <c r="C69" s="21">
+      <c r="C69" s="20">
         <v>0.93300000000000005</v>
       </c>
       <c r="D69" s="32"/>
       <c r="F69" s="1">
         <v>2</v>
       </c>
-      <c r="G69" s="21">
+      <c r="G69" s="20">
         <v>0.93100000000000005</v>
       </c>
-      <c r="H69" s="21">
+      <c r="H69" s="20">
         <v>0.81899999999999995</v>
       </c>
       <c r="I69" s="32"/>
       <c r="K69" s="1">
         <v>2</v>
       </c>
-      <c r="L69" s="21">
+      <c r="L69" s="20">
         <v>0.92100000000000004</v>
       </c>
-      <c r="M69" s="21">
+      <c r="M69" s="20">
         <v>0.97799999999999998</v>
       </c>
       <c r="N69" s="32"/>
@@ -27379,30 +27407,30 @@
       <c r="A70" s="1">
         <v>3</v>
       </c>
-      <c r="B70" s="21">
+      <c r="B70" s="20">
         <v>0.92</v>
       </c>
-      <c r="C70" s="21">
+      <c r="C70" s="20">
         <v>0.92700000000000005</v>
       </c>
       <c r="D70" s="32"/>
       <c r="F70" s="1">
         <v>3</v>
       </c>
-      <c r="G70" s="21">
+      <c r="G70" s="20">
         <v>0.96299999999999997</v>
       </c>
-      <c r="H70" s="21">
+      <c r="H70" s="20">
         <v>0.97199999999999998</v>
       </c>
       <c r="I70" s="32"/>
       <c r="K70" s="1">
         <v>3</v>
       </c>
-      <c r="L70" s="21">
+      <c r="L70" s="20">
         <v>0.92300000000000004</v>
       </c>
-      <c r="M70" s="21">
+      <c r="M70" s="20">
         <v>0.97499999999999998</v>
       </c>
       <c r="N70" s="32"/>
@@ -27411,30 +27439,30 @@
       <c r="A71" s="1">
         <v>4</v>
       </c>
-      <c r="B71" s="21">
+      <c r="B71" s="20">
         <v>0.92100000000000004</v>
       </c>
-      <c r="C71" s="21">
+      <c r="C71" s="20">
         <v>0.90600000000000003</v>
       </c>
       <c r="D71" s="32"/>
       <c r="F71" s="1">
         <v>4</v>
       </c>
-      <c r="G71" s="21">
+      <c r="G71" s="20">
         <v>0.93400000000000005</v>
       </c>
-      <c r="H71" s="21">
+      <c r="H71" s="20">
         <v>0.96899999999999997</v>
       </c>
       <c r="I71" s="32"/>
       <c r="K71" s="1">
         <v>4</v>
       </c>
-      <c r="L71" s="21">
+      <c r="L71" s="20">
         <v>0.94399999999999995</v>
       </c>
-      <c r="M71" s="21">
+      <c r="M71" s="20">
         <v>0.85199999999999998</v>
       </c>
       <c r="N71" s="32"/>
@@ -27443,30 +27471,30 @@
       <c r="A72" s="1">
         <v>5</v>
       </c>
-      <c r="B72" s="21">
+      <c r="B72" s="20">
         <v>0.93899999999999995</v>
       </c>
-      <c r="C72" s="21">
+      <c r="C72" s="20">
         <v>0.92</v>
       </c>
       <c r="D72" s="32"/>
       <c r="F72" s="1">
         <v>5</v>
       </c>
-      <c r="G72" s="21">
+      <c r="G72" s="20">
         <v>0.95799999999999996</v>
       </c>
-      <c r="H72" s="21">
+      <c r="H72" s="20">
         <v>0.96499999999999997</v>
       </c>
       <c r="I72" s="32"/>
       <c r="K72" s="1">
         <v>5</v>
       </c>
-      <c r="L72" s="21">
+      <c r="L72" s="20">
         <v>0.96899999999999997</v>
       </c>
-      <c r="M72" s="21">
+      <c r="M72" s="20">
         <v>0.86899999999999999</v>
       </c>
       <c r="N72" s="32"/>
@@ -27475,30 +27503,30 @@
       <c r="A73" s="1">
         <v>6</v>
       </c>
-      <c r="B73" s="21">
+      <c r="B73" s="20">
         <v>0.93700000000000006</v>
       </c>
-      <c r="C73" s="21">
+      <c r="C73" s="20">
         <v>0.96199999999999997</v>
       </c>
       <c r="D73" s="32"/>
       <c r="F73" s="1">
         <v>6</v>
       </c>
-      <c r="G73" s="21">
+      <c r="G73" s="20">
         <v>0.996</v>
       </c>
-      <c r="H73" s="21">
+      <c r="H73" s="20">
         <v>0.97599999999999998</v>
       </c>
       <c r="I73" s="32"/>
       <c r="K73" s="1">
         <v>6</v>
       </c>
-      <c r="L73" s="21">
+      <c r="L73" s="20">
         <v>0.95199999999999996</v>
       </c>
-      <c r="M73" s="21">
+      <c r="M73" s="20">
         <v>0.876</v>
       </c>
       <c r="N73" s="32"/>
@@ -27507,30 +27535,30 @@
       <c r="A74" s="1">
         <v>7</v>
       </c>
-      <c r="B74" s="21">
+      <c r="B74" s="20">
         <v>0.93799999999999994</v>
       </c>
-      <c r="C74" s="21">
+      <c r="C74" s="20">
         <v>0.82199999999999995</v>
       </c>
       <c r="D74" s="32"/>
       <c r="F74" s="1">
         <v>7</v>
       </c>
-      <c r="G74" s="21">
+      <c r="G74" s="20">
         <v>0.99099999999999999</v>
       </c>
-      <c r="H74" s="21">
+      <c r="H74" s="20">
         <v>0.97599999999999998</v>
       </c>
       <c r="I74" s="32"/>
       <c r="K74" s="1">
         <v>7</v>
       </c>
-      <c r="L74" s="21">
+      <c r="L74" s="20">
         <v>0.93500000000000005</v>
       </c>
-      <c r="M74" s="21">
+      <c r="M74" s="20">
         <v>0.89300000000000002</v>
       </c>
       <c r="N74" s="32"/>
@@ -27539,30 +27567,30 @@
       <c r="A75" s="1">
         <v>8</v>
       </c>
-      <c r="B75" s="21">
+      <c r="B75" s="20">
         <v>0.96399999999999997</v>
       </c>
-      <c r="C75" s="21">
+      <c r="C75" s="20">
         <v>0.82399999999999995</v>
       </c>
       <c r="D75" s="32"/>
       <c r="F75" s="1">
         <v>8</v>
       </c>
-      <c r="G75" s="21">
+      <c r="G75" s="20">
         <v>0.93799999999999994</v>
       </c>
-      <c r="H75" s="21">
+      <c r="H75" s="20">
         <v>0.91800000000000004</v>
       </c>
       <c r="I75" s="32"/>
       <c r="K75" s="1">
         <v>8</v>
       </c>
-      <c r="L75" s="21">
+      <c r="L75" s="20">
         <v>0.95699999999999996</v>
       </c>
-      <c r="M75" s="21">
+      <c r="M75" s="20">
         <v>0.98799999999999999</v>
       </c>
       <c r="N75" s="32"/>
@@ -27571,30 +27599,30 @@
       <c r="A76" s="1">
         <v>9</v>
       </c>
-      <c r="B76" s="21">
+      <c r="B76" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="20">
         <v>0.92500000000000004</v>
       </c>
       <c r="D76" s="32"/>
       <c r="F76" s="1">
         <v>9</v>
       </c>
-      <c r="G76" s="21">
+      <c r="G76" s="20">
         <v>0.98799999999999999</v>
       </c>
-      <c r="H76" s="21">
+      <c r="H76" s="20">
         <v>0.97899999999999998</v>
       </c>
       <c r="I76" s="32"/>
       <c r="K76" s="1">
         <v>9</v>
       </c>
-      <c r="L76" s="21">
+      <c r="L76" s="20">
         <v>0.92100000000000004</v>
       </c>
-      <c r="M76" s="21">
+      <c r="M76" s="20">
         <v>0.89500000000000002</v>
       </c>
       <c r="N76" s="32"/>
@@ -27603,30 +27631,30 @@
       <c r="A77" s="1">
         <v>10</v>
       </c>
-      <c r="B77" s="21">
+      <c r="B77" s="20">
         <v>0.996</v>
       </c>
-      <c r="C77" s="21">
+      <c r="C77" s="20">
         <v>0.83199999999999996</v>
       </c>
       <c r="D77" s="32"/>
       <c r="F77" s="1">
         <v>10</v>
       </c>
-      <c r="G77" s="21">
+      <c r="G77" s="20">
         <v>0.98599999999999999</v>
       </c>
-      <c r="H77" s="21">
+      <c r="H77" s="20">
         <v>0.97599999999999998</v>
       </c>
       <c r="I77" s="32"/>
       <c r="K77" s="1">
         <v>10</v>
       </c>
-      <c r="L77" s="21">
+      <c r="L77" s="20">
         <v>0.98099999999999998</v>
       </c>
-      <c r="M77" s="21">
+      <c r="M77" s="20">
         <v>0.98199999999999998</v>
       </c>
       <c r="N77" s="32"/>
@@ -27635,30 +27663,30 @@
       <c r="A78" s="1">
         <v>11</v>
       </c>
-      <c r="B78" s="21">
+      <c r="B78" s="20">
         <v>0.995</v>
       </c>
-      <c r="C78" s="21">
+      <c r="C78" s="20">
         <v>0.82899999999999996</v>
       </c>
       <c r="D78" s="32"/>
       <c r="F78" s="1">
         <v>11</v>
       </c>
-      <c r="G78" s="21">
+      <c r="G78" s="20">
         <v>0.99099999999999999</v>
       </c>
-      <c r="H78" s="21">
+      <c r="H78" s="20">
         <v>0.94899999999999995</v>
       </c>
       <c r="I78" s="32"/>
       <c r="K78" s="1">
         <v>11</v>
       </c>
-      <c r="L78" s="21">
+      <c r="L78" s="20">
         <v>0.97499999999999998</v>
       </c>
-      <c r="M78" s="21">
+      <c r="M78" s="20">
         <v>0.98099999999999998</v>
       </c>
       <c r="N78" s="32"/>
@@ -27667,99 +27695,99 @@
       <c r="A79" s="1">
         <v>12</v>
       </c>
-      <c r="B79" s="21">
+      <c r="B79" s="20">
         <v>0.997</v>
       </c>
-      <c r="C79" s="21">
+      <c r="C79" s="20">
         <v>0.95399999999999996</v>
       </c>
       <c r="D79" s="32"/>
       <c r="F79" s="1">
         <v>12</v>
       </c>
-      <c r="G79" s="21">
+      <c r="G79" s="20">
         <v>0.98399999999999999</v>
       </c>
-      <c r="H79" s="21">
+      <c r="H79" s="20">
         <v>0.99299999999999999</v>
       </c>
       <c r="I79" s="32"/>
       <c r="K79" s="1">
         <v>12</v>
       </c>
-      <c r="L79" s="21">
+      <c r="L79" s="20">
         <v>0.93</v>
       </c>
-      <c r="M79" s="21">
+      <c r="M79" s="20">
         <v>0.95899999999999996</v>
       </c>
       <c r="N79" s="32"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>0</v>
       </c>
-      <c r="B99" s="21">
+      <c r="B99" s="20">
         <v>0.91600000000000004</v>
       </c>
-      <c r="C99" s="21">
+      <c r="C99" s="20">
         <v>0.92200000000000004</v>
       </c>
       <c r="D99" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
       </c>
-      <c r="G99" s="21">
+      <c r="G99" s="20">
         <v>0.874</v>
       </c>
-      <c r="H99" s="21">
+      <c r="H99" s="20">
         <v>0.874</v>
       </c>
       <c r="I99" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K99" s="1">
         <v>0</v>
       </c>
-      <c r="L99" s="21">
+      <c r="L99" s="20">
         <v>0.995</v>
       </c>
-      <c r="M99" s="21">
+      <c r="M99" s="20">
         <v>0.99299999999999999</v>
       </c>
       <c r="N99" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
@@ -27769,7 +27797,7 @@
       <c r="B100" s="1">
         <v>0.94299999999999995</v>
       </c>
-      <c r="C100" s="21">
+      <c r="C100" s="20">
         <v>0.91600000000000004</v>
       </c>
       <c r="D100" s="32"/>
@@ -27779,7 +27807,7 @@
       <c r="G100" s="1">
         <v>0.94899999999999995</v>
       </c>
-      <c r="H100" s="21">
+      <c r="H100" s="20">
         <v>0.89500000000000002</v>
       </c>
       <c r="I100" s="32"/>
@@ -27789,7 +27817,7 @@
       <c r="L100" s="1">
         <v>0.81100000000000005</v>
       </c>
-      <c r="M100" s="21">
+      <c r="M100" s="20">
         <v>0.98499999999999999</v>
       </c>
       <c r="N100" s="32"/>
@@ -27798,30 +27826,30 @@
       <c r="A101" s="1">
         <v>2</v>
       </c>
-      <c r="B101" s="21">
+      <c r="B101" s="20">
         <v>0.93700000000000006</v>
       </c>
-      <c r="C101" s="21">
+      <c r="C101" s="20">
         <v>0.89200000000000002</v>
       </c>
       <c r="D101" s="32"/>
       <c r="F101" s="1">
         <v>2</v>
       </c>
-      <c r="G101" s="21">
+      <c r="G101" s="20">
         <v>0.96699999999999997</v>
       </c>
-      <c r="H101" s="21">
+      <c r="H101" s="20">
         <v>0.96299999999999997</v>
       </c>
       <c r="I101" s="32"/>
       <c r="K101" s="1">
         <v>2</v>
       </c>
-      <c r="L101" s="21">
+      <c r="L101" s="20">
         <v>0.80300000000000005</v>
       </c>
-      <c r="M101" s="21">
+      <c r="M101" s="20">
         <v>0.96699999999999997</v>
       </c>
       <c r="N101" s="32"/>
@@ -27830,30 +27858,30 @@
       <c r="A102" s="1">
         <v>3</v>
       </c>
-      <c r="B102" s="21">
+      <c r="B102" s="20">
         <v>0.93799999999999994</v>
       </c>
-      <c r="C102" s="21">
+      <c r="C102" s="20">
         <v>0.91</v>
       </c>
       <c r="D102" s="32"/>
       <c r="F102" s="1">
         <v>3</v>
       </c>
-      <c r="G102" s="21">
+      <c r="G102" s="20">
         <v>0.98699999999999999</v>
       </c>
-      <c r="H102" s="21">
+      <c r="H102" s="20">
         <v>0.97199999999999998</v>
       </c>
       <c r="I102" s="32"/>
       <c r="K102" s="1">
         <v>3</v>
       </c>
-      <c r="L102" s="21">
+      <c r="L102" s="20">
         <v>0.80800000000000005</v>
       </c>
-      <c r="M102" s="21">
+      <c r="M102" s="20">
         <v>0.995</v>
       </c>
       <c r="N102" s="32"/>
@@ -27862,30 +27890,30 @@
       <c r="A103" s="1">
         <v>4</v>
       </c>
-      <c r="B103" s="21">
+      <c r="B103" s="20">
         <v>0.94299999999999995</v>
       </c>
-      <c r="C103" s="21">
+      <c r="C103" s="20">
         <v>0.89800000000000002</v>
       </c>
       <c r="D103" s="32"/>
       <c r="F103" s="1">
         <v>4</v>
       </c>
-      <c r="G103" s="21">
+      <c r="G103" s="20">
         <v>0.99</v>
       </c>
-      <c r="H103" s="21">
+      <c r="H103" s="20">
         <v>0.98399999999999999</v>
       </c>
       <c r="I103" s="32"/>
       <c r="K103" s="1">
         <v>4</v>
       </c>
-      <c r="L103" s="21">
+      <c r="L103" s="20">
         <v>0.80900000000000005</v>
       </c>
-      <c r="M103" s="21">
+      <c r="M103" s="20">
         <v>0.98699999999999999</v>
       </c>
       <c r="N103" s="32"/>
@@ -27894,30 +27922,30 @@
       <c r="A104" s="1">
         <v>5</v>
       </c>
-      <c r="B104" s="21">
+      <c r="B104" s="20">
         <v>0.92500000000000004</v>
       </c>
-      <c r="C104" s="21">
+      <c r="C104" s="20">
         <v>0.88</v>
       </c>
       <c r="D104" s="32"/>
       <c r="F104" s="1">
         <v>5</v>
       </c>
-      <c r="G104" s="21">
+      <c r="G104" s="20">
         <v>0.995</v>
       </c>
-      <c r="H104" s="21">
+      <c r="H104" s="20">
         <v>0.98299999999999998</v>
       </c>
       <c r="I104" s="32"/>
       <c r="K104" s="1">
         <v>5</v>
       </c>
-      <c r="L104" s="21">
+      <c r="L104" s="20">
         <v>0.80700000000000005</v>
       </c>
-      <c r="M104" s="21">
+      <c r="M104" s="20">
         <v>0.996</v>
       </c>
       <c r="N104" s="32"/>
@@ -27926,30 +27954,30 @@
       <c r="A105" s="1">
         <v>6</v>
       </c>
-      <c r="B105" s="21">
+      <c r="B105" s="20">
         <v>0.98299999999999998</v>
       </c>
-      <c r="C105" s="21">
+      <c r="C105" s="20">
         <v>0.90400000000000003</v>
       </c>
       <c r="D105" s="32"/>
       <c r="F105" s="1">
         <v>6</v>
       </c>
-      <c r="G105" s="21">
+      <c r="G105" s="20">
         <v>0.99099999999999999</v>
       </c>
-      <c r="H105" s="21">
+      <c r="H105" s="20">
         <v>0.98299999999999998</v>
       </c>
       <c r="I105" s="32"/>
       <c r="K105" s="1">
         <v>6</v>
       </c>
-      <c r="L105" s="21">
+      <c r="L105" s="20">
         <v>0.81699999999999995</v>
       </c>
-      <c r="M105" s="21">
+      <c r="M105" s="20">
         <v>0.99299999999999999</v>
       </c>
       <c r="N105" s="32"/>
@@ -27958,30 +27986,30 @@
       <c r="A106" s="1">
         <v>7</v>
       </c>
-      <c r="B106" s="21">
+      <c r="B106" s="20">
         <v>0.98799999999999999</v>
       </c>
-      <c r="C106" s="21">
+      <c r="C106" s="20">
         <v>0.96699999999999997</v>
       </c>
       <c r="D106" s="32"/>
       <c r="F106" s="1">
         <v>7</v>
       </c>
-      <c r="G106" s="21">
+      <c r="G106" s="20">
         <v>0.98799999999999999</v>
       </c>
-      <c r="H106" s="21">
+      <c r="H106" s="20">
         <v>0.98299999999999998</v>
       </c>
       <c r="I106" s="32"/>
       <c r="K106" s="1">
         <v>7</v>
       </c>
-      <c r="L106" s="21">
+      <c r="L106" s="20">
         <v>0.81499999999999995</v>
       </c>
-      <c r="M106" s="21">
+      <c r="M106" s="20">
         <v>0.98899999999999999</v>
       </c>
       <c r="N106" s="32"/>
@@ -27990,30 +28018,30 @@
       <c r="A107" s="1">
         <v>8</v>
       </c>
-      <c r="B107" s="21">
+      <c r="B107" s="20">
         <v>0.99199999999999999</v>
       </c>
-      <c r="C107" s="21">
+      <c r="C107" s="20">
         <v>0.97399999999999998</v>
       </c>
       <c r="D107" s="32"/>
       <c r="F107" s="1">
         <v>8</v>
       </c>
-      <c r="G107" s="21">
+      <c r="G107" s="20">
         <v>0.98699999999999999</v>
       </c>
-      <c r="H107" s="21">
+      <c r="H107" s="20">
         <v>0.98899999999999999</v>
       </c>
       <c r="I107" s="32"/>
       <c r="K107" s="1">
         <v>8</v>
       </c>
-      <c r="L107" s="21">
+      <c r="L107" s="20">
         <v>0.80200000000000005</v>
       </c>
-      <c r="M107" s="21">
+      <c r="M107" s="20">
         <v>0.96099999999999997</v>
       </c>
       <c r="N107" s="32"/>
@@ -28022,30 +28050,30 @@
       <c r="A108" s="1">
         <v>9</v>
       </c>
-      <c r="B108" s="21">
+      <c r="B108" s="20">
         <v>0.99199999999999999</v>
       </c>
-      <c r="C108" s="21">
+      <c r="C108" s="20">
         <v>0.97799999999999998</v>
       </c>
       <c r="D108" s="32"/>
       <c r="F108" s="1">
         <v>9</v>
       </c>
-      <c r="G108" s="21">
+      <c r="G108" s="20">
         <v>0.99</v>
       </c>
-      <c r="H108" s="21">
+      <c r="H108" s="20">
         <v>0.89900000000000002</v>
       </c>
       <c r="I108" s="32"/>
       <c r="K108" s="1">
         <v>9</v>
       </c>
-      <c r="L108" s="21">
+      <c r="L108" s="20">
         <v>0.79900000000000004</v>
       </c>
-      <c r="M108" s="21">
+      <c r="M108" s="20">
         <v>0.96</v>
       </c>
       <c r="N108" s="32"/>
@@ -28054,30 +28082,30 @@
       <c r="A109" s="1">
         <v>10</v>
       </c>
-      <c r="B109" s="21">
+      <c r="B109" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="C109" s="21">
+      <c r="C109" s="20">
         <v>0.97699999999999998</v>
       </c>
       <c r="D109" s="32"/>
       <c r="F109" s="1">
         <v>10</v>
       </c>
-      <c r="G109" s="21">
+      <c r="G109" s="20">
         <v>0.99099999999999999</v>
       </c>
-      <c r="H109" s="21">
+      <c r="H109" s="20">
         <v>0.97199999999999998</v>
       </c>
       <c r="I109" s="32"/>
       <c r="K109" s="1">
         <v>10</v>
       </c>
-      <c r="L109" s="21">
+      <c r="L109" s="20">
         <v>0.79600000000000004</v>
       </c>
-      <c r="M109" s="21">
+      <c r="M109" s="20">
         <v>0.96399999999999997</v>
       </c>
       <c r="N109" s="32"/>
@@ -28086,30 +28114,30 @@
       <c r="A110" s="1">
         <v>11</v>
       </c>
-      <c r="B110" s="21">
+      <c r="B110" s="20">
         <v>0.99099999999999999</v>
       </c>
-      <c r="C110" s="21">
+      <c r="C110" s="20">
         <v>0.97599999999999998</v>
       </c>
       <c r="D110" s="32"/>
       <c r="F110" s="1">
         <v>11</v>
       </c>
-      <c r="G110" s="21">
+      <c r="G110" s="20">
         <v>0.98899999999999999</v>
       </c>
-      <c r="H110" s="21">
+      <c r="H110" s="20">
         <v>0.85599999999999998</v>
       </c>
       <c r="I110" s="32"/>
       <c r="K110" s="1">
         <v>11</v>
       </c>
-      <c r="L110" s="21">
+      <c r="L110" s="20">
         <v>0.78900000000000003</v>
       </c>
-      <c r="M110" s="21">
+      <c r="M110" s="20">
         <v>0.96</v>
       </c>
       <c r="N110" s="32"/>
@@ -28118,48 +28146,48 @@
       <c r="A111" s="1">
         <v>12</v>
       </c>
-      <c r="B111" s="21">
+      <c r="B111" s="20">
         <v>0.98099999999999998</v>
       </c>
-      <c r="C111" s="21">
+      <c r="C111" s="20">
         <v>0.97899999999999998</v>
       </c>
       <c r="D111" s="32"/>
       <c r="F111" s="1">
         <v>12</v>
       </c>
-      <c r="G111" s="21">
+      <c r="G111" s="20">
         <v>0.97599999999999998</v>
       </c>
-      <c r="H111" s="21">
+      <c r="H111" s="20">
         <v>0.97399999999999998</v>
       </c>
       <c r="I111" s="32"/>
       <c r="K111" s="1">
         <v>12</v>
       </c>
-      <c r="L111" s="21">
+      <c r="L111" s="20">
         <v>0.90800000000000003</v>
       </c>
-      <c r="M111" s="21">
+      <c r="M111" s="20">
         <v>0.96599999999999997</v>
       </c>
       <c r="N111" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D67:D79"/>
+    <mergeCell ref="I67:I79"/>
+    <mergeCell ref="N67:N79"/>
+    <mergeCell ref="D99:D111"/>
+    <mergeCell ref="I99:I111"/>
+    <mergeCell ref="N99:N111"/>
     <mergeCell ref="D2:D14"/>
     <mergeCell ref="I2:I14"/>
     <mergeCell ref="N2:N8"/>
     <mergeCell ref="D34:D46"/>
     <mergeCell ref="I34:I46"/>
     <mergeCell ref="N34:N46"/>
-    <mergeCell ref="D67:D79"/>
-    <mergeCell ref="I67:I79"/>
-    <mergeCell ref="N67:N79"/>
-    <mergeCell ref="D99:D111"/>
-    <mergeCell ref="I99:I111"/>
-    <mergeCell ref="N99:N111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -28181,65 +28209,65 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="24">
         <v>0.66666700000000001</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="24">
         <v>0.66666700000000001</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="24">
         <v>0</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="24">
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L2" s="1">
         <v>0</v>
       </c>
-      <c r="M2" s="25">
+      <c r="M2" s="24">
         <v>0.66666700000000001</v>
       </c>
-      <c r="N2" s="25">
+      <c r="N2" s="24">
         <v>0.66666700000000001</v>
       </c>
       <c r="O2" s="32" t="s">
@@ -28250,30 +28278,30 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="24">
         <v>0.53886800000000001</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="24">
         <v>0.51964299999999997</v>
       </c>
       <c r="D3" s="32"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="24">
         <v>0</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="24">
         <v>9.1979999999999996E-3</v>
       </c>
       <c r="I3" s="32"/>
       <c r="L3" s="1">
         <v>1</v>
       </c>
-      <c r="M3" s="25">
+      <c r="M3" s="24">
         <v>0.48698000000000002</v>
       </c>
-      <c r="N3" s="25">
+      <c r="N3" s="24">
         <v>0.61618799999999996</v>
       </c>
       <c r="O3" s="32"/>
@@ -28282,30 +28310,30 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="24">
         <v>0.54850200000000005</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>0.54270200000000002</v>
       </c>
       <c r="D4" s="32"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="24">
         <v>0</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="24">
         <v>0.66666700000000001</v>
       </c>
       <c r="I4" s="32"/>
       <c r="L4" s="1">
         <v>2</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="24">
         <v>0.47883300000000001</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="24">
         <v>8.9940999999999993E-2</v>
       </c>
       <c r="O4" s="32"/>
@@ -28314,30 +28342,30 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="24">
         <v>0.53795800000000005</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>0.58758500000000002</v>
       </c>
       <c r="D5" s="32"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="24">
         <v>0</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="24">
         <v>0.66666700000000001</v>
       </c>
       <c r="I5" s="32"/>
       <c r="L5" s="1">
         <v>3</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="24">
         <v>0.47412799999999999</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="24">
         <v>0</v>
       </c>
       <c r="O5" s="32"/>
@@ -28346,30 +28374,30 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="24">
         <v>0.54511100000000001</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>0.59606400000000004</v>
       </c>
       <c r="D6" s="32"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="24">
         <v>0</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="24">
         <v>0</v>
       </c>
       <c r="I6" s="32"/>
       <c r="L6" s="1">
         <v>4</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="24">
         <v>0.44588699999999998</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="24">
         <v>0</v>
       </c>
       <c r="O6" s="32"/>
@@ -28378,30 +28406,30 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="24">
         <v>0.54999500000000001</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>0.63406600000000002</v>
       </c>
       <c r="D7" s="32"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="24">
         <v>0</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="24">
         <v>0</v>
       </c>
       <c r="I7" s="32"/>
       <c r="L7" s="1">
         <v>5</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="24">
         <v>0.46611200000000003</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="24">
         <v>0</v>
       </c>
       <c r="O7" s="32"/>
@@ -28410,30 +28438,30 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <v>0.552315</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <v>0.63100100000000003</v>
       </c>
       <c r="D8" s="32"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="24">
         <v>0</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="24">
         <v>0</v>
       </c>
       <c r="I8" s="32"/>
       <c r="L8" s="1">
         <v>6</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="24">
         <v>0.52910100000000004</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N8" s="24">
         <v>1.853E-3</v>
       </c>
       <c r="O8" s="32"/>
@@ -28442,30 +28470,30 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="24">
         <v>0.56195499999999998</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>0.62990500000000005</v>
       </c>
       <c r="D9" s="32"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="24">
         <v>0</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="24">
         <v>0</v>
       </c>
       <c r="I9" s="32"/>
       <c r="L9" s="1">
         <v>7</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="24">
         <v>0.51032200000000005</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="24">
         <v>4.8050000000000002E-3</v>
       </c>
       <c r="O9" s="32"/>
@@ -28474,30 +28502,30 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="24">
         <v>0.57339300000000004</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="24">
         <v>0.62997499999999995</v>
       </c>
       <c r="D10" s="32"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="24">
         <v>0</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="24">
         <v>0</v>
       </c>
       <c r="I10" s="32"/>
       <c r="L10" s="1">
         <v>8</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="24">
         <v>0.44036700000000001</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="24">
         <v>9.9369999999999997E-3</v>
       </c>
       <c r="O10" s="32"/>
@@ -28506,30 +28534,30 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="24">
         <v>0.57301899999999995</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>0.629741</v>
       </c>
       <c r="D11" s="32"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="24">
         <v>0</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="24">
         <v>0</v>
       </c>
       <c r="I11" s="32"/>
       <c r="L11" s="1">
         <v>9</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M11" s="24">
         <v>0.317079</v>
       </c>
-      <c r="N11" s="25">
+      <c r="N11" s="24">
         <v>7.0303000000000004E-2</v>
       </c>
       <c r="O11" s="32"/>
@@ -28538,30 +28566,30 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="24">
         <v>0.57183899999999999</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="24">
         <v>0.62902800000000003</v>
       </c>
       <c r="D12" s="32"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="24">
         <v>0</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="24">
         <v>0</v>
       </c>
       <c r="I12" s="32"/>
       <c r="L12" s="1">
         <v>10</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="24">
         <v>0.36178399999999999</v>
       </c>
-      <c r="N12" s="25">
+      <c r="N12" s="24">
         <v>0.25535999999999998</v>
       </c>
       <c r="O12" s="32"/>
@@ -28570,30 +28598,30 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="24">
         <v>0.55879900000000005</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="24">
         <v>0.65797799999999995</v>
       </c>
       <c r="D13" s="32"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="24">
         <v>0</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="24">
         <v>0</v>
       </c>
       <c r="I13" s="32"/>
       <c r="L13" s="1">
         <v>11</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="24">
         <v>0.29769400000000001</v>
       </c>
-      <c r="N13" s="25">
+      <c r="N13" s="24">
         <v>0.30926500000000001</v>
       </c>
       <c r="O13" s="32"/>
@@ -28602,30 +28630,30 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="24">
         <v>0.50923399999999996</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="24">
         <v>0.57034200000000002</v>
       </c>
       <c r="D14" s="32"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="24">
         <v>0.223861</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="24">
         <v>0.212117</v>
       </c>
       <c r="I14" s="32"/>
       <c r="L14" s="1">
         <v>12</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="24">
         <v>0.30826799999999999</v>
       </c>
-      <c r="N14" s="25">
+      <c r="N14" s="24">
         <v>0.25233499999999998</v>
       </c>
       <c r="O14" s="32"/>
@@ -28657,41 +28685,41 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="24">
         <v>0.48178799999999999</v>
       </c>
       <c r="D2" s="32" t="s">
@@ -28700,56 +28728,56 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="24">
         <v>0.48178799999999999</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="M2" s="25">
+      <c r="M2" s="24">
         <v>0.48178799999999999</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="24">
         <v>0.48344399999999998</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="24">
         <v>0.48178799999999999</v>
       </c>
       <c r="D3" s="32"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="24">
         <v>0.48344399999999998</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="24">
         <v>0.48178799999999999</v>
       </c>
       <c r="I3" s="32"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="M3" s="25">
+      <c r="M3" s="24">
         <v>0.48178799999999999</v>
       </c>
       <c r="N3" s="32"/>
@@ -28758,30 +28786,30 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="24">
         <v>0.47847699999999999</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>0.48178799999999999</v>
       </c>
       <c r="D4" s="32"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="24">
         <v>0.48675499999999999</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="24">
         <v>0.48178799999999999</v>
       </c>
       <c r="I4" s="32"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="24">
         <v>0.48178799999999999</v>
       </c>
       <c r="N4" s="32"/>
@@ -28790,30 +28818,30 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="24">
         <v>0.480132</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>0.48178799999999999</v>
       </c>
       <c r="D5" s="32"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="24">
         <v>0.48178799999999999</v>
       </c>
       <c r="I5" s="32"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="24">
         <v>0.48178799999999999</v>
       </c>
       <c r="N5" s="32"/>
@@ -28822,30 +28850,30 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="24">
         <v>0.49172199999999999</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>0.480132</v>
       </c>
       <c r="D6" s="32"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="24">
         <v>0.48344399999999998</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="24">
         <v>0.48178799999999999</v>
       </c>
       <c r="I6" s="32"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="24">
         <v>0.48178799999999999</v>
       </c>
       <c r="N6" s="32"/>
@@ -28854,30 +28882,30 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="24">
         <v>0.48344399999999998</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>0.46854299999999999</v>
       </c>
       <c r="D7" s="32"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="24">
         <v>0.47516599999999998</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="24">
         <v>0.480132</v>
       </c>
       <c r="I7" s="32"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="24">
         <v>0.48178799999999999</v>
       </c>
       <c r="N7" s="32"/>
@@ -28886,30 +28914,30 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <v>0.46854299999999999</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <v>0.47682099999999999</v>
       </c>
       <c r="D8" s="32"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="24">
         <v>0.49337700000000001</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="24">
         <v>0.49337700000000001</v>
       </c>
       <c r="I8" s="32"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="24">
         <v>0.48344399999999998</v>
       </c>
       <c r="N8" s="32"/>
@@ -28918,30 +28946,30 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>0.480132</v>
       </c>
       <c r="D9" s="32"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="24">
         <v>0.490066</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="24">
         <v>0.48178799999999999</v>
       </c>
       <c r="I9" s="32"/>
       <c r="K9" s="1">
         <v>7</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="24">
         <v>0.48178799999999999</v>
       </c>
       <c r="N9" s="32"/>
@@ -28950,30 +28978,30 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="24">
         <v>0.47516599999999998</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="24">
         <v>0.480132</v>
       </c>
       <c r="D10" s="32"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="24">
         <v>0.49172199999999999</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="24">
         <v>0.480132</v>
       </c>
       <c r="I10" s="32"/>
       <c r="K10" s="1">
         <v>8</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="24">
         <v>0.47847699999999999</v>
       </c>
       <c r="N10" s="32"/>
@@ -28982,30 +29010,30 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="24">
         <v>0.48675499999999999</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>0.48178799999999999</v>
       </c>
       <c r="D11" s="32"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="24">
         <v>0.48841099999999998</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="24">
         <v>0.48178799999999999</v>
       </c>
       <c r="I11" s="32"/>
       <c r="K11" s="1">
         <v>9</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M11" s="24">
         <v>0.47682099999999999</v>
       </c>
       <c r="N11" s="32"/>
@@ -29014,30 +29042,30 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="24">
         <v>0.47019899999999998</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="24">
         <v>0.48178799999999999</v>
       </c>
       <c r="D12" s="32"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="24">
         <v>0.48675499999999999</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="24">
         <v>0.48178799999999999</v>
       </c>
       <c r="I12" s="32"/>
       <c r="K12" s="1">
         <v>10</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="24">
         <v>0.47682099999999999</v>
       </c>
       <c r="N12" s="32"/>
@@ -29046,30 +29074,30 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="24">
         <v>0.48178799999999999</v>
       </c>
       <c r="D13" s="32"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="24">
         <v>0.47682099999999999</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="24">
         <v>0.48178799999999999</v>
       </c>
       <c r="I13" s="32"/>
       <c r="K13" s="1">
         <v>11</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="24">
         <v>0.50165599999999999</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="24">
         <v>0.52152299999999996</v>
       </c>
       <c r="N13" s="32"/>
@@ -29078,30 +29106,30 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="24">
         <v>0.490066</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="24">
         <v>0.47516599999999998</v>
       </c>
       <c r="D14" s="32"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="24">
         <v>0.485099</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="24">
         <v>0.48675499999999999</v>
       </c>
       <c r="I14" s="32"/>
       <c r="K14" s="1">
         <v>12</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="24">
         <v>0.48344399999999998</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="24">
         <v>0.50331099999999995</v>
       </c>
       <c r="N14" s="32"/>
@@ -29129,41 +29157,41 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="24">
         <v>0.56552000000000002</v>
       </c>
       <c r="D2" s="32" t="s">
@@ -29172,56 +29200,56 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="24">
         <v>0.56552000000000002</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="M2" s="25">
+      <c r="M2" s="24">
         <v>0.56552000000000002</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="24">
         <v>0.571376</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="24">
         <v>0.569546</v>
       </c>
       <c r="D3" s="32"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="24">
         <v>0.56844799999999995</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="24">
         <v>0.56991199999999997</v>
       </c>
       <c r="I3" s="32"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="M3" s="25">
+      <c r="M3" s="24">
         <v>0.56552000000000002</v>
       </c>
       <c r="N3" s="32"/>
@@ -29230,30 +29258,30 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="24">
         <v>0.57284000000000002</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>0.567716</v>
       </c>
       <c r="D4" s="32"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="24">
         <v>0.56259199999999998</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="24">
         <v>0.56881400000000004</v>
       </c>
       <c r="I4" s="32"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="24">
         <v>0.56552000000000002</v>
       </c>
       <c r="N4" s="32"/>
@@ -29262,30 +29290,30 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="24">
         <v>0.575403</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>0.58894599999999997</v>
       </c>
       <c r="D5" s="32"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="24">
         <v>0.58162499999999995</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="24">
         <v>0.58308899999999997</v>
       </c>
       <c r="I5" s="32"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="24">
         <v>0.56552000000000002</v>
       </c>
       <c r="N5" s="32"/>
@@ -29294,30 +29322,30 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="24">
         <v>0.58235700000000001</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>0.60175699999999999</v>
       </c>
       <c r="D6" s="32"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="24">
         <v>0.58418700000000001</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="24">
         <v>0.60651500000000003</v>
       </c>
       <c r="I6" s="32"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="24">
         <v>0.56552000000000002</v>
       </c>
       <c r="N6" s="32"/>
@@ -29326,30 +29354,30 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="24">
         <v>0.61749600000000004</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>0.61712999999999996</v>
       </c>
       <c r="D7" s="32"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="24">
         <v>0.60614900000000005</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="24">
         <v>0.61786200000000002</v>
       </c>
       <c r="I7" s="32"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="24">
         <v>0.56552000000000002</v>
       </c>
       <c r="N7" s="32"/>
@@ -29358,30 +29386,30 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <v>0.61493399999999998</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <v>0.620425</v>
       </c>
       <c r="D8" s="32"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="24">
         <v>0.618228</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="24">
         <v>0.61090800000000001</v>
       </c>
       <c r="I8" s="32"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="24">
         <v>0.56552000000000002</v>
       </c>
       <c r="N8" s="32"/>
@@ -29390,30 +29418,30 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="24">
         <v>0.62628099999999998</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>0.633602</v>
       </c>
       <c r="D9" s="32"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="24">
         <v>0.61493399999999998</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="24">
         <v>0.61786200000000002</v>
       </c>
       <c r="I9" s="32"/>
       <c r="K9" s="1">
         <v>7</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="24">
         <v>0.56552000000000002</v>
       </c>
       <c r="N9" s="32"/>
@@ -29422,30 +29450,30 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="24">
         <v>0.61932699999999996</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="24">
         <v>0.62847699999999995</v>
       </c>
       <c r="D10" s="32"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="24">
         <v>0.60834600000000005</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="24">
         <v>0.620425</v>
       </c>
       <c r="I10" s="32"/>
       <c r="K10" s="1">
         <v>8</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="24">
         <v>0.58089299999999999</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="24">
         <v>0.57906299999999999</v>
       </c>
       <c r="N10" s="32"/>
@@ -29454,30 +29482,30 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="24">
         <v>0.63140600000000002</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>0.62664699999999995</v>
       </c>
       <c r="D11" s="32"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="24">
         <v>0.59480200000000005</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="24">
         <v>0.61712999999999996</v>
       </c>
       <c r="I11" s="32"/>
       <c r="K11" s="1">
         <v>9</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="24">
         <v>0.59077599999999997</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M11" s="24">
         <v>0.58491899999999997</v>
       </c>
       <c r="N11" s="32"/>
@@ -29486,30 +29514,30 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="24">
         <v>0.64128799999999997</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="24">
         <v>0.63250399999999996</v>
       </c>
       <c r="D12" s="32"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="24">
         <v>0.59333800000000003</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="24">
         <v>0.62005900000000003</v>
       </c>
       <c r="I12" s="32"/>
       <c r="K12" s="1">
         <v>10</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="24">
         <v>0.60505100000000001</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="24">
         <v>0.59553400000000001</v>
       </c>
       <c r="N12" s="32"/>
@@ -29518,30 +29546,30 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="24">
         <v>0.65080499999999997</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="24">
         <v>0.63689600000000002</v>
       </c>
       <c r="D13" s="32"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="24">
         <v>0.62554900000000002</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="24">
         <v>0.62884300000000004</v>
       </c>
       <c r="I13" s="32"/>
       <c r="K13" s="1">
         <v>11</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="24">
         <v>0.64787700000000004</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="24">
         <v>0.64055600000000001</v>
       </c>
       <c r="N13" s="32"/>
@@ -29550,30 +29578,30 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="24">
         <v>0.65190300000000001</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="24">
         <v>0.64019000000000004</v>
       </c>
       <c r="D14" s="32"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="24">
         <v>0.63762799999999997</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="24">
         <v>0.63872600000000002</v>
       </c>
       <c r="I14" s="32"/>
       <c r="K14" s="1">
         <v>12</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="24">
         <v>0.65739400000000003</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="24">
         <v>0.66800899999999996</v>
       </c>
       <c r="N14" s="32"/>

--- a/POS Code/Experiments/attachments/detailed_results.xlsx
+++ b/POS Code/Experiments/attachments/detailed_results.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3293BA3-223F-144A-9F38-7EBDB4292E35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7923D620-256F-BE4C-8B81-8E5F909D1D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="2700" windowWidth="27540" windowHeight="17700" xr2:uid="{BEC22610-DBDE-49A5-ABDC-7DB261D6BA7F}"/>
+    <workbookView xWindow="5520" yWindow="2740" windowWidth="27540" windowHeight="17700" activeTab="2" xr2:uid="{BEC22610-DBDE-49A5-ABDC-7DB261D6BA7F}"/>
   </bookViews>
   <sheets>
     <sheet name="POSSummary" sheetId="3" r:id="rId1"/>
     <sheet name="DefDetSummary" sheetId="6" r:id="rId2"/>
-    <sheet name="POSLayerwise" sheetId="5" r:id="rId3"/>
-    <sheet name="CloneDetecLayerwise" sheetId="7" r:id="rId4"/>
-    <sheet name="CodeSearchLayerwise" sheetId="8" r:id="rId5"/>
-    <sheet name="DefDectLayerwise" sheetId="9" r:id="rId6"/>
+    <sheet name="CloneDetSummary" sheetId="10" r:id="rId3"/>
+    <sheet name="POSLayerwise" sheetId="5" r:id="rId4"/>
+    <sheet name="CloneDetecLayerwise" sheetId="7" r:id="rId5"/>
+    <sheet name="CodeSearchLayerwise" sheetId="8" r:id="rId6"/>
+    <sheet name="DefDectLayerwise" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="58">
   <si>
     <t>Selection</t>
   </si>
@@ -183,9 +184,6 @@
     <t>CB</t>
   </si>
   <si>
-    <t>Cba</t>
-  </si>
-  <si>
     <t>CGJ</t>
   </si>
   <si>
@@ -208,6 +206,12 @@
   </si>
   <si>
     <t>UC</t>
+  </si>
+  <si>
+    <t>CBa</t>
+  </si>
+  <si>
+    <t>f1</t>
   </si>
 </sst>
 </file>
@@ -340,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -421,6 +425,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -434,6 +444,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -23945,8 +23982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1929D321-160C-41CB-828A-0FA5B23B672C}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23979,38 +24016,38 @@
         <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -24054,7 +24091,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -24096,7 +24133,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -24140,7 +24177,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
@@ -24182,7 +24219,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -24226,7 +24263,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -24268,7 +24305,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="26" t="s">
         <v>41</v>
       </c>
@@ -24322,7 +24359,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
@@ -24364,7 +24401,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -24408,7 +24445,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -24450,7 +24487,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="26" t="s">
         <v>41</v>
       </c>
@@ -24504,7 +24541,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
@@ -24546,7 +24583,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -24590,7 +24627,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -24632,7 +24669,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -24674,7 +24711,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="26" t="s">
         <v>41</v>
       </c>
@@ -24728,7 +24765,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
@@ -24771,7 +24808,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="33" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -24815,7 +24852,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
@@ -24857,7 +24894,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
@@ -24899,7 +24936,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
@@ -24941,7 +24978,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="29"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="26" t="s">
         <v>41</v>
       </c>
@@ -24995,7 +25032,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="4" t="s">
         <v>7</v>
       </c>
@@ -25037,7 +25074,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="30" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -25081,7 +25118,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
@@ -25123,7 +25160,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
@@ -25165,7 +25202,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="29"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
@@ -25207,7 +25244,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
@@ -25249,7 +25286,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="29"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="26" t="s">
         <v>41</v>
       </c>
@@ -25303,7 +25340,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="4" t="s">
         <v>7</v>
       </c>
@@ -25364,7 +25401,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25420,7 +25457,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -25458,7 +25495,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -25494,7 +25531,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -25532,7 +25569,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="25" t="s">
         <v>5</v>
       </c>
@@ -25568,7 +25605,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="25" t="s">
         <v>41</v>
       </c>
@@ -25614,7 +25651,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -25660,7 +25697,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -25698,7 +25735,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="25" t="s">
         <v>4</v>
       </c>
@@ -25734,7 +25771,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="25" t="s">
         <v>5</v>
       </c>
@@ -25770,7 +25807,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="25" t="s">
         <v>41</v>
       </c>
@@ -25816,7 +25853,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -25862,7 +25899,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="33" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -25900,7 +25937,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="25" t="s">
         <v>12</v>
       </c>
@@ -25936,7 +25973,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="25" t="s">
         <v>4</v>
       </c>
@@ -25978,7 +26015,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="25" t="s">
         <v>5</v>
       </c>
@@ -25986,7 +26023,7 @@
         <v>0.74199999999999999</v>
       </c>
       <c r="D16" s="7">
-        <v>0.83320000000000005</v>
+        <v>0.83209999999999995</v>
       </c>
       <c r="E16" s="7">
         <v>0.69989999999999997</v>
@@ -26014,7 +26051,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="25" t="s">
         <v>41</v>
       </c>
@@ -26024,7 +26061,7 @@
       </c>
       <c r="D17" s="7">
         <f t="shared" ref="D17:L17" si="4">D16-D3</f>
-        <v>0.19300000000000006</v>
+        <v>0.19189999999999996</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="4"/>
@@ -26060,7 +26097,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
@@ -26106,7 +26143,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="30" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -26144,7 +26181,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="25" t="s">
         <v>13</v>
       </c>
@@ -26180,7 +26217,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="25" t="s">
         <v>9</v>
       </c>
@@ -26216,7 +26253,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="25" t="s">
         <v>4</v>
       </c>
@@ -26252,7 +26289,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="29"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="25" t="s">
         <v>5</v>
       </c>
@@ -26288,7 +26325,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="29"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="25" t="s">
         <v>41</v>
       </c>
@@ -26334,7 +26371,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
@@ -26392,6 +26429,580 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA23802-E131-F843-8926-5D2D2FC1D55E}">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>9984</v>
+      </c>
+      <c r="D2" s="2">
+        <v>9984</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5376</v>
+      </c>
+      <c r="F2" s="2">
+        <v>9984</v>
+      </c>
+      <c r="G2" s="2">
+        <v>9984</v>
+      </c>
+      <c r="H2" s="2">
+        <v>9984</v>
+      </c>
+      <c r="I2" s="2">
+        <v>9984</v>
+      </c>
+      <c r="J2" s="2">
+        <v>9984</v>
+      </c>
+      <c r="K2" s="2">
+        <v>9984</v>
+      </c>
+      <c r="L2" s="2">
+        <v>9984</v>
+      </c>
+      <c r="M2" s="2">
+        <v>9984</v>
+      </c>
+      <c r="N2" s="3">
+        <v>9984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="32"/>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="39">
+        <v>0.72</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>169</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="31"/>
+      <c r="B5" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="35">
+        <v>0.71540000000000004</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="38"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="31"/>
+      <c r="B6" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="35">
+        <f>C5-C3</f>
+        <v>-4.5999999999999375E-3</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="41"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="32"/>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="42">
+        <f>1-C4/C2</f>
+        <v>0.98307291666666663</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="31"/>
+      <c r="B9" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="16">
+        <v>3121</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="36">
+        <v>0.73</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="38"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="31"/>
+      <c r="B11" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="36">
+        <f>C10-C3</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="38"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="32"/>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5">
+        <f>1-C9/C2</f>
+        <v>0.68739983974358976</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="31"/>
+      <c r="B14" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="28">
+        <v>1</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="31"/>
+      <c r="B15" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="28">
+        <f>13*768</f>
+        <v>9984</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="31"/>
+      <c r="B16" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="31"/>
+      <c r="B17" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="36">
+        <f>C16-C3</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="38"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="32"/>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5">
+        <f>1-C15/C2</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="31"/>
+      <c r="B20" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="13"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="31"/>
+      <c r="B21" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="31"/>
+      <c r="B22" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="31"/>
+      <c r="B23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="35">
+        <v>0.72</v>
+      </c>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="43"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="31"/>
+      <c r="B24" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="29"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="32"/>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F291A794-F81B-A94A-B246-9FC1326ED183}">
   <dimension ref="A1:N111"/>
   <sheetViews>
@@ -26445,7 +27056,7 @@
       <c r="C2" s="20">
         <v>0.94899999999999995</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="34" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1">
@@ -26457,7 +27068,7 @@
       <c r="H2" s="20">
         <v>0.89500000000000002</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="34" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="1">
@@ -26469,7 +27080,7 @@
       <c r="M2" s="20">
         <v>0.91100000000000003</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="34" t="s">
         <v>19</v>
       </c>
     </row>
@@ -26483,7 +27094,7 @@
       <c r="C3" s="20">
         <v>0.84</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="34"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -26493,7 +27104,7 @@
       <c r="H3" s="20">
         <v>0.93100000000000005</v>
       </c>
-      <c r="I3" s="32"/>
+      <c r="I3" s="34"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
@@ -26503,7 +27114,7 @@
       <c r="M3" s="20">
         <v>0.90900000000000003</v>
       </c>
-      <c r="N3" s="32"/>
+      <c r="N3" s="34"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -26515,7 +27126,7 @@
       <c r="C4" s="20">
         <v>0.876</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="34"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -26525,7 +27136,7 @@
       <c r="H4" s="20">
         <v>0.873</v>
       </c>
-      <c r="I4" s="32"/>
+      <c r="I4" s="34"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
@@ -26535,7 +27146,7 @@
       <c r="M4" s="20">
         <v>0.90100000000000002</v>
       </c>
-      <c r="N4" s="32"/>
+      <c r="N4" s="34"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -26547,7 +27158,7 @@
       <c r="C5" s="20">
         <v>0.93600000000000005</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="34"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -26557,7 +27168,7 @@
       <c r="H5" s="20">
         <v>0.83799999999999997</v>
       </c>
-      <c r="I5" s="32"/>
+      <c r="I5" s="34"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
@@ -26567,7 +27178,7 @@
       <c r="M5" s="20">
         <v>0.88400000000000001</v>
       </c>
-      <c r="N5" s="32"/>
+      <c r="N5" s="34"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -26579,7 +27190,7 @@
       <c r="C6" s="20">
         <v>0.97</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="34"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -26589,7 +27200,7 @@
       <c r="H6" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="I6" s="32"/>
+      <c r="I6" s="34"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
@@ -26599,7 +27210,7 @@
       <c r="M6" s="20">
         <v>0.93899999999999995</v>
       </c>
-      <c r="N6" s="32"/>
+      <c r="N6" s="34"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -26611,7 +27222,7 @@
       <c r="C7" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="34"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -26621,7 +27232,7 @@
       <c r="H7" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="I7" s="32"/>
+      <c r="I7" s="34"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
@@ -26631,7 +27242,7 @@
       <c r="M7" s="20">
         <v>0.91700000000000004</v>
       </c>
-      <c r="N7" s="32"/>
+      <c r="N7" s="34"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -26643,7 +27254,7 @@
       <c r="C8" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="34"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -26653,7 +27264,7 @@
       <c r="H8" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I8" s="32"/>
+      <c r="I8" s="34"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
@@ -26663,7 +27274,7 @@
       <c r="M8" s="20">
         <v>0.92300000000000004</v>
       </c>
-      <c r="N8" s="32"/>
+      <c r="N8" s="34"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -26675,7 +27286,7 @@
       <c r="C9" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="34"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -26685,7 +27296,7 @@
       <c r="H9" s="20">
         <v>0.96499999999999997</v>
       </c>
-      <c r="I9" s="32"/>
+      <c r="I9" s="34"/>
       <c r="K9" s="1"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
@@ -26701,7 +27312,7 @@
       <c r="C10" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D10" s="32"/>
+      <c r="D10" s="34"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -26711,7 +27322,7 @@
       <c r="H10" s="20">
         <v>0.94899999999999995</v>
       </c>
-      <c r="I10" s="32"/>
+      <c r="I10" s="34"/>
       <c r="K10" s="1"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
@@ -26727,7 +27338,7 @@
       <c r="C11" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D11" s="32"/>
+      <c r="D11" s="34"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -26737,7 +27348,7 @@
       <c r="H11" s="20">
         <v>0.93</v>
       </c>
-      <c r="I11" s="32"/>
+      <c r="I11" s="34"/>
       <c r="K11" s="1"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
@@ -26753,7 +27364,7 @@
       <c r="C12" s="20">
         <v>0.98099999999999998</v>
       </c>
-      <c r="D12" s="32"/>
+      <c r="D12" s="34"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -26763,7 +27374,7 @@
       <c r="H12" s="20">
         <v>0.91500000000000004</v>
       </c>
-      <c r="I12" s="32"/>
+      <c r="I12" s="34"/>
       <c r="K12" s="1"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
@@ -26779,7 +27390,7 @@
       <c r="C13" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="D13" s="32"/>
+      <c r="D13" s="34"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -26789,7 +27400,7 @@
       <c r="H13" s="20">
         <v>0.91500000000000004</v>
       </c>
-      <c r="I13" s="32"/>
+      <c r="I13" s="34"/>
       <c r="K13" s="1"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
@@ -26805,7 +27416,7 @@
       <c r="C14" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="D14" s="32"/>
+      <c r="D14" s="34"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -26815,7 +27426,7 @@
       <c r="H14" s="20">
         <v>0.91900000000000004</v>
       </c>
-      <c r="I14" s="32"/>
+      <c r="I14" s="34"/>
       <c r="K14" s="1"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
@@ -26860,7 +27471,7 @@
       <c r="C34" s="20">
         <v>0.98199999999999998</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="34" t="s">
         <v>20</v>
       </c>
       <c r="F34" s="1">
@@ -26872,7 +27483,7 @@
       <c r="H34" s="20">
         <v>0.98899999999999999</v>
       </c>
-      <c r="I34" s="32" t="s">
+      <c r="I34" s="34" t="s">
         <v>21</v>
       </c>
       <c r="K34" s="1">
@@ -26884,7 +27495,7 @@
       <c r="M34" s="20">
         <v>0.99399999999999999</v>
       </c>
-      <c r="N34" s="32" t="s">
+      <c r="N34" s="34" t="s">
         <v>22</v>
       </c>
     </row>
@@ -26898,7 +27509,7 @@
       <c r="C35" s="20">
         <v>0.91800000000000004</v>
       </c>
-      <c r="D35" s="32"/>
+      <c r="D35" s="34"/>
       <c r="F35" s="1">
         <v>1</v>
       </c>
@@ -26908,7 +27519,7 @@
       <c r="H35" s="20">
         <v>0.96399999999999997</v>
       </c>
-      <c r="I35" s="32"/>
+      <c r="I35" s="34"/>
       <c r="K35" s="1">
         <v>1</v>
       </c>
@@ -26918,7 +27529,7 @@
       <c r="M35" s="20">
         <v>0.99099999999999999</v>
       </c>
-      <c r="N35" s="32"/>
+      <c r="N35" s="34"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
@@ -26930,7 +27541,7 @@
       <c r="C36" s="20">
         <v>0.91900000000000004</v>
       </c>
-      <c r="D36" s="32"/>
+      <c r="D36" s="34"/>
       <c r="F36" s="1">
         <v>2</v>
       </c>
@@ -26940,7 +27551,7 @@
       <c r="H36" s="20">
         <v>0.97</v>
       </c>
-      <c r="I36" s="32"/>
+      <c r="I36" s="34"/>
       <c r="K36" s="1">
         <v>2</v>
       </c>
@@ -26950,7 +27561,7 @@
       <c r="M36" s="20">
         <v>0.98299999999999998</v>
       </c>
-      <c r="N36" s="32"/>
+      <c r="N36" s="34"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
@@ -26962,7 +27573,7 @@
       <c r="C37" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="D37" s="32"/>
+      <c r="D37" s="34"/>
       <c r="F37" s="1">
         <v>3</v>
       </c>
@@ -26972,7 +27583,7 @@
       <c r="H37" s="20">
         <v>0.96599999999999997</v>
       </c>
-      <c r="I37" s="32"/>
+      <c r="I37" s="34"/>
       <c r="K37" s="1">
         <v>3</v>
       </c>
@@ -26982,7 +27593,7 @@
       <c r="M37" s="20">
         <v>0.98</v>
       </c>
-      <c r="N37" s="32"/>
+      <c r="N37" s="34"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
@@ -26994,7 +27605,7 @@
       <c r="C38" s="20">
         <v>0.97699999999999998</v>
       </c>
-      <c r="D38" s="32"/>
+      <c r="D38" s="34"/>
       <c r="F38" s="1">
         <v>4</v>
       </c>
@@ -27004,7 +27615,7 @@
       <c r="H38" s="20">
         <v>0.96799999999999997</v>
       </c>
-      <c r="I38" s="32"/>
+      <c r="I38" s="34"/>
       <c r="K38" s="1">
         <v>4</v>
       </c>
@@ -27014,7 +27625,7 @@
       <c r="M38" s="20">
         <v>0.97099999999999997</v>
       </c>
-      <c r="N38" s="32"/>
+      <c r="N38" s="34"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
@@ -27026,7 +27637,7 @@
       <c r="C39" s="20">
         <v>0.98199999999999998</v>
       </c>
-      <c r="D39" s="32"/>
+      <c r="D39" s="34"/>
       <c r="F39" s="1">
         <v>5</v>
       </c>
@@ -27036,7 +27647,7 @@
       <c r="H39" s="20">
         <v>0.96699999999999997</v>
       </c>
-      <c r="I39" s="32"/>
+      <c r="I39" s="34"/>
       <c r="K39" s="1">
         <v>5</v>
       </c>
@@ -27046,7 +27657,7 @@
       <c r="M39" s="20">
         <v>0.873</v>
       </c>
-      <c r="N39" s="32"/>
+      <c r="N39" s="34"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
@@ -27058,7 +27669,7 @@
       <c r="C40" s="20">
         <v>0.94399999999999995</v>
       </c>
-      <c r="D40" s="32"/>
+      <c r="D40" s="34"/>
       <c r="F40" s="1">
         <v>6</v>
       </c>
@@ -27068,7 +27679,7 @@
       <c r="H40" s="20">
         <v>0.96399999999999997</v>
       </c>
-      <c r="I40" s="32"/>
+      <c r="I40" s="34"/>
       <c r="K40" s="1">
         <v>6</v>
       </c>
@@ -27078,7 +27689,7 @@
       <c r="M40" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="N40" s="32"/>
+      <c r="N40" s="34"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
@@ -27090,7 +27701,7 @@
       <c r="C41" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="D41" s="32"/>
+      <c r="D41" s="34"/>
       <c r="F41" s="1">
         <v>7</v>
       </c>
@@ -27100,7 +27711,7 @@
       <c r="H41" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I41" s="32"/>
+      <c r="I41" s="34"/>
       <c r="K41" s="1">
         <v>7</v>
       </c>
@@ -27110,7 +27721,7 @@
       <c r="M41" s="20">
         <v>0.93</v>
       </c>
-      <c r="N41" s="32"/>
+      <c r="N41" s="34"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
@@ -27122,7 +27733,7 @@
       <c r="C42" s="20">
         <v>0.94599999999999995</v>
       </c>
-      <c r="D42" s="32"/>
+      <c r="D42" s="34"/>
       <c r="F42" s="1">
         <v>8</v>
       </c>
@@ -27132,7 +27743,7 @@
       <c r="H42" s="20">
         <v>0.82099999999999995</v>
       </c>
-      <c r="I42" s="32"/>
+      <c r="I42" s="34"/>
       <c r="K42" s="1">
         <v>8</v>
       </c>
@@ -27142,7 +27753,7 @@
       <c r="M42" s="20">
         <v>0.98699999999999999</v>
       </c>
-      <c r="N42" s="32"/>
+      <c r="N42" s="34"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
@@ -27154,7 +27765,7 @@
       <c r="C43" s="20">
         <v>0.98099999999999998</v>
       </c>
-      <c r="D43" s="32"/>
+      <c r="D43" s="34"/>
       <c r="F43" s="1">
         <v>9</v>
       </c>
@@ -27164,7 +27775,7 @@
       <c r="H43" s="20">
         <v>0.82799999999999996</v>
       </c>
-      <c r="I43" s="32"/>
+      <c r="I43" s="34"/>
       <c r="K43" s="1">
         <v>9</v>
       </c>
@@ -27174,7 +27785,7 @@
       <c r="M43" s="20">
         <v>0.93500000000000005</v>
       </c>
-      <c r="N43" s="32"/>
+      <c r="N43" s="34"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
@@ -27186,7 +27797,7 @@
       <c r="C44" s="20">
         <v>0.98399999999999999</v>
       </c>
-      <c r="D44" s="32"/>
+      <c r="D44" s="34"/>
       <c r="F44" s="1">
         <v>10</v>
       </c>
@@ -27196,7 +27807,7 @@
       <c r="H44" s="20">
         <v>0.84099999999999997</v>
       </c>
-      <c r="I44" s="32"/>
+      <c r="I44" s="34"/>
       <c r="K44" s="1">
         <v>10</v>
       </c>
@@ -27206,7 +27817,7 @@
       <c r="M44" s="20">
         <v>0.92500000000000004</v>
       </c>
-      <c r="N44" s="32"/>
+      <c r="N44" s="34"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
@@ -27218,7 +27829,7 @@
       <c r="C45" s="20">
         <v>0.95299999999999996</v>
       </c>
-      <c r="D45" s="32"/>
+      <c r="D45" s="34"/>
       <c r="F45" s="1">
         <v>11</v>
       </c>
@@ -27228,7 +27839,7 @@
       <c r="H45" s="20">
         <v>0.98</v>
       </c>
-      <c r="I45" s="32"/>
+      <c r="I45" s="34"/>
       <c r="K45" s="1">
         <v>11</v>
       </c>
@@ -27238,7 +27849,7 @@
       <c r="M45" s="20">
         <v>0.92400000000000004</v>
       </c>
-      <c r="N45" s="32"/>
+      <c r="N45" s="34"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
@@ -27250,7 +27861,7 @@
       <c r="C46" s="20">
         <v>0.92100000000000004</v>
       </c>
-      <c r="D46" s="32"/>
+      <c r="D46" s="34"/>
       <c r="F46" s="1">
         <v>12</v>
       </c>
@@ -27260,7 +27871,7 @@
       <c r="H46" s="20">
         <v>0.84</v>
       </c>
-      <c r="I46" s="32"/>
+      <c r="I46" s="34"/>
       <c r="K46" s="1">
         <v>12</v>
       </c>
@@ -27270,7 +27881,7 @@
       <c r="M46" s="20">
         <v>0.93300000000000005</v>
       </c>
-      <c r="N46" s="32"/>
+      <c r="N46" s="34"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -27311,7 +27922,7 @@
       <c r="C67" s="20">
         <v>0.77700000000000002</v>
       </c>
-      <c r="D67" s="32" t="s">
+      <c r="D67" s="34" t="s">
         <v>23</v>
       </c>
       <c r="F67" s="1">
@@ -27323,7 +27934,7 @@
       <c r="H67" s="20">
         <v>0.75900000000000001</v>
       </c>
-      <c r="I67" s="32" t="s">
+      <c r="I67" s="34" t="s">
         <v>24</v>
       </c>
       <c r="K67" s="1">
@@ -27335,7 +27946,7 @@
       <c r="M67" s="20">
         <v>0.89400000000000002</v>
       </c>
-      <c r="N67" s="32" t="s">
+      <c r="N67" s="34" t="s">
         <v>25</v>
       </c>
     </row>
@@ -27349,7 +27960,7 @@
       <c r="C68" s="20">
         <v>0.85099999999999998</v>
       </c>
-      <c r="D68" s="32"/>
+      <c r="D68" s="34"/>
       <c r="F68" s="1">
         <v>1</v>
       </c>
@@ -27359,7 +27970,7 @@
       <c r="H68" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I68" s="32"/>
+      <c r="I68" s="34"/>
       <c r="K68" s="1">
         <v>1</v>
       </c>
@@ -27369,7 +27980,7 @@
       <c r="M68" s="20">
         <v>0.94299999999999995</v>
       </c>
-      <c r="N68" s="32"/>
+      <c r="N68" s="34"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
@@ -27381,7 +27992,7 @@
       <c r="C69" s="20">
         <v>0.93300000000000005</v>
       </c>
-      <c r="D69" s="32"/>
+      <c r="D69" s="34"/>
       <c r="F69" s="1">
         <v>2</v>
       </c>
@@ -27391,7 +28002,7 @@
       <c r="H69" s="20">
         <v>0.81899999999999995</v>
       </c>
-      <c r="I69" s="32"/>
+      <c r="I69" s="34"/>
       <c r="K69" s="1">
         <v>2</v>
       </c>
@@ -27401,7 +28012,7 @@
       <c r="M69" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="N69" s="32"/>
+      <c r="N69" s="34"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
@@ -27413,7 +28024,7 @@
       <c r="C70" s="20">
         <v>0.92700000000000005</v>
       </c>
-      <c r="D70" s="32"/>
+      <c r="D70" s="34"/>
       <c r="F70" s="1">
         <v>3</v>
       </c>
@@ -27423,7 +28034,7 @@
       <c r="H70" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I70" s="32"/>
+      <c r="I70" s="34"/>
       <c r="K70" s="1">
         <v>3</v>
       </c>
@@ -27433,7 +28044,7 @@
       <c r="M70" s="20">
         <v>0.97499999999999998</v>
       </c>
-      <c r="N70" s="32"/>
+      <c r="N70" s="34"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
@@ -27445,7 +28056,7 @@
       <c r="C71" s="20">
         <v>0.90600000000000003</v>
       </c>
-      <c r="D71" s="32"/>
+      <c r="D71" s="34"/>
       <c r="F71" s="1">
         <v>4</v>
       </c>
@@ -27455,7 +28066,7 @@
       <c r="H71" s="20">
         <v>0.96899999999999997</v>
       </c>
-      <c r="I71" s="32"/>
+      <c r="I71" s="34"/>
       <c r="K71" s="1">
         <v>4</v>
       </c>
@@ -27465,7 +28076,7 @@
       <c r="M71" s="20">
         <v>0.85199999999999998</v>
       </c>
-      <c r="N71" s="32"/>
+      <c r="N71" s="34"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
@@ -27477,7 +28088,7 @@
       <c r="C72" s="20">
         <v>0.92</v>
       </c>
-      <c r="D72" s="32"/>
+      <c r="D72" s="34"/>
       <c r="F72" s="1">
         <v>5</v>
       </c>
@@ -27487,7 +28098,7 @@
       <c r="H72" s="20">
         <v>0.96499999999999997</v>
       </c>
-      <c r="I72" s="32"/>
+      <c r="I72" s="34"/>
       <c r="K72" s="1">
         <v>5</v>
       </c>
@@ -27497,7 +28108,7 @@
       <c r="M72" s="20">
         <v>0.86899999999999999</v>
       </c>
-      <c r="N72" s="32"/>
+      <c r="N72" s="34"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
@@ -27509,7 +28120,7 @@
       <c r="C73" s="20">
         <v>0.96199999999999997</v>
       </c>
-      <c r="D73" s="32"/>
+      <c r="D73" s="34"/>
       <c r="F73" s="1">
         <v>6</v>
       </c>
@@ -27519,7 +28130,7 @@
       <c r="H73" s="20">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I73" s="32"/>
+      <c r="I73" s="34"/>
       <c r="K73" s="1">
         <v>6</v>
       </c>
@@ -27529,7 +28140,7 @@
       <c r="M73" s="20">
         <v>0.876</v>
       </c>
-      <c r="N73" s="32"/>
+      <c r="N73" s="34"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
@@ -27541,7 +28152,7 @@
       <c r="C74" s="20">
         <v>0.82199999999999995</v>
       </c>
-      <c r="D74" s="32"/>
+      <c r="D74" s="34"/>
       <c r="F74" s="1">
         <v>7</v>
       </c>
@@ -27551,7 +28162,7 @@
       <c r="H74" s="20">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I74" s="32"/>
+      <c r="I74" s="34"/>
       <c r="K74" s="1">
         <v>7</v>
       </c>
@@ -27561,7 +28172,7 @@
       <c r="M74" s="20">
         <v>0.89300000000000002</v>
       </c>
-      <c r="N74" s="32"/>
+      <c r="N74" s="34"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
@@ -27573,7 +28184,7 @@
       <c r="C75" s="20">
         <v>0.82399999999999995</v>
       </c>
-      <c r="D75" s="32"/>
+      <c r="D75" s="34"/>
       <c r="F75" s="1">
         <v>8</v>
       </c>
@@ -27583,7 +28194,7 @@
       <c r="H75" s="20">
         <v>0.91800000000000004</v>
       </c>
-      <c r="I75" s="32"/>
+      <c r="I75" s="34"/>
       <c r="K75" s="1">
         <v>8</v>
       </c>
@@ -27593,7 +28204,7 @@
       <c r="M75" s="20">
         <v>0.98799999999999999</v>
       </c>
-      <c r="N75" s="32"/>
+      <c r="N75" s="34"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
@@ -27605,7 +28216,7 @@
       <c r="C76" s="20">
         <v>0.92500000000000004</v>
       </c>
-      <c r="D76" s="32"/>
+      <c r="D76" s="34"/>
       <c r="F76" s="1">
         <v>9</v>
       </c>
@@ -27615,7 +28226,7 @@
       <c r="H76" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="I76" s="32"/>
+      <c r="I76" s="34"/>
       <c r="K76" s="1">
         <v>9</v>
       </c>
@@ -27625,7 +28236,7 @@
       <c r="M76" s="20">
         <v>0.89500000000000002</v>
       </c>
-      <c r="N76" s="32"/>
+      <c r="N76" s="34"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
@@ -27637,7 +28248,7 @@
       <c r="C77" s="20">
         <v>0.83199999999999996</v>
       </c>
-      <c r="D77" s="32"/>
+      <c r="D77" s="34"/>
       <c r="F77" s="1">
         <v>10</v>
       </c>
@@ -27647,7 +28258,7 @@
       <c r="H77" s="20">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I77" s="32"/>
+      <c r="I77" s="34"/>
       <c r="K77" s="1">
         <v>10</v>
       </c>
@@ -27657,7 +28268,7 @@
       <c r="M77" s="20">
         <v>0.98199999999999998</v>
       </c>
-      <c r="N77" s="32"/>
+      <c r="N77" s="34"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
@@ -27669,7 +28280,7 @@
       <c r="C78" s="20">
         <v>0.82899999999999996</v>
       </c>
-      <c r="D78" s="32"/>
+      <c r="D78" s="34"/>
       <c r="F78" s="1">
         <v>11</v>
       </c>
@@ -27679,7 +28290,7 @@
       <c r="H78" s="20">
         <v>0.94899999999999995</v>
       </c>
-      <c r="I78" s="32"/>
+      <c r="I78" s="34"/>
       <c r="K78" s="1">
         <v>11</v>
       </c>
@@ -27689,7 +28300,7 @@
       <c r="M78" s="20">
         <v>0.98099999999999998</v>
       </c>
-      <c r="N78" s="32"/>
+      <c r="N78" s="34"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -27701,7 +28312,7 @@
       <c r="C79" s="20">
         <v>0.95399999999999996</v>
       </c>
-      <c r="D79" s="32"/>
+      <c r="D79" s="34"/>
       <c r="F79" s="1">
         <v>12</v>
       </c>
@@ -27711,7 +28322,7 @@
       <c r="H79" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="I79" s="32"/>
+      <c r="I79" s="34"/>
       <c r="K79" s="1">
         <v>12</v>
       </c>
@@ -27721,7 +28332,7 @@
       <c r="M79" s="20">
         <v>0.95899999999999996</v>
       </c>
-      <c r="N79" s="32"/>
+      <c r="N79" s="34"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
@@ -27762,7 +28373,7 @@
       <c r="C99" s="20">
         <v>0.92200000000000004</v>
       </c>
-      <c r="D99" s="32" t="s">
+      <c r="D99" s="34" t="s">
         <v>26</v>
       </c>
       <c r="F99" s="1">
@@ -27774,7 +28385,7 @@
       <c r="H99" s="20">
         <v>0.874</v>
       </c>
-      <c r="I99" s="32" t="s">
+      <c r="I99" s="34" t="s">
         <v>27</v>
       </c>
       <c r="K99" s="1">
@@ -27786,7 +28397,7 @@
       <c r="M99" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="N99" s="32" t="s">
+      <c r="N99" s="34" t="s">
         <v>28</v>
       </c>
     </row>
@@ -27800,7 +28411,7 @@
       <c r="C100" s="20">
         <v>0.91600000000000004</v>
       </c>
-      <c r="D100" s="32"/>
+      <c r="D100" s="34"/>
       <c r="F100" s="1">
         <v>1</v>
       </c>
@@ -27810,7 +28421,7 @@
       <c r="H100" s="20">
         <v>0.89500000000000002</v>
       </c>
-      <c r="I100" s="32"/>
+      <c r="I100" s="34"/>
       <c r="K100" s="1">
         <v>1</v>
       </c>
@@ -27820,7 +28431,7 @@
       <c r="M100" s="20">
         <v>0.98499999999999999</v>
       </c>
-      <c r="N100" s="32"/>
+      <c r="N100" s="34"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
@@ -27832,7 +28443,7 @@
       <c r="C101" s="20">
         <v>0.89200000000000002</v>
       </c>
-      <c r="D101" s="32"/>
+      <c r="D101" s="34"/>
       <c r="F101" s="1">
         <v>2</v>
       </c>
@@ -27842,7 +28453,7 @@
       <c r="H101" s="20">
         <v>0.96299999999999997</v>
       </c>
-      <c r="I101" s="32"/>
+      <c r="I101" s="34"/>
       <c r="K101" s="1">
         <v>2</v>
       </c>
@@ -27852,7 +28463,7 @@
       <c r="M101" s="20">
         <v>0.96699999999999997</v>
       </c>
-      <c r="N101" s="32"/>
+      <c r="N101" s="34"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
@@ -27864,7 +28475,7 @@
       <c r="C102" s="20">
         <v>0.91</v>
       </c>
-      <c r="D102" s="32"/>
+      <c r="D102" s="34"/>
       <c r="F102" s="1">
         <v>3</v>
       </c>
@@ -27874,7 +28485,7 @@
       <c r="H102" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I102" s="32"/>
+      <c r="I102" s="34"/>
       <c r="K102" s="1">
         <v>3</v>
       </c>
@@ -27884,7 +28495,7 @@
       <c r="M102" s="20">
         <v>0.995</v>
       </c>
-      <c r="N102" s="32"/>
+      <c r="N102" s="34"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
@@ -27896,7 +28507,7 @@
       <c r="C103" s="20">
         <v>0.89800000000000002</v>
       </c>
-      <c r="D103" s="32"/>
+      <c r="D103" s="34"/>
       <c r="F103" s="1">
         <v>4</v>
       </c>
@@ -27906,7 +28517,7 @@
       <c r="H103" s="20">
         <v>0.98399999999999999</v>
       </c>
-      <c r="I103" s="32"/>
+      <c r="I103" s="34"/>
       <c r="K103" s="1">
         <v>4</v>
       </c>
@@ -27916,7 +28527,7 @@
       <c r="M103" s="20">
         <v>0.98699999999999999</v>
       </c>
-      <c r="N103" s="32"/>
+      <c r="N103" s="34"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
@@ -27928,7 +28539,7 @@
       <c r="C104" s="20">
         <v>0.88</v>
       </c>
-      <c r="D104" s="32"/>
+      <c r="D104" s="34"/>
       <c r="F104" s="1">
         <v>5</v>
       </c>
@@ -27938,7 +28549,7 @@
       <c r="H104" s="20">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I104" s="32"/>
+      <c r="I104" s="34"/>
       <c r="K104" s="1">
         <v>5</v>
       </c>
@@ -27948,7 +28559,7 @@
       <c r="M104" s="20">
         <v>0.996</v>
       </c>
-      <c r="N104" s="32"/>
+      <c r="N104" s="34"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
@@ -27960,7 +28571,7 @@
       <c r="C105" s="20">
         <v>0.90400000000000003</v>
       </c>
-      <c r="D105" s="32"/>
+      <c r="D105" s="34"/>
       <c r="F105" s="1">
         <v>6</v>
       </c>
@@ -27970,7 +28581,7 @@
       <c r="H105" s="20">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I105" s="32"/>
+      <c r="I105" s="34"/>
       <c r="K105" s="1">
         <v>6</v>
       </c>
@@ -27980,7 +28591,7 @@
       <c r="M105" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="N105" s="32"/>
+      <c r="N105" s="34"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
@@ -27992,7 +28603,7 @@
       <c r="C106" s="20">
         <v>0.96699999999999997</v>
       </c>
-      <c r="D106" s="32"/>
+      <c r="D106" s="34"/>
       <c r="F106" s="1">
         <v>7</v>
       </c>
@@ -28002,7 +28613,7 @@
       <c r="H106" s="20">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I106" s="32"/>
+      <c r="I106" s="34"/>
       <c r="K106" s="1">
         <v>7</v>
       </c>
@@ -28012,7 +28623,7 @@
       <c r="M106" s="20">
         <v>0.98899999999999999</v>
       </c>
-      <c r="N106" s="32"/>
+      <c r="N106" s="34"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
@@ -28024,7 +28635,7 @@
       <c r="C107" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="D107" s="32"/>
+      <c r="D107" s="34"/>
       <c r="F107" s="1">
         <v>8</v>
       </c>
@@ -28034,7 +28645,7 @@
       <c r="H107" s="20">
         <v>0.98899999999999999</v>
       </c>
-      <c r="I107" s="32"/>
+      <c r="I107" s="34"/>
       <c r="K107" s="1">
         <v>8</v>
       </c>
@@ -28044,7 +28655,7 @@
       <c r="M107" s="20">
         <v>0.96099999999999997</v>
       </c>
-      <c r="N107" s="32"/>
+      <c r="N107" s="34"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
@@ -28056,7 +28667,7 @@
       <c r="C108" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D108" s="32"/>
+      <c r="D108" s="34"/>
       <c r="F108" s="1">
         <v>9</v>
       </c>
@@ -28066,7 +28677,7 @@
       <c r="H108" s="20">
         <v>0.89900000000000002</v>
       </c>
-      <c r="I108" s="32"/>
+      <c r="I108" s="34"/>
       <c r="K108" s="1">
         <v>9</v>
       </c>
@@ -28076,7 +28687,7 @@
       <c r="M108" s="20">
         <v>0.96</v>
       </c>
-      <c r="N108" s="32"/>
+      <c r="N108" s="34"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
@@ -28088,7 +28699,7 @@
       <c r="C109" s="20">
         <v>0.97699999999999998</v>
       </c>
-      <c r="D109" s="32"/>
+      <c r="D109" s="34"/>
       <c r="F109" s="1">
         <v>10</v>
       </c>
@@ -28098,7 +28709,7 @@
       <c r="H109" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I109" s="32"/>
+      <c r="I109" s="34"/>
       <c r="K109" s="1">
         <v>10</v>
       </c>
@@ -28108,7 +28719,7 @@
       <c r="M109" s="20">
         <v>0.96399999999999997</v>
       </c>
-      <c r="N109" s="32"/>
+      <c r="N109" s="34"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
@@ -28120,7 +28731,7 @@
       <c r="C110" s="20">
         <v>0.97599999999999998</v>
       </c>
-      <c r="D110" s="32"/>
+      <c r="D110" s="34"/>
       <c r="F110" s="1">
         <v>11</v>
       </c>
@@ -28130,7 +28741,7 @@
       <c r="H110" s="20">
         <v>0.85599999999999998</v>
       </c>
-      <c r="I110" s="32"/>
+      <c r="I110" s="34"/>
       <c r="K110" s="1">
         <v>11</v>
       </c>
@@ -28140,7 +28751,7 @@
       <c r="M110" s="20">
         <v>0.96</v>
       </c>
-      <c r="N110" s="32"/>
+      <c r="N110" s="34"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
@@ -28152,7 +28763,7 @@
       <c r="C111" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="D111" s="32"/>
+      <c r="D111" s="34"/>
       <c r="F111" s="1">
         <v>12</v>
       </c>
@@ -28162,7 +28773,7 @@
       <c r="H111" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I111" s="32"/>
+      <c r="I111" s="34"/>
       <c r="K111" s="1">
         <v>12</v>
       </c>
@@ -28172,7 +28783,7 @@
       <c r="M111" s="20">
         <v>0.96599999999999997</v>
       </c>
-      <c r="N111" s="32"/>
+      <c r="N111" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -28194,7 +28805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD302C83-6A19-1746-8058-E37651EDB290}">
   <dimension ref="A1:O14"/>
   <sheetViews>
@@ -28246,7 +28857,7 @@
       <c r="C2" s="24">
         <v>0.66666700000000001</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="34" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="1">
@@ -28258,7 +28869,7 @@
       <c r="H2" s="24">
         <v>0</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="34" t="s">
         <v>28</v>
       </c>
       <c r="L2" s="1">
@@ -28270,7 +28881,7 @@
       <c r="N2" s="24">
         <v>0.66666700000000001</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="34" t="s">
         <v>17</v>
       </c>
     </row>
@@ -28284,7 +28895,7 @@
       <c r="C3" s="24">
         <v>0.51964299999999997</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="34"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -28294,7 +28905,7 @@
       <c r="H3" s="24">
         <v>9.1979999999999996E-3</v>
       </c>
-      <c r="I3" s="32"/>
+      <c r="I3" s="34"/>
       <c r="L3" s="1">
         <v>1</v>
       </c>
@@ -28304,7 +28915,7 @@
       <c r="N3" s="24">
         <v>0.61618799999999996</v>
       </c>
-      <c r="O3" s="32"/>
+      <c r="O3" s="34"/>
     </row>
     <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -28316,7 +28927,7 @@
       <c r="C4" s="24">
         <v>0.54270200000000002</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="34"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -28326,7 +28937,7 @@
       <c r="H4" s="24">
         <v>0.66666700000000001</v>
       </c>
-      <c r="I4" s="32"/>
+      <c r="I4" s="34"/>
       <c r="L4" s="1">
         <v>2</v>
       </c>
@@ -28336,7 +28947,7 @@
       <c r="N4" s="24">
         <v>8.9940999999999993E-2</v>
       </c>
-      <c r="O4" s="32"/>
+      <c r="O4" s="34"/>
     </row>
     <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -28348,7 +28959,7 @@
       <c r="C5" s="24">
         <v>0.58758500000000002</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="34"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -28358,7 +28969,7 @@
       <c r="H5" s="24">
         <v>0.66666700000000001</v>
       </c>
-      <c r="I5" s="32"/>
+      <c r="I5" s="34"/>
       <c r="L5" s="1">
         <v>3</v>
       </c>
@@ -28368,7 +28979,7 @@
       <c r="N5" s="24">
         <v>0</v>
       </c>
-      <c r="O5" s="32"/>
+      <c r="O5" s="34"/>
     </row>
     <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -28380,7 +28991,7 @@
       <c r="C6" s="24">
         <v>0.59606400000000004</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="34"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -28390,7 +29001,7 @@
       <c r="H6" s="24">
         <v>0</v>
       </c>
-      <c r="I6" s="32"/>
+      <c r="I6" s="34"/>
       <c r="L6" s="1">
         <v>4</v>
       </c>
@@ -28400,7 +29011,7 @@
       <c r="N6" s="24">
         <v>0</v>
       </c>
-      <c r="O6" s="32"/>
+      <c r="O6" s="34"/>
     </row>
     <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -28412,7 +29023,7 @@
       <c r="C7" s="24">
         <v>0.63406600000000002</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="34"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -28422,7 +29033,7 @@
       <c r="H7" s="24">
         <v>0</v>
       </c>
-      <c r="I7" s="32"/>
+      <c r="I7" s="34"/>
       <c r="L7" s="1">
         <v>5</v>
       </c>
@@ -28432,7 +29043,7 @@
       <c r="N7" s="24">
         <v>0</v>
       </c>
-      <c r="O7" s="32"/>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -28444,7 +29055,7 @@
       <c r="C8" s="24">
         <v>0.63100100000000003</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="34"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -28454,7 +29065,7 @@
       <c r="H8" s="24">
         <v>0</v>
       </c>
-      <c r="I8" s="32"/>
+      <c r="I8" s="34"/>
       <c r="L8" s="1">
         <v>6</v>
       </c>
@@ -28464,7 +29075,7 @@
       <c r="N8" s="24">
         <v>1.853E-3</v>
       </c>
-      <c r="O8" s="32"/>
+      <c r="O8" s="34"/>
     </row>
     <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -28476,7 +29087,7 @@
       <c r="C9" s="24">
         <v>0.62990500000000005</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="34"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -28486,7 +29097,7 @@
       <c r="H9" s="24">
         <v>0</v>
       </c>
-      <c r="I9" s="32"/>
+      <c r="I9" s="34"/>
       <c r="L9" s="1">
         <v>7</v>
       </c>
@@ -28496,7 +29107,7 @@
       <c r="N9" s="24">
         <v>4.8050000000000002E-3</v>
       </c>
-      <c r="O9" s="32"/>
+      <c r="O9" s="34"/>
     </row>
     <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -28508,7 +29119,7 @@
       <c r="C10" s="24">
         <v>0.62997499999999995</v>
       </c>
-      <c r="D10" s="32"/>
+      <c r="D10" s="34"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -28518,7 +29129,7 @@
       <c r="H10" s="24">
         <v>0</v>
       </c>
-      <c r="I10" s="32"/>
+      <c r="I10" s="34"/>
       <c r="L10" s="1">
         <v>8</v>
       </c>
@@ -28528,7 +29139,7 @@
       <c r="N10" s="24">
         <v>9.9369999999999997E-3</v>
       </c>
-      <c r="O10" s="32"/>
+      <c r="O10" s="34"/>
     </row>
     <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -28540,7 +29151,7 @@
       <c r="C11" s="24">
         <v>0.629741</v>
       </c>
-      <c r="D11" s="32"/>
+      <c r="D11" s="34"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -28550,7 +29161,7 @@
       <c r="H11" s="24">
         <v>0</v>
       </c>
-      <c r="I11" s="32"/>
+      <c r="I11" s="34"/>
       <c r="L11" s="1">
         <v>9</v>
       </c>
@@ -28560,7 +29171,7 @@
       <c r="N11" s="24">
         <v>7.0303000000000004E-2</v>
       </c>
-      <c r="O11" s="32"/>
+      <c r="O11" s="34"/>
     </row>
     <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -28572,7 +29183,7 @@
       <c r="C12" s="24">
         <v>0.62902800000000003</v>
       </c>
-      <c r="D12" s="32"/>
+      <c r="D12" s="34"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -28582,7 +29193,7 @@
       <c r="H12" s="24">
         <v>0</v>
       </c>
-      <c r="I12" s="32"/>
+      <c r="I12" s="34"/>
       <c r="L12" s="1">
         <v>10</v>
       </c>
@@ -28592,7 +29203,7 @@
       <c r="N12" s="24">
         <v>0.25535999999999998</v>
       </c>
-      <c r="O12" s="32"/>
+      <c r="O12" s="34"/>
     </row>
     <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -28604,7 +29215,7 @@
       <c r="C13" s="24">
         <v>0.65797799999999995</v>
       </c>
-      <c r="D13" s="32"/>
+      <c r="D13" s="34"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -28614,7 +29225,7 @@
       <c r="H13" s="24">
         <v>0</v>
       </c>
-      <c r="I13" s="32"/>
+      <c r="I13" s="34"/>
       <c r="L13" s="1">
         <v>11</v>
       </c>
@@ -28624,7 +29235,7 @@
       <c r="N13" s="24">
         <v>0.30926500000000001</v>
       </c>
-      <c r="O13" s="32"/>
+      <c r="O13" s="34"/>
     </row>
     <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -28636,7 +29247,7 @@
       <c r="C14" s="24">
         <v>0.57034200000000002</v>
       </c>
-      <c r="D14" s="32"/>
+      <c r="D14" s="34"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -28646,7 +29257,7 @@
       <c r="H14" s="24">
         <v>0.212117</v>
       </c>
-      <c r="I14" s="32"/>
+      <c r="I14" s="34"/>
       <c r="L14" s="1">
         <v>12</v>
       </c>
@@ -28656,7 +29267,7 @@
       <c r="N14" s="24">
         <v>0.25233499999999998</v>
       </c>
-      <c r="O14" s="32"/>
+      <c r="O14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -28669,7 +29280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A97D7F-0A6C-D241-8CE5-FB9EF0958310}">
   <dimension ref="A1:N14"/>
   <sheetViews>
@@ -28722,7 +29333,7 @@
       <c r="C2" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="34" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="1">
@@ -28734,7 +29345,7 @@
       <c r="H2" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="34" t="s">
         <v>28</v>
       </c>
       <c r="K2" s="1">
@@ -28746,7 +29357,7 @@
       <c r="M2" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="34" t="s">
         <v>25</v>
       </c>
     </row>
@@ -28760,7 +29371,7 @@
       <c r="C3" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="34"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -28770,7 +29381,7 @@
       <c r="H3" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I3" s="32"/>
+      <c r="I3" s="34"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
@@ -28780,7 +29391,7 @@
       <c r="M3" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N3" s="32"/>
+      <c r="N3" s="34"/>
     </row>
     <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -28792,7 +29403,7 @@
       <c r="C4" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="34"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -28802,7 +29413,7 @@
       <c r="H4" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I4" s="32"/>
+      <c r="I4" s="34"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
@@ -28812,7 +29423,7 @@
       <c r="M4" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N4" s="32"/>
+      <c r="N4" s="34"/>
     </row>
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -28824,7 +29435,7 @@
       <c r="C5" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="34"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -28834,7 +29445,7 @@
       <c r="H5" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I5" s="32"/>
+      <c r="I5" s="34"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
@@ -28844,7 +29455,7 @@
       <c r="M5" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N5" s="32"/>
+      <c r="N5" s="34"/>
     </row>
     <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -28856,7 +29467,7 @@
       <c r="C6" s="24">
         <v>0.480132</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="34"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -28866,7 +29477,7 @@
       <c r="H6" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I6" s="32"/>
+      <c r="I6" s="34"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
@@ -28876,7 +29487,7 @@
       <c r="M6" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N6" s="32"/>
+      <c r="N6" s="34"/>
     </row>
     <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -28888,7 +29499,7 @@
       <c r="C7" s="24">
         <v>0.46854299999999999</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="34"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -28898,7 +29509,7 @@
       <c r="H7" s="24">
         <v>0.480132</v>
       </c>
-      <c r="I7" s="32"/>
+      <c r="I7" s="34"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
@@ -28908,7 +29519,7 @@
       <c r="M7" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N7" s="32"/>
+      <c r="N7" s="34"/>
     </row>
     <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -28920,7 +29531,7 @@
       <c r="C8" s="24">
         <v>0.47682099999999999</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="34"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -28930,7 +29541,7 @@
       <c r="H8" s="24">
         <v>0.49337700000000001</v>
       </c>
-      <c r="I8" s="32"/>
+      <c r="I8" s="34"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
@@ -28940,7 +29551,7 @@
       <c r="M8" s="24">
         <v>0.48344399999999998</v>
       </c>
-      <c r="N8" s="32"/>
+      <c r="N8" s="34"/>
     </row>
     <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -28952,7 +29563,7 @@
       <c r="C9" s="24">
         <v>0.480132</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="34"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -28962,7 +29573,7 @@
       <c r="H9" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I9" s="32"/>
+      <c r="I9" s="34"/>
       <c r="K9" s="1">
         <v>7</v>
       </c>
@@ -28972,7 +29583,7 @@
       <c r="M9" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N9" s="32"/>
+      <c r="N9" s="34"/>
     </row>
     <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -28984,7 +29595,7 @@
       <c r="C10" s="24">
         <v>0.480132</v>
       </c>
-      <c r="D10" s="32"/>
+      <c r="D10" s="34"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -28994,7 +29605,7 @@
       <c r="H10" s="24">
         <v>0.480132</v>
       </c>
-      <c r="I10" s="32"/>
+      <c r="I10" s="34"/>
       <c r="K10" s="1">
         <v>8</v>
       </c>
@@ -29004,7 +29615,7 @@
       <c r="M10" s="24">
         <v>0.47847699999999999</v>
       </c>
-      <c r="N10" s="32"/>
+      <c r="N10" s="34"/>
     </row>
     <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -29016,7 +29627,7 @@
       <c r="C11" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D11" s="32"/>
+      <c r="D11" s="34"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -29026,7 +29637,7 @@
       <c r="H11" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I11" s="32"/>
+      <c r="I11" s="34"/>
       <c r="K11" s="1">
         <v>9</v>
       </c>
@@ -29036,7 +29647,7 @@
       <c r="M11" s="24">
         <v>0.47682099999999999</v>
       </c>
-      <c r="N11" s="32"/>
+      <c r="N11" s="34"/>
     </row>
     <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -29048,7 +29659,7 @@
       <c r="C12" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D12" s="32"/>
+      <c r="D12" s="34"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -29058,7 +29669,7 @@
       <c r="H12" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I12" s="32"/>
+      <c r="I12" s="34"/>
       <c r="K12" s="1">
         <v>10</v>
       </c>
@@ -29068,7 +29679,7 @@
       <c r="M12" s="24">
         <v>0.47682099999999999</v>
       </c>
-      <c r="N12" s="32"/>
+      <c r="N12" s="34"/>
     </row>
     <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -29080,7 +29691,7 @@
       <c r="C13" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D13" s="32"/>
+      <c r="D13" s="34"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -29090,7 +29701,7 @@
       <c r="H13" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I13" s="32"/>
+      <c r="I13" s="34"/>
       <c r="K13" s="1">
         <v>11</v>
       </c>
@@ -29100,7 +29711,7 @@
       <c r="M13" s="24">
         <v>0.52152299999999996</v>
       </c>
-      <c r="N13" s="32"/>
+      <c r="N13" s="34"/>
     </row>
     <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -29112,7 +29723,7 @@
       <c r="C14" s="24">
         <v>0.47516599999999998</v>
       </c>
-      <c r="D14" s="32"/>
+      <c r="D14" s="34"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -29122,7 +29733,7 @@
       <c r="H14" s="24">
         <v>0.48675499999999999</v>
       </c>
-      <c r="I14" s="32"/>
+      <c r="I14" s="34"/>
       <c r="K14" s="1">
         <v>12</v>
       </c>
@@ -29132,7 +29743,7 @@
       <c r="M14" s="24">
         <v>0.50331099999999995</v>
       </c>
-      <c r="N14" s="32"/>
+      <c r="N14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -29145,7 +29756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586CC5E8-52EF-824B-9F99-84A3E832E106}">
   <dimension ref="A1:N14"/>
   <sheetViews>
@@ -29194,7 +29805,7 @@
       <c r="C2" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="34" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="1">
@@ -29206,7 +29817,7 @@
       <c r="H2" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="34" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="1">
@@ -29218,7 +29829,7 @@
       <c r="M2" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="34" t="s">
         <v>28</v>
       </c>
     </row>
@@ -29232,7 +29843,7 @@
       <c r="C3" s="24">
         <v>0.569546</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="34"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -29242,7 +29853,7 @@
       <c r="H3" s="24">
         <v>0.56991199999999997</v>
       </c>
-      <c r="I3" s="32"/>
+      <c r="I3" s="34"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
@@ -29252,7 +29863,7 @@
       <c r="M3" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N3" s="32"/>
+      <c r="N3" s="34"/>
     </row>
     <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -29264,7 +29875,7 @@
       <c r="C4" s="24">
         <v>0.567716</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="34"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -29274,7 +29885,7 @@
       <c r="H4" s="24">
         <v>0.56881400000000004</v>
       </c>
-      <c r="I4" s="32"/>
+      <c r="I4" s="34"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
@@ -29284,7 +29895,7 @@
       <c r="M4" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N4" s="32"/>
+      <c r="N4" s="34"/>
     </row>
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -29296,7 +29907,7 @@
       <c r="C5" s="24">
         <v>0.58894599999999997</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="34"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -29306,7 +29917,7 @@
       <c r="H5" s="24">
         <v>0.58308899999999997</v>
       </c>
-      <c r="I5" s="32"/>
+      <c r="I5" s="34"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
@@ -29316,7 +29927,7 @@
       <c r="M5" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N5" s="32"/>
+      <c r="N5" s="34"/>
     </row>
     <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -29328,7 +29939,7 @@
       <c r="C6" s="24">
         <v>0.60175699999999999</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="34"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -29338,7 +29949,7 @@
       <c r="H6" s="24">
         <v>0.60651500000000003</v>
       </c>
-      <c r="I6" s="32"/>
+      <c r="I6" s="34"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
@@ -29348,7 +29959,7 @@
       <c r="M6" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N6" s="32"/>
+      <c r="N6" s="34"/>
     </row>
     <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -29360,7 +29971,7 @@
       <c r="C7" s="24">
         <v>0.61712999999999996</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="34"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -29370,7 +29981,7 @@
       <c r="H7" s="24">
         <v>0.61786200000000002</v>
       </c>
-      <c r="I7" s="32"/>
+      <c r="I7" s="34"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
@@ -29380,7 +29991,7 @@
       <c r="M7" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N7" s="32"/>
+      <c r="N7" s="34"/>
     </row>
     <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -29392,7 +30003,7 @@
       <c r="C8" s="24">
         <v>0.620425</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="34"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -29402,7 +30013,7 @@
       <c r="H8" s="24">
         <v>0.61090800000000001</v>
       </c>
-      <c r="I8" s="32"/>
+      <c r="I8" s="34"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
@@ -29412,7 +30023,7 @@
       <c r="M8" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N8" s="32"/>
+      <c r="N8" s="34"/>
     </row>
     <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -29424,7 +30035,7 @@
       <c r="C9" s="24">
         <v>0.633602</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="34"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -29434,7 +30045,7 @@
       <c r="H9" s="24">
         <v>0.61786200000000002</v>
       </c>
-      <c r="I9" s="32"/>
+      <c r="I9" s="34"/>
       <c r="K9" s="1">
         <v>7</v>
       </c>
@@ -29444,7 +30055,7 @@
       <c r="M9" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N9" s="32"/>
+      <c r="N9" s="34"/>
     </row>
     <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -29456,7 +30067,7 @@
       <c r="C10" s="24">
         <v>0.62847699999999995</v>
       </c>
-      <c r="D10" s="32"/>
+      <c r="D10" s="34"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -29466,7 +30077,7 @@
       <c r="H10" s="24">
         <v>0.620425</v>
       </c>
-      <c r="I10" s="32"/>
+      <c r="I10" s="34"/>
       <c r="K10" s="1">
         <v>8</v>
       </c>
@@ -29476,7 +30087,7 @@
       <c r="M10" s="24">
         <v>0.57906299999999999</v>
       </c>
-      <c r="N10" s="32"/>
+      <c r="N10" s="34"/>
     </row>
     <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -29488,7 +30099,7 @@
       <c r="C11" s="24">
         <v>0.62664699999999995</v>
       </c>
-      <c r="D11" s="32"/>
+      <c r="D11" s="34"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -29498,7 +30109,7 @@
       <c r="H11" s="24">
         <v>0.61712999999999996</v>
       </c>
-      <c r="I11" s="32"/>
+      <c r="I11" s="34"/>
       <c r="K11" s="1">
         <v>9</v>
       </c>
@@ -29508,7 +30119,7 @@
       <c r="M11" s="24">
         <v>0.58491899999999997</v>
       </c>
-      <c r="N11" s="32"/>
+      <c r="N11" s="34"/>
     </row>
     <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -29520,7 +30131,7 @@
       <c r="C12" s="24">
         <v>0.63250399999999996</v>
       </c>
-      <c r="D12" s="32"/>
+      <c r="D12" s="34"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -29530,7 +30141,7 @@
       <c r="H12" s="24">
         <v>0.62005900000000003</v>
       </c>
-      <c r="I12" s="32"/>
+      <c r="I12" s="34"/>
       <c r="K12" s="1">
         <v>10</v>
       </c>
@@ -29540,7 +30151,7 @@
       <c r="M12" s="24">
         <v>0.59553400000000001</v>
       </c>
-      <c r="N12" s="32"/>
+      <c r="N12" s="34"/>
     </row>
     <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -29552,7 +30163,7 @@
       <c r="C13" s="24">
         <v>0.63689600000000002</v>
       </c>
-      <c r="D13" s="32"/>
+      <c r="D13" s="34"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -29562,7 +30173,7 @@
       <c r="H13" s="24">
         <v>0.62884300000000004</v>
       </c>
-      <c r="I13" s="32"/>
+      <c r="I13" s="34"/>
       <c r="K13" s="1">
         <v>11</v>
       </c>
@@ -29572,7 +30183,7 @@
       <c r="M13" s="24">
         <v>0.64055600000000001</v>
       </c>
-      <c r="N13" s="32"/>
+      <c r="N13" s="34"/>
     </row>
     <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -29584,7 +30195,7 @@
       <c r="C14" s="24">
         <v>0.64019000000000004</v>
       </c>
-      <c r="D14" s="32"/>
+      <c r="D14" s="34"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -29594,7 +30205,7 @@
       <c r="H14" s="24">
         <v>0.63872600000000002</v>
       </c>
-      <c r="I14" s="32"/>
+      <c r="I14" s="34"/>
       <c r="K14" s="1">
         <v>12</v>
       </c>
@@ -29604,7 +30215,7 @@
       <c r="M14" s="24">
         <v>0.66800899999999996</v>
       </c>
-      <c r="N14" s="32"/>
+      <c r="N14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/POS Code/Experiments/attachments/detailed_results.xlsx
+++ b/POS Code/Experiments/attachments/detailed_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zefuh\workspace\interpretability-of-source-code-transformers\POS Code\Experiments\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7923D620-256F-BE4C-8B81-8E5F909D1D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA55F03C-0BCB-4B80-811E-1DAD684B6DD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="2740" windowWidth="27540" windowHeight="17700" activeTab="2" xr2:uid="{BEC22610-DBDE-49A5-ABDC-7DB261D6BA7F}"/>
+    <workbookView xWindow="5520" yWindow="2745" windowWidth="27540" windowHeight="17700" activeTab="2" xr2:uid="{BEC22610-DBDE-49A5-ABDC-7DB261D6BA7F}"/>
   </bookViews>
   <sheets>
     <sheet name="POSSummary" sheetId="3" r:id="rId1"/>
@@ -221,7 +221,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -425,23 +425,8 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -472,6 +457,24 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -23983,28 +23986,28 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24046,8 +24049,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="39" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -24090,8 +24093,8 @@
         <v>9984</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
+    <row r="3" spans="1:14">
+      <c r="A3" s="41"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -24132,8 +24135,8 @@
         <v>0.96009999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:14">
+      <c r="A4" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -24176,8 +24179,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
+    <row r="5" spans="1:14">
+      <c r="A5" s="41"/>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
@@ -24218,8 +24221,8 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:14">
+      <c r="A6" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -24262,8 +24265,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
+    <row r="7" spans="1:14">
+      <c r="A7" s="40"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -24304,8 +24307,8 @@
         <v>0.94399999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
+    <row r="8" spans="1:14">
+      <c r="A8" s="40"/>
       <c r="B8" s="26" t="s">
         <v>41</v>
       </c>
@@ -24358,8 +24361,8 @@
         <v>-1.6100000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
+    <row r="9" spans="1:14">
+      <c r="A9" s="41"/>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
@@ -24400,8 +24403,8 @@
         <v>0.99609999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:14">
+      <c r="A10" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -24444,8 +24447,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
+    <row r="11" spans="1:14">
+      <c r="A11" s="40"/>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -24486,8 +24489,8 @@
         <v>0.96309999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
+    <row r="12" spans="1:14">
+      <c r="A12" s="40"/>
       <c r="B12" s="26" t="s">
         <v>41</v>
       </c>
@@ -24540,8 +24543,8 @@
         <v>3.0000000000000027E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
+    <row r="13" spans="1:14">
+      <c r="A13" s="41"/>
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
@@ -24582,8 +24585,8 @@
         <v>0.98309999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:14">
+      <c r="A14" s="39" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -24626,8 +24629,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
+    <row r="15" spans="1:14">
+      <c r="A15" s="40"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -24668,8 +24671,8 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
+    <row r="16" spans="1:14">
+      <c r="A16" s="40"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -24710,8 +24713,8 @@
         <v>0.99029999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
+    <row r="17" spans="1:14">
+      <c r="A17" s="40"/>
       <c r="B17" s="26" t="s">
         <v>41</v>
       </c>
@@ -24764,8 +24767,8 @@
         <v>3.0200000000000005E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
+    <row r="18" spans="1:14">
+      <c r="A18" s="41"/>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
@@ -24807,8 +24810,8 @@
         <v>0.65890000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="s">
+    <row r="19" spans="1:14">
+      <c r="A19" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -24851,8 +24854,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
+    <row r="20" spans="1:14">
+      <c r="A20" s="40"/>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
@@ -24893,8 +24896,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
+    <row r="21" spans="1:14">
+      <c r="A21" s="40"/>
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
@@ -24935,8 +24938,8 @@
         <v>768</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
+    <row r="22" spans="1:14">
+      <c r="A22" s="40"/>
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
@@ -24977,8 +24980,8 @@
         <v>0.99329999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
+    <row r="23" spans="1:14">
+      <c r="A23" s="40"/>
       <c r="B23" s="26" t="s">
         <v>41</v>
       </c>
@@ -25031,8 +25034,8 @@
         <v>3.3200000000000007E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
+    <row r="24" spans="1:14">
+      <c r="A24" s="41"/>
       <c r="B24" s="4" t="s">
         <v>7</v>
       </c>
@@ -25073,8 +25076,8 @@
         <v>0.92310000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
+    <row r="25" spans="1:14">
+      <c r="A25" s="39" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -25117,8 +25120,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
+    <row r="26" spans="1:14">
+      <c r="A26" s="40"/>
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
@@ -25159,8 +25162,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
+    <row r="27" spans="1:14">
+      <c r="A27" s="40"/>
       <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
@@ -25201,8 +25204,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
+    <row r="28" spans="1:14">
+      <c r="A28" s="40"/>
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
@@ -25243,8 +25246,8 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
+    <row r="29" spans="1:14">
+      <c r="A29" s="40"/>
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
@@ -25285,8 +25288,8 @@
         <v>0.99029999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
+    <row r="30" spans="1:14">
+      <c r="A30" s="40"/>
       <c r="B30" s="26" t="s">
         <v>41</v>
       </c>
@@ -25339,8 +25342,8 @@
         <v>3.0200000000000005E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="32"/>
+    <row r="31" spans="1:14">
+      <c r="A31" s="41"/>
       <c r="B31" s="4" t="s">
         <v>7</v>
       </c>
@@ -25404,23 +25407,23 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -25456,8 +25459,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="39" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -25494,8 +25497,8 @@
         <v>9984</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
+    <row r="3" spans="1:12">
+      <c r="A3" s="41"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -25530,8 +25533,8 @@
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -25568,8 +25571,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
+    <row r="5" spans="1:12">
+      <c r="A5" s="40"/>
       <c r="B5" s="25" t="s">
         <v>5</v>
       </c>
@@ -25604,8 +25607,8 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
+    <row r="6" spans="1:12">
+      <c r="A6" s="40"/>
       <c r="B6" s="25" t="s">
         <v>41</v>
       </c>
@@ -25650,8 +25653,8 @@
         <v>-1.5000000000000013E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
+    <row r="7" spans="1:12">
+      <c r="A7" s="41"/>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -25696,8 +25699,8 @@
         <v>0.99709535256410253</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="39" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -25734,8 +25737,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
+    <row r="9" spans="1:12">
+      <c r="A9" s="40"/>
       <c r="B9" s="25" t="s">
         <v>4</v>
       </c>
@@ -25770,8 +25773,8 @@
         <v>8890</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
+    <row r="10" spans="1:12">
+      <c r="A10" s="40"/>
       <c r="B10" s="25" t="s">
         <v>5</v>
       </c>
@@ -25806,8 +25809,8 @@
         <v>0.67020000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
+    <row r="11" spans="1:12">
+      <c r="A11" s="40"/>
       <c r="B11" s="25" t="s">
         <v>41</v>
       </c>
@@ -25852,8 +25855,8 @@
         <v>2.1999999999999797E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
+    <row r="12" spans="1:12">
+      <c r="A12" s="41"/>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -25898,8 +25901,8 @@
         <v>0.10957532051282048</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+    <row r="13" spans="1:12">
+      <c r="A13" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -25936,8 +25939,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
+    <row r="14" spans="1:12">
+      <c r="A14" s="40"/>
       <c r="B14" s="25" t="s">
         <v>12</v>
       </c>
@@ -25972,8 +25975,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
+    <row r="15" spans="1:12">
+      <c r="A15" s="40"/>
       <c r="B15" s="25" t="s">
         <v>4</v>
       </c>
@@ -26014,8 +26017,8 @@
         <v>9984</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
+    <row r="16" spans="1:12">
+      <c r="A16" s="40"/>
       <c r="B16" s="25" t="s">
         <v>5</v>
       </c>
@@ -26050,8 +26053,8 @@
         <v>0.73650000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
+    <row r="17" spans="1:12">
+      <c r="A17" s="40"/>
       <c r="B17" s="25" t="s">
         <v>41</v>
       </c>
@@ -26096,8 +26099,8 @@
         <v>6.8500000000000005E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
+    <row r="18" spans="1:12">
+      <c r="A18" s="41"/>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
@@ -26142,8 +26145,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+    <row r="19" spans="1:12">
+      <c r="A19" s="39" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -26180,8 +26183,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
+    <row r="20" spans="1:12">
+      <c r="A20" s="40"/>
       <c r="B20" s="25" t="s">
         <v>13</v>
       </c>
@@ -26216,8 +26219,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
+    <row r="21" spans="1:12">
+      <c r="A21" s="40"/>
       <c r="B21" s="25" t="s">
         <v>9</v>
       </c>
@@ -26252,8 +26255,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
+    <row r="22" spans="1:12">
+      <c r="A22" s="40"/>
       <c r="B22" s="25" t="s">
         <v>4</v>
       </c>
@@ -26288,8 +26291,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
+    <row r="23" spans="1:12">
+      <c r="A23" s="40"/>
       <c r="B23" s="25" t="s">
         <v>5</v>
       </c>
@@ -26324,8 +26327,8 @@
         <v>0.65559999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
+    <row r="24" spans="1:12">
+      <c r="A24" s="40"/>
       <c r="B24" s="25" t="s">
         <v>41</v>
       </c>
@@ -26370,8 +26373,8 @@
         <v>-1.2400000000000078E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
+    <row r="25" spans="1:12">
+      <c r="A25" s="41"/>
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
@@ -26433,58 +26436,58 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="39" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -26527,28 +26530,28 @@
         <v>9984</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
+    <row r="3" spans="1:14">
+      <c r="A3" s="41"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="34">
         <v>0.72</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="35"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:14">
+      <c r="A4" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -26569,53 +26572,53 @@
       <c r="M4" s="2"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="1:14">
+      <c r="A5" s="40"/>
+      <c r="B5" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="30">
         <v>0.71540000000000004</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="38"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="33"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="28" t="s">
+    <row r="6" spans="1:14">
+      <c r="A6" s="40"/>
+      <c r="B6" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="30">
         <f>C5-C3</f>
         <v>-4.5999999999999375E-3</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="41"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="36"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
+    <row r="7" spans="1:14">
+      <c r="A7" s="41"/>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="37">
         <f>1-C4/C2</f>
         <v>0.98307291666666663</v>
       </c>
@@ -26631,8 +26634,8 @@
       <c r="M7" s="15"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:14">
+      <c r="A8" s="39" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -26653,69 +26656,69 @@
       <c r="M8" s="2"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="28" t="s">
+    <row r="9" spans="1:14">
+      <c r="A9" s="40"/>
+      <c r="B9" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="16">
         <v>3121</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
       <c r="N9" s="11"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="28" t="s">
+    <row r="10" spans="1:14">
+      <c r="A10" s="40"/>
+      <c r="B10" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="31">
         <v>0.73</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="38"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="33"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="28" t="s">
+    <row r="11" spans="1:14">
+      <c r="A11" s="40"/>
+      <c r="B11" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="31">
         <f>C10-C3</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="38"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="33"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
+    <row r="12" spans="1:14">
+      <c r="A12" s="41"/>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -26735,14 +26738,14 @@
       <c r="M12" s="5"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+    <row r="13" spans="1:14">
+      <c r="A13" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="44" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="2"/>
@@ -26757,50 +26760,50 @@
       <c r="M13" s="2"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="28" t="s">
+    <row r="14" spans="1:14">
+      <c r="A14" s="40"/>
+      <c r="B14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="29">
         <v>1</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
       <c r="N14" s="11"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="28" t="s">
+    <row r="15" spans="1:14">
+      <c r="A15" s="40"/>
+      <c r="B15" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="29">
         <f>13*768</f>
         <v>9984</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
       <c r="N15" s="11"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
-      <c r="B16" s="28" t="s">
+    <row r="16" spans="1:14">
+      <c r="A16" s="40"/>
+      <c r="B16" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="2">
@@ -26818,29 +26821,29 @@
       <c r="M16" s="7"/>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
-      <c r="B17" s="28" t="s">
+    <row r="17" spans="1:14">
+      <c r="A17" s="40"/>
+      <c r="B17" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="31">
         <f>C16-C3</f>
         <v>0</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="38"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="33"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
+    <row r="18" spans="1:14">
+      <c r="A18" s="41"/>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
@@ -26860,8 +26863,8 @@
       <c r="M18" s="5"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+    <row r="19" spans="1:14">
+      <c r="A19" s="39" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -26880,9 +26883,9 @@
       <c r="M19" s="2"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="28" t="s">
+    <row r="20" spans="1:14">
+      <c r="A20" s="40"/>
+      <c r="B20" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="12"/>
@@ -26898,65 +26901,65 @@
       <c r="M20" s="12"/>
       <c r="N20" s="13"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
-      <c r="B21" s="28" t="s">
+    <row r="21" spans="1:14">
+      <c r="A21" s="40"/>
+      <c r="B21" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
       <c r="N21" s="11"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
-      <c r="B22" s="28" t="s">
+    <row r="22" spans="1:14">
+      <c r="A22" s="40"/>
+      <c r="B22" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
       <c r="N22" s="11"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="28" t="s">
+    <row r="23" spans="1:14">
+      <c r="A23" s="40"/>
+      <c r="B23" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="30">
         <v>0.72</v>
       </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="43"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="38"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="28" t="s">
+    <row r="24" spans="1:14">
+      <c r="A24" s="40"/>
+      <c r="B24" s="29" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="27"/>
@@ -26970,10 +26973,10 @@
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
       <c r="M24" s="27"/>
-      <c r="N24" s="29"/>
+      <c r="N24" s="28"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
+    <row r="25" spans="1:14">
+      <c r="A25" s="41"/>
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
@@ -27010,14 +27013,14 @@
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -27046,7 +27049,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -27056,7 +27059,7 @@
       <c r="C2" s="20">
         <v>0.94899999999999995</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="43" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1">
@@ -27068,7 +27071,7 @@
       <c r="H2" s="20">
         <v>0.89500000000000002</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="43" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="1">
@@ -27080,11 +27083,11 @@
       <c r="M2" s="20">
         <v>0.91100000000000003</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -27094,7 +27097,7 @@
       <c r="C3" s="20">
         <v>0.84</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="43"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -27104,7 +27107,7 @@
       <c r="H3" s="20">
         <v>0.93100000000000005</v>
       </c>
-      <c r="I3" s="34"/>
+      <c r="I3" s="43"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
@@ -27114,9 +27117,9 @@
       <c r="M3" s="20">
         <v>0.90900000000000003</v>
       </c>
-      <c r="N3" s="34"/>
+      <c r="N3" s="43"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -27126,7 +27129,7 @@
       <c r="C4" s="20">
         <v>0.876</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="43"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -27136,7 +27139,7 @@
       <c r="H4" s="20">
         <v>0.873</v>
       </c>
-      <c r="I4" s="34"/>
+      <c r="I4" s="43"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
@@ -27146,9 +27149,9 @@
       <c r="M4" s="20">
         <v>0.90100000000000002</v>
       </c>
-      <c r="N4" s="34"/>
+      <c r="N4" s="43"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -27158,7 +27161,7 @@
       <c r="C5" s="20">
         <v>0.93600000000000005</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="43"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -27168,7 +27171,7 @@
       <c r="H5" s="20">
         <v>0.83799999999999997</v>
       </c>
-      <c r="I5" s="34"/>
+      <c r="I5" s="43"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
@@ -27178,9 +27181,9 @@
       <c r="M5" s="20">
         <v>0.88400000000000001</v>
       </c>
-      <c r="N5" s="34"/>
+      <c r="N5" s="43"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -27190,7 +27193,7 @@
       <c r="C6" s="20">
         <v>0.97</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="43"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -27200,7 +27203,7 @@
       <c r="H6" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="I6" s="34"/>
+      <c r="I6" s="43"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
@@ -27210,9 +27213,9 @@
       <c r="M6" s="20">
         <v>0.93899999999999995</v>
       </c>
-      <c r="N6" s="34"/>
+      <c r="N6" s="43"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -27222,7 +27225,7 @@
       <c r="C7" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="43"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -27232,7 +27235,7 @@
       <c r="H7" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="I7" s="34"/>
+      <c r="I7" s="43"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
@@ -27242,9 +27245,9 @@
       <c r="M7" s="20">
         <v>0.91700000000000004</v>
       </c>
-      <c r="N7" s="34"/>
+      <c r="N7" s="43"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -27254,7 +27257,7 @@
       <c r="C8" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="43"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -27264,7 +27267,7 @@
       <c r="H8" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I8" s="34"/>
+      <c r="I8" s="43"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
@@ -27274,9 +27277,9 @@
       <c r="M8" s="20">
         <v>0.92300000000000004</v>
       </c>
-      <c r="N8" s="34"/>
+      <c r="N8" s="43"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -27286,7 +27289,7 @@
       <c r="C9" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="43"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -27296,13 +27299,13 @@
       <c r="H9" s="20">
         <v>0.96499999999999997</v>
       </c>
-      <c r="I9" s="34"/>
+      <c r="I9" s="43"/>
       <c r="K9" s="1"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
       <c r="N9" s="19"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -27312,7 +27315,7 @@
       <c r="C10" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="43"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -27322,13 +27325,13 @@
       <c r="H10" s="20">
         <v>0.94899999999999995</v>
       </c>
-      <c r="I10" s="34"/>
+      <c r="I10" s="43"/>
       <c r="K10" s="1"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="19"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -27338,7 +27341,7 @@
       <c r="C11" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="43"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -27348,13 +27351,13 @@
       <c r="H11" s="20">
         <v>0.93</v>
       </c>
-      <c r="I11" s="34"/>
+      <c r="I11" s="43"/>
       <c r="K11" s="1"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
       <c r="N11" s="19"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -27364,7 +27367,7 @@
       <c r="C12" s="20">
         <v>0.98099999999999998</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="43"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -27374,13 +27377,13 @@
       <c r="H12" s="20">
         <v>0.91500000000000004</v>
       </c>
-      <c r="I12" s="34"/>
+      <c r="I12" s="43"/>
       <c r="K12" s="1"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
       <c r="N12" s="19"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -27390,7 +27393,7 @@
       <c r="C13" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="D13" s="34"/>
+      <c r="D13" s="43"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -27400,13 +27403,13 @@
       <c r="H13" s="20">
         <v>0.91500000000000004</v>
       </c>
-      <c r="I13" s="34"/>
+      <c r="I13" s="43"/>
       <c r="K13" s="1"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
       <c r="N13" s="19"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -27416,7 +27419,7 @@
       <c r="C14" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="43"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -27426,13 +27429,13 @@
       <c r="H14" s="20">
         <v>0.91900000000000004</v>
       </c>
-      <c r="I14" s="34"/>
+      <c r="I14" s="43"/>
       <c r="K14" s="1"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
       <c r="N14" s="19"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -27461,7 +27464,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -27471,7 +27474,7 @@
       <c r="C34" s="20">
         <v>0.98199999999999998</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="43" t="s">
         <v>20</v>
       </c>
       <c r="F34" s="1">
@@ -27483,7 +27486,7 @@
       <c r="H34" s="20">
         <v>0.98899999999999999</v>
       </c>
-      <c r="I34" s="34" t="s">
+      <c r="I34" s="43" t="s">
         <v>21</v>
       </c>
       <c r="K34" s="1">
@@ -27495,11 +27498,11 @@
       <c r="M34" s="20">
         <v>0.99399999999999999</v>
       </c>
-      <c r="N34" s="34" t="s">
+      <c r="N34" s="43" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -27509,7 +27512,7 @@
       <c r="C35" s="20">
         <v>0.91800000000000004</v>
       </c>
-      <c r="D35" s="34"/>
+      <c r="D35" s="43"/>
       <c r="F35" s="1">
         <v>1</v>
       </c>
@@ -27519,7 +27522,7 @@
       <c r="H35" s="20">
         <v>0.96399999999999997</v>
       </c>
-      <c r="I35" s="34"/>
+      <c r="I35" s="43"/>
       <c r="K35" s="1">
         <v>1</v>
       </c>
@@ -27529,9 +27532,9 @@
       <c r="M35" s="20">
         <v>0.99099999999999999</v>
       </c>
-      <c r="N35" s="34"/>
+      <c r="N35" s="43"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -27541,7 +27544,7 @@
       <c r="C36" s="20">
         <v>0.91900000000000004</v>
       </c>
-      <c r="D36" s="34"/>
+      <c r="D36" s="43"/>
       <c r="F36" s="1">
         <v>2</v>
       </c>
@@ -27551,7 +27554,7 @@
       <c r="H36" s="20">
         <v>0.97</v>
       </c>
-      <c r="I36" s="34"/>
+      <c r="I36" s="43"/>
       <c r="K36" s="1">
         <v>2</v>
       </c>
@@ -27561,9 +27564,9 @@
       <c r="M36" s="20">
         <v>0.98299999999999998</v>
       </c>
-      <c r="N36" s="34"/>
+      <c r="N36" s="43"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>3</v>
       </c>
@@ -27573,7 +27576,7 @@
       <c r="C37" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="D37" s="34"/>
+      <c r="D37" s="43"/>
       <c r="F37" s="1">
         <v>3</v>
       </c>
@@ -27583,7 +27586,7 @@
       <c r="H37" s="20">
         <v>0.96599999999999997</v>
       </c>
-      <c r="I37" s="34"/>
+      <c r="I37" s="43"/>
       <c r="K37" s="1">
         <v>3</v>
       </c>
@@ -27593,9 +27596,9 @@
       <c r="M37" s="20">
         <v>0.98</v>
       </c>
-      <c r="N37" s="34"/>
+      <c r="N37" s="43"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -27605,7 +27608,7 @@
       <c r="C38" s="20">
         <v>0.97699999999999998</v>
       </c>
-      <c r="D38" s="34"/>
+      <c r="D38" s="43"/>
       <c r="F38" s="1">
         <v>4</v>
       </c>
@@ -27615,7 +27618,7 @@
       <c r="H38" s="20">
         <v>0.96799999999999997</v>
       </c>
-      <c r="I38" s="34"/>
+      <c r="I38" s="43"/>
       <c r="K38" s="1">
         <v>4</v>
       </c>
@@ -27625,9 +27628,9 @@
       <c r="M38" s="20">
         <v>0.97099999999999997</v>
       </c>
-      <c r="N38" s="34"/>
+      <c r="N38" s="43"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="A39" s="1">
         <v>5</v>
       </c>
@@ -27637,7 +27640,7 @@
       <c r="C39" s="20">
         <v>0.98199999999999998</v>
       </c>
-      <c r="D39" s="34"/>
+      <c r="D39" s="43"/>
       <c r="F39" s="1">
         <v>5</v>
       </c>
@@ -27647,7 +27650,7 @@
       <c r="H39" s="20">
         <v>0.96699999999999997</v>
       </c>
-      <c r="I39" s="34"/>
+      <c r="I39" s="43"/>
       <c r="K39" s="1">
         <v>5</v>
       </c>
@@ -27657,9 +27660,9 @@
       <c r="M39" s="20">
         <v>0.873</v>
       </c>
-      <c r="N39" s="34"/>
+      <c r="N39" s="43"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="A40" s="1">
         <v>6</v>
       </c>
@@ -27669,7 +27672,7 @@
       <c r="C40" s="20">
         <v>0.94399999999999995</v>
       </c>
-      <c r="D40" s="34"/>
+      <c r="D40" s="43"/>
       <c r="F40" s="1">
         <v>6</v>
       </c>
@@ -27679,7 +27682,7 @@
       <c r="H40" s="20">
         <v>0.96399999999999997</v>
       </c>
-      <c r="I40" s="34"/>
+      <c r="I40" s="43"/>
       <c r="K40" s="1">
         <v>6</v>
       </c>
@@ -27689,9 +27692,9 @@
       <c r="M40" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="N40" s="34"/>
+      <c r="N40" s="43"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="A41" s="1">
         <v>7</v>
       </c>
@@ -27701,7 +27704,7 @@
       <c r="C41" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="D41" s="34"/>
+      <c r="D41" s="43"/>
       <c r="F41" s="1">
         <v>7</v>
       </c>
@@ -27711,7 +27714,7 @@
       <c r="H41" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I41" s="34"/>
+      <c r="I41" s="43"/>
       <c r="K41" s="1">
         <v>7</v>
       </c>
@@ -27721,9 +27724,9 @@
       <c r="M41" s="20">
         <v>0.93</v>
       </c>
-      <c r="N41" s="34"/>
+      <c r="N41" s="43"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="A42" s="1">
         <v>8</v>
       </c>
@@ -27733,7 +27736,7 @@
       <c r="C42" s="20">
         <v>0.94599999999999995</v>
       </c>
-      <c r="D42" s="34"/>
+      <c r="D42" s="43"/>
       <c r="F42" s="1">
         <v>8</v>
       </c>
@@ -27743,7 +27746,7 @@
       <c r="H42" s="20">
         <v>0.82099999999999995</v>
       </c>
-      <c r="I42" s="34"/>
+      <c r="I42" s="43"/>
       <c r="K42" s="1">
         <v>8</v>
       </c>
@@ -27753,9 +27756,9 @@
       <c r="M42" s="20">
         <v>0.98699999999999999</v>
       </c>
-      <c r="N42" s="34"/>
+      <c r="N42" s="43"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14">
       <c r="A43" s="1">
         <v>9</v>
       </c>
@@ -27765,7 +27768,7 @@
       <c r="C43" s="20">
         <v>0.98099999999999998</v>
       </c>
-      <c r="D43" s="34"/>
+      <c r="D43" s="43"/>
       <c r="F43" s="1">
         <v>9</v>
       </c>
@@ -27775,7 +27778,7 @@
       <c r="H43" s="20">
         <v>0.82799999999999996</v>
       </c>
-      <c r="I43" s="34"/>
+      <c r="I43" s="43"/>
       <c r="K43" s="1">
         <v>9</v>
       </c>
@@ -27785,9 +27788,9 @@
       <c r="M43" s="20">
         <v>0.93500000000000005</v>
       </c>
-      <c r="N43" s="34"/>
+      <c r="N43" s="43"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14">
       <c r="A44" s="1">
         <v>10</v>
       </c>
@@ -27797,7 +27800,7 @@
       <c r="C44" s="20">
         <v>0.98399999999999999</v>
       </c>
-      <c r="D44" s="34"/>
+      <c r="D44" s="43"/>
       <c r="F44" s="1">
         <v>10</v>
       </c>
@@ -27807,7 +27810,7 @@
       <c r="H44" s="20">
         <v>0.84099999999999997</v>
       </c>
-      <c r="I44" s="34"/>
+      <c r="I44" s="43"/>
       <c r="K44" s="1">
         <v>10</v>
       </c>
@@ -27817,9 +27820,9 @@
       <c r="M44" s="20">
         <v>0.92500000000000004</v>
       </c>
-      <c r="N44" s="34"/>
+      <c r="N44" s="43"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14">
       <c r="A45" s="1">
         <v>11</v>
       </c>
@@ -27829,7 +27832,7 @@
       <c r="C45" s="20">
         <v>0.95299999999999996</v>
       </c>
-      <c r="D45" s="34"/>
+      <c r="D45" s="43"/>
       <c r="F45" s="1">
         <v>11</v>
       </c>
@@ -27839,7 +27842,7 @@
       <c r="H45" s="20">
         <v>0.98</v>
       </c>
-      <c r="I45" s="34"/>
+      <c r="I45" s="43"/>
       <c r="K45" s="1">
         <v>11</v>
       </c>
@@ -27849,9 +27852,9 @@
       <c r="M45" s="20">
         <v>0.92400000000000004</v>
       </c>
-      <c r="N45" s="34"/>
+      <c r="N45" s="43"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14">
       <c r="A46" s="1">
         <v>12</v>
       </c>
@@ -27861,7 +27864,7 @@
       <c r="C46" s="20">
         <v>0.92100000000000004</v>
       </c>
-      <c r="D46" s="34"/>
+      <c r="D46" s="43"/>
       <c r="F46" s="1">
         <v>12</v>
       </c>
@@ -27871,7 +27874,7 @@
       <c r="H46" s="20">
         <v>0.84</v>
       </c>
-      <c r="I46" s="34"/>
+      <c r="I46" s="43"/>
       <c r="K46" s="1">
         <v>12</v>
       </c>
@@ -27881,9 +27884,9 @@
       <c r="M46" s="20">
         <v>0.93300000000000005</v>
       </c>
-      <c r="N46" s="34"/>
+      <c r="N46" s="43"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14">
       <c r="A66" s="1" t="s">
         <v>33</v>
       </c>
@@ -27912,7 +27915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14">
       <c r="A67" s="1">
         <v>0</v>
       </c>
@@ -27922,7 +27925,7 @@
       <c r="C67" s="20">
         <v>0.77700000000000002</v>
       </c>
-      <c r="D67" s="34" t="s">
+      <c r="D67" s="43" t="s">
         <v>23</v>
       </c>
       <c r="F67" s="1">
@@ -27934,7 +27937,7 @@
       <c r="H67" s="20">
         <v>0.75900000000000001</v>
       </c>
-      <c r="I67" s="34" t="s">
+      <c r="I67" s="43" t="s">
         <v>24</v>
       </c>
       <c r="K67" s="1">
@@ -27946,11 +27949,11 @@
       <c r="M67" s="20">
         <v>0.89400000000000002</v>
       </c>
-      <c r="N67" s="34" t="s">
+      <c r="N67" s="43" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14">
       <c r="A68" s="1">
         <v>1</v>
       </c>
@@ -27960,7 +27963,7 @@
       <c r="C68" s="20">
         <v>0.85099999999999998</v>
       </c>
-      <c r="D68" s="34"/>
+      <c r="D68" s="43"/>
       <c r="F68" s="1">
         <v>1</v>
       </c>
@@ -27970,7 +27973,7 @@
       <c r="H68" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I68" s="34"/>
+      <c r="I68" s="43"/>
       <c r="K68" s="1">
         <v>1</v>
       </c>
@@ -27980,9 +27983,9 @@
       <c r="M68" s="20">
         <v>0.94299999999999995</v>
       </c>
-      <c r="N68" s="34"/>
+      <c r="N68" s="43"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14">
       <c r="A69" s="1">
         <v>2</v>
       </c>
@@ -27992,7 +27995,7 @@
       <c r="C69" s="20">
         <v>0.93300000000000005</v>
       </c>
-      <c r="D69" s="34"/>
+      <c r="D69" s="43"/>
       <c r="F69" s="1">
         <v>2</v>
       </c>
@@ -28002,7 +28005,7 @@
       <c r="H69" s="20">
         <v>0.81899999999999995</v>
       </c>
-      <c r="I69" s="34"/>
+      <c r="I69" s="43"/>
       <c r="K69" s="1">
         <v>2</v>
       </c>
@@ -28012,9 +28015,9 @@
       <c r="M69" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="N69" s="34"/>
+      <c r="N69" s="43"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14">
       <c r="A70" s="1">
         <v>3</v>
       </c>
@@ -28024,7 +28027,7 @@
       <c r="C70" s="20">
         <v>0.92700000000000005</v>
       </c>
-      <c r="D70" s="34"/>
+      <c r="D70" s="43"/>
       <c r="F70" s="1">
         <v>3</v>
       </c>
@@ -28034,7 +28037,7 @@
       <c r="H70" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I70" s="34"/>
+      <c r="I70" s="43"/>
       <c r="K70" s="1">
         <v>3</v>
       </c>
@@ -28044,9 +28047,9 @@
       <c r="M70" s="20">
         <v>0.97499999999999998</v>
       </c>
-      <c r="N70" s="34"/>
+      <c r="N70" s="43"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14">
       <c r="A71" s="1">
         <v>4</v>
       </c>
@@ -28056,7 +28059,7 @@
       <c r="C71" s="20">
         <v>0.90600000000000003</v>
       </c>
-      <c r="D71" s="34"/>
+      <c r="D71" s="43"/>
       <c r="F71" s="1">
         <v>4</v>
       </c>
@@ -28066,7 +28069,7 @@
       <c r="H71" s="20">
         <v>0.96899999999999997</v>
       </c>
-      <c r="I71" s="34"/>
+      <c r="I71" s="43"/>
       <c r="K71" s="1">
         <v>4</v>
       </c>
@@ -28076,9 +28079,9 @@
       <c r="M71" s="20">
         <v>0.85199999999999998</v>
       </c>
-      <c r="N71" s="34"/>
+      <c r="N71" s="43"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14">
       <c r="A72" s="1">
         <v>5</v>
       </c>
@@ -28088,7 +28091,7 @@
       <c r="C72" s="20">
         <v>0.92</v>
       </c>
-      <c r="D72" s="34"/>
+      <c r="D72" s="43"/>
       <c r="F72" s="1">
         <v>5</v>
       </c>
@@ -28098,7 +28101,7 @@
       <c r="H72" s="20">
         <v>0.96499999999999997</v>
       </c>
-      <c r="I72" s="34"/>
+      <c r="I72" s="43"/>
       <c r="K72" s="1">
         <v>5</v>
       </c>
@@ -28108,9 +28111,9 @@
       <c r="M72" s="20">
         <v>0.86899999999999999</v>
       </c>
-      <c r="N72" s="34"/>
+      <c r="N72" s="43"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14">
       <c r="A73" s="1">
         <v>6</v>
       </c>
@@ -28120,7 +28123,7 @@
       <c r="C73" s="20">
         <v>0.96199999999999997</v>
       </c>
-      <c r="D73" s="34"/>
+      <c r="D73" s="43"/>
       <c r="F73" s="1">
         <v>6</v>
       </c>
@@ -28130,7 +28133,7 @@
       <c r="H73" s="20">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I73" s="34"/>
+      <c r="I73" s="43"/>
       <c r="K73" s="1">
         <v>6</v>
       </c>
@@ -28140,9 +28143,9 @@
       <c r="M73" s="20">
         <v>0.876</v>
       </c>
-      <c r="N73" s="34"/>
+      <c r="N73" s="43"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14">
       <c r="A74" s="1">
         <v>7</v>
       </c>
@@ -28152,7 +28155,7 @@
       <c r="C74" s="20">
         <v>0.82199999999999995</v>
       </c>
-      <c r="D74" s="34"/>
+      <c r="D74" s="43"/>
       <c r="F74" s="1">
         <v>7</v>
       </c>
@@ -28162,7 +28165,7 @@
       <c r="H74" s="20">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I74" s="34"/>
+      <c r="I74" s="43"/>
       <c r="K74" s="1">
         <v>7</v>
       </c>
@@ -28172,9 +28175,9 @@
       <c r="M74" s="20">
         <v>0.89300000000000002</v>
       </c>
-      <c r="N74" s="34"/>
+      <c r="N74" s="43"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14">
       <c r="A75" s="1">
         <v>8</v>
       </c>
@@ -28184,7 +28187,7 @@
       <c r="C75" s="20">
         <v>0.82399999999999995</v>
       </c>
-      <c r="D75" s="34"/>
+      <c r="D75" s="43"/>
       <c r="F75" s="1">
         <v>8</v>
       </c>
@@ -28194,7 +28197,7 @@
       <c r="H75" s="20">
         <v>0.91800000000000004</v>
       </c>
-      <c r="I75" s="34"/>
+      <c r="I75" s="43"/>
       <c r="K75" s="1">
         <v>8</v>
       </c>
@@ -28204,9 +28207,9 @@
       <c r="M75" s="20">
         <v>0.98799999999999999</v>
       </c>
-      <c r="N75" s="34"/>
+      <c r="N75" s="43"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14">
       <c r="A76" s="1">
         <v>9</v>
       </c>
@@ -28216,7 +28219,7 @@
       <c r="C76" s="20">
         <v>0.92500000000000004</v>
       </c>
-      <c r="D76" s="34"/>
+      <c r="D76" s="43"/>
       <c r="F76" s="1">
         <v>9</v>
       </c>
@@ -28226,7 +28229,7 @@
       <c r="H76" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="I76" s="34"/>
+      <c r="I76" s="43"/>
       <c r="K76" s="1">
         <v>9</v>
       </c>
@@ -28236,9 +28239,9 @@
       <c r="M76" s="20">
         <v>0.89500000000000002</v>
       </c>
-      <c r="N76" s="34"/>
+      <c r="N76" s="43"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14">
       <c r="A77" s="1">
         <v>10</v>
       </c>
@@ -28248,7 +28251,7 @@
       <c r="C77" s="20">
         <v>0.83199999999999996</v>
       </c>
-      <c r="D77" s="34"/>
+      <c r="D77" s="43"/>
       <c r="F77" s="1">
         <v>10</v>
       </c>
@@ -28258,7 +28261,7 @@
       <c r="H77" s="20">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I77" s="34"/>
+      <c r="I77" s="43"/>
       <c r="K77" s="1">
         <v>10</v>
       </c>
@@ -28268,9 +28271,9 @@
       <c r="M77" s="20">
         <v>0.98199999999999998</v>
       </c>
-      <c r="N77" s="34"/>
+      <c r="N77" s="43"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14">
       <c r="A78" s="1">
         <v>11</v>
       </c>
@@ -28280,7 +28283,7 @@
       <c r="C78" s="20">
         <v>0.82899999999999996</v>
       </c>
-      <c r="D78" s="34"/>
+      <c r="D78" s="43"/>
       <c r="F78" s="1">
         <v>11</v>
       </c>
@@ -28290,7 +28293,7 @@
       <c r="H78" s="20">
         <v>0.94899999999999995</v>
       </c>
-      <c r="I78" s="34"/>
+      <c r="I78" s="43"/>
       <c r="K78" s="1">
         <v>11</v>
       </c>
@@ -28300,9 +28303,9 @@
       <c r="M78" s="20">
         <v>0.98099999999999998</v>
       </c>
-      <c r="N78" s="34"/>
+      <c r="N78" s="43"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14">
       <c r="A79" s="1">
         <v>12</v>
       </c>
@@ -28312,7 +28315,7 @@
       <c r="C79" s="20">
         <v>0.95399999999999996</v>
       </c>
-      <c r="D79" s="34"/>
+      <c r="D79" s="43"/>
       <c r="F79" s="1">
         <v>12</v>
       </c>
@@ -28322,7 +28325,7 @@
       <c r="H79" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="I79" s="34"/>
+      <c r="I79" s="43"/>
       <c r="K79" s="1">
         <v>12</v>
       </c>
@@ -28332,9 +28335,9 @@
       <c r="M79" s="20">
         <v>0.95899999999999996</v>
       </c>
-      <c r="N79" s="34"/>
+      <c r="N79" s="43"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14">
       <c r="A98" s="1" t="s">
         <v>33</v>
       </c>
@@ -28363,7 +28366,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14">
       <c r="A99" s="1">
         <v>0</v>
       </c>
@@ -28373,7 +28376,7 @@
       <c r="C99" s="20">
         <v>0.92200000000000004</v>
       </c>
-      <c r="D99" s="34" t="s">
+      <c r="D99" s="43" t="s">
         <v>26</v>
       </c>
       <c r="F99" s="1">
@@ -28385,7 +28388,7 @@
       <c r="H99" s="20">
         <v>0.874</v>
       </c>
-      <c r="I99" s="34" t="s">
+      <c r="I99" s="43" t="s">
         <v>27</v>
       </c>
       <c r="K99" s="1">
@@ -28397,11 +28400,11 @@
       <c r="M99" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="N99" s="34" t="s">
+      <c r="N99" s="43" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14">
       <c r="A100" s="1">
         <v>1</v>
       </c>
@@ -28411,7 +28414,7 @@
       <c r="C100" s="20">
         <v>0.91600000000000004</v>
       </c>
-      <c r="D100" s="34"/>
+      <c r="D100" s="43"/>
       <c r="F100" s="1">
         <v>1</v>
       </c>
@@ -28421,7 +28424,7 @@
       <c r="H100" s="20">
         <v>0.89500000000000002</v>
       </c>
-      <c r="I100" s="34"/>
+      <c r="I100" s="43"/>
       <c r="K100" s="1">
         <v>1</v>
       </c>
@@ -28431,9 +28434,9 @@
       <c r="M100" s="20">
         <v>0.98499999999999999</v>
       </c>
-      <c r="N100" s="34"/>
+      <c r="N100" s="43"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14">
       <c r="A101" s="1">
         <v>2</v>
       </c>
@@ -28443,7 +28446,7 @@
       <c r="C101" s="20">
         <v>0.89200000000000002</v>
       </c>
-      <c r="D101" s="34"/>
+      <c r="D101" s="43"/>
       <c r="F101" s="1">
         <v>2</v>
       </c>
@@ -28453,7 +28456,7 @@
       <c r="H101" s="20">
         <v>0.96299999999999997</v>
       </c>
-      <c r="I101" s="34"/>
+      <c r="I101" s="43"/>
       <c r="K101" s="1">
         <v>2</v>
       </c>
@@ -28463,9 +28466,9 @@
       <c r="M101" s="20">
         <v>0.96699999999999997</v>
       </c>
-      <c r="N101" s="34"/>
+      <c r="N101" s="43"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14">
       <c r="A102" s="1">
         <v>3</v>
       </c>
@@ -28475,7 +28478,7 @@
       <c r="C102" s="20">
         <v>0.91</v>
       </c>
-      <c r="D102" s="34"/>
+      <c r="D102" s="43"/>
       <c r="F102" s="1">
         <v>3</v>
       </c>
@@ -28485,7 +28488,7 @@
       <c r="H102" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I102" s="34"/>
+      <c r="I102" s="43"/>
       <c r="K102" s="1">
         <v>3</v>
       </c>
@@ -28495,9 +28498,9 @@
       <c r="M102" s="20">
         <v>0.995</v>
       </c>
-      <c r="N102" s="34"/>
+      <c r="N102" s="43"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14">
       <c r="A103" s="1">
         <v>4</v>
       </c>
@@ -28507,7 +28510,7 @@
       <c r="C103" s="20">
         <v>0.89800000000000002</v>
       </c>
-      <c r="D103" s="34"/>
+      <c r="D103" s="43"/>
       <c r="F103" s="1">
         <v>4</v>
       </c>
@@ -28517,7 +28520,7 @@
       <c r="H103" s="20">
         <v>0.98399999999999999</v>
       </c>
-      <c r="I103" s="34"/>
+      <c r="I103" s="43"/>
       <c r="K103" s="1">
         <v>4</v>
       </c>
@@ -28527,9 +28530,9 @@
       <c r="M103" s="20">
         <v>0.98699999999999999</v>
       </c>
-      <c r="N103" s="34"/>
+      <c r="N103" s="43"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14">
       <c r="A104" s="1">
         <v>5</v>
       </c>
@@ -28539,7 +28542,7 @@
       <c r="C104" s="20">
         <v>0.88</v>
       </c>
-      <c r="D104" s="34"/>
+      <c r="D104" s="43"/>
       <c r="F104" s="1">
         <v>5</v>
       </c>
@@ -28549,7 +28552,7 @@
       <c r="H104" s="20">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I104" s="34"/>
+      <c r="I104" s="43"/>
       <c r="K104" s="1">
         <v>5</v>
       </c>
@@ -28559,9 +28562,9 @@
       <c r="M104" s="20">
         <v>0.996</v>
       </c>
-      <c r="N104" s="34"/>
+      <c r="N104" s="43"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14">
       <c r="A105" s="1">
         <v>6</v>
       </c>
@@ -28571,7 +28574,7 @@
       <c r="C105" s="20">
         <v>0.90400000000000003</v>
       </c>
-      <c r="D105" s="34"/>
+      <c r="D105" s="43"/>
       <c r="F105" s="1">
         <v>6</v>
       </c>
@@ -28581,7 +28584,7 @@
       <c r="H105" s="20">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I105" s="34"/>
+      <c r="I105" s="43"/>
       <c r="K105" s="1">
         <v>6</v>
       </c>
@@ -28591,9 +28594,9 @@
       <c r="M105" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="N105" s="34"/>
+      <c r="N105" s="43"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14">
       <c r="A106" s="1">
         <v>7</v>
       </c>
@@ -28603,7 +28606,7 @@
       <c r="C106" s="20">
         <v>0.96699999999999997</v>
       </c>
-      <c r="D106" s="34"/>
+      <c r="D106" s="43"/>
       <c r="F106" s="1">
         <v>7</v>
       </c>
@@ -28613,7 +28616,7 @@
       <c r="H106" s="20">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I106" s="34"/>
+      <c r="I106" s="43"/>
       <c r="K106" s="1">
         <v>7</v>
       </c>
@@ -28623,9 +28626,9 @@
       <c r="M106" s="20">
         <v>0.98899999999999999</v>
       </c>
-      <c r="N106" s="34"/>
+      <c r="N106" s="43"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14">
       <c r="A107" s="1">
         <v>8</v>
       </c>
@@ -28635,7 +28638,7 @@
       <c r="C107" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="D107" s="34"/>
+      <c r="D107" s="43"/>
       <c r="F107" s="1">
         <v>8</v>
       </c>
@@ -28645,7 +28648,7 @@
       <c r="H107" s="20">
         <v>0.98899999999999999</v>
       </c>
-      <c r="I107" s="34"/>
+      <c r="I107" s="43"/>
       <c r="K107" s="1">
         <v>8</v>
       </c>
@@ -28655,9 +28658,9 @@
       <c r="M107" s="20">
         <v>0.96099999999999997</v>
       </c>
-      <c r="N107" s="34"/>
+      <c r="N107" s="43"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14">
       <c r="A108" s="1">
         <v>9</v>
       </c>
@@ -28667,7 +28670,7 @@
       <c r="C108" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D108" s="34"/>
+      <c r="D108" s="43"/>
       <c r="F108" s="1">
         <v>9</v>
       </c>
@@ -28677,7 +28680,7 @@
       <c r="H108" s="20">
         <v>0.89900000000000002</v>
       </c>
-      <c r="I108" s="34"/>
+      <c r="I108" s="43"/>
       <c r="K108" s="1">
         <v>9</v>
       </c>
@@ -28687,9 +28690,9 @@
       <c r="M108" s="20">
         <v>0.96</v>
       </c>
-      <c r="N108" s="34"/>
+      <c r="N108" s="43"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14">
       <c r="A109" s="1">
         <v>10</v>
       </c>
@@ -28699,7 +28702,7 @@
       <c r="C109" s="20">
         <v>0.97699999999999998</v>
       </c>
-      <c r="D109" s="34"/>
+      <c r="D109" s="43"/>
       <c r="F109" s="1">
         <v>10</v>
       </c>
@@ -28709,7 +28712,7 @@
       <c r="H109" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I109" s="34"/>
+      <c r="I109" s="43"/>
       <c r="K109" s="1">
         <v>10</v>
       </c>
@@ -28719,9 +28722,9 @@
       <c r="M109" s="20">
         <v>0.96399999999999997</v>
       </c>
-      <c r="N109" s="34"/>
+      <c r="N109" s="43"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14">
       <c r="A110" s="1">
         <v>11</v>
       </c>
@@ -28731,7 +28734,7 @@
       <c r="C110" s="20">
         <v>0.97599999999999998</v>
       </c>
-      <c r="D110" s="34"/>
+      <c r="D110" s="43"/>
       <c r="F110" s="1">
         <v>11</v>
       </c>
@@ -28741,7 +28744,7 @@
       <c r="H110" s="20">
         <v>0.85599999999999998</v>
       </c>
-      <c r="I110" s="34"/>
+      <c r="I110" s="43"/>
       <c r="K110" s="1">
         <v>11</v>
       </c>
@@ -28751,9 +28754,9 @@
       <c r="M110" s="20">
         <v>0.96</v>
       </c>
-      <c r="N110" s="34"/>
+      <c r="N110" s="43"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14">
       <c r="A111" s="1">
         <v>12</v>
       </c>
@@ -28763,7 +28766,7 @@
       <c r="C111" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="D111" s="34"/>
+      <c r="D111" s="43"/>
       <c r="F111" s="1">
         <v>12</v>
       </c>
@@ -28773,7 +28776,7 @@
       <c r="H111" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I111" s="34"/>
+      <c r="I111" s="43"/>
       <c r="K111" s="1">
         <v>12</v>
       </c>
@@ -28783,22 +28786,22 @@
       <c r="M111" s="20">
         <v>0.96599999999999997</v>
       </c>
-      <c r="N111" s="34"/>
+      <c r="N111" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D2:D14"/>
+    <mergeCell ref="I2:I14"/>
+    <mergeCell ref="N2:N8"/>
+    <mergeCell ref="D34:D46"/>
+    <mergeCell ref="I34:I46"/>
+    <mergeCell ref="N34:N46"/>
     <mergeCell ref="D67:D79"/>
     <mergeCell ref="I67:I79"/>
     <mergeCell ref="N67:N79"/>
     <mergeCell ref="D99:D111"/>
     <mergeCell ref="I99:I111"/>
     <mergeCell ref="N99:N111"/>
-    <mergeCell ref="D2:D14"/>
-    <mergeCell ref="I2:I14"/>
-    <mergeCell ref="N2:N8"/>
-    <mergeCell ref="D34:D46"/>
-    <mergeCell ref="I34:I46"/>
-    <mergeCell ref="N34:N46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -28813,12 +28816,12 @@
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -28847,7 +28850,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -28857,7 +28860,7 @@
       <c r="C2" s="24">
         <v>0.66666700000000001</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="43" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="1">
@@ -28869,7 +28872,7 @@
       <c r="H2" s="24">
         <v>0</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="43" t="s">
         <v>28</v>
       </c>
       <c r="L2" s="1">
@@ -28881,11 +28884,11 @@
       <c r="N2" s="24">
         <v>0.66666700000000001</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="43" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -28895,7 +28898,7 @@
       <c r="C3" s="24">
         <v>0.51964299999999997</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="43"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -28905,7 +28908,7 @@
       <c r="H3" s="24">
         <v>9.1979999999999996E-3</v>
       </c>
-      <c r="I3" s="34"/>
+      <c r="I3" s="43"/>
       <c r="L3" s="1">
         <v>1</v>
       </c>
@@ -28915,9 +28918,9 @@
       <c r="N3" s="24">
         <v>0.61618799999999996</v>
       </c>
-      <c r="O3" s="34"/>
+      <c r="O3" s="43"/>
     </row>
-    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -28927,7 +28930,7 @@
       <c r="C4" s="24">
         <v>0.54270200000000002</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="43"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -28937,7 +28940,7 @@
       <c r="H4" s="24">
         <v>0.66666700000000001</v>
       </c>
-      <c r="I4" s="34"/>
+      <c r="I4" s="43"/>
       <c r="L4" s="1">
         <v>2</v>
       </c>
@@ -28947,9 +28950,9 @@
       <c r="N4" s="24">
         <v>8.9940999999999993E-2</v>
       </c>
-      <c r="O4" s="34"/>
+      <c r="O4" s="43"/>
     </row>
-    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -28959,7 +28962,7 @@
       <c r="C5" s="24">
         <v>0.58758500000000002</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="43"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -28969,7 +28972,7 @@
       <c r="H5" s="24">
         <v>0.66666700000000001</v>
       </c>
-      <c r="I5" s="34"/>
+      <c r="I5" s="43"/>
       <c r="L5" s="1">
         <v>3</v>
       </c>
@@ -28979,9 +28982,9 @@
       <c r="N5" s="24">
         <v>0</v>
       </c>
-      <c r="O5" s="34"/>
+      <c r="O5" s="43"/>
     </row>
-    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -28991,7 +28994,7 @@
       <c r="C6" s="24">
         <v>0.59606400000000004</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="43"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -29001,7 +29004,7 @@
       <c r="H6" s="24">
         <v>0</v>
       </c>
-      <c r="I6" s="34"/>
+      <c r="I6" s="43"/>
       <c r="L6" s="1">
         <v>4</v>
       </c>
@@ -29011,9 +29014,9 @@
       <c r="N6" s="24">
         <v>0</v>
       </c>
-      <c r="O6" s="34"/>
+      <c r="O6" s="43"/>
     </row>
-    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -29023,7 +29026,7 @@
       <c r="C7" s="24">
         <v>0.63406600000000002</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="43"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -29033,7 +29036,7 @@
       <c r="H7" s="24">
         <v>0</v>
       </c>
-      <c r="I7" s="34"/>
+      <c r="I7" s="43"/>
       <c r="L7" s="1">
         <v>5</v>
       </c>
@@ -29043,9 +29046,9 @@
       <c r="N7" s="24">
         <v>0</v>
       </c>
-      <c r="O7" s="34"/>
+      <c r="O7" s="43"/>
     </row>
-    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -29055,7 +29058,7 @@
       <c r="C8" s="24">
         <v>0.63100100000000003</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="43"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -29065,7 +29068,7 @@
       <c r="H8" s="24">
         <v>0</v>
       </c>
-      <c r="I8" s="34"/>
+      <c r="I8" s="43"/>
       <c r="L8" s="1">
         <v>6</v>
       </c>
@@ -29075,9 +29078,9 @@
       <c r="N8" s="24">
         <v>1.853E-3</v>
       </c>
-      <c r="O8" s="34"/>
+      <c r="O8" s="43"/>
     </row>
-    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -29087,7 +29090,7 @@
       <c r="C9" s="24">
         <v>0.62990500000000005</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="43"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -29097,7 +29100,7 @@
       <c r="H9" s="24">
         <v>0</v>
       </c>
-      <c r="I9" s="34"/>
+      <c r="I9" s="43"/>
       <c r="L9" s="1">
         <v>7</v>
       </c>
@@ -29107,9 +29110,9 @@
       <c r="N9" s="24">
         <v>4.8050000000000002E-3</v>
       </c>
-      <c r="O9" s="34"/>
+      <c r="O9" s="43"/>
     </row>
-    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -29119,7 +29122,7 @@
       <c r="C10" s="24">
         <v>0.62997499999999995</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="43"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -29129,7 +29132,7 @@
       <c r="H10" s="24">
         <v>0</v>
       </c>
-      <c r="I10" s="34"/>
+      <c r="I10" s="43"/>
       <c r="L10" s="1">
         <v>8</v>
       </c>
@@ -29139,9 +29142,9 @@
       <c r="N10" s="24">
         <v>9.9369999999999997E-3</v>
       </c>
-      <c r="O10" s="34"/>
+      <c r="O10" s="43"/>
     </row>
-    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -29151,7 +29154,7 @@
       <c r="C11" s="24">
         <v>0.629741</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="43"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -29161,7 +29164,7 @@
       <c r="H11" s="24">
         <v>0</v>
       </c>
-      <c r="I11" s="34"/>
+      <c r="I11" s="43"/>
       <c r="L11" s="1">
         <v>9</v>
       </c>
@@ -29171,9 +29174,9 @@
       <c r="N11" s="24">
         <v>7.0303000000000004E-2</v>
       </c>
-      <c r="O11" s="34"/>
+      <c r="O11" s="43"/>
     </row>
-    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -29183,7 +29186,7 @@
       <c r="C12" s="24">
         <v>0.62902800000000003</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="43"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -29193,7 +29196,7 @@
       <c r="H12" s="24">
         <v>0</v>
       </c>
-      <c r="I12" s="34"/>
+      <c r="I12" s="43"/>
       <c r="L12" s="1">
         <v>10</v>
       </c>
@@ -29203,9 +29206,9 @@
       <c r="N12" s="24">
         <v>0.25535999999999998</v>
       </c>
-      <c r="O12" s="34"/>
+      <c r="O12" s="43"/>
     </row>
-    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -29215,7 +29218,7 @@
       <c r="C13" s="24">
         <v>0.65797799999999995</v>
       </c>
-      <c r="D13" s="34"/>
+      <c r="D13" s="43"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -29225,7 +29228,7 @@
       <c r="H13" s="24">
         <v>0</v>
       </c>
-      <c r="I13" s="34"/>
+      <c r="I13" s="43"/>
       <c r="L13" s="1">
         <v>11</v>
       </c>
@@ -29235,9 +29238,9 @@
       <c r="N13" s="24">
         <v>0.30926500000000001</v>
       </c>
-      <c r="O13" s="34"/>
+      <c r="O13" s="43"/>
     </row>
-    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -29247,7 +29250,7 @@
       <c r="C14" s="24">
         <v>0.57034200000000002</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="43"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -29257,7 +29260,7 @@
       <c r="H14" s="24">
         <v>0.212117</v>
       </c>
-      <c r="I14" s="34"/>
+      <c r="I14" s="43"/>
       <c r="L14" s="1">
         <v>12</v>
       </c>
@@ -29267,7 +29270,7 @@
       <c r="N14" s="24">
         <v>0.25233499999999998</v>
       </c>
-      <c r="O14" s="34"/>
+      <c r="O14" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -29288,13 +29291,13 @@
       <selection activeCell="K1" sqref="K1:M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -29323,7 +29326,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -29333,7 +29336,7 @@
       <c r="C2" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="43" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="1">
@@ -29345,7 +29348,7 @@
       <c r="H2" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="43" t="s">
         <v>28</v>
       </c>
       <c r="K2" s="1">
@@ -29357,11 +29360,11 @@
       <c r="M2" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="43" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -29371,7 +29374,7 @@
       <c r="C3" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="43"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -29381,7 +29384,7 @@
       <c r="H3" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I3" s="34"/>
+      <c r="I3" s="43"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
@@ -29391,9 +29394,9 @@
       <c r="M3" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N3" s="34"/>
+      <c r="N3" s="43"/>
     </row>
-    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -29403,7 +29406,7 @@
       <c r="C4" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="43"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -29413,7 +29416,7 @@
       <c r="H4" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I4" s="34"/>
+      <c r="I4" s="43"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
@@ -29423,9 +29426,9 @@
       <c r="M4" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N4" s="34"/>
+      <c r="N4" s="43"/>
     </row>
-    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -29435,7 +29438,7 @@
       <c r="C5" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="43"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -29445,7 +29448,7 @@
       <c r="H5" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I5" s="34"/>
+      <c r="I5" s="43"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
@@ -29455,9 +29458,9 @@
       <c r="M5" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N5" s="34"/>
+      <c r="N5" s="43"/>
     </row>
-    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -29467,7 +29470,7 @@
       <c r="C6" s="24">
         <v>0.480132</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="43"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -29477,7 +29480,7 @@
       <c r="H6" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I6" s="34"/>
+      <c r="I6" s="43"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
@@ -29487,9 +29490,9 @@
       <c r="M6" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N6" s="34"/>
+      <c r="N6" s="43"/>
     </row>
-    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -29499,7 +29502,7 @@
       <c r="C7" s="24">
         <v>0.46854299999999999</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="43"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -29509,7 +29512,7 @@
       <c r="H7" s="24">
         <v>0.480132</v>
       </c>
-      <c r="I7" s="34"/>
+      <c r="I7" s="43"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
@@ -29519,9 +29522,9 @@
       <c r="M7" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N7" s="34"/>
+      <c r="N7" s="43"/>
     </row>
-    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -29531,7 +29534,7 @@
       <c r="C8" s="24">
         <v>0.47682099999999999</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="43"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -29541,7 +29544,7 @@
       <c r="H8" s="24">
         <v>0.49337700000000001</v>
       </c>
-      <c r="I8" s="34"/>
+      <c r="I8" s="43"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
@@ -29551,9 +29554,9 @@
       <c r="M8" s="24">
         <v>0.48344399999999998</v>
       </c>
-      <c r="N8" s="34"/>
+      <c r="N8" s="43"/>
     </row>
-    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -29563,7 +29566,7 @@
       <c r="C9" s="24">
         <v>0.480132</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="43"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -29573,7 +29576,7 @@
       <c r="H9" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I9" s="34"/>
+      <c r="I9" s="43"/>
       <c r="K9" s="1">
         <v>7</v>
       </c>
@@ -29583,9 +29586,9 @@
       <c r="M9" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N9" s="34"/>
+      <c r="N9" s="43"/>
     </row>
-    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -29595,7 +29598,7 @@
       <c r="C10" s="24">
         <v>0.480132</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="43"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -29605,7 +29608,7 @@
       <c r="H10" s="24">
         <v>0.480132</v>
       </c>
-      <c r="I10" s="34"/>
+      <c r="I10" s="43"/>
       <c r="K10" s="1">
         <v>8</v>
       </c>
@@ -29615,9 +29618,9 @@
       <c r="M10" s="24">
         <v>0.47847699999999999</v>
       </c>
-      <c r="N10" s="34"/>
+      <c r="N10" s="43"/>
     </row>
-    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -29627,7 +29630,7 @@
       <c r="C11" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="43"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -29637,7 +29640,7 @@
       <c r="H11" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I11" s="34"/>
+      <c r="I11" s="43"/>
       <c r="K11" s="1">
         <v>9</v>
       </c>
@@ -29647,9 +29650,9 @@
       <c r="M11" s="24">
         <v>0.47682099999999999</v>
       </c>
-      <c r="N11" s="34"/>
+      <c r="N11" s="43"/>
     </row>
-    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -29659,7 +29662,7 @@
       <c r="C12" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="43"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -29669,7 +29672,7 @@
       <c r="H12" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I12" s="34"/>
+      <c r="I12" s="43"/>
       <c r="K12" s="1">
         <v>10</v>
       </c>
@@ -29679,9 +29682,9 @@
       <c r="M12" s="24">
         <v>0.47682099999999999</v>
       </c>
-      <c r="N12" s="34"/>
+      <c r="N12" s="43"/>
     </row>
-    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -29691,7 +29694,7 @@
       <c r="C13" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D13" s="34"/>
+      <c r="D13" s="43"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -29701,7 +29704,7 @@
       <c r="H13" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I13" s="34"/>
+      <c r="I13" s="43"/>
       <c r="K13" s="1">
         <v>11</v>
       </c>
@@ -29711,9 +29714,9 @@
       <c r="M13" s="24">
         <v>0.52152299999999996</v>
       </c>
-      <c r="N13" s="34"/>
+      <c r="N13" s="43"/>
     </row>
-    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -29723,7 +29726,7 @@
       <c r="C14" s="24">
         <v>0.47516599999999998</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="43"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -29733,7 +29736,7 @@
       <c r="H14" s="24">
         <v>0.48675499999999999</v>
       </c>
-      <c r="I14" s="34"/>
+      <c r="I14" s="43"/>
       <c r="K14" s="1">
         <v>12</v>
       </c>
@@ -29743,7 +29746,7 @@
       <c r="M14" s="24">
         <v>0.50331099999999995</v>
       </c>
-      <c r="N14" s="34"/>
+      <c r="N14" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -29764,9 +29767,9 @@
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -29795,7 +29798,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -29805,7 +29808,7 @@
       <c r="C2" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="43" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="1">
@@ -29817,7 +29820,7 @@
       <c r="H2" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="43" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="1">
@@ -29829,11 +29832,11 @@
       <c r="M2" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="43" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -29843,7 +29846,7 @@
       <c r="C3" s="24">
         <v>0.569546</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="43"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -29853,7 +29856,7 @@
       <c r="H3" s="24">
         <v>0.56991199999999997</v>
       </c>
-      <c r="I3" s="34"/>
+      <c r="I3" s="43"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
@@ -29863,9 +29866,9 @@
       <c r="M3" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N3" s="34"/>
+      <c r="N3" s="43"/>
     </row>
-    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -29875,7 +29878,7 @@
       <c r="C4" s="24">
         <v>0.567716</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="43"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -29885,7 +29888,7 @@
       <c r="H4" s="24">
         <v>0.56881400000000004</v>
       </c>
-      <c r="I4" s="34"/>
+      <c r="I4" s="43"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
@@ -29895,9 +29898,9 @@
       <c r="M4" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N4" s="34"/>
+      <c r="N4" s="43"/>
     </row>
-    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -29907,7 +29910,7 @@
       <c r="C5" s="24">
         <v>0.58894599999999997</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="43"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -29917,7 +29920,7 @@
       <c r="H5" s="24">
         <v>0.58308899999999997</v>
       </c>
-      <c r="I5" s="34"/>
+      <c r="I5" s="43"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
@@ -29927,9 +29930,9 @@
       <c r="M5" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N5" s="34"/>
+      <c r="N5" s="43"/>
     </row>
-    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -29939,7 +29942,7 @@
       <c r="C6" s="24">
         <v>0.60175699999999999</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="43"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -29949,7 +29952,7 @@
       <c r="H6" s="24">
         <v>0.60651500000000003</v>
       </c>
-      <c r="I6" s="34"/>
+      <c r="I6" s="43"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
@@ -29959,9 +29962,9 @@
       <c r="M6" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N6" s="34"/>
+      <c r="N6" s="43"/>
     </row>
-    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -29971,7 +29974,7 @@
       <c r="C7" s="24">
         <v>0.61712999999999996</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="43"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -29981,7 +29984,7 @@
       <c r="H7" s="24">
         <v>0.61786200000000002</v>
       </c>
-      <c r="I7" s="34"/>
+      <c r="I7" s="43"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
@@ -29991,9 +29994,9 @@
       <c r="M7" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N7" s="34"/>
+      <c r="N7" s="43"/>
     </row>
-    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -30003,7 +30006,7 @@
       <c r="C8" s="24">
         <v>0.620425</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="43"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -30013,7 +30016,7 @@
       <c r="H8" s="24">
         <v>0.61090800000000001</v>
       </c>
-      <c r="I8" s="34"/>
+      <c r="I8" s="43"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
@@ -30023,9 +30026,9 @@
       <c r="M8" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N8" s="34"/>
+      <c r="N8" s="43"/>
     </row>
-    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -30035,7 +30038,7 @@
       <c r="C9" s="24">
         <v>0.633602</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="43"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -30045,7 +30048,7 @@
       <c r="H9" s="24">
         <v>0.61786200000000002</v>
       </c>
-      <c r="I9" s="34"/>
+      <c r="I9" s="43"/>
       <c r="K9" s="1">
         <v>7</v>
       </c>
@@ -30055,9 +30058,9 @@
       <c r="M9" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N9" s="34"/>
+      <c r="N9" s="43"/>
     </row>
-    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -30067,7 +30070,7 @@
       <c r="C10" s="24">
         <v>0.62847699999999995</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="43"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -30077,7 +30080,7 @@
       <c r="H10" s="24">
         <v>0.620425</v>
       </c>
-      <c r="I10" s="34"/>
+      <c r="I10" s="43"/>
       <c r="K10" s="1">
         <v>8</v>
       </c>
@@ -30087,9 +30090,9 @@
       <c r="M10" s="24">
         <v>0.57906299999999999</v>
       </c>
-      <c r="N10" s="34"/>
+      <c r="N10" s="43"/>
     </row>
-    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -30099,7 +30102,7 @@
       <c r="C11" s="24">
         <v>0.62664699999999995</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="43"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -30109,7 +30112,7 @@
       <c r="H11" s="24">
         <v>0.61712999999999996</v>
       </c>
-      <c r="I11" s="34"/>
+      <c r="I11" s="43"/>
       <c r="K11" s="1">
         <v>9</v>
       </c>
@@ -30119,9 +30122,9 @@
       <c r="M11" s="24">
         <v>0.58491899999999997</v>
       </c>
-      <c r="N11" s="34"/>
+      <c r="N11" s="43"/>
     </row>
-    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -30131,7 +30134,7 @@
       <c r="C12" s="24">
         <v>0.63250399999999996</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="43"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -30141,7 +30144,7 @@
       <c r="H12" s="24">
         <v>0.62005900000000003</v>
       </c>
-      <c r="I12" s="34"/>
+      <c r="I12" s="43"/>
       <c r="K12" s="1">
         <v>10</v>
       </c>
@@ -30151,9 +30154,9 @@
       <c r="M12" s="24">
         <v>0.59553400000000001</v>
       </c>
-      <c r="N12" s="34"/>
+      <c r="N12" s="43"/>
     </row>
-    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -30163,7 +30166,7 @@
       <c r="C13" s="24">
         <v>0.63689600000000002</v>
       </c>
-      <c r="D13" s="34"/>
+      <c r="D13" s="43"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -30173,7 +30176,7 @@
       <c r="H13" s="24">
         <v>0.62884300000000004</v>
       </c>
-      <c r="I13" s="34"/>
+      <c r="I13" s="43"/>
       <c r="K13" s="1">
         <v>11</v>
       </c>
@@ -30183,9 +30186,9 @@
       <c r="M13" s="24">
         <v>0.64055600000000001</v>
       </c>
-      <c r="N13" s="34"/>
+      <c r="N13" s="43"/>
     </row>
-    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -30195,7 +30198,7 @@
       <c r="C14" s="24">
         <v>0.64019000000000004</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="43"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -30205,7 +30208,7 @@
       <c r="H14" s="24">
         <v>0.63872600000000002</v>
       </c>
-      <c r="I14" s="34"/>
+      <c r="I14" s="43"/>
       <c r="K14" s="1">
         <v>12</v>
       </c>
@@ -30215,7 +30218,7 @@
       <c r="M14" s="24">
         <v>0.66800899999999996</v>
       </c>
-      <c r="N14" s="34"/>
+      <c r="N14" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/POS Code/Experiments/attachments/detailed_results.xlsx
+++ b/POS Code/Experiments/attachments/detailed_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zefuh\workspace\interpretability-of-source-code-transformers\POS Code\Experiments\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA55F03C-0BCB-4B80-811E-1DAD684B6DD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C6FEFC-08CB-A943-88CA-45EDEE43A5DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="2745" windowWidth="27540" windowHeight="17700" activeTab="2" xr2:uid="{BEC22610-DBDE-49A5-ABDC-7DB261D6BA7F}"/>
+    <workbookView xWindow="5520" yWindow="2740" windowWidth="27540" windowHeight="17700" activeTab="4" xr2:uid="{BEC22610-DBDE-49A5-ABDC-7DB261D6BA7F}"/>
   </bookViews>
   <sheets>
     <sheet name="POSSummary" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="59">
   <si>
     <t>Selection</t>
   </si>
@@ -202,9 +202,6 @@
     <t>JB</t>
   </si>
   <si>
-    <t>Rba</t>
-  </si>
-  <si>
     <t>UC</t>
   </si>
   <si>
@@ -212,6 +209,12 @@
   </si>
   <si>
     <t>f1</t>
+  </si>
+  <si>
+    <t>RBa</t>
+  </si>
+  <si>
+    <t>0-6</t>
   </si>
 </sst>
 </file>
@@ -221,7 +224,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -425,38 +428,14 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -473,8 +452,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2711,1523 +2717,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>CloneDetecLayerwise!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Independent</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>CloneDetecLayerwise!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CloneDetecLayerwise!$B$2:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.66666700000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.53886800000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.54850200000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.53795800000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.54511100000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.54999500000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.552315</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.56195499999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.57339300000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.57301899999999995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.57183899999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.55879900000000005</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.50923399999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8055-1341-8677-D0341DB41884}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CloneDetecLayerwise!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Incremental</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>CloneDetecLayerwise!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CloneDetecLayerwise!$C$2:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.66666700000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.51964299999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.54270200000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.58758500000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.59606400000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.63406600000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.63100100000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.62990500000000005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.62997499999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.629741</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.62902800000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.65797799999999995</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.57034200000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8055-1341-8677-D0341DB41884}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="748756847"/>
-        <c:axId val="748757247"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="748756847"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="748757247"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="748757247"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="0.8"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="748756847"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CloneDetecLayerwise!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Independent</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>CloneDetecLayerwise!$F$2:$F$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CloneDetecLayerwise!$G$2:$G$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.223861</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C6A2-0D4A-9451-253FFCE7BD15}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CloneDetecLayerwise!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Incremental</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>CloneDetecLayerwise!$F$2:$F$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CloneDetecLayerwise!$H$2:$H$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.1979999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.66666700000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.66666700000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.212117</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C6A2-0D4A-9451-253FFCE7BD15}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="749196047"/>
-        <c:axId val="752715711"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="749196047"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="752715711"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="752715711"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="749196047"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CloneDetecLayerwise!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Independent</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>CloneDetecLayerwise!$L$2:$L$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CloneDetecLayerwise!$M$2:$M$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.66666700000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.48698000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.47883300000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.47412799999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.44588699999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.46611200000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.52910100000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.51032200000000005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.44036700000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.317079</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.36178399999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.29769400000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.30826799999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F573-E94C-859E-D5676C5123B6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CloneDetecLayerwise!$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Incremental</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>CloneDetecLayerwise!$L$2:$L$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CloneDetecLayerwise!$N$2:$N$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.66666700000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.61618799999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.9940999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.853E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.8050000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.9369999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.0303000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.25535999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.30926500000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.25233499999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F573-E94C-859E-D5676C5123B6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="310046063"/>
-        <c:axId val="310226639"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="310046063"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="310226639"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="310226639"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="310046063"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
               <c:f>CodeSearchLayerwise!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -4710,7 +3199,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5217,7 +3706,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5724,7 +4213,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6231,513 +4720,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>POSLayerwise!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Independent</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>POSLayerwise!$F$2:$F$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>POSLayerwise!$G$2:$G$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.89800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.86799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.93400000000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.85399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.89300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.877</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.94599999999999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.92200000000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.93500000000000005</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.93899999999999995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.89100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.89100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.92600000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1556-8B49-A92A-77F45E47C324}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>POSLayerwise!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Incremental</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>POSLayerwise!$F$2:$F$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>POSLayerwise!$H$2:$H$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.89500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.93100000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.873</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.83799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.97799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.97899999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.97199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.96499999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.94899999999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.91500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.91500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.91900000000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1556-8B49-A92A-77F45E47C324}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="518442575"/>
-        <c:axId val="518992607"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="518442575"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="518992607"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="518992607"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0.70000000000000007"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="518442575"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7244,7 +5227,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7665,6 +5648,512 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="298867519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>POSLayerwise!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Independent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>POSLayerwise!$F$2:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>POSLayerwise!$G$2:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.89800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.877</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1556-8B49-A92A-77F45E47C324}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>POSLayerwise!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Incremental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>POSLayerwise!$F$2:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>POSLayerwise!$H$2:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.89500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.873</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91900000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1556-8B49-A92A-77F45E47C324}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="518442575"/>
+        <c:axId val="518992607"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="518442575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="518992607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="518992607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="518442575"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11907,127 +10396,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -17377,1516 +15746,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -23352,119 +20212,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>882650</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC7258C6-C790-251B-2B0A-CE08CB0693FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>793750</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6643271-4D06-4A72-8F7B-2DE129CB67EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C3ECB98-F2E7-6DE9-622B-30873E6A0740}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>336550</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -23573,7 +20320,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -23986,28 +20733,28 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24019,7 +20766,7 @@
         <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>48</v>
@@ -24043,14 +20790,14 @@
         <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>55</v>
-      </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -24093,8 +20840,8 @@
         <v>9984</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="41"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="33"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -24135,8 +20882,8 @@
         <v>0.96009999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -24179,8 +20926,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="41"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="33"/>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
@@ -24221,8 +20968,8 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -24265,8 +21012,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="40"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="32"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -24307,8 +21054,8 @@
         <v>0.94399999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="40"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="32"/>
       <c r="B8" s="26" t="s">
         <v>41</v>
       </c>
@@ -24361,8 +21108,8 @@
         <v>-1.6100000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="41"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="33"/>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
@@ -24403,8 +21150,8 @@
         <v>0.99609999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="39" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -24447,8 +21194,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="40"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="32"/>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -24489,8 +21236,8 @@
         <v>0.96309999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="40"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="32"/>
       <c r="B12" s="26" t="s">
         <v>41</v>
       </c>
@@ -24543,8 +21290,8 @@
         <v>3.0000000000000027E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="41"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="33"/>
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
@@ -24585,8 +21332,8 @@
         <v>0.98309999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="39" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -24629,8 +21376,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="40"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="32"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -24671,8 +21418,8 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="40"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="32"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -24713,8 +21460,8 @@
         <v>0.99029999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="40"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="32"/>
       <c r="B17" s="26" t="s">
         <v>41</v>
       </c>
@@ -24767,8 +21514,8 @@
         <v>3.0200000000000005E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="41"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
@@ -24810,8 +21557,8 @@
         <v>0.65890000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="42" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -24854,8 +21601,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="40"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="32"/>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
@@ -24896,8 +21643,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="40"/>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="32"/>
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
@@ -24938,8 +21685,8 @@
         <v>768</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="40"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="32"/>
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
@@ -24980,8 +21727,8 @@
         <v>0.99329999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="40"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="32"/>
       <c r="B23" s="26" t="s">
         <v>41</v>
       </c>
@@ -25034,8 +21781,8 @@
         <v>3.3200000000000007E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="41"/>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="33"/>
       <c r="B24" s="4" t="s">
         <v>7</v>
       </c>
@@ -25076,8 +21823,8 @@
         <v>0.92310000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="39" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -25120,8 +21867,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="40"/>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="32"/>
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
@@ -25162,8 +21909,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="40"/>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="32"/>
       <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
@@ -25204,8 +21951,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="40"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="32"/>
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
@@ -25246,8 +21993,8 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="40"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="32"/>
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
@@ -25288,8 +22035,8 @@
         <v>0.99029999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="40"/>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="32"/>
       <c r="B30" s="26" t="s">
         <v>41</v>
       </c>
@@ -25342,8 +22089,8 @@
         <v>3.0200000000000005E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="41"/>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="33"/>
       <c r="B31" s="4" t="s">
         <v>7</v>
       </c>
@@ -25407,23 +22154,23 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -25459,8 +22206,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -25497,8 +22244,8 @@
         <v>9984</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="41"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="33"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -25533,8 +22280,8 @@
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -25571,8 +22318,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="40"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="32"/>
       <c r="B5" s="25" t="s">
         <v>5</v>
       </c>
@@ -25607,8 +22354,8 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="40"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="32"/>
       <c r="B6" s="25" t="s">
         <v>41</v>
       </c>
@@ -25653,8 +22400,8 @@
         <v>-1.5000000000000013E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="41"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="33"/>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -25699,8 +22446,8 @@
         <v>0.99709535256410253</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="39" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -25737,8 +22484,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="40"/>
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="32"/>
       <c r="B9" s="25" t="s">
         <v>4</v>
       </c>
@@ -25773,8 +22520,8 @@
         <v>8890</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="40"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
       <c r="B10" s="25" t="s">
         <v>5</v>
       </c>
@@ -25809,8 +22556,8 @@
         <v>0.67020000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="40"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="32"/>
       <c r="B11" s="25" t="s">
         <v>41</v>
       </c>
@@ -25855,8 +22602,8 @@
         <v>2.1999999999999797E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="41"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="33"/>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -25901,8 +22648,8 @@
         <v>0.10957532051282048</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="42" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -25939,8 +22686,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="40"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="32"/>
       <c r="B14" s="25" t="s">
         <v>12</v>
       </c>
@@ -25975,8 +22722,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="40"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="32"/>
       <c r="B15" s="25" t="s">
         <v>4</v>
       </c>
@@ -26017,8 +22764,8 @@
         <v>9984</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="40"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="32"/>
       <c r="B16" s="25" t="s">
         <v>5</v>
       </c>
@@ -26053,8 +22800,8 @@
         <v>0.73650000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="40"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="32"/>
       <c r="B17" s="25" t="s">
         <v>41</v>
       </c>
@@ -26099,8 +22846,8 @@
         <v>6.8500000000000005E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="41"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
@@ -26145,8 +22892,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="39" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -26183,8 +22930,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="40"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="32"/>
       <c r="B20" s="25" t="s">
         <v>13</v>
       </c>
@@ -26219,8 +22966,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="40"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="32"/>
       <c r="B21" s="25" t="s">
         <v>9</v>
       </c>
@@ -26255,8 +23002,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="40"/>
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="32"/>
       <c r="B22" s="25" t="s">
         <v>4</v>
       </c>
@@ -26291,8 +23038,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="40"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="32"/>
       <c r="B23" s="25" t="s">
         <v>5</v>
       </c>
@@ -26327,8 +23074,8 @@
         <v>0.65559999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="40"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="32"/>
       <c r="B24" s="25" t="s">
         <v>41</v>
       </c>
@@ -26373,8 +23120,8 @@
         <v>-1.2400000000000078E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="41"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="33"/>
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
@@ -26433,61 +23180,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA23802-E131-F843-8926-5D2D2FC1D55E}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="G1" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="29" t="s">
-        <v>55</v>
-      </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -26500,7 +23229,7 @@
         <v>9984</v>
       </c>
       <c r="E2" s="2">
-        <v>5376</v>
+        <v>9984</v>
       </c>
       <c r="F2" s="2">
         <v>9984</v>
@@ -26508,50 +23237,36 @@
       <c r="G2" s="2">
         <v>9984</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>9984</v>
       </c>
-      <c r="I2" s="2">
-        <v>9984</v>
-      </c>
-      <c r="J2" s="2">
-        <v>9984</v>
-      </c>
-      <c r="K2" s="2">
-        <v>9984</v>
-      </c>
-      <c r="L2" s="2">
-        <v>9984</v>
-      </c>
-      <c r="M2" s="2">
-        <v>9984</v>
-      </c>
-      <c r="N2" s="3">
-        <v>9984</v>
-      </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="41"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="33"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="34">
-        <v>0.72</v>
-      </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="35"/>
+      <c r="C3" s="37">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="D3" s="37">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="E3" s="37">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="F3" s="37">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="G3" s="37">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="H3" s="38">
+        <v>0.82799999999999996</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -26560,82 +23275,108 @@
       <c r="C4" s="2">
         <v>169</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="3"/>
+      <c r="D4" s="2">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2">
+        <v>808</v>
+      </c>
+      <c r="G4" s="2">
+        <v>469</v>
+      </c>
+      <c r="H4" s="3">
+        <v>69</v>
+      </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="40"/>
-      <c r="B5" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="30">
-        <v>0.71540000000000004</v>
-      </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="33"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="32"/>
+      <c r="B5" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="41">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="E5" s="41">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="F5" s="41">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="G5" s="41">
+        <v>0.82</v>
+      </c>
+      <c r="H5" s="40">
+        <v>0.82099999999999995</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="40"/>
-      <c r="B6" s="29" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="32"/>
+      <c r="B6" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="41">
         <f>C5-C3</f>
-        <v>-4.5999999999999375E-3</v>
-      </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="36"/>
+        <v>-8.0000000000000071E-3</v>
+      </c>
+      <c r="D6" s="41">
+        <f>D5-D3</f>
+        <v>-6.0000000000000053E-3</v>
+      </c>
+      <c r="E6" s="41">
+        <f>E5-E3</f>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="F6" s="41">
+        <f>F5-F3</f>
+        <v>6.9999999999998952E-3</v>
+      </c>
+      <c r="G6" s="41">
+        <f>G5-G3</f>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="H6" s="42">
+        <f>H5-H3</f>
+        <v>-7.0000000000000062E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="41"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="33"/>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="29">
         <f>1-C4/C2</f>
         <v>0.98307291666666663</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="6"/>
+      <c r="D7" s="29">
+        <f>1-D4/D2</f>
+        <v>0.99909855769230771</v>
+      </c>
+      <c r="E7" s="29">
+        <f>1-E4/E2</f>
+        <v>0.99909855769230771</v>
+      </c>
+      <c r="F7" s="29">
+        <f>1-F4/F2</f>
+        <v>0.91907051282051277</v>
+      </c>
+      <c r="G7" s="29">
+        <f>1-G4/G2</f>
+        <v>0.95302483974358976</v>
+      </c>
+      <c r="H7" s="43">
+        <f>1-H4/H2</f>
+        <v>0.99308894230769229</v>
+      </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="39" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -26644,81 +23385,102 @@
       <c r="C8" s="10">
         <v>0.3</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="3"/>
+      <c r="D8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="40"/>
-      <c r="B9" s="29" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="32"/>
+      <c r="B9" s="28" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="16">
         <v>3121</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="11"/>
+      <c r="D9" s="28">
+        <v>2264</v>
+      </c>
+      <c r="E9" s="28">
+        <v>6124</v>
+      </c>
+      <c r="F9" s="28">
+        <v>5364</v>
+      </c>
+      <c r="G9" s="28">
+        <v>1110</v>
+      </c>
+      <c r="H9" s="11">
+        <v>901</v>
+      </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="40"/>
-      <c r="B10" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="31">
-        <v>0.73</v>
-      </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="33"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
+      <c r="B10" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="H10" s="40">
+        <v>0.80500000000000005</v>
+      </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="40"/>
-      <c r="B11" s="29" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="32"/>
+      <c r="B11" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="20">
         <f>C10-C3</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="33"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="D11" s="20">
+        <f>D10-D3</f>
+        <v>1.6999999999999904E-2</v>
+      </c>
+      <c r="E11" s="20">
+        <f>E10-E3</f>
+        <v>-4.0000000000000036E-3</v>
+      </c>
+      <c r="F11" s="20">
+        <f>F10-F3</f>
+        <v>1.5999999999999903E-2</v>
+      </c>
+      <c r="G11" s="20">
+        <f>G10-G3</f>
+        <v>-1.2999999999999901E-2</v>
+      </c>
+      <c r="H11" s="40">
+        <f>H10-H3</f>
+        <v>-2.2999999999999909E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="41"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="33"/>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -26726,124 +23488,163 @@
         <f>1-C9/C2</f>
         <v>0.68739983974358976</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="6"/>
+      <c r="D12" s="5">
+        <f>1-D9/D2</f>
+        <v>0.77323717948717952</v>
+      </c>
+      <c r="E12" s="5">
+        <f>1-E9/E2</f>
+        <v>0.38661858974358976</v>
+      </c>
+      <c r="F12" s="5">
+        <f>1-F9/F2</f>
+        <v>0.46274038461538458</v>
+      </c>
+      <c r="G12" s="29">
+        <f>1-G9/G2</f>
+        <v>0.88882211538461542</v>
+      </c>
+      <c r="H12" s="43">
+        <f>1-H9/H2</f>
+        <v>0.90975560897435903</v>
+      </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="42" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="3"/>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="40"/>
-      <c r="B14" s="29" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="32"/>
+      <c r="B14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="28">
         <v>1</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="11"/>
+      <c r="D14" s="28">
+        <v>1</v>
+      </c>
+      <c r="E14" s="28">
+        <v>1</v>
+      </c>
+      <c r="F14" s="28">
+        <v>2</v>
+      </c>
+      <c r="G14" s="28">
+        <v>3</v>
+      </c>
+      <c r="H14" s="11">
+        <v>3</v>
+      </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="40"/>
-      <c r="B15" s="29" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="32"/>
+      <c r="B15" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="36">
         <f>13*768</f>
         <v>9984</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="11"/>
+      <c r="D15" s="28">
+        <f>9*768</f>
+        <v>6912</v>
+      </c>
+      <c r="E15" s="28">
+        <f>13*768</f>
+        <v>9984</v>
+      </c>
+      <c r="F15" s="28">
+        <f>9*768</f>
+        <v>6912</v>
+      </c>
+      <c r="G15" s="28">
+        <f>7*768</f>
+        <v>5376</v>
+      </c>
+      <c r="H15" s="11">
+        <f>13*768</f>
+        <v>9984</v>
+      </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="40"/>
-      <c r="B16" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.72</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="8"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="32"/>
+      <c r="B16" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="39">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="F16" s="20">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="G16" s="20">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="H16" s="40">
+        <v>0.84799999999999998</v>
+      </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="40"/>
-      <c r="B17" s="29" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="32"/>
+      <c r="B17" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="20">
         <f>C16-C3</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="33"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="D17" s="20">
+        <f>D16-D3</f>
+        <v>1.19999999999999E-2</v>
+      </c>
+      <c r="E17" s="20">
+        <f>E16-E3</f>
+        <v>2.1999999999999909E-2</v>
+      </c>
+      <c r="F17" s="20">
+        <f>F16-F3</f>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="G17" s="20">
+        <f>G16-G3</f>
+        <v>2.8000000000000025E-2</v>
+      </c>
+      <c r="H17" s="40">
+        <f>H16-H3</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="41"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
@@ -26851,147 +23652,208 @@
         <f>1-C15/C2</f>
         <v>0</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="6"/>
+      <c r="D18" s="5">
+        <f>1-D15/D2</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="E18" s="5">
+        <f>1-E15/E2</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <f>1-F15/F2</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="G18" s="5">
+        <f>1-G15/G2</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="H18" s="6">
+        <f>1-H15/H2</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="39" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="3"/>
+      <c r="C19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="45" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="40"/>
-      <c r="B20" s="29" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="32"/>
+      <c r="B20" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="13"/>
+      <c r="C20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="40"/>
-      <c r="B21" s="29" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="32"/>
+      <c r="B21" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="11"/>
+      <c r="C21" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="D21" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="40"/>
-      <c r="B22" s="29" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="32"/>
+      <c r="B22" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="11"/>
+      <c r="C22" s="28">
+        <v>299</v>
+      </c>
+      <c r="D22" s="28">
+        <v>19</v>
+      </c>
+      <c r="E22" s="28">
+        <v>19</v>
+      </c>
+      <c r="F22" s="28">
+        <v>5990</v>
+      </c>
+      <c r="G22" s="28">
+        <v>9</v>
+      </c>
+      <c r="H22" s="11">
+        <v>99</v>
+      </c>
     </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="40"/>
-      <c r="B23" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="30">
-        <v>0.72</v>
-      </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="38"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="32"/>
+      <c r="B23" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="41">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="D23" s="20">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="E23" s="20">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="F23" s="41">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="G23" s="41">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H23" s="42">
+        <v>0.83099999999999996</v>
+      </c>
     </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="40"/>
-      <c r="B24" s="29" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="32"/>
+      <c r="B24" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="28"/>
+      <c r="C24" s="41">
+        <f>C23-C3</f>
+        <v>-8.0000000000000071E-3</v>
+      </c>
+      <c r="D24" s="41">
+        <f>D23-D3</f>
+        <v>-7.0000000000000062E-3</v>
+      </c>
+      <c r="E24" s="41">
+        <f>E23-E3</f>
+        <v>8.999999999999897E-3</v>
+      </c>
+      <c r="F24" s="41">
+        <f>F23-F3</f>
+        <v>2.1999999999999909E-2</v>
+      </c>
+      <c r="G24" s="41">
+        <f>G23-G3</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="H24" s="42">
+        <f>H23-H3</f>
+        <v>3.0000000000000027E-3</v>
+      </c>
     </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="41"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="33"/>
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="18"/>
+      <c r="C25" s="29">
+        <f>1-C22/C2</f>
+        <v>0.97005208333333337</v>
+      </c>
+      <c r="D25" s="29">
+        <f>1-D22/D2</f>
+        <v>0.99809695512820518</v>
+      </c>
+      <c r="E25" s="29">
+        <f>1-E22/E2</f>
+        <v>0.99809695512820518</v>
+      </c>
+      <c r="F25" s="29">
+        <f>1-F22/F2</f>
+        <v>0.4000400641025641</v>
+      </c>
+      <c r="G25" s="29">
+        <f>1-G22/G2</f>
+        <v>0.99909855769230771</v>
+      </c>
+      <c r="H25" s="43">
+        <f>1-H22/H2</f>
+        <v>0.99008413461538458</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -27013,14 +23875,14 @@
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -27049,7 +23911,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -27059,7 +23921,7 @@
       <c r="C2" s="20">
         <v>0.94899999999999995</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="35" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1">
@@ -27071,7 +23933,7 @@
       <c r="H2" s="20">
         <v>0.89500000000000002</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="35" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="1">
@@ -27083,11 +23945,11 @@
       <c r="M2" s="20">
         <v>0.91100000000000003</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -27097,7 +23959,7 @@
       <c r="C3" s="20">
         <v>0.84</v>
       </c>
-      <c r="D3" s="43"/>
+      <c r="D3" s="35"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -27107,7 +23969,7 @@
       <c r="H3" s="20">
         <v>0.93100000000000005</v>
       </c>
-      <c r="I3" s="43"/>
+      <c r="I3" s="35"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
@@ -27117,9 +23979,9 @@
       <c r="M3" s="20">
         <v>0.90900000000000003</v>
       </c>
-      <c r="N3" s="43"/>
+      <c r="N3" s="35"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -27129,7 +23991,7 @@
       <c r="C4" s="20">
         <v>0.876</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="35"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -27139,7 +24001,7 @@
       <c r="H4" s="20">
         <v>0.873</v>
       </c>
-      <c r="I4" s="43"/>
+      <c r="I4" s="35"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
@@ -27149,9 +24011,9 @@
       <c r="M4" s="20">
         <v>0.90100000000000002</v>
       </c>
-      <c r="N4" s="43"/>
+      <c r="N4" s="35"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -27161,7 +24023,7 @@
       <c r="C5" s="20">
         <v>0.93600000000000005</v>
       </c>
-      <c r="D5" s="43"/>
+      <c r="D5" s="35"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -27171,7 +24033,7 @@
       <c r="H5" s="20">
         <v>0.83799999999999997</v>
       </c>
-      <c r="I5" s="43"/>
+      <c r="I5" s="35"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
@@ -27181,9 +24043,9 @@
       <c r="M5" s="20">
         <v>0.88400000000000001</v>
       </c>
-      <c r="N5" s="43"/>
+      <c r="N5" s="35"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -27193,7 +24055,7 @@
       <c r="C6" s="20">
         <v>0.97</v>
       </c>
-      <c r="D6" s="43"/>
+      <c r="D6" s="35"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -27203,7 +24065,7 @@
       <c r="H6" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="I6" s="43"/>
+      <c r="I6" s="35"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
@@ -27213,9 +24075,9 @@
       <c r="M6" s="20">
         <v>0.93899999999999995</v>
       </c>
-      <c r="N6" s="43"/>
+      <c r="N6" s="35"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -27225,7 +24087,7 @@
       <c r="C7" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="D7" s="43"/>
+      <c r="D7" s="35"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -27235,7 +24097,7 @@
       <c r="H7" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="I7" s="43"/>
+      <c r="I7" s="35"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
@@ -27245,9 +24107,9 @@
       <c r="M7" s="20">
         <v>0.91700000000000004</v>
       </c>
-      <c r="N7" s="43"/>
+      <c r="N7" s="35"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -27257,7 +24119,7 @@
       <c r="C8" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="D8" s="43"/>
+      <c r="D8" s="35"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -27267,7 +24129,7 @@
       <c r="H8" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I8" s="43"/>
+      <c r="I8" s="35"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
@@ -27277,9 +24139,9 @@
       <c r="M8" s="20">
         <v>0.92300000000000004</v>
       </c>
-      <c r="N8" s="43"/>
+      <c r="N8" s="35"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -27289,7 +24151,7 @@
       <c r="C9" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="35"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -27299,13 +24161,13 @@
       <c r="H9" s="20">
         <v>0.96499999999999997</v>
       </c>
-      <c r="I9" s="43"/>
+      <c r="I9" s="35"/>
       <c r="K9" s="1"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
       <c r="N9" s="19"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -27315,7 +24177,7 @@
       <c r="C10" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D10" s="43"/>
+      <c r="D10" s="35"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -27325,13 +24187,13 @@
       <c r="H10" s="20">
         <v>0.94899999999999995</v>
       </c>
-      <c r="I10" s="43"/>
+      <c r="I10" s="35"/>
       <c r="K10" s="1"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="19"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -27341,7 +24203,7 @@
       <c r="C11" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D11" s="43"/>
+      <c r="D11" s="35"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -27351,13 +24213,13 @@
       <c r="H11" s="20">
         <v>0.93</v>
       </c>
-      <c r="I11" s="43"/>
+      <c r="I11" s="35"/>
       <c r="K11" s="1"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
       <c r="N11" s="19"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -27367,7 +24229,7 @@
       <c r="C12" s="20">
         <v>0.98099999999999998</v>
       </c>
-      <c r="D12" s="43"/>
+      <c r="D12" s="35"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -27377,13 +24239,13 @@
       <c r="H12" s="20">
         <v>0.91500000000000004</v>
       </c>
-      <c r="I12" s="43"/>
+      <c r="I12" s="35"/>
       <c r="K12" s="1"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
       <c r="N12" s="19"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -27393,7 +24255,7 @@
       <c r="C13" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="D13" s="43"/>
+      <c r="D13" s="35"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -27403,13 +24265,13 @@
       <c r="H13" s="20">
         <v>0.91500000000000004</v>
       </c>
-      <c r="I13" s="43"/>
+      <c r="I13" s="35"/>
       <c r="K13" s="1"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
       <c r="N13" s="19"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -27419,7 +24281,7 @@
       <c r="C14" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="D14" s="43"/>
+      <c r="D14" s="35"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -27429,13 +24291,13 @@
       <c r="H14" s="20">
         <v>0.91900000000000004</v>
       </c>
-      <c r="I14" s="43"/>
+      <c r="I14" s="35"/>
       <c r="K14" s="1"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
       <c r="N14" s="19"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -27464,7 +24326,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -27474,7 +24336,7 @@
       <c r="C34" s="20">
         <v>0.98199999999999998</v>
       </c>
-      <c r="D34" s="43" t="s">
+      <c r="D34" s="35" t="s">
         <v>20</v>
       </c>
       <c r="F34" s="1">
@@ -27486,7 +24348,7 @@
       <c r="H34" s="20">
         <v>0.98899999999999999</v>
       </c>
-      <c r="I34" s="43" t="s">
+      <c r="I34" s="35" t="s">
         <v>21</v>
       </c>
       <c r="K34" s="1">
@@ -27498,11 +24360,11 @@
       <c r="M34" s="20">
         <v>0.99399999999999999</v>
       </c>
-      <c r="N34" s="43" t="s">
+      <c r="N34" s="35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -27512,7 +24374,7 @@
       <c r="C35" s="20">
         <v>0.91800000000000004</v>
       </c>
-      <c r="D35" s="43"/>
+      <c r="D35" s="35"/>
       <c r="F35" s="1">
         <v>1</v>
       </c>
@@ -27522,7 +24384,7 @@
       <c r="H35" s="20">
         <v>0.96399999999999997</v>
       </c>
-      <c r="I35" s="43"/>
+      <c r="I35" s="35"/>
       <c r="K35" s="1">
         <v>1</v>
       </c>
@@ -27532,9 +24394,9 @@
       <c r="M35" s="20">
         <v>0.99099999999999999</v>
       </c>
-      <c r="N35" s="43"/>
+      <c r="N35" s="35"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -27544,7 +24406,7 @@
       <c r="C36" s="20">
         <v>0.91900000000000004</v>
       </c>
-      <c r="D36" s="43"/>
+      <c r="D36" s="35"/>
       <c r="F36" s="1">
         <v>2</v>
       </c>
@@ -27554,7 +24416,7 @@
       <c r="H36" s="20">
         <v>0.97</v>
       </c>
-      <c r="I36" s="43"/>
+      <c r="I36" s="35"/>
       <c r="K36" s="1">
         <v>2</v>
       </c>
@@ -27564,9 +24426,9 @@
       <c r="M36" s="20">
         <v>0.98299999999999998</v>
       </c>
-      <c r="N36" s="43"/>
+      <c r="N36" s="35"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>3</v>
       </c>
@@ -27576,7 +24438,7 @@
       <c r="C37" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="D37" s="43"/>
+      <c r="D37" s="35"/>
       <c r="F37" s="1">
         <v>3</v>
       </c>
@@ -27586,7 +24448,7 @@
       <c r="H37" s="20">
         <v>0.96599999999999997</v>
       </c>
-      <c r="I37" s="43"/>
+      <c r="I37" s="35"/>
       <c r="K37" s="1">
         <v>3</v>
       </c>
@@ -27596,9 +24458,9 @@
       <c r="M37" s="20">
         <v>0.98</v>
       </c>
-      <c r="N37" s="43"/>
+      <c r="N37" s="35"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -27608,7 +24470,7 @@
       <c r="C38" s="20">
         <v>0.97699999999999998</v>
       </c>
-      <c r="D38" s="43"/>
+      <c r="D38" s="35"/>
       <c r="F38" s="1">
         <v>4</v>
       </c>
@@ -27618,7 +24480,7 @@
       <c r="H38" s="20">
         <v>0.96799999999999997</v>
       </c>
-      <c r="I38" s="43"/>
+      <c r="I38" s="35"/>
       <c r="K38" s="1">
         <v>4</v>
       </c>
@@ -27628,9 +24490,9 @@
       <c r="M38" s="20">
         <v>0.97099999999999997</v>
       </c>
-      <c r="N38" s="43"/>
+      <c r="N38" s="35"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>5</v>
       </c>
@@ -27640,7 +24502,7 @@
       <c r="C39" s="20">
         <v>0.98199999999999998</v>
       </c>
-      <c r="D39" s="43"/>
+      <c r="D39" s="35"/>
       <c r="F39" s="1">
         <v>5</v>
       </c>
@@ -27650,7 +24512,7 @@
       <c r="H39" s="20">
         <v>0.96699999999999997</v>
       </c>
-      <c r="I39" s="43"/>
+      <c r="I39" s="35"/>
       <c r="K39" s="1">
         <v>5</v>
       </c>
@@ -27660,9 +24522,9 @@
       <c r="M39" s="20">
         <v>0.873</v>
       </c>
-      <c r="N39" s="43"/>
+      <c r="N39" s="35"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>6</v>
       </c>
@@ -27672,7 +24534,7 @@
       <c r="C40" s="20">
         <v>0.94399999999999995</v>
       </c>
-      <c r="D40" s="43"/>
+      <c r="D40" s="35"/>
       <c r="F40" s="1">
         <v>6</v>
       </c>
@@ -27682,7 +24544,7 @@
       <c r="H40" s="20">
         <v>0.96399999999999997</v>
       </c>
-      <c r="I40" s="43"/>
+      <c r="I40" s="35"/>
       <c r="K40" s="1">
         <v>6</v>
       </c>
@@ -27692,9 +24554,9 @@
       <c r="M40" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="N40" s="43"/>
+      <c r="N40" s="35"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>7</v>
       </c>
@@ -27704,7 +24566,7 @@
       <c r="C41" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="D41" s="43"/>
+      <c r="D41" s="35"/>
       <c r="F41" s="1">
         <v>7</v>
       </c>
@@ -27714,7 +24576,7 @@
       <c r="H41" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I41" s="43"/>
+      <c r="I41" s="35"/>
       <c r="K41" s="1">
         <v>7</v>
       </c>
@@ -27724,9 +24586,9 @@
       <c r="M41" s="20">
         <v>0.93</v>
       </c>
-      <c r="N41" s="43"/>
+      <c r="N41" s="35"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>8</v>
       </c>
@@ -27736,7 +24598,7 @@
       <c r="C42" s="20">
         <v>0.94599999999999995</v>
       </c>
-      <c r="D42" s="43"/>
+      <c r="D42" s="35"/>
       <c r="F42" s="1">
         <v>8</v>
       </c>
@@ -27746,7 +24608,7 @@
       <c r="H42" s="20">
         <v>0.82099999999999995</v>
       </c>
-      <c r="I42" s="43"/>
+      <c r="I42" s="35"/>
       <c r="K42" s="1">
         <v>8</v>
       </c>
@@ -27756,9 +24618,9 @@
       <c r="M42" s="20">
         <v>0.98699999999999999</v>
       </c>
-      <c r="N42" s="43"/>
+      <c r="N42" s="35"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>9</v>
       </c>
@@ -27768,7 +24630,7 @@
       <c r="C43" s="20">
         <v>0.98099999999999998</v>
       </c>
-      <c r="D43" s="43"/>
+      <c r="D43" s="35"/>
       <c r="F43" s="1">
         <v>9</v>
       </c>
@@ -27778,7 +24640,7 @@
       <c r="H43" s="20">
         <v>0.82799999999999996</v>
       </c>
-      <c r="I43" s="43"/>
+      <c r="I43" s="35"/>
       <c r="K43" s="1">
         <v>9</v>
       </c>
@@ -27788,9 +24650,9 @@
       <c r="M43" s="20">
         <v>0.93500000000000005</v>
       </c>
-      <c r="N43" s="43"/>
+      <c r="N43" s="35"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>10</v>
       </c>
@@ -27800,7 +24662,7 @@
       <c r="C44" s="20">
         <v>0.98399999999999999</v>
       </c>
-      <c r="D44" s="43"/>
+      <c r="D44" s="35"/>
       <c r="F44" s="1">
         <v>10</v>
       </c>
@@ -27810,7 +24672,7 @@
       <c r="H44" s="20">
         <v>0.84099999999999997</v>
       </c>
-      <c r="I44" s="43"/>
+      <c r="I44" s="35"/>
       <c r="K44" s="1">
         <v>10</v>
       </c>
@@ -27820,9 +24682,9 @@
       <c r="M44" s="20">
         <v>0.92500000000000004</v>
       </c>
-      <c r="N44" s="43"/>
+      <c r="N44" s="35"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>11</v>
       </c>
@@ -27832,7 +24694,7 @@
       <c r="C45" s="20">
         <v>0.95299999999999996</v>
       </c>
-      <c r="D45" s="43"/>
+      <c r="D45" s="35"/>
       <c r="F45" s="1">
         <v>11</v>
       </c>
@@ -27842,7 +24704,7 @@
       <c r="H45" s="20">
         <v>0.98</v>
       </c>
-      <c r="I45" s="43"/>
+      <c r="I45" s="35"/>
       <c r="K45" s="1">
         <v>11</v>
       </c>
@@ -27852,9 +24714,9 @@
       <c r="M45" s="20">
         <v>0.92400000000000004</v>
       </c>
-      <c r="N45" s="43"/>
+      <c r="N45" s="35"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>12</v>
       </c>
@@ -27864,7 +24726,7 @@
       <c r="C46" s="20">
         <v>0.92100000000000004</v>
       </c>
-      <c r="D46" s="43"/>
+      <c r="D46" s="35"/>
       <c r="F46" s="1">
         <v>12</v>
       </c>
@@ -27874,7 +24736,7 @@
       <c r="H46" s="20">
         <v>0.84</v>
       </c>
-      <c r="I46" s="43"/>
+      <c r="I46" s="35"/>
       <c r="K46" s="1">
         <v>12</v>
       </c>
@@ -27884,9 +24746,9 @@
       <c r="M46" s="20">
         <v>0.93300000000000005</v>
       </c>
-      <c r="N46" s="43"/>
+      <c r="N46" s="35"/>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>33</v>
       </c>
@@ -27915,7 +24777,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>0</v>
       </c>
@@ -27925,7 +24787,7 @@
       <c r="C67" s="20">
         <v>0.77700000000000002</v>
       </c>
-      <c r="D67" s="43" t="s">
+      <c r="D67" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F67" s="1">
@@ -27937,7 +24799,7 @@
       <c r="H67" s="20">
         <v>0.75900000000000001</v>
       </c>
-      <c r="I67" s="43" t="s">
+      <c r="I67" s="35" t="s">
         <v>24</v>
       </c>
       <c r="K67" s="1">
@@ -27949,11 +24811,11 @@
       <c r="M67" s="20">
         <v>0.89400000000000002</v>
       </c>
-      <c r="N67" s="43" t="s">
+      <c r="N67" s="35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>1</v>
       </c>
@@ -27963,7 +24825,7 @@
       <c r="C68" s="20">
         <v>0.85099999999999998</v>
       </c>
-      <c r="D68" s="43"/>
+      <c r="D68" s="35"/>
       <c r="F68" s="1">
         <v>1</v>
       </c>
@@ -27973,7 +24835,7 @@
       <c r="H68" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I68" s="43"/>
+      <c r="I68" s="35"/>
       <c r="K68" s="1">
         <v>1</v>
       </c>
@@ -27983,9 +24845,9 @@
       <c r="M68" s="20">
         <v>0.94299999999999995</v>
       </c>
-      <c r="N68" s="43"/>
+      <c r="N68" s="35"/>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>2</v>
       </c>
@@ -27995,7 +24857,7 @@
       <c r="C69" s="20">
         <v>0.93300000000000005</v>
       </c>
-      <c r="D69" s="43"/>
+      <c r="D69" s="35"/>
       <c r="F69" s="1">
         <v>2</v>
       </c>
@@ -28005,7 +24867,7 @@
       <c r="H69" s="20">
         <v>0.81899999999999995</v>
       </c>
-      <c r="I69" s="43"/>
+      <c r="I69" s="35"/>
       <c r="K69" s="1">
         <v>2</v>
       </c>
@@ -28015,9 +24877,9 @@
       <c r="M69" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="N69" s="43"/>
+      <c r="N69" s="35"/>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>3</v>
       </c>
@@ -28027,7 +24889,7 @@
       <c r="C70" s="20">
         <v>0.92700000000000005</v>
       </c>
-      <c r="D70" s="43"/>
+      <c r="D70" s="35"/>
       <c r="F70" s="1">
         <v>3</v>
       </c>
@@ -28037,7 +24899,7 @@
       <c r="H70" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I70" s="43"/>
+      <c r="I70" s="35"/>
       <c r="K70" s="1">
         <v>3</v>
       </c>
@@ -28047,9 +24909,9 @@
       <c r="M70" s="20">
         <v>0.97499999999999998</v>
       </c>
-      <c r="N70" s="43"/>
+      <c r="N70" s="35"/>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>4</v>
       </c>
@@ -28059,7 +24921,7 @@
       <c r="C71" s="20">
         <v>0.90600000000000003</v>
       </c>
-      <c r="D71" s="43"/>
+      <c r="D71" s="35"/>
       <c r="F71" s="1">
         <v>4</v>
       </c>
@@ -28069,7 +24931,7 @@
       <c r="H71" s="20">
         <v>0.96899999999999997</v>
       </c>
-      <c r="I71" s="43"/>
+      <c r="I71" s="35"/>
       <c r="K71" s="1">
         <v>4</v>
       </c>
@@ -28079,9 +24941,9 @@
       <c r="M71" s="20">
         <v>0.85199999999999998</v>
       </c>
-      <c r="N71" s="43"/>
+      <c r="N71" s="35"/>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>5</v>
       </c>
@@ -28091,7 +24953,7 @@
       <c r="C72" s="20">
         <v>0.92</v>
       </c>
-      <c r="D72" s="43"/>
+      <c r="D72" s="35"/>
       <c r="F72" s="1">
         <v>5</v>
       </c>
@@ -28101,7 +24963,7 @@
       <c r="H72" s="20">
         <v>0.96499999999999997</v>
       </c>
-      <c r="I72" s="43"/>
+      <c r="I72" s="35"/>
       <c r="K72" s="1">
         <v>5</v>
       </c>
@@ -28111,9 +24973,9 @@
       <c r="M72" s="20">
         <v>0.86899999999999999</v>
       </c>
-      <c r="N72" s="43"/>
+      <c r="N72" s="35"/>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>6</v>
       </c>
@@ -28123,7 +24985,7 @@
       <c r="C73" s="20">
         <v>0.96199999999999997</v>
       </c>
-      <c r="D73" s="43"/>
+      <c r="D73" s="35"/>
       <c r="F73" s="1">
         <v>6</v>
       </c>
@@ -28133,7 +24995,7 @@
       <c r="H73" s="20">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I73" s="43"/>
+      <c r="I73" s="35"/>
       <c r="K73" s="1">
         <v>6</v>
       </c>
@@ -28143,9 +25005,9 @@
       <c r="M73" s="20">
         <v>0.876</v>
       </c>
-      <c r="N73" s="43"/>
+      <c r="N73" s="35"/>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>7</v>
       </c>
@@ -28155,7 +25017,7 @@
       <c r="C74" s="20">
         <v>0.82199999999999995</v>
       </c>
-      <c r="D74" s="43"/>
+      <c r="D74" s="35"/>
       <c r="F74" s="1">
         <v>7</v>
       </c>
@@ -28165,7 +25027,7 @@
       <c r="H74" s="20">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I74" s="43"/>
+      <c r="I74" s="35"/>
       <c r="K74" s="1">
         <v>7</v>
       </c>
@@ -28175,9 +25037,9 @@
       <c r="M74" s="20">
         <v>0.89300000000000002</v>
       </c>
-      <c r="N74" s="43"/>
+      <c r="N74" s="35"/>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>8</v>
       </c>
@@ -28187,7 +25049,7 @@
       <c r="C75" s="20">
         <v>0.82399999999999995</v>
       </c>
-      <c r="D75" s="43"/>
+      <c r="D75" s="35"/>
       <c r="F75" s="1">
         <v>8</v>
       </c>
@@ -28197,7 +25059,7 @@
       <c r="H75" s="20">
         <v>0.91800000000000004</v>
       </c>
-      <c r="I75" s="43"/>
+      <c r="I75" s="35"/>
       <c r="K75" s="1">
         <v>8</v>
       </c>
@@ -28207,9 +25069,9 @@
       <c r="M75" s="20">
         <v>0.98799999999999999</v>
       </c>
-      <c r="N75" s="43"/>
+      <c r="N75" s="35"/>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>9</v>
       </c>
@@ -28219,7 +25081,7 @@
       <c r="C76" s="20">
         <v>0.92500000000000004</v>
       </c>
-      <c r="D76" s="43"/>
+      <c r="D76" s="35"/>
       <c r="F76" s="1">
         <v>9</v>
       </c>
@@ -28229,7 +25091,7 @@
       <c r="H76" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="I76" s="43"/>
+      <c r="I76" s="35"/>
       <c r="K76" s="1">
         <v>9</v>
       </c>
@@ -28239,9 +25101,9 @@
       <c r="M76" s="20">
         <v>0.89500000000000002</v>
       </c>
-      <c r="N76" s="43"/>
+      <c r="N76" s="35"/>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>10</v>
       </c>
@@ -28251,7 +25113,7 @@
       <c r="C77" s="20">
         <v>0.83199999999999996</v>
       </c>
-      <c r="D77" s="43"/>
+      <c r="D77" s="35"/>
       <c r="F77" s="1">
         <v>10</v>
       </c>
@@ -28261,7 +25123,7 @@
       <c r="H77" s="20">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I77" s="43"/>
+      <c r="I77" s="35"/>
       <c r="K77" s="1">
         <v>10</v>
       </c>
@@ -28271,9 +25133,9 @@
       <c r="M77" s="20">
         <v>0.98199999999999998</v>
       </c>
-      <c r="N77" s="43"/>
+      <c r="N77" s="35"/>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>11</v>
       </c>
@@ -28283,7 +25145,7 @@
       <c r="C78" s="20">
         <v>0.82899999999999996</v>
       </c>
-      <c r="D78" s="43"/>
+      <c r="D78" s="35"/>
       <c r="F78" s="1">
         <v>11</v>
       </c>
@@ -28293,7 +25155,7 @@
       <c r="H78" s="20">
         <v>0.94899999999999995</v>
       </c>
-      <c r="I78" s="43"/>
+      <c r="I78" s="35"/>
       <c r="K78" s="1">
         <v>11</v>
       </c>
@@ -28303,9 +25165,9 @@
       <c r="M78" s="20">
         <v>0.98099999999999998</v>
       </c>
-      <c r="N78" s="43"/>
+      <c r="N78" s="35"/>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>12</v>
       </c>
@@ -28315,7 +25177,7 @@
       <c r="C79" s="20">
         <v>0.95399999999999996</v>
       </c>
-      <c r="D79" s="43"/>
+      <c r="D79" s="35"/>
       <c r="F79" s="1">
         <v>12</v>
       </c>
@@ -28325,7 +25187,7 @@
       <c r="H79" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="I79" s="43"/>
+      <c r="I79" s="35"/>
       <c r="K79" s="1">
         <v>12</v>
       </c>
@@ -28335,9 +25197,9 @@
       <c r="M79" s="20">
         <v>0.95899999999999996</v>
       </c>
-      <c r="N79" s="43"/>
+      <c r="N79" s="35"/>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>33</v>
       </c>
@@ -28366,7 +25228,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>0</v>
       </c>
@@ -28376,7 +25238,7 @@
       <c r="C99" s="20">
         <v>0.92200000000000004</v>
       </c>
-      <c r="D99" s="43" t="s">
+      <c r="D99" s="35" t="s">
         <v>26</v>
       </c>
       <c r="F99" s="1">
@@ -28388,7 +25250,7 @@
       <c r="H99" s="20">
         <v>0.874</v>
       </c>
-      <c r="I99" s="43" t="s">
+      <c r="I99" s="35" t="s">
         <v>27</v>
       </c>
       <c r="K99" s="1">
@@ -28400,11 +25262,11 @@
       <c r="M99" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="N99" s="43" t="s">
+      <c r="N99" s="35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>1</v>
       </c>
@@ -28414,7 +25276,7 @@
       <c r="C100" s="20">
         <v>0.91600000000000004</v>
       </c>
-      <c r="D100" s="43"/>
+      <c r="D100" s="35"/>
       <c r="F100" s="1">
         <v>1</v>
       </c>
@@ -28424,7 +25286,7 @@
       <c r="H100" s="20">
         <v>0.89500000000000002</v>
       </c>
-      <c r="I100" s="43"/>
+      <c r="I100" s="35"/>
       <c r="K100" s="1">
         <v>1</v>
       </c>
@@ -28434,9 +25296,9 @@
       <c r="M100" s="20">
         <v>0.98499999999999999</v>
       </c>
-      <c r="N100" s="43"/>
+      <c r="N100" s="35"/>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>2</v>
       </c>
@@ -28446,7 +25308,7 @@
       <c r="C101" s="20">
         <v>0.89200000000000002</v>
       </c>
-      <c r="D101" s="43"/>
+      <c r="D101" s="35"/>
       <c r="F101" s="1">
         <v>2</v>
       </c>
@@ -28456,7 +25318,7 @@
       <c r="H101" s="20">
         <v>0.96299999999999997</v>
       </c>
-      <c r="I101" s="43"/>
+      <c r="I101" s="35"/>
       <c r="K101" s="1">
         <v>2</v>
       </c>
@@ -28466,9 +25328,9 @@
       <c r="M101" s="20">
         <v>0.96699999999999997</v>
       </c>
-      <c r="N101" s="43"/>
+      <c r="N101" s="35"/>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>3</v>
       </c>
@@ -28478,7 +25340,7 @@
       <c r="C102" s="20">
         <v>0.91</v>
       </c>
-      <c r="D102" s="43"/>
+      <c r="D102" s="35"/>
       <c r="F102" s="1">
         <v>3</v>
       </c>
@@ -28488,7 +25350,7 @@
       <c r="H102" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I102" s="43"/>
+      <c r="I102" s="35"/>
       <c r="K102" s="1">
         <v>3</v>
       </c>
@@ -28498,9 +25360,9 @@
       <c r="M102" s="20">
         <v>0.995</v>
       </c>
-      <c r="N102" s="43"/>
+      <c r="N102" s="35"/>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>4</v>
       </c>
@@ -28510,7 +25372,7 @@
       <c r="C103" s="20">
         <v>0.89800000000000002</v>
       </c>
-      <c r="D103" s="43"/>
+      <c r="D103" s="35"/>
       <c r="F103" s="1">
         <v>4</v>
       </c>
@@ -28520,7 +25382,7 @@
       <c r="H103" s="20">
         <v>0.98399999999999999</v>
       </c>
-      <c r="I103" s="43"/>
+      <c r="I103" s="35"/>
       <c r="K103" s="1">
         <v>4</v>
       </c>
@@ -28530,9 +25392,9 @@
       <c r="M103" s="20">
         <v>0.98699999999999999</v>
       </c>
-      <c r="N103" s="43"/>
+      <c r="N103" s="35"/>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>5</v>
       </c>
@@ -28542,7 +25404,7 @@
       <c r="C104" s="20">
         <v>0.88</v>
       </c>
-      <c r="D104" s="43"/>
+      <c r="D104" s="35"/>
       <c r="F104" s="1">
         <v>5</v>
       </c>
@@ -28552,7 +25414,7 @@
       <c r="H104" s="20">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I104" s="43"/>
+      <c r="I104" s="35"/>
       <c r="K104" s="1">
         <v>5</v>
       </c>
@@ -28562,9 +25424,9 @@
       <c r="M104" s="20">
         <v>0.996</v>
       </c>
-      <c r="N104" s="43"/>
+      <c r="N104" s="35"/>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>6</v>
       </c>
@@ -28574,7 +25436,7 @@
       <c r="C105" s="20">
         <v>0.90400000000000003</v>
       </c>
-      <c r="D105" s="43"/>
+      <c r="D105" s="35"/>
       <c r="F105" s="1">
         <v>6</v>
       </c>
@@ -28584,7 +25446,7 @@
       <c r="H105" s="20">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I105" s="43"/>
+      <c r="I105" s="35"/>
       <c r="K105" s="1">
         <v>6</v>
       </c>
@@ -28594,9 +25456,9 @@
       <c r="M105" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="N105" s="43"/>
+      <c r="N105" s="35"/>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>7</v>
       </c>
@@ -28606,7 +25468,7 @@
       <c r="C106" s="20">
         <v>0.96699999999999997</v>
       </c>
-      <c r="D106" s="43"/>
+      <c r="D106" s="35"/>
       <c r="F106" s="1">
         <v>7</v>
       </c>
@@ -28616,7 +25478,7 @@
       <c r="H106" s="20">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I106" s="43"/>
+      <c r="I106" s="35"/>
       <c r="K106" s="1">
         <v>7</v>
       </c>
@@ -28626,9 +25488,9 @@
       <c r="M106" s="20">
         <v>0.98899999999999999</v>
       </c>
-      <c r="N106" s="43"/>
+      <c r="N106" s="35"/>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>8</v>
       </c>
@@ -28638,7 +25500,7 @@
       <c r="C107" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="D107" s="43"/>
+      <c r="D107" s="35"/>
       <c r="F107" s="1">
         <v>8</v>
       </c>
@@ -28648,7 +25510,7 @@
       <c r="H107" s="20">
         <v>0.98899999999999999</v>
       </c>
-      <c r="I107" s="43"/>
+      <c r="I107" s="35"/>
       <c r="K107" s="1">
         <v>8</v>
       </c>
@@ -28658,9 +25520,9 @@
       <c r="M107" s="20">
         <v>0.96099999999999997</v>
       </c>
-      <c r="N107" s="43"/>
+      <c r="N107" s="35"/>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>9</v>
       </c>
@@ -28670,7 +25532,7 @@
       <c r="C108" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D108" s="43"/>
+      <c r="D108" s="35"/>
       <c r="F108" s="1">
         <v>9</v>
       </c>
@@ -28680,7 +25542,7 @@
       <c r="H108" s="20">
         <v>0.89900000000000002</v>
       </c>
-      <c r="I108" s="43"/>
+      <c r="I108" s="35"/>
       <c r="K108" s="1">
         <v>9</v>
       </c>
@@ -28690,9 +25552,9 @@
       <c r="M108" s="20">
         <v>0.96</v>
       </c>
-      <c r="N108" s="43"/>
+      <c r="N108" s="35"/>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>10</v>
       </c>
@@ -28702,7 +25564,7 @@
       <c r="C109" s="20">
         <v>0.97699999999999998</v>
       </c>
-      <c r="D109" s="43"/>
+      <c r="D109" s="35"/>
       <c r="F109" s="1">
         <v>10</v>
       </c>
@@ -28712,7 +25574,7 @@
       <c r="H109" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I109" s="43"/>
+      <c r="I109" s="35"/>
       <c r="K109" s="1">
         <v>10</v>
       </c>
@@ -28722,9 +25584,9 @@
       <c r="M109" s="20">
         <v>0.96399999999999997</v>
       </c>
-      <c r="N109" s="43"/>
+      <c r="N109" s="35"/>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>11</v>
       </c>
@@ -28734,7 +25596,7 @@
       <c r="C110" s="20">
         <v>0.97599999999999998</v>
       </c>
-      <c r="D110" s="43"/>
+      <c r="D110" s="35"/>
       <c r="F110" s="1">
         <v>11</v>
       </c>
@@ -28744,7 +25606,7 @@
       <c r="H110" s="20">
         <v>0.85599999999999998</v>
       </c>
-      <c r="I110" s="43"/>
+      <c r="I110" s="35"/>
       <c r="K110" s="1">
         <v>11</v>
       </c>
@@ -28754,9 +25616,9 @@
       <c r="M110" s="20">
         <v>0.96</v>
       </c>
-      <c r="N110" s="43"/>
+      <c r="N110" s="35"/>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>12</v>
       </c>
@@ -28766,7 +25628,7 @@
       <c r="C111" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="D111" s="43"/>
+      <c r="D111" s="35"/>
       <c r="F111" s="1">
         <v>12</v>
       </c>
@@ -28776,7 +25638,7 @@
       <c r="H111" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I111" s="43"/>
+      <c r="I111" s="35"/>
       <c r="K111" s="1">
         <v>12</v>
       </c>
@@ -28786,22 +25648,22 @@
       <c r="M111" s="20">
         <v>0.96599999999999997</v>
       </c>
-      <c r="N111" s="43"/>
+      <c r="N111" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D67:D79"/>
+    <mergeCell ref="I67:I79"/>
+    <mergeCell ref="N67:N79"/>
+    <mergeCell ref="D99:D111"/>
+    <mergeCell ref="I99:I111"/>
+    <mergeCell ref="N99:N111"/>
     <mergeCell ref="D2:D14"/>
     <mergeCell ref="I2:I14"/>
     <mergeCell ref="N2:N8"/>
     <mergeCell ref="D34:D46"/>
     <mergeCell ref="I34:I46"/>
     <mergeCell ref="N34:N46"/>
-    <mergeCell ref="D67:D79"/>
-    <mergeCell ref="I67:I79"/>
-    <mergeCell ref="N67:N79"/>
-    <mergeCell ref="D99:D111"/>
-    <mergeCell ref="I99:I111"/>
-    <mergeCell ref="N99:N111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -28812,16 +25674,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD302C83-6A19-1746-8058-E37651EDB290}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -28850,427 +25712,271 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="24">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="C2" s="24">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="D2" s="43" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="35" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="24">
-        <v>0</v>
-      </c>
-      <c r="H2" s="24">
-        <v>0</v>
-      </c>
-      <c r="I2" s="43" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="35" t="s">
         <v>28</v>
       </c>
       <c r="L2" s="1">
         <v>0</v>
       </c>
-      <c r="M2" s="24">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="N2" s="24">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="O2" s="43" t="s">
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="24">
-        <v>0.53886800000000001</v>
-      </c>
-      <c r="C3" s="24">
-        <v>0.51964299999999997</v>
-      </c>
-      <c r="D3" s="43"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="35"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="24">
-        <v>0</v>
-      </c>
-      <c r="H3" s="24">
-        <v>9.1979999999999996E-3</v>
-      </c>
-      <c r="I3" s="43"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="35"/>
       <c r="L3" s="1">
         <v>1</v>
       </c>
-      <c r="M3" s="24">
-        <v>0.48698000000000002</v>
-      </c>
-      <c r="N3" s="24">
-        <v>0.61618799999999996</v>
-      </c>
-      <c r="O3" s="43"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="35"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="24">
-        <v>0.54850200000000005</v>
-      </c>
-      <c r="C4" s="24">
-        <v>0.54270200000000002</v>
-      </c>
-      <c r="D4" s="43"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="35"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="24">
-        <v>0</v>
-      </c>
-      <c r="H4" s="24">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="I4" s="43"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="35"/>
       <c r="L4" s="1">
         <v>2</v>
       </c>
-      <c r="M4" s="24">
-        <v>0.47883300000000001</v>
-      </c>
-      <c r="N4" s="24">
-        <v>8.9940999999999993E-2</v>
-      </c>
-      <c r="O4" s="43"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="35"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="24">
-        <v>0.53795800000000005</v>
-      </c>
-      <c r="C5" s="24">
-        <v>0.58758500000000002</v>
-      </c>
-      <c r="D5" s="43"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="35"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="24">
-        <v>0</v>
-      </c>
-      <c r="H5" s="24">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="I5" s="43"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="35"/>
       <c r="L5" s="1">
         <v>3</v>
       </c>
-      <c r="M5" s="24">
-        <v>0.47412799999999999</v>
-      </c>
-      <c r="N5" s="24">
-        <v>0</v>
-      </c>
-      <c r="O5" s="43"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="35"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="24">
-        <v>0.54511100000000001</v>
-      </c>
-      <c r="C6" s="24">
-        <v>0.59606400000000004</v>
-      </c>
-      <c r="D6" s="43"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="35"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="24">
-        <v>0</v>
-      </c>
-      <c r="H6" s="24">
-        <v>0</v>
-      </c>
-      <c r="I6" s="43"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="35"/>
       <c r="L6" s="1">
         <v>4</v>
       </c>
-      <c r="M6" s="24">
-        <v>0.44588699999999998</v>
-      </c>
-      <c r="N6" s="24">
-        <v>0</v>
-      </c>
-      <c r="O6" s="43"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="35"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="24">
-        <v>0.54999500000000001</v>
-      </c>
-      <c r="C7" s="24">
-        <v>0.63406600000000002</v>
-      </c>
-      <c r="D7" s="43"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="35"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
-      <c r="G7" s="24">
-        <v>0</v>
-      </c>
-      <c r="H7" s="24">
-        <v>0</v>
-      </c>
-      <c r="I7" s="43"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="35"/>
       <c r="L7" s="1">
         <v>5</v>
       </c>
-      <c r="M7" s="24">
-        <v>0.46611200000000003</v>
-      </c>
-      <c r="N7" s="24">
-        <v>0</v>
-      </c>
-      <c r="O7" s="43"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="35"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="24">
-        <v>0.552315</v>
-      </c>
-      <c r="C8" s="24">
-        <v>0.63100100000000003</v>
-      </c>
-      <c r="D8" s="43"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="35"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
-      <c r="G8" s="24">
-        <v>0</v>
-      </c>
-      <c r="H8" s="24">
-        <v>0</v>
-      </c>
-      <c r="I8" s="43"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="35"/>
       <c r="L8" s="1">
         <v>6</v>
       </c>
-      <c r="M8" s="24">
-        <v>0.52910100000000004</v>
-      </c>
-      <c r="N8" s="24">
-        <v>1.853E-3</v>
-      </c>
-      <c r="O8" s="43"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="35"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="24">
-        <v>0.56195499999999998</v>
-      </c>
-      <c r="C9" s="24">
-        <v>0.62990500000000005</v>
-      </c>
-      <c r="D9" s="43"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="35"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
-      <c r="G9" s="24">
-        <v>0</v>
-      </c>
-      <c r="H9" s="24">
-        <v>0</v>
-      </c>
-      <c r="I9" s="43"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="35"/>
       <c r="L9" s="1">
         <v>7</v>
       </c>
-      <c r="M9" s="24">
-        <v>0.51032200000000005</v>
-      </c>
-      <c r="N9" s="24">
-        <v>4.8050000000000002E-3</v>
-      </c>
-      <c r="O9" s="43"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="35"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="24">
-        <v>0.57339300000000004</v>
-      </c>
-      <c r="C10" s="24">
-        <v>0.62997499999999995</v>
-      </c>
-      <c r="D10" s="43"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="35"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
-      <c r="G10" s="24">
-        <v>0</v>
-      </c>
-      <c r="H10" s="24">
-        <v>0</v>
-      </c>
-      <c r="I10" s="43"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="35"/>
       <c r="L10" s="1">
         <v>8</v>
       </c>
-      <c r="M10" s="24">
-        <v>0.44036700000000001</v>
-      </c>
-      <c r="N10" s="24">
-        <v>9.9369999999999997E-3</v>
-      </c>
-      <c r="O10" s="43"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="35"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="24">
-        <v>0.57301899999999995</v>
-      </c>
-      <c r="C11" s="24">
-        <v>0.629741</v>
-      </c>
-      <c r="D11" s="43"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="35"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
-      <c r="G11" s="24">
-        <v>0</v>
-      </c>
-      <c r="H11" s="24">
-        <v>0</v>
-      </c>
-      <c r="I11" s="43"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="35"/>
       <c r="L11" s="1">
         <v>9</v>
       </c>
-      <c r="M11" s="24">
-        <v>0.317079</v>
-      </c>
-      <c r="N11" s="24">
-        <v>7.0303000000000004E-2</v>
-      </c>
-      <c r="O11" s="43"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="35"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="24">
-        <v>0.57183899999999999</v>
-      </c>
-      <c r="C12" s="24">
-        <v>0.62902800000000003</v>
-      </c>
-      <c r="D12" s="43"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="35"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
-      <c r="G12" s="24">
-        <v>0</v>
-      </c>
-      <c r="H12" s="24">
-        <v>0</v>
-      </c>
-      <c r="I12" s="43"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="35"/>
       <c r="L12" s="1">
         <v>10</v>
       </c>
-      <c r="M12" s="24">
-        <v>0.36178399999999999</v>
-      </c>
-      <c r="N12" s="24">
-        <v>0.25535999999999998</v>
-      </c>
-      <c r="O12" s="43"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="35"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="24">
-        <v>0.55879900000000005</v>
-      </c>
-      <c r="C13" s="24">
-        <v>0.65797799999999995</v>
-      </c>
-      <c r="D13" s="43"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="35"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
-      <c r="G13" s="24">
-        <v>0</v>
-      </c>
-      <c r="H13" s="24">
-        <v>0</v>
-      </c>
-      <c r="I13" s="43"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="35"/>
       <c r="L13" s="1">
         <v>11</v>
       </c>
-      <c r="M13" s="24">
-        <v>0.29769400000000001</v>
-      </c>
-      <c r="N13" s="24">
-        <v>0.30926500000000001</v>
-      </c>
-      <c r="O13" s="43"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="35"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="24">
-        <v>0.50923399999999996</v>
-      </c>
-      <c r="C14" s="24">
-        <v>0.57034200000000002</v>
-      </c>
-      <c r="D14" s="43"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="35"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
-      <c r="G14" s="24">
-        <v>0.223861</v>
-      </c>
-      <c r="H14" s="24">
-        <v>0.212117</v>
-      </c>
-      <c r="I14" s="43"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="35"/>
       <c r="L14" s="1">
         <v>12</v>
       </c>
-      <c r="M14" s="24">
-        <v>0.30826799999999999</v>
-      </c>
-      <c r="N14" s="24">
-        <v>0.25233499999999998</v>
-      </c>
-      <c r="O14" s="43"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -29279,7 +25985,6 @@
     <mergeCell ref="O2:O14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29291,13 +25996,13 @@
       <selection activeCell="K1" sqref="K1:M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -29326,7 +26031,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -29336,7 +26041,7 @@
       <c r="C2" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="35" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="1">
@@ -29348,7 +26053,7 @@
       <c r="H2" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="35" t="s">
         <v>28</v>
       </c>
       <c r="K2" s="1">
@@ -29360,11 +26065,11 @@
       <c r="M2" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -29374,7 +26079,7 @@
       <c r="C3" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D3" s="43"/>
+      <c r="D3" s="35"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -29384,7 +26089,7 @@
       <c r="H3" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I3" s="43"/>
+      <c r="I3" s="35"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
@@ -29394,9 +26099,9 @@
       <c r="M3" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N3" s="43"/>
+      <c r="N3" s="35"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -29406,7 +26111,7 @@
       <c r="C4" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="35"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -29416,7 +26121,7 @@
       <c r="H4" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I4" s="43"/>
+      <c r="I4" s="35"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
@@ -29426,9 +26131,9 @@
       <c r="M4" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N4" s="43"/>
+      <c r="N4" s="35"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -29438,7 +26143,7 @@
       <c r="C5" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D5" s="43"/>
+      <c r="D5" s="35"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -29448,7 +26153,7 @@
       <c r="H5" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I5" s="43"/>
+      <c r="I5" s="35"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
@@ -29458,9 +26163,9 @@
       <c r="M5" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N5" s="43"/>
+      <c r="N5" s="35"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -29470,7 +26175,7 @@
       <c r="C6" s="24">
         <v>0.480132</v>
       </c>
-      <c r="D6" s="43"/>
+      <c r="D6" s="35"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -29480,7 +26185,7 @@
       <c r="H6" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I6" s="43"/>
+      <c r="I6" s="35"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
@@ -29490,9 +26195,9 @@
       <c r="M6" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N6" s="43"/>
+      <c r="N6" s="35"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -29502,7 +26207,7 @@
       <c r="C7" s="24">
         <v>0.46854299999999999</v>
       </c>
-      <c r="D7" s="43"/>
+      <c r="D7" s="35"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -29512,7 +26217,7 @@
       <c r="H7" s="24">
         <v>0.480132</v>
       </c>
-      <c r="I7" s="43"/>
+      <c r="I7" s="35"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
@@ -29522,9 +26227,9 @@
       <c r="M7" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N7" s="43"/>
+      <c r="N7" s="35"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -29534,7 +26239,7 @@
       <c r="C8" s="24">
         <v>0.47682099999999999</v>
       </c>
-      <c r="D8" s="43"/>
+      <c r="D8" s="35"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -29544,7 +26249,7 @@
       <c r="H8" s="24">
         <v>0.49337700000000001</v>
       </c>
-      <c r="I8" s="43"/>
+      <c r="I8" s="35"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
@@ -29554,9 +26259,9 @@
       <c r="M8" s="24">
         <v>0.48344399999999998</v>
       </c>
-      <c r="N8" s="43"/>
+      <c r="N8" s="35"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -29566,7 +26271,7 @@
       <c r="C9" s="24">
         <v>0.480132</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="35"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -29576,7 +26281,7 @@
       <c r="H9" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I9" s="43"/>
+      <c r="I9" s="35"/>
       <c r="K9" s="1">
         <v>7</v>
       </c>
@@ -29586,9 +26291,9 @@
       <c r="M9" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N9" s="43"/>
+      <c r="N9" s="35"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -29598,7 +26303,7 @@
       <c r="C10" s="24">
         <v>0.480132</v>
       </c>
-      <c r="D10" s="43"/>
+      <c r="D10" s="35"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -29608,7 +26313,7 @@
       <c r="H10" s="24">
         <v>0.480132</v>
       </c>
-      <c r="I10" s="43"/>
+      <c r="I10" s="35"/>
       <c r="K10" s="1">
         <v>8</v>
       </c>
@@ -29618,9 +26323,9 @@
       <c r="M10" s="24">
         <v>0.47847699999999999</v>
       </c>
-      <c r="N10" s="43"/>
+      <c r="N10" s="35"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -29630,7 +26335,7 @@
       <c r="C11" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D11" s="43"/>
+      <c r="D11" s="35"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -29640,7 +26345,7 @@
       <c r="H11" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I11" s="43"/>
+      <c r="I11" s="35"/>
       <c r="K11" s="1">
         <v>9</v>
       </c>
@@ -29650,9 +26355,9 @@
       <c r="M11" s="24">
         <v>0.47682099999999999</v>
       </c>
-      <c r="N11" s="43"/>
+      <c r="N11" s="35"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -29662,7 +26367,7 @@
       <c r="C12" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D12" s="43"/>
+      <c r="D12" s="35"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -29672,7 +26377,7 @@
       <c r="H12" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I12" s="43"/>
+      <c r="I12" s="35"/>
       <c r="K12" s="1">
         <v>10</v>
       </c>
@@ -29682,9 +26387,9 @@
       <c r="M12" s="24">
         <v>0.47682099999999999</v>
       </c>
-      <c r="N12" s="43"/>
+      <c r="N12" s="35"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -29694,7 +26399,7 @@
       <c r="C13" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D13" s="43"/>
+      <c r="D13" s="35"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -29704,7 +26409,7 @@
       <c r="H13" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I13" s="43"/>
+      <c r="I13" s="35"/>
       <c r="K13" s="1">
         <v>11</v>
       </c>
@@ -29714,9 +26419,9 @@
       <c r="M13" s="24">
         <v>0.52152299999999996</v>
       </c>
-      <c r="N13" s="43"/>
+      <c r="N13" s="35"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -29726,7 +26431,7 @@
       <c r="C14" s="24">
         <v>0.47516599999999998</v>
       </c>
-      <c r="D14" s="43"/>
+      <c r="D14" s="35"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -29736,7 +26441,7 @@
       <c r="H14" s="24">
         <v>0.48675499999999999</v>
       </c>
-      <c r="I14" s="43"/>
+      <c r="I14" s="35"/>
       <c r="K14" s="1">
         <v>12</v>
       </c>
@@ -29746,7 +26451,7 @@
       <c r="M14" s="24">
         <v>0.50331099999999995</v>
       </c>
-      <c r="N14" s="43"/>
+      <c r="N14" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -29767,9 +26472,9 @@
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -29798,7 +26503,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -29808,7 +26513,7 @@
       <c r="C2" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="35" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="1">
@@ -29820,7 +26525,7 @@
       <c r="H2" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="35" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="1">
@@ -29832,11 +26537,11 @@
       <c r="M2" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -29846,7 +26551,7 @@
       <c r="C3" s="24">
         <v>0.569546</v>
       </c>
-      <c r="D3" s="43"/>
+      <c r="D3" s="35"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -29856,7 +26561,7 @@
       <c r="H3" s="24">
         <v>0.56991199999999997</v>
       </c>
-      <c r="I3" s="43"/>
+      <c r="I3" s="35"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
@@ -29866,9 +26571,9 @@
       <c r="M3" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N3" s="43"/>
+      <c r="N3" s="35"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -29878,7 +26583,7 @@
       <c r="C4" s="24">
         <v>0.567716</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="35"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -29888,7 +26593,7 @@
       <c r="H4" s="24">
         <v>0.56881400000000004</v>
       </c>
-      <c r="I4" s="43"/>
+      <c r="I4" s="35"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
@@ -29898,9 +26603,9 @@
       <c r="M4" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N4" s="43"/>
+      <c r="N4" s="35"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -29910,7 +26615,7 @@
       <c r="C5" s="24">
         <v>0.58894599999999997</v>
       </c>
-      <c r="D5" s="43"/>
+      <c r="D5" s="35"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -29920,7 +26625,7 @@
       <c r="H5" s="24">
         <v>0.58308899999999997</v>
       </c>
-      <c r="I5" s="43"/>
+      <c r="I5" s="35"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
@@ -29930,9 +26635,9 @@
       <c r="M5" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N5" s="43"/>
+      <c r="N5" s="35"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -29942,7 +26647,7 @@
       <c r="C6" s="24">
         <v>0.60175699999999999</v>
       </c>
-      <c r="D6" s="43"/>
+      <c r="D6" s="35"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -29952,7 +26657,7 @@
       <c r="H6" s="24">
         <v>0.60651500000000003</v>
       </c>
-      <c r="I6" s="43"/>
+      <c r="I6" s="35"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
@@ -29962,9 +26667,9 @@
       <c r="M6" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N6" s="43"/>
+      <c r="N6" s="35"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -29974,7 +26679,7 @@
       <c r="C7" s="24">
         <v>0.61712999999999996</v>
       </c>
-      <c r="D7" s="43"/>
+      <c r="D7" s="35"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -29984,7 +26689,7 @@
       <c r="H7" s="24">
         <v>0.61786200000000002</v>
       </c>
-      <c r="I7" s="43"/>
+      <c r="I7" s="35"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
@@ -29994,9 +26699,9 @@
       <c r="M7" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N7" s="43"/>
+      <c r="N7" s="35"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -30006,7 +26711,7 @@
       <c r="C8" s="24">
         <v>0.620425</v>
       </c>
-      <c r="D8" s="43"/>
+      <c r="D8" s="35"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -30016,7 +26721,7 @@
       <c r="H8" s="24">
         <v>0.61090800000000001</v>
       </c>
-      <c r="I8" s="43"/>
+      <c r="I8" s="35"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
@@ -30026,9 +26731,9 @@
       <c r="M8" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N8" s="43"/>
+      <c r="N8" s="35"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -30038,7 +26743,7 @@
       <c r="C9" s="24">
         <v>0.633602</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="35"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -30048,7 +26753,7 @@
       <c r="H9" s="24">
         <v>0.61786200000000002</v>
       </c>
-      <c r="I9" s="43"/>
+      <c r="I9" s="35"/>
       <c r="K9" s="1">
         <v>7</v>
       </c>
@@ -30058,9 +26763,9 @@
       <c r="M9" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N9" s="43"/>
+      <c r="N9" s="35"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -30070,7 +26775,7 @@
       <c r="C10" s="24">
         <v>0.62847699999999995</v>
       </c>
-      <c r="D10" s="43"/>
+      <c r="D10" s="35"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -30080,7 +26785,7 @@
       <c r="H10" s="24">
         <v>0.620425</v>
       </c>
-      <c r="I10" s="43"/>
+      <c r="I10" s="35"/>
       <c r="K10" s="1">
         <v>8</v>
       </c>
@@ -30090,9 +26795,9 @@
       <c r="M10" s="24">
         <v>0.57906299999999999</v>
       </c>
-      <c r="N10" s="43"/>
+      <c r="N10" s="35"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -30102,7 +26807,7 @@
       <c r="C11" s="24">
         <v>0.62664699999999995</v>
       </c>
-      <c r="D11" s="43"/>
+      <c r="D11" s="35"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -30112,7 +26817,7 @@
       <c r="H11" s="24">
         <v>0.61712999999999996</v>
       </c>
-      <c r="I11" s="43"/>
+      <c r="I11" s="35"/>
       <c r="K11" s="1">
         <v>9</v>
       </c>
@@ -30122,9 +26827,9 @@
       <c r="M11" s="24">
         <v>0.58491899999999997</v>
       </c>
-      <c r="N11" s="43"/>
+      <c r="N11" s="35"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -30134,7 +26839,7 @@
       <c r="C12" s="24">
         <v>0.63250399999999996</v>
       </c>
-      <c r="D12" s="43"/>
+      <c r="D12" s="35"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -30144,7 +26849,7 @@
       <c r="H12" s="24">
         <v>0.62005900000000003</v>
       </c>
-      <c r="I12" s="43"/>
+      <c r="I12" s="35"/>
       <c r="K12" s="1">
         <v>10</v>
       </c>
@@ -30154,9 +26859,9 @@
       <c r="M12" s="24">
         <v>0.59553400000000001</v>
       </c>
-      <c r="N12" s="43"/>
+      <c r="N12" s="35"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -30166,7 +26871,7 @@
       <c r="C13" s="24">
         <v>0.63689600000000002</v>
       </c>
-      <c r="D13" s="43"/>
+      <c r="D13" s="35"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -30176,7 +26881,7 @@
       <c r="H13" s="24">
         <v>0.62884300000000004</v>
       </c>
-      <c r="I13" s="43"/>
+      <c r="I13" s="35"/>
       <c r="K13" s="1">
         <v>11</v>
       </c>
@@ -30186,9 +26891,9 @@
       <c r="M13" s="24">
         <v>0.64055600000000001</v>
       </c>
-      <c r="N13" s="43"/>
+      <c r="N13" s="35"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -30198,7 +26903,7 @@
       <c r="C14" s="24">
         <v>0.64019000000000004</v>
       </c>
-      <c r="D14" s="43"/>
+      <c r="D14" s="35"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -30208,7 +26913,7 @@
       <c r="H14" s="24">
         <v>0.63872600000000002</v>
       </c>
-      <c r="I14" s="43"/>
+      <c r="I14" s="35"/>
       <c r="K14" s="1">
         <v>12</v>
       </c>
@@ -30218,7 +26923,7 @@
       <c r="M14" s="24">
         <v>0.66800899999999996</v>
       </c>
-      <c r="N14" s="43"/>
+      <c r="N14" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/POS Code/Experiments/attachments/detailed_results.xlsx
+++ b/POS Code/Experiments/attachments/detailed_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8131D947-9A57-8B44-AD9A-98C53E70A9CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C4A6C8-CDCB-5B45-BFE1-B194D43B0931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" activeTab="4" xr2:uid="{BEC22610-DBDE-49A5-ABDC-7DB261D6BA7F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" activeTab="6" xr2:uid="{BEC22610-DBDE-49A5-ABDC-7DB261D6BA7F}"/>
   </bookViews>
   <sheets>
     <sheet name="POSSummary" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="59">
   <si>
     <t>Selection</t>
   </si>
@@ -347,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -468,6 +468,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8126,7 +8129,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.70000000000000007"/>
-          <c:min val="0.5"/>
+          <c:min val="0.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8633,7 +8636,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.70000000000000007"/>
-          <c:min val="0.5"/>
+          <c:min val="0.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9140,7 +9143,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.70000000000000007"/>
-          <c:min val="0.5"/>
+          <c:min val="0.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9190,6 +9193,1020 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="298867519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DefDectLayerwise!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Independent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$A$32:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$B$32:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.56552000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57064400000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58382100000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60029299999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60065900000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61127399999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60980999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62335300000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61127399999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60944399999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61712999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.62811099999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.62554900000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0062-7443-80DC-B5770DBAD1D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DefDectLayerwise!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Incremental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$A$32:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$C$32:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.56552000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56844799999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57796499999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59516800000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58565199999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59882899999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59626599999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59370400000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58821400000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59846299999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.60212299999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61127399999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.614568</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0062-7443-80DC-B5770DBAD1D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="887997760"/>
+        <c:axId val="887166736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="887997760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="887166736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="887166736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.70000000000000007"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="887997760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DefDectLayerwise!$G$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Independent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$F$32:$F$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$G$32:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.56552000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55234300000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58235700000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57796499999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56039499999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56698400000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58674999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.571376</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59297200000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59443599999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.59406999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60212299999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.618228</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EA06-1C49-AB1D-D243169B70F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DefDectLayerwise!$H$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Incremental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$F$32:$F$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$H$32:$H$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.56552000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53916500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53074699999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.554539</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.439971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43447999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43447999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58345499999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60139100000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44289899999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.62115699999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.46486100000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.612738</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EA06-1C49-AB1D-D243169B70F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="83598543"/>
+        <c:axId val="1165704288"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="83598543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1165704288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1165704288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.70000000000000007"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83598543"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13712,6 +14729,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -22041,6 +23138,1012 @@
 </file>
 
 <file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -26845,8 +28948,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -26875,16 +28978,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26918,7 +29021,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>463550</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
@@ -26940,6 +29043,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>844550</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67AC53E1-AA23-0C42-9D90-B287F6E8CB50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DEB1D15-9F38-EE43-A581-144FB32E7BF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -27312,7 +29487,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -27356,7 +29531,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -27398,7 +29573,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -27442,7 +29617,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="44"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
@@ -27484,7 +29659,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -27528,7 +29703,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -27570,7 +29745,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="43"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="26" t="s">
         <v>41</v>
       </c>
@@ -27624,7 +29799,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="44"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
@@ -27666,7 +29841,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -27710,7 +29885,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -27752,7 +29927,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="43"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="26" t="s">
         <v>41</v>
       </c>
@@ -27806,7 +29981,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="44"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
@@ -27848,7 +30023,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="43" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -27892,7 +30067,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="43"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -27934,7 +30109,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="43"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -27976,7 +30151,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="43"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="26" t="s">
         <v>41</v>
       </c>
@@ -28030,7 +30205,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="44"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
@@ -28073,7 +30248,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="46" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -28117,7 +30292,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="43"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
@@ -28159,7 +30334,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="43"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
@@ -28201,7 +30376,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
@@ -28243,7 +30418,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="26" t="s">
         <v>41</v>
       </c>
@@ -28297,7 +30472,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="44"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="4" t="s">
         <v>7</v>
       </c>
@@ -28339,7 +30514,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -28383,7 +30558,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="43"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
@@ -28425,7 +30600,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
@@ -28467,7 +30642,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
@@ -28509,7 +30684,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
@@ -28551,7 +30726,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="26" t="s">
         <v>41</v>
       </c>
@@ -28605,7 +30780,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="4" t="s">
         <v>7</v>
       </c>
@@ -28666,7 +30841,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -28722,7 +30897,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -28760,7 +30935,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -28796,7 +30971,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -28834,7 +31009,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="25" t="s">
         <v>5</v>
       </c>
@@ -28870,7 +31045,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="43"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="25" t="s">
         <v>41</v>
       </c>
@@ -28916,7 +31091,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="44"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -28962,7 +31137,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="43" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -29000,7 +31175,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="25" t="s">
         <v>4</v>
       </c>
@@ -29036,7 +31211,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="25" t="s">
         <v>5</v>
       </c>
@@ -29072,7 +31247,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="25" t="s">
         <v>41</v>
       </c>
@@ -29118,7 +31293,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -29164,7 +31339,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="46" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -29202,7 +31377,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="43"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="25" t="s">
         <v>12</v>
       </c>
@@ -29238,7 +31413,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="43"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="25" t="s">
         <v>4</v>
       </c>
@@ -29280,7 +31455,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="43"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="25" t="s">
         <v>5</v>
       </c>
@@ -29316,7 +31491,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="43"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="25" t="s">
         <v>41</v>
       </c>
@@ -29362,7 +31537,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="44"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
@@ -29408,7 +31583,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -29446,7 +31621,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="43"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="25" t="s">
         <v>13</v>
       </c>
@@ -29482,7 +31657,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="43"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="25" t="s">
         <v>9</v>
       </c>
@@ -29518,7 +31693,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="25" t="s">
         <v>4</v>
       </c>
@@ -29554,7 +31729,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="25" t="s">
         <v>5</v>
       </c>
@@ -29590,7 +31765,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="43"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="25" t="s">
         <v>41</v>
       </c>
@@ -29636,7 +31811,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="44"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
@@ -29731,7 +31906,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -29757,7 +31932,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -29781,7 +31956,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -29807,7 +31982,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="28" t="s">
         <v>56</v>
       </c>
@@ -29831,7 +32006,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="43"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="28" t="s">
         <v>41</v>
       </c>
@@ -29861,7 +32036,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="44"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -29891,7 +32066,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="43" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -29917,7 +32092,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="28" t="s">
         <v>4</v>
       </c>
@@ -29941,7 +32116,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="28" t="s">
         <v>56</v>
       </c>
@@ -29965,7 +32140,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="28" t="s">
         <v>41</v>
       </c>
@@ -29995,7 +32170,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -30025,7 +32200,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="46" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -30051,7 +32226,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="43"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="28" t="s">
         <v>12</v>
       </c>
@@ -30075,7 +32250,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="43"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="28" t="s">
         <v>4</v>
       </c>
@@ -30105,7 +32280,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="43"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="28" t="s">
         <v>56</v>
       </c>
@@ -30129,7 +32304,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="43"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="28" t="s">
         <v>41</v>
       </c>
@@ -30159,7 +32334,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="44"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
@@ -30189,7 +32364,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -30215,7 +32390,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="43"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="28" t="s">
         <v>13</v>
       </c>
@@ -30239,7 +32414,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="43"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="28" t="s">
         <v>9</v>
       </c>
@@ -30263,7 +32438,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="28" t="s">
         <v>4</v>
       </c>
@@ -30287,7 +32462,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="28" t="s">
         <v>56</v>
       </c>
@@ -30311,7 +32486,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="43"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="28" t="s">
         <v>41</v>
       </c>
@@ -30341,7 +32516,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="44"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
@@ -30436,7 +32611,7 @@
       <c r="C2" s="20">
         <v>0.94899999999999995</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1">
@@ -30448,7 +32623,7 @@
       <c r="H2" s="20">
         <v>0.89500000000000002</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="47" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="1">
@@ -30460,7 +32635,7 @@
       <c r="M2" s="20">
         <v>0.91100000000000003</v>
       </c>
-      <c r="N2" s="46" t="s">
+      <c r="N2" s="47" t="s">
         <v>19</v>
       </c>
     </row>
@@ -30474,7 +32649,7 @@
       <c r="C3" s="20">
         <v>0.84</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="47"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -30484,7 +32659,7 @@
       <c r="H3" s="20">
         <v>0.93100000000000005</v>
       </c>
-      <c r="I3" s="46"/>
+      <c r="I3" s="47"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
@@ -30494,7 +32669,7 @@
       <c r="M3" s="20">
         <v>0.90900000000000003</v>
       </c>
-      <c r="N3" s="46"/>
+      <c r="N3" s="47"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -30506,7 +32681,7 @@
       <c r="C4" s="20">
         <v>0.876</v>
       </c>
-      <c r="D4" s="46"/>
+      <c r="D4" s="47"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -30516,7 +32691,7 @@
       <c r="H4" s="20">
         <v>0.873</v>
       </c>
-      <c r="I4" s="46"/>
+      <c r="I4" s="47"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
@@ -30526,7 +32701,7 @@
       <c r="M4" s="20">
         <v>0.90100000000000002</v>
       </c>
-      <c r="N4" s="46"/>
+      <c r="N4" s="47"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -30538,7 +32713,7 @@
       <c r="C5" s="20">
         <v>0.93600000000000005</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="47"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -30548,7 +32723,7 @@
       <c r="H5" s="20">
         <v>0.83799999999999997</v>
       </c>
-      <c r="I5" s="46"/>
+      <c r="I5" s="47"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
@@ -30558,7 +32733,7 @@
       <c r="M5" s="20">
         <v>0.88400000000000001</v>
       </c>
-      <c r="N5" s="46"/>
+      <c r="N5" s="47"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -30570,7 +32745,7 @@
       <c r="C6" s="20">
         <v>0.97</v>
       </c>
-      <c r="D6" s="46"/>
+      <c r="D6" s="47"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -30580,7 +32755,7 @@
       <c r="H6" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="I6" s="46"/>
+      <c r="I6" s="47"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
@@ -30590,7 +32765,7 @@
       <c r="M6" s="20">
         <v>0.93899999999999995</v>
       </c>
-      <c r="N6" s="46"/>
+      <c r="N6" s="47"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -30602,7 +32777,7 @@
       <c r="C7" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="D7" s="46"/>
+      <c r="D7" s="47"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -30612,7 +32787,7 @@
       <c r="H7" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="I7" s="46"/>
+      <c r="I7" s="47"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
@@ -30622,7 +32797,7 @@
       <c r="M7" s="20">
         <v>0.91700000000000004</v>
       </c>
-      <c r="N7" s="46"/>
+      <c r="N7" s="47"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -30634,7 +32809,7 @@
       <c r="C8" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="D8" s="46"/>
+      <c r="D8" s="47"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -30644,7 +32819,7 @@
       <c r="H8" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I8" s="46"/>
+      <c r="I8" s="47"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
@@ -30654,7 +32829,7 @@
       <c r="M8" s="20">
         <v>0.92300000000000004</v>
       </c>
-      <c r="N8" s="46"/>
+      <c r="N8" s="47"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -30666,7 +32841,7 @@
       <c r="C9" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D9" s="46"/>
+      <c r="D9" s="47"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -30676,7 +32851,7 @@
       <c r="H9" s="20">
         <v>0.96499999999999997</v>
       </c>
-      <c r="I9" s="46"/>
+      <c r="I9" s="47"/>
       <c r="K9" s="1"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
@@ -30692,7 +32867,7 @@
       <c r="C10" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D10" s="46"/>
+      <c r="D10" s="47"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -30702,7 +32877,7 @@
       <c r="H10" s="20">
         <v>0.94899999999999995</v>
       </c>
-      <c r="I10" s="46"/>
+      <c r="I10" s="47"/>
       <c r="K10" s="1"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
@@ -30718,7 +32893,7 @@
       <c r="C11" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="47"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -30728,7 +32903,7 @@
       <c r="H11" s="20">
         <v>0.93</v>
       </c>
-      <c r="I11" s="46"/>
+      <c r="I11" s="47"/>
       <c r="K11" s="1"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
@@ -30744,7 +32919,7 @@
       <c r="C12" s="20">
         <v>0.98099999999999998</v>
       </c>
-      <c r="D12" s="46"/>
+      <c r="D12" s="47"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -30754,7 +32929,7 @@
       <c r="H12" s="20">
         <v>0.91500000000000004</v>
       </c>
-      <c r="I12" s="46"/>
+      <c r="I12" s="47"/>
       <c r="K12" s="1"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
@@ -30770,7 +32945,7 @@
       <c r="C13" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="D13" s="46"/>
+      <c r="D13" s="47"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -30780,7 +32955,7 @@
       <c r="H13" s="20">
         <v>0.91500000000000004</v>
       </c>
-      <c r="I13" s="46"/>
+      <c r="I13" s="47"/>
       <c r="K13" s="1"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
@@ -30796,7 +32971,7 @@
       <c r="C14" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="D14" s="46"/>
+      <c r="D14" s="47"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -30806,7 +32981,7 @@
       <c r="H14" s="20">
         <v>0.91900000000000004</v>
       </c>
-      <c r="I14" s="46"/>
+      <c r="I14" s="47"/>
       <c r="K14" s="1"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
@@ -30851,7 +33026,7 @@
       <c r="C34" s="20">
         <v>0.98199999999999998</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="47" t="s">
         <v>20</v>
       </c>
       <c r="F34" s="1">
@@ -30863,7 +33038,7 @@
       <c r="H34" s="20">
         <v>0.98899999999999999</v>
       </c>
-      <c r="I34" s="46" t="s">
+      <c r="I34" s="47" t="s">
         <v>21</v>
       </c>
       <c r="K34" s="1">
@@ -30875,7 +33050,7 @@
       <c r="M34" s="20">
         <v>0.99399999999999999</v>
       </c>
-      <c r="N34" s="46" t="s">
+      <c r="N34" s="47" t="s">
         <v>22</v>
       </c>
     </row>
@@ -30889,7 +33064,7 @@
       <c r="C35" s="20">
         <v>0.91800000000000004</v>
       </c>
-      <c r="D35" s="46"/>
+      <c r="D35" s="47"/>
       <c r="F35" s="1">
         <v>1</v>
       </c>
@@ -30899,7 +33074,7 @@
       <c r="H35" s="20">
         <v>0.96399999999999997</v>
       </c>
-      <c r="I35" s="46"/>
+      <c r="I35" s="47"/>
       <c r="K35" s="1">
         <v>1</v>
       </c>
@@ -30909,7 +33084,7 @@
       <c r="M35" s="20">
         <v>0.99099999999999999</v>
       </c>
-      <c r="N35" s="46"/>
+      <c r="N35" s="47"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
@@ -30921,7 +33096,7 @@
       <c r="C36" s="20">
         <v>0.91900000000000004</v>
       </c>
-      <c r="D36" s="46"/>
+      <c r="D36" s="47"/>
       <c r="F36" s="1">
         <v>2</v>
       </c>
@@ -30931,7 +33106,7 @@
       <c r="H36" s="20">
         <v>0.97</v>
       </c>
-      <c r="I36" s="46"/>
+      <c r="I36" s="47"/>
       <c r="K36" s="1">
         <v>2</v>
       </c>
@@ -30941,7 +33116,7 @@
       <c r="M36" s="20">
         <v>0.98299999999999998</v>
       </c>
-      <c r="N36" s="46"/>
+      <c r="N36" s="47"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
@@ -30953,7 +33128,7 @@
       <c r="C37" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="D37" s="46"/>
+      <c r="D37" s="47"/>
       <c r="F37" s="1">
         <v>3</v>
       </c>
@@ -30963,7 +33138,7 @@
       <c r="H37" s="20">
         <v>0.96599999999999997</v>
       </c>
-      <c r="I37" s="46"/>
+      <c r="I37" s="47"/>
       <c r="K37" s="1">
         <v>3</v>
       </c>
@@ -30973,7 +33148,7 @@
       <c r="M37" s="20">
         <v>0.98</v>
       </c>
-      <c r="N37" s="46"/>
+      <c r="N37" s="47"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
@@ -30985,7 +33160,7 @@
       <c r="C38" s="20">
         <v>0.97699999999999998</v>
       </c>
-      <c r="D38" s="46"/>
+      <c r="D38" s="47"/>
       <c r="F38" s="1">
         <v>4</v>
       </c>
@@ -30995,7 +33170,7 @@
       <c r="H38" s="20">
         <v>0.96799999999999997</v>
       </c>
-      <c r="I38" s="46"/>
+      <c r="I38" s="47"/>
       <c r="K38" s="1">
         <v>4</v>
       </c>
@@ -31005,7 +33180,7 @@
       <c r="M38" s="20">
         <v>0.97099999999999997</v>
       </c>
-      <c r="N38" s="46"/>
+      <c r="N38" s="47"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
@@ -31017,7 +33192,7 @@
       <c r="C39" s="20">
         <v>0.98199999999999998</v>
       </c>
-      <c r="D39" s="46"/>
+      <c r="D39" s="47"/>
       <c r="F39" s="1">
         <v>5</v>
       </c>
@@ -31027,7 +33202,7 @@
       <c r="H39" s="20">
         <v>0.96699999999999997</v>
       </c>
-      <c r="I39" s="46"/>
+      <c r="I39" s="47"/>
       <c r="K39" s="1">
         <v>5</v>
       </c>
@@ -31037,7 +33212,7 @@
       <c r="M39" s="20">
         <v>0.873</v>
       </c>
-      <c r="N39" s="46"/>
+      <c r="N39" s="47"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
@@ -31049,7 +33224,7 @@
       <c r="C40" s="20">
         <v>0.94399999999999995</v>
       </c>
-      <c r="D40" s="46"/>
+      <c r="D40" s="47"/>
       <c r="F40" s="1">
         <v>6</v>
       </c>
@@ -31059,7 +33234,7 @@
       <c r="H40" s="20">
         <v>0.96399999999999997</v>
       </c>
-      <c r="I40" s="46"/>
+      <c r="I40" s="47"/>
       <c r="K40" s="1">
         <v>6</v>
       </c>
@@ -31069,7 +33244,7 @@
       <c r="M40" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="N40" s="46"/>
+      <c r="N40" s="47"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
@@ -31081,7 +33256,7 @@
       <c r="C41" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="D41" s="46"/>
+      <c r="D41" s="47"/>
       <c r="F41" s="1">
         <v>7</v>
       </c>
@@ -31091,7 +33266,7 @@
       <c r="H41" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I41" s="46"/>
+      <c r="I41" s="47"/>
       <c r="K41" s="1">
         <v>7</v>
       </c>
@@ -31101,7 +33276,7 @@
       <c r="M41" s="20">
         <v>0.93</v>
       </c>
-      <c r="N41" s="46"/>
+      <c r="N41" s="47"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
@@ -31113,7 +33288,7 @@
       <c r="C42" s="20">
         <v>0.94599999999999995</v>
       </c>
-      <c r="D42" s="46"/>
+      <c r="D42" s="47"/>
       <c r="F42" s="1">
         <v>8</v>
       </c>
@@ -31123,7 +33298,7 @@
       <c r="H42" s="20">
         <v>0.82099999999999995</v>
       </c>
-      <c r="I42" s="46"/>
+      <c r="I42" s="47"/>
       <c r="K42" s="1">
         <v>8</v>
       </c>
@@ -31133,7 +33308,7 @@
       <c r="M42" s="20">
         <v>0.98699999999999999</v>
       </c>
-      <c r="N42" s="46"/>
+      <c r="N42" s="47"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
@@ -31145,7 +33320,7 @@
       <c r="C43" s="20">
         <v>0.98099999999999998</v>
       </c>
-      <c r="D43" s="46"/>
+      <c r="D43" s="47"/>
       <c r="F43" s="1">
         <v>9</v>
       </c>
@@ -31155,7 +33330,7 @@
       <c r="H43" s="20">
         <v>0.82799999999999996</v>
       </c>
-      <c r="I43" s="46"/>
+      <c r="I43" s="47"/>
       <c r="K43" s="1">
         <v>9</v>
       </c>
@@ -31165,7 +33340,7 @@
       <c r="M43" s="20">
         <v>0.93500000000000005</v>
       </c>
-      <c r="N43" s="46"/>
+      <c r="N43" s="47"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
@@ -31177,7 +33352,7 @@
       <c r="C44" s="20">
         <v>0.98399999999999999</v>
       </c>
-      <c r="D44" s="46"/>
+      <c r="D44" s="47"/>
       <c r="F44" s="1">
         <v>10</v>
       </c>
@@ -31187,7 +33362,7 @@
       <c r="H44" s="20">
         <v>0.84099999999999997</v>
       </c>
-      <c r="I44" s="46"/>
+      <c r="I44" s="47"/>
       <c r="K44" s="1">
         <v>10</v>
       </c>
@@ -31197,7 +33372,7 @@
       <c r="M44" s="20">
         <v>0.92500000000000004</v>
       </c>
-      <c r="N44" s="46"/>
+      <c r="N44" s="47"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
@@ -31209,7 +33384,7 @@
       <c r="C45" s="20">
         <v>0.95299999999999996</v>
       </c>
-      <c r="D45" s="46"/>
+      <c r="D45" s="47"/>
       <c r="F45" s="1">
         <v>11</v>
       </c>
@@ -31219,7 +33394,7 @@
       <c r="H45" s="20">
         <v>0.98</v>
       </c>
-      <c r="I45" s="46"/>
+      <c r="I45" s="47"/>
       <c r="K45" s="1">
         <v>11</v>
       </c>
@@ -31229,7 +33404,7 @@
       <c r="M45" s="20">
         <v>0.92400000000000004</v>
       </c>
-      <c r="N45" s="46"/>
+      <c r="N45" s="47"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
@@ -31241,7 +33416,7 @@
       <c r="C46" s="20">
         <v>0.92100000000000004</v>
       </c>
-      <c r="D46" s="46"/>
+      <c r="D46" s="47"/>
       <c r="F46" s="1">
         <v>12</v>
       </c>
@@ -31251,7 +33426,7 @@
       <c r="H46" s="20">
         <v>0.84</v>
       </c>
-      <c r="I46" s="46"/>
+      <c r="I46" s="47"/>
       <c r="K46" s="1">
         <v>12</v>
       </c>
@@ -31261,7 +33436,7 @@
       <c r="M46" s="20">
         <v>0.93300000000000005</v>
       </c>
-      <c r="N46" s="46"/>
+      <c r="N46" s="47"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -31302,7 +33477,7 @@
       <c r="C67" s="20">
         <v>0.77700000000000002</v>
       </c>
-      <c r="D67" s="46" t="s">
+      <c r="D67" s="47" t="s">
         <v>23</v>
       </c>
       <c r="F67" s="1">
@@ -31314,7 +33489,7 @@
       <c r="H67" s="20">
         <v>0.75900000000000001</v>
       </c>
-      <c r="I67" s="46" t="s">
+      <c r="I67" s="47" t="s">
         <v>24</v>
       </c>
       <c r="K67" s="1">
@@ -31326,7 +33501,7 @@
       <c r="M67" s="20">
         <v>0.89400000000000002</v>
       </c>
-      <c r="N67" s="46" t="s">
+      <c r="N67" s="47" t="s">
         <v>25</v>
       </c>
     </row>
@@ -31340,7 +33515,7 @@
       <c r="C68" s="20">
         <v>0.85099999999999998</v>
       </c>
-      <c r="D68" s="46"/>
+      <c r="D68" s="47"/>
       <c r="F68" s="1">
         <v>1</v>
       </c>
@@ -31350,7 +33525,7 @@
       <c r="H68" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I68" s="46"/>
+      <c r="I68" s="47"/>
       <c r="K68" s="1">
         <v>1</v>
       </c>
@@ -31360,7 +33535,7 @@
       <c r="M68" s="20">
         <v>0.94299999999999995</v>
       </c>
-      <c r="N68" s="46"/>
+      <c r="N68" s="47"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
@@ -31372,7 +33547,7 @@
       <c r="C69" s="20">
         <v>0.93300000000000005</v>
       </c>
-      <c r="D69" s="46"/>
+      <c r="D69" s="47"/>
       <c r="F69" s="1">
         <v>2</v>
       </c>
@@ -31382,7 +33557,7 @@
       <c r="H69" s="20">
         <v>0.81899999999999995</v>
       </c>
-      <c r="I69" s="46"/>
+      <c r="I69" s="47"/>
       <c r="K69" s="1">
         <v>2</v>
       </c>
@@ -31392,7 +33567,7 @@
       <c r="M69" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="N69" s="46"/>
+      <c r="N69" s="47"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
@@ -31404,7 +33579,7 @@
       <c r="C70" s="20">
         <v>0.92700000000000005</v>
       </c>
-      <c r="D70" s="46"/>
+      <c r="D70" s="47"/>
       <c r="F70" s="1">
         <v>3</v>
       </c>
@@ -31414,7 +33589,7 @@
       <c r="H70" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I70" s="46"/>
+      <c r="I70" s="47"/>
       <c r="K70" s="1">
         <v>3</v>
       </c>
@@ -31424,7 +33599,7 @@
       <c r="M70" s="20">
         <v>0.97499999999999998</v>
       </c>
-      <c r="N70" s="46"/>
+      <c r="N70" s="47"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
@@ -31436,7 +33611,7 @@
       <c r="C71" s="20">
         <v>0.90600000000000003</v>
       </c>
-      <c r="D71" s="46"/>
+      <c r="D71" s="47"/>
       <c r="F71" s="1">
         <v>4</v>
       </c>
@@ -31446,7 +33621,7 @@
       <c r="H71" s="20">
         <v>0.96899999999999997</v>
       </c>
-      <c r="I71" s="46"/>
+      <c r="I71" s="47"/>
       <c r="K71" s="1">
         <v>4</v>
       </c>
@@ -31456,7 +33631,7 @@
       <c r="M71" s="20">
         <v>0.85199999999999998</v>
       </c>
-      <c r="N71" s="46"/>
+      <c r="N71" s="47"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
@@ -31468,7 +33643,7 @@
       <c r="C72" s="20">
         <v>0.92</v>
       </c>
-      <c r="D72" s="46"/>
+      <c r="D72" s="47"/>
       <c r="F72" s="1">
         <v>5</v>
       </c>
@@ -31478,7 +33653,7 @@
       <c r="H72" s="20">
         <v>0.96499999999999997</v>
       </c>
-      <c r="I72" s="46"/>
+      <c r="I72" s="47"/>
       <c r="K72" s="1">
         <v>5</v>
       </c>
@@ -31488,7 +33663,7 @@
       <c r="M72" s="20">
         <v>0.86899999999999999</v>
       </c>
-      <c r="N72" s="46"/>
+      <c r="N72" s="47"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
@@ -31500,7 +33675,7 @@
       <c r="C73" s="20">
         <v>0.96199999999999997</v>
       </c>
-      <c r="D73" s="46"/>
+      <c r="D73" s="47"/>
       <c r="F73" s="1">
         <v>6</v>
       </c>
@@ -31510,7 +33685,7 @@
       <c r="H73" s="20">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I73" s="46"/>
+      <c r="I73" s="47"/>
       <c r="K73" s="1">
         <v>6</v>
       </c>
@@ -31520,7 +33695,7 @@
       <c r="M73" s="20">
         <v>0.876</v>
       </c>
-      <c r="N73" s="46"/>
+      <c r="N73" s="47"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
@@ -31532,7 +33707,7 @@
       <c r="C74" s="20">
         <v>0.82199999999999995</v>
       </c>
-      <c r="D74" s="46"/>
+      <c r="D74" s="47"/>
       <c r="F74" s="1">
         <v>7</v>
       </c>
@@ -31542,7 +33717,7 @@
       <c r="H74" s="20">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I74" s="46"/>
+      <c r="I74" s="47"/>
       <c r="K74" s="1">
         <v>7</v>
       </c>
@@ -31552,7 +33727,7 @@
       <c r="M74" s="20">
         <v>0.89300000000000002</v>
       </c>
-      <c r="N74" s="46"/>
+      <c r="N74" s="47"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
@@ -31564,7 +33739,7 @@
       <c r="C75" s="20">
         <v>0.82399999999999995</v>
       </c>
-      <c r="D75" s="46"/>
+      <c r="D75" s="47"/>
       <c r="F75" s="1">
         <v>8</v>
       </c>
@@ -31574,7 +33749,7 @@
       <c r="H75" s="20">
         <v>0.91800000000000004</v>
       </c>
-      <c r="I75" s="46"/>
+      <c r="I75" s="47"/>
       <c r="K75" s="1">
         <v>8</v>
       </c>
@@ -31584,7 +33759,7 @@
       <c r="M75" s="20">
         <v>0.98799999999999999</v>
       </c>
-      <c r="N75" s="46"/>
+      <c r="N75" s="47"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
@@ -31596,7 +33771,7 @@
       <c r="C76" s="20">
         <v>0.92500000000000004</v>
       </c>
-      <c r="D76" s="46"/>
+      <c r="D76" s="47"/>
       <c r="F76" s="1">
         <v>9</v>
       </c>
@@ -31606,7 +33781,7 @@
       <c r="H76" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="I76" s="46"/>
+      <c r="I76" s="47"/>
       <c r="K76" s="1">
         <v>9</v>
       </c>
@@ -31616,7 +33791,7 @@
       <c r="M76" s="20">
         <v>0.89500000000000002</v>
       </c>
-      <c r="N76" s="46"/>
+      <c r="N76" s="47"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
@@ -31628,7 +33803,7 @@
       <c r="C77" s="20">
         <v>0.83199999999999996</v>
       </c>
-      <c r="D77" s="46"/>
+      <c r="D77" s="47"/>
       <c r="F77" s="1">
         <v>10</v>
       </c>
@@ -31638,7 +33813,7 @@
       <c r="H77" s="20">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I77" s="46"/>
+      <c r="I77" s="47"/>
       <c r="K77" s="1">
         <v>10</v>
       </c>
@@ -31648,7 +33823,7 @@
       <c r="M77" s="20">
         <v>0.98199999999999998</v>
       </c>
-      <c r="N77" s="46"/>
+      <c r="N77" s="47"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
@@ -31660,7 +33835,7 @@
       <c r="C78" s="20">
         <v>0.82899999999999996</v>
       </c>
-      <c r="D78" s="46"/>
+      <c r="D78" s="47"/>
       <c r="F78" s="1">
         <v>11</v>
       </c>
@@ -31670,7 +33845,7 @@
       <c r="H78" s="20">
         <v>0.94899999999999995</v>
       </c>
-      <c r="I78" s="46"/>
+      <c r="I78" s="47"/>
       <c r="K78" s="1">
         <v>11</v>
       </c>
@@ -31680,7 +33855,7 @@
       <c r="M78" s="20">
         <v>0.98099999999999998</v>
       </c>
-      <c r="N78" s="46"/>
+      <c r="N78" s="47"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -31692,7 +33867,7 @@
       <c r="C79" s="20">
         <v>0.95399999999999996</v>
       </c>
-      <c r="D79" s="46"/>
+      <c r="D79" s="47"/>
       <c r="F79" s="1">
         <v>12</v>
       </c>
@@ -31702,7 +33877,7 @@
       <c r="H79" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="I79" s="46"/>
+      <c r="I79" s="47"/>
       <c r="K79" s="1">
         <v>12</v>
       </c>
@@ -31712,7 +33887,7 @@
       <c r="M79" s="20">
         <v>0.95899999999999996</v>
       </c>
-      <c r="N79" s="46"/>
+      <c r="N79" s="47"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
@@ -31753,7 +33928,7 @@
       <c r="C99" s="20">
         <v>0.92200000000000004</v>
       </c>
-      <c r="D99" s="46" t="s">
+      <c r="D99" s="47" t="s">
         <v>26</v>
       </c>
       <c r="F99" s="1">
@@ -31765,7 +33940,7 @@
       <c r="H99" s="20">
         <v>0.874</v>
       </c>
-      <c r="I99" s="46" t="s">
+      <c r="I99" s="47" t="s">
         <v>27</v>
       </c>
       <c r="K99" s="1">
@@ -31777,7 +33952,7 @@
       <c r="M99" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="N99" s="46" t="s">
+      <c r="N99" s="47" t="s">
         <v>28</v>
       </c>
     </row>
@@ -31791,7 +33966,7 @@
       <c r="C100" s="20">
         <v>0.91600000000000004</v>
       </c>
-      <c r="D100" s="46"/>
+      <c r="D100" s="47"/>
       <c r="F100" s="1">
         <v>1</v>
       </c>
@@ -31801,7 +33976,7 @@
       <c r="H100" s="20">
         <v>0.89500000000000002</v>
       </c>
-      <c r="I100" s="46"/>
+      <c r="I100" s="47"/>
       <c r="K100" s="1">
         <v>1</v>
       </c>
@@ -31811,7 +33986,7 @@
       <c r="M100" s="20">
         <v>0.98499999999999999</v>
       </c>
-      <c r="N100" s="46"/>
+      <c r="N100" s="47"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
@@ -31823,7 +33998,7 @@
       <c r="C101" s="20">
         <v>0.89200000000000002</v>
       </c>
-      <c r="D101" s="46"/>
+      <c r="D101" s="47"/>
       <c r="F101" s="1">
         <v>2</v>
       </c>
@@ -31833,7 +34008,7 @@
       <c r="H101" s="20">
         <v>0.96299999999999997</v>
       </c>
-      <c r="I101" s="46"/>
+      <c r="I101" s="47"/>
       <c r="K101" s="1">
         <v>2</v>
       </c>
@@ -31843,7 +34018,7 @@
       <c r="M101" s="20">
         <v>0.96699999999999997</v>
       </c>
-      <c r="N101" s="46"/>
+      <c r="N101" s="47"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
@@ -31855,7 +34030,7 @@
       <c r="C102" s="20">
         <v>0.91</v>
       </c>
-      <c r="D102" s="46"/>
+      <c r="D102" s="47"/>
       <c r="F102" s="1">
         <v>3</v>
       </c>
@@ -31865,7 +34040,7 @@
       <c r="H102" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I102" s="46"/>
+      <c r="I102" s="47"/>
       <c r="K102" s="1">
         <v>3</v>
       </c>
@@ -31875,7 +34050,7 @@
       <c r="M102" s="20">
         <v>0.995</v>
       </c>
-      <c r="N102" s="46"/>
+      <c r="N102" s="47"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
@@ -31887,7 +34062,7 @@
       <c r="C103" s="20">
         <v>0.89800000000000002</v>
       </c>
-      <c r="D103" s="46"/>
+      <c r="D103" s="47"/>
       <c r="F103" s="1">
         <v>4</v>
       </c>
@@ -31897,7 +34072,7 @@
       <c r="H103" s="20">
         <v>0.98399999999999999</v>
       </c>
-      <c r="I103" s="46"/>
+      <c r="I103" s="47"/>
       <c r="K103" s="1">
         <v>4</v>
       </c>
@@ -31907,7 +34082,7 @@
       <c r="M103" s="20">
         <v>0.98699999999999999</v>
       </c>
-      <c r="N103" s="46"/>
+      <c r="N103" s="47"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
@@ -31919,7 +34094,7 @@
       <c r="C104" s="20">
         <v>0.88</v>
       </c>
-      <c r="D104" s="46"/>
+      <c r="D104" s="47"/>
       <c r="F104" s="1">
         <v>5</v>
       </c>
@@ -31929,7 +34104,7 @@
       <c r="H104" s="20">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I104" s="46"/>
+      <c r="I104" s="47"/>
       <c r="K104" s="1">
         <v>5</v>
       </c>
@@ -31939,7 +34114,7 @@
       <c r="M104" s="20">
         <v>0.996</v>
       </c>
-      <c r="N104" s="46"/>
+      <c r="N104" s="47"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
@@ -31951,7 +34126,7 @@
       <c r="C105" s="20">
         <v>0.90400000000000003</v>
       </c>
-      <c r="D105" s="46"/>
+      <c r="D105" s="47"/>
       <c r="F105" s="1">
         <v>6</v>
       </c>
@@ -31961,7 +34136,7 @@
       <c r="H105" s="20">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I105" s="46"/>
+      <c r="I105" s="47"/>
       <c r="K105" s="1">
         <v>6</v>
       </c>
@@ -31971,7 +34146,7 @@
       <c r="M105" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="N105" s="46"/>
+      <c r="N105" s="47"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
@@ -31983,7 +34158,7 @@
       <c r="C106" s="20">
         <v>0.96699999999999997</v>
       </c>
-      <c r="D106" s="46"/>
+      <c r="D106" s="47"/>
       <c r="F106" s="1">
         <v>7</v>
       </c>
@@ -31993,7 +34168,7 @@
       <c r="H106" s="20">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I106" s="46"/>
+      <c r="I106" s="47"/>
       <c r="K106" s="1">
         <v>7</v>
       </c>
@@ -32003,7 +34178,7 @@
       <c r="M106" s="20">
         <v>0.98899999999999999</v>
       </c>
-      <c r="N106" s="46"/>
+      <c r="N106" s="47"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
@@ -32015,7 +34190,7 @@
       <c r="C107" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="D107" s="46"/>
+      <c r="D107" s="47"/>
       <c r="F107" s="1">
         <v>8</v>
       </c>
@@ -32025,7 +34200,7 @@
       <c r="H107" s="20">
         <v>0.98899999999999999</v>
       </c>
-      <c r="I107" s="46"/>
+      <c r="I107" s="47"/>
       <c r="K107" s="1">
         <v>8</v>
       </c>
@@ -32035,7 +34210,7 @@
       <c r="M107" s="20">
         <v>0.96099999999999997</v>
       </c>
-      <c r="N107" s="46"/>
+      <c r="N107" s="47"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
@@ -32047,7 +34222,7 @@
       <c r="C108" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D108" s="46"/>
+      <c r="D108" s="47"/>
       <c r="F108" s="1">
         <v>9</v>
       </c>
@@ -32057,7 +34232,7 @@
       <c r="H108" s="20">
         <v>0.89900000000000002</v>
       </c>
-      <c r="I108" s="46"/>
+      <c r="I108" s="47"/>
       <c r="K108" s="1">
         <v>9</v>
       </c>
@@ -32067,7 +34242,7 @@
       <c r="M108" s="20">
         <v>0.96</v>
       </c>
-      <c r="N108" s="46"/>
+      <c r="N108" s="47"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
@@ -32079,7 +34254,7 @@
       <c r="C109" s="20">
         <v>0.97699999999999998</v>
       </c>
-      <c r="D109" s="46"/>
+      <c r="D109" s="47"/>
       <c r="F109" s="1">
         <v>10</v>
       </c>
@@ -32089,7 +34264,7 @@
       <c r="H109" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I109" s="46"/>
+      <c r="I109" s="47"/>
       <c r="K109" s="1">
         <v>10</v>
       </c>
@@ -32099,7 +34274,7 @@
       <c r="M109" s="20">
         <v>0.96399999999999997</v>
       </c>
-      <c r="N109" s="46"/>
+      <c r="N109" s="47"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
@@ -32111,7 +34286,7 @@
       <c r="C110" s="20">
         <v>0.97599999999999998</v>
       </c>
-      <c r="D110" s="46"/>
+      <c r="D110" s="47"/>
       <c r="F110" s="1">
         <v>11</v>
       </c>
@@ -32121,7 +34296,7 @@
       <c r="H110" s="20">
         <v>0.85599999999999998</v>
       </c>
-      <c r="I110" s="46"/>
+      <c r="I110" s="47"/>
       <c r="K110" s="1">
         <v>11</v>
       </c>
@@ -32131,7 +34306,7 @@
       <c r="M110" s="20">
         <v>0.96</v>
       </c>
-      <c r="N110" s="46"/>
+      <c r="N110" s="47"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
@@ -32143,7 +34318,7 @@
       <c r="C111" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="D111" s="46"/>
+      <c r="D111" s="47"/>
       <c r="F111" s="1">
         <v>12</v>
       </c>
@@ -32153,7 +34328,7 @@
       <c r="H111" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I111" s="46"/>
+      <c r="I111" s="47"/>
       <c r="K111" s="1">
         <v>12</v>
       </c>
@@ -32163,22 +34338,22 @@
       <c r="M111" s="20">
         <v>0.96599999999999997</v>
       </c>
-      <c r="N111" s="46"/>
+      <c r="N111" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D67:D79"/>
+    <mergeCell ref="I67:I79"/>
+    <mergeCell ref="N67:N79"/>
+    <mergeCell ref="D99:D111"/>
+    <mergeCell ref="I99:I111"/>
+    <mergeCell ref="N99:N111"/>
     <mergeCell ref="D2:D14"/>
     <mergeCell ref="I2:I14"/>
     <mergeCell ref="N2:N8"/>
     <mergeCell ref="D34:D46"/>
     <mergeCell ref="I34:I46"/>
     <mergeCell ref="N34:N46"/>
-    <mergeCell ref="D67:D79"/>
-    <mergeCell ref="I67:I79"/>
-    <mergeCell ref="N67:N79"/>
-    <mergeCell ref="D99:D111"/>
-    <mergeCell ref="I99:I111"/>
-    <mergeCell ref="N99:N111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -32189,7 +34364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD302C83-6A19-1746-8058-E37651EDB290}">
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
@@ -32237,7 +34412,7 @@
       <c r="C2" s="24">
         <v>0.66666700000000001</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="1">
@@ -32249,7 +34424,7 @@
       <c r="H2" s="24">
         <v>0.66666700000000001</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="47" t="s">
         <v>28</v>
       </c>
       <c r="L2" s="1">
@@ -32261,7 +34436,7 @@
       <c r="N2" s="24">
         <v>0.66666700000000001</v>
       </c>
-      <c r="O2" s="46" t="s">
+      <c r="O2" s="47" t="s">
         <v>17</v>
       </c>
     </row>
@@ -32275,7 +34450,7 @@
       <c r="C3" s="24">
         <v>0.65348499999999998</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="47"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -32285,7 +34460,7 @@
       <c r="H3" s="24">
         <v>0.27420099999999997</v>
       </c>
-      <c r="I3" s="46"/>
+      <c r="I3" s="47"/>
       <c r="L3" s="1">
         <v>1</v>
       </c>
@@ -32295,7 +34470,7 @@
       <c r="N3" s="24">
         <v>0.580538</v>
       </c>
-      <c r="O3" s="46"/>
+      <c r="O3" s="47"/>
     </row>
     <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -32307,7 +34482,7 @@
       <c r="C4" s="24">
         <v>0.66902099999999998</v>
       </c>
-      <c r="D4" s="46"/>
+      <c r="D4" s="47"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -32317,7 +34492,7 @@
       <c r="H4" s="24">
         <v>2.7483E-2</v>
       </c>
-      <c r="I4" s="46"/>
+      <c r="I4" s="47"/>
       <c r="L4" s="1">
         <v>2</v>
       </c>
@@ -32327,7 +34502,7 @@
       <c r="N4" s="24">
         <v>0.66517199999999999</v>
       </c>
-      <c r="O4" s="46"/>
+      <c r="O4" s="47"/>
     </row>
     <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -32339,7 +34514,7 @@
       <c r="C5" s="24">
         <v>0.70086899999999996</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="47"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -32349,7 +34524,7 @@
       <c r="H5" s="24">
         <v>0</v>
       </c>
-      <c r="I5" s="46"/>
+      <c r="I5" s="47"/>
       <c r="L5" s="1">
         <v>3</v>
       </c>
@@ -32359,7 +34534,7 @@
       <c r="N5" s="24">
         <v>0.70030700000000001</v>
       </c>
-      <c r="O5" s="46"/>
+      <c r="O5" s="47"/>
     </row>
     <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -32371,7 +34546,7 @@
       <c r="C6" s="24">
         <v>0.77109499999999997</v>
       </c>
-      <c r="D6" s="46"/>
+      <c r="D6" s="47"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -32381,7 +34556,7 @@
       <c r="H6" s="24">
         <v>0</v>
       </c>
-      <c r="I6" s="46"/>
+      <c r="I6" s="47"/>
       <c r="L6" s="1">
         <v>4</v>
       </c>
@@ -32391,7 +34566,7 @@
       <c r="N6" s="24">
         <v>0.719943</v>
       </c>
-      <c r="O6" s="46"/>
+      <c r="O6" s="47"/>
     </row>
     <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -32403,7 +34578,7 @@
       <c r="C7" s="24">
         <v>0.77710599999999996</v>
       </c>
-      <c r="D7" s="46"/>
+      <c r="D7" s="47"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -32413,7 +34588,7 @@
       <c r="H7" s="24">
         <v>0</v>
       </c>
-      <c r="I7" s="46"/>
+      <c r="I7" s="47"/>
       <c r="L7" s="1">
         <v>5</v>
       </c>
@@ -32423,7 +34598,7 @@
       <c r="N7" s="24">
         <v>0.73305900000000002</v>
       </c>
-      <c r="O7" s="46"/>
+      <c r="O7" s="47"/>
     </row>
     <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -32435,7 +34610,7 @@
       <c r="C8" s="24">
         <v>0.78310199999999996</v>
       </c>
-      <c r="D8" s="46"/>
+      <c r="D8" s="47"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -32445,7 +34620,7 @@
       <c r="H8" s="24">
         <v>0</v>
       </c>
-      <c r="I8" s="46"/>
+      <c r="I8" s="47"/>
       <c r="L8" s="1">
         <v>6</v>
       </c>
@@ -32455,7 +34630,7 @@
       <c r="N8" s="24">
         <v>0.76053599999999999</v>
       </c>
-      <c r="O8" s="46"/>
+      <c r="O8" s="47"/>
     </row>
     <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -32467,7 +34642,7 @@
       <c r="C9" s="24">
         <v>0.77618500000000001</v>
       </c>
-      <c r="D9" s="46"/>
+      <c r="D9" s="47"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -32477,7 +34652,7 @@
       <c r="H9" s="24">
         <v>0</v>
       </c>
-      <c r="I9" s="46"/>
+      <c r="I9" s="47"/>
       <c r="L9" s="1">
         <v>7</v>
       </c>
@@ -32487,7 +34662,7 @@
       <c r="N9" s="24">
         <v>0.79497499999999999</v>
       </c>
-      <c r="O9" s="46"/>
+      <c r="O9" s="47"/>
     </row>
     <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -32499,7 +34674,7 @@
       <c r="C10" s="24">
         <v>0.77377200000000002</v>
       </c>
-      <c r="D10" s="46"/>
+      <c r="D10" s="47"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -32509,7 +34684,7 @@
       <c r="H10" s="24">
         <v>0.70416000000000001</v>
       </c>
-      <c r="I10" s="46"/>
+      <c r="I10" s="47"/>
       <c r="L10" s="1">
         <v>8</v>
       </c>
@@ -32519,7 +34694,7 @@
       <c r="N10" s="24">
         <v>0.80194399999999999</v>
       </c>
-      <c r="O10" s="46"/>
+      <c r="O10" s="47"/>
     </row>
     <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -32531,7 +34706,7 @@
       <c r="C11" s="24">
         <v>0.76970400000000005</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="47"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -32541,7 +34716,7 @@
       <c r="H11" s="24">
         <v>0.68451700000000004</v>
       </c>
-      <c r="I11" s="46"/>
+      <c r="I11" s="47"/>
       <c r="L11" s="1">
         <v>9</v>
       </c>
@@ -32551,7 +34726,7 @@
       <c r="N11" s="24">
         <v>0.79460600000000003</v>
       </c>
-      <c r="O11" s="46"/>
+      <c r="O11" s="47"/>
     </row>
     <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -32563,7 +34738,7 @@
       <c r="C12" s="24">
         <v>0.76261299999999999</v>
       </c>
-      <c r="D12" s="46"/>
+      <c r="D12" s="47"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -32573,7 +34748,7 @@
       <c r="H12" s="24">
         <v>0.46307300000000001</v>
       </c>
-      <c r="I12" s="46"/>
+      <c r="I12" s="47"/>
       <c r="L12" s="1">
         <v>10</v>
       </c>
@@ -32583,7 +34758,7 @@
       <c r="N12" s="24">
         <v>0.80569400000000002</v>
       </c>
-      <c r="O12" s="46"/>
+      <c r="O12" s="47"/>
     </row>
     <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -32595,7 +34770,7 @@
       <c r="C13" s="24">
         <v>0.80696299999999999</v>
       </c>
-      <c r="D13" s="46"/>
+      <c r="D13" s="47"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -32605,7 +34780,7 @@
       <c r="H13" s="24">
         <v>0.77209799999999995</v>
       </c>
-      <c r="I13" s="46"/>
+      <c r="I13" s="47"/>
       <c r="L13" s="1">
         <v>11</v>
       </c>
@@ -32615,7 +34790,7 @@
       <c r="N13" s="24">
         <v>0.81855800000000001</v>
       </c>
-      <c r="O13" s="46"/>
+      <c r="O13" s="47"/>
     </row>
     <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -32627,7 +34802,7 @@
       <c r="C14" s="24">
         <v>0.80464199999999997</v>
       </c>
-      <c r="D14" s="46"/>
+      <c r="D14" s="47"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -32637,7 +34812,7 @@
       <c r="H14" s="24">
         <v>0.82798700000000003</v>
       </c>
-      <c r="I14" s="46"/>
+      <c r="I14" s="47"/>
       <c r="L14" s="1">
         <v>12</v>
       </c>
@@ -32647,7 +34822,7 @@
       <c r="N14" s="24">
         <v>0.80542800000000003</v>
       </c>
-      <c r="O14" s="46"/>
+      <c r="O14" s="47"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="31" t="s">
@@ -32688,7 +34863,7 @@
       <c r="C37" s="24">
         <v>0</v>
       </c>
-      <c r="D37" s="46" t="s">
+      <c r="D37" s="47" t="s">
         <v>16</v>
       </c>
       <c r="F37" s="31">
@@ -32700,7 +34875,7 @@
       <c r="H37" s="24">
         <v>0</v>
       </c>
-      <c r="I37" s="46" t="s">
+      <c r="I37" s="47" t="s">
         <v>26</v>
       </c>
       <c r="K37" s="31">
@@ -32712,7 +34887,7 @@
       <c r="M37" s="24">
         <v>0</v>
       </c>
-      <c r="N37" s="46" t="s">
+      <c r="N37" s="47" t="s">
         <v>27</v>
       </c>
     </row>
@@ -32726,7 +34901,7 @@
       <c r="C38" s="24">
         <v>0.66893400000000003</v>
       </c>
-      <c r="D38" s="46"/>
+      <c r="D38" s="47"/>
       <c r="F38" s="31">
         <v>1</v>
       </c>
@@ -32736,7 +34911,7 @@
       <c r="H38" s="24">
         <v>0.73725099999999999</v>
       </c>
-      <c r="I38" s="46"/>
+      <c r="I38" s="47"/>
       <c r="K38" s="31">
         <v>1</v>
       </c>
@@ -32746,7 +34921,7 @@
       <c r="M38" s="24">
         <v>0.760988</v>
       </c>
-      <c r="N38" s="46"/>
+      <c r="N38" s="47"/>
     </row>
     <row r="39" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A39" s="31">
@@ -32758,7 +34933,7 @@
       <c r="C39" s="24">
         <v>0.70960599999999996</v>
       </c>
-      <c r="D39" s="46"/>
+      <c r="D39" s="47"/>
       <c r="F39" s="31">
         <v>2</v>
       </c>
@@ -32768,7 +34943,7 @@
       <c r="H39" s="24">
         <v>0.78292700000000004</v>
       </c>
-      <c r="I39" s="46"/>
+      <c r="I39" s="47"/>
       <c r="K39" s="31">
         <v>2</v>
       </c>
@@ -32778,7 +34953,7 @@
       <c r="M39" s="24">
         <v>0.68244000000000005</v>
       </c>
-      <c r="N39" s="46"/>
+      <c r="N39" s="47"/>
     </row>
     <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A40" s="31">
@@ -32790,7 +34965,7 @@
       <c r="C40" s="24">
         <v>0.71426400000000001</v>
       </c>
-      <c r="D40" s="46"/>
+      <c r="D40" s="47"/>
       <c r="F40" s="31">
         <v>3</v>
       </c>
@@ -32800,7 +34975,7 @@
       <c r="H40" s="24">
         <v>0.78676100000000004</v>
       </c>
-      <c r="I40" s="46"/>
+      <c r="I40" s="47"/>
       <c r="K40" s="31">
         <v>3</v>
       </c>
@@ -32810,7 +34985,7 @@
       <c r="M40" s="24">
         <v>0.63009599999999999</v>
       </c>
-      <c r="N40" s="46"/>
+      <c r="N40" s="47"/>
     </row>
     <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A41" s="31">
@@ -32822,7 +34997,7 @@
       <c r="C41" s="24">
         <v>0.71233500000000005</v>
       </c>
-      <c r="D41" s="46"/>
+      <c r="D41" s="47"/>
       <c r="F41" s="31">
         <v>4</v>
       </c>
@@ -32832,7 +35007,7 @@
       <c r="H41" s="24">
         <v>0.79497300000000004</v>
       </c>
-      <c r="I41" s="46"/>
+      <c r="I41" s="47"/>
       <c r="K41" s="31">
         <v>4</v>
       </c>
@@ -32842,7 +35017,7 @@
       <c r="M41" s="24">
         <v>0.602321</v>
       </c>
-      <c r="N41" s="46"/>
+      <c r="N41" s="47"/>
     </row>
     <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A42" s="31">
@@ -32854,7 +35029,7 @@
       <c r="C42" s="24">
         <v>0.69982599999999995</v>
       </c>
-      <c r="D42" s="46"/>
+      <c r="D42" s="47"/>
       <c r="F42" s="31">
         <v>5</v>
       </c>
@@ -32864,7 +35039,7 @@
       <c r="H42" s="24">
         <v>0.80255600000000005</v>
       </c>
-      <c r="I42" s="46"/>
+      <c r="I42" s="47"/>
       <c r="K42" s="31">
         <v>5</v>
       </c>
@@ -32874,7 +35049,7 @@
       <c r="M42" s="24">
         <v>0.51061299999999998</v>
       </c>
-      <c r="N42" s="46"/>
+      <c r="N42" s="47"/>
     </row>
     <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A43" s="31">
@@ -32886,7 +35061,7 @@
       <c r="C43" s="24">
         <v>0.68592900000000001</v>
       </c>
-      <c r="D43" s="46"/>
+      <c r="D43" s="47"/>
       <c r="F43" s="31">
         <v>6</v>
       </c>
@@ -32896,7 +35071,7 @@
       <c r="H43" s="24">
         <v>0.81109799999999999</v>
       </c>
-      <c r="I43" s="46"/>
+      <c r="I43" s="47"/>
       <c r="K43" s="31">
         <v>6</v>
       </c>
@@ -32906,7 +35081,7 @@
       <c r="M43" s="24">
         <v>0.83428199999999997</v>
       </c>
-      <c r="N43" s="46"/>
+      <c r="N43" s="47"/>
     </row>
     <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A44" s="31">
@@ -32918,7 +35093,7 @@
       <c r="C44" s="24">
         <v>0.703457</v>
       </c>
-      <c r="D44" s="46"/>
+      <c r="D44" s="47"/>
       <c r="F44" s="31">
         <v>7</v>
       </c>
@@ -32928,7 +35103,7 @@
       <c r="H44" s="24">
         <v>0.81226100000000001</v>
       </c>
-      <c r="I44" s="46"/>
+      <c r="I44" s="47"/>
       <c r="K44" s="31">
         <v>7</v>
       </c>
@@ -32938,7 +35113,7 @@
       <c r="M44" s="24">
         <v>0.73528800000000005</v>
       </c>
-      <c r="N44" s="46"/>
+      <c r="N44" s="47"/>
     </row>
     <row r="45" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A45" s="31">
@@ -32950,7 +35125,7 @@
       <c r="C45" s="24">
         <v>0.70218199999999997</v>
       </c>
-      <c r="D45" s="46"/>
+      <c r="D45" s="47"/>
       <c r="F45" s="31">
         <v>8</v>
       </c>
@@ -32960,7 +35135,7 @@
       <c r="H45" s="24">
         <v>0.83114600000000005</v>
       </c>
-      <c r="I45" s="46"/>
+      <c r="I45" s="47"/>
       <c r="K45" s="31">
         <v>8</v>
       </c>
@@ -32970,7 +35145,7 @@
       <c r="M45" s="24">
         <v>0.73614999999999997</v>
       </c>
-      <c r="N45" s="46"/>
+      <c r="N45" s="47"/>
     </row>
     <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A46" s="31">
@@ -32982,7 +35157,7 @@
       <c r="C46" s="24">
         <v>0.70156200000000002</v>
       </c>
-      <c r="D46" s="46"/>
+      <c r="D46" s="47"/>
       <c r="F46" s="31">
         <v>9</v>
       </c>
@@ -32992,7 +35167,7 @@
       <c r="H46" s="24">
         <v>0.83831100000000003</v>
       </c>
-      <c r="I46" s="46"/>
+      <c r="I46" s="47"/>
       <c r="K46" s="31">
         <v>9</v>
       </c>
@@ -33002,7 +35177,7 @@
       <c r="M46" s="24">
         <v>0.77739499999999995</v>
       </c>
-      <c r="N46" s="46"/>
+      <c r="N46" s="47"/>
     </row>
     <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A47" s="31">
@@ -33014,7 +35189,7 @@
       <c r="C47" s="24">
         <v>0.70720899999999998</v>
       </c>
-      <c r="D47" s="46"/>
+      <c r="D47" s="47"/>
       <c r="F47" s="31">
         <v>10</v>
       </c>
@@ -33024,7 +35199,7 @@
       <c r="H47" s="24">
         <v>0.84065400000000001</v>
       </c>
-      <c r="I47" s="46"/>
+      <c r="I47" s="47"/>
       <c r="K47" s="31">
         <v>10</v>
       </c>
@@ -33034,7 +35209,7 @@
       <c r="M47" s="24">
         <v>0.77222100000000005</v>
       </c>
-      <c r="N47" s="46"/>
+      <c r="N47" s="47"/>
     </row>
     <row r="48" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A48" s="31">
@@ -33046,7 +35221,7 @@
       <c r="C48" s="24">
         <v>0.71660900000000005</v>
       </c>
-      <c r="D48" s="46"/>
+      <c r="D48" s="47"/>
       <c r="F48" s="31">
         <v>11</v>
       </c>
@@ -33056,7 +35231,7 @@
       <c r="H48" s="24">
         <v>0.82713000000000003</v>
       </c>
-      <c r="I48" s="46"/>
+      <c r="I48" s="47"/>
       <c r="K48" s="31">
         <v>11</v>
       </c>
@@ -33066,7 +35241,7 @@
       <c r="M48" s="24">
         <v>0.73933599999999999</v>
       </c>
-      <c r="N48" s="46"/>
+      <c r="N48" s="47"/>
     </row>
     <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A49" s="31">
@@ -33078,7 +35253,7 @@
       <c r="C49" s="24">
         <v>0.722522</v>
       </c>
-      <c r="D49" s="46"/>
+      <c r="D49" s="47"/>
       <c r="F49" s="31">
         <v>12</v>
       </c>
@@ -33088,7 +35263,7 @@
       <c r="H49" s="24">
         <v>0.80716100000000002</v>
       </c>
-      <c r="I49" s="46"/>
+      <c r="I49" s="47"/>
       <c r="K49" s="31">
         <v>12</v>
       </c>
@@ -33098,7 +35273,7 @@
       <c r="M49" s="24">
         <v>0.814998</v>
       </c>
-      <c r="N49" s="46"/>
+      <c r="N49" s="47"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="31"/>
@@ -33109,79 +35284,79 @@
       <c r="A67" s="31"/>
       <c r="B67" s="24"/>
       <c r="C67" s="24"/>
-      <c r="D67" s="46"/>
+      <c r="D67" s="47"/>
     </row>
     <row r="68" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A68" s="31"/>
       <c r="B68" s="24"/>
       <c r="C68" s="24"/>
-      <c r="D68" s="46"/>
+      <c r="D68" s="47"/>
     </row>
     <row r="69" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A69" s="31"/>
       <c r="B69" s="24"/>
       <c r="C69" s="24"/>
-      <c r="D69" s="46"/>
+      <c r="D69" s="47"/>
     </row>
     <row r="70" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A70" s="31"/>
       <c r="B70" s="24"/>
       <c r="C70" s="24"/>
-      <c r="D70" s="46"/>
+      <c r="D70" s="47"/>
     </row>
     <row r="71" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A71" s="31"/>
       <c r="B71" s="24"/>
       <c r="C71" s="24"/>
-      <c r="D71" s="46"/>
+      <c r="D71" s="47"/>
     </row>
     <row r="72" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A72" s="31"/>
       <c r="B72" s="24"/>
       <c r="C72" s="24"/>
-      <c r="D72" s="46"/>
+      <c r="D72" s="47"/>
     </row>
     <row r="73" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A73" s="31"/>
       <c r="B73" s="24"/>
       <c r="C73" s="24"/>
-      <c r="D73" s="46"/>
+      <c r="D73" s="47"/>
     </row>
     <row r="74" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A74" s="31"/>
       <c r="B74" s="24"/>
       <c r="C74" s="24"/>
-      <c r="D74" s="46"/>
+      <c r="D74" s="47"/>
     </row>
     <row r="75" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A75" s="31"/>
       <c r="B75" s="24"/>
       <c r="C75" s="24"/>
-      <c r="D75" s="46"/>
+      <c r="D75" s="47"/>
     </row>
     <row r="76" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A76" s="31"/>
       <c r="B76" s="24"/>
       <c r="C76" s="24"/>
-      <c r="D76" s="46"/>
+      <c r="D76" s="47"/>
     </row>
     <row r="77" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A77" s="31"/>
       <c r="B77" s="24"/>
       <c r="C77" s="24"/>
-      <c r="D77" s="46"/>
+      <c r="D77" s="47"/>
     </row>
     <row r="78" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A78" s="31"/>
       <c r="B78" s="24"/>
       <c r="C78" s="24"/>
-      <c r="D78" s="46"/>
+      <c r="D78" s="47"/>
     </row>
     <row r="79" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A79" s="31"/>
       <c r="B79" s="24"/>
       <c r="C79" s="24"/>
-      <c r="D79" s="46"/>
+      <c r="D79" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -33251,7 +35426,7 @@
       <c r="C2" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="1">
@@ -33263,7 +35438,7 @@
       <c r="H2" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="47" t="s">
         <v>28</v>
       </c>
       <c r="K2" s="1">
@@ -33275,7 +35450,7 @@
       <c r="M2" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N2" s="46" t="s">
+      <c r="N2" s="47" t="s">
         <v>25</v>
       </c>
     </row>
@@ -33289,7 +35464,7 @@
       <c r="C3" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="47"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -33299,7 +35474,7 @@
       <c r="H3" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I3" s="46"/>
+      <c r="I3" s="47"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
@@ -33309,7 +35484,7 @@
       <c r="M3" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N3" s="46"/>
+      <c r="N3" s="47"/>
     </row>
     <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -33321,7 +35496,7 @@
       <c r="C4" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D4" s="46"/>
+      <c r="D4" s="47"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -33331,7 +35506,7 @@
       <c r="H4" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I4" s="46"/>
+      <c r="I4" s="47"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
@@ -33341,7 +35516,7 @@
       <c r="M4" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N4" s="46"/>
+      <c r="N4" s="47"/>
     </row>
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -33353,7 +35528,7 @@
       <c r="C5" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="47"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -33363,7 +35538,7 @@
       <c r="H5" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I5" s="46"/>
+      <c r="I5" s="47"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
@@ -33373,7 +35548,7 @@
       <c r="M5" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N5" s="46"/>
+      <c r="N5" s="47"/>
     </row>
     <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -33385,7 +35560,7 @@
       <c r="C6" s="24">
         <v>0.480132</v>
       </c>
-      <c r="D6" s="46"/>
+      <c r="D6" s="47"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -33395,7 +35570,7 @@
       <c r="H6" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I6" s="46"/>
+      <c r="I6" s="47"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
@@ -33405,7 +35580,7 @@
       <c r="M6" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N6" s="46"/>
+      <c r="N6" s="47"/>
     </row>
     <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -33417,7 +35592,7 @@
       <c r="C7" s="24">
         <v>0.46854299999999999</v>
       </c>
-      <c r="D7" s="46"/>
+      <c r="D7" s="47"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -33427,7 +35602,7 @@
       <c r="H7" s="24">
         <v>0.480132</v>
       </c>
-      <c r="I7" s="46"/>
+      <c r="I7" s="47"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
@@ -33437,7 +35612,7 @@
       <c r="M7" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N7" s="46"/>
+      <c r="N7" s="47"/>
     </row>
     <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -33449,7 +35624,7 @@
       <c r="C8" s="24">
         <v>0.47682099999999999</v>
       </c>
-      <c r="D8" s="46"/>
+      <c r="D8" s="47"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -33459,7 +35634,7 @@
       <c r="H8" s="24">
         <v>0.49337700000000001</v>
       </c>
-      <c r="I8" s="46"/>
+      <c r="I8" s="47"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
@@ -33469,7 +35644,7 @@
       <c r="M8" s="24">
         <v>0.48344399999999998</v>
       </c>
-      <c r="N8" s="46"/>
+      <c r="N8" s="47"/>
     </row>
     <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -33481,7 +35656,7 @@
       <c r="C9" s="24">
         <v>0.480132</v>
       </c>
-      <c r="D9" s="46"/>
+      <c r="D9" s="47"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -33491,7 +35666,7 @@
       <c r="H9" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I9" s="46"/>
+      <c r="I9" s="47"/>
       <c r="K9" s="1">
         <v>7</v>
       </c>
@@ -33501,7 +35676,7 @@
       <c r="M9" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N9" s="46"/>
+      <c r="N9" s="47"/>
     </row>
     <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -33513,7 +35688,7 @@
       <c r="C10" s="24">
         <v>0.480132</v>
       </c>
-      <c r="D10" s="46"/>
+      <c r="D10" s="47"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -33523,7 +35698,7 @@
       <c r="H10" s="24">
         <v>0.480132</v>
       </c>
-      <c r="I10" s="46"/>
+      <c r="I10" s="47"/>
       <c r="K10" s="1">
         <v>8</v>
       </c>
@@ -33533,7 +35708,7 @@
       <c r="M10" s="24">
         <v>0.47847699999999999</v>
       </c>
-      <c r="N10" s="46"/>
+      <c r="N10" s="47"/>
     </row>
     <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -33545,7 +35720,7 @@
       <c r="C11" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="47"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -33555,7 +35730,7 @@
       <c r="H11" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I11" s="46"/>
+      <c r="I11" s="47"/>
       <c r="K11" s="1">
         <v>9</v>
       </c>
@@ -33565,7 +35740,7 @@
       <c r="M11" s="24">
         <v>0.47682099999999999</v>
       </c>
-      <c r="N11" s="46"/>
+      <c r="N11" s="47"/>
     </row>
     <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -33577,7 +35752,7 @@
       <c r="C12" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D12" s="46"/>
+      <c r="D12" s="47"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -33587,7 +35762,7 @@
       <c r="H12" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I12" s="46"/>
+      <c r="I12" s="47"/>
       <c r="K12" s="1">
         <v>10</v>
       </c>
@@ -33597,7 +35772,7 @@
       <c r="M12" s="24">
         <v>0.47682099999999999</v>
       </c>
-      <c r="N12" s="46"/>
+      <c r="N12" s="47"/>
     </row>
     <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -33609,7 +35784,7 @@
       <c r="C13" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D13" s="46"/>
+      <c r="D13" s="47"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -33619,7 +35794,7 @@
       <c r="H13" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I13" s="46"/>
+      <c r="I13" s="47"/>
       <c r="K13" s="1">
         <v>11</v>
       </c>
@@ -33629,7 +35804,7 @@
       <c r="M13" s="24">
         <v>0.52152299999999996</v>
       </c>
-      <c r="N13" s="46"/>
+      <c r="N13" s="47"/>
     </row>
     <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -33641,7 +35816,7 @@
       <c r="C14" s="24">
         <v>0.47516599999999998</v>
       </c>
-      <c r="D14" s="46"/>
+      <c r="D14" s="47"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -33651,7 +35826,7 @@
       <c r="H14" s="24">
         <v>0.48675499999999999</v>
       </c>
-      <c r="I14" s="46"/>
+      <c r="I14" s="47"/>
       <c r="K14" s="1">
         <v>12</v>
       </c>
@@ -33661,7 +35836,7 @@
       <c r="M14" s="24">
         <v>0.50331099999999995</v>
       </c>
-      <c r="N14" s="46"/>
+      <c r="N14" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -33676,10 +35851,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586CC5E8-52EF-824B-9F99-84A3E832E106}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -33723,7 +35898,7 @@
       <c r="C2" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="1">
@@ -33735,7 +35910,7 @@
       <c r="H2" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="47" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="1">
@@ -33747,7 +35922,7 @@
       <c r="M2" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N2" s="46" t="s">
+      <c r="N2" s="47" t="s">
         <v>28</v>
       </c>
     </row>
@@ -33761,7 +35936,7 @@
       <c r="C3" s="24">
         <v>0.569546</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="47"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -33771,7 +35946,7 @@
       <c r="H3" s="24">
         <v>0.56991199999999997</v>
       </c>
-      <c r="I3" s="46"/>
+      <c r="I3" s="47"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
@@ -33781,7 +35956,7 @@
       <c r="M3" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N3" s="46"/>
+      <c r="N3" s="47"/>
     </row>
     <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -33793,7 +35968,7 @@
       <c r="C4" s="24">
         <v>0.567716</v>
       </c>
-      <c r="D4" s="46"/>
+      <c r="D4" s="47"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -33803,7 +35978,7 @@
       <c r="H4" s="24">
         <v>0.56881400000000004</v>
       </c>
-      <c r="I4" s="46"/>
+      <c r="I4" s="47"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
@@ -33813,7 +35988,7 @@
       <c r="M4" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N4" s="46"/>
+      <c r="N4" s="47"/>
     </row>
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -33825,7 +36000,7 @@
       <c r="C5" s="24">
         <v>0.58894599999999997</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="47"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -33835,7 +36010,7 @@
       <c r="H5" s="24">
         <v>0.58308899999999997</v>
       </c>
-      <c r="I5" s="46"/>
+      <c r="I5" s="47"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
@@ -33845,7 +36020,7 @@
       <c r="M5" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N5" s="46"/>
+      <c r="N5" s="47"/>
     </row>
     <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -33857,7 +36032,7 @@
       <c r="C6" s="24">
         <v>0.60175699999999999</v>
       </c>
-      <c r="D6" s="46"/>
+      <c r="D6" s="47"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -33867,7 +36042,7 @@
       <c r="H6" s="24">
         <v>0.60651500000000003</v>
       </c>
-      <c r="I6" s="46"/>
+      <c r="I6" s="47"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
@@ -33877,7 +36052,7 @@
       <c r="M6" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N6" s="46"/>
+      <c r="N6" s="47"/>
     </row>
     <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -33889,7 +36064,7 @@
       <c r="C7" s="24">
         <v>0.61712999999999996</v>
       </c>
-      <c r="D7" s="46"/>
+      <c r="D7" s="47"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -33899,7 +36074,7 @@
       <c r="H7" s="24">
         <v>0.61786200000000002</v>
       </c>
-      <c r="I7" s="46"/>
+      <c r="I7" s="47"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
@@ -33909,7 +36084,7 @@
       <c r="M7" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N7" s="46"/>
+      <c r="N7" s="47"/>
     </row>
     <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -33921,7 +36096,7 @@
       <c r="C8" s="24">
         <v>0.620425</v>
       </c>
-      <c r="D8" s="46"/>
+      <c r="D8" s="47"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -33931,7 +36106,7 @@
       <c r="H8" s="24">
         <v>0.61090800000000001</v>
       </c>
-      <c r="I8" s="46"/>
+      <c r="I8" s="47"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
@@ -33941,7 +36116,7 @@
       <c r="M8" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N8" s="46"/>
+      <c r="N8" s="47"/>
     </row>
     <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -33953,7 +36128,7 @@
       <c r="C9" s="24">
         <v>0.633602</v>
       </c>
-      <c r="D9" s="46"/>
+      <c r="D9" s="47"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -33963,7 +36138,7 @@
       <c r="H9" s="24">
         <v>0.61786200000000002</v>
       </c>
-      <c r="I9" s="46"/>
+      <c r="I9" s="47"/>
       <c r="K9" s="1">
         <v>7</v>
       </c>
@@ -33973,7 +36148,7 @@
       <c r="M9" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N9" s="46"/>
+      <c r="N9" s="47"/>
     </row>
     <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -33985,7 +36160,7 @@
       <c r="C10" s="24">
         <v>0.62847699999999995</v>
       </c>
-      <c r="D10" s="46"/>
+      <c r="D10" s="47"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -33995,7 +36170,7 @@
       <c r="H10" s="24">
         <v>0.620425</v>
       </c>
-      <c r="I10" s="46"/>
+      <c r="I10" s="47"/>
       <c r="K10" s="1">
         <v>8</v>
       </c>
@@ -34005,7 +36180,7 @@
       <c r="M10" s="24">
         <v>0.57906299999999999</v>
       </c>
-      <c r="N10" s="46"/>
+      <c r="N10" s="47"/>
     </row>
     <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -34017,7 +36192,7 @@
       <c r="C11" s="24">
         <v>0.62664699999999995</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="47"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -34027,7 +36202,7 @@
       <c r="H11" s="24">
         <v>0.61712999999999996</v>
       </c>
-      <c r="I11" s="46"/>
+      <c r="I11" s="47"/>
       <c r="K11" s="1">
         <v>9</v>
       </c>
@@ -34037,7 +36212,7 @@
       <c r="M11" s="24">
         <v>0.58491899999999997</v>
       </c>
-      <c r="N11" s="46"/>
+      <c r="N11" s="47"/>
     </row>
     <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -34049,7 +36224,7 @@
       <c r="C12" s="24">
         <v>0.63250399999999996</v>
       </c>
-      <c r="D12" s="46"/>
+      <c r="D12" s="47"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -34059,7 +36234,7 @@
       <c r="H12" s="24">
         <v>0.62005900000000003</v>
       </c>
-      <c r="I12" s="46"/>
+      <c r="I12" s="47"/>
       <c r="K12" s="1">
         <v>10</v>
       </c>
@@ -34069,7 +36244,7 @@
       <c r="M12" s="24">
         <v>0.59553400000000001</v>
       </c>
-      <c r="N12" s="46"/>
+      <c r="N12" s="47"/>
     </row>
     <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -34081,7 +36256,7 @@
       <c r="C13" s="24">
         <v>0.63689600000000002</v>
       </c>
-      <c r="D13" s="46"/>
+      <c r="D13" s="47"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -34091,7 +36266,7 @@
       <c r="H13" s="24">
         <v>0.62884300000000004</v>
       </c>
-      <c r="I13" s="46"/>
+      <c r="I13" s="47"/>
       <c r="K13" s="1">
         <v>11</v>
       </c>
@@ -34101,7 +36276,7 @@
       <c r="M13" s="24">
         <v>0.64055600000000001</v>
       </c>
-      <c r="N13" s="46"/>
+      <c r="N13" s="47"/>
     </row>
     <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -34113,7 +36288,7 @@
       <c r="C14" s="24">
         <v>0.64019000000000004</v>
       </c>
-      <c r="D14" s="46"/>
+      <c r="D14" s="47"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -34123,7 +36298,7 @@
       <c r="H14" s="24">
         <v>0.63872600000000002</v>
       </c>
-      <c r="I14" s="46"/>
+      <c r="I14" s="47"/>
       <c r="K14" s="1">
         <v>12</v>
       </c>
@@ -34133,13 +36308,325 @@
       <c r="M14" s="24">
         <v>0.66800899999999996</v>
       </c>
-      <c r="N14" s="46"/>
+      <c r="N14" s="47"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="A32" s="42">
+        <v>0</v>
+      </c>
+      <c r="B32" s="24">
+        <v>0.56552000000000002</v>
+      </c>
+      <c r="C32" s="24">
+        <v>0.56552000000000002</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="42">
+        <v>0</v>
+      </c>
+      <c r="G32" s="24">
+        <v>0.56552000000000002</v>
+      </c>
+      <c r="H32" s="24">
+        <v>0.56552000000000002</v>
+      </c>
+      <c r="I32" s="47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="A33" s="42">
+        <v>1</v>
+      </c>
+      <c r="B33" s="24">
+        <v>0.57064400000000004</v>
+      </c>
+      <c r="C33" s="24">
+        <v>0.56844799999999995</v>
+      </c>
+      <c r="D33" s="47"/>
+      <c r="F33" s="42">
+        <v>1</v>
+      </c>
+      <c r="G33" s="24">
+        <v>0.55234300000000003</v>
+      </c>
+      <c r="H33" s="24">
+        <v>0.53916500000000001</v>
+      </c>
+      <c r="I33" s="47"/>
+    </row>
+    <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="A34" s="42">
+        <v>2</v>
+      </c>
+      <c r="B34" s="24">
+        <v>0.58382100000000003</v>
+      </c>
+      <c r="C34" s="24">
+        <v>0.57796499999999995</v>
+      </c>
+      <c r="D34" s="47"/>
+      <c r="F34" s="42">
+        <v>2</v>
+      </c>
+      <c r="G34" s="24">
+        <v>0.58235700000000001</v>
+      </c>
+      <c r="H34" s="24">
+        <v>0.53074699999999997</v>
+      </c>
+      <c r="I34" s="47"/>
+    </row>
+    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="A35" s="42">
+        <v>3</v>
+      </c>
+      <c r="B35" s="24">
+        <v>0.60029299999999997</v>
+      </c>
+      <c r="C35" s="24">
+        <v>0.59516800000000003</v>
+      </c>
+      <c r="D35" s="47"/>
+      <c r="F35" s="42">
+        <v>3</v>
+      </c>
+      <c r="G35" s="24">
+        <v>0.57796499999999995</v>
+      </c>
+      <c r="H35" s="24">
+        <v>0.554539</v>
+      </c>
+      <c r="I35" s="47"/>
+    </row>
+    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="A36" s="42">
+        <v>4</v>
+      </c>
+      <c r="B36" s="24">
+        <v>0.60065900000000005</v>
+      </c>
+      <c r="C36" s="24">
+        <v>0.58565199999999995</v>
+      </c>
+      <c r="D36" s="47"/>
+      <c r="F36" s="42">
+        <v>4</v>
+      </c>
+      <c r="G36" s="24">
+        <v>0.56039499999999998</v>
+      </c>
+      <c r="H36" s="24">
+        <v>0.439971</v>
+      </c>
+      <c r="I36" s="47"/>
+    </row>
+    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="A37" s="42">
+        <v>5</v>
+      </c>
+      <c r="B37" s="24">
+        <v>0.61127399999999998</v>
+      </c>
+      <c r="C37" s="24">
+        <v>0.59882899999999994</v>
+      </c>
+      <c r="D37" s="47"/>
+      <c r="F37" s="42">
+        <v>5</v>
+      </c>
+      <c r="G37" s="24">
+        <v>0.56698400000000004</v>
+      </c>
+      <c r="H37" s="24">
+        <v>0.43447999999999998</v>
+      </c>
+      <c r="I37" s="47"/>
+    </row>
+    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="A38" s="42">
+        <v>6</v>
+      </c>
+      <c r="B38" s="24">
+        <v>0.60980999999999996</v>
+      </c>
+      <c r="C38" s="24">
+        <v>0.59626599999999996</v>
+      </c>
+      <c r="D38" s="47"/>
+      <c r="F38" s="42">
+        <v>6</v>
+      </c>
+      <c r="G38" s="24">
+        <v>0.58674999999999999</v>
+      </c>
+      <c r="H38" s="24">
+        <v>0.43447999999999998</v>
+      </c>
+      <c r="I38" s="47"/>
+    </row>
+    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="A39" s="42">
+        <v>7</v>
+      </c>
+      <c r="B39" s="24">
+        <v>0.62335300000000005</v>
+      </c>
+      <c r="C39" s="24">
+        <v>0.59370400000000001</v>
+      </c>
+      <c r="D39" s="47"/>
+      <c r="F39" s="42">
+        <v>7</v>
+      </c>
+      <c r="G39" s="24">
+        <v>0.571376</v>
+      </c>
+      <c r="H39" s="24">
+        <v>0.58345499999999995</v>
+      </c>
+      <c r="I39" s="47"/>
+    </row>
+    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="A40" s="42">
+        <v>8</v>
+      </c>
+      <c r="B40" s="24">
+        <v>0.61127399999999998</v>
+      </c>
+      <c r="C40" s="24">
+        <v>0.58821400000000001</v>
+      </c>
+      <c r="D40" s="47"/>
+      <c r="F40" s="42">
+        <v>8</v>
+      </c>
+      <c r="G40" s="24">
+        <v>0.59297200000000005</v>
+      </c>
+      <c r="H40" s="24">
+        <v>0.60139100000000001</v>
+      </c>
+      <c r="I40" s="47"/>
+    </row>
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="A41" s="42">
+        <v>9</v>
+      </c>
+      <c r="B41" s="24">
+        <v>0.60944399999999999</v>
+      </c>
+      <c r="C41" s="24">
+        <v>0.59846299999999997</v>
+      </c>
+      <c r="D41" s="47"/>
+      <c r="F41" s="42">
+        <v>9</v>
+      </c>
+      <c r="G41" s="24">
+        <v>0.59443599999999996</v>
+      </c>
+      <c r="H41" s="24">
+        <v>0.44289899999999999</v>
+      </c>
+      <c r="I41" s="47"/>
+    </row>
+    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="A42" s="42">
+        <v>10</v>
+      </c>
+      <c r="B42" s="24">
+        <v>0.61712999999999996</v>
+      </c>
+      <c r="C42" s="24">
+        <v>0.60212299999999996</v>
+      </c>
+      <c r="D42" s="47"/>
+      <c r="F42" s="42">
+        <v>10</v>
+      </c>
+      <c r="G42" s="24">
+        <v>0.59406999999999999</v>
+      </c>
+      <c r="H42" s="24">
+        <v>0.62115699999999996</v>
+      </c>
+      <c r="I42" s="47"/>
+    </row>
+    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="A43" s="42">
+        <v>11</v>
+      </c>
+      <c r="B43" s="24">
+        <v>0.62811099999999997</v>
+      </c>
+      <c r="C43" s="24">
+        <v>0.61127399999999998</v>
+      </c>
+      <c r="D43" s="47"/>
+      <c r="F43" s="42">
+        <v>11</v>
+      </c>
+      <c r="G43" s="24">
+        <v>0.60212299999999996</v>
+      </c>
+      <c r="H43" s="24">
+        <v>0.46486100000000002</v>
+      </c>
+      <c r="I43" s="47"/>
+    </row>
+    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="A44" s="42">
+        <v>12</v>
+      </c>
+      <c r="B44" s="24">
+        <v>0.62554900000000002</v>
+      </c>
+      <c r="C44" s="24">
+        <v>0.614568</v>
+      </c>
+      <c r="D44" s="47"/>
+      <c r="F44" s="42">
+        <v>12</v>
+      </c>
+      <c r="G44" s="24">
+        <v>0.618228</v>
+      </c>
+      <c r="H44" s="24">
+        <v>0.612738</v>
+      </c>
+      <c r="I44" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="D2:D14"/>
     <mergeCell ref="I2:I14"/>
     <mergeCell ref="N2:N14"/>
+    <mergeCell ref="D32:D44"/>
+    <mergeCell ref="I32:I44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/POS Code/Experiments/attachments/detailed_results.xlsx
+++ b/POS Code/Experiments/attachments/detailed_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C4A6C8-CDCB-5B45-BFE1-B194D43B0931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91492F5E-7C69-AC45-8D0D-FB3C423E1942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" activeTab="6" xr2:uid="{BEC22610-DBDE-49A5-ABDC-7DB261D6BA7F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="61">
   <si>
     <t>Selection</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>0-6</t>
+  </si>
+  <si>
+    <t>CodeGPTJavaAdapeted</t>
+  </si>
+  <si>
+    <t>CodeGPTPyAdapeted</t>
   </si>
 </sst>
 </file>
@@ -10207,6 +10213,1524 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="83598543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DefDectLayerwise!$L$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Independent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$K$32:$K$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$L$32:$L$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.56552000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57686700000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58089299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55161099999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.556369</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58455299999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60212299999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59297200000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.614568</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61237200000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63945799999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.631772</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64421700000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9F5E-DC44-9CBC-1128A29564DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DefDectLayerwise!$M$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Incremental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$K$32:$K$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$M$32:$M$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.56552000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57357199999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57686700000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55307499999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.569546</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.470717</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.453148</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45497799999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51573899999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51939999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49194700000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.50073199999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.51390899999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9F5E-DC44-9CBC-1128A29564DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1155415152"/>
+        <c:axId val="1201754864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1155415152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1201754864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1201754864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1155415152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DefDectLayerwise!$B$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Independent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$A$61:$A$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$B$61:$B$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.56552000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58931199999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60907800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63030699999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60322100000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.614568</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61603200000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61676399999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.625915</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61969300000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61749600000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.633602</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65080499999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B816-D548-BC93-570DF66ABC46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DefDectLayerwise!$C$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Incremental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$A$61:$A$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$C$61:$C$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.56552000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58748199999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60724699999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.620425</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60468500000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58199100000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47327999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46486100000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51098100000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53623699999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61712999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59223999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.63579799999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B816-D548-BC93-570DF66ABC46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1165422352"/>
+        <c:axId val="1165423984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1165422352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1165423984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1165423984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1165422352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DefDectLayerwise!$G$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Independent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$F$61:$F$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$G$61:$G$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.56552000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56552000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54758399999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53330900000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55783300000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56259199999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57833100000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57393899999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57869700000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57284000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58601800000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57576899999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64055600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9802-BD47-8BA7-71B1D2735D67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DefDectLayerwise!$H$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Incremental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$F$61:$F$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$H$61:$H$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.56552000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56295799999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52928299999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54904799999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52964900000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46559299999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58821400000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58857999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61420200000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60614900000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61603200000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59919500000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.59260599999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9802-BD47-8BA7-71B1D2735D67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1155146800"/>
+        <c:axId val="1164552080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1155146800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1164552080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1164552080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1155146800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14809,6 +16333,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors29.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -24144,6 +25788,1515 @@
 </file>
 
 <file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style29.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -28984,8 +32137,8 @@
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1263650</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
@@ -29015,15 +32168,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>768350</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29115,6 +32268,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1339850</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80CADB7-3772-D543-8336-98B6ABA914DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DAC7DE2-FFFE-9941-ADA8-EFA62ED906AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1073150</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E305C0CC-12CE-BA41-BB7A-95991092F09E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -30841,7 +34102,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -35851,13 +39112,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586CC5E8-52EF-824B-9F99-84A3E832E106}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="22.1640625" customWidth="1"/>
+    <col min="14" max="14" width="19.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -36310,7 +39575,7 @@
       </c>
       <c r="N14" s="47"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="42" t="s">
         <v>33</v>
       </c>
@@ -36329,8 +39594,17 @@
       <c r="H31" s="42" t="s">
         <v>32</v>
       </c>
+      <c r="K31" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" s="42" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A32" s="42">
         <v>0</v>
       </c>
@@ -36355,8 +39629,20 @@
       <c r="I32" s="47" t="s">
         <v>20</v>
       </c>
+      <c r="K32" s="42">
+        <v>0</v>
+      </c>
+      <c r="L32" s="24">
+        <v>0.56552000000000002</v>
+      </c>
+      <c r="M32" s="24">
+        <v>0.56552000000000002</v>
+      </c>
+      <c r="N32" s="47" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A33" s="42">
         <v>1</v>
       </c>
@@ -36377,8 +39663,18 @@
         <v>0.53916500000000001</v>
       </c>
       <c r="I33" s="47"/>
+      <c r="K33" s="42">
+        <v>1</v>
+      </c>
+      <c r="L33" s="24">
+        <v>0.57686700000000002</v>
+      </c>
+      <c r="M33" s="24">
+        <v>0.57357199999999997</v>
+      </c>
+      <c r="N33" s="47"/>
     </row>
-    <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A34" s="42">
         <v>2</v>
       </c>
@@ -36399,8 +39695,18 @@
         <v>0.53074699999999997</v>
       </c>
       <c r="I34" s="47"/>
+      <c r="K34" s="42">
+        <v>2</v>
+      </c>
+      <c r="L34" s="24">
+        <v>0.58089299999999999</v>
+      </c>
+      <c r="M34" s="24">
+        <v>0.57686700000000002</v>
+      </c>
+      <c r="N34" s="47"/>
     </row>
-    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A35" s="42">
         <v>3</v>
       </c>
@@ -36421,8 +39727,18 @@
         <v>0.554539</v>
       </c>
       <c r="I35" s="47"/>
+      <c r="K35" s="42">
+        <v>3</v>
+      </c>
+      <c r="L35" s="24">
+        <v>0.55161099999999996</v>
+      </c>
+      <c r="M35" s="24">
+        <v>0.55307499999999998</v>
+      </c>
+      <c r="N35" s="47"/>
     </row>
-    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A36" s="42">
         <v>4</v>
       </c>
@@ -36443,8 +39759,18 @@
         <v>0.439971</v>
       </c>
       <c r="I36" s="47"/>
+      <c r="K36" s="42">
+        <v>4</v>
+      </c>
+      <c r="L36" s="24">
+        <v>0.556369</v>
+      </c>
+      <c r="M36" s="24">
+        <v>0.569546</v>
+      </c>
+      <c r="N36" s="47"/>
     </row>
-    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A37" s="42">
         <v>5</v>
       </c>
@@ -36465,8 +39791,18 @@
         <v>0.43447999999999998</v>
       </c>
       <c r="I37" s="47"/>
+      <c r="K37" s="42">
+        <v>5</v>
+      </c>
+      <c r="L37" s="24">
+        <v>0.58455299999999999</v>
+      </c>
+      <c r="M37" s="24">
+        <v>0.470717</v>
+      </c>
+      <c r="N37" s="47"/>
     </row>
-    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A38" s="42">
         <v>6</v>
       </c>
@@ -36487,8 +39823,18 @@
         <v>0.43447999999999998</v>
       </c>
       <c r="I38" s="47"/>
+      <c r="K38" s="42">
+        <v>6</v>
+      </c>
+      <c r="L38" s="24">
+        <v>0.60212299999999996</v>
+      </c>
+      <c r="M38" s="24">
+        <v>0.453148</v>
+      </c>
+      <c r="N38" s="47"/>
     </row>
-    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A39" s="42">
         <v>7</v>
       </c>
@@ -36509,8 +39855,18 @@
         <v>0.58345499999999995</v>
       </c>
       <c r="I39" s="47"/>
+      <c r="K39" s="42">
+        <v>7</v>
+      </c>
+      <c r="L39" s="24">
+        <v>0.59297200000000005</v>
+      </c>
+      <c r="M39" s="24">
+        <v>0.45497799999999999</v>
+      </c>
+      <c r="N39" s="47"/>
     </row>
-    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A40" s="42">
         <v>8</v>
       </c>
@@ -36531,8 +39887,18 @@
         <v>0.60139100000000001</v>
       </c>
       <c r="I40" s="47"/>
+      <c r="K40" s="42">
+        <v>8</v>
+      </c>
+      <c r="L40" s="24">
+        <v>0.614568</v>
+      </c>
+      <c r="M40" s="24">
+        <v>0.51573899999999995</v>
+      </c>
+      <c r="N40" s="47"/>
     </row>
-    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A41" s="42">
         <v>9</v>
       </c>
@@ -36553,8 +39919,18 @@
         <v>0.44289899999999999</v>
       </c>
       <c r="I41" s="47"/>
+      <c r="K41" s="42">
+        <v>9</v>
+      </c>
+      <c r="L41" s="24">
+        <v>0.61237200000000003</v>
+      </c>
+      <c r="M41" s="24">
+        <v>0.51939999999999997</v>
+      </c>
+      <c r="N41" s="47"/>
     </row>
-    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A42" s="42">
         <v>10</v>
       </c>
@@ -36575,8 +39951,18 @@
         <v>0.62115699999999996</v>
       </c>
       <c r="I42" s="47"/>
+      <c r="K42" s="42">
+        <v>10</v>
+      </c>
+      <c r="L42" s="24">
+        <v>0.63945799999999997</v>
+      </c>
+      <c r="M42" s="24">
+        <v>0.49194700000000002</v>
+      </c>
+      <c r="N42" s="47"/>
     </row>
-    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A43" s="42">
         <v>11</v>
       </c>
@@ -36597,8 +39983,18 @@
         <v>0.46486100000000002</v>
       </c>
       <c r="I43" s="47"/>
+      <c r="K43" s="42">
+        <v>11</v>
+      </c>
+      <c r="L43" s="24">
+        <v>0.631772</v>
+      </c>
+      <c r="M43" s="24">
+        <v>0.50073199999999995</v>
+      </c>
+      <c r="N43" s="47"/>
     </row>
-    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A44" s="42">
         <v>12</v>
       </c>
@@ -36619,14 +40015,337 @@
         <v>0.612738</v>
       </c>
       <c r="I44" s="47"/>
+      <c r="K44" s="42">
+        <v>12</v>
+      </c>
+      <c r="L44" s="24">
+        <v>0.64421700000000004</v>
+      </c>
+      <c r="M44" s="24">
+        <v>0.51390899999999995</v>
+      </c>
+      <c r="N44" s="47"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G60" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" s="42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="A61" s="42">
+        <v>0</v>
+      </c>
+      <c r="B61" s="24">
+        <v>0.56552000000000002</v>
+      </c>
+      <c r="C61" s="24">
+        <v>0.56552000000000002</v>
+      </c>
+      <c r="D61" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="42">
+        <v>0</v>
+      </c>
+      <c r="G61" s="24">
+        <v>0.56552000000000002</v>
+      </c>
+      <c r="H61" s="24">
+        <v>0.56552000000000002</v>
+      </c>
+      <c r="I61" s="47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="A62" s="42">
+        <v>1</v>
+      </c>
+      <c r="B62" s="24">
+        <v>0.58931199999999995</v>
+      </c>
+      <c r="C62" s="24">
+        <v>0.58748199999999995</v>
+      </c>
+      <c r="D62" s="47"/>
+      <c r="F62" s="42">
+        <v>1</v>
+      </c>
+      <c r="G62" s="24">
+        <v>0.56552000000000002</v>
+      </c>
+      <c r="H62" s="24">
+        <v>0.56295799999999996</v>
+      </c>
+      <c r="I62" s="47"/>
+    </row>
+    <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="A63" s="42">
+        <v>2</v>
+      </c>
+      <c r="B63" s="24">
+        <v>0.60907800000000001</v>
+      </c>
+      <c r="C63" s="24">
+        <v>0.60724699999999998</v>
+      </c>
+      <c r="D63" s="47"/>
+      <c r="F63" s="42">
+        <v>2</v>
+      </c>
+      <c r="G63" s="24">
+        <v>0.54758399999999996</v>
+      </c>
+      <c r="H63" s="24">
+        <v>0.52928299999999995</v>
+      </c>
+      <c r="I63" s="47"/>
+    </row>
+    <row r="64" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="A64" s="42">
+        <v>3</v>
+      </c>
+      <c r="B64" s="24">
+        <v>0.63030699999999995</v>
+      </c>
+      <c r="C64" s="24">
+        <v>0.620425</v>
+      </c>
+      <c r="D64" s="47"/>
+      <c r="F64" s="42">
+        <v>3</v>
+      </c>
+      <c r="G64" s="24">
+        <v>0.53330900000000003</v>
+      </c>
+      <c r="H64" s="24">
+        <v>0.54904799999999998</v>
+      </c>
+      <c r="I64" s="47"/>
+    </row>
+    <row r="65" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="A65" s="42">
+        <v>4</v>
+      </c>
+      <c r="B65" s="24">
+        <v>0.60322100000000001</v>
+      </c>
+      <c r="C65" s="24">
+        <v>0.60468500000000003</v>
+      </c>
+      <c r="D65" s="47"/>
+      <c r="F65" s="42">
+        <v>4</v>
+      </c>
+      <c r="G65" s="24">
+        <v>0.55783300000000002</v>
+      </c>
+      <c r="H65" s="24">
+        <v>0.52964900000000004</v>
+      </c>
+      <c r="I65" s="47"/>
+    </row>
+    <row r="66" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="A66" s="42">
+        <v>5</v>
+      </c>
+      <c r="B66" s="24">
+        <v>0.614568</v>
+      </c>
+      <c r="C66" s="24">
+        <v>0.58199100000000004</v>
+      </c>
+      <c r="D66" s="47"/>
+      <c r="F66" s="42">
+        <v>5</v>
+      </c>
+      <c r="G66" s="24">
+        <v>0.56259199999999998</v>
+      </c>
+      <c r="H66" s="24">
+        <v>0.46559299999999998</v>
+      </c>
+      <c r="I66" s="47"/>
+    </row>
+    <row r="67" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="A67" s="42">
+        <v>6</v>
+      </c>
+      <c r="B67" s="24">
+        <v>0.61603200000000002</v>
+      </c>
+      <c r="C67" s="24">
+        <v>0.47327999999999998</v>
+      </c>
+      <c r="D67" s="47"/>
+      <c r="F67" s="42">
+        <v>6</v>
+      </c>
+      <c r="G67" s="24">
+        <v>0.57833100000000004</v>
+      </c>
+      <c r="H67" s="24">
+        <v>0.58821400000000001</v>
+      </c>
+      <c r="I67" s="47"/>
+    </row>
+    <row r="68" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="A68" s="42">
+        <v>7</v>
+      </c>
+      <c r="B68" s="24">
+        <v>0.61676399999999998</v>
+      </c>
+      <c r="C68" s="24">
+        <v>0.46486100000000002</v>
+      </c>
+      <c r="D68" s="47"/>
+      <c r="F68" s="42">
+        <v>7</v>
+      </c>
+      <c r="G68" s="24">
+        <v>0.57393899999999998</v>
+      </c>
+      <c r="H68" s="24">
+        <v>0.58857999999999999</v>
+      </c>
+      <c r="I68" s="47"/>
+    </row>
+    <row r="69" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="A69" s="42">
+        <v>8</v>
+      </c>
+      <c r="B69" s="24">
+        <v>0.625915</v>
+      </c>
+      <c r="C69" s="24">
+        <v>0.51098100000000002</v>
+      </c>
+      <c r="D69" s="47"/>
+      <c r="F69" s="42">
+        <v>8</v>
+      </c>
+      <c r="G69" s="24">
+        <v>0.57869700000000002</v>
+      </c>
+      <c r="H69" s="24">
+        <v>0.61420200000000003</v>
+      </c>
+      <c r="I69" s="47"/>
+    </row>
+    <row r="70" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="A70" s="42">
+        <v>9</v>
+      </c>
+      <c r="B70" s="24">
+        <v>0.61969300000000005</v>
+      </c>
+      <c r="C70" s="24">
+        <v>0.53623699999999996</v>
+      </c>
+      <c r="D70" s="47"/>
+      <c r="F70" s="42">
+        <v>9</v>
+      </c>
+      <c r="G70" s="24">
+        <v>0.57284000000000002</v>
+      </c>
+      <c r="H70" s="24">
+        <v>0.60614900000000005</v>
+      </c>
+      <c r="I70" s="47"/>
+    </row>
+    <row r="71" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="A71" s="42">
+        <v>10</v>
+      </c>
+      <c r="B71" s="24">
+        <v>0.61749600000000004</v>
+      </c>
+      <c r="C71" s="24">
+        <v>0.61712999999999996</v>
+      </c>
+      <c r="D71" s="47"/>
+      <c r="F71" s="42">
+        <v>10</v>
+      </c>
+      <c r="G71" s="24">
+        <v>0.58601800000000004</v>
+      </c>
+      <c r="H71" s="24">
+        <v>0.61603200000000002</v>
+      </c>
+      <c r="I71" s="47"/>
+    </row>
+    <row r="72" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="A72" s="42">
+        <v>11</v>
+      </c>
+      <c r="B72" s="24">
+        <v>0.633602</v>
+      </c>
+      <c r="C72" s="24">
+        <v>0.59223999999999999</v>
+      </c>
+      <c r="D72" s="47"/>
+      <c r="F72" s="42">
+        <v>11</v>
+      </c>
+      <c r="G72" s="24">
+        <v>0.57576899999999998</v>
+      </c>
+      <c r="H72" s="24">
+        <v>0.59919500000000003</v>
+      </c>
+      <c r="I72" s="47"/>
+    </row>
+    <row r="73" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="A73" s="42">
+        <v>12</v>
+      </c>
+      <c r="B73" s="24">
+        <v>0.65080499999999997</v>
+      </c>
+      <c r="C73" s="24">
+        <v>0.63579799999999997</v>
+      </c>
+      <c r="D73" s="47"/>
+      <c r="F73" s="42">
+        <v>12</v>
+      </c>
+      <c r="G73" s="24">
+        <v>0.64055600000000001</v>
+      </c>
+      <c r="H73" s="24">
+        <v>0.59260599999999997</v>
+      </c>
+      <c r="I73" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="D61:D73"/>
+    <mergeCell ref="I61:I73"/>
     <mergeCell ref="D2:D14"/>
     <mergeCell ref="I2:I14"/>
     <mergeCell ref="N2:N14"/>
     <mergeCell ref="D32:D44"/>
     <mergeCell ref="I32:I44"/>
+    <mergeCell ref="N32:N44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/POS Code/Experiments/attachments/detailed_results.xlsx
+++ b/POS Code/Experiments/attachments/detailed_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91492F5E-7C69-AC45-8D0D-FB3C423E1942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C0DFE6-C94F-6B40-B4DF-4C565AAE6BCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" activeTab="6" xr2:uid="{BEC22610-DBDE-49A5-ABDC-7DB261D6BA7F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="61">
   <si>
     <t>Selection</t>
   </si>
@@ -12219,6 +12219,1018 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="465157695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DefDectLayerwise!$L$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Independent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$K$61:$K$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$L$61:$L$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.56552000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56076099999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57430499999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58162499999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58565199999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57796499999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57357199999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57686700000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.577233</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57686700000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57430499999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57613499999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.57576899999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-201A-B14F-B7D4-6A9AD25B059A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DefDectLayerwise!$M$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Incremental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$K$61:$K$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$M$61:$M$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.56552000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56698400000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57430499999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57979499999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.571376</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57906299999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57210799999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56625199999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57650100000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57503700000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57467100000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56625199999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.57284000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-201A-B14F-B7D4-6A9AD25B059A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1204187680"/>
+        <c:axId val="83206463"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1204187680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83206463"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="83206463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.70000000000000007"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1204187680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DefDectLayerwise!$B$89</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Independent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$A$90:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$B$90:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.56552000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57101000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56442199999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56552000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57101000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57869700000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.569546</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.567716</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56515400000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56552000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56552000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56552000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.56552000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9EEF-CA43-ABC4-D58202FDEC34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DefDectLayerwise!$C$89</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Incremental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$A$90:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$C$90:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.56552000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56552000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56698400000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.565886</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.569546</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57284000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51281100000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51207899999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52562200000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.488653</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.48243000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48169800000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48389500000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9EEF-CA43-ABC4-D58202FDEC34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1204987088"/>
+        <c:axId val="1206023280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1204987088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1206023280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1206023280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1204987088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16493,6 +17505,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors30.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors31.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -27800,6 +28892,1012 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style30.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style31.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -32381,6 +34479,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>844550</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1416050</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3A0AF9-F15A-434A-A61C-9AA495146414}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D4FEC34-FE86-5F4D-B829-F01CE62801CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -35822,7 +37992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F291A794-F81B-A94A-B246-9FC1326ED183}">
   <dimension ref="A1:N111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -39112,10 +41282,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586CC5E8-52EF-824B-9F99-84A3E832E106}">
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="K85" sqref="K85"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="K100" sqref="K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -40026,7 +42196,7 @@
       </c>
       <c r="N44" s="47"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="42" t="s">
         <v>33</v>
       </c>
@@ -40045,8 +42215,17 @@
       <c r="H60" s="42" t="s">
         <v>32</v>
       </c>
+      <c r="K60" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="L60" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="M60" s="42" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="61" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A61" s="42">
         <v>0</v>
       </c>
@@ -40071,8 +42250,20 @@
       <c r="I61" s="47" t="s">
         <v>60</v>
       </c>
+      <c r="K61" s="42">
+        <v>0</v>
+      </c>
+      <c r="L61" s="24">
+        <v>0.56552000000000002</v>
+      </c>
+      <c r="M61" s="24">
+        <v>0.56552000000000002</v>
+      </c>
+      <c r="N61" s="47" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="62" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A62" s="42">
         <v>1</v>
       </c>
@@ -40093,8 +42284,18 @@
         <v>0.56295799999999996</v>
       </c>
       <c r="I62" s="47"/>
+      <c r="K62" s="42">
+        <v>1</v>
+      </c>
+      <c r="L62" s="24">
+        <v>0.56076099999999995</v>
+      </c>
+      <c r="M62" s="24">
+        <v>0.56698400000000004</v>
+      </c>
+      <c r="N62" s="47"/>
     </row>
-    <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A63" s="42">
         <v>2</v>
       </c>
@@ -40115,8 +42316,18 @@
         <v>0.52928299999999995</v>
       </c>
       <c r="I63" s="47"/>
+      <c r="K63" s="42">
+        <v>2</v>
+      </c>
+      <c r="L63" s="24">
+        <v>0.57430499999999995</v>
+      </c>
+      <c r="M63" s="24">
+        <v>0.57430499999999995</v>
+      </c>
+      <c r="N63" s="47"/>
     </row>
-    <row r="64" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A64" s="42">
         <v>3</v>
       </c>
@@ -40137,8 +42348,18 @@
         <v>0.54904799999999998</v>
       </c>
       <c r="I64" s="47"/>
+      <c r="K64" s="42">
+        <v>3</v>
+      </c>
+      <c r="L64" s="24">
+        <v>0.58162499999999995</v>
+      </c>
+      <c r="M64" s="24">
+        <v>0.57979499999999995</v>
+      </c>
+      <c r="N64" s="47"/>
     </row>
-    <row r="65" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A65" s="42">
         <v>4</v>
       </c>
@@ -40159,8 +42380,18 @@
         <v>0.52964900000000004</v>
       </c>
       <c r="I65" s="47"/>
+      <c r="K65" s="42">
+        <v>4</v>
+      </c>
+      <c r="L65" s="24">
+        <v>0.58565199999999995</v>
+      </c>
+      <c r="M65" s="24">
+        <v>0.571376</v>
+      </c>
+      <c r="N65" s="47"/>
     </row>
-    <row r="66" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A66" s="42">
         <v>5</v>
       </c>
@@ -40181,8 +42412,18 @@
         <v>0.46559299999999998</v>
       </c>
       <c r="I66" s="47"/>
+      <c r="K66" s="42">
+        <v>5</v>
+      </c>
+      <c r="L66" s="24">
+        <v>0.57796499999999995</v>
+      </c>
+      <c r="M66" s="24">
+        <v>0.57906299999999999</v>
+      </c>
+      <c r="N66" s="47"/>
     </row>
-    <row r="67" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A67" s="42">
         <v>6</v>
       </c>
@@ -40203,8 +42444,18 @@
         <v>0.58821400000000001</v>
       </c>
       <c r="I67" s="47"/>
+      <c r="K67" s="42">
+        <v>6</v>
+      </c>
+      <c r="L67" s="24">
+        <v>0.57357199999999997</v>
+      </c>
+      <c r="M67" s="24">
+        <v>0.57210799999999995</v>
+      </c>
+      <c r="N67" s="47"/>
     </row>
-    <row r="68" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A68" s="42">
         <v>7</v>
       </c>
@@ -40225,8 +42476,18 @@
         <v>0.58857999999999999</v>
       </c>
       <c r="I68" s="47"/>
+      <c r="K68" s="42">
+        <v>7</v>
+      </c>
+      <c r="L68" s="24">
+        <v>0.57686700000000002</v>
+      </c>
+      <c r="M68" s="24">
+        <v>0.56625199999999998</v>
+      </c>
+      <c r="N68" s="47"/>
     </row>
-    <row r="69" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A69" s="42">
         <v>8</v>
       </c>
@@ -40247,8 +42508,18 @@
         <v>0.61420200000000003</v>
       </c>
       <c r="I69" s="47"/>
+      <c r="K69" s="42">
+        <v>8</v>
+      </c>
+      <c r="L69" s="24">
+        <v>0.577233</v>
+      </c>
+      <c r="M69" s="24">
+        <v>0.57650100000000004</v>
+      </c>
+      <c r="N69" s="47"/>
     </row>
-    <row r="70" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A70" s="42">
         <v>9</v>
       </c>
@@ -40269,8 +42540,18 @@
         <v>0.60614900000000005</v>
       </c>
       <c r="I70" s="47"/>
+      <c r="K70" s="42">
+        <v>9</v>
+      </c>
+      <c r="L70" s="24">
+        <v>0.57686700000000002</v>
+      </c>
+      <c r="M70" s="24">
+        <v>0.57503700000000002</v>
+      </c>
+      <c r="N70" s="47"/>
     </row>
-    <row r="71" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A71" s="42">
         <v>10</v>
       </c>
@@ -40291,8 +42572,18 @@
         <v>0.61603200000000002</v>
       </c>
       <c r="I71" s="47"/>
+      <c r="K71" s="42">
+        <v>10</v>
+      </c>
+      <c r="L71" s="24">
+        <v>0.57430499999999995</v>
+      </c>
+      <c r="M71" s="24">
+        <v>0.57467100000000004</v>
+      </c>
+      <c r="N71" s="47"/>
     </row>
-    <row r="72" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A72" s="42">
         <v>11</v>
       </c>
@@ -40313,8 +42604,18 @@
         <v>0.59919500000000003</v>
       </c>
       <c r="I72" s="47"/>
+      <c r="K72" s="42">
+        <v>11</v>
+      </c>
+      <c r="L72" s="24">
+        <v>0.57613499999999995</v>
+      </c>
+      <c r="M72" s="24">
+        <v>0.56625199999999998</v>
+      </c>
+      <c r="N72" s="47"/>
     </row>
-    <row r="73" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A73" s="42">
         <v>12</v>
       </c>
@@ -40335,11 +42636,192 @@
         <v>0.59260599999999997</v>
       </c>
       <c r="I73" s="47"/>
+      <c r="K73" s="42">
+        <v>12</v>
+      </c>
+      <c r="L73" s="24">
+        <v>0.57576899999999998</v>
+      </c>
+      <c r="M73" s="24">
+        <v>0.57284000000000002</v>
+      </c>
+      <c r="N73" s="47"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C89" s="42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A90" s="42">
+        <v>0</v>
+      </c>
+      <c r="B90" s="24">
+        <v>0.56552000000000002</v>
+      </c>
+      <c r="C90" s="24">
+        <v>0.56552000000000002</v>
+      </c>
+      <c r="D90" s="47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A91" s="42">
+        <v>1</v>
+      </c>
+      <c r="B91" s="24">
+        <v>0.57101000000000002</v>
+      </c>
+      <c r="C91" s="24">
+        <v>0.56552000000000002</v>
+      </c>
+      <c r="D91" s="47"/>
+    </row>
+    <row r="92" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A92" s="42">
+        <v>2</v>
+      </c>
+      <c r="B92" s="24">
+        <v>0.56442199999999998</v>
+      </c>
+      <c r="C92" s="24">
+        <v>0.56698400000000004</v>
+      </c>
+      <c r="D92" s="47"/>
+    </row>
+    <row r="93" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A93" s="42">
+        <v>3</v>
+      </c>
+      <c r="B93" s="24">
+        <v>0.56552000000000002</v>
+      </c>
+      <c r="C93" s="24">
+        <v>0.565886</v>
+      </c>
+      <c r="D93" s="47"/>
+    </row>
+    <row r="94" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A94" s="42">
+        <v>4</v>
+      </c>
+      <c r="B94" s="24">
+        <v>0.57101000000000002</v>
+      </c>
+      <c r="C94" s="24">
+        <v>0.569546</v>
+      </c>
+      <c r="D94" s="47"/>
+    </row>
+    <row r="95" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A95" s="42">
+        <v>5</v>
+      </c>
+      <c r="B95" s="24">
+        <v>0.57869700000000002</v>
+      </c>
+      <c r="C95" s="24">
+        <v>0.57284000000000002</v>
+      </c>
+      <c r="D95" s="47"/>
+    </row>
+    <row r="96" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A96" s="42">
+        <v>6</v>
+      </c>
+      <c r="B96" s="24">
+        <v>0.569546</v>
+      </c>
+      <c r="C96" s="24">
+        <v>0.51281100000000002</v>
+      </c>
+      <c r="D96" s="47"/>
+    </row>
+    <row r="97" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A97" s="42">
+        <v>7</v>
+      </c>
+      <c r="B97" s="24">
+        <v>0.567716</v>
+      </c>
+      <c r="C97" s="24">
+        <v>0.51207899999999995</v>
+      </c>
+      <c r="D97" s="47"/>
+    </row>
+    <row r="98" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A98" s="42">
+        <v>8</v>
+      </c>
+      <c r="B98" s="24">
+        <v>0.56515400000000005</v>
+      </c>
+      <c r="C98" s="24">
+        <v>0.52562200000000003</v>
+      </c>
+      <c r="D98" s="47"/>
+    </row>
+    <row r="99" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A99" s="42">
+        <v>9</v>
+      </c>
+      <c r="B99" s="24">
+        <v>0.56552000000000002</v>
+      </c>
+      <c r="C99" s="24">
+        <v>0.488653</v>
+      </c>
+      <c r="D99" s="47"/>
+    </row>
+    <row r="100" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A100" s="42">
+        <v>10</v>
+      </c>
+      <c r="B100" s="24">
+        <v>0.56552000000000002</v>
+      </c>
+      <c r="C100" s="24">
+        <v>0.48243000000000003</v>
+      </c>
+      <c r="D100" s="47"/>
+    </row>
+    <row r="101" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A101" s="42">
+        <v>11</v>
+      </c>
+      <c r="B101" s="24">
+        <v>0.56552000000000002</v>
+      </c>
+      <c r="C101" s="24">
+        <v>0.48169800000000002</v>
+      </c>
+      <c r="D101" s="47"/>
+    </row>
+    <row r="102" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A102" s="42">
+        <v>12</v>
+      </c>
+      <c r="B102" s="24">
+        <v>0.56552000000000002</v>
+      </c>
+      <c r="C102" s="24">
+        <v>0.48389500000000002</v>
+      </c>
+      <c r="D102" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="D61:D73"/>
     <mergeCell ref="I61:I73"/>
+    <mergeCell ref="N61:N73"/>
+    <mergeCell ref="D90:D102"/>
     <mergeCell ref="D2:D14"/>
     <mergeCell ref="I2:I14"/>
     <mergeCell ref="N2:N14"/>

--- a/POS Code/Experiments/attachments/detailed_results.xlsx
+++ b/POS Code/Experiments/attachments/detailed_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C0DFE6-C94F-6B40-B4DF-4C565AAE6BCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E4ABA0-2112-EE4D-9F7C-7799BC2FCF41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" activeTab="6" xr2:uid="{BEC22610-DBDE-49A5-ABDC-7DB261D6BA7F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" activeTab="2" xr2:uid="{BEC22610-DBDE-49A5-ABDC-7DB261D6BA7F}"/>
   </bookViews>
   <sheets>
     <sheet name="POSSummary" sheetId="3" r:id="rId1"/>
@@ -353,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -492,6 +492,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -37303,8 +37309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA23802-E131-F843-8926-5D2D2FC1D55E}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -37417,16 +37423,16 @@
       <c r="B5" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="48">
         <v>0.71499999999999997</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="48">
         <v>0.79900000000000004</v>
       </c>
       <c r="E5" s="37">
         <v>0.80900000000000005</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="48">
         <v>0.81399999999999995</v>
       </c>
       <c r="G5" s="37">
@@ -37471,11 +37477,11 @@
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="15">
         <f t="shared" ref="C7:H7" si="1">1-C4/C2</f>
         <v>0.98307291666666663</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="15">
         <f t="shared" si="1"/>
         <v>0.99909855769230771</v>
       </c>
@@ -37483,7 +37489,7 @@
         <f t="shared" si="1"/>
         <v>0.99909855769230771</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="15">
         <f t="shared" si="1"/>
         <v>0.91907051282051277</v>
       </c>
@@ -37900,19 +37906,19 @@
       <c r="C23" s="37">
         <v>0.71499999999999997</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="48">
         <v>0.79800000000000004</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="48">
         <v>0.81399999999999995</v>
       </c>
       <c r="F23" s="37">
         <v>0.82899999999999996</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="48">
         <v>0.83499999999999996</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="49">
         <v>0.83099999999999996</v>
       </c>
     </row>
@@ -37955,11 +37961,11 @@
         <f t="shared" ref="C25:H25" si="7">1-C22/C2</f>
         <v>0.97005208333333337</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="15">
         <f t="shared" si="7"/>
         <v>0.99809695512820518</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="15">
         <f t="shared" si="7"/>
         <v>0.99809695512820518</v>
       </c>
@@ -37967,11 +37973,11 @@
         <f t="shared" si="7"/>
         <v>0.4000400641025641</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25" s="15">
         <f t="shared" si="7"/>
         <v>0.99909855769230771</v>
       </c>
-      <c r="H25" s="39">
+      <c r="H25" s="18">
         <f t="shared" si="7"/>
         <v>0.99008413461538458</v>
       </c>
@@ -39795,7 +39801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD302C83-6A19-1746-8058-E37651EDB290}">
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
@@ -41284,7 +41290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586CC5E8-52EF-824B-9F99-84A3E832E106}">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K100" sqref="K100"/>
     </sheetView>
   </sheetViews>

--- a/POS Code/Experiments/attachments/detailed_results.xlsx
+++ b/POS Code/Experiments/attachments/detailed_results.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E4ABA0-2112-EE4D-9F7C-7799BC2FCF41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AE3C9E-ACC1-294E-9C4A-6F75B397CDB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" activeTab="2" xr2:uid="{BEC22610-DBDE-49A5-ABDC-7DB261D6BA7F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" activeTab="3" xr2:uid="{BEC22610-DBDE-49A5-ABDC-7DB261D6BA7F}"/>
   </bookViews>
   <sheets>
     <sheet name="POSSummary" sheetId="3" r:id="rId1"/>
     <sheet name="DefDetSummary" sheetId="6" r:id="rId2"/>
     <sheet name="CloneDetSummary" sheetId="10" r:id="rId3"/>
-    <sheet name="POSLayerwise" sheetId="5" r:id="rId4"/>
-    <sheet name="CloneDetecLayerwise" sheetId="7" r:id="rId5"/>
-    <sheet name="CodeSearchLayerwise" sheetId="8" r:id="rId6"/>
-    <sheet name="DefDectLayerwise" sheetId="9" r:id="rId7"/>
+    <sheet name="CodeSearch" sheetId="11" r:id="rId4"/>
+    <sheet name="POSLayerwise" sheetId="5" r:id="rId5"/>
+    <sheet name="CloneDetecLayerwise" sheetId="7" r:id="rId6"/>
+    <sheet name="CodeSearchLayerwise" sheetId="8" r:id="rId7"/>
+    <sheet name="DefDectLayerwise" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="61">
   <si>
     <t>Selection</t>
   </si>
@@ -353,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -479,6 +480,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -494,10 +504,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -34924,7 +34934,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -34968,7 +34978,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -35010,7 +35020,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -35054,7 +35064,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
@@ -35096,7 +35106,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="46" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -35140,7 +35150,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="44"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -35182,7 +35192,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="26" t="s">
         <v>41</v>
       </c>
@@ -35236,7 +35246,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
@@ -35278,7 +35288,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="46" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -35322,7 +35332,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -35364,7 +35374,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="26" t="s">
         <v>41</v>
       </c>
@@ -35418,7 +35428,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
@@ -35460,7 +35470,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="46" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -35504,7 +35514,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="44"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -35546,7 +35556,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -35588,7 +35598,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="44"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="26" t="s">
         <v>41</v>
       </c>
@@ -35642,7 +35652,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
@@ -35685,7 +35695,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="49" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -35729,7 +35739,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="44"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
@@ -35771,7 +35781,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="44"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
@@ -35813,7 +35823,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="44"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
@@ -35855,7 +35865,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="26" t="s">
         <v>41</v>
       </c>
@@ -35909,7 +35919,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="4" t="s">
         <v>7</v>
       </c>
@@ -35951,7 +35961,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -35995,7 +36005,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="44"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
@@ -36037,7 +36047,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="44"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
@@ -36079,7 +36089,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="44"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
@@ -36121,7 +36131,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="44"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
@@ -36163,7 +36173,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="44"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="26" t="s">
         <v>41</v>
       </c>
@@ -36217,7 +36227,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="4" t="s">
         <v>7</v>
       </c>
@@ -36334,7 +36344,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -36372,7 +36382,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -36408,7 +36418,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="46" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -36446,7 +36456,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="44"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="25" t="s">
         <v>5</v>
       </c>
@@ -36482,7 +36492,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="44"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="25" t="s">
         <v>41</v>
       </c>
@@ -36528,7 +36538,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -36574,7 +36584,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="46" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -36612,7 +36622,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="44"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="25" t="s">
         <v>4</v>
       </c>
@@ -36648,7 +36658,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="44"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="25" t="s">
         <v>5</v>
       </c>
@@ -36684,7 +36694,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="25" t="s">
         <v>41</v>
       </c>
@@ -36730,7 +36740,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -36776,7 +36786,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="49" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -36814,7 +36824,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="44"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="25" t="s">
         <v>12</v>
       </c>
@@ -36850,7 +36860,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="44"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="25" t="s">
         <v>4</v>
       </c>
@@ -36892,7 +36902,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="25" t="s">
         <v>5</v>
       </c>
@@ -36928,7 +36938,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="44"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="25" t="s">
         <v>41</v>
       </c>
@@ -36974,7 +36984,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
@@ -37020,7 +37030,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -37058,7 +37068,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="44"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="25" t="s">
         <v>13</v>
       </c>
@@ -37094,7 +37104,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="44"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="25" t="s">
         <v>9</v>
       </c>
@@ -37130,7 +37140,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="44"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="25" t="s">
         <v>4</v>
       </c>
@@ -37166,7 +37176,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="25" t="s">
         <v>5</v>
       </c>
@@ -37202,7 +37212,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="44"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="25" t="s">
         <v>41</v>
       </c>
@@ -37248,7 +37258,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="45"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
@@ -37309,8 +37319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA23802-E131-F843-8926-5D2D2FC1D55E}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H19" sqref="A1:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -37343,7 +37353,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -37369,7 +37379,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -37393,7 +37403,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="46" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -37419,20 +37429,20 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="44"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="44">
         <v>0.71499999999999997</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="44">
         <v>0.79900000000000004</v>
       </c>
       <c r="E5" s="37">
         <v>0.80900000000000005</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="44">
         <v>0.81399999999999995</v>
       </c>
       <c r="G5" s="37">
@@ -37443,7 +37453,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="44"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="28" t="s">
         <v>41</v>
       </c>
@@ -37473,7 +37483,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -37503,7 +37513,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="46" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -37529,7 +37539,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="44"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="28" t="s">
         <v>4</v>
       </c>
@@ -37553,7 +37563,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="44"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="28" t="s">
         <v>56</v>
       </c>
@@ -37577,7 +37587,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="28" t="s">
         <v>41</v>
       </c>
@@ -37607,7 +37617,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -37637,7 +37647,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="49" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -37663,7 +37673,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="44"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="28" t="s">
         <v>12</v>
       </c>
@@ -37687,7 +37697,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="44"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="28" t="s">
         <v>4</v>
       </c>
@@ -37717,7 +37727,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="28" t="s">
         <v>56</v>
       </c>
@@ -37741,7 +37751,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="44"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="28" t="s">
         <v>41</v>
       </c>
@@ -37771,7 +37781,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
@@ -37801,7 +37811,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -37827,7 +37837,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="44"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="28" t="s">
         <v>13</v>
       </c>
@@ -37851,7 +37861,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="44"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="28" t="s">
         <v>9</v>
       </c>
@@ -37875,7 +37885,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="44"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="28" t="s">
         <v>4</v>
       </c>
@@ -37899,31 +37909,31 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="28" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="37">
         <v>0.71499999999999997</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="44">
         <v>0.79800000000000004</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="44">
         <v>0.81399999999999995</v>
       </c>
       <c r="F23" s="37">
         <v>0.82899999999999996</v>
       </c>
-      <c r="G23" s="48">
+      <c r="G23" s="44">
         <v>0.83499999999999996</v>
       </c>
-      <c r="H23" s="49">
+      <c r="H23" s="45">
         <v>0.83099999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="44"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="28" t="s">
         <v>41</v>
       </c>
@@ -37953,7 +37963,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="45"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
@@ -37995,6 +38005,530 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28108FEC-BD67-434D-94DC-97307B12918B}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>9984</v>
+      </c>
+      <c r="D2" s="2">
+        <v>9984</v>
+      </c>
+      <c r="E2" s="2">
+        <v>9984</v>
+      </c>
+      <c r="F2" s="2">
+        <v>9984</v>
+      </c>
+      <c r="G2" s="2">
+        <v>9984</v>
+      </c>
+      <c r="H2" s="3">
+        <v>9984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="48"/>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5">
+        <v>0.54139999999999999</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.4652</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6">
+        <v>0.50990000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>569</v>
+      </c>
+      <c r="E4" s="2">
+        <v>429</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="47"/>
+      <c r="B5" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="27">
+        <v>0.51819999999999999</v>
+      </c>
+      <c r="E5" s="27">
+        <v>0.5232</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="8">
+        <v>0.50329999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="47"/>
+      <c r="B6" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37">
+        <f>D5-D3</f>
+        <v>-2.3199999999999998E-2</v>
+      </c>
+      <c r="E6" s="37">
+        <f>E5-E3</f>
+        <v>5.7999999999999996E-2</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38">
+        <f>H5-H3</f>
+        <v>-6.6000000000000503E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="48"/>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="29">
+        <f>1-D4/D2</f>
+        <v>0.9430088141025641</v>
+      </c>
+      <c r="E7" s="29">
+        <f>1-E4/E2</f>
+        <v>0.95703125</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="39">
+        <f>1-H4/H2</f>
+        <v>0.94000400641025639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="47"/>
+      <c r="B9" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="43">
+        <v>768</v>
+      </c>
+      <c r="E9" s="43">
+        <v>1454</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="11">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="47"/>
+      <c r="B10" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7">
+        <v>0.55459999999999998</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.53480000000000005</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8">
+        <v>0.5232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="47"/>
+      <c r="B11" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20">
+        <f>D10-D3</f>
+        <v>1.319999999999999E-2</v>
+      </c>
+      <c r="E11" s="20">
+        <f>E10-E3</f>
+        <v>6.9600000000000051E-2</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="36">
+        <f>H10-H3</f>
+        <v>1.3299999999999979E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="48"/>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5">
+        <f>1-D9/D2</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="E12" s="5">
+        <f>1-E9/E2</f>
+        <v>0.85436698717948723</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="39">
+        <f>1-H9/H2</f>
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="47"/>
+      <c r="B14" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43">
+        <v>3</v>
+      </c>
+      <c r="E14" s="43">
+        <v>2</v>
+      </c>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="47"/>
+      <c r="B15" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="43">
+        <f>2*768</f>
+        <v>1536</v>
+      </c>
+      <c r="E15" s="43">
+        <f>2*768</f>
+        <v>1536</v>
+      </c>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="11">
+        <f>2*768</f>
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="47"/>
+      <c r="B16" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="7">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.67349999999999999</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8">
+        <v>0.66649999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="47"/>
+      <c r="B17" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7">
+        <f>D16-D3</f>
+        <v>0.12660000000000005</v>
+      </c>
+      <c r="E17" s="7">
+        <f>E16-E3</f>
+        <v>0.20829999999999999</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8">
+        <f>H16-H3</f>
+        <v>0.15659999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="48"/>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5">
+        <f>1-D15/D2</f>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="E18" s="5">
+        <f>1-E15/E2</f>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6">
+        <f>1-H15/H2</f>
+        <v>0.84615384615384615</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="47"/>
+      <c r="B20" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="47"/>
+      <c r="B21" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="E21" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="47"/>
+      <c r="B22" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="43"/>
+      <c r="D22" s="22">
+        <v>399</v>
+      </c>
+      <c r="E22" s="43">
+        <v>399</v>
+      </c>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="11">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="47"/>
+      <c r="B23" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27">
+        <v>0.53810000000000002</v>
+      </c>
+      <c r="E23" s="27">
+        <v>0.53310000000000002</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="52">
+        <v>0.5232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="47"/>
+      <c r="B24" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27">
+        <f>D23-D3</f>
+        <v>-3.2999999999999696E-3</v>
+      </c>
+      <c r="E24" s="27">
+        <f>E23-E3</f>
+        <v>6.7900000000000016E-2</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="52">
+        <f>H23-H3</f>
+        <v>1.3299999999999979E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="48"/>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29">
+        <f>1-D22/D2</f>
+        <v>0.96003605769230771</v>
+      </c>
+      <c r="E25" s="29">
+        <f>1-E22/E2</f>
+        <v>0.96003605769230771</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="39">
+        <f>1-H22/H2</f>
+        <v>0.95002003205128205</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F291A794-F81B-A94A-B246-9FC1326ED183}">
   <dimension ref="A1:N111"/>
   <sheetViews>
@@ -38048,7 +38582,7 @@
       <c r="C2" s="20">
         <v>0.94899999999999995</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="50" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1">
@@ -38060,7 +38594,7 @@
       <c r="H2" s="20">
         <v>0.89500000000000002</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="50" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="1">
@@ -38072,7 +38606,7 @@
       <c r="M2" s="20">
         <v>0.91100000000000003</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="N2" s="50" t="s">
         <v>19</v>
       </c>
     </row>
@@ -38086,7 +38620,7 @@
       <c r="C3" s="20">
         <v>0.84</v>
       </c>
-      <c r="D3" s="47"/>
+      <c r="D3" s="50"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -38096,7 +38630,7 @@
       <c r="H3" s="20">
         <v>0.93100000000000005</v>
       </c>
-      <c r="I3" s="47"/>
+      <c r="I3" s="50"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
@@ -38106,7 +38640,7 @@
       <c r="M3" s="20">
         <v>0.90900000000000003</v>
       </c>
-      <c r="N3" s="47"/>
+      <c r="N3" s="50"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -38118,7 +38652,7 @@
       <c r="C4" s="20">
         <v>0.876</v>
       </c>
-      <c r="D4" s="47"/>
+      <c r="D4" s="50"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -38128,7 +38662,7 @@
       <c r="H4" s="20">
         <v>0.873</v>
       </c>
-      <c r="I4" s="47"/>
+      <c r="I4" s="50"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
@@ -38138,7 +38672,7 @@
       <c r="M4" s="20">
         <v>0.90100000000000002</v>
       </c>
-      <c r="N4" s="47"/>
+      <c r="N4" s="50"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -38150,7 +38684,7 @@
       <c r="C5" s="20">
         <v>0.93600000000000005</v>
       </c>
-      <c r="D5" s="47"/>
+      <c r="D5" s="50"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -38160,7 +38694,7 @@
       <c r="H5" s="20">
         <v>0.83799999999999997</v>
       </c>
-      <c r="I5" s="47"/>
+      <c r="I5" s="50"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
@@ -38170,7 +38704,7 @@
       <c r="M5" s="20">
         <v>0.88400000000000001</v>
       </c>
-      <c r="N5" s="47"/>
+      <c r="N5" s="50"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -38182,7 +38716,7 @@
       <c r="C6" s="20">
         <v>0.97</v>
       </c>
-      <c r="D6" s="47"/>
+      <c r="D6" s="50"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -38192,7 +38726,7 @@
       <c r="H6" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="I6" s="47"/>
+      <c r="I6" s="50"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
@@ -38202,7 +38736,7 @@
       <c r="M6" s="20">
         <v>0.93899999999999995</v>
       </c>
-      <c r="N6" s="47"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -38214,7 +38748,7 @@
       <c r="C7" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="D7" s="47"/>
+      <c r="D7" s="50"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -38224,7 +38758,7 @@
       <c r="H7" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="I7" s="47"/>
+      <c r="I7" s="50"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
@@ -38234,7 +38768,7 @@
       <c r="M7" s="20">
         <v>0.91700000000000004</v>
       </c>
-      <c r="N7" s="47"/>
+      <c r="N7" s="50"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -38246,7 +38780,7 @@
       <c r="C8" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="D8" s="47"/>
+      <c r="D8" s="50"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -38256,7 +38790,7 @@
       <c r="H8" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I8" s="47"/>
+      <c r="I8" s="50"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
@@ -38266,7 +38800,7 @@
       <c r="M8" s="20">
         <v>0.92300000000000004</v>
       </c>
-      <c r="N8" s="47"/>
+      <c r="N8" s="50"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -38278,7 +38812,7 @@
       <c r="C9" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="50"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -38288,7 +38822,7 @@
       <c r="H9" s="20">
         <v>0.96499999999999997</v>
       </c>
-      <c r="I9" s="47"/>
+      <c r="I9" s="50"/>
       <c r="K9" s="1"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
@@ -38304,7 +38838,7 @@
       <c r="C10" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D10" s="47"/>
+      <c r="D10" s="50"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -38314,7 +38848,7 @@
       <c r="H10" s="20">
         <v>0.94899999999999995</v>
       </c>
-      <c r="I10" s="47"/>
+      <c r="I10" s="50"/>
       <c r="K10" s="1"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
@@ -38330,7 +38864,7 @@
       <c r="C11" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D11" s="47"/>
+      <c r="D11" s="50"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -38340,7 +38874,7 @@
       <c r="H11" s="20">
         <v>0.93</v>
       </c>
-      <c r="I11" s="47"/>
+      <c r="I11" s="50"/>
       <c r="K11" s="1"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
@@ -38356,7 +38890,7 @@
       <c r="C12" s="20">
         <v>0.98099999999999998</v>
       </c>
-      <c r="D12" s="47"/>
+      <c r="D12" s="50"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -38366,7 +38900,7 @@
       <c r="H12" s="20">
         <v>0.91500000000000004</v>
       </c>
-      <c r="I12" s="47"/>
+      <c r="I12" s="50"/>
       <c r="K12" s="1"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
@@ -38382,7 +38916,7 @@
       <c r="C13" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="D13" s="47"/>
+      <c r="D13" s="50"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -38392,7 +38926,7 @@
       <c r="H13" s="20">
         <v>0.91500000000000004</v>
       </c>
-      <c r="I13" s="47"/>
+      <c r="I13" s="50"/>
       <c r="K13" s="1"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
@@ -38408,7 +38942,7 @@
       <c r="C14" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="D14" s="47"/>
+      <c r="D14" s="50"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -38418,7 +38952,7 @@
       <c r="H14" s="20">
         <v>0.91900000000000004</v>
       </c>
-      <c r="I14" s="47"/>
+      <c r="I14" s="50"/>
       <c r="K14" s="1"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
@@ -38463,7 +38997,7 @@
       <c r="C34" s="20">
         <v>0.98199999999999998</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="50" t="s">
         <v>20</v>
       </c>
       <c r="F34" s="1">
@@ -38475,7 +39009,7 @@
       <c r="H34" s="20">
         <v>0.98899999999999999</v>
       </c>
-      <c r="I34" s="47" t="s">
+      <c r="I34" s="50" t="s">
         <v>21</v>
       </c>
       <c r="K34" s="1">
@@ -38487,7 +39021,7 @@
       <c r="M34" s="20">
         <v>0.99399999999999999</v>
       </c>
-      <c r="N34" s="47" t="s">
+      <c r="N34" s="50" t="s">
         <v>22</v>
       </c>
     </row>
@@ -38501,7 +39035,7 @@
       <c r="C35" s="20">
         <v>0.91800000000000004</v>
       </c>
-      <c r="D35" s="47"/>
+      <c r="D35" s="50"/>
       <c r="F35" s="1">
         <v>1</v>
       </c>
@@ -38511,7 +39045,7 @@
       <c r="H35" s="20">
         <v>0.96399999999999997</v>
       </c>
-      <c r="I35" s="47"/>
+      <c r="I35" s="50"/>
       <c r="K35" s="1">
         <v>1</v>
       </c>
@@ -38521,7 +39055,7 @@
       <c r="M35" s="20">
         <v>0.99099999999999999</v>
       </c>
-      <c r="N35" s="47"/>
+      <c r="N35" s="50"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
@@ -38533,7 +39067,7 @@
       <c r="C36" s="20">
         <v>0.91900000000000004</v>
       </c>
-      <c r="D36" s="47"/>
+      <c r="D36" s="50"/>
       <c r="F36" s="1">
         <v>2</v>
       </c>
@@ -38543,7 +39077,7 @@
       <c r="H36" s="20">
         <v>0.97</v>
       </c>
-      <c r="I36" s="47"/>
+      <c r="I36" s="50"/>
       <c r="K36" s="1">
         <v>2</v>
       </c>
@@ -38553,7 +39087,7 @@
       <c r="M36" s="20">
         <v>0.98299999999999998</v>
       </c>
-      <c r="N36" s="47"/>
+      <c r="N36" s="50"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
@@ -38565,7 +39099,7 @@
       <c r="C37" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="D37" s="47"/>
+      <c r="D37" s="50"/>
       <c r="F37" s="1">
         <v>3</v>
       </c>
@@ -38575,7 +39109,7 @@
       <c r="H37" s="20">
         <v>0.96599999999999997</v>
       </c>
-      <c r="I37" s="47"/>
+      <c r="I37" s="50"/>
       <c r="K37" s="1">
         <v>3</v>
       </c>
@@ -38585,7 +39119,7 @@
       <c r="M37" s="20">
         <v>0.98</v>
       </c>
-      <c r="N37" s="47"/>
+      <c r="N37" s="50"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
@@ -38597,7 +39131,7 @@
       <c r="C38" s="20">
         <v>0.97699999999999998</v>
       </c>
-      <c r="D38" s="47"/>
+      <c r="D38" s="50"/>
       <c r="F38" s="1">
         <v>4</v>
       </c>
@@ -38607,7 +39141,7 @@
       <c r="H38" s="20">
         <v>0.96799999999999997</v>
       </c>
-      <c r="I38" s="47"/>
+      <c r="I38" s="50"/>
       <c r="K38" s="1">
         <v>4</v>
       </c>
@@ -38617,7 +39151,7 @@
       <c r="M38" s="20">
         <v>0.97099999999999997</v>
       </c>
-      <c r="N38" s="47"/>
+      <c r="N38" s="50"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
@@ -38629,7 +39163,7 @@
       <c r="C39" s="20">
         <v>0.98199999999999998</v>
       </c>
-      <c r="D39" s="47"/>
+      <c r="D39" s="50"/>
       <c r="F39" s="1">
         <v>5</v>
       </c>
@@ -38639,7 +39173,7 @@
       <c r="H39" s="20">
         <v>0.96699999999999997</v>
       </c>
-      <c r="I39" s="47"/>
+      <c r="I39" s="50"/>
       <c r="K39" s="1">
         <v>5</v>
       </c>
@@ -38649,7 +39183,7 @@
       <c r="M39" s="20">
         <v>0.873</v>
       </c>
-      <c r="N39" s="47"/>
+      <c r="N39" s="50"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
@@ -38661,7 +39195,7 @@
       <c r="C40" s="20">
         <v>0.94399999999999995</v>
       </c>
-      <c r="D40" s="47"/>
+      <c r="D40" s="50"/>
       <c r="F40" s="1">
         <v>6</v>
       </c>
@@ -38671,7 +39205,7 @@
       <c r="H40" s="20">
         <v>0.96399999999999997</v>
       </c>
-      <c r="I40" s="47"/>
+      <c r="I40" s="50"/>
       <c r="K40" s="1">
         <v>6</v>
       </c>
@@ -38681,7 +39215,7 @@
       <c r="M40" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="N40" s="47"/>
+      <c r="N40" s="50"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
@@ -38693,7 +39227,7 @@
       <c r="C41" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="D41" s="47"/>
+      <c r="D41" s="50"/>
       <c r="F41" s="1">
         <v>7</v>
       </c>
@@ -38703,7 +39237,7 @@
       <c r="H41" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I41" s="47"/>
+      <c r="I41" s="50"/>
       <c r="K41" s="1">
         <v>7</v>
       </c>
@@ -38713,7 +39247,7 @@
       <c r="M41" s="20">
         <v>0.93</v>
       </c>
-      <c r="N41" s="47"/>
+      <c r="N41" s="50"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
@@ -38725,7 +39259,7 @@
       <c r="C42" s="20">
         <v>0.94599999999999995</v>
       </c>
-      <c r="D42" s="47"/>
+      <c r="D42" s="50"/>
       <c r="F42" s="1">
         <v>8</v>
       </c>
@@ -38735,7 +39269,7 @@
       <c r="H42" s="20">
         <v>0.82099999999999995</v>
       </c>
-      <c r="I42" s="47"/>
+      <c r="I42" s="50"/>
       <c r="K42" s="1">
         <v>8</v>
       </c>
@@ -38745,7 +39279,7 @@
       <c r="M42" s="20">
         <v>0.98699999999999999</v>
       </c>
-      <c r="N42" s="47"/>
+      <c r="N42" s="50"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
@@ -38757,7 +39291,7 @@
       <c r="C43" s="20">
         <v>0.98099999999999998</v>
       </c>
-      <c r="D43" s="47"/>
+      <c r="D43" s="50"/>
       <c r="F43" s="1">
         <v>9</v>
       </c>
@@ -38767,7 +39301,7 @@
       <c r="H43" s="20">
         <v>0.82799999999999996</v>
       </c>
-      <c r="I43" s="47"/>
+      <c r="I43" s="50"/>
       <c r="K43" s="1">
         <v>9</v>
       </c>
@@ -38777,7 +39311,7 @@
       <c r="M43" s="20">
         <v>0.93500000000000005</v>
       </c>
-      <c r="N43" s="47"/>
+      <c r="N43" s="50"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
@@ -38789,7 +39323,7 @@
       <c r="C44" s="20">
         <v>0.98399999999999999</v>
       </c>
-      <c r="D44" s="47"/>
+      <c r="D44" s="50"/>
       <c r="F44" s="1">
         <v>10</v>
       </c>
@@ -38799,7 +39333,7 @@
       <c r="H44" s="20">
         <v>0.84099999999999997</v>
       </c>
-      <c r="I44" s="47"/>
+      <c r="I44" s="50"/>
       <c r="K44" s="1">
         <v>10</v>
       </c>
@@ -38809,7 +39343,7 @@
       <c r="M44" s="20">
         <v>0.92500000000000004</v>
       </c>
-      <c r="N44" s="47"/>
+      <c r="N44" s="50"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
@@ -38821,7 +39355,7 @@
       <c r="C45" s="20">
         <v>0.95299999999999996</v>
       </c>
-      <c r="D45" s="47"/>
+      <c r="D45" s="50"/>
       <c r="F45" s="1">
         <v>11</v>
       </c>
@@ -38831,7 +39365,7 @@
       <c r="H45" s="20">
         <v>0.98</v>
       </c>
-      <c r="I45" s="47"/>
+      <c r="I45" s="50"/>
       <c r="K45" s="1">
         <v>11</v>
       </c>
@@ -38841,7 +39375,7 @@
       <c r="M45" s="20">
         <v>0.92400000000000004</v>
       </c>
-      <c r="N45" s="47"/>
+      <c r="N45" s="50"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
@@ -38853,7 +39387,7 @@
       <c r="C46" s="20">
         <v>0.92100000000000004</v>
       </c>
-      <c r="D46" s="47"/>
+      <c r="D46" s="50"/>
       <c r="F46" s="1">
         <v>12</v>
       </c>
@@ -38863,7 +39397,7 @@
       <c r="H46" s="20">
         <v>0.84</v>
       </c>
-      <c r="I46" s="47"/>
+      <c r="I46" s="50"/>
       <c r="K46" s="1">
         <v>12</v>
       </c>
@@ -38873,7 +39407,7 @@
       <c r="M46" s="20">
         <v>0.93300000000000005</v>
       </c>
-      <c r="N46" s="47"/>
+      <c r="N46" s="50"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -38914,7 +39448,7 @@
       <c r="C67" s="20">
         <v>0.77700000000000002</v>
       </c>
-      <c r="D67" s="47" t="s">
+      <c r="D67" s="50" t="s">
         <v>23</v>
       </c>
       <c r="F67" s="1">
@@ -38926,7 +39460,7 @@
       <c r="H67" s="20">
         <v>0.75900000000000001</v>
       </c>
-      <c r="I67" s="47" t="s">
+      <c r="I67" s="50" t="s">
         <v>24</v>
       </c>
       <c r="K67" s="1">
@@ -38938,7 +39472,7 @@
       <c r="M67" s="20">
         <v>0.89400000000000002</v>
       </c>
-      <c r="N67" s="47" t="s">
+      <c r="N67" s="50" t="s">
         <v>25</v>
       </c>
     </row>
@@ -38952,7 +39486,7 @@
       <c r="C68" s="20">
         <v>0.85099999999999998</v>
       </c>
-      <c r="D68" s="47"/>
+      <c r="D68" s="50"/>
       <c r="F68" s="1">
         <v>1</v>
       </c>
@@ -38962,7 +39496,7 @@
       <c r="H68" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I68" s="47"/>
+      <c r="I68" s="50"/>
       <c r="K68" s="1">
         <v>1</v>
       </c>
@@ -38972,7 +39506,7 @@
       <c r="M68" s="20">
         <v>0.94299999999999995</v>
       </c>
-      <c r="N68" s="47"/>
+      <c r="N68" s="50"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
@@ -38984,7 +39518,7 @@
       <c r="C69" s="20">
         <v>0.93300000000000005</v>
       </c>
-      <c r="D69" s="47"/>
+      <c r="D69" s="50"/>
       <c r="F69" s="1">
         <v>2</v>
       </c>
@@ -38994,7 +39528,7 @@
       <c r="H69" s="20">
         <v>0.81899999999999995</v>
       </c>
-      <c r="I69" s="47"/>
+      <c r="I69" s="50"/>
       <c r="K69" s="1">
         <v>2</v>
       </c>
@@ -39004,7 +39538,7 @@
       <c r="M69" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="N69" s="47"/>
+      <c r="N69" s="50"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
@@ -39016,7 +39550,7 @@
       <c r="C70" s="20">
         <v>0.92700000000000005</v>
       </c>
-      <c r="D70" s="47"/>
+      <c r="D70" s="50"/>
       <c r="F70" s="1">
         <v>3</v>
       </c>
@@ -39026,7 +39560,7 @@
       <c r="H70" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I70" s="47"/>
+      <c r="I70" s="50"/>
       <c r="K70" s="1">
         <v>3</v>
       </c>
@@ -39036,7 +39570,7 @@
       <c r="M70" s="20">
         <v>0.97499999999999998</v>
       </c>
-      <c r="N70" s="47"/>
+      <c r="N70" s="50"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
@@ -39048,7 +39582,7 @@
       <c r="C71" s="20">
         <v>0.90600000000000003</v>
       </c>
-      <c r="D71" s="47"/>
+      <c r="D71" s="50"/>
       <c r="F71" s="1">
         <v>4</v>
       </c>
@@ -39058,7 +39592,7 @@
       <c r="H71" s="20">
         <v>0.96899999999999997</v>
       </c>
-      <c r="I71" s="47"/>
+      <c r="I71" s="50"/>
       <c r="K71" s="1">
         <v>4</v>
       </c>
@@ -39068,7 +39602,7 @@
       <c r="M71" s="20">
         <v>0.85199999999999998</v>
       </c>
-      <c r="N71" s="47"/>
+      <c r="N71" s="50"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
@@ -39080,7 +39614,7 @@
       <c r="C72" s="20">
         <v>0.92</v>
       </c>
-      <c r="D72" s="47"/>
+      <c r="D72" s="50"/>
       <c r="F72" s="1">
         <v>5</v>
       </c>
@@ -39090,7 +39624,7 @@
       <c r="H72" s="20">
         <v>0.96499999999999997</v>
       </c>
-      <c r="I72" s="47"/>
+      <c r="I72" s="50"/>
       <c r="K72" s="1">
         <v>5</v>
       </c>
@@ -39100,7 +39634,7 @@
       <c r="M72" s="20">
         <v>0.86899999999999999</v>
       </c>
-      <c r="N72" s="47"/>
+      <c r="N72" s="50"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
@@ -39112,7 +39646,7 @@
       <c r="C73" s="20">
         <v>0.96199999999999997</v>
       </c>
-      <c r="D73" s="47"/>
+      <c r="D73" s="50"/>
       <c r="F73" s="1">
         <v>6</v>
       </c>
@@ -39122,7 +39656,7 @@
       <c r="H73" s="20">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I73" s="47"/>
+      <c r="I73" s="50"/>
       <c r="K73" s="1">
         <v>6</v>
       </c>
@@ -39132,7 +39666,7 @@
       <c r="M73" s="20">
         <v>0.876</v>
       </c>
-      <c r="N73" s="47"/>
+      <c r="N73" s="50"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
@@ -39144,7 +39678,7 @@
       <c r="C74" s="20">
         <v>0.82199999999999995</v>
       </c>
-      <c r="D74" s="47"/>
+      <c r="D74" s="50"/>
       <c r="F74" s="1">
         <v>7</v>
       </c>
@@ -39154,7 +39688,7 @@
       <c r="H74" s="20">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I74" s="47"/>
+      <c r="I74" s="50"/>
       <c r="K74" s="1">
         <v>7</v>
       </c>
@@ -39164,7 +39698,7 @@
       <c r="M74" s="20">
         <v>0.89300000000000002</v>
       </c>
-      <c r="N74" s="47"/>
+      <c r="N74" s="50"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
@@ -39176,7 +39710,7 @@
       <c r="C75" s="20">
         <v>0.82399999999999995</v>
       </c>
-      <c r="D75" s="47"/>
+      <c r="D75" s="50"/>
       <c r="F75" s="1">
         <v>8</v>
       </c>
@@ -39186,7 +39720,7 @@
       <c r="H75" s="20">
         <v>0.91800000000000004</v>
       </c>
-      <c r="I75" s="47"/>
+      <c r="I75" s="50"/>
       <c r="K75" s="1">
         <v>8</v>
       </c>
@@ -39196,7 +39730,7 @@
       <c r="M75" s="20">
         <v>0.98799999999999999</v>
       </c>
-      <c r="N75" s="47"/>
+      <c r="N75" s="50"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
@@ -39208,7 +39742,7 @@
       <c r="C76" s="20">
         <v>0.92500000000000004</v>
       </c>
-      <c r="D76" s="47"/>
+      <c r="D76" s="50"/>
       <c r="F76" s="1">
         <v>9</v>
       </c>
@@ -39218,7 +39752,7 @@
       <c r="H76" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="I76" s="47"/>
+      <c r="I76" s="50"/>
       <c r="K76" s="1">
         <v>9</v>
       </c>
@@ -39228,7 +39762,7 @@
       <c r="M76" s="20">
         <v>0.89500000000000002</v>
       </c>
-      <c r="N76" s="47"/>
+      <c r="N76" s="50"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
@@ -39240,7 +39774,7 @@
       <c r="C77" s="20">
         <v>0.83199999999999996</v>
       </c>
-      <c r="D77" s="47"/>
+      <c r="D77" s="50"/>
       <c r="F77" s="1">
         <v>10</v>
       </c>
@@ -39250,7 +39784,7 @@
       <c r="H77" s="20">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I77" s="47"/>
+      <c r="I77" s="50"/>
       <c r="K77" s="1">
         <v>10</v>
       </c>
@@ -39260,7 +39794,7 @@
       <c r="M77" s="20">
         <v>0.98199999999999998</v>
       </c>
-      <c r="N77" s="47"/>
+      <c r="N77" s="50"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
@@ -39272,7 +39806,7 @@
       <c r="C78" s="20">
         <v>0.82899999999999996</v>
       </c>
-      <c r="D78" s="47"/>
+      <c r="D78" s="50"/>
       <c r="F78" s="1">
         <v>11</v>
       </c>
@@ -39282,7 +39816,7 @@
       <c r="H78" s="20">
         <v>0.94899999999999995</v>
       </c>
-      <c r="I78" s="47"/>
+      <c r="I78" s="50"/>
       <c r="K78" s="1">
         <v>11</v>
       </c>
@@ -39292,7 +39826,7 @@
       <c r="M78" s="20">
         <v>0.98099999999999998</v>
       </c>
-      <c r="N78" s="47"/>
+      <c r="N78" s="50"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -39304,7 +39838,7 @@
       <c r="C79" s="20">
         <v>0.95399999999999996</v>
       </c>
-      <c r="D79" s="47"/>
+      <c r="D79" s="50"/>
       <c r="F79" s="1">
         <v>12</v>
       </c>
@@ -39314,7 +39848,7 @@
       <c r="H79" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="I79" s="47"/>
+      <c r="I79" s="50"/>
       <c r="K79" s="1">
         <v>12</v>
       </c>
@@ -39324,7 +39858,7 @@
       <c r="M79" s="20">
         <v>0.95899999999999996</v>
       </c>
-      <c r="N79" s="47"/>
+      <c r="N79" s="50"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
@@ -39365,7 +39899,7 @@
       <c r="C99" s="20">
         <v>0.92200000000000004</v>
       </c>
-      <c r="D99" s="47" t="s">
+      <c r="D99" s="50" t="s">
         <v>26</v>
       </c>
       <c r="F99" s="1">
@@ -39377,7 +39911,7 @@
       <c r="H99" s="20">
         <v>0.874</v>
       </c>
-      <c r="I99" s="47" t="s">
+      <c r="I99" s="50" t="s">
         <v>27</v>
       </c>
       <c r="K99" s="1">
@@ -39389,7 +39923,7 @@
       <c r="M99" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="N99" s="47" t="s">
+      <c r="N99" s="50" t="s">
         <v>28</v>
       </c>
     </row>
@@ -39403,7 +39937,7 @@
       <c r="C100" s="20">
         <v>0.91600000000000004</v>
       </c>
-      <c r="D100" s="47"/>
+      <c r="D100" s="50"/>
       <c r="F100" s="1">
         <v>1</v>
       </c>
@@ -39413,7 +39947,7 @@
       <c r="H100" s="20">
         <v>0.89500000000000002</v>
       </c>
-      <c r="I100" s="47"/>
+      <c r="I100" s="50"/>
       <c r="K100" s="1">
         <v>1</v>
       </c>
@@ -39423,7 +39957,7 @@
       <c r="M100" s="20">
         <v>0.98499999999999999</v>
       </c>
-      <c r="N100" s="47"/>
+      <c r="N100" s="50"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
@@ -39435,7 +39969,7 @@
       <c r="C101" s="20">
         <v>0.89200000000000002</v>
       </c>
-      <c r="D101" s="47"/>
+      <c r="D101" s="50"/>
       <c r="F101" s="1">
         <v>2</v>
       </c>
@@ -39445,7 +39979,7 @@
       <c r="H101" s="20">
         <v>0.96299999999999997</v>
       </c>
-      <c r="I101" s="47"/>
+      <c r="I101" s="50"/>
       <c r="K101" s="1">
         <v>2</v>
       </c>
@@ -39455,7 +39989,7 @@
       <c r="M101" s="20">
         <v>0.96699999999999997</v>
       </c>
-      <c r="N101" s="47"/>
+      <c r="N101" s="50"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
@@ -39467,7 +40001,7 @@
       <c r="C102" s="20">
         <v>0.91</v>
       </c>
-      <c r="D102" s="47"/>
+      <c r="D102" s="50"/>
       <c r="F102" s="1">
         <v>3</v>
       </c>
@@ -39477,7 +40011,7 @@
       <c r="H102" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I102" s="47"/>
+      <c r="I102" s="50"/>
       <c r="K102" s="1">
         <v>3</v>
       </c>
@@ -39487,7 +40021,7 @@
       <c r="M102" s="20">
         <v>0.995</v>
       </c>
-      <c r="N102" s="47"/>
+      <c r="N102" s="50"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
@@ -39499,7 +40033,7 @@
       <c r="C103" s="20">
         <v>0.89800000000000002</v>
       </c>
-      <c r="D103" s="47"/>
+      <c r="D103" s="50"/>
       <c r="F103" s="1">
         <v>4</v>
       </c>
@@ -39509,7 +40043,7 @@
       <c r="H103" s="20">
         <v>0.98399999999999999</v>
       </c>
-      <c r="I103" s="47"/>
+      <c r="I103" s="50"/>
       <c r="K103" s="1">
         <v>4</v>
       </c>
@@ -39519,7 +40053,7 @@
       <c r="M103" s="20">
         <v>0.98699999999999999</v>
       </c>
-      <c r="N103" s="47"/>
+      <c r="N103" s="50"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
@@ -39531,7 +40065,7 @@
       <c r="C104" s="20">
         <v>0.88</v>
       </c>
-      <c r="D104" s="47"/>
+      <c r="D104" s="50"/>
       <c r="F104" s="1">
         <v>5</v>
       </c>
@@ -39541,7 +40075,7 @@
       <c r="H104" s="20">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I104" s="47"/>
+      <c r="I104" s="50"/>
       <c r="K104" s="1">
         <v>5</v>
       </c>
@@ -39551,7 +40085,7 @@
       <c r="M104" s="20">
         <v>0.996</v>
       </c>
-      <c r="N104" s="47"/>
+      <c r="N104" s="50"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
@@ -39563,7 +40097,7 @@
       <c r="C105" s="20">
         <v>0.90400000000000003</v>
       </c>
-      <c r="D105" s="47"/>
+      <c r="D105" s="50"/>
       <c r="F105" s="1">
         <v>6</v>
       </c>
@@ -39573,7 +40107,7 @@
       <c r="H105" s="20">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I105" s="47"/>
+      <c r="I105" s="50"/>
       <c r="K105" s="1">
         <v>6</v>
       </c>
@@ -39583,7 +40117,7 @@
       <c r="M105" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="N105" s="47"/>
+      <c r="N105" s="50"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
@@ -39595,7 +40129,7 @@
       <c r="C106" s="20">
         <v>0.96699999999999997</v>
       </c>
-      <c r="D106" s="47"/>
+      <c r="D106" s="50"/>
       <c r="F106" s="1">
         <v>7</v>
       </c>
@@ -39605,7 +40139,7 @@
       <c r="H106" s="20">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I106" s="47"/>
+      <c r="I106" s="50"/>
       <c r="K106" s="1">
         <v>7</v>
       </c>
@@ -39615,7 +40149,7 @@
       <c r="M106" s="20">
         <v>0.98899999999999999</v>
       </c>
-      <c r="N106" s="47"/>
+      <c r="N106" s="50"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
@@ -39627,7 +40161,7 @@
       <c r="C107" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="D107" s="47"/>
+      <c r="D107" s="50"/>
       <c r="F107" s="1">
         <v>8</v>
       </c>
@@ -39637,7 +40171,7 @@
       <c r="H107" s="20">
         <v>0.98899999999999999</v>
       </c>
-      <c r="I107" s="47"/>
+      <c r="I107" s="50"/>
       <c r="K107" s="1">
         <v>8</v>
       </c>
@@ -39647,7 +40181,7 @@
       <c r="M107" s="20">
         <v>0.96099999999999997</v>
       </c>
-      <c r="N107" s="47"/>
+      <c r="N107" s="50"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
@@ -39659,7 +40193,7 @@
       <c r="C108" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D108" s="47"/>
+      <c r="D108" s="50"/>
       <c r="F108" s="1">
         <v>9</v>
       </c>
@@ -39669,7 +40203,7 @@
       <c r="H108" s="20">
         <v>0.89900000000000002</v>
       </c>
-      <c r="I108" s="47"/>
+      <c r="I108" s="50"/>
       <c r="K108" s="1">
         <v>9</v>
       </c>
@@ -39679,7 +40213,7 @@
       <c r="M108" s="20">
         <v>0.96</v>
       </c>
-      <c r="N108" s="47"/>
+      <c r="N108" s="50"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
@@ -39691,7 +40225,7 @@
       <c r="C109" s="20">
         <v>0.97699999999999998</v>
       </c>
-      <c r="D109" s="47"/>
+      <c r="D109" s="50"/>
       <c r="F109" s="1">
         <v>10</v>
       </c>
@@ -39701,7 +40235,7 @@
       <c r="H109" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I109" s="47"/>
+      <c r="I109" s="50"/>
       <c r="K109" s="1">
         <v>10</v>
       </c>
@@ -39711,7 +40245,7 @@
       <c r="M109" s="20">
         <v>0.96399999999999997</v>
       </c>
-      <c r="N109" s="47"/>
+      <c r="N109" s="50"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
@@ -39723,7 +40257,7 @@
       <c r="C110" s="20">
         <v>0.97599999999999998</v>
       </c>
-      <c r="D110" s="47"/>
+      <c r="D110" s="50"/>
       <c r="F110" s="1">
         <v>11</v>
       </c>
@@ -39733,7 +40267,7 @@
       <c r="H110" s="20">
         <v>0.85599999999999998</v>
       </c>
-      <c r="I110" s="47"/>
+      <c r="I110" s="50"/>
       <c r="K110" s="1">
         <v>11</v>
       </c>
@@ -39743,7 +40277,7 @@
       <c r="M110" s="20">
         <v>0.96</v>
       </c>
-      <c r="N110" s="47"/>
+      <c r="N110" s="50"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
@@ -39755,7 +40289,7 @@
       <c r="C111" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="D111" s="47"/>
+      <c r="D111" s="50"/>
       <c r="F111" s="1">
         <v>12</v>
       </c>
@@ -39765,7 +40299,7 @@
       <c r="H111" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I111" s="47"/>
+      <c r="I111" s="50"/>
       <c r="K111" s="1">
         <v>12</v>
       </c>
@@ -39775,33 +40309,33 @@
       <c r="M111" s="20">
         <v>0.96599999999999997</v>
       </c>
-      <c r="N111" s="47"/>
+      <c r="N111" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D2:D14"/>
+    <mergeCell ref="I2:I14"/>
+    <mergeCell ref="N2:N8"/>
+    <mergeCell ref="D34:D46"/>
+    <mergeCell ref="I34:I46"/>
+    <mergeCell ref="N34:N46"/>
     <mergeCell ref="D67:D79"/>
     <mergeCell ref="I67:I79"/>
     <mergeCell ref="N67:N79"/>
     <mergeCell ref="D99:D111"/>
     <mergeCell ref="I99:I111"/>
     <mergeCell ref="N99:N111"/>
-    <mergeCell ref="D2:D14"/>
-    <mergeCell ref="I2:I14"/>
-    <mergeCell ref="N2:N8"/>
-    <mergeCell ref="D34:D46"/>
-    <mergeCell ref="I34:I46"/>
-    <mergeCell ref="N34:N46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD302C83-6A19-1746-8058-E37651EDB290}">
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
@@ -39849,7 +40383,7 @@
       <c r="C2" s="24">
         <v>0.66666700000000001</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="50" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="1">
@@ -39861,7 +40395,7 @@
       <c r="H2" s="24">
         <v>0.66666700000000001</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="50" t="s">
         <v>28</v>
       </c>
       <c r="L2" s="1">
@@ -39873,7 +40407,7 @@
       <c r="N2" s="24">
         <v>0.66666700000000001</v>
       </c>
-      <c r="O2" s="47" t="s">
+      <c r="O2" s="50" t="s">
         <v>17</v>
       </c>
     </row>
@@ -39887,7 +40421,7 @@
       <c r="C3" s="24">
         <v>0.65348499999999998</v>
       </c>
-      <c r="D3" s="47"/>
+      <c r="D3" s="50"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -39897,7 +40431,7 @@
       <c r="H3" s="24">
         <v>0.27420099999999997</v>
       </c>
-      <c r="I3" s="47"/>
+      <c r="I3" s="50"/>
       <c r="L3" s="1">
         <v>1</v>
       </c>
@@ -39907,7 +40441,7 @@
       <c r="N3" s="24">
         <v>0.580538</v>
       </c>
-      <c r="O3" s="47"/>
+      <c r="O3" s="50"/>
     </row>
     <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -39919,7 +40453,7 @@
       <c r="C4" s="24">
         <v>0.66902099999999998</v>
       </c>
-      <c r="D4" s="47"/>
+      <c r="D4" s="50"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -39929,7 +40463,7 @@
       <c r="H4" s="24">
         <v>2.7483E-2</v>
       </c>
-      <c r="I4" s="47"/>
+      <c r="I4" s="50"/>
       <c r="L4" s="1">
         <v>2</v>
       </c>
@@ -39939,7 +40473,7 @@
       <c r="N4" s="24">
         <v>0.66517199999999999</v>
       </c>
-      <c r="O4" s="47"/>
+      <c r="O4" s="50"/>
     </row>
     <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -39951,7 +40485,7 @@
       <c r="C5" s="24">
         <v>0.70086899999999996</v>
       </c>
-      <c r="D5" s="47"/>
+      <c r="D5" s="50"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -39961,7 +40495,7 @@
       <c r="H5" s="24">
         <v>0</v>
       </c>
-      <c r="I5" s="47"/>
+      <c r="I5" s="50"/>
       <c r="L5" s="1">
         <v>3</v>
       </c>
@@ -39971,7 +40505,7 @@
       <c r="N5" s="24">
         <v>0.70030700000000001</v>
       </c>
-      <c r="O5" s="47"/>
+      <c r="O5" s="50"/>
     </row>
     <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -39983,7 +40517,7 @@
       <c r="C6" s="24">
         <v>0.77109499999999997</v>
       </c>
-      <c r="D6" s="47"/>
+      <c r="D6" s="50"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -39993,7 +40527,7 @@
       <c r="H6" s="24">
         <v>0</v>
       </c>
-      <c r="I6" s="47"/>
+      <c r="I6" s="50"/>
       <c r="L6" s="1">
         <v>4</v>
       </c>
@@ -40003,7 +40537,7 @@
       <c r="N6" s="24">
         <v>0.719943</v>
       </c>
-      <c r="O6" s="47"/>
+      <c r="O6" s="50"/>
     </row>
     <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -40015,7 +40549,7 @@
       <c r="C7" s="24">
         <v>0.77710599999999996</v>
       </c>
-      <c r="D7" s="47"/>
+      <c r="D7" s="50"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -40025,7 +40559,7 @@
       <c r="H7" s="24">
         <v>0</v>
       </c>
-      <c r="I7" s="47"/>
+      <c r="I7" s="50"/>
       <c r="L7" s="1">
         <v>5</v>
       </c>
@@ -40035,7 +40569,7 @@
       <c r="N7" s="24">
         <v>0.73305900000000002</v>
       </c>
-      <c r="O7" s="47"/>
+      <c r="O7" s="50"/>
     </row>
     <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -40047,7 +40581,7 @@
       <c r="C8" s="24">
         <v>0.78310199999999996</v>
       </c>
-      <c r="D8" s="47"/>
+      <c r="D8" s="50"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -40057,7 +40591,7 @@
       <c r="H8" s="24">
         <v>0</v>
       </c>
-      <c r="I8" s="47"/>
+      <c r="I8" s="50"/>
       <c r="L8" s="1">
         <v>6</v>
       </c>
@@ -40067,7 +40601,7 @@
       <c r="N8" s="24">
         <v>0.76053599999999999</v>
       </c>
-      <c r="O8" s="47"/>
+      <c r="O8" s="50"/>
     </row>
     <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -40079,7 +40613,7 @@
       <c r="C9" s="24">
         <v>0.77618500000000001</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="50"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -40089,7 +40623,7 @@
       <c r="H9" s="24">
         <v>0</v>
       </c>
-      <c r="I9" s="47"/>
+      <c r="I9" s="50"/>
       <c r="L9" s="1">
         <v>7</v>
       </c>
@@ -40099,7 +40633,7 @@
       <c r="N9" s="24">
         <v>0.79497499999999999</v>
       </c>
-      <c r="O9" s="47"/>
+      <c r="O9" s="50"/>
     </row>
     <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -40111,7 +40645,7 @@
       <c r="C10" s="24">
         <v>0.77377200000000002</v>
       </c>
-      <c r="D10" s="47"/>
+      <c r="D10" s="50"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -40121,7 +40655,7 @@
       <c r="H10" s="24">
         <v>0.70416000000000001</v>
       </c>
-      <c r="I10" s="47"/>
+      <c r="I10" s="50"/>
       <c r="L10" s="1">
         <v>8</v>
       </c>
@@ -40131,7 +40665,7 @@
       <c r="N10" s="24">
         <v>0.80194399999999999</v>
       </c>
-      <c r="O10" s="47"/>
+      <c r="O10" s="50"/>
     </row>
     <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -40143,7 +40677,7 @@
       <c r="C11" s="24">
         <v>0.76970400000000005</v>
       </c>
-      <c r="D11" s="47"/>
+      <c r="D11" s="50"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -40153,7 +40687,7 @@
       <c r="H11" s="24">
         <v>0.68451700000000004</v>
       </c>
-      <c r="I11" s="47"/>
+      <c r="I11" s="50"/>
       <c r="L11" s="1">
         <v>9</v>
       </c>
@@ -40163,7 +40697,7 @@
       <c r="N11" s="24">
         <v>0.79460600000000003</v>
       </c>
-      <c r="O11" s="47"/>
+      <c r="O11" s="50"/>
     </row>
     <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -40175,7 +40709,7 @@
       <c r="C12" s="24">
         <v>0.76261299999999999</v>
       </c>
-      <c r="D12" s="47"/>
+      <c r="D12" s="50"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -40185,7 +40719,7 @@
       <c r="H12" s="24">
         <v>0.46307300000000001</v>
       </c>
-      <c r="I12" s="47"/>
+      <c r="I12" s="50"/>
       <c r="L12" s="1">
         <v>10</v>
       </c>
@@ -40195,7 +40729,7 @@
       <c r="N12" s="24">
         <v>0.80569400000000002</v>
       </c>
-      <c r="O12" s="47"/>
+      <c r="O12" s="50"/>
     </row>
     <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -40207,7 +40741,7 @@
       <c r="C13" s="24">
         <v>0.80696299999999999</v>
       </c>
-      <c r="D13" s="47"/>
+      <c r="D13" s="50"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -40217,7 +40751,7 @@
       <c r="H13" s="24">
         <v>0.77209799999999995</v>
       </c>
-      <c r="I13" s="47"/>
+      <c r="I13" s="50"/>
       <c r="L13" s="1">
         <v>11</v>
       </c>
@@ -40227,7 +40761,7 @@
       <c r="N13" s="24">
         <v>0.81855800000000001</v>
       </c>
-      <c r="O13" s="47"/>
+      <c r="O13" s="50"/>
     </row>
     <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -40239,7 +40773,7 @@
       <c r="C14" s="24">
         <v>0.80464199999999997</v>
       </c>
-      <c r="D14" s="47"/>
+      <c r="D14" s="50"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -40249,7 +40783,7 @@
       <c r="H14" s="24">
         <v>0.82798700000000003</v>
       </c>
-      <c r="I14" s="47"/>
+      <c r="I14" s="50"/>
       <c r="L14" s="1">
         <v>12</v>
       </c>
@@ -40259,7 +40793,7 @@
       <c r="N14" s="24">
         <v>0.80542800000000003</v>
       </c>
-      <c r="O14" s="47"/>
+      <c r="O14" s="50"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="31" t="s">
@@ -40300,7 +40834,7 @@
       <c r="C37" s="24">
         <v>0</v>
       </c>
-      <c r="D37" s="47" t="s">
+      <c r="D37" s="50" t="s">
         <v>16</v>
       </c>
       <c r="F37" s="31">
@@ -40312,7 +40846,7 @@
       <c r="H37" s="24">
         <v>0</v>
       </c>
-      <c r="I37" s="47" t="s">
+      <c r="I37" s="50" t="s">
         <v>26</v>
       </c>
       <c r="K37" s="31">
@@ -40324,7 +40858,7 @@
       <c r="M37" s="24">
         <v>0</v>
       </c>
-      <c r="N37" s="47" t="s">
+      <c r="N37" s="50" t="s">
         <v>27</v>
       </c>
     </row>
@@ -40338,7 +40872,7 @@
       <c r="C38" s="24">
         <v>0.66893400000000003</v>
       </c>
-      <c r="D38" s="47"/>
+      <c r="D38" s="50"/>
       <c r="F38" s="31">
         <v>1</v>
       </c>
@@ -40348,7 +40882,7 @@
       <c r="H38" s="24">
         <v>0.73725099999999999</v>
       </c>
-      <c r="I38" s="47"/>
+      <c r="I38" s="50"/>
       <c r="K38" s="31">
         <v>1</v>
       </c>
@@ -40358,7 +40892,7 @@
       <c r="M38" s="24">
         <v>0.760988</v>
       </c>
-      <c r="N38" s="47"/>
+      <c r="N38" s="50"/>
     </row>
     <row r="39" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A39" s="31">
@@ -40370,7 +40904,7 @@
       <c r="C39" s="24">
         <v>0.70960599999999996</v>
       </c>
-      <c r="D39" s="47"/>
+      <c r="D39" s="50"/>
       <c r="F39" s="31">
         <v>2</v>
       </c>
@@ -40380,7 +40914,7 @@
       <c r="H39" s="24">
         <v>0.78292700000000004</v>
       </c>
-      <c r="I39" s="47"/>
+      <c r="I39" s="50"/>
       <c r="K39" s="31">
         <v>2</v>
       </c>
@@ -40390,7 +40924,7 @@
       <c r="M39" s="24">
         <v>0.68244000000000005</v>
       </c>
-      <c r="N39" s="47"/>
+      <c r="N39" s="50"/>
     </row>
     <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A40" s="31">
@@ -40402,7 +40936,7 @@
       <c r="C40" s="24">
         <v>0.71426400000000001</v>
       </c>
-      <c r="D40" s="47"/>
+      <c r="D40" s="50"/>
       <c r="F40" s="31">
         <v>3</v>
       </c>
@@ -40412,7 +40946,7 @@
       <c r="H40" s="24">
         <v>0.78676100000000004</v>
       </c>
-      <c r="I40" s="47"/>
+      <c r="I40" s="50"/>
       <c r="K40" s="31">
         <v>3</v>
       </c>
@@ -40422,7 +40956,7 @@
       <c r="M40" s="24">
         <v>0.63009599999999999</v>
       </c>
-      <c r="N40" s="47"/>
+      <c r="N40" s="50"/>
     </row>
     <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A41" s="31">
@@ -40434,7 +40968,7 @@
       <c r="C41" s="24">
         <v>0.71233500000000005</v>
       </c>
-      <c r="D41" s="47"/>
+      <c r="D41" s="50"/>
       <c r="F41" s="31">
         <v>4</v>
       </c>
@@ -40444,7 +40978,7 @@
       <c r="H41" s="24">
         <v>0.79497300000000004</v>
       </c>
-      <c r="I41" s="47"/>
+      <c r="I41" s="50"/>
       <c r="K41" s="31">
         <v>4</v>
       </c>
@@ -40454,7 +40988,7 @@
       <c r="M41" s="24">
         <v>0.602321</v>
       </c>
-      <c r="N41" s="47"/>
+      <c r="N41" s="50"/>
     </row>
     <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A42" s="31">
@@ -40466,7 +41000,7 @@
       <c r="C42" s="24">
         <v>0.69982599999999995</v>
       </c>
-      <c r="D42" s="47"/>
+      <c r="D42" s="50"/>
       <c r="F42" s="31">
         <v>5</v>
       </c>
@@ -40476,7 +41010,7 @@
       <c r="H42" s="24">
         <v>0.80255600000000005</v>
       </c>
-      <c r="I42" s="47"/>
+      <c r="I42" s="50"/>
       <c r="K42" s="31">
         <v>5</v>
       </c>
@@ -40486,7 +41020,7 @@
       <c r="M42" s="24">
         <v>0.51061299999999998</v>
       </c>
-      <c r="N42" s="47"/>
+      <c r="N42" s="50"/>
     </row>
     <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A43" s="31">
@@ -40498,7 +41032,7 @@
       <c r="C43" s="24">
         <v>0.68592900000000001</v>
       </c>
-      <c r="D43" s="47"/>
+      <c r="D43" s="50"/>
       <c r="F43" s="31">
         <v>6</v>
       </c>
@@ -40508,7 +41042,7 @@
       <c r="H43" s="24">
         <v>0.81109799999999999</v>
       </c>
-      <c r="I43" s="47"/>
+      <c r="I43" s="50"/>
       <c r="K43" s="31">
         <v>6</v>
       </c>
@@ -40518,7 +41052,7 @@
       <c r="M43" s="24">
         <v>0.83428199999999997</v>
       </c>
-      <c r="N43" s="47"/>
+      <c r="N43" s="50"/>
     </row>
     <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A44" s="31">
@@ -40530,7 +41064,7 @@
       <c r="C44" s="24">
         <v>0.703457</v>
       </c>
-      <c r="D44" s="47"/>
+      <c r="D44" s="50"/>
       <c r="F44" s="31">
         <v>7</v>
       </c>
@@ -40540,7 +41074,7 @@
       <c r="H44" s="24">
         <v>0.81226100000000001</v>
       </c>
-      <c r="I44" s="47"/>
+      <c r="I44" s="50"/>
       <c r="K44" s="31">
         <v>7</v>
       </c>
@@ -40550,7 +41084,7 @@
       <c r="M44" s="24">
         <v>0.73528800000000005</v>
       </c>
-      <c r="N44" s="47"/>
+      <c r="N44" s="50"/>
     </row>
     <row r="45" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A45" s="31">
@@ -40562,7 +41096,7 @@
       <c r="C45" s="24">
         <v>0.70218199999999997</v>
       </c>
-      <c r="D45" s="47"/>
+      <c r="D45" s="50"/>
       <c r="F45" s="31">
         <v>8</v>
       </c>
@@ -40572,7 +41106,7 @@
       <c r="H45" s="24">
         <v>0.83114600000000005</v>
       </c>
-      <c r="I45" s="47"/>
+      <c r="I45" s="50"/>
       <c r="K45" s="31">
         <v>8</v>
       </c>
@@ -40582,7 +41116,7 @@
       <c r="M45" s="24">
         <v>0.73614999999999997</v>
       </c>
-      <c r="N45" s="47"/>
+      <c r="N45" s="50"/>
     </row>
     <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A46" s="31">
@@ -40594,7 +41128,7 @@
       <c r="C46" s="24">
         <v>0.70156200000000002</v>
       </c>
-      <c r="D46" s="47"/>
+      <c r="D46" s="50"/>
       <c r="F46" s="31">
         <v>9</v>
       </c>
@@ -40604,7 +41138,7 @@
       <c r="H46" s="24">
         <v>0.83831100000000003</v>
       </c>
-      <c r="I46" s="47"/>
+      <c r="I46" s="50"/>
       <c r="K46" s="31">
         <v>9</v>
       </c>
@@ -40614,7 +41148,7 @@
       <c r="M46" s="24">
         <v>0.77739499999999995</v>
       </c>
-      <c r="N46" s="47"/>
+      <c r="N46" s="50"/>
     </row>
     <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A47" s="31">
@@ -40626,7 +41160,7 @@
       <c r="C47" s="24">
         <v>0.70720899999999998</v>
       </c>
-      <c r="D47" s="47"/>
+      <c r="D47" s="50"/>
       <c r="F47" s="31">
         <v>10</v>
       </c>
@@ -40636,7 +41170,7 @@
       <c r="H47" s="24">
         <v>0.84065400000000001</v>
       </c>
-      <c r="I47" s="47"/>
+      <c r="I47" s="50"/>
       <c r="K47" s="31">
         <v>10</v>
       </c>
@@ -40646,7 +41180,7 @@
       <c r="M47" s="24">
         <v>0.77222100000000005</v>
       </c>
-      <c r="N47" s="47"/>
+      <c r="N47" s="50"/>
     </row>
     <row r="48" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A48" s="31">
@@ -40658,7 +41192,7 @@
       <c r="C48" s="24">
         <v>0.71660900000000005</v>
       </c>
-      <c r="D48" s="47"/>
+      <c r="D48" s="50"/>
       <c r="F48" s="31">
         <v>11</v>
       </c>
@@ -40668,7 +41202,7 @@
       <c r="H48" s="24">
         <v>0.82713000000000003</v>
       </c>
-      <c r="I48" s="47"/>
+      <c r="I48" s="50"/>
       <c r="K48" s="31">
         <v>11</v>
       </c>
@@ -40678,7 +41212,7 @@
       <c r="M48" s="24">
         <v>0.73933599999999999</v>
       </c>
-      <c r="N48" s="47"/>
+      <c r="N48" s="50"/>
     </row>
     <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A49" s="31">
@@ -40690,7 +41224,7 @@
       <c r="C49" s="24">
         <v>0.722522</v>
       </c>
-      <c r="D49" s="47"/>
+      <c r="D49" s="50"/>
       <c r="F49" s="31">
         <v>12</v>
       </c>
@@ -40700,7 +41234,7 @@
       <c r="H49" s="24">
         <v>0.80716100000000002</v>
       </c>
-      <c r="I49" s="47"/>
+      <c r="I49" s="50"/>
       <c r="K49" s="31">
         <v>12</v>
       </c>
@@ -40710,7 +41244,7 @@
       <c r="M49" s="24">
         <v>0.814998</v>
       </c>
-      <c r="N49" s="47"/>
+      <c r="N49" s="50"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="31"/>
@@ -40721,79 +41255,79 @@
       <c r="A67" s="31"/>
       <c r="B67" s="24"/>
       <c r="C67" s="24"/>
-      <c r="D67" s="47"/>
+      <c r="D67" s="50"/>
     </row>
     <row r="68" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A68" s="31"/>
       <c r="B68" s="24"/>
       <c r="C68" s="24"/>
-      <c r="D68" s="47"/>
+      <c r="D68" s="50"/>
     </row>
     <row r="69" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A69" s="31"/>
       <c r="B69" s="24"/>
       <c r="C69" s="24"/>
-      <c r="D69" s="47"/>
+      <c r="D69" s="50"/>
     </row>
     <row r="70" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A70" s="31"/>
       <c r="B70" s="24"/>
       <c r="C70" s="24"/>
-      <c r="D70" s="47"/>
+      <c r="D70" s="50"/>
     </row>
     <row r="71" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A71" s="31"/>
       <c r="B71" s="24"/>
       <c r="C71" s="24"/>
-      <c r="D71" s="47"/>
+      <c r="D71" s="50"/>
     </row>
     <row r="72" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A72" s="31"/>
       <c r="B72" s="24"/>
       <c r="C72" s="24"/>
-      <c r="D72" s="47"/>
+      <c r="D72" s="50"/>
     </row>
     <row r="73" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A73" s="31"/>
       <c r="B73" s="24"/>
       <c r="C73" s="24"/>
-      <c r="D73" s="47"/>
+      <c r="D73" s="50"/>
     </row>
     <row r="74" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A74" s="31"/>
       <c r="B74" s="24"/>
       <c r="C74" s="24"/>
-      <c r="D74" s="47"/>
+      <c r="D74" s="50"/>
     </row>
     <row r="75" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A75" s="31"/>
       <c r="B75" s="24"/>
       <c r="C75" s="24"/>
-      <c r="D75" s="47"/>
+      <c r="D75" s="50"/>
     </row>
     <row r="76" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A76" s="31"/>
       <c r="B76" s="24"/>
       <c r="C76" s="24"/>
-      <c r="D76" s="47"/>
+      <c r="D76" s="50"/>
     </row>
     <row r="77" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A77" s="31"/>
       <c r="B77" s="24"/>
       <c r="C77" s="24"/>
-      <c r="D77" s="47"/>
+      <c r="D77" s="50"/>
     </row>
     <row r="78" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A78" s="31"/>
       <c r="B78" s="24"/>
       <c r="C78" s="24"/>
-      <c r="D78" s="47"/>
+      <c r="D78" s="50"/>
     </row>
     <row r="79" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A79" s="31"/>
       <c r="B79" s="24"/>
       <c r="C79" s="24"/>
-      <c r="D79" s="47"/>
+      <c r="D79" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -40810,7 +41344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A97D7F-0A6C-D241-8CE5-FB9EF0958310}">
   <dimension ref="A1:N14"/>
   <sheetViews>
@@ -40863,7 +41397,7 @@
       <c r="C2" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="50" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="1">
@@ -40875,7 +41409,7 @@
       <c r="H2" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="50" t="s">
         <v>28</v>
       </c>
       <c r="K2" s="1">
@@ -40887,7 +41421,7 @@
       <c r="M2" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="N2" s="50" t="s">
         <v>25</v>
       </c>
     </row>
@@ -40901,7 +41435,7 @@
       <c r="C3" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D3" s="47"/>
+      <c r="D3" s="50"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -40911,7 +41445,7 @@
       <c r="H3" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I3" s="47"/>
+      <c r="I3" s="50"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
@@ -40921,7 +41455,7 @@
       <c r="M3" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N3" s="47"/>
+      <c r="N3" s="50"/>
     </row>
     <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -40933,7 +41467,7 @@
       <c r="C4" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D4" s="47"/>
+      <c r="D4" s="50"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -40943,7 +41477,7 @@
       <c r="H4" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I4" s="47"/>
+      <c r="I4" s="50"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
@@ -40953,7 +41487,7 @@
       <c r="M4" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N4" s="47"/>
+      <c r="N4" s="50"/>
     </row>
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -40965,7 +41499,7 @@
       <c r="C5" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D5" s="47"/>
+      <c r="D5" s="50"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -40975,7 +41509,7 @@
       <c r="H5" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I5" s="47"/>
+      <c r="I5" s="50"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
@@ -40985,7 +41519,7 @@
       <c r="M5" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N5" s="47"/>
+      <c r="N5" s="50"/>
     </row>
     <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -40997,7 +41531,7 @@
       <c r="C6" s="24">
         <v>0.480132</v>
       </c>
-      <c r="D6" s="47"/>
+      <c r="D6" s="50"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -41007,7 +41541,7 @@
       <c r="H6" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I6" s="47"/>
+      <c r="I6" s="50"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
@@ -41017,7 +41551,7 @@
       <c r="M6" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N6" s="47"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -41029,7 +41563,7 @@
       <c r="C7" s="24">
         <v>0.46854299999999999</v>
       </c>
-      <c r="D7" s="47"/>
+      <c r="D7" s="50"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -41039,7 +41573,7 @@
       <c r="H7" s="24">
         <v>0.480132</v>
       </c>
-      <c r="I7" s="47"/>
+      <c r="I7" s="50"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
@@ -41049,7 +41583,7 @@
       <c r="M7" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N7" s="47"/>
+      <c r="N7" s="50"/>
     </row>
     <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -41061,7 +41595,7 @@
       <c r="C8" s="24">
         <v>0.47682099999999999</v>
       </c>
-      <c r="D8" s="47"/>
+      <c r="D8" s="50"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -41071,7 +41605,7 @@
       <c r="H8" s="24">
         <v>0.49337700000000001</v>
       </c>
-      <c r="I8" s="47"/>
+      <c r="I8" s="50"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
@@ -41081,7 +41615,7 @@
       <c r="M8" s="24">
         <v>0.48344399999999998</v>
       </c>
-      <c r="N8" s="47"/>
+      <c r="N8" s="50"/>
     </row>
     <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -41093,7 +41627,7 @@
       <c r="C9" s="24">
         <v>0.480132</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="50"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -41103,7 +41637,7 @@
       <c r="H9" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I9" s="47"/>
+      <c r="I9" s="50"/>
       <c r="K9" s="1">
         <v>7</v>
       </c>
@@ -41113,7 +41647,7 @@
       <c r="M9" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="N9" s="47"/>
+      <c r="N9" s="50"/>
     </row>
     <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -41125,7 +41659,7 @@
       <c r="C10" s="24">
         <v>0.480132</v>
       </c>
-      <c r="D10" s="47"/>
+      <c r="D10" s="50"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -41135,7 +41669,7 @@
       <c r="H10" s="24">
         <v>0.480132</v>
       </c>
-      <c r="I10" s="47"/>
+      <c r="I10" s="50"/>
       <c r="K10" s="1">
         <v>8</v>
       </c>
@@ -41145,7 +41679,7 @@
       <c r="M10" s="24">
         <v>0.47847699999999999</v>
       </c>
-      <c r="N10" s="47"/>
+      <c r="N10" s="50"/>
     </row>
     <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -41157,7 +41691,7 @@
       <c r="C11" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D11" s="47"/>
+      <c r="D11" s="50"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -41167,7 +41701,7 @@
       <c r="H11" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I11" s="47"/>
+      <c r="I11" s="50"/>
       <c r="K11" s="1">
         <v>9</v>
       </c>
@@ -41177,7 +41711,7 @@
       <c r="M11" s="24">
         <v>0.47682099999999999</v>
       </c>
-      <c r="N11" s="47"/>
+      <c r="N11" s="50"/>
     </row>
     <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -41189,7 +41723,7 @@
       <c r="C12" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D12" s="47"/>
+      <c r="D12" s="50"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -41199,7 +41733,7 @@
       <c r="H12" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I12" s="47"/>
+      <c r="I12" s="50"/>
       <c r="K12" s="1">
         <v>10</v>
       </c>
@@ -41209,7 +41743,7 @@
       <c r="M12" s="24">
         <v>0.47682099999999999</v>
       </c>
-      <c r="N12" s="47"/>
+      <c r="N12" s="50"/>
     </row>
     <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -41221,7 +41755,7 @@
       <c r="C13" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D13" s="47"/>
+      <c r="D13" s="50"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -41231,7 +41765,7 @@
       <c r="H13" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I13" s="47"/>
+      <c r="I13" s="50"/>
       <c r="K13" s="1">
         <v>11</v>
       </c>
@@ -41241,7 +41775,7 @@
       <c r="M13" s="24">
         <v>0.52152299999999996</v>
       </c>
-      <c r="N13" s="47"/>
+      <c r="N13" s="50"/>
     </row>
     <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -41253,7 +41787,7 @@
       <c r="C14" s="24">
         <v>0.47516599999999998</v>
       </c>
-      <c r="D14" s="47"/>
+      <c r="D14" s="50"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -41263,7 +41797,7 @@
       <c r="H14" s="24">
         <v>0.48675499999999999</v>
       </c>
-      <c r="I14" s="47"/>
+      <c r="I14" s="50"/>
       <c r="K14" s="1">
         <v>12</v>
       </c>
@@ -41273,7 +41807,7 @@
       <c r="M14" s="24">
         <v>0.50331099999999995</v>
       </c>
-      <c r="N14" s="47"/>
+      <c r="N14" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -41286,11 +41820,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586CC5E8-52EF-824B-9F99-84A3E832E106}">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="K100" sqref="K100"/>
     </sheetView>
   </sheetViews>
@@ -41339,7 +41873,7 @@
       <c r="C2" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="50" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="1">
@@ -41351,7 +41885,7 @@
       <c r="H2" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="50" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="1">
@@ -41363,7 +41897,7 @@
       <c r="M2" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="N2" s="50" t="s">
         <v>28</v>
       </c>
     </row>
@@ -41377,7 +41911,7 @@
       <c r="C3" s="24">
         <v>0.569546</v>
       </c>
-      <c r="D3" s="47"/>
+      <c r="D3" s="50"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -41387,7 +41921,7 @@
       <c r="H3" s="24">
         <v>0.56991199999999997</v>
       </c>
-      <c r="I3" s="47"/>
+      <c r="I3" s="50"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
@@ -41397,7 +41931,7 @@
       <c r="M3" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N3" s="47"/>
+      <c r="N3" s="50"/>
     </row>
     <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -41409,7 +41943,7 @@
       <c r="C4" s="24">
         <v>0.567716</v>
       </c>
-      <c r="D4" s="47"/>
+      <c r="D4" s="50"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -41419,7 +41953,7 @@
       <c r="H4" s="24">
         <v>0.56881400000000004</v>
       </c>
-      <c r="I4" s="47"/>
+      <c r="I4" s="50"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
@@ -41429,7 +41963,7 @@
       <c r="M4" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N4" s="47"/>
+      <c r="N4" s="50"/>
     </row>
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -41441,7 +41975,7 @@
       <c r="C5" s="24">
         <v>0.58894599999999997</v>
       </c>
-      <c r="D5" s="47"/>
+      <c r="D5" s="50"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -41451,7 +41985,7 @@
       <c r="H5" s="24">
         <v>0.58308899999999997</v>
       </c>
-      <c r="I5" s="47"/>
+      <c r="I5" s="50"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
@@ -41461,7 +41995,7 @@
       <c r="M5" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N5" s="47"/>
+      <c r="N5" s="50"/>
     </row>
     <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -41473,7 +42007,7 @@
       <c r="C6" s="24">
         <v>0.60175699999999999</v>
       </c>
-      <c r="D6" s="47"/>
+      <c r="D6" s="50"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -41483,7 +42017,7 @@
       <c r="H6" s="24">
         <v>0.60651500000000003</v>
       </c>
-      <c r="I6" s="47"/>
+      <c r="I6" s="50"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
@@ -41493,7 +42027,7 @@
       <c r="M6" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N6" s="47"/>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -41505,7 +42039,7 @@
       <c r="C7" s="24">
         <v>0.61712999999999996</v>
       </c>
-      <c r="D7" s="47"/>
+      <c r="D7" s="50"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -41515,7 +42049,7 @@
       <c r="H7" s="24">
         <v>0.61786200000000002</v>
       </c>
-      <c r="I7" s="47"/>
+      <c r="I7" s="50"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
@@ -41525,7 +42059,7 @@
       <c r="M7" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N7" s="47"/>
+      <c r="N7" s="50"/>
     </row>
     <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -41537,7 +42071,7 @@
       <c r="C8" s="24">
         <v>0.620425</v>
       </c>
-      <c r="D8" s="47"/>
+      <c r="D8" s="50"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -41547,7 +42081,7 @@
       <c r="H8" s="24">
         <v>0.61090800000000001</v>
       </c>
-      <c r="I8" s="47"/>
+      <c r="I8" s="50"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
@@ -41557,7 +42091,7 @@
       <c r="M8" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N8" s="47"/>
+      <c r="N8" s="50"/>
     </row>
     <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -41569,7 +42103,7 @@
       <c r="C9" s="24">
         <v>0.633602</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="50"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -41579,7 +42113,7 @@
       <c r="H9" s="24">
         <v>0.61786200000000002</v>
       </c>
-      <c r="I9" s="47"/>
+      <c r="I9" s="50"/>
       <c r="K9" s="1">
         <v>7</v>
       </c>
@@ -41589,7 +42123,7 @@
       <c r="M9" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N9" s="47"/>
+      <c r="N9" s="50"/>
     </row>
     <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -41601,7 +42135,7 @@
       <c r="C10" s="24">
         <v>0.62847699999999995</v>
       </c>
-      <c r="D10" s="47"/>
+      <c r="D10" s="50"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -41611,7 +42145,7 @@
       <c r="H10" s="24">
         <v>0.620425</v>
       </c>
-      <c r="I10" s="47"/>
+      <c r="I10" s="50"/>
       <c r="K10" s="1">
         <v>8</v>
       </c>
@@ -41621,7 +42155,7 @@
       <c r="M10" s="24">
         <v>0.57906299999999999</v>
       </c>
-      <c r="N10" s="47"/>
+      <c r="N10" s="50"/>
     </row>
     <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -41633,7 +42167,7 @@
       <c r="C11" s="24">
         <v>0.62664699999999995</v>
       </c>
-      <c r="D11" s="47"/>
+      <c r="D11" s="50"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -41643,7 +42177,7 @@
       <c r="H11" s="24">
         <v>0.61712999999999996</v>
       </c>
-      <c r="I11" s="47"/>
+      <c r="I11" s="50"/>
       <c r="K11" s="1">
         <v>9</v>
       </c>
@@ -41653,7 +42187,7 @@
       <c r="M11" s="24">
         <v>0.58491899999999997</v>
       </c>
-      <c r="N11" s="47"/>
+      <c r="N11" s="50"/>
     </row>
     <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -41665,7 +42199,7 @@
       <c r="C12" s="24">
         <v>0.63250399999999996</v>
       </c>
-      <c r="D12" s="47"/>
+      <c r="D12" s="50"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -41675,7 +42209,7 @@
       <c r="H12" s="24">
         <v>0.62005900000000003</v>
       </c>
-      <c r="I12" s="47"/>
+      <c r="I12" s="50"/>
       <c r="K12" s="1">
         <v>10</v>
       </c>
@@ -41685,7 +42219,7 @@
       <c r="M12" s="24">
         <v>0.59553400000000001</v>
       </c>
-      <c r="N12" s="47"/>
+      <c r="N12" s="50"/>
     </row>
     <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -41697,7 +42231,7 @@
       <c r="C13" s="24">
         <v>0.63689600000000002</v>
       </c>
-      <c r="D13" s="47"/>
+      <c r="D13" s="50"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -41707,7 +42241,7 @@
       <c r="H13" s="24">
         <v>0.62884300000000004</v>
       </c>
-      <c r="I13" s="47"/>
+      <c r="I13" s="50"/>
       <c r="K13" s="1">
         <v>11</v>
       </c>
@@ -41717,7 +42251,7 @@
       <c r="M13" s="24">
         <v>0.64055600000000001</v>
       </c>
-      <c r="N13" s="47"/>
+      <c r="N13" s="50"/>
     </row>
     <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -41729,7 +42263,7 @@
       <c r="C14" s="24">
         <v>0.64019000000000004</v>
       </c>
-      <c r="D14" s="47"/>
+      <c r="D14" s="50"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -41739,7 +42273,7 @@
       <c r="H14" s="24">
         <v>0.63872600000000002</v>
       </c>
-      <c r="I14" s="47"/>
+      <c r="I14" s="50"/>
       <c r="K14" s="1">
         <v>12</v>
       </c>
@@ -41749,7 +42283,7 @@
       <c r="M14" s="24">
         <v>0.66800899999999996</v>
       </c>
-      <c r="N14" s="47"/>
+      <c r="N14" s="50"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="42" t="s">
@@ -41790,7 +42324,7 @@
       <c r="C32" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="D32" s="47" t="s">
+      <c r="D32" s="50" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="42">
@@ -41802,7 +42336,7 @@
       <c r="H32" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="I32" s="47" t="s">
+      <c r="I32" s="50" t="s">
         <v>20</v>
       </c>
       <c r="K32" s="42">
@@ -41814,7 +42348,7 @@
       <c r="M32" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N32" s="47" t="s">
+      <c r="N32" s="50" t="s">
         <v>59</v>
       </c>
     </row>
@@ -41828,7 +42362,7 @@
       <c r="C33" s="24">
         <v>0.56844799999999995</v>
       </c>
-      <c r="D33" s="47"/>
+      <c r="D33" s="50"/>
       <c r="F33" s="42">
         <v>1</v>
       </c>
@@ -41838,7 +42372,7 @@
       <c r="H33" s="24">
         <v>0.53916500000000001</v>
       </c>
-      <c r="I33" s="47"/>
+      <c r="I33" s="50"/>
       <c r="K33" s="42">
         <v>1</v>
       </c>
@@ -41848,7 +42382,7 @@
       <c r="M33" s="24">
         <v>0.57357199999999997</v>
       </c>
-      <c r="N33" s="47"/>
+      <c r="N33" s="50"/>
     </row>
     <row r="34" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A34" s="42">
@@ -41860,7 +42394,7 @@
       <c r="C34" s="24">
         <v>0.57796499999999995</v>
       </c>
-      <c r="D34" s="47"/>
+      <c r="D34" s="50"/>
       <c r="F34" s="42">
         <v>2</v>
       </c>
@@ -41870,7 +42404,7 @@
       <c r="H34" s="24">
         <v>0.53074699999999997</v>
       </c>
-      <c r="I34" s="47"/>
+      <c r="I34" s="50"/>
       <c r="K34" s="42">
         <v>2</v>
       </c>
@@ -41880,7 +42414,7 @@
       <c r="M34" s="24">
         <v>0.57686700000000002</v>
       </c>
-      <c r="N34" s="47"/>
+      <c r="N34" s="50"/>
     </row>
     <row r="35" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A35" s="42">
@@ -41892,7 +42426,7 @@
       <c r="C35" s="24">
         <v>0.59516800000000003</v>
       </c>
-      <c r="D35" s="47"/>
+      <c r="D35" s="50"/>
       <c r="F35" s="42">
         <v>3</v>
       </c>
@@ -41902,7 +42436,7 @@
       <c r="H35" s="24">
         <v>0.554539</v>
       </c>
-      <c r="I35" s="47"/>
+      <c r="I35" s="50"/>
       <c r="K35" s="42">
         <v>3</v>
       </c>
@@ -41912,7 +42446,7 @@
       <c r="M35" s="24">
         <v>0.55307499999999998</v>
       </c>
-      <c r="N35" s="47"/>
+      <c r="N35" s="50"/>
     </row>
     <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A36" s="42">
@@ -41924,7 +42458,7 @@
       <c r="C36" s="24">
         <v>0.58565199999999995</v>
       </c>
-      <c r="D36" s="47"/>
+      <c r="D36" s="50"/>
       <c r="F36" s="42">
         <v>4</v>
       </c>
@@ -41934,7 +42468,7 @@
       <c r="H36" s="24">
         <v>0.439971</v>
       </c>
-      <c r="I36" s="47"/>
+      <c r="I36" s="50"/>
       <c r="K36" s="42">
         <v>4</v>
       </c>
@@ -41944,7 +42478,7 @@
       <c r="M36" s="24">
         <v>0.569546</v>
       </c>
-      <c r="N36" s="47"/>
+      <c r="N36" s="50"/>
     </row>
     <row r="37" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A37" s="42">
@@ -41956,7 +42490,7 @@
       <c r="C37" s="24">
         <v>0.59882899999999994</v>
       </c>
-      <c r="D37" s="47"/>
+      <c r="D37" s="50"/>
       <c r="F37" s="42">
         <v>5</v>
       </c>
@@ -41966,7 +42500,7 @@
       <c r="H37" s="24">
         <v>0.43447999999999998</v>
       </c>
-      <c r="I37" s="47"/>
+      <c r="I37" s="50"/>
       <c r="K37" s="42">
         <v>5</v>
       </c>
@@ -41976,7 +42510,7 @@
       <c r="M37" s="24">
         <v>0.470717</v>
       </c>
-      <c r="N37" s="47"/>
+      <c r="N37" s="50"/>
     </row>
     <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A38" s="42">
@@ -41988,7 +42522,7 @@
       <c r="C38" s="24">
         <v>0.59626599999999996</v>
       </c>
-      <c r="D38" s="47"/>
+      <c r="D38" s="50"/>
       <c r="F38" s="42">
         <v>6</v>
       </c>
@@ -41998,7 +42532,7 @@
       <c r="H38" s="24">
         <v>0.43447999999999998</v>
       </c>
-      <c r="I38" s="47"/>
+      <c r="I38" s="50"/>
       <c r="K38" s="42">
         <v>6</v>
       </c>
@@ -42008,7 +42542,7 @@
       <c r="M38" s="24">
         <v>0.453148</v>
       </c>
-      <c r="N38" s="47"/>
+      <c r="N38" s="50"/>
     </row>
     <row r="39" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A39" s="42">
@@ -42020,7 +42554,7 @@
       <c r="C39" s="24">
         <v>0.59370400000000001</v>
       </c>
-      <c r="D39" s="47"/>
+      <c r="D39" s="50"/>
       <c r="F39" s="42">
         <v>7</v>
       </c>
@@ -42030,7 +42564,7 @@
       <c r="H39" s="24">
         <v>0.58345499999999995</v>
       </c>
-      <c r="I39" s="47"/>
+      <c r="I39" s="50"/>
       <c r="K39" s="42">
         <v>7</v>
       </c>
@@ -42040,7 +42574,7 @@
       <c r="M39" s="24">
         <v>0.45497799999999999</v>
       </c>
-      <c r="N39" s="47"/>
+      <c r="N39" s="50"/>
     </row>
     <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A40" s="42">
@@ -42052,7 +42586,7 @@
       <c r="C40" s="24">
         <v>0.58821400000000001</v>
       </c>
-      <c r="D40" s="47"/>
+      <c r="D40" s="50"/>
       <c r="F40" s="42">
         <v>8</v>
       </c>
@@ -42062,7 +42596,7 @@
       <c r="H40" s="24">
         <v>0.60139100000000001</v>
       </c>
-      <c r="I40" s="47"/>
+      <c r="I40" s="50"/>
       <c r="K40" s="42">
         <v>8</v>
       </c>
@@ -42072,7 +42606,7 @@
       <c r="M40" s="24">
         <v>0.51573899999999995</v>
       </c>
-      <c r="N40" s="47"/>
+      <c r="N40" s="50"/>
     </row>
     <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A41" s="42">
@@ -42084,7 +42618,7 @@
       <c r="C41" s="24">
         <v>0.59846299999999997</v>
       </c>
-      <c r="D41" s="47"/>
+      <c r="D41" s="50"/>
       <c r="F41" s="42">
         <v>9</v>
       </c>
@@ -42094,7 +42628,7 @@
       <c r="H41" s="24">
         <v>0.44289899999999999</v>
       </c>
-      <c r="I41" s="47"/>
+      <c r="I41" s="50"/>
       <c r="K41" s="42">
         <v>9</v>
       </c>
@@ -42104,7 +42638,7 @@
       <c r="M41" s="24">
         <v>0.51939999999999997</v>
       </c>
-      <c r="N41" s="47"/>
+      <c r="N41" s="50"/>
     </row>
     <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A42" s="42">
@@ -42116,7 +42650,7 @@
       <c r="C42" s="24">
         <v>0.60212299999999996</v>
       </c>
-      <c r="D42" s="47"/>
+      <c r="D42" s="50"/>
       <c r="F42" s="42">
         <v>10</v>
       </c>
@@ -42126,7 +42660,7 @@
       <c r="H42" s="24">
         <v>0.62115699999999996</v>
       </c>
-      <c r="I42" s="47"/>
+      <c r="I42" s="50"/>
       <c r="K42" s="42">
         <v>10</v>
       </c>
@@ -42136,7 +42670,7 @@
       <c r="M42" s="24">
         <v>0.49194700000000002</v>
       </c>
-      <c r="N42" s="47"/>
+      <c r="N42" s="50"/>
     </row>
     <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A43" s="42">
@@ -42148,7 +42682,7 @@
       <c r="C43" s="24">
         <v>0.61127399999999998</v>
       </c>
-      <c r="D43" s="47"/>
+      <c r="D43" s="50"/>
       <c r="F43" s="42">
         <v>11</v>
       </c>
@@ -42158,7 +42692,7 @@
       <c r="H43" s="24">
         <v>0.46486100000000002</v>
       </c>
-      <c r="I43" s="47"/>
+      <c r="I43" s="50"/>
       <c r="K43" s="42">
         <v>11</v>
       </c>
@@ -42168,7 +42702,7 @@
       <c r="M43" s="24">
         <v>0.50073199999999995</v>
       </c>
-      <c r="N43" s="47"/>
+      <c r="N43" s="50"/>
     </row>
     <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A44" s="42">
@@ -42180,7 +42714,7 @@
       <c r="C44" s="24">
         <v>0.614568</v>
       </c>
-      <c r="D44" s="47"/>
+      <c r="D44" s="50"/>
       <c r="F44" s="42">
         <v>12</v>
       </c>
@@ -42190,7 +42724,7 @@
       <c r="H44" s="24">
         <v>0.612738</v>
       </c>
-      <c r="I44" s="47"/>
+      <c r="I44" s="50"/>
       <c r="K44" s="42">
         <v>12</v>
       </c>
@@ -42200,7 +42734,7 @@
       <c r="M44" s="24">
         <v>0.51390899999999995</v>
       </c>
-      <c r="N44" s="47"/>
+      <c r="N44" s="50"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="42" t="s">
@@ -42241,7 +42775,7 @@
       <c r="C61" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="D61" s="47" t="s">
+      <c r="D61" s="50" t="s">
         <v>22</v>
       </c>
       <c r="F61" s="42">
@@ -42253,7 +42787,7 @@
       <c r="H61" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="I61" s="47" t="s">
+      <c r="I61" s="50" t="s">
         <v>60</v>
       </c>
       <c r="K61" s="42">
@@ -42265,7 +42799,7 @@
       <c r="M61" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N61" s="47" t="s">
+      <c r="N61" s="50" t="s">
         <v>26</v>
       </c>
     </row>
@@ -42279,7 +42813,7 @@
       <c r="C62" s="24">
         <v>0.58748199999999995</v>
       </c>
-      <c r="D62" s="47"/>
+      <c r="D62" s="50"/>
       <c r="F62" s="42">
         <v>1</v>
       </c>
@@ -42289,7 +42823,7 @@
       <c r="H62" s="24">
         <v>0.56295799999999996</v>
       </c>
-      <c r="I62" s="47"/>
+      <c r="I62" s="50"/>
       <c r="K62" s="42">
         <v>1</v>
       </c>
@@ -42299,7 +42833,7 @@
       <c r="M62" s="24">
         <v>0.56698400000000004</v>
       </c>
-      <c r="N62" s="47"/>
+      <c r="N62" s="50"/>
     </row>
     <row r="63" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A63" s="42">
@@ -42311,7 +42845,7 @@
       <c r="C63" s="24">
         <v>0.60724699999999998</v>
       </c>
-      <c r="D63" s="47"/>
+      <c r="D63" s="50"/>
       <c r="F63" s="42">
         <v>2</v>
       </c>
@@ -42321,7 +42855,7 @@
       <c r="H63" s="24">
         <v>0.52928299999999995</v>
       </c>
-      <c r="I63" s="47"/>
+      <c r="I63" s="50"/>
       <c r="K63" s="42">
         <v>2</v>
       </c>
@@ -42331,7 +42865,7 @@
       <c r="M63" s="24">
         <v>0.57430499999999995</v>
       </c>
-      <c r="N63" s="47"/>
+      <c r="N63" s="50"/>
     </row>
     <row r="64" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A64" s="42">
@@ -42343,7 +42877,7 @@
       <c r="C64" s="24">
         <v>0.620425</v>
       </c>
-      <c r="D64" s="47"/>
+      <c r="D64" s="50"/>
       <c r="F64" s="42">
         <v>3</v>
       </c>
@@ -42353,7 +42887,7 @@
       <c r="H64" s="24">
         <v>0.54904799999999998</v>
       </c>
-      <c r="I64" s="47"/>
+      <c r="I64" s="50"/>
       <c r="K64" s="42">
         <v>3</v>
       </c>
@@ -42363,7 +42897,7 @@
       <c r="M64" s="24">
         <v>0.57979499999999995</v>
       </c>
-      <c r="N64" s="47"/>
+      <c r="N64" s="50"/>
     </row>
     <row r="65" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A65" s="42">
@@ -42375,7 +42909,7 @@
       <c r="C65" s="24">
         <v>0.60468500000000003</v>
       </c>
-      <c r="D65" s="47"/>
+      <c r="D65" s="50"/>
       <c r="F65" s="42">
         <v>4</v>
       </c>
@@ -42385,7 +42919,7 @@
       <c r="H65" s="24">
         <v>0.52964900000000004</v>
       </c>
-      <c r="I65" s="47"/>
+      <c r="I65" s="50"/>
       <c r="K65" s="42">
         <v>4</v>
       </c>
@@ -42395,7 +42929,7 @@
       <c r="M65" s="24">
         <v>0.571376</v>
       </c>
-      <c r="N65" s="47"/>
+      <c r="N65" s="50"/>
     </row>
     <row r="66" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A66" s="42">
@@ -42407,7 +42941,7 @@
       <c r="C66" s="24">
         <v>0.58199100000000004</v>
       </c>
-      <c r="D66" s="47"/>
+      <c r="D66" s="50"/>
       <c r="F66" s="42">
         <v>5</v>
       </c>
@@ -42417,7 +42951,7 @@
       <c r="H66" s="24">
         <v>0.46559299999999998</v>
       </c>
-      <c r="I66" s="47"/>
+      <c r="I66" s="50"/>
       <c r="K66" s="42">
         <v>5</v>
       </c>
@@ -42427,7 +42961,7 @@
       <c r="M66" s="24">
         <v>0.57906299999999999</v>
       </c>
-      <c r="N66" s="47"/>
+      <c r="N66" s="50"/>
     </row>
     <row r="67" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A67" s="42">
@@ -42439,7 +42973,7 @@
       <c r="C67" s="24">
         <v>0.47327999999999998</v>
       </c>
-      <c r="D67" s="47"/>
+      <c r="D67" s="50"/>
       <c r="F67" s="42">
         <v>6</v>
       </c>
@@ -42449,7 +42983,7 @@
       <c r="H67" s="24">
         <v>0.58821400000000001</v>
       </c>
-      <c r="I67" s="47"/>
+      <c r="I67" s="50"/>
       <c r="K67" s="42">
         <v>6</v>
       </c>
@@ -42459,7 +42993,7 @@
       <c r="M67" s="24">
         <v>0.57210799999999995</v>
       </c>
-      <c r="N67" s="47"/>
+      <c r="N67" s="50"/>
     </row>
     <row r="68" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A68" s="42">
@@ -42471,7 +43005,7 @@
       <c r="C68" s="24">
         <v>0.46486100000000002</v>
       </c>
-      <c r="D68" s="47"/>
+      <c r="D68" s="50"/>
       <c r="F68" s="42">
         <v>7</v>
       </c>
@@ -42481,7 +43015,7 @@
       <c r="H68" s="24">
         <v>0.58857999999999999</v>
       </c>
-      <c r="I68" s="47"/>
+      <c r="I68" s="50"/>
       <c r="K68" s="42">
         <v>7</v>
       </c>
@@ -42491,7 +43025,7 @@
       <c r="M68" s="24">
         <v>0.56625199999999998</v>
       </c>
-      <c r="N68" s="47"/>
+      <c r="N68" s="50"/>
     </row>
     <row r="69" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A69" s="42">
@@ -42503,7 +43037,7 @@
       <c r="C69" s="24">
         <v>0.51098100000000002</v>
       </c>
-      <c r="D69" s="47"/>
+      <c r="D69" s="50"/>
       <c r="F69" s="42">
         <v>8</v>
       </c>
@@ -42513,7 +43047,7 @@
       <c r="H69" s="24">
         <v>0.61420200000000003</v>
       </c>
-      <c r="I69" s="47"/>
+      <c r="I69" s="50"/>
       <c r="K69" s="42">
         <v>8</v>
       </c>
@@ -42523,7 +43057,7 @@
       <c r="M69" s="24">
         <v>0.57650100000000004</v>
       </c>
-      <c r="N69" s="47"/>
+      <c r="N69" s="50"/>
     </row>
     <row r="70" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A70" s="42">
@@ -42535,7 +43069,7 @@
       <c r="C70" s="24">
         <v>0.53623699999999996</v>
       </c>
-      <c r="D70" s="47"/>
+      <c r="D70" s="50"/>
       <c r="F70" s="42">
         <v>9</v>
       </c>
@@ -42545,7 +43079,7 @@
       <c r="H70" s="24">
         <v>0.60614900000000005</v>
       </c>
-      <c r="I70" s="47"/>
+      <c r="I70" s="50"/>
       <c r="K70" s="42">
         <v>9</v>
       </c>
@@ -42555,7 +43089,7 @@
       <c r="M70" s="24">
         <v>0.57503700000000002</v>
       </c>
-      <c r="N70" s="47"/>
+      <c r="N70" s="50"/>
     </row>
     <row r="71" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A71" s="42">
@@ -42567,7 +43101,7 @@
       <c r="C71" s="24">
         <v>0.61712999999999996</v>
       </c>
-      <c r="D71" s="47"/>
+      <c r="D71" s="50"/>
       <c r="F71" s="42">
         <v>10</v>
       </c>
@@ -42577,7 +43111,7 @@
       <c r="H71" s="24">
         <v>0.61603200000000002</v>
       </c>
-      <c r="I71" s="47"/>
+      <c r="I71" s="50"/>
       <c r="K71" s="42">
         <v>10</v>
       </c>
@@ -42587,7 +43121,7 @@
       <c r="M71" s="24">
         <v>0.57467100000000004</v>
       </c>
-      <c r="N71" s="47"/>
+      <c r="N71" s="50"/>
     </row>
     <row r="72" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A72" s="42">
@@ -42599,7 +43133,7 @@
       <c r="C72" s="24">
         <v>0.59223999999999999</v>
       </c>
-      <c r="D72" s="47"/>
+      <c r="D72" s="50"/>
       <c r="F72" s="42">
         <v>11</v>
       </c>
@@ -42609,7 +43143,7 @@
       <c r="H72" s="24">
         <v>0.59919500000000003</v>
       </c>
-      <c r="I72" s="47"/>
+      <c r="I72" s="50"/>
       <c r="K72" s="42">
         <v>11</v>
       </c>
@@ -42619,7 +43153,7 @@
       <c r="M72" s="24">
         <v>0.56625199999999998</v>
       </c>
-      <c r="N72" s="47"/>
+      <c r="N72" s="50"/>
     </row>
     <row r="73" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A73" s="42">
@@ -42631,7 +43165,7 @@
       <c r="C73" s="24">
         <v>0.63579799999999997</v>
       </c>
-      <c r="D73" s="47"/>
+      <c r="D73" s="50"/>
       <c r="F73" s="42">
         <v>12</v>
       </c>
@@ -42641,7 +43175,7 @@
       <c r="H73" s="24">
         <v>0.59260599999999997</v>
       </c>
-      <c r="I73" s="47"/>
+      <c r="I73" s="50"/>
       <c r="K73" s="42">
         <v>12</v>
       </c>
@@ -42651,7 +43185,7 @@
       <c r="M73" s="24">
         <v>0.57284000000000002</v>
       </c>
-      <c r="N73" s="47"/>
+      <c r="N73" s="50"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="42" t="s">
@@ -42674,7 +43208,7 @@
       <c r="C90" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="D90" s="47" t="s">
+      <c r="D90" s="50" t="s">
         <v>27</v>
       </c>
     </row>
@@ -42688,7 +43222,7 @@
       <c r="C91" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="D91" s="47"/>
+      <c r="D91" s="50"/>
     </row>
     <row r="92" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A92" s="42">
@@ -42700,7 +43234,7 @@
       <c r="C92" s="24">
         <v>0.56698400000000004</v>
       </c>
-      <c r="D92" s="47"/>
+      <c r="D92" s="50"/>
     </row>
     <row r="93" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A93" s="42">
@@ -42712,7 +43246,7 @@
       <c r="C93" s="24">
         <v>0.565886</v>
       </c>
-      <c r="D93" s="47"/>
+      <c r="D93" s="50"/>
     </row>
     <row r="94" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A94" s="42">
@@ -42724,7 +43258,7 @@
       <c r="C94" s="24">
         <v>0.569546</v>
       </c>
-      <c r="D94" s="47"/>
+      <c r="D94" s="50"/>
     </row>
     <row r="95" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A95" s="42">
@@ -42736,7 +43270,7 @@
       <c r="C95" s="24">
         <v>0.57284000000000002</v>
       </c>
-      <c r="D95" s="47"/>
+      <c r="D95" s="50"/>
     </row>
     <row r="96" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A96" s="42">
@@ -42748,7 +43282,7 @@
       <c r="C96" s="24">
         <v>0.51281100000000002</v>
       </c>
-      <c r="D96" s="47"/>
+      <c r="D96" s="50"/>
     </row>
     <row r="97" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A97" s="42">
@@ -42760,7 +43294,7 @@
       <c r="C97" s="24">
         <v>0.51207899999999995</v>
       </c>
-      <c r="D97" s="47"/>
+      <c r="D97" s="50"/>
     </row>
     <row r="98" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A98" s="42">
@@ -42772,7 +43306,7 @@
       <c r="C98" s="24">
         <v>0.52562200000000003</v>
       </c>
-      <c r="D98" s="47"/>
+      <c r="D98" s="50"/>
     </row>
     <row r="99" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A99" s="42">
@@ -42784,7 +43318,7 @@
       <c r="C99" s="24">
         <v>0.488653</v>
       </c>
-      <c r="D99" s="47"/>
+      <c r="D99" s="50"/>
     </row>
     <row r="100" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A100" s="42">
@@ -42796,7 +43330,7 @@
       <c r="C100" s="24">
         <v>0.48243000000000003</v>
       </c>
-      <c r="D100" s="47"/>
+      <c r="D100" s="50"/>
     </row>
     <row r="101" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A101" s="42">
@@ -42808,7 +43342,7 @@
       <c r="C101" s="24">
         <v>0.48169800000000002</v>
       </c>
-      <c r="D101" s="47"/>
+      <c r="D101" s="50"/>
     </row>
     <row r="102" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A102" s="42">
@@ -42820,7 +43354,7 @@
       <c r="C102" s="24">
         <v>0.48389500000000002</v>
       </c>
-      <c r="D102" s="47"/>
+      <c r="D102" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/POS Code/Experiments/attachments/detailed_results.xlsx
+++ b/POS Code/Experiments/attachments/detailed_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970F9495-B69E-8042-8122-94A61BBEEA6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83A60B4-180C-6A40-A88A-0D2EA5C00C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" activeTab="6" xr2:uid="{BEC22610-DBDE-49A5-ABDC-7DB261D6BA7F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="61">
   <si>
     <t>Selection</t>
   </si>
@@ -5781,7 +5781,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>DefDectLayerwise!$B$1</c:f>
+              <c:f>CodeSearchLayerwise!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5816,7 +5816,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>DefDectLayerwise!$A$2:$A$14</c:f>
+              <c:f>CodeSearchLayerwise!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5864,48 +5864,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DefDectLayerwise!$B$2:$B$14</c:f>
+              <c:f>CodeSearchLayerwise!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.56552000000000002</c:v>
+                  <c:v>0.53476800000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.571376</c:v>
+                  <c:v>0.53311299999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57284000000000002</c:v>
+                  <c:v>0.50827800000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.575403</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58235700000000001</c:v>
+                  <c:v>0.51821200000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61749600000000004</c:v>
+                  <c:v>0.50662300000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61493399999999998</c:v>
+                  <c:v>0.50331099999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.62628099999999998</c:v>
+                  <c:v>0.509934</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61932699999999996</c:v>
+                  <c:v>0.50827800000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.63140600000000002</c:v>
+                  <c:v>0.53311299999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.64128799999999997</c:v>
+                  <c:v>0.54470200000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.65080499999999997</c:v>
+                  <c:v>0.53476800000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.65190300000000001</c:v>
+                  <c:v>0.53642400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5913,7 +5913,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AF06-624C-9D12-9468851183BE}"/>
+              <c16:uniqueId val="{00000001-99E4-5C45-B021-500C7064FEF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5922,7 +5922,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>DefDectLayerwise!$C$1</c:f>
+              <c:f>CodeSearchLayerwise!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5957,7 +5957,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>DefDectLayerwise!$A$2:$A$14</c:f>
+              <c:f>CodeSearchLayerwise!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -6005,48 +6005,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DefDectLayerwise!$C$2:$C$14</c:f>
+              <c:f>CodeSearchLayerwise!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.56552000000000002</c:v>
+                  <c:v>0.53476800000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.569546</c:v>
+                  <c:v>0.54635800000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.567716</c:v>
+                  <c:v>0.50331099999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58894599999999997</c:v>
+                  <c:v>0.50165599999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60175699999999999</c:v>
+                  <c:v>0.51490100000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61712999999999996</c:v>
+                  <c:v>0.50496700000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.620425</c:v>
+                  <c:v>0.51158899999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.633602</c:v>
+                  <c:v>0.49668899999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.62847699999999995</c:v>
+                  <c:v>0.50496700000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.62664699999999995</c:v>
+                  <c:v>0.51490100000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.63250399999999996</c:v>
+                  <c:v>0.54635800000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.63689600000000002</c:v>
+                  <c:v>0.51490100000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.64019000000000004</c:v>
+                  <c:v>0.54139099999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6054,7 +6054,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AF06-624C-9D12-9468851183BE}"/>
+              <c16:uniqueId val="{00000002-99E4-5C45-B021-500C7064FEF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6068,11 +6068,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="752478415"/>
-        <c:axId val="308094287"/>
+        <c:axId val="1336362111"/>
+        <c:axId val="1336701151"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="752478415"/>
+        <c:axId val="1336362111"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6115,7 +6115,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308094287"/>
+        <c:crossAx val="1336701151"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6123,10 +6123,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="308094287"/>
+        <c:axId val="1336701151"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.70000000000000007"/>
+          <c:max val="0.60000000000000009"/>
           <c:min val="0.4"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6176,7 +6176,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="752478415"/>
+        <c:crossAx val="1336362111"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6794,6 +6794,3048 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>CodeSearchLayerwise!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Independent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CodeSearchLayerwise!$F$2:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CodeSearchLayerwise!$G$2:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.49834400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51490100000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.528146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50827800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47350999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48178799999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.495033</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48675499999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50662300000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.48675499999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.52649000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.509934</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BA8F-A14E-BEAB-25AAA6FE24A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CodeSearchLayerwise!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Incremental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CodeSearchLayerwise!$F$2:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CodeSearchLayerwise!$H$2:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.50165599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50827800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51324499999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50827800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50331099999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50331099999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50331099999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49834400000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.495033</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51158899999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.528146</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.509934</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BA8F-A14E-BEAB-25AAA6FE24A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2015319279"/>
+        <c:axId val="1335857407"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2015319279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1335857407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1335857407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2015319279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CodeSearchLayerwise!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Independent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CodeSearchLayerwise!$K$2:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CodeSearchLayerwise!$L$2:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.50165599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53145699999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50827800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52317899999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.528146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.490066</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51655600000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51324499999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51490100000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50827800000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.48178799999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.519868</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.51655600000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0900-6148-AA50-9B6D22B8B79A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CodeSearchLayerwise!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Incremental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CodeSearchLayerwise!$K$2:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CodeSearchLayerwise!$M$2:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.50165599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52152299999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51490100000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.490066</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51324499999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50662300000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49337700000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46192100000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46523199999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47516599999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.485099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48344399999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.46523199999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0900-6148-AA50-9B6D22B8B79A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1333230703"/>
+        <c:axId val="1333281183"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1333230703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1333281183"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1333281183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1333230703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CodeSearchLayerwise!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Independent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CodeSearchLayerwise!$A$35:$A$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CodeSearchLayerwise!$B$35:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.49172199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48178799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46854299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.509934</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53145699999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.485099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50662300000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53476800000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51655600000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52980099999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.528146</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.51490100000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.490066</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FAB4-6C41-9D65-6704B7C28C66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CodeSearchLayerwise!$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Incremental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CodeSearchLayerwise!$A$35:$A$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CodeSearchLayerwise!$C$35:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.49172199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.495033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47847699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48841099999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47847699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48178799999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50165599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51324499999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50662300000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51655600000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51158899999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.51158899999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.50165599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FAB4-6C41-9D65-6704B7C28C66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2014052559"/>
+        <c:axId val="2013778255"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2014052559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2013778255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2013778255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2014052559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CodeSearchLayerwise!$G$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Independent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CodeSearchLayerwise!$F$35:$F$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CodeSearchLayerwise!$G$35:$G$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.48178799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48178799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.485099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48178799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.480132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.480132</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47847699999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.485099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47847699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.485099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.47847699999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48344399999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.471854</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F865-2249-9D51-664BC6AEEB9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CodeSearchLayerwise!$H$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Incremental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CodeSearchLayerwise!$F$35:$F$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CodeSearchLayerwise!$H$35:$H$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.49172199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47516599999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48178799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48178799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48178799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48178799999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48178799999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48178799999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48178799999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48344399999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.485099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.485099</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.485099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F865-2249-9D51-664BC6AEEB9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1336916831"/>
+        <c:axId val="1336766751"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1336916831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1336766751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1336766751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1336916831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CodeSearchLayerwise!$L$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Independent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CodeSearchLayerwise!$K$35:$K$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CodeSearchLayerwise!$L$35:$L$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.50165599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52317899999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48344399999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.490066</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50662300000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.509934</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51158899999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51821200000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50496700000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47516599999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45198700000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.480132</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47350999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C76E-744B-9FC8-F02B1EE9F4D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CodeSearchLayerwise!$M$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Incremental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CodeSearchLayerwise!$K$35:$K$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CodeSearchLayerwise!$M$35:$M$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.50165599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52152299999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51324499999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.480132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.490066</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49337700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49834400000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51158899999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49834400000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50827800000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49172199999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.471854</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.49172199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C76E-744B-9FC8-F02B1EE9F4D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1337566623"/>
+        <c:axId val="1341006463"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1337566623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1341006463"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1341006463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1337566623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DefDectLayerwise!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Independent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.56552000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.571376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57284000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.575403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58235700000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61749600000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61493399999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62628099999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61932699999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63140600000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64128799999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65080499999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65190300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AF06-624C-9D12-9468851183BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DefDectLayerwise!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Incremental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DefDectLayerwise!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.56552000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.569546</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.567716</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58894599999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60175699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61712999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.620425</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.633602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62847699999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62664699999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63250399999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63689600000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64019000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AF06-624C-9D12-9468851183BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="752478415"/>
+        <c:axId val="308094287"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="752478415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="308094287"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="308094287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.70000000000000007"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="752478415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>DefDectLayerwise!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -7276,7 +10318,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7783,7 +10825,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8290,7 +11332,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8797,7 +11839,495 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CodeBERTa</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>POSLayerwise!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Independent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>POSLayerwise!$K$2:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>POSLayerwise!$L$2:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.82799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90100000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1190-B444-9626-D91E85859148}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>POSLayerwise!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Incremental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>POSLayerwise!$K$2:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>POSLayerwise!$M$2:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.91100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92300000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1190-B444-9626-D91E85859148}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="465157695"/>
+        <c:axId val="521647295"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="465157695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521647295"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="521647295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465157695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9303,7 +12833,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9809,7 +13339,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10315,7 +13845,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10822,7 +14352,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11241,494 +14771,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1204987088"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>CodeBERTa</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>POSLayerwise!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Independent</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>POSLayerwise!$K$2:$K$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>POSLayerwise!$L$2:$L$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.82799999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.95799999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.91400000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.81599999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.96899999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.91100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.90100000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1190-B444-9626-D91E85859148}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>POSLayerwise!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Incremental</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>POSLayerwise!$K$2:$K$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>POSLayerwise!$M$2:$M$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.91100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.90900000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.90100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.88400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.93899999999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.91700000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.92300000000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1190-B444-9626-D91E85859148}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="465157695"/>
-        <c:axId val="521647295"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="465157695"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="521647295"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="521647295"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="465157695"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15923,7 +18965,247 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors29.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors30.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors31.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors32.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors33.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors34.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -26766,7 +30048,3025 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style29.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style30.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style31.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style32.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style33.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style34.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -30950,6 +37250,227 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{953A7898-7165-1849-B97B-A4C3B930932D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08DA2C50-49DE-A945-865A-FF3F420F549C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1B99D74-0B18-7740-A759-34ED3C1B0444}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD81A2F-3306-B743-AFAF-DADEB04ED027}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{601D1DCF-68A0-C343-8CD8-33B12F08CFD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>831850</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29D687D1-3A31-0F45-9C45-EEBF4E166D8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -38251,10 +44772,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A97D7F-0A6C-D241-8CE5-FB9EF0958310}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M14"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -38296,24 +44817,36 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="24">
+        <v>0.53476800000000002</v>
+      </c>
+      <c r="C2" s="24">
+        <v>0.53476800000000002</v>
+      </c>
       <c r="D2" s="52" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="G2" s="24">
+        <v>0.49834400000000001</v>
+      </c>
+      <c r="H2" s="24">
+        <v>0.50165599999999999</v>
+      </c>
       <c r="I2" s="52" t="s">
         <v>28</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="L2" s="24">
+        <v>0.50165599999999999</v>
+      </c>
+      <c r="M2" s="24">
+        <v>0.50165599999999999</v>
+      </c>
       <c r="N2" s="52" t="s">
         <v>25</v>
       </c>
@@ -38322,249 +44855,848 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="24">
+        <v>0.53311299999999995</v>
+      </c>
+      <c r="C3" s="24">
+        <v>0.54635800000000001</v>
+      </c>
       <c r="D3" s="52"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="G3" s="24">
+        <v>0.51490100000000005</v>
+      </c>
+      <c r="H3" s="24">
+        <v>0.50827800000000001</v>
+      </c>
       <c r="I3" s="52"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
+      <c r="L3" s="24">
+        <v>0.53145699999999996</v>
+      </c>
+      <c r="M3" s="24">
+        <v>0.52152299999999996</v>
+      </c>
       <c r="N3" s="52"/>
     </row>
     <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="B4" s="24">
+        <v>0.50827800000000001</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0.50331099999999995</v>
+      </c>
       <c r="D4" s="52"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="G4" s="24">
+        <v>0.528146</v>
+      </c>
+      <c r="H4" s="24">
+        <v>0.51324499999999995</v>
+      </c>
       <c r="I4" s="52"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="L4" s="24">
+        <v>0.50827800000000001</v>
+      </c>
+      <c r="M4" s="24">
+        <v>0.51490100000000005</v>
+      </c>
       <c r="N4" s="52"/>
     </row>
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="24">
+        <v>0.50165599999999999</v>
+      </c>
       <c r="D5" s="52"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="G5" s="24">
+        <v>0.50827800000000001</v>
+      </c>
+      <c r="H5" s="24">
+        <v>0.50827800000000001</v>
+      </c>
       <c r="I5" s="52"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
+      <c r="L5" s="24">
+        <v>0.52317899999999995</v>
+      </c>
+      <c r="M5" s="24">
+        <v>0.490066</v>
+      </c>
       <c r="N5" s="52"/>
     </row>
     <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="24">
+        <v>0.51821200000000001</v>
+      </c>
+      <c r="C6" s="24">
+        <v>0.51490100000000005</v>
+      </c>
       <c r="D6" s="52"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
+      <c r="G6" s="24">
+        <v>0.47350999999999999</v>
+      </c>
+      <c r="H6" s="24">
+        <v>0.50331099999999995</v>
+      </c>
       <c r="I6" s="52"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
+      <c r="L6" s="24">
+        <v>0.528146</v>
+      </c>
+      <c r="M6" s="24">
+        <v>0.51324499999999995</v>
+      </c>
       <c r="N6" s="52"/>
     </row>
     <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+      <c r="B7" s="24">
+        <v>0.50662300000000005</v>
+      </c>
+      <c r="C7" s="24">
+        <v>0.50496700000000005</v>
+      </c>
       <c r="D7" s="52"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
+      <c r="G7" s="24">
+        <v>0.48178799999999999</v>
+      </c>
+      <c r="H7" s="24">
+        <v>0.50331099999999995</v>
+      </c>
       <c r="I7" s="52"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
+      <c r="L7" s="24">
+        <v>0.490066</v>
+      </c>
+      <c r="M7" s="24">
+        <v>0.50662300000000005</v>
+      </c>
       <c r="N7" s="52"/>
     </row>
     <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
+      <c r="B8" s="24">
+        <v>0.50331099999999995</v>
+      </c>
+      <c r="C8" s="24">
+        <v>0.51158899999999996</v>
+      </c>
       <c r="D8" s="52"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+      <c r="G8" s="24">
+        <v>0.495033</v>
+      </c>
+      <c r="H8" s="24">
+        <v>0.50331099999999995</v>
+      </c>
       <c r="I8" s="52"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
+      <c r="L8" s="24">
+        <v>0.51655600000000002</v>
+      </c>
+      <c r="M8" s="24">
+        <v>0.49337700000000001</v>
+      </c>
       <c r="N8" s="52"/>
     </row>
     <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+      <c r="B9" s="24">
+        <v>0.509934</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0.49668899999999999</v>
+      </c>
       <c r="D9" s="52"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="G9" s="24">
+        <v>0.48675499999999999</v>
+      </c>
+      <c r="H9" s="24">
+        <v>0.49834400000000001</v>
+      </c>
       <c r="I9" s="52"/>
       <c r="K9" s="1">
         <v>7</v>
       </c>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
+      <c r="L9" s="24">
+        <v>0.51324499999999995</v>
+      </c>
+      <c r="M9" s="24">
+        <v>0.46192100000000003</v>
+      </c>
       <c r="N9" s="52"/>
     </row>
     <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+      <c r="B10" s="24">
+        <v>0.50827800000000001</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0.50496700000000005</v>
+      </c>
       <c r="D10" s="52"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+      <c r="G10" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="24">
+        <v>0.495033</v>
+      </c>
       <c r="I10" s="52"/>
       <c r="K10" s="1">
         <v>8</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
+      <c r="L10" s="24">
+        <v>0.51490100000000005</v>
+      </c>
+      <c r="M10" s="24">
+        <v>0.46523199999999998</v>
+      </c>
       <c r="N10" s="52"/>
     </row>
     <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+      <c r="B11" s="24">
+        <v>0.53311299999999995</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0.51490100000000005</v>
+      </c>
       <c r="D11" s="52"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="G11" s="24">
+        <v>0.50662300000000005</v>
+      </c>
+      <c r="H11" s="24">
+        <v>0.5</v>
+      </c>
       <c r="I11" s="52"/>
       <c r="K11" s="1">
         <v>9</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
+      <c r="L11" s="24">
+        <v>0.50827800000000001</v>
+      </c>
+      <c r="M11" s="24">
+        <v>0.47516599999999998</v>
+      </c>
       <c r="N11" s="52"/>
     </row>
     <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="24">
+        <v>0.54470200000000002</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0.54635800000000001</v>
+      </c>
       <c r="D12" s="52"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="G12" s="24">
+        <v>0.48675499999999999</v>
+      </c>
+      <c r="H12" s="24">
+        <v>0.51158899999999996</v>
+      </c>
       <c r="I12" s="52"/>
       <c r="K12" s="1">
         <v>10</v>
       </c>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
+      <c r="L12" s="24">
+        <v>0.48178799999999999</v>
+      </c>
+      <c r="M12" s="24">
+        <v>0.485099</v>
+      </c>
       <c r="N12" s="52"/>
     </row>
     <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
+      <c r="B13" s="24">
+        <v>0.53476800000000002</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0.51490100000000005</v>
+      </c>
       <c r="D13" s="52"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="G13" s="24">
+        <v>0.52649000000000001</v>
+      </c>
+      <c r="H13" s="24">
+        <v>0.528146</v>
+      </c>
       <c r="I13" s="52"/>
       <c r="K13" s="1">
         <v>11</v>
       </c>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
+      <c r="L13" s="24">
+        <v>0.519868</v>
+      </c>
+      <c r="M13" s="24">
+        <v>0.48344399999999998</v>
+      </c>
       <c r="N13" s="52"/>
     </row>
     <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
+      <c r="B14" s="24">
+        <v>0.53642400000000001</v>
+      </c>
+      <c r="C14" s="24">
+        <v>0.54139099999999996</v>
+      </c>
       <c r="D14" s="52"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="G14" s="24">
+        <v>0.509934</v>
+      </c>
+      <c r="H14" s="24">
+        <v>0.509934</v>
+      </c>
       <c r="I14" s="52"/>
       <c r="K14" s="1">
         <v>12</v>
       </c>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
+      <c r="L14" s="24">
+        <v>0.51655600000000002</v>
+      </c>
+      <c r="M14" s="24">
+        <v>0.46523199999999998</v>
+      </c>
       <c r="N14" s="52"/>
     </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="M34" s="45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A35" s="45">
+        <v>0</v>
+      </c>
+      <c r="B35" s="24">
+        <v>0.49172199999999999</v>
+      </c>
+      <c r="C35" s="24">
+        <v>0.49172199999999999</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="45">
+        <v>0</v>
+      </c>
+      <c r="G35" s="24">
+        <v>0.48178799999999999</v>
+      </c>
+      <c r="H35" s="24">
+        <v>0.49172199999999999</v>
+      </c>
+      <c r="I35" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="K35" s="45">
+        <v>0</v>
+      </c>
+      <c r="L35" s="24">
+        <v>0.50165599999999999</v>
+      </c>
+      <c r="M35" s="24">
+        <v>0.50165599999999999</v>
+      </c>
+      <c r="N35" s="52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A36" s="45">
+        <v>1</v>
+      </c>
+      <c r="B36" s="24">
+        <v>0.48178799999999999</v>
+      </c>
+      <c r="C36" s="24">
+        <v>0.495033</v>
+      </c>
+      <c r="D36" s="52"/>
+      <c r="F36" s="45">
+        <v>1</v>
+      </c>
+      <c r="G36" s="24">
+        <v>0.48178799999999999</v>
+      </c>
+      <c r="H36" s="24">
+        <v>0.47516599999999998</v>
+      </c>
+      <c r="I36" s="52"/>
+      <c r="K36" s="45">
+        <v>1</v>
+      </c>
+      <c r="L36" s="24">
+        <v>0.52317899999999995</v>
+      </c>
+      <c r="M36" s="24">
+        <v>0.52152299999999996</v>
+      </c>
+      <c r="N36" s="52"/>
+    </row>
+    <row r="37" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A37" s="45">
+        <v>2</v>
+      </c>
+      <c r="B37" s="24">
+        <v>0.46854299999999999</v>
+      </c>
+      <c r="C37" s="24">
+        <v>0.47847699999999999</v>
+      </c>
+      <c r="D37" s="52"/>
+      <c r="F37" s="45">
+        <v>2</v>
+      </c>
+      <c r="G37" s="24">
+        <v>0.485099</v>
+      </c>
+      <c r="H37" s="24">
+        <v>0.48178799999999999</v>
+      </c>
+      <c r="I37" s="52"/>
+      <c r="K37" s="45">
+        <v>2</v>
+      </c>
+      <c r="L37" s="24">
+        <v>0.48344399999999998</v>
+      </c>
+      <c r="M37" s="24">
+        <v>0.51324499999999995</v>
+      </c>
+      <c r="N37" s="52"/>
+    </row>
+    <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A38" s="45">
+        <v>3</v>
+      </c>
+      <c r="B38" s="24">
+        <v>0.509934</v>
+      </c>
+      <c r="C38" s="24">
+        <v>0.48841099999999998</v>
+      </c>
+      <c r="D38" s="52"/>
+      <c r="F38" s="45">
+        <v>3</v>
+      </c>
+      <c r="G38" s="24">
+        <v>0.48178799999999999</v>
+      </c>
+      <c r="H38" s="24">
+        <v>0.48178799999999999</v>
+      </c>
+      <c r="I38" s="52"/>
+      <c r="K38" s="45">
+        <v>3</v>
+      </c>
+      <c r="L38" s="24">
+        <v>0.490066</v>
+      </c>
+      <c r="M38" s="24">
+        <v>0.480132</v>
+      </c>
+      <c r="N38" s="52"/>
+    </row>
+    <row r="39" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A39" s="45">
+        <v>4</v>
+      </c>
+      <c r="B39" s="24">
+        <v>0.53145699999999996</v>
+      </c>
+      <c r="C39" s="24">
+        <v>0.47847699999999999</v>
+      </c>
+      <c r="D39" s="52"/>
+      <c r="F39" s="45">
+        <v>4</v>
+      </c>
+      <c r="G39" s="24">
+        <v>0.480132</v>
+      </c>
+      <c r="H39" s="24">
+        <v>0.48178799999999999</v>
+      </c>
+      <c r="I39" s="52"/>
+      <c r="K39" s="45">
+        <v>4</v>
+      </c>
+      <c r="L39" s="24">
+        <v>0.50662300000000005</v>
+      </c>
+      <c r="M39" s="24">
+        <v>0.490066</v>
+      </c>
+      <c r="N39" s="52"/>
+    </row>
+    <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A40" s="45">
+        <v>5</v>
+      </c>
+      <c r="B40" s="24">
+        <v>0.485099</v>
+      </c>
+      <c r="C40" s="24">
+        <v>0.48178799999999999</v>
+      </c>
+      <c r="D40" s="52"/>
+      <c r="F40" s="45">
+        <v>5</v>
+      </c>
+      <c r="G40" s="24">
+        <v>0.480132</v>
+      </c>
+      <c r="H40" s="24">
+        <v>0.48178799999999999</v>
+      </c>
+      <c r="I40" s="52"/>
+      <c r="K40" s="45">
+        <v>5</v>
+      </c>
+      <c r="L40" s="24">
+        <v>0.509934</v>
+      </c>
+      <c r="M40" s="24">
+        <v>0.49337700000000001</v>
+      </c>
+      <c r="N40" s="52"/>
+    </row>
+    <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A41" s="45">
+        <v>6</v>
+      </c>
+      <c r="B41" s="24">
+        <v>0.50662300000000005</v>
+      </c>
+      <c r="C41" s="24">
+        <v>0.50165599999999999</v>
+      </c>
+      <c r="D41" s="52"/>
+      <c r="F41" s="45">
+        <v>6</v>
+      </c>
+      <c r="G41" s="24">
+        <v>0.47847699999999999</v>
+      </c>
+      <c r="H41" s="24">
+        <v>0.48178799999999999</v>
+      </c>
+      <c r="I41" s="52"/>
+      <c r="K41" s="45">
+        <v>6</v>
+      </c>
+      <c r="L41" s="24">
+        <v>0.51158899999999996</v>
+      </c>
+      <c r="M41" s="24">
+        <v>0.49834400000000001</v>
+      </c>
+      <c r="N41" s="52"/>
+    </row>
+    <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A42" s="45">
+        <v>7</v>
+      </c>
+      <c r="B42" s="24">
+        <v>0.53476800000000002</v>
+      </c>
+      <c r="C42" s="24">
+        <v>0.51324499999999995</v>
+      </c>
+      <c r="D42" s="52"/>
+      <c r="F42" s="45">
+        <v>7</v>
+      </c>
+      <c r="G42" s="24">
+        <v>0.485099</v>
+      </c>
+      <c r="H42" s="24">
+        <v>0.48178799999999999</v>
+      </c>
+      <c r="I42" s="52"/>
+      <c r="K42" s="45">
+        <v>7</v>
+      </c>
+      <c r="L42" s="24">
+        <v>0.51821200000000001</v>
+      </c>
+      <c r="M42" s="24">
+        <v>0.51158899999999996</v>
+      </c>
+      <c r="N42" s="52"/>
+    </row>
+    <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A43" s="45">
+        <v>8</v>
+      </c>
+      <c r="B43" s="24">
+        <v>0.51655600000000002</v>
+      </c>
+      <c r="C43" s="24">
+        <v>0.50662300000000005</v>
+      </c>
+      <c r="D43" s="52"/>
+      <c r="F43" s="45">
+        <v>8</v>
+      </c>
+      <c r="G43" s="24">
+        <v>0.47847699999999999</v>
+      </c>
+      <c r="H43" s="24">
+        <v>0.48178799999999999</v>
+      </c>
+      <c r="I43" s="52"/>
+      <c r="K43" s="45">
+        <v>8</v>
+      </c>
+      <c r="L43" s="24">
+        <v>0.50496700000000005</v>
+      </c>
+      <c r="M43" s="24">
+        <v>0.49834400000000001</v>
+      </c>
+      <c r="N43" s="52"/>
+    </row>
+    <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A44" s="45">
+        <v>9</v>
+      </c>
+      <c r="B44" s="24">
+        <v>0.52980099999999997</v>
+      </c>
+      <c r="C44" s="24">
+        <v>0.51655600000000002</v>
+      </c>
+      <c r="D44" s="52"/>
+      <c r="F44" s="45">
+        <v>9</v>
+      </c>
+      <c r="G44" s="24">
+        <v>0.485099</v>
+      </c>
+      <c r="H44" s="24">
+        <v>0.48344399999999998</v>
+      </c>
+      <c r="I44" s="52"/>
+      <c r="K44" s="45">
+        <v>9</v>
+      </c>
+      <c r="L44" s="24">
+        <v>0.47516599999999998</v>
+      </c>
+      <c r="M44" s="24">
+        <v>0.50827800000000001</v>
+      </c>
+      <c r="N44" s="52"/>
+    </row>
+    <row r="45" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A45" s="45">
+        <v>10</v>
+      </c>
+      <c r="B45" s="24">
+        <v>0.528146</v>
+      </c>
+      <c r="C45" s="24">
+        <v>0.51158899999999996</v>
+      </c>
+      <c r="D45" s="52"/>
+      <c r="F45" s="45">
+        <v>10</v>
+      </c>
+      <c r="G45" s="24">
+        <v>0.47847699999999999</v>
+      </c>
+      <c r="H45" s="24">
+        <v>0.485099</v>
+      </c>
+      <c r="I45" s="52"/>
+      <c r="K45" s="45">
+        <v>10</v>
+      </c>
+      <c r="L45" s="24">
+        <v>0.45198700000000003</v>
+      </c>
+      <c r="M45" s="24">
+        <v>0.49172199999999999</v>
+      </c>
+      <c r="N45" s="52"/>
+    </row>
+    <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A46" s="45">
+        <v>11</v>
+      </c>
+      <c r="B46" s="24">
+        <v>0.51490100000000005</v>
+      </c>
+      <c r="C46" s="24">
+        <v>0.51158899999999996</v>
+      </c>
+      <c r="D46" s="52"/>
+      <c r="F46" s="45">
+        <v>11</v>
+      </c>
+      <c r="G46" s="24">
+        <v>0.48344399999999998</v>
+      </c>
+      <c r="H46" s="24">
+        <v>0.485099</v>
+      </c>
+      <c r="I46" s="52"/>
+      <c r="K46" s="45">
+        <v>11</v>
+      </c>
+      <c r="L46" s="24">
+        <v>0.480132</v>
+      </c>
+      <c r="M46" s="24">
+        <v>0.471854</v>
+      </c>
+      <c r="N46" s="52"/>
+    </row>
+    <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+      <c r="A47" s="45">
+        <v>12</v>
+      </c>
+      <c r="B47" s="24">
+        <v>0.490066</v>
+      </c>
+      <c r="C47" s="24">
+        <v>0.50165599999999999</v>
+      </c>
+      <c r="D47" s="52"/>
+      <c r="F47" s="45">
+        <v>12</v>
+      </c>
+      <c r="G47" s="24">
+        <v>0.471854</v>
+      </c>
+      <c r="H47" s="24">
+        <v>0.485099</v>
+      </c>
+      <c r="I47" s="52"/>
+      <c r="K47" s="45">
+        <v>12</v>
+      </c>
+      <c r="L47" s="24">
+        <v>0.47350999999999999</v>
+      </c>
+      <c r="M47" s="24">
+        <v>0.49172199999999999</v>
+      </c>
+      <c r="N47" s="52"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="D2:D14"/>
     <mergeCell ref="I2:I14"/>
     <mergeCell ref="N2:N14"/>
+    <mergeCell ref="D35:D47"/>
+    <mergeCell ref="I35:I47"/>
+    <mergeCell ref="N35:N47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/POS Code/Experiments/attachments/detailed_results.xlsx
+++ b/POS Code/Experiments/attachments/detailed_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83A60B4-180C-6A40-A88A-0D2EA5C00C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76778F2-CC42-7F46-8D27-14A335B40ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" activeTab="6" xr2:uid="{BEC22610-DBDE-49A5-ABDC-7DB261D6BA7F}"/>
   </bookViews>

--- a/POS Code/Experiments/attachments/detailed_results.xlsx
+++ b/POS Code/Experiments/attachments/detailed_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE15BB07-A0B2-FE4B-89AE-A08040763031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807603F9-BCB2-D94F-94C1-E6489DE53E17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" activeTab="7" xr2:uid="{BEC22610-DBDE-49A5-ABDC-7DB261D6BA7F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" xr2:uid="{BEC22610-DBDE-49A5-ABDC-7DB261D6BA7F}"/>
   </bookViews>
   <sheets>
     <sheet name="POSSummary" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="60">
   <si>
     <t>Selection</t>
   </si>
@@ -173,12 +173,6 @@
     <t>0-1</t>
   </si>
   <si>
-    <t>0- 4</t>
-  </si>
-  <si>
-    <t>0- 0</t>
-  </si>
-  <si>
     <t>0-7</t>
   </si>
   <si>
@@ -222,6 +216,9 @@
   </si>
   <si>
     <t>CodeGPTPyAdapeted</t>
+  </si>
+  <si>
+    <t>0-2</t>
   </si>
 </sst>
 </file>
@@ -501,6 +498,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -515,9 +515,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -45494,19 +45491,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1929D321-160C-41CB-828A-0FA5B23B672C}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
@@ -45525,41 +45522,41 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -45603,49 +45600,49 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="52"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="5">
-        <v>0.97499999999999998</v>
+        <v>0.9657</v>
       </c>
       <c r="D3" s="5">
-        <v>0.91459999999999997</v>
+        <v>0.95069999999999999</v>
       </c>
       <c r="E3" s="5">
-        <v>0.94220000000000004</v>
+        <v>0.89929999999999999</v>
       </c>
       <c r="F3" s="5">
-        <v>0.98399999999999999</v>
+        <v>0.8952</v>
       </c>
       <c r="G3" s="5">
-        <v>0.87309999999999999</v>
+        <v>0.90139999999999998</v>
       </c>
       <c r="H3" s="5">
-        <v>0.92310000000000003</v>
+        <v>0.95209999999999995</v>
       </c>
       <c r="I3" s="5">
-        <v>0.83579999999999999</v>
+        <v>0.9657</v>
       </c>
       <c r="J3" s="5">
-        <v>0.91190000000000004</v>
+        <v>0.97470000000000001</v>
       </c>
       <c r="K3" s="5">
-        <v>0.89290000000000003</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="L3" s="5">
-        <v>0.98129999999999995</v>
+        <v>0.91510000000000002</v>
       </c>
       <c r="M3" s="5">
-        <v>0.99029999999999996</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="N3" s="6">
-        <v>0.96009999999999995</v>
+        <v>0.96160000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="51" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -45689,7 +45686,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="52"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
@@ -45731,438 +45728,462 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="51" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="D6" s="2">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="E6" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F6" s="2">
-        <v>49</v>
+        <v>638</v>
       </c>
       <c r="G6" s="2">
-        <v>299</v>
+        <v>519</v>
       </c>
       <c r="H6" s="2">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="I6" s="2">
-        <v>139</v>
+        <v>1996</v>
       </c>
       <c r="J6" s="2">
-        <v>119</v>
+        <v>778</v>
       </c>
       <c r="K6" s="2">
-        <v>139</v>
-      </c>
-      <c r="L6" s="2">
-        <v>189</v>
+        <v>109</v>
+      </c>
+      <c r="L6" s="49">
+        <v>199</v>
       </c>
       <c r="M6" s="2">
-        <v>229</v>
+        <v>1497</v>
       </c>
       <c r="N6" s="3">
-        <v>39</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="51"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="14">
-        <v>0.97050000000000003</v>
+      <c r="C7" s="27">
+        <v>0.96499999999999997</v>
       </c>
       <c r="D7" s="7">
-        <v>0.93959999999999999</v>
+        <v>0.96989999999999998</v>
       </c>
       <c r="E7" s="7">
-        <v>0.93100000000000005</v>
+        <v>0.89729999999999999</v>
       </c>
       <c r="F7" s="7">
-        <v>0.93810000000000004</v>
+        <v>0.89590000000000003</v>
       </c>
       <c r="G7" s="7">
-        <v>0.8851</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="H7" s="7">
-        <v>0.91830000000000001</v>
+        <v>0.97189999999999999</v>
       </c>
       <c r="I7" s="7">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="J7" s="14">
-        <v>0.97719999999999996</v>
-      </c>
-      <c r="K7" s="14">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="L7" s="14">
-        <v>0.97540000000000004</v>
-      </c>
-      <c r="M7" s="14">
-        <v>0.98399999999999999</v>
+        <v>0.94930000000000003</v>
+      </c>
+      <c r="J7" s="27">
+        <v>0.90549999999999997</v>
+      </c>
+      <c r="K7" s="27">
+        <v>0.9829</v>
+      </c>
+      <c r="L7" s="46">
+        <v>0.90610000000000002</v>
+      </c>
+      <c r="M7" s="27">
+        <v>0.98360000000000003</v>
       </c>
       <c r="N7" s="8">
-        <v>0.94399999999999995</v>
+        <v>0.96030000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="27">
         <f>C7-C3</f>
-        <v>-4.4999999999999485E-3</v>
+        <v>-7.0000000000003393E-4</v>
       </c>
       <c r="D8" s="27">
-        <f t="shared" ref="D8:N8" si="0">D7-D3</f>
-        <v>2.5000000000000022E-2</v>
+        <f>D7-D3</f>
+        <v>1.9199999999999995E-2</v>
       </c>
       <c r="E8" s="27">
-        <f t="shared" si="0"/>
-        <v>-1.1199999999999988E-2</v>
+        <f>E7-E3</f>
+        <v>-2.0000000000000018E-3</v>
       </c>
       <c r="F8" s="27">
-        <f t="shared" si="0"/>
-        <v>-4.5899999999999941E-2</v>
+        <f>F7-F3</f>
+        <v>7.0000000000003393E-4</v>
       </c>
       <c r="G8" s="27">
-        <f t="shared" si="0"/>
-        <v>1.2000000000000011E-2</v>
+        <f>G7-G3</f>
+        <v>-1.4399999999999968E-2</v>
       </c>
       <c r="H8" s="27">
-        <f t="shared" si="0"/>
-        <v>-4.8000000000000265E-3</v>
+        <f>H7-H3</f>
+        <v>1.980000000000004E-2</v>
       </c>
       <c r="I8" s="27">
-        <f t="shared" si="0"/>
-        <v>-1.8000000000000238E-3</v>
+        <f>I7-I3</f>
+        <v>-1.639999999999997E-2</v>
       </c>
       <c r="J8" s="27">
-        <f t="shared" si="0"/>
-        <v>6.5299999999999914E-2</v>
+        <f>J7-J3</f>
+        <v>-6.9200000000000039E-2</v>
       </c>
       <c r="K8" s="27">
-        <f t="shared" si="0"/>
-        <v>6.6099999999999937E-2</v>
+        <f>K7-K3</f>
+        <v>-6.0999999999999943E-3</v>
       </c>
       <c r="L8" s="27">
-        <f t="shared" si="0"/>
-        <v>-5.8999999999999053E-3</v>
+        <f>L7-L3</f>
+        <v>-9.000000000000008E-3</v>
       </c>
       <c r="M8" s="27">
-        <f t="shared" si="0"/>
-        <v>-6.2999999999999723E-3</v>
-      </c>
-      <c r="N8" s="27">
-        <f t="shared" si="0"/>
-        <v>-1.6100000000000003E-2</v>
+        <f>M7-M3</f>
+        <v>-5.3999999999999604E-3</v>
+      </c>
+      <c r="N8" s="47">
+        <f>N7-N3</f>
+        <v>-1.2999999999999678E-3</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="15">
-        <v>0.98309999999999997</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.99809999999999999</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.99009999999999998</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.99509999999999998</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0.97009999999999996</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0.99209999999999998</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0.98609999999999998</v>
-      </c>
-      <c r="J9" s="15">
-        <v>0.98809999999999998</v>
-      </c>
-      <c r="K9" s="15">
-        <v>0.98609999999999998</v>
-      </c>
-      <c r="L9" s="15">
-        <v>0.98109999999999997</v>
-      </c>
-      <c r="M9" s="15">
-        <v>0.97709999999999997</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0.99609999999999999</v>
+      <c r="C9" s="29">
+        <f>1-C6/C2</f>
+        <v>0.97606169871794868</v>
+      </c>
+      <c r="D9" s="29">
+        <f>1-D6/D2</f>
+        <v>0.97906650641025639</v>
+      </c>
+      <c r="E9" s="29">
+        <f>1-E6/E2</f>
+        <v>0.99200148809523814</v>
+      </c>
+      <c r="F9" s="29">
+        <f>1-F6/F2</f>
+        <v>0.93609775641025639</v>
+      </c>
+      <c r="G9" s="29">
+        <f>1-G6/G2</f>
+        <v>0.94801682692307687</v>
+      </c>
+      <c r="H9" s="29">
+        <f>1-H6/H2</f>
+        <v>0.97606169871794868</v>
+      </c>
+      <c r="I9" s="29">
+        <f>1-I6/I2</f>
+        <v>0.80008012820512819</v>
+      </c>
+      <c r="J9" s="29">
+        <f>1-J6/J2</f>
+        <v>0.92207532051282048</v>
+      </c>
+      <c r="K9" s="29">
+        <f>1-K6/K2</f>
+        <v>0.98908253205128205</v>
+      </c>
+      <c r="L9" s="29">
+        <f>1-L6/L2</f>
+        <v>0.98006810897435903</v>
+      </c>
+      <c r="M9" s="29">
+        <f>1-M6/M2</f>
+        <v>0.85006009615384615</v>
+      </c>
+      <c r="N9" s="39">
+        <f>1-N6/N2</f>
+        <v>0.85006009615384615</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="51" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="9">
-        <v>199</v>
+        <v>3993</v>
       </c>
       <c r="D10" s="2">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="E10" s="2">
-        <v>430</v>
+        <v>107</v>
       </c>
       <c r="F10" s="2">
-        <v>399</v>
+        <v>269</v>
       </c>
       <c r="G10" s="2">
-        <v>9</v>
+        <v>339</v>
       </c>
       <c r="H10" s="2">
-        <v>609</v>
+        <v>169</v>
       </c>
       <c r="I10" s="2">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="J10" s="2">
-        <v>129</v>
+        <v>898</v>
       </c>
       <c r="K10" s="2">
-        <v>9</v>
+        <v>748</v>
       </c>
       <c r="L10" s="2">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="M10" s="2">
-        <v>9</v>
+        <v>299</v>
       </c>
       <c r="N10" s="3">
-        <v>169</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="14">
-        <v>0.96309999999999996</v>
-      </c>
-      <c r="D11" s="14">
-        <v>0.96940000000000004</v>
+      <c r="C11" s="27">
+        <v>0.95960000000000001</v>
+      </c>
+      <c r="D11" s="27">
+        <v>0.95</v>
       </c>
       <c r="E11" s="7">
-        <v>0.9456</v>
-      </c>
-      <c r="F11" s="14">
-        <v>0.9728</v>
+        <v>0.8911</v>
+      </c>
+      <c r="F11" s="27">
+        <v>0.89449999999999996</v>
       </c>
       <c r="G11" s="7">
-        <v>0.878</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="H11" s="7">
-        <v>0.9889</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0.93879999999999997</v>
-      </c>
-      <c r="J11" s="14">
-        <v>0.97570000000000001</v>
+        <v>0.94320000000000004</v>
+      </c>
+      <c r="I11" s="27">
+        <v>0.9425</v>
+      </c>
+      <c r="J11" s="27">
+        <v>0.9637</v>
       </c>
       <c r="K11" s="7">
-        <v>0.84809999999999997</v>
-      </c>
-      <c r="L11" s="14">
-        <v>0.97089999999999999</v>
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="L11" s="27">
+        <v>0.90480000000000005</v>
       </c>
       <c r="M11" s="7">
-        <v>0.82950000000000002</v>
-      </c>
-      <c r="N11" s="17">
-        <v>0.96309999999999996</v>
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="N11" s="47">
+        <v>0.97189999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="27">
         <f>C11-C3</f>
-        <v>-1.1900000000000022E-2</v>
+        <v>-6.0999999999999943E-3</v>
       </c>
       <c r="D12" s="27">
-        <f t="shared" ref="D12:N12" si="1">D11-D3</f>
-        <v>5.4800000000000071E-2</v>
+        <f>D11-D3</f>
+        <v>-7.0000000000003393E-4</v>
       </c>
       <c r="E12" s="27">
-        <f t="shared" si="1"/>
-        <v>3.3999999999999586E-3</v>
+        <f>E11-E3</f>
+        <v>-8.1999999999999851E-3</v>
       </c>
       <c r="F12" s="27">
-        <f t="shared" si="1"/>
-        <v>-1.1199999999999988E-2</v>
+        <f>F11-F3</f>
+        <v>-7.0000000000003393E-4</v>
       </c>
       <c r="G12" s="27">
-        <f t="shared" si="1"/>
-        <v>4.9000000000000155E-3</v>
+        <f>G11-G3</f>
+        <v>9.6000000000000529E-3</v>
       </c>
       <c r="H12" s="27">
-        <f t="shared" si="1"/>
-        <v>6.579999999999997E-2</v>
+        <f>H11-H3</f>
+        <v>-8.899999999999908E-3</v>
       </c>
       <c r="I12" s="27">
-        <f t="shared" si="1"/>
-        <v>0.10299999999999998</v>
+        <f>I11-I3</f>
+        <v>-2.3199999999999998E-2</v>
       </c>
       <c r="J12" s="27">
-        <f t="shared" si="1"/>
-        <v>6.3799999999999968E-2</v>
+        <f>J11-J3</f>
+        <v>-1.100000000000001E-2</v>
       </c>
       <c r="K12" s="27">
-        <f t="shared" si="1"/>
-        <v>-4.4800000000000062E-2</v>
+        <f>K11-K3</f>
+        <v>-6.8000000000000282E-3</v>
       </c>
       <c r="L12" s="27">
-        <f t="shared" si="1"/>
-        <v>-1.0399999999999965E-2</v>
+        <f>L11-L3</f>
+        <v>-1.0299999999999976E-2</v>
       </c>
       <c r="M12" s="27">
-        <f t="shared" si="1"/>
-        <v>-0.16079999999999994</v>
-      </c>
-      <c r="N12" s="27">
-        <f t="shared" si="1"/>
-        <v>3.0000000000000027E-3</v>
+        <f>M11-M3</f>
+        <v>-9.4999999999999529E-3</v>
+      </c>
+      <c r="N12" s="47">
+        <f>N11-N3</f>
+        <v>1.0299999999999976E-2</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="15">
-        <v>0.98</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0.97909999999999997</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0.96</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0.99909999999999999</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="I13" s="15">
-        <v>0.99709999999999999</v>
-      </c>
-      <c r="J13" s="15">
-        <v>0.98709999999999998</v>
-      </c>
-      <c r="K13" s="5">
-        <v>0.99909999999999999</v>
-      </c>
-      <c r="L13" s="15">
-        <v>0.98409999999999997</v>
-      </c>
-      <c r="M13" s="5">
-        <v>0.99909999999999999</v>
-      </c>
-      <c r="N13" s="18">
-        <v>0.98309999999999997</v>
+      <c r="C13" s="29">
+        <f>1-C10/C2</f>
+        <v>0.60006009615384615</v>
+      </c>
+      <c r="D13" s="29">
+        <f>1-D10/D2</f>
+        <v>0.97405849358974361</v>
+      </c>
+      <c r="E13" s="29">
+        <f>1-E10/E2</f>
+        <v>0.98009672619047616</v>
+      </c>
+      <c r="F13" s="29">
+        <f>1-F10/F2</f>
+        <v>0.97305689102564097</v>
+      </c>
+      <c r="G13" s="29">
+        <f>1-G10/G2</f>
+        <v>0.96604567307692313</v>
+      </c>
+      <c r="H13" s="29">
+        <f>1-H10/H2</f>
+        <v>0.98307291666666663</v>
+      </c>
+      <c r="I13" s="29">
+        <f>1-I10/I2</f>
+        <v>0.99008413461538458</v>
+      </c>
+      <c r="J13" s="29">
+        <f>1-J10/J2</f>
+        <v>0.91005608974358976</v>
+      </c>
+      <c r="K13" s="29">
+        <f>1-K10/K2</f>
+        <v>0.92508012820512819</v>
+      </c>
+      <c r="L13" s="29">
+        <f>1-L10/L2</f>
+        <v>0.98808092948717952</v>
+      </c>
+      <c r="M13" s="29">
+        <f>1-M10/M2</f>
+        <v>0.97005208333333337</v>
+      </c>
+      <c r="N13" s="39">
+        <f>1-N10/N2</f>
+        <v>0.97205528846153844</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="51" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="10">
-        <v>0.6</v>
+      <c r="C14" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="D14" s="2">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="E14" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="H14" s="2">
         <v>0.3</v>
       </c>
-      <c r="F14" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="3">
         <v>0.1</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="J14" s="2">
-        <v>-1</v>
-      </c>
-      <c r="K14" s="2">
-        <v>-1</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="16">
-        <v>932</v>
+        <v>9984</v>
       </c>
       <c r="D15" s="1">
-        <v>3229</v>
+        <v>8556</v>
       </c>
       <c r="E15" s="1">
-        <v>2352</v>
+        <v>570</v>
       </c>
       <c r="F15" s="1">
-        <v>495</v>
+        <v>196</v>
       </c>
       <c r="G15" s="1">
-        <v>1388</v>
+        <v>626</v>
       </c>
       <c r="H15" s="1">
-        <v>4836</v>
+        <v>2267</v>
       </c>
       <c r="I15" s="1">
-        <v>644</v>
+        <v>1954</v>
       </c>
       <c r="J15" s="1">
         <v>9984</v>
@@ -46171,156 +46192,167 @@
         <v>9984</v>
       </c>
       <c r="L15" s="1">
-        <v>1016</v>
+        <v>1828</v>
       </c>
       <c r="M15" s="1">
-        <v>902</v>
+        <v>9984</v>
       </c>
       <c r="N15" s="11">
-        <v>3406</v>
+        <v>8325</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="7">
-        <v>0.99029999999999996</v>
+        <v>0.97330000000000005</v>
       </c>
       <c r="D16" s="7">
-        <v>0.94920000000000004</v>
+        <v>0.98150000000000004</v>
       </c>
       <c r="E16" s="7">
-        <v>0.95930000000000004</v>
-      </c>
-      <c r="F16" s="14">
-        <v>0.9929</v>
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="F16" s="27">
+        <v>0.9486</v>
       </c>
       <c r="G16" s="7">
-        <v>0.9899</v>
+        <v>0.91849999999999998</v>
       </c>
       <c r="H16" s="7">
-        <v>0.98770000000000002</v>
-      </c>
-      <c r="I16" s="14">
-        <v>0.98839999999999995</v>
+        <v>0.9849</v>
+      </c>
+      <c r="I16" s="27">
+        <v>0.97950000000000004</v>
       </c>
       <c r="J16" s="7">
-        <v>0.99480000000000002</v>
+        <v>0.98009999999999997</v>
       </c>
       <c r="K16" s="7">
-        <v>0.98209999999999997</v>
+        <v>0.99180000000000001</v>
       </c>
       <c r="L16" s="7">
-        <v>0.98960000000000004</v>
+        <v>0.91510000000000002</v>
       </c>
       <c r="M16" s="7">
-        <v>0.99180000000000001</v>
+        <v>0.99319999999999997</v>
       </c>
       <c r="N16" s="8">
-        <v>0.99029999999999996</v>
+        <v>0.98150000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="7">
         <f>C16-C3</f>
-        <v>1.529999999999998E-2</v>
+        <v>7.6000000000000512E-3</v>
       </c>
       <c r="D17" s="7">
-        <f t="shared" ref="D17:N17" si="2">D16-D3</f>
-        <v>3.4600000000000075E-2</v>
+        <f>D16-D3</f>
+        <v>3.080000000000005E-2</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" si="2"/>
+        <f>E16-E3</f>
+        <v>2.6700000000000057E-2</v>
+      </c>
+      <c r="F17" s="7">
+        <f>F16-F3</f>
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="G17" s="7">
+        <f>G16-G3</f>
         <v>1.7100000000000004E-2</v>
       </c>
-      <c r="F17" s="7">
-        <f t="shared" si="2"/>
-        <v>8.900000000000019E-3</v>
-      </c>
-      <c r="G17" s="7">
-        <f t="shared" si="2"/>
-        <v>0.11680000000000001</v>
-      </c>
       <c r="H17" s="7">
-        <f t="shared" si="2"/>
-        <v>6.4599999999999991E-2</v>
+        <f>H16-H3</f>
+        <v>3.2800000000000051E-2</v>
       </c>
       <c r="I17" s="7">
-        <f t="shared" si="2"/>
-        <v>0.15259999999999996</v>
+        <f>I16-I3</f>
+        <v>1.3800000000000034E-2</v>
       </c>
       <c r="J17" s="7">
-        <f t="shared" si="2"/>
-        <v>8.2899999999999974E-2</v>
+        <f>J16-J3</f>
+        <v>5.3999999999999604E-3</v>
       </c>
       <c r="K17" s="7">
-        <f t="shared" si="2"/>
-        <v>8.9199999999999946E-2</v>
+        <f>K16-K3</f>
+        <v>2.8000000000000247E-3</v>
       </c>
       <c r="L17" s="7">
-        <f t="shared" si="2"/>
-        <v>8.3000000000000851E-3</v>
+        <f>L16-L3</f>
+        <v>0</v>
       </c>
       <c r="M17" s="7">
-        <f t="shared" si="2"/>
-        <v>1.5000000000000568E-3</v>
-      </c>
-      <c r="N17" s="7">
-        <f t="shared" si="2"/>
-        <v>3.0200000000000005E-2</v>
+        <f>M16-M3</f>
+        <v>4.1999999999999815E-3</v>
+      </c>
+      <c r="N17" s="8">
+        <f>N16-N3</f>
+        <v>1.9900000000000029E-2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="5">
-        <v>0.90669999999999995</v>
+        <f>1-C15/C2</f>
+        <v>0</v>
       </c>
       <c r="D18" s="5">
-        <v>0.67659999999999998</v>
+        <f>1-D15/D2</f>
+        <v>0.14302884615384615</v>
       </c>
       <c r="E18" s="5">
-        <v>0.5625</v>
-      </c>
-      <c r="F18" s="15">
-        <v>0.95040000000000002</v>
+        <f>1-E15/E2</f>
+        <v>0.8939732142857143</v>
+      </c>
+      <c r="F18" s="5">
+        <f>1-F15/F2</f>
+        <v>0.98036858974358976</v>
       </c>
       <c r="G18" s="5">
-        <v>0.86099999999999999</v>
+        <f>1-G15/G2</f>
+        <v>0.93729967948717952</v>
       </c>
       <c r="H18" s="5">
-        <v>0.51559999999999995</v>
-      </c>
-      <c r="I18" s="15">
-        <v>0.9355</v>
+        <f>1-H15/H2</f>
+        <v>0.77293669871794868</v>
+      </c>
+      <c r="I18" s="5">
+        <f>1-I15/I2</f>
+        <v>0.80428685897435903</v>
       </c>
       <c r="J18" s="5">
+        <f>1-J15/J2</f>
         <v>0</v>
       </c>
       <c r="K18" s="5">
+        <f>1-K15/K2</f>
         <v>0</v>
       </c>
       <c r="L18" s="5">
-        <v>0.8982</v>
+        <f>1-L15/L2</f>
+        <v>0.81690705128205132</v>
       </c>
       <c r="M18" s="5">
         <f>1-M15/M2</f>
-        <v>0.90965544871794868</v>
+        <v>0</v>
       </c>
       <c r="N18" s="6">
-        <v>0.65890000000000004</v>
+        <f>1-N15/N2</f>
+        <v>0.16616586538461542</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -46330,10 +46362,10 @@
         <v>42</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>37</v>
@@ -46345,34 +46377,34 @@
         <v>37</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
         <v>3</v>
@@ -46387,26 +46419,26 @@
         <v>3</v>
       </c>
       <c r="I20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1">
         <v>1</v>
       </c>
       <c r="M20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
@@ -46414,10 +46446,10 @@
         <v>3840</v>
       </c>
       <c r="D21" s="1">
-        <v>1536</v>
+        <v>2304</v>
       </c>
       <c r="E21" s="1">
-        <v>3840</v>
+        <v>768</v>
       </c>
       <c r="F21" s="1">
         <v>768</v>
@@ -46429,180 +46461,192 @@
         <v>768</v>
       </c>
       <c r="I21" s="1">
-        <v>1536</v>
+        <v>9216</v>
       </c>
       <c r="J21" s="1">
-        <v>1536</v>
+        <v>5376</v>
       </c>
       <c r="K21" s="1">
-        <v>768</v>
+        <v>3840</v>
       </c>
       <c r="L21" s="1">
-        <v>6912</v>
+        <v>6144</v>
       </c>
       <c r="M21" s="1">
         <v>3840</v>
       </c>
       <c r="N21" s="11">
-        <v>768</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="7">
-        <v>0.97009999999999996</v>
+        <v>0.96509999999999996</v>
       </c>
       <c r="D22" s="7">
-        <v>0.93059999999999998</v>
+        <v>0.98009999999999997</v>
       </c>
       <c r="E22" s="7">
-        <v>0.93920000000000003</v>
+        <v>0.90890000000000004</v>
       </c>
       <c r="F22" s="7">
-        <v>0.98170000000000002</v>
-      </c>
-      <c r="G22" s="14">
-        <v>0.98880000000000001</v>
+        <v>0.90069999999999995</v>
+      </c>
+      <c r="G22" s="27">
+        <v>0.90480000000000005</v>
       </c>
       <c r="H22" s="7">
-        <v>0.99399999999999999</v>
+        <v>0.97119999999999995</v>
       </c>
       <c r="I22" s="7">
-        <v>0.85150000000000003</v>
+        <v>0.97189999999999999</v>
       </c>
       <c r="J22" s="7">
-        <v>0.97389999999999999</v>
+        <v>0.97189999999999999</v>
       </c>
       <c r="K22" s="7">
-        <v>0.89370000000000005</v>
+        <v>0.98770000000000002</v>
       </c>
       <c r="L22" s="7">
-        <v>0.97389999999999999</v>
+        <v>0.90820000000000001</v>
       </c>
       <c r="M22" s="7">
-        <v>0.98429999999999995</v>
+        <v>0.98560000000000003</v>
       </c>
       <c r="N22" s="8">
-        <v>0.99329999999999996</v>
+        <v>0.96779999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="7">
         <f>C22-C3</f>
-        <v>-4.9000000000000155E-3</v>
+        <v>-6.0000000000004494E-4</v>
       </c>
       <c r="D23" s="7">
-        <f t="shared" ref="D23:N23" si="3">D22-D3</f>
-        <v>1.6000000000000014E-2</v>
+        <f>D22-D3</f>
+        <v>2.9399999999999982E-2</v>
       </c>
       <c r="E23" s="7">
-        <f t="shared" si="3"/>
-        <v>-3.0000000000000027E-3</v>
+        <f>E22-E3</f>
+        <v>9.6000000000000529E-3</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" si="3"/>
-        <v>-2.2999999999999687E-3</v>
+        <f>F22-F3</f>
+        <v>5.4999999999999494E-3</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="3"/>
-        <v>0.11570000000000003</v>
+        <f>G22-G3</f>
+        <v>3.4000000000000696E-3</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" si="3"/>
-        <v>7.0899999999999963E-2</v>
+        <f>H22-H3</f>
+        <v>1.9100000000000006E-2</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="3"/>
-        <v>1.5700000000000047E-2</v>
+        <f>I22-I3</f>
+        <v>6.1999999999999833E-3</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="3"/>
-        <v>6.1999999999999944E-2</v>
+        <f>J22-J3</f>
+        <v>-2.8000000000000247E-3</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" si="3"/>
-        <v>8.0000000000002292E-4</v>
+        <f>K22-K3</f>
+        <v>-1.2999999999999678E-3</v>
       </c>
       <c r="L23" s="7">
-        <f t="shared" si="3"/>
-        <v>-7.3999999999999622E-3</v>
+        <f>L22-L3</f>
+        <v>-6.9000000000000172E-3</v>
       </c>
       <c r="M23" s="7">
-        <f t="shared" si="3"/>
-        <v>-6.0000000000000053E-3</v>
-      </c>
-      <c r="N23" s="7">
-        <f t="shared" si="3"/>
-        <v>3.3200000000000007E-2</v>
+        <f>M22-M3</f>
+        <v>-3.3999999999999586E-3</v>
+      </c>
+      <c r="N23" s="8">
+        <f>N22-N3</f>
+        <v>6.1999999999999833E-3</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="5">
-        <v>0.61539999999999995</v>
+        <f>1-C21/C2</f>
+        <v>0.61538461538461542</v>
       </c>
       <c r="D24" s="5">
-        <v>0.84619999999999995</v>
+        <f>1-D21/D2</f>
+        <v>0.76923076923076916</v>
       </c>
       <c r="E24" s="5">
-        <v>0.28570000000000001</v>
+        <f>1-E21/E2</f>
+        <v>0.85714285714285721</v>
       </c>
       <c r="F24" s="5">
-        <v>0.92310000000000003</v>
-      </c>
-      <c r="G24" s="15">
-        <v>0.92310000000000003</v>
+        <f>1-F21/F2</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="G24" s="5">
+        <f>1-G21/G2</f>
+        <v>0.92307692307692313</v>
       </c>
       <c r="H24" s="5">
-        <v>0.92310000000000003</v>
+        <f>1-H21/H2</f>
+        <v>0.92307692307692313</v>
       </c>
       <c r="I24" s="5">
-        <v>0.84619999999999995</v>
+        <f>1-I21/I2</f>
+        <v>7.6923076923076872E-2</v>
       </c>
       <c r="J24" s="5">
-        <v>0.84619999999999995</v>
+        <f>1-J21/J2</f>
+        <v>0.46153846153846156</v>
       </c>
       <c r="K24" s="5">
-        <v>0.92310000000000003</v>
+        <f>1-K21/K2</f>
+        <v>0.61538461538461542</v>
       </c>
       <c r="L24" s="5">
-        <v>0.30769999999999997</v>
+        <f>1-L21/L2</f>
+        <v>0.38461538461538458</v>
       </c>
       <c r="M24" s="5">
-        <v>0.61539999999999995</v>
+        <f>1-M21/M2</f>
+        <v>0.61538461538461542</v>
       </c>
       <c r="N24" s="6">
-        <v>0.92310000000000003</v>
+        <f>1-N21/N2</f>
+        <v>0.84615384615384615</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="51" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>37</v>
@@ -46611,34 +46655,34 @@
         <v>37</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>29</v>
@@ -46653,52 +46697,52 @@
         <v>29</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N26" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="1">
         <v>0.3</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0.3</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="1">
         <v>0.3</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>34</v>
+      <c r="J27" s="1">
+        <v>0.3</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>34</v>
@@ -46706,191 +46750,203 @@
       <c r="L27" s="1">
         <v>0.3</v>
       </c>
-      <c r="M27" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="N27" s="11">
-        <v>0.3</v>
+      <c r="M27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="1">
+        <v>299</v>
+      </c>
+      <c r="D28" s="1">
+        <v>99</v>
+      </c>
+      <c r="E28" s="1">
+        <v>107</v>
+      </c>
+      <c r="F28" s="1">
         <v>199</v>
       </c>
-      <c r="D28" s="1">
-        <v>29</v>
-      </c>
-      <c r="E28" s="1">
-        <v>161</v>
-      </c>
-      <c r="F28" s="1">
-        <v>499</v>
-      </c>
       <c r="G28" s="1">
-        <v>768</v>
+        <v>299</v>
       </c>
       <c r="H28" s="1">
-        <v>499</v>
+        <v>299</v>
       </c>
       <c r="I28" s="1">
-        <v>9</v>
+        <v>1497</v>
       </c>
       <c r="J28" s="1">
-        <v>1536</v>
+        <v>1497</v>
       </c>
       <c r="K28" s="1">
-        <v>49</v>
+        <v>1497</v>
       </c>
       <c r="L28" s="1">
         <v>199</v>
       </c>
       <c r="M28" s="1">
-        <v>199</v>
+        <v>299</v>
       </c>
       <c r="N28" s="11">
-        <v>199</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="14">
-        <v>0.98399999999999999</v>
+      <c r="C29" s="27">
+        <v>0.96850000000000003</v>
       </c>
       <c r="D29" s="7">
-        <v>0.94179999999999997</v>
-      </c>
-      <c r="E29" s="14">
-        <v>0.96640000000000004</v>
-      </c>
-      <c r="F29" s="14">
-        <v>0.98250000000000004</v>
-      </c>
-      <c r="G29" s="14">
-        <v>0.98619999999999997</v>
-      </c>
-      <c r="H29" s="14">
-        <v>0.99329999999999996</v>
+        <v>0.97260000000000002</v>
+      </c>
+      <c r="E29" s="27">
+        <v>0.92810000000000004</v>
+      </c>
+      <c r="F29" s="27">
+        <v>0.89180000000000004</v>
+      </c>
+      <c r="G29" s="27">
+        <v>0.97009999999999996</v>
+      </c>
+      <c r="H29" s="27">
+        <v>0.94379999999999997</v>
       </c>
       <c r="I29" s="7">
-        <v>0.87090000000000001</v>
+        <v>0.98419999999999996</v>
       </c>
       <c r="J29" s="7">
-        <v>0.95779999999999998</v>
+        <v>0.97470000000000001</v>
       </c>
       <c r="K29" s="7">
-        <v>0.89590000000000003</v>
-      </c>
-      <c r="L29" s="14">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="M29" s="14">
-        <v>0.98660000000000003</v>
-      </c>
-      <c r="N29" s="17">
-        <v>0.99029999999999996</v>
+        <v>0.98080000000000001</v>
+      </c>
+      <c r="L29" s="27">
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="M29" s="27">
+        <v>0.9788</v>
+      </c>
+      <c r="N29" s="47">
+        <v>0.96230000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="27">
         <f>C29-C3</f>
-        <v>9.000000000000008E-3</v>
+        <v>2.8000000000000247E-3</v>
       </c>
       <c r="D30" s="27">
-        <f t="shared" ref="D30:N30" si="4">D29-D3</f>
-        <v>2.7200000000000002E-2</v>
+        <f>D29-D3</f>
+        <v>2.1900000000000031E-2</v>
       </c>
       <c r="E30" s="27">
-        <f t="shared" si="4"/>
-        <v>2.4199999999999999E-2</v>
+        <f>E29-E3</f>
+        <v>2.8800000000000048E-2</v>
       </c>
       <c r="F30" s="27">
-        <f t="shared" si="4"/>
-        <v>-1.4999999999999458E-3</v>
+        <f>F29-F3</f>
+        <v>-3.3999999999999586E-3</v>
       </c>
       <c r="G30" s="27">
-        <f t="shared" si="4"/>
-        <v>0.11309999999999998</v>
+        <f>G29-G3</f>
+        <v>6.8699999999999983E-2</v>
       </c>
       <c r="H30" s="27">
-        <f t="shared" si="4"/>
-        <v>7.0199999999999929E-2</v>
+        <f>H29-H3</f>
+        <v>-8.2999999999999741E-3</v>
       </c>
       <c r="I30" s="27">
-        <f t="shared" si="4"/>
-        <v>3.510000000000002E-2</v>
+        <f>I29-I3</f>
+        <v>1.8499999999999961E-2</v>
       </c>
       <c r="J30" s="27">
-        <f t="shared" si="4"/>
-        <v>4.5899999999999941E-2</v>
+        <f>J29-J3</f>
+        <v>0</v>
       </c>
       <c r="K30" s="27">
-        <f t="shared" si="4"/>
-        <v>3.0000000000000027E-3</v>
+        <f>K29-K3</f>
+        <v>-8.1999999999999851E-3</v>
       </c>
       <c r="L30" s="27">
-        <f t="shared" si="4"/>
-        <v>2.7000000000000357E-3</v>
+        <f>L29-L3</f>
+        <v>-7.6000000000000512E-3</v>
       </c>
       <c r="M30" s="27">
-        <f t="shared" si="4"/>
-        <v>-3.6999999999999256E-3</v>
-      </c>
-      <c r="N30" s="27">
-        <f t="shared" si="4"/>
-        <v>3.0200000000000005E-2</v>
+        <f>M29-M3</f>
+        <v>-1.0199999999999987E-2</v>
+      </c>
+      <c r="N30" s="47">
+        <f>N29-N3</f>
+        <v>7.0000000000003393E-4</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="52"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="15">
-        <v>0.98009999999999997</v>
-      </c>
-      <c r="D31" s="5">
-        <v>0.99709999999999999</v>
-      </c>
-      <c r="E31" s="15">
-        <v>0.97</v>
-      </c>
-      <c r="F31" s="15">
-        <v>0.95</v>
-      </c>
-      <c r="G31" s="15">
-        <v>0.92310000000000003</v>
-      </c>
-      <c r="H31" s="15">
-        <v>0.95</v>
-      </c>
-      <c r="I31" s="5">
-        <v>0.99909999999999999</v>
-      </c>
-      <c r="J31" s="5">
-        <v>0.84619999999999995</v>
-      </c>
-      <c r="K31" s="5">
-        <v>0.99509999999999998</v>
-      </c>
-      <c r="L31" s="15">
-        <v>0.98</v>
-      </c>
-      <c r="M31" s="15">
-        <v>0.98009999999999997</v>
-      </c>
-      <c r="N31" s="18">
-        <v>0.98009999999999997</v>
+      <c r="C31" s="29">
+        <f>1-C28/C2</f>
+        <v>0.97005208333333337</v>
+      </c>
+      <c r="D31" s="29">
+        <f>1-D28/D2</f>
+        <v>0.99008413461538458</v>
+      </c>
+      <c r="E31" s="29">
+        <f>1-E28/E2</f>
+        <v>0.98009672619047616</v>
+      </c>
+      <c r="F31" s="29">
+        <f>1-F28/F2</f>
+        <v>0.98006810897435903</v>
+      </c>
+      <c r="G31" s="29">
+        <f>1-G28/G2</f>
+        <v>0.97005208333333337</v>
+      </c>
+      <c r="H31" s="29">
+        <f>1-H28/H2</f>
+        <v>0.97005208333333337</v>
+      </c>
+      <c r="I31" s="29">
+        <f>1-I28/I2</f>
+        <v>0.85006009615384615</v>
+      </c>
+      <c r="J31" s="29">
+        <f>1-J28/J2</f>
+        <v>0.85006009615384615</v>
+      </c>
+      <c r="K31" s="29">
+        <f>1-K28/K2</f>
+        <v>0.85006009615384615</v>
+      </c>
+      <c r="L31" s="29">
+        <f>1-L28/L2</f>
+        <v>0.98006810897435903</v>
+      </c>
+      <c r="M31" s="29">
+        <f>1-M28/M2</f>
+        <v>0.97005208333333337</v>
+      </c>
+      <c r="N31" s="39">
+        <f>1-N28/N2</f>
+        <v>0.85006009615384615</v>
       </c>
     </row>
   </sheetData>
@@ -46969,7 +47025,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -47007,7 +47063,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="52"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -47043,7 +47099,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="51" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -47081,7 +47137,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="25" t="s">
         <v>5</v>
       </c>
@@ -47117,7 +47173,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="25" t="s">
         <v>41</v>
       </c>
@@ -47163,7 +47219,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -47209,7 +47265,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="51" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -47247,7 +47303,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="25" t="s">
         <v>4</v>
       </c>
@@ -47283,7 +47339,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="25" t="s">
         <v>5</v>
       </c>
@@ -47319,7 +47375,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="25" t="s">
         <v>41</v>
       </c>
@@ -47365,7 +47421,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -47411,7 +47467,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -47449,7 +47505,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="25" t="s">
         <v>12</v>
       </c>
@@ -47485,7 +47541,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="25" t="s">
         <v>4</v>
       </c>
@@ -47527,7 +47583,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="25" t="s">
         <v>5</v>
       </c>
@@ -47563,7 +47619,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="25" t="s">
         <v>41</v>
       </c>
@@ -47609,7 +47665,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
@@ -47655,7 +47711,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="51" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -47693,7 +47749,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="25" t="s">
         <v>13</v>
       </c>
@@ -47729,7 +47785,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="25" t="s">
         <v>9</v>
       </c>
@@ -47765,7 +47821,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="25" t="s">
         <v>4</v>
       </c>
@@ -47801,7 +47857,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="25" t="s">
         <v>5</v>
       </c>
@@ -47837,7 +47893,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="25" t="s">
         <v>41</v>
       </c>
@@ -47883,7 +47939,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="52"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
@@ -47962,23 +48018,23 @@
         <v>16</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E1" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="28" t="s">
         <v>52</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -48004,7 +48060,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="52"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -48028,7 +48084,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="51" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -48054,9 +48110,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" s="43">
         <v>0.71499999999999997</v>
@@ -48078,7 +48134,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="28" t="s">
         <v>41</v>
       </c>
@@ -48108,7 +48164,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -48138,7 +48194,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="51" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -48164,7 +48220,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="28" t="s">
         <v>4</v>
       </c>
@@ -48188,9 +48244,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="20">
         <v>0.72699999999999998</v>
@@ -48212,7 +48268,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="28" t="s">
         <v>41</v>
       </c>
@@ -48242,7 +48298,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -48272,7 +48328,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -48291,14 +48347,14 @@
         <v>38</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="28" t="s">
         <v>12</v>
       </c>
@@ -48322,7 +48378,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="28" t="s">
         <v>4</v>
       </c>
@@ -48352,9 +48408,9 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16" s="35">
         <v>0.72399999999999998</v>
@@ -48376,7 +48432,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="28" t="s">
         <v>41</v>
       </c>
@@ -48406,7 +48462,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
@@ -48436,7 +48492,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="51" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -48446,7 +48502,7 @@
         <v>36</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" s="40" t="s">
         <v>35</v>
@@ -48455,14 +48511,14 @@
         <v>38</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H19" s="41" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="28" t="s">
         <v>13</v>
       </c>
@@ -48486,7 +48542,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="28" t="s">
         <v>9</v>
       </c>
@@ -48510,7 +48566,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="28" t="s">
         <v>4</v>
       </c>
@@ -48534,9 +48590,9 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" s="37">
         <v>0.71499999999999997</v>
@@ -48558,7 +48614,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="28" t="s">
         <v>41</v>
       </c>
@@ -48588,7 +48644,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="52"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
@@ -48651,23 +48707,23 @@
         <v>16</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E1" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="45" t="s">
         <v>52</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -48693,7 +48749,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="52"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -48717,7 +48773,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="51" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -48743,7 +48799,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="45" t="s">
         <v>5</v>
       </c>
@@ -48767,7 +48823,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="45" t="s">
         <v>41</v>
       </c>
@@ -48797,7 +48853,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -48827,7 +48883,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="51" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -48853,7 +48909,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="45" t="s">
         <v>4</v>
       </c>
@@ -48877,7 +48933,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="45" t="s">
         <v>5</v>
       </c>
@@ -48901,7 +48957,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="45" t="s">
         <v>41</v>
       </c>
@@ -48931,7 +48987,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -48961,7 +49017,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -48987,7 +49043,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="45" t="s">
         <v>12</v>
       </c>
@@ -49011,7 +49067,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="45" t="s">
         <v>4</v>
       </c>
@@ -49041,7 +49097,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="45" t="s">
         <v>5</v>
       </c>
@@ -49065,7 +49121,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="45" t="s">
         <v>41</v>
       </c>
@@ -49095,7 +49151,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
@@ -49125,7 +49181,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="51" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -49151,7 +49207,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="45" t="s">
         <v>13</v>
       </c>
@@ -49175,7 +49231,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="45" t="s">
         <v>9</v>
       </c>
@@ -49199,7 +49255,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="45" t="s">
         <v>4</v>
       </c>
@@ -49223,7 +49279,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="45" t="s">
         <v>5</v>
       </c>
@@ -49247,7 +49303,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="45" t="s">
         <v>41</v>
       </c>
@@ -49277,7 +49333,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="52"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
@@ -49322,7 +49378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F291A794-F81B-A94A-B246-9FC1326ED183}">
   <dimension ref="A1:N111"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
+    <sheetView topLeftCell="A89" workbookViewId="0">
       <selection activeCell="L99" sqref="L99:L111"/>
     </sheetView>
   </sheetViews>
@@ -49372,7 +49428,7 @@
       <c r="C2" s="20">
         <v>0.94899999999999995</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="55" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1">
@@ -49384,7 +49440,7 @@
       <c r="H2" s="20">
         <v>0.89500000000000002</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="55" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="1">
@@ -49396,7 +49452,7 @@
       <c r="M2" s="20">
         <v>0.91100000000000003</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="N2" s="55" t="s">
         <v>19</v>
       </c>
     </row>
@@ -49410,7 +49466,7 @@
       <c r="C3" s="20">
         <v>0.84</v>
       </c>
-      <c r="D3" s="54"/>
+      <c r="D3" s="55"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -49420,7 +49476,7 @@
       <c r="H3" s="20">
         <v>0.93100000000000005</v>
       </c>
-      <c r="I3" s="54"/>
+      <c r="I3" s="55"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
@@ -49430,7 +49486,7 @@
       <c r="M3" s="20">
         <v>0.90900000000000003</v>
       </c>
-      <c r="N3" s="54"/>
+      <c r="N3" s="55"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -49442,7 +49498,7 @@
       <c r="C4" s="20">
         <v>0.876</v>
       </c>
-      <c r="D4" s="54"/>
+      <c r="D4" s="55"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -49452,7 +49508,7 @@
       <c r="H4" s="20">
         <v>0.873</v>
       </c>
-      <c r="I4" s="54"/>
+      <c r="I4" s="55"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
@@ -49462,7 +49518,7 @@
       <c r="M4" s="20">
         <v>0.90100000000000002</v>
       </c>
-      <c r="N4" s="54"/>
+      <c r="N4" s="55"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -49474,7 +49530,7 @@
       <c r="C5" s="20">
         <v>0.93600000000000005</v>
       </c>
-      <c r="D5" s="54"/>
+      <c r="D5" s="55"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -49484,7 +49540,7 @@
       <c r="H5" s="20">
         <v>0.83799999999999997</v>
       </c>
-      <c r="I5" s="54"/>
+      <c r="I5" s="55"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
@@ -49494,7 +49550,7 @@
       <c r="M5" s="20">
         <v>0.88400000000000001</v>
       </c>
-      <c r="N5" s="54"/>
+      <c r="N5" s="55"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -49506,7 +49562,7 @@
       <c r="C6" s="20">
         <v>0.97</v>
       </c>
-      <c r="D6" s="54"/>
+      <c r="D6" s="55"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -49516,7 +49572,7 @@
       <c r="H6" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="I6" s="54"/>
+      <c r="I6" s="55"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
@@ -49526,7 +49582,7 @@
       <c r="M6" s="20">
         <v>0.93899999999999995</v>
       </c>
-      <c r="N6" s="54"/>
+      <c r="N6" s="55"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -49538,7 +49594,7 @@
       <c r="C7" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="D7" s="54"/>
+      <c r="D7" s="55"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -49548,7 +49604,7 @@
       <c r="H7" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="I7" s="54"/>
+      <c r="I7" s="55"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
@@ -49558,7 +49614,7 @@
       <c r="M7" s="20">
         <v>0.91700000000000004</v>
       </c>
-      <c r="N7" s="54"/>
+      <c r="N7" s="55"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -49570,7 +49626,7 @@
       <c r="C8" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="D8" s="54"/>
+      <c r="D8" s="55"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -49580,7 +49636,7 @@
       <c r="H8" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I8" s="54"/>
+      <c r="I8" s="55"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
@@ -49590,7 +49646,7 @@
       <c r="M8" s="20">
         <v>0.92300000000000004</v>
       </c>
-      <c r="N8" s="54"/>
+      <c r="N8" s="55"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -49602,7 +49658,7 @@
       <c r="C9" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D9" s="54"/>
+      <c r="D9" s="55"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -49612,7 +49668,7 @@
       <c r="H9" s="20">
         <v>0.96499999999999997</v>
       </c>
-      <c r="I9" s="54"/>
+      <c r="I9" s="55"/>
       <c r="K9" s="1"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
@@ -49628,7 +49684,7 @@
       <c r="C10" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D10" s="54"/>
+      <c r="D10" s="55"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -49638,7 +49694,7 @@
       <c r="H10" s="20">
         <v>0.94899999999999995</v>
       </c>
-      <c r="I10" s="54"/>
+      <c r="I10" s="55"/>
       <c r="K10" s="1"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
@@ -49654,7 +49710,7 @@
       <c r="C11" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D11" s="54"/>
+      <c r="D11" s="55"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -49664,7 +49720,7 @@
       <c r="H11" s="20">
         <v>0.93</v>
       </c>
-      <c r="I11" s="54"/>
+      <c r="I11" s="55"/>
       <c r="K11" s="1"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
@@ -49680,7 +49736,7 @@
       <c r="C12" s="20">
         <v>0.98099999999999998</v>
       </c>
-      <c r="D12" s="54"/>
+      <c r="D12" s="55"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -49690,7 +49746,7 @@
       <c r="H12" s="20">
         <v>0.91500000000000004</v>
       </c>
-      <c r="I12" s="54"/>
+      <c r="I12" s="55"/>
       <c r="K12" s="1"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
@@ -49706,7 +49762,7 @@
       <c r="C13" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="D13" s="54"/>
+      <c r="D13" s="55"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -49716,7 +49772,7 @@
       <c r="H13" s="20">
         <v>0.91500000000000004</v>
       </c>
-      <c r="I13" s="54"/>
+      <c r="I13" s="55"/>
       <c r="K13" s="1"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
@@ -49732,7 +49788,7 @@
       <c r="C14" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="D14" s="54"/>
+      <c r="D14" s="55"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -49742,7 +49798,7 @@
       <c r="H14" s="20">
         <v>0.91900000000000004</v>
       </c>
-      <c r="I14" s="54"/>
+      <c r="I14" s="55"/>
       <c r="K14" s="1"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
@@ -49787,7 +49843,7 @@
       <c r="C34" s="20">
         <v>0.98199999999999998</v>
       </c>
-      <c r="D34" s="54" t="s">
+      <c r="D34" s="55" t="s">
         <v>20</v>
       </c>
       <c r="F34" s="1">
@@ -49799,7 +49855,7 @@
       <c r="H34" s="20">
         <v>0.98899999999999999</v>
       </c>
-      <c r="I34" s="54" t="s">
+      <c r="I34" s="55" t="s">
         <v>21</v>
       </c>
       <c r="K34" s="1">
@@ -49811,7 +49867,7 @@
       <c r="M34" s="20">
         <v>0.99399999999999999</v>
       </c>
-      <c r="N34" s="54" t="s">
+      <c r="N34" s="55" t="s">
         <v>22</v>
       </c>
     </row>
@@ -49825,7 +49881,7 @@
       <c r="C35" s="20">
         <v>0.91800000000000004</v>
       </c>
-      <c r="D35" s="54"/>
+      <c r="D35" s="55"/>
       <c r="F35" s="1">
         <v>1</v>
       </c>
@@ -49835,7 +49891,7 @@
       <c r="H35" s="20">
         <v>0.96399999999999997</v>
       </c>
-      <c r="I35" s="54"/>
+      <c r="I35" s="55"/>
       <c r="K35" s="1">
         <v>1</v>
       </c>
@@ -49845,7 +49901,7 @@
       <c r="M35" s="20">
         <v>0.99099999999999999</v>
       </c>
-      <c r="N35" s="54"/>
+      <c r="N35" s="55"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
@@ -49857,7 +49913,7 @@
       <c r="C36" s="20">
         <v>0.91900000000000004</v>
       </c>
-      <c r="D36" s="54"/>
+      <c r="D36" s="55"/>
       <c r="F36" s="1">
         <v>2</v>
       </c>
@@ -49867,7 +49923,7 @@
       <c r="H36" s="20">
         <v>0.97</v>
       </c>
-      <c r="I36" s="54"/>
+      <c r="I36" s="55"/>
       <c r="K36" s="1">
         <v>2</v>
       </c>
@@ -49877,7 +49933,7 @@
       <c r="M36" s="20">
         <v>0.98299999999999998</v>
       </c>
-      <c r="N36" s="54"/>
+      <c r="N36" s="55"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
@@ -49889,7 +49945,7 @@
       <c r="C37" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="D37" s="54"/>
+      <c r="D37" s="55"/>
       <c r="F37" s="1">
         <v>3</v>
       </c>
@@ -49899,7 +49955,7 @@
       <c r="H37" s="20">
         <v>0.96599999999999997</v>
       </c>
-      <c r="I37" s="54"/>
+      <c r="I37" s="55"/>
       <c r="K37" s="1">
         <v>3</v>
       </c>
@@ -49909,7 +49965,7 @@
       <c r="M37" s="20">
         <v>0.98</v>
       </c>
-      <c r="N37" s="54"/>
+      <c r="N37" s="55"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
@@ -49921,7 +49977,7 @@
       <c r="C38" s="20">
         <v>0.97699999999999998</v>
       </c>
-      <c r="D38" s="54"/>
+      <c r="D38" s="55"/>
       <c r="F38" s="1">
         <v>4</v>
       </c>
@@ -49931,7 +49987,7 @@
       <c r="H38" s="20">
         <v>0.96799999999999997</v>
       </c>
-      <c r="I38" s="54"/>
+      <c r="I38" s="55"/>
       <c r="K38" s="1">
         <v>4</v>
       </c>
@@ -49941,7 +49997,7 @@
       <c r="M38" s="20">
         <v>0.97099999999999997</v>
       </c>
-      <c r="N38" s="54"/>
+      <c r="N38" s="55"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
@@ -49953,7 +50009,7 @@
       <c r="C39" s="20">
         <v>0.98199999999999998</v>
       </c>
-      <c r="D39" s="54"/>
+      <c r="D39" s="55"/>
       <c r="F39" s="1">
         <v>5</v>
       </c>
@@ -49963,7 +50019,7 @@
       <c r="H39" s="20">
         <v>0.96699999999999997</v>
       </c>
-      <c r="I39" s="54"/>
+      <c r="I39" s="55"/>
       <c r="K39" s="1">
         <v>5</v>
       </c>
@@ -49973,7 +50029,7 @@
       <c r="M39" s="20">
         <v>0.873</v>
       </c>
-      <c r="N39" s="54"/>
+      <c r="N39" s="55"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
@@ -49985,7 +50041,7 @@
       <c r="C40" s="20">
         <v>0.94399999999999995</v>
       </c>
-      <c r="D40" s="54"/>
+      <c r="D40" s="55"/>
       <c r="F40" s="1">
         <v>6</v>
       </c>
@@ -49995,7 +50051,7 @@
       <c r="H40" s="20">
         <v>0.96399999999999997</v>
       </c>
-      <c r="I40" s="54"/>
+      <c r="I40" s="55"/>
       <c r="K40" s="1">
         <v>6</v>
       </c>
@@ -50005,7 +50061,7 @@
       <c r="M40" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="N40" s="54"/>
+      <c r="N40" s="55"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
@@ -50017,7 +50073,7 @@
       <c r="C41" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="D41" s="54"/>
+      <c r="D41" s="55"/>
       <c r="F41" s="1">
         <v>7</v>
       </c>
@@ -50027,7 +50083,7 @@
       <c r="H41" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I41" s="54"/>
+      <c r="I41" s="55"/>
       <c r="K41" s="1">
         <v>7</v>
       </c>
@@ -50037,7 +50093,7 @@
       <c r="M41" s="20">
         <v>0.93</v>
       </c>
-      <c r="N41" s="54"/>
+      <c r="N41" s="55"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
@@ -50049,7 +50105,7 @@
       <c r="C42" s="20">
         <v>0.94599999999999995</v>
       </c>
-      <c r="D42" s="54"/>
+      <c r="D42" s="55"/>
       <c r="F42" s="1">
         <v>8</v>
       </c>
@@ -50059,7 +50115,7 @@
       <c r="H42" s="20">
         <v>0.82099999999999995</v>
       </c>
-      <c r="I42" s="54"/>
+      <c r="I42" s="55"/>
       <c r="K42" s="1">
         <v>8</v>
       </c>
@@ -50069,7 +50125,7 @@
       <c r="M42" s="20">
         <v>0.98699999999999999</v>
       </c>
-      <c r="N42" s="54"/>
+      <c r="N42" s="55"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
@@ -50081,7 +50137,7 @@
       <c r="C43" s="20">
         <v>0.98099999999999998</v>
       </c>
-      <c r="D43" s="54"/>
+      <c r="D43" s="55"/>
       <c r="F43" s="1">
         <v>9</v>
       </c>
@@ -50091,7 +50147,7 @@
       <c r="H43" s="20">
         <v>0.82799999999999996</v>
       </c>
-      <c r="I43" s="54"/>
+      <c r="I43" s="55"/>
       <c r="K43" s="1">
         <v>9</v>
       </c>
@@ -50101,7 +50157,7 @@
       <c r="M43" s="20">
         <v>0.93500000000000005</v>
       </c>
-      <c r="N43" s="54"/>
+      <c r="N43" s="55"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
@@ -50113,7 +50169,7 @@
       <c r="C44" s="20">
         <v>0.98399999999999999</v>
       </c>
-      <c r="D44" s="54"/>
+      <c r="D44" s="55"/>
       <c r="F44" s="1">
         <v>10</v>
       </c>
@@ -50123,7 +50179,7 @@
       <c r="H44" s="20">
         <v>0.84099999999999997</v>
       </c>
-      <c r="I44" s="54"/>
+      <c r="I44" s="55"/>
       <c r="K44" s="1">
         <v>10</v>
       </c>
@@ -50133,7 +50189,7 @@
       <c r="M44" s="20">
         <v>0.92500000000000004</v>
       </c>
-      <c r="N44" s="54"/>
+      <c r="N44" s="55"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
@@ -50145,7 +50201,7 @@
       <c r="C45" s="20">
         <v>0.95299999999999996</v>
       </c>
-      <c r="D45" s="54"/>
+      <c r="D45" s="55"/>
       <c r="F45" s="1">
         <v>11</v>
       </c>
@@ -50155,7 +50211,7 @@
       <c r="H45" s="20">
         <v>0.98</v>
       </c>
-      <c r="I45" s="54"/>
+      <c r="I45" s="55"/>
       <c r="K45" s="1">
         <v>11</v>
       </c>
@@ -50165,7 +50221,7 @@
       <c r="M45" s="20">
         <v>0.92400000000000004</v>
       </c>
-      <c r="N45" s="54"/>
+      <c r="N45" s="55"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
@@ -50177,7 +50233,7 @@
       <c r="C46" s="20">
         <v>0.92100000000000004</v>
       </c>
-      <c r="D46" s="54"/>
+      <c r="D46" s="55"/>
       <c r="F46" s="1">
         <v>12</v>
       </c>
@@ -50187,7 +50243,7 @@
       <c r="H46" s="20">
         <v>0.84</v>
       </c>
-      <c r="I46" s="54"/>
+      <c r="I46" s="55"/>
       <c r="K46" s="1">
         <v>12</v>
       </c>
@@ -50197,7 +50253,7 @@
       <c r="M46" s="20">
         <v>0.93300000000000005</v>
       </c>
-      <c r="N46" s="54"/>
+      <c r="N46" s="55"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -50238,7 +50294,7 @@
       <c r="C67" s="20">
         <v>0.77700000000000002</v>
       </c>
-      <c r="D67" s="54" t="s">
+      <c r="D67" s="55" t="s">
         <v>23</v>
       </c>
       <c r="F67" s="1">
@@ -50250,7 +50306,7 @@
       <c r="H67" s="20">
         <v>0.75900000000000001</v>
       </c>
-      <c r="I67" s="54" t="s">
+      <c r="I67" s="55" t="s">
         <v>24</v>
       </c>
       <c r="K67" s="1">
@@ -50262,7 +50318,7 @@
       <c r="M67" s="20">
         <v>0.89400000000000002</v>
       </c>
-      <c r="N67" s="54" t="s">
+      <c r="N67" s="55" t="s">
         <v>25</v>
       </c>
     </row>
@@ -50276,7 +50332,7 @@
       <c r="C68" s="20">
         <v>0.85099999999999998</v>
       </c>
-      <c r="D68" s="54"/>
+      <c r="D68" s="55"/>
       <c r="F68" s="1">
         <v>1</v>
       </c>
@@ -50286,7 +50342,7 @@
       <c r="H68" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I68" s="54"/>
+      <c r="I68" s="55"/>
       <c r="K68" s="1">
         <v>1</v>
       </c>
@@ -50296,7 +50352,7 @@
       <c r="M68" s="20">
         <v>0.94299999999999995</v>
       </c>
-      <c r="N68" s="54"/>
+      <c r="N68" s="55"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
@@ -50308,7 +50364,7 @@
       <c r="C69" s="20">
         <v>0.93300000000000005</v>
       </c>
-      <c r="D69" s="54"/>
+      <c r="D69" s="55"/>
       <c r="F69" s="1">
         <v>2</v>
       </c>
@@ -50318,7 +50374,7 @@
       <c r="H69" s="20">
         <v>0.81899999999999995</v>
       </c>
-      <c r="I69" s="54"/>
+      <c r="I69" s="55"/>
       <c r="K69" s="1">
         <v>2</v>
       </c>
@@ -50328,7 +50384,7 @@
       <c r="M69" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="N69" s="54"/>
+      <c r="N69" s="55"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
@@ -50340,7 +50396,7 @@
       <c r="C70" s="20">
         <v>0.92700000000000005</v>
       </c>
-      <c r="D70" s="54"/>
+      <c r="D70" s="55"/>
       <c r="F70" s="1">
         <v>3</v>
       </c>
@@ -50350,7 +50406,7 @@
       <c r="H70" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I70" s="54"/>
+      <c r="I70" s="55"/>
       <c r="K70" s="1">
         <v>3</v>
       </c>
@@ -50360,7 +50416,7 @@
       <c r="M70" s="20">
         <v>0.97499999999999998</v>
       </c>
-      <c r="N70" s="54"/>
+      <c r="N70" s="55"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
@@ -50372,7 +50428,7 @@
       <c r="C71" s="20">
         <v>0.90600000000000003</v>
       </c>
-      <c r="D71" s="54"/>
+      <c r="D71" s="55"/>
       <c r="F71" s="1">
         <v>4</v>
       </c>
@@ -50382,7 +50438,7 @@
       <c r="H71" s="20">
         <v>0.96899999999999997</v>
       </c>
-      <c r="I71" s="54"/>
+      <c r="I71" s="55"/>
       <c r="K71" s="1">
         <v>4</v>
       </c>
@@ -50392,7 +50448,7 @@
       <c r="M71" s="20">
         <v>0.85199999999999998</v>
       </c>
-      <c r="N71" s="54"/>
+      <c r="N71" s="55"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
@@ -50404,7 +50460,7 @@
       <c r="C72" s="20">
         <v>0.92</v>
       </c>
-      <c r="D72" s="54"/>
+      <c r="D72" s="55"/>
       <c r="F72" s="1">
         <v>5</v>
       </c>
@@ -50414,7 +50470,7 @@
       <c r="H72" s="20">
         <v>0.96499999999999997</v>
       </c>
-      <c r="I72" s="54"/>
+      <c r="I72" s="55"/>
       <c r="K72" s="1">
         <v>5</v>
       </c>
@@ -50424,7 +50480,7 @@
       <c r="M72" s="20">
         <v>0.86899999999999999</v>
       </c>
-      <c r="N72" s="54"/>
+      <c r="N72" s="55"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
@@ -50436,7 +50492,7 @@
       <c r="C73" s="20">
         <v>0.96199999999999997</v>
       </c>
-      <c r="D73" s="54"/>
+      <c r="D73" s="55"/>
       <c r="F73" s="1">
         <v>6</v>
       </c>
@@ -50446,7 +50502,7 @@
       <c r="H73" s="20">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I73" s="54"/>
+      <c r="I73" s="55"/>
       <c r="K73" s="1">
         <v>6</v>
       </c>
@@ -50456,7 +50512,7 @@
       <c r="M73" s="20">
         <v>0.876</v>
       </c>
-      <c r="N73" s="54"/>
+      <c r="N73" s="55"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
@@ -50468,7 +50524,7 @@
       <c r="C74" s="20">
         <v>0.82199999999999995</v>
       </c>
-      <c r="D74" s="54"/>
+      <c r="D74" s="55"/>
       <c r="F74" s="1">
         <v>7</v>
       </c>
@@ -50478,7 +50534,7 @@
       <c r="H74" s="20">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I74" s="54"/>
+      <c r="I74" s="55"/>
       <c r="K74" s="1">
         <v>7</v>
       </c>
@@ -50488,7 +50544,7 @@
       <c r="M74" s="20">
         <v>0.89300000000000002</v>
       </c>
-      <c r="N74" s="54"/>
+      <c r="N74" s="55"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
@@ -50500,7 +50556,7 @@
       <c r="C75" s="20">
         <v>0.82399999999999995</v>
       </c>
-      <c r="D75" s="54"/>
+      <c r="D75" s="55"/>
       <c r="F75" s="1">
         <v>8</v>
       </c>
@@ -50510,7 +50566,7 @@
       <c r="H75" s="20">
         <v>0.91800000000000004</v>
       </c>
-      <c r="I75" s="54"/>
+      <c r="I75" s="55"/>
       <c r="K75" s="1">
         <v>8</v>
       </c>
@@ -50520,7 +50576,7 @@
       <c r="M75" s="20">
         <v>0.98799999999999999</v>
       </c>
-      <c r="N75" s="54"/>
+      <c r="N75" s="55"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
@@ -50532,7 +50588,7 @@
       <c r="C76" s="20">
         <v>0.92500000000000004</v>
       </c>
-      <c r="D76" s="54"/>
+      <c r="D76" s="55"/>
       <c r="F76" s="1">
         <v>9</v>
       </c>
@@ -50542,7 +50598,7 @@
       <c r="H76" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="I76" s="54"/>
+      <c r="I76" s="55"/>
       <c r="K76" s="1">
         <v>9</v>
       </c>
@@ -50552,7 +50608,7 @@
       <c r="M76" s="20">
         <v>0.89500000000000002</v>
       </c>
-      <c r="N76" s="54"/>
+      <c r="N76" s="55"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
@@ -50564,7 +50620,7 @@
       <c r="C77" s="20">
         <v>0.83199999999999996</v>
       </c>
-      <c r="D77" s="54"/>
+      <c r="D77" s="55"/>
       <c r="F77" s="1">
         <v>10</v>
       </c>
@@ -50574,7 +50630,7 @@
       <c r="H77" s="20">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I77" s="54"/>
+      <c r="I77" s="55"/>
       <c r="K77" s="1">
         <v>10</v>
       </c>
@@ -50584,7 +50640,7 @@
       <c r="M77" s="20">
         <v>0.98199999999999998</v>
       </c>
-      <c r="N77" s="54"/>
+      <c r="N77" s="55"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
@@ -50596,7 +50652,7 @@
       <c r="C78" s="20">
         <v>0.82899999999999996</v>
       </c>
-      <c r="D78" s="54"/>
+      <c r="D78" s="55"/>
       <c r="F78" s="1">
         <v>11</v>
       </c>
@@ -50606,7 +50662,7 @@
       <c r="H78" s="20">
         <v>0.94899999999999995</v>
       </c>
-      <c r="I78" s="54"/>
+      <c r="I78" s="55"/>
       <c r="K78" s="1">
         <v>11</v>
       </c>
@@ -50616,7 +50672,7 @@
       <c r="M78" s="20">
         <v>0.98099999999999998</v>
       </c>
-      <c r="N78" s="54"/>
+      <c r="N78" s="55"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
@@ -50628,7 +50684,7 @@
       <c r="C79" s="20">
         <v>0.95399999999999996</v>
       </c>
-      <c r="D79" s="54"/>
+      <c r="D79" s="55"/>
       <c r="F79" s="1">
         <v>12</v>
       </c>
@@ -50638,7 +50694,7 @@
       <c r="H79" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="I79" s="54"/>
+      <c r="I79" s="55"/>
       <c r="K79" s="1">
         <v>12</v>
       </c>
@@ -50648,7 +50704,7 @@
       <c r="M79" s="20">
         <v>0.95899999999999996</v>
       </c>
-      <c r="N79" s="54"/>
+      <c r="N79" s="55"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
@@ -50689,7 +50745,7 @@
       <c r="C99" s="20">
         <v>0.92200000000000004</v>
       </c>
-      <c r="D99" s="54" t="s">
+      <c r="D99" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F99" s="1">
@@ -50701,7 +50757,7 @@
       <c r="H99" s="20">
         <v>0.874</v>
       </c>
-      <c r="I99" s="54" t="s">
+      <c r="I99" s="55" t="s">
         <v>27</v>
       </c>
       <c r="K99" s="1">
@@ -50713,7 +50769,7 @@
       <c r="M99" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="N99" s="54" t="s">
+      <c r="N99" s="55" t="s">
         <v>28</v>
       </c>
     </row>
@@ -50727,7 +50783,7 @@
       <c r="C100" s="20">
         <v>0.91600000000000004</v>
       </c>
-      <c r="D100" s="54"/>
+      <c r="D100" s="55"/>
       <c r="F100" s="1">
         <v>1</v>
       </c>
@@ -50737,7 +50793,7 @@
       <c r="H100" s="20">
         <v>0.89500000000000002</v>
       </c>
-      <c r="I100" s="54"/>
+      <c r="I100" s="55"/>
       <c r="K100" s="1">
         <v>1</v>
       </c>
@@ -50747,7 +50803,7 @@
       <c r="M100" s="20">
         <v>0.98499999999999999</v>
       </c>
-      <c r="N100" s="54"/>
+      <c r="N100" s="55"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
@@ -50759,7 +50815,7 @@
       <c r="C101" s="20">
         <v>0.89200000000000002</v>
       </c>
-      <c r="D101" s="54"/>
+      <c r="D101" s="55"/>
       <c r="F101" s="1">
         <v>2</v>
       </c>
@@ -50769,7 +50825,7 @@
       <c r="H101" s="20">
         <v>0.96299999999999997</v>
       </c>
-      <c r="I101" s="54"/>
+      <c r="I101" s="55"/>
       <c r="K101" s="1">
         <v>2</v>
       </c>
@@ -50779,7 +50835,7 @@
       <c r="M101" s="20">
         <v>0.96699999999999997</v>
       </c>
-      <c r="N101" s="54"/>
+      <c r="N101" s="55"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
@@ -50791,7 +50847,7 @@
       <c r="C102" s="20">
         <v>0.91</v>
       </c>
-      <c r="D102" s="54"/>
+      <c r="D102" s="55"/>
       <c r="F102" s="1">
         <v>3</v>
       </c>
@@ -50801,7 +50857,7 @@
       <c r="H102" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I102" s="54"/>
+      <c r="I102" s="55"/>
       <c r="K102" s="1">
         <v>3</v>
       </c>
@@ -50811,7 +50867,7 @@
       <c r="M102" s="20">
         <v>0.995</v>
       </c>
-      <c r="N102" s="54"/>
+      <c r="N102" s="55"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
@@ -50823,7 +50879,7 @@
       <c r="C103" s="20">
         <v>0.89800000000000002</v>
       </c>
-      <c r="D103" s="54"/>
+      <c r="D103" s="55"/>
       <c r="F103" s="1">
         <v>4</v>
       </c>
@@ -50833,7 +50889,7 @@
       <c r="H103" s="20">
         <v>0.98399999999999999</v>
       </c>
-      <c r="I103" s="54"/>
+      <c r="I103" s="55"/>
       <c r="K103" s="1">
         <v>4</v>
       </c>
@@ -50843,7 +50899,7 @@
       <c r="M103" s="20">
         <v>0.98699999999999999</v>
       </c>
-      <c r="N103" s="54"/>
+      <c r="N103" s="55"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
@@ -50855,7 +50911,7 @@
       <c r="C104" s="20">
         <v>0.88</v>
       </c>
-      <c r="D104" s="54"/>
+      <c r="D104" s="55"/>
       <c r="F104" s="1">
         <v>5</v>
       </c>
@@ -50865,7 +50921,7 @@
       <c r="H104" s="20">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I104" s="54"/>
+      <c r="I104" s="55"/>
       <c r="K104" s="1">
         <v>5</v>
       </c>
@@ -50875,7 +50931,7 @@
       <c r="M104" s="20">
         <v>0.996</v>
       </c>
-      <c r="N104" s="54"/>
+      <c r="N104" s="55"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
@@ -50887,7 +50943,7 @@
       <c r="C105" s="20">
         <v>0.90400000000000003</v>
       </c>
-      <c r="D105" s="54"/>
+      <c r="D105" s="55"/>
       <c r="F105" s="1">
         <v>6</v>
       </c>
@@ -50897,7 +50953,7 @@
       <c r="H105" s="20">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I105" s="54"/>
+      <c r="I105" s="55"/>
       <c r="K105" s="1">
         <v>6</v>
       </c>
@@ -50907,7 +50963,7 @@
       <c r="M105" s="20">
         <v>0.99299999999999999</v>
       </c>
-      <c r="N105" s="54"/>
+      <c r="N105" s="55"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
@@ -50919,7 +50975,7 @@
       <c r="C106" s="20">
         <v>0.96699999999999997</v>
       </c>
-      <c r="D106" s="54"/>
+      <c r="D106" s="55"/>
       <c r="F106" s="1">
         <v>7</v>
       </c>
@@ -50929,7 +50985,7 @@
       <c r="H106" s="20">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I106" s="54"/>
+      <c r="I106" s="55"/>
       <c r="K106" s="1">
         <v>7</v>
       </c>
@@ -50939,7 +50995,7 @@
       <c r="M106" s="20">
         <v>0.98899999999999999</v>
       </c>
-      <c r="N106" s="54"/>
+      <c r="N106" s="55"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
@@ -50951,7 +51007,7 @@
       <c r="C107" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="D107" s="54"/>
+      <c r="D107" s="55"/>
       <c r="F107" s="1">
         <v>8</v>
       </c>
@@ -50961,7 +51017,7 @@
       <c r="H107" s="20">
         <v>0.98899999999999999</v>
       </c>
-      <c r="I107" s="54"/>
+      <c r="I107" s="55"/>
       <c r="K107" s="1">
         <v>8</v>
       </c>
@@ -50971,7 +51027,7 @@
       <c r="M107" s="20">
         <v>0.96099999999999997</v>
       </c>
-      <c r="N107" s="54"/>
+      <c r="N107" s="55"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
@@ -50983,7 +51039,7 @@
       <c r="C108" s="20">
         <v>0.97799999999999998</v>
       </c>
-      <c r="D108" s="54"/>
+      <c r="D108" s="55"/>
       <c r="F108" s="1">
         <v>9</v>
       </c>
@@ -50993,7 +51049,7 @@
       <c r="H108" s="20">
         <v>0.89900000000000002</v>
       </c>
-      <c r="I108" s="54"/>
+      <c r="I108" s="55"/>
       <c r="K108" s="1">
         <v>9</v>
       </c>
@@ -51003,7 +51059,7 @@
       <c r="M108" s="20">
         <v>0.96</v>
       </c>
-      <c r="N108" s="54"/>
+      <c r="N108" s="55"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
@@ -51015,7 +51071,7 @@
       <c r="C109" s="20">
         <v>0.97699999999999998</v>
       </c>
-      <c r="D109" s="54"/>
+      <c r="D109" s="55"/>
       <c r="F109" s="1">
         <v>10</v>
       </c>
@@ -51025,7 +51081,7 @@
       <c r="H109" s="20">
         <v>0.97199999999999998</v>
       </c>
-      <c r="I109" s="54"/>
+      <c r="I109" s="55"/>
       <c r="K109" s="1">
         <v>10</v>
       </c>
@@ -51035,7 +51091,7 @@
       <c r="M109" s="20">
         <v>0.96399999999999997</v>
       </c>
-      <c r="N109" s="54"/>
+      <c r="N109" s="55"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
@@ -51047,7 +51103,7 @@
       <c r="C110" s="20">
         <v>0.97599999999999998</v>
       </c>
-      <c r="D110" s="54"/>
+      <c r="D110" s="55"/>
       <c r="F110" s="1">
         <v>11</v>
       </c>
@@ -51057,7 +51113,7 @@
       <c r="H110" s="20">
         <v>0.85599999999999998</v>
       </c>
-      <c r="I110" s="54"/>
+      <c r="I110" s="55"/>
       <c r="K110" s="1">
         <v>11</v>
       </c>
@@ -51067,7 +51123,7 @@
       <c r="M110" s="20">
         <v>0.96</v>
       </c>
-      <c r="N110" s="54"/>
+      <c r="N110" s="55"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
@@ -51079,7 +51135,7 @@
       <c r="C111" s="20">
         <v>0.97899999999999998</v>
       </c>
-      <c r="D111" s="54"/>
+      <c r="D111" s="55"/>
       <c r="F111" s="1">
         <v>12</v>
       </c>
@@ -51089,7 +51145,7 @@
       <c r="H111" s="20">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I111" s="54"/>
+      <c r="I111" s="55"/>
       <c r="K111" s="1">
         <v>12</v>
       </c>
@@ -51099,22 +51155,22 @@
       <c r="M111" s="20">
         <v>0.96599999999999997</v>
       </c>
-      <c r="N111" s="54"/>
+      <c r="N111" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D67:D79"/>
+    <mergeCell ref="I67:I79"/>
+    <mergeCell ref="N67:N79"/>
+    <mergeCell ref="D99:D111"/>
+    <mergeCell ref="I99:I111"/>
+    <mergeCell ref="N99:N111"/>
     <mergeCell ref="D2:D14"/>
     <mergeCell ref="I2:I14"/>
     <mergeCell ref="N2:N8"/>
     <mergeCell ref="D34:D46"/>
     <mergeCell ref="I34:I46"/>
     <mergeCell ref="N34:N46"/>
-    <mergeCell ref="D67:D79"/>
-    <mergeCell ref="I67:I79"/>
-    <mergeCell ref="N67:N79"/>
-    <mergeCell ref="D99:D111"/>
-    <mergeCell ref="I99:I111"/>
-    <mergeCell ref="N99:N111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -51173,7 +51229,7 @@
       <c r="C2" s="24">
         <v>0.66666700000000001</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="55" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="1">
@@ -51185,7 +51241,7 @@
       <c r="H2" s="24">
         <v>0.66666700000000001</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="55" t="s">
         <v>28</v>
       </c>
       <c r="L2" s="1">
@@ -51197,7 +51253,7 @@
       <c r="N2" s="24">
         <v>0.66666700000000001</v>
       </c>
-      <c r="O2" s="54" t="s">
+      <c r="O2" s="55" t="s">
         <v>17</v>
       </c>
     </row>
@@ -51211,7 +51267,7 @@
       <c r="C3" s="24">
         <v>0.65348499999999998</v>
       </c>
-      <c r="D3" s="54"/>
+      <c r="D3" s="55"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -51221,7 +51277,7 @@
       <c r="H3" s="24">
         <v>0.27420099999999997</v>
       </c>
-      <c r="I3" s="54"/>
+      <c r="I3" s="55"/>
       <c r="L3" s="1">
         <v>1</v>
       </c>
@@ -51231,7 +51287,7 @@
       <c r="N3" s="24">
         <v>0.580538</v>
       </c>
-      <c r="O3" s="54"/>
+      <c r="O3" s="55"/>
     </row>
     <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -51243,7 +51299,7 @@
       <c r="C4" s="24">
         <v>0.66902099999999998</v>
       </c>
-      <c r="D4" s="54"/>
+      <c r="D4" s="55"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -51253,7 +51309,7 @@
       <c r="H4" s="24">
         <v>2.7483E-2</v>
       </c>
-      <c r="I4" s="54"/>
+      <c r="I4" s="55"/>
       <c r="L4" s="1">
         <v>2</v>
       </c>
@@ -51263,7 +51319,7 @@
       <c r="N4" s="24">
         <v>0.66517199999999999</v>
       </c>
-      <c r="O4" s="54"/>
+      <c r="O4" s="55"/>
     </row>
     <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -51275,7 +51331,7 @@
       <c r="C5" s="24">
         <v>0.70086899999999996</v>
       </c>
-      <c r="D5" s="54"/>
+      <c r="D5" s="55"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -51285,7 +51341,7 @@
       <c r="H5" s="24">
         <v>0</v>
       </c>
-      <c r="I5" s="54"/>
+      <c r="I5" s="55"/>
       <c r="L5" s="1">
         <v>3</v>
       </c>
@@ -51295,7 +51351,7 @@
       <c r="N5" s="24">
         <v>0.70030700000000001</v>
       </c>
-      <c r="O5" s="54"/>
+      <c r="O5" s="55"/>
     </row>
     <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -51307,7 +51363,7 @@
       <c r="C6" s="24">
         <v>0.77109499999999997</v>
       </c>
-      <c r="D6" s="54"/>
+      <c r="D6" s="55"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -51317,7 +51373,7 @@
       <c r="H6" s="24">
         <v>0</v>
       </c>
-      <c r="I6" s="54"/>
+      <c r="I6" s="55"/>
       <c r="L6" s="1">
         <v>4</v>
       </c>
@@ -51327,7 +51383,7 @@
       <c r="N6" s="24">
         <v>0.719943</v>
       </c>
-      <c r="O6" s="54"/>
+      <c r="O6" s="55"/>
     </row>
     <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -51339,7 +51395,7 @@
       <c r="C7" s="24">
         <v>0.77710599999999996</v>
       </c>
-      <c r="D7" s="54"/>
+      <c r="D7" s="55"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -51349,7 +51405,7 @@
       <c r="H7" s="24">
         <v>0</v>
       </c>
-      <c r="I7" s="54"/>
+      <c r="I7" s="55"/>
       <c r="L7" s="1">
         <v>5</v>
       </c>
@@ -51359,7 +51415,7 @@
       <c r="N7" s="24">
         <v>0.73305900000000002</v>
       </c>
-      <c r="O7" s="54"/>
+      <c r="O7" s="55"/>
     </row>
     <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -51371,7 +51427,7 @@
       <c r="C8" s="24">
         <v>0.78310199999999996</v>
       </c>
-      <c r="D8" s="54"/>
+      <c r="D8" s="55"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -51381,7 +51437,7 @@
       <c r="H8" s="24">
         <v>0</v>
       </c>
-      <c r="I8" s="54"/>
+      <c r="I8" s="55"/>
       <c r="L8" s="1">
         <v>6</v>
       </c>
@@ -51391,7 +51447,7 @@
       <c r="N8" s="24">
         <v>0.76053599999999999</v>
       </c>
-      <c r="O8" s="54"/>
+      <c r="O8" s="55"/>
     </row>
     <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -51403,7 +51459,7 @@
       <c r="C9" s="24">
         <v>0.77618500000000001</v>
       </c>
-      <c r="D9" s="54"/>
+      <c r="D9" s="55"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -51413,7 +51469,7 @@
       <c r="H9" s="24">
         <v>0</v>
       </c>
-      <c r="I9" s="54"/>
+      <c r="I9" s="55"/>
       <c r="L9" s="1">
         <v>7</v>
       </c>
@@ -51423,7 +51479,7 @@
       <c r="N9" s="24">
         <v>0.79497499999999999</v>
       </c>
-      <c r="O9" s="54"/>
+      <c r="O9" s="55"/>
     </row>
     <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -51435,7 +51491,7 @@
       <c r="C10" s="24">
         <v>0.77377200000000002</v>
       </c>
-      <c r="D10" s="54"/>
+      <c r="D10" s="55"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -51445,7 +51501,7 @@
       <c r="H10" s="24">
         <v>0.70416000000000001</v>
       </c>
-      <c r="I10" s="54"/>
+      <c r="I10" s="55"/>
       <c r="L10" s="1">
         <v>8</v>
       </c>
@@ -51455,7 +51511,7 @@
       <c r="N10" s="24">
         <v>0.80194399999999999</v>
       </c>
-      <c r="O10" s="54"/>
+      <c r="O10" s="55"/>
     </row>
     <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -51467,7 +51523,7 @@
       <c r="C11" s="24">
         <v>0.76970400000000005</v>
       </c>
-      <c r="D11" s="54"/>
+      <c r="D11" s="55"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -51477,7 +51533,7 @@
       <c r="H11" s="24">
         <v>0.68451700000000004</v>
       </c>
-      <c r="I11" s="54"/>
+      <c r="I11" s="55"/>
       <c r="L11" s="1">
         <v>9</v>
       </c>
@@ -51487,7 +51543,7 @@
       <c r="N11" s="24">
         <v>0.79460600000000003</v>
       </c>
-      <c r="O11" s="54"/>
+      <c r="O11" s="55"/>
     </row>
     <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -51499,7 +51555,7 @@
       <c r="C12" s="24">
         <v>0.76261299999999999</v>
       </c>
-      <c r="D12" s="54"/>
+      <c r="D12" s="55"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -51509,7 +51565,7 @@
       <c r="H12" s="24">
         <v>0.46307300000000001</v>
       </c>
-      <c r="I12" s="54"/>
+      <c r="I12" s="55"/>
       <c r="L12" s="1">
         <v>10</v>
       </c>
@@ -51519,7 +51575,7 @@
       <c r="N12" s="24">
         <v>0.80569400000000002</v>
       </c>
-      <c r="O12" s="54"/>
+      <c r="O12" s="55"/>
     </row>
     <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -51531,7 +51587,7 @@
       <c r="C13" s="24">
         <v>0.80696299999999999</v>
       </c>
-      <c r="D13" s="54"/>
+      <c r="D13" s="55"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -51541,7 +51597,7 @@
       <c r="H13" s="24">
         <v>0.77209799999999995</v>
       </c>
-      <c r="I13" s="54"/>
+      <c r="I13" s="55"/>
       <c r="L13" s="1">
         <v>11</v>
       </c>
@@ -51551,7 +51607,7 @@
       <c r="N13" s="24">
         <v>0.81855800000000001</v>
       </c>
-      <c r="O13" s="54"/>
+      <c r="O13" s="55"/>
     </row>
     <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -51563,7 +51619,7 @@
       <c r="C14" s="24">
         <v>0.80464199999999997</v>
       </c>
-      <c r="D14" s="54"/>
+      <c r="D14" s="55"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -51573,7 +51629,7 @@
       <c r="H14" s="24">
         <v>0.82798700000000003</v>
       </c>
-      <c r="I14" s="54"/>
+      <c r="I14" s="55"/>
       <c r="L14" s="1">
         <v>12</v>
       </c>
@@ -51583,7 +51639,7 @@
       <c r="N14" s="24">
         <v>0.80542800000000003</v>
       </c>
-      <c r="O14" s="54"/>
+      <c r="O14" s="55"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="31" t="s">
@@ -51624,7 +51680,7 @@
       <c r="C37" s="24">
         <v>0</v>
       </c>
-      <c r="D37" s="54" t="s">
+      <c r="D37" s="55" t="s">
         <v>16</v>
       </c>
       <c r="F37" s="31">
@@ -51636,7 +51692,7 @@
       <c r="H37" s="24">
         <v>0</v>
       </c>
-      <c r="I37" s="54" t="s">
+      <c r="I37" s="55" t="s">
         <v>26</v>
       </c>
       <c r="K37" s="31">
@@ -51648,7 +51704,7 @@
       <c r="M37" s="24">
         <v>0</v>
       </c>
-      <c r="N37" s="54" t="s">
+      <c r="N37" s="55" t="s">
         <v>27</v>
       </c>
     </row>
@@ -51662,7 +51718,7 @@
       <c r="C38" s="24">
         <v>0.66893400000000003</v>
       </c>
-      <c r="D38" s="54"/>
+      <c r="D38" s="55"/>
       <c r="F38" s="31">
         <v>1</v>
       </c>
@@ -51672,7 +51728,7 @@
       <c r="H38" s="24">
         <v>0.73725099999999999</v>
       </c>
-      <c r="I38" s="54"/>
+      <c r="I38" s="55"/>
       <c r="K38" s="31">
         <v>1</v>
       </c>
@@ -51682,7 +51738,7 @@
       <c r="M38" s="24">
         <v>0.760988</v>
       </c>
-      <c r="N38" s="54"/>
+      <c r="N38" s="55"/>
     </row>
     <row r="39" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A39" s="31">
@@ -51694,7 +51750,7 @@
       <c r="C39" s="24">
         <v>0.70960599999999996</v>
       </c>
-      <c r="D39" s="54"/>
+      <c r="D39" s="55"/>
       <c r="F39" s="31">
         <v>2</v>
       </c>
@@ -51704,7 +51760,7 @@
       <c r="H39" s="24">
         <v>0.78292700000000004</v>
       </c>
-      <c r="I39" s="54"/>
+      <c r="I39" s="55"/>
       <c r="K39" s="31">
         <v>2</v>
       </c>
@@ -51714,7 +51770,7 @@
       <c r="M39" s="24">
         <v>0.68244000000000005</v>
       </c>
-      <c r="N39" s="54"/>
+      <c r="N39" s="55"/>
     </row>
     <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A40" s="31">
@@ -51726,7 +51782,7 @@
       <c r="C40" s="24">
         <v>0.71426400000000001</v>
       </c>
-      <c r="D40" s="54"/>
+      <c r="D40" s="55"/>
       <c r="F40" s="31">
         <v>3</v>
       </c>
@@ -51736,7 +51792,7 @@
       <c r="H40" s="24">
         <v>0.78676100000000004</v>
       </c>
-      <c r="I40" s="54"/>
+      <c r="I40" s="55"/>
       <c r="K40" s="31">
         <v>3</v>
       </c>
@@ -51746,7 +51802,7 @@
       <c r="M40" s="24">
         <v>0.63009599999999999</v>
       </c>
-      <c r="N40" s="54"/>
+      <c r="N40" s="55"/>
     </row>
     <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A41" s="31">
@@ -51758,7 +51814,7 @@
       <c r="C41" s="24">
         <v>0.71233500000000005</v>
       </c>
-      <c r="D41" s="54"/>
+      <c r="D41" s="55"/>
       <c r="F41" s="31">
         <v>4</v>
       </c>
@@ -51768,7 +51824,7 @@
       <c r="H41" s="24">
         <v>0.79497300000000004</v>
       </c>
-      <c r="I41" s="54"/>
+      <c r="I41" s="55"/>
       <c r="K41" s="31">
         <v>4</v>
       </c>
@@ -51778,7 +51834,7 @@
       <c r="M41" s="24">
         <v>0.602321</v>
       </c>
-      <c r="N41" s="54"/>
+      <c r="N41" s="55"/>
     </row>
     <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A42" s="31">
@@ -51790,7 +51846,7 @@
       <c r="C42" s="24">
         <v>0.69982599999999995</v>
       </c>
-      <c r="D42" s="54"/>
+      <c r="D42" s="55"/>
       <c r="F42" s="31">
         <v>5</v>
       </c>
@@ -51800,7 +51856,7 @@
       <c r="H42" s="24">
         <v>0.80255600000000005</v>
       </c>
-      <c r="I42" s="54"/>
+      <c r="I42" s="55"/>
       <c r="K42" s="31">
         <v>5</v>
       </c>
@@ -51810,7 +51866,7 @@
       <c r="M42" s="24">
         <v>0.51061299999999998</v>
       </c>
-      <c r="N42" s="54"/>
+      <c r="N42" s="55"/>
     </row>
     <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A43" s="31">
@@ -51822,7 +51878,7 @@
       <c r="C43" s="24">
         <v>0.68592900000000001</v>
       </c>
-      <c r="D43" s="54"/>
+      <c r="D43" s="55"/>
       <c r="F43" s="31">
         <v>6</v>
       </c>
@@ -51832,7 +51888,7 @@
       <c r="H43" s="24">
         <v>0.81109799999999999</v>
       </c>
-      <c r="I43" s="54"/>
+      <c r="I43" s="55"/>
       <c r="K43" s="31">
         <v>6</v>
       </c>
@@ -51842,7 +51898,7 @@
       <c r="M43" s="24">
         <v>0.83428199999999997</v>
       </c>
-      <c r="N43" s="54"/>
+      <c r="N43" s="55"/>
     </row>
     <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A44" s="31">
@@ -51854,7 +51910,7 @@
       <c r="C44" s="24">
         <v>0.703457</v>
       </c>
-      <c r="D44" s="54"/>
+      <c r="D44" s="55"/>
       <c r="F44" s="31">
         <v>7</v>
       </c>
@@ -51864,7 +51920,7 @@
       <c r="H44" s="24">
         <v>0.81226100000000001</v>
       </c>
-      <c r="I44" s="54"/>
+      <c r="I44" s="55"/>
       <c r="K44" s="31">
         <v>7</v>
       </c>
@@ -51874,7 +51930,7 @@
       <c r="M44" s="24">
         <v>0.73528800000000005</v>
       </c>
-      <c r="N44" s="54"/>
+      <c r="N44" s="55"/>
     </row>
     <row r="45" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A45" s="31">
@@ -51886,7 +51942,7 @@
       <c r="C45" s="24">
         <v>0.70218199999999997</v>
       </c>
-      <c r="D45" s="54"/>
+      <c r="D45" s="55"/>
       <c r="F45" s="31">
         <v>8</v>
       </c>
@@ -51896,7 +51952,7 @@
       <c r="H45" s="24">
         <v>0.83114600000000005</v>
       </c>
-      <c r="I45" s="54"/>
+      <c r="I45" s="55"/>
       <c r="K45" s="31">
         <v>8</v>
       </c>
@@ -51906,7 +51962,7 @@
       <c r="M45" s="24">
         <v>0.73614999999999997</v>
       </c>
-      <c r="N45" s="54"/>
+      <c r="N45" s="55"/>
     </row>
     <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A46" s="31">
@@ -51918,7 +51974,7 @@
       <c r="C46" s="24">
         <v>0.70156200000000002</v>
       </c>
-      <c r="D46" s="54"/>
+      <c r="D46" s="55"/>
       <c r="F46" s="31">
         <v>9</v>
       </c>
@@ -51928,7 +51984,7 @@
       <c r="H46" s="24">
         <v>0.83831100000000003</v>
       </c>
-      <c r="I46" s="54"/>
+      <c r="I46" s="55"/>
       <c r="K46" s="31">
         <v>9</v>
       </c>
@@ -51938,7 +51994,7 @@
       <c r="M46" s="24">
         <v>0.77739499999999995</v>
       </c>
-      <c r="N46" s="54"/>
+      <c r="N46" s="55"/>
     </row>
     <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A47" s="31">
@@ -51950,7 +52006,7 @@
       <c r="C47" s="24">
         <v>0.70720899999999998</v>
       </c>
-      <c r="D47" s="54"/>
+      <c r="D47" s="55"/>
       <c r="F47" s="31">
         <v>10</v>
       </c>
@@ -51960,7 +52016,7 @@
       <c r="H47" s="24">
         <v>0.84065400000000001</v>
       </c>
-      <c r="I47" s="54"/>
+      <c r="I47" s="55"/>
       <c r="K47" s="31">
         <v>10</v>
       </c>
@@ -51970,7 +52026,7 @@
       <c r="M47" s="24">
         <v>0.77222100000000005</v>
       </c>
-      <c r="N47" s="54"/>
+      <c r="N47" s="55"/>
     </row>
     <row r="48" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A48" s="31">
@@ -51982,7 +52038,7 @@
       <c r="C48" s="24">
         <v>0.71660900000000005</v>
       </c>
-      <c r="D48" s="54"/>
+      <c r="D48" s="55"/>
       <c r="F48" s="31">
         <v>11</v>
       </c>
@@ -51992,7 +52048,7 @@
       <c r="H48" s="24">
         <v>0.82713000000000003</v>
       </c>
-      <c r="I48" s="54"/>
+      <c r="I48" s="55"/>
       <c r="K48" s="31">
         <v>11</v>
       </c>
@@ -52002,7 +52058,7 @@
       <c r="M48" s="24">
         <v>0.73933599999999999</v>
       </c>
-      <c r="N48" s="54"/>
+      <c r="N48" s="55"/>
     </row>
     <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A49" s="31">
@@ -52014,7 +52070,7 @@
       <c r="C49" s="24">
         <v>0.722522</v>
       </c>
-      <c r="D49" s="54"/>
+      <c r="D49" s="55"/>
       <c r="F49" s="31">
         <v>12</v>
       </c>
@@ -52024,7 +52080,7 @@
       <c r="H49" s="24">
         <v>0.80716100000000002</v>
       </c>
-      <c r="I49" s="54"/>
+      <c r="I49" s="55"/>
       <c r="K49" s="31">
         <v>12</v>
       </c>
@@ -52034,7 +52090,7 @@
       <c r="M49" s="24">
         <v>0.814998</v>
       </c>
-      <c r="N49" s="54"/>
+      <c r="N49" s="55"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="31"/>
@@ -52049,24 +52105,24 @@
     </row>
     <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A68" s="48"/>
-      <c r="B68" s="55" t="s">
-        <v>47</v>
+      <c r="B68" s="50" t="s">
+        <v>45</v>
       </c>
       <c r="C68" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D68" s="30" t="s">
-        <v>54</v>
-      </c>
       <c r="G68" s="48"/>
-      <c r="H68" s="55" t="s">
-        <v>47</v>
+      <c r="H68" s="50" t="s">
+        <v>45</v>
       </c>
       <c r="I68" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="J68" s="30" t="s">
         <v>52</v>
-      </c>
-      <c r="J68" s="30" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.25">
@@ -52082,7 +52138,7 @@
       <c r="D69" s="24">
         <v>0.66666700000000001</v>
       </c>
-      <c r="E69" s="54" t="s">
+      <c r="E69" s="55" t="s">
         <v>31</v>
       </c>
       <c r="G69" s="48">
@@ -52097,7 +52153,7 @@
       <c r="J69" s="24">
         <v>0.66666700000000001</v>
       </c>
-      <c r="K69" s="54" t="s">
+      <c r="K69" s="55" t="s">
         <v>32</v>
       </c>
     </row>
@@ -52114,7 +52170,7 @@
       <c r="D70" s="24">
         <v>0.63708100000000001</v>
       </c>
-      <c r="E70" s="54"/>
+      <c r="E70" s="55"/>
       <c r="G70" s="48">
         <v>1</v>
       </c>
@@ -52127,7 +52183,7 @@
       <c r="J70" s="24">
         <v>0.27420099999999997</v>
       </c>
-      <c r="K70" s="54"/>
+      <c r="K70" s="55"/>
     </row>
     <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A71" s="48">
@@ -52142,7 +52198,7 @@
       <c r="D71" s="24">
         <v>0.62224000000000002</v>
       </c>
-      <c r="E71" s="54"/>
+      <c r="E71" s="55"/>
       <c r="G71" s="48">
         <v>2</v>
       </c>
@@ -52155,7 +52211,7 @@
       <c r="J71" s="24">
         <v>2.7483E-2</v>
       </c>
-      <c r="K71" s="54"/>
+      <c r="K71" s="55"/>
     </row>
     <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A72" s="48">
@@ -52170,7 +52226,7 @@
       <c r="D72" s="24">
         <v>0.73658000000000001</v>
       </c>
-      <c r="E72" s="54"/>
+      <c r="E72" s="55"/>
       <c r="G72" s="48">
         <v>3</v>
       </c>
@@ -52183,7 +52239,7 @@
       <c r="J72" s="24">
         <v>0</v>
       </c>
-      <c r="K72" s="54"/>
+      <c r="K72" s="55"/>
     </row>
     <row r="73" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A73" s="48">
@@ -52198,7 +52254,7 @@
       <c r="D73" s="24">
         <v>0.66658399999999995</v>
       </c>
-      <c r="E73" s="54"/>
+      <c r="E73" s="55"/>
       <c r="G73" s="48">
         <v>4</v>
       </c>
@@ -52211,7 +52267,7 @@
       <c r="J73" s="24">
         <v>0</v>
       </c>
-      <c r="K73" s="54"/>
+      <c r="K73" s="55"/>
     </row>
     <row r="74" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A74" s="48">
@@ -52226,7 +52282,7 @@
       <c r="D74" s="24">
         <v>0.69312200000000002</v>
       </c>
-      <c r="E74" s="54"/>
+      <c r="E74" s="55"/>
       <c r="G74" s="48">
         <v>5</v>
       </c>
@@ -52239,7 +52295,7 @@
       <c r="J74" s="24">
         <v>0</v>
       </c>
-      <c r="K74" s="54"/>
+      <c r="K74" s="55"/>
     </row>
     <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A75" s="48">
@@ -52254,7 +52310,7 @@
       <c r="D75" s="24">
         <v>0.65337599999999996</v>
       </c>
-      <c r="E75" s="54"/>
+      <c r="E75" s="55"/>
       <c r="G75" s="48">
         <v>6</v>
       </c>
@@ -52267,7 +52323,7 @@
       <c r="J75" s="24">
         <v>0</v>
       </c>
-      <c r="K75" s="54"/>
+      <c r="K75" s="55"/>
     </row>
     <row r="76" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A76" s="48">
@@ -52282,7 +52338,7 @@
       <c r="D76" s="24">
         <v>0.63788199999999995</v>
       </c>
-      <c r="E76" s="54"/>
+      <c r="E76" s="55"/>
       <c r="G76" s="48">
         <v>7</v>
       </c>
@@ -52295,7 +52351,7 @@
       <c r="J76" s="24">
         <v>0</v>
       </c>
-      <c r="K76" s="54"/>
+      <c r="K76" s="55"/>
     </row>
     <row r="77" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A77" s="48">
@@ -52310,7 +52366,7 @@
       <c r="D77" s="24">
         <v>0.70514100000000002</v>
       </c>
-      <c r="E77" s="54"/>
+      <c r="E77" s="55"/>
       <c r="G77" s="48">
         <v>8</v>
       </c>
@@ -52323,7 +52379,7 @@
       <c r="J77" s="24">
         <v>0.70416000000000001</v>
       </c>
-      <c r="K77" s="54"/>
+      <c r="K77" s="55"/>
     </row>
     <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A78" s="48">
@@ -52338,7 +52394,7 @@
       <c r="D78" s="24">
         <v>0.55663300000000004</v>
       </c>
-      <c r="E78" s="54"/>
+      <c r="E78" s="55"/>
       <c r="G78" s="48">
         <v>9</v>
       </c>
@@ -52351,7 +52407,7 @@
       <c r="J78" s="24">
         <v>0.68451700000000004</v>
       </c>
-      <c r="K78" s="54"/>
+      <c r="K78" s="55"/>
     </row>
     <row r="79" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A79" s="48">
@@ -52366,7 +52422,7 @@
       <c r="D79" s="24">
         <v>0.45468399999999998</v>
       </c>
-      <c r="E79" s="54"/>
+      <c r="E79" s="55"/>
       <c r="G79" s="48">
         <v>10</v>
       </c>
@@ -52379,7 +52435,7 @@
       <c r="J79" s="24">
         <v>0.46307300000000001</v>
       </c>
-      <c r="K79" s="54"/>
+      <c r="K79" s="55"/>
     </row>
     <row r="80" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A80" s="48">
@@ -52394,7 +52450,7 @@
       <c r="D80" s="24">
         <v>0.79524300000000003</v>
       </c>
-      <c r="E80" s="54"/>
+      <c r="E80" s="55"/>
       <c r="G80" s="48">
         <v>11</v>
       </c>
@@ -52407,7 +52463,7 @@
       <c r="J80" s="24">
         <v>0.77209799999999995</v>
       </c>
-      <c r="K80" s="54"/>
+      <c r="K80" s="55"/>
     </row>
     <row r="81" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A81" s="48">
@@ -52422,7 +52478,7 @@
       <c r="D81" s="24">
         <v>0.83022700000000005</v>
       </c>
-      <c r="E81" s="54"/>
+      <c r="E81" s="55"/>
       <c r="G81" s="48">
         <v>12</v>
       </c>
@@ -52435,18 +52491,18 @@
       <c r="J81" s="24">
         <v>0.82798700000000003</v>
       </c>
-      <c r="K81" s="54"/>
+      <c r="K81" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="E69:E81"/>
+    <mergeCell ref="K69:K81"/>
     <mergeCell ref="D2:D14"/>
     <mergeCell ref="I2:I14"/>
     <mergeCell ref="O2:O14"/>
     <mergeCell ref="D37:D49"/>
     <mergeCell ref="I37:I49"/>
     <mergeCell ref="N37:N49"/>
-    <mergeCell ref="E69:E81"/>
-    <mergeCell ref="K69:K81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -52457,8 +52513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A97D7F-0A6C-D241-8CE5-FB9EF0958310}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:K78"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="N91" sqref="N91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -52506,7 +52562,7 @@
       <c r="C2" s="24">
         <v>0.53476800000000002</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="55" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="1">
@@ -52518,7 +52574,7 @@
       <c r="H2" s="24">
         <v>0.50165599999999999</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="55" t="s">
         <v>28</v>
       </c>
       <c r="K2" s="1">
@@ -52530,7 +52586,7 @@
       <c r="M2" s="24">
         <v>0.50165599999999999</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="N2" s="55" t="s">
         <v>25</v>
       </c>
     </row>
@@ -52544,7 +52600,7 @@
       <c r="C3" s="24">
         <v>0.54635800000000001</v>
       </c>
-      <c r="D3" s="54"/>
+      <c r="D3" s="55"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -52554,7 +52610,7 @@
       <c r="H3" s="24">
         <v>0.50827800000000001</v>
       </c>
-      <c r="I3" s="54"/>
+      <c r="I3" s="55"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
@@ -52564,7 +52620,7 @@
       <c r="M3" s="24">
         <v>0.52152299999999996</v>
       </c>
-      <c r="N3" s="54"/>
+      <c r="N3" s="55"/>
     </row>
     <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -52576,7 +52632,7 @@
       <c r="C4" s="24">
         <v>0.50331099999999995</v>
       </c>
-      <c r="D4" s="54"/>
+      <c r="D4" s="55"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -52586,7 +52642,7 @@
       <c r="H4" s="24">
         <v>0.51324499999999995</v>
       </c>
-      <c r="I4" s="54"/>
+      <c r="I4" s="55"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
@@ -52596,7 +52652,7 @@
       <c r="M4" s="24">
         <v>0.51490100000000005</v>
       </c>
-      <c r="N4" s="54"/>
+      <c r="N4" s="55"/>
     </row>
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -52608,7 +52664,7 @@
       <c r="C5" s="24">
         <v>0.50165599999999999</v>
       </c>
-      <c r="D5" s="54"/>
+      <c r="D5" s="55"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -52618,7 +52674,7 @@
       <c r="H5" s="24">
         <v>0.50827800000000001</v>
       </c>
-      <c r="I5" s="54"/>
+      <c r="I5" s="55"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
@@ -52628,7 +52684,7 @@
       <c r="M5" s="24">
         <v>0.490066</v>
       </c>
-      <c r="N5" s="54"/>
+      <c r="N5" s="55"/>
     </row>
     <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -52640,7 +52696,7 @@
       <c r="C6" s="24">
         <v>0.51490100000000005</v>
       </c>
-      <c r="D6" s="54"/>
+      <c r="D6" s="55"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -52650,7 +52706,7 @@
       <c r="H6" s="24">
         <v>0.50331099999999995</v>
       </c>
-      <c r="I6" s="54"/>
+      <c r="I6" s="55"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
@@ -52660,7 +52716,7 @@
       <c r="M6" s="24">
         <v>0.51324499999999995</v>
       </c>
-      <c r="N6" s="54"/>
+      <c r="N6" s="55"/>
     </row>
     <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -52672,7 +52728,7 @@
       <c r="C7" s="24">
         <v>0.50496700000000005</v>
       </c>
-      <c r="D7" s="54"/>
+      <c r="D7" s="55"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -52682,7 +52738,7 @@
       <c r="H7" s="24">
         <v>0.50331099999999995</v>
       </c>
-      <c r="I7" s="54"/>
+      <c r="I7" s="55"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
@@ -52692,7 +52748,7 @@
       <c r="M7" s="24">
         <v>0.50662300000000005</v>
       </c>
-      <c r="N7" s="54"/>
+      <c r="N7" s="55"/>
     </row>
     <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -52704,7 +52760,7 @@
       <c r="C8" s="24">
         <v>0.51158899999999996</v>
       </c>
-      <c r="D8" s="54"/>
+      <c r="D8" s="55"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -52714,7 +52770,7 @@
       <c r="H8" s="24">
         <v>0.50331099999999995</v>
       </c>
-      <c r="I8" s="54"/>
+      <c r="I8" s="55"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
@@ -52724,7 +52780,7 @@
       <c r="M8" s="24">
         <v>0.49337700000000001</v>
       </c>
-      <c r="N8" s="54"/>
+      <c r="N8" s="55"/>
     </row>
     <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -52736,7 +52792,7 @@
       <c r="C9" s="24">
         <v>0.49668899999999999</v>
       </c>
-      <c r="D9" s="54"/>
+      <c r="D9" s="55"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -52746,7 +52802,7 @@
       <c r="H9" s="24">
         <v>0.49834400000000001</v>
       </c>
-      <c r="I9" s="54"/>
+      <c r="I9" s="55"/>
       <c r="K9" s="1">
         <v>7</v>
       </c>
@@ -52756,7 +52812,7 @@
       <c r="M9" s="24">
         <v>0.46192100000000003</v>
       </c>
-      <c r="N9" s="54"/>
+      <c r="N9" s="55"/>
     </row>
     <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -52768,7 +52824,7 @@
       <c r="C10" s="24">
         <v>0.50496700000000005</v>
       </c>
-      <c r="D10" s="54"/>
+      <c r="D10" s="55"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -52778,7 +52834,7 @@
       <c r="H10" s="24">
         <v>0.495033</v>
       </c>
-      <c r="I10" s="54"/>
+      <c r="I10" s="55"/>
       <c r="K10" s="1">
         <v>8</v>
       </c>
@@ -52788,7 +52844,7 @@
       <c r="M10" s="24">
         <v>0.46523199999999998</v>
       </c>
-      <c r="N10" s="54"/>
+      <c r="N10" s="55"/>
     </row>
     <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -52800,7 +52856,7 @@
       <c r="C11" s="24">
         <v>0.51490100000000005</v>
       </c>
-      <c r="D11" s="54"/>
+      <c r="D11" s="55"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -52810,7 +52866,7 @@
       <c r="H11" s="24">
         <v>0.5</v>
       </c>
-      <c r="I11" s="54"/>
+      <c r="I11" s="55"/>
       <c r="K11" s="1">
         <v>9</v>
       </c>
@@ -52820,7 +52876,7 @@
       <c r="M11" s="24">
         <v>0.47516599999999998</v>
       </c>
-      <c r="N11" s="54"/>
+      <c r="N11" s="55"/>
     </row>
     <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -52832,7 +52888,7 @@
       <c r="C12" s="24">
         <v>0.54635800000000001</v>
       </c>
-      <c r="D12" s="54"/>
+      <c r="D12" s="55"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -52842,7 +52898,7 @@
       <c r="H12" s="24">
         <v>0.51158899999999996</v>
       </c>
-      <c r="I12" s="54"/>
+      <c r="I12" s="55"/>
       <c r="K12" s="1">
         <v>10</v>
       </c>
@@ -52852,7 +52908,7 @@
       <c r="M12" s="24">
         <v>0.485099</v>
       </c>
-      <c r="N12" s="54"/>
+      <c r="N12" s="55"/>
     </row>
     <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -52864,7 +52920,7 @@
       <c r="C13" s="24">
         <v>0.51490100000000005</v>
       </c>
-      <c r="D13" s="54"/>
+      <c r="D13" s="55"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -52874,7 +52930,7 @@
       <c r="H13" s="24">
         <v>0.528146</v>
       </c>
-      <c r="I13" s="54"/>
+      <c r="I13" s="55"/>
       <c r="K13" s="1">
         <v>11</v>
       </c>
@@ -52884,7 +52940,7 @@
       <c r="M13" s="24">
         <v>0.48344399999999998</v>
       </c>
-      <c r="N13" s="54"/>
+      <c r="N13" s="55"/>
     </row>
     <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -52896,7 +52952,7 @@
       <c r="C14" s="24">
         <v>0.54139099999999996</v>
       </c>
-      <c r="D14" s="54"/>
+      <c r="D14" s="55"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -52906,7 +52962,7 @@
       <c r="H14" s="24">
         <v>0.509934</v>
       </c>
-      <c r="I14" s="54"/>
+      <c r="I14" s="55"/>
       <c r="K14" s="1">
         <v>12</v>
       </c>
@@ -52916,7 +52972,7 @@
       <c r="M14" s="24">
         <v>0.46523199999999998</v>
       </c>
-      <c r="N14" s="54"/>
+      <c r="N14" s="55"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="45" t="s">
@@ -52957,7 +53013,7 @@
       <c r="C35" s="24">
         <v>0.49172199999999999</v>
       </c>
-      <c r="D35" s="54" t="s">
+      <c r="D35" s="55" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="45">
@@ -52969,7 +53025,7 @@
       <c r="H35" s="24">
         <v>0.49172199999999999</v>
       </c>
-      <c r="I35" s="54" t="s">
+      <c r="I35" s="55" t="s">
         <v>26</v>
       </c>
       <c r="K35" s="45">
@@ -52981,7 +53037,7 @@
       <c r="M35" s="24">
         <v>0.50165599999999999</v>
       </c>
-      <c r="N35" s="54" t="s">
+      <c r="N35" s="55" t="s">
         <v>27</v>
       </c>
     </row>
@@ -52995,7 +53051,7 @@
       <c r="C36" s="24">
         <v>0.495033</v>
       </c>
-      <c r="D36" s="54"/>
+      <c r="D36" s="55"/>
       <c r="F36" s="45">
         <v>1</v>
       </c>
@@ -53005,7 +53061,7 @@
       <c r="H36" s="24">
         <v>0.47516599999999998</v>
       </c>
-      <c r="I36" s="54"/>
+      <c r="I36" s="55"/>
       <c r="K36" s="45">
         <v>1</v>
       </c>
@@ -53015,7 +53071,7 @@
       <c r="M36" s="24">
         <v>0.52152299999999996</v>
       </c>
-      <c r="N36" s="54"/>
+      <c r="N36" s="55"/>
     </row>
     <row r="37" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A37" s="45">
@@ -53027,7 +53083,7 @@
       <c r="C37" s="24">
         <v>0.47847699999999999</v>
       </c>
-      <c r="D37" s="54"/>
+      <c r="D37" s="55"/>
       <c r="F37" s="45">
         <v>2</v>
       </c>
@@ -53037,7 +53093,7 @@
       <c r="H37" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I37" s="54"/>
+      <c r="I37" s="55"/>
       <c r="K37" s="45">
         <v>2</v>
       </c>
@@ -53047,7 +53103,7 @@
       <c r="M37" s="24">
         <v>0.51324499999999995</v>
       </c>
-      <c r="N37" s="54"/>
+      <c r="N37" s="55"/>
     </row>
     <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A38" s="45">
@@ -53059,7 +53115,7 @@
       <c r="C38" s="24">
         <v>0.48841099999999998</v>
       </c>
-      <c r="D38" s="54"/>
+      <c r="D38" s="55"/>
       <c r="F38" s="45">
         <v>3</v>
       </c>
@@ -53069,7 +53125,7 @@
       <c r="H38" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I38" s="54"/>
+      <c r="I38" s="55"/>
       <c r="K38" s="45">
         <v>3</v>
       </c>
@@ -53079,7 +53135,7 @@
       <c r="M38" s="24">
         <v>0.480132</v>
       </c>
-      <c r="N38" s="54"/>
+      <c r="N38" s="55"/>
     </row>
     <row r="39" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A39" s="45">
@@ -53091,7 +53147,7 @@
       <c r="C39" s="24">
         <v>0.47847699999999999</v>
       </c>
-      <c r="D39" s="54"/>
+      <c r="D39" s="55"/>
       <c r="F39" s="45">
         <v>4</v>
       </c>
@@ -53101,7 +53157,7 @@
       <c r="H39" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I39" s="54"/>
+      <c r="I39" s="55"/>
       <c r="K39" s="45">
         <v>4</v>
       </c>
@@ -53111,7 +53167,7 @@
       <c r="M39" s="24">
         <v>0.490066</v>
       </c>
-      <c r="N39" s="54"/>
+      <c r="N39" s="55"/>
     </row>
     <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A40" s="45">
@@ -53123,7 +53179,7 @@
       <c r="C40" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D40" s="54"/>
+      <c r="D40" s="55"/>
       <c r="F40" s="45">
         <v>5</v>
       </c>
@@ -53133,7 +53189,7 @@
       <c r="H40" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I40" s="54"/>
+      <c r="I40" s="55"/>
       <c r="K40" s="45">
         <v>5</v>
       </c>
@@ -53143,7 +53199,7 @@
       <c r="M40" s="24">
         <v>0.49337700000000001</v>
       </c>
-      <c r="N40" s="54"/>
+      <c r="N40" s="55"/>
     </row>
     <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A41" s="45">
@@ -53155,7 +53211,7 @@
       <c r="C41" s="24">
         <v>0.50165599999999999</v>
       </c>
-      <c r="D41" s="54"/>
+      <c r="D41" s="55"/>
       <c r="F41" s="45">
         <v>6</v>
       </c>
@@ -53165,7 +53221,7 @@
       <c r="H41" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I41" s="54"/>
+      <c r="I41" s="55"/>
       <c r="K41" s="45">
         <v>6</v>
       </c>
@@ -53175,7 +53231,7 @@
       <c r="M41" s="24">
         <v>0.49834400000000001</v>
       </c>
-      <c r="N41" s="54"/>
+      <c r="N41" s="55"/>
     </row>
     <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A42" s="45">
@@ -53187,7 +53243,7 @@
       <c r="C42" s="24">
         <v>0.51324499999999995</v>
       </c>
-      <c r="D42" s="54"/>
+      <c r="D42" s="55"/>
       <c r="F42" s="45">
         <v>7</v>
       </c>
@@ -53197,7 +53253,7 @@
       <c r="H42" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I42" s="54"/>
+      <c r="I42" s="55"/>
       <c r="K42" s="45">
         <v>7</v>
       </c>
@@ -53207,7 +53263,7 @@
       <c r="M42" s="24">
         <v>0.51158899999999996</v>
       </c>
-      <c r="N42" s="54"/>
+      <c r="N42" s="55"/>
     </row>
     <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A43" s="45">
@@ -53219,7 +53275,7 @@
       <c r="C43" s="24">
         <v>0.50662300000000005</v>
       </c>
-      <c r="D43" s="54"/>
+      <c r="D43" s="55"/>
       <c r="F43" s="45">
         <v>8</v>
       </c>
@@ -53229,7 +53285,7 @@
       <c r="H43" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I43" s="54"/>
+      <c r="I43" s="55"/>
       <c r="K43" s="45">
         <v>8</v>
       </c>
@@ -53239,7 +53295,7 @@
       <c r="M43" s="24">
         <v>0.49834400000000001</v>
       </c>
-      <c r="N43" s="54"/>
+      <c r="N43" s="55"/>
     </row>
     <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A44" s="45">
@@ -53251,7 +53307,7 @@
       <c r="C44" s="24">
         <v>0.51655600000000002</v>
       </c>
-      <c r="D44" s="54"/>
+      <c r="D44" s="55"/>
       <c r="F44" s="45">
         <v>9</v>
       </c>
@@ -53261,7 +53317,7 @@
       <c r="H44" s="24">
         <v>0.48344399999999998</v>
       </c>
-      <c r="I44" s="54"/>
+      <c r="I44" s="55"/>
       <c r="K44" s="45">
         <v>9</v>
       </c>
@@ -53271,7 +53327,7 @@
       <c r="M44" s="24">
         <v>0.50827800000000001</v>
       </c>
-      <c r="N44" s="54"/>
+      <c r="N44" s="55"/>
     </row>
     <row r="45" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A45" s="45">
@@ -53283,7 +53339,7 @@
       <c r="C45" s="24">
         <v>0.51158899999999996</v>
       </c>
-      <c r="D45" s="54"/>
+      <c r="D45" s="55"/>
       <c r="F45" s="45">
         <v>10</v>
       </c>
@@ -53293,7 +53349,7 @@
       <c r="H45" s="24">
         <v>0.485099</v>
       </c>
-      <c r="I45" s="54"/>
+      <c r="I45" s="55"/>
       <c r="K45" s="45">
         <v>10</v>
       </c>
@@ -53303,7 +53359,7 @@
       <c r="M45" s="24">
         <v>0.49172199999999999</v>
       </c>
-      <c r="N45" s="54"/>
+      <c r="N45" s="55"/>
     </row>
     <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A46" s="45">
@@ -53315,7 +53371,7 @@
       <c r="C46" s="24">
         <v>0.51158899999999996</v>
       </c>
-      <c r="D46" s="54"/>
+      <c r="D46" s="55"/>
       <c r="F46" s="45">
         <v>11</v>
       </c>
@@ -53325,7 +53381,7 @@
       <c r="H46" s="24">
         <v>0.485099</v>
       </c>
-      <c r="I46" s="54"/>
+      <c r="I46" s="55"/>
       <c r="K46" s="45">
         <v>11</v>
       </c>
@@ -53335,7 +53391,7 @@
       <c r="M46" s="24">
         <v>0.471854</v>
       </c>
-      <c r="N46" s="54"/>
+      <c r="N46" s="55"/>
     </row>
     <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A47" s="45">
@@ -53347,7 +53403,7 @@
       <c r="C47" s="24">
         <v>0.50165599999999999</v>
       </c>
-      <c r="D47" s="54"/>
+      <c r="D47" s="55"/>
       <c r="F47" s="45">
         <v>12</v>
       </c>
@@ -53357,7 +53413,7 @@
       <c r="H47" s="24">
         <v>0.485099</v>
       </c>
-      <c r="I47" s="54"/>
+      <c r="I47" s="55"/>
       <c r="K47" s="45">
         <v>12</v>
       </c>
@@ -53367,28 +53423,28 @@
       <c r="M47" s="24">
         <v>0.49172199999999999</v>
       </c>
-      <c r="N47" s="54"/>
+      <c r="N47" s="55"/>
     </row>
     <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A65" s="48"/>
-      <c r="B65" s="55" t="s">
-        <v>47</v>
+      <c r="B65" s="50" t="s">
+        <v>45</v>
       </c>
       <c r="C65" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="30" t="s">
-        <v>54</v>
-      </c>
       <c r="G65" s="48"/>
-      <c r="H65" s="55" t="s">
-        <v>47</v>
+      <c r="H65" s="50" t="s">
+        <v>45</v>
       </c>
       <c r="I65" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="J65" s="30" t="s">
         <v>52</v>
-      </c>
-      <c r="J65" s="30" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.25">
@@ -53404,7 +53460,7 @@
       <c r="D66" s="24">
         <v>0.49834400000000001</v>
       </c>
-      <c r="E66" s="54" t="s">
+      <c r="E66" s="55" t="s">
         <v>31</v>
       </c>
       <c r="G66" s="48">
@@ -53419,7 +53475,7 @@
       <c r="J66" s="24">
         <v>0.50165599999999999</v>
       </c>
-      <c r="K66" s="54" t="s">
+      <c r="K66" s="55" t="s">
         <v>32</v>
       </c>
     </row>
@@ -53436,7 +53492,7 @@
       <c r="D67" s="24">
         <v>0.51490100000000005</v>
       </c>
-      <c r="E67" s="54"/>
+      <c r="E67" s="55"/>
       <c r="G67" s="48">
         <v>1</v>
       </c>
@@ -53449,7 +53505,7 @@
       <c r="J67" s="24">
         <v>0.50827800000000001</v>
       </c>
-      <c r="K67" s="54"/>
+      <c r="K67" s="55"/>
     </row>
     <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A68" s="48">
@@ -53464,7 +53520,7 @@
       <c r="D68" s="24">
         <v>0.528146</v>
       </c>
-      <c r="E68" s="54"/>
+      <c r="E68" s="55"/>
       <c r="G68" s="48">
         <v>2</v>
       </c>
@@ -53477,7 +53533,7 @@
       <c r="J68" s="24">
         <v>0.51324499999999995</v>
       </c>
-      <c r="K68" s="54"/>
+      <c r="K68" s="55"/>
     </row>
     <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A69" s="48">
@@ -53492,7 +53548,7 @@
       <c r="D69" s="24">
         <v>0.50827800000000001</v>
       </c>
-      <c r="E69" s="54"/>
+      <c r="E69" s="55"/>
       <c r="G69" s="48">
         <v>3</v>
       </c>
@@ -53505,7 +53561,7 @@
       <c r="J69" s="24">
         <v>0.50827800000000001</v>
       </c>
-      <c r="K69" s="54"/>
+      <c r="K69" s="55"/>
     </row>
     <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A70" s="48">
@@ -53520,7 +53576,7 @@
       <c r="D70" s="24">
         <v>0.47350999999999999</v>
       </c>
-      <c r="E70" s="54"/>
+      <c r="E70" s="55"/>
       <c r="G70" s="48">
         <v>4</v>
       </c>
@@ -53533,7 +53589,7 @@
       <c r="J70" s="24">
         <v>0.50331099999999995</v>
       </c>
-      <c r="K70" s="54"/>
+      <c r="K70" s="55"/>
     </row>
     <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A71" s="48">
@@ -53548,7 +53604,7 @@
       <c r="D71" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="E71" s="54"/>
+      <c r="E71" s="55"/>
       <c r="G71" s="48">
         <v>5</v>
       </c>
@@ -53561,7 +53617,7 @@
       <c r="J71" s="24">
         <v>0.50331099999999995</v>
       </c>
-      <c r="K71" s="54"/>
+      <c r="K71" s="55"/>
     </row>
     <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A72" s="48">
@@ -53576,7 +53632,7 @@
       <c r="D72" s="24">
         <v>0.495033</v>
       </c>
-      <c r="E72" s="54"/>
+      <c r="E72" s="55"/>
       <c r="G72" s="48">
         <v>6</v>
       </c>
@@ -53589,7 +53645,7 @@
       <c r="J72" s="24">
         <v>0.50331099999999995</v>
       </c>
-      <c r="K72" s="54"/>
+      <c r="K72" s="55"/>
     </row>
     <row r="73" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A73" s="48">
@@ -53604,7 +53660,7 @@
       <c r="D73" s="24">
         <v>0.48675499999999999</v>
       </c>
-      <c r="E73" s="54"/>
+      <c r="E73" s="55"/>
       <c r="G73" s="48">
         <v>7</v>
       </c>
@@ -53617,7 +53673,7 @@
       <c r="J73" s="24">
         <v>0.49834400000000001</v>
       </c>
-      <c r="K73" s="54"/>
+      <c r="K73" s="55"/>
     </row>
     <row r="74" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A74" s="48">
@@ -53632,7 +53688,7 @@
       <c r="D74" s="24">
         <v>0.5</v>
       </c>
-      <c r="E74" s="54"/>
+      <c r="E74" s="55"/>
       <c r="G74" s="48">
         <v>8</v>
       </c>
@@ -53645,7 +53701,7 @@
       <c r="J74" s="24">
         <v>0.495033</v>
       </c>
-      <c r="K74" s="54"/>
+      <c r="K74" s="55"/>
     </row>
     <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A75" s="48">
@@ -53660,7 +53716,7 @@
       <c r="D75" s="24">
         <v>0.50662300000000005</v>
       </c>
-      <c r="E75" s="54"/>
+      <c r="E75" s="55"/>
       <c r="G75" s="48">
         <v>9</v>
       </c>
@@ -53673,7 +53729,7 @@
       <c r="J75" s="24">
         <v>0.5</v>
       </c>
-      <c r="K75" s="54"/>
+      <c r="K75" s="55"/>
     </row>
     <row r="76" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A76" s="48">
@@ -53688,7 +53744,7 @@
       <c r="D76" s="24">
         <v>0.48675499999999999</v>
       </c>
-      <c r="E76" s="54"/>
+      <c r="E76" s="55"/>
       <c r="G76" s="48">
         <v>10</v>
       </c>
@@ -53701,7 +53757,7 @@
       <c r="J76" s="24">
         <v>0.51158899999999996</v>
       </c>
-      <c r="K76" s="54"/>
+      <c r="K76" s="55"/>
     </row>
     <row r="77" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A77" s="48">
@@ -53716,7 +53772,7 @@
       <c r="D77" s="24">
         <v>0.52649000000000001</v>
       </c>
-      <c r="E77" s="54"/>
+      <c r="E77" s="55"/>
       <c r="G77" s="48">
         <v>11</v>
       </c>
@@ -53729,7 +53785,7 @@
       <c r="J77" s="24">
         <v>0.528146</v>
       </c>
-      <c r="K77" s="54"/>
+      <c r="K77" s="55"/>
     </row>
     <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A78" s="48">
@@ -53744,7 +53800,7 @@
       <c r="D78" s="24">
         <v>0.509934</v>
       </c>
-      <c r="E78" s="54"/>
+      <c r="E78" s="55"/>
       <c r="G78" s="48">
         <v>12</v>
       </c>
@@ -53757,7 +53813,7 @@
       <c r="J78" s="24">
         <v>0.509934</v>
       </c>
-      <c r="K78" s="54"/>
+      <c r="K78" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -53779,7 +53835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586CC5E8-52EF-824B-9F99-84A3E832E106}">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A74" workbookViewId="0">
       <selection activeCell="Q115" sqref="Q115"/>
     </sheetView>
   </sheetViews>
@@ -53828,7 +53884,7 @@
       <c r="C2" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="55" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="1">
@@ -53840,7 +53896,7 @@
       <c r="H2" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="55" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="1">
@@ -53852,7 +53908,7 @@
       <c r="M2" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="N2" s="55" t="s">
         <v>28</v>
       </c>
     </row>
@@ -53866,7 +53922,7 @@
       <c r="C3" s="24">
         <v>0.569546</v>
       </c>
-      <c r="D3" s="54"/>
+      <c r="D3" s="55"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -53876,7 +53932,7 @@
       <c r="H3" s="24">
         <v>0.56991199999999997</v>
       </c>
-      <c r="I3" s="54"/>
+      <c r="I3" s="55"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
@@ -53886,7 +53942,7 @@
       <c r="M3" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N3" s="54"/>
+      <c r="N3" s="55"/>
     </row>
     <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -53898,7 +53954,7 @@
       <c r="C4" s="24">
         <v>0.567716</v>
       </c>
-      <c r="D4" s="54"/>
+      <c r="D4" s="55"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -53908,7 +53964,7 @@
       <c r="H4" s="24">
         <v>0.56881400000000004</v>
       </c>
-      <c r="I4" s="54"/>
+      <c r="I4" s="55"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
@@ -53918,7 +53974,7 @@
       <c r="M4" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N4" s="54"/>
+      <c r="N4" s="55"/>
     </row>
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -53930,7 +53986,7 @@
       <c r="C5" s="24">
         <v>0.58894599999999997</v>
       </c>
-      <c r="D5" s="54"/>
+      <c r="D5" s="55"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -53940,7 +53996,7 @@
       <c r="H5" s="24">
         <v>0.58308899999999997</v>
       </c>
-      <c r="I5" s="54"/>
+      <c r="I5" s="55"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
@@ -53950,7 +54006,7 @@
       <c r="M5" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N5" s="54"/>
+      <c r="N5" s="55"/>
     </row>
     <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -53962,7 +54018,7 @@
       <c r="C6" s="24">
         <v>0.60175699999999999</v>
       </c>
-      <c r="D6" s="54"/>
+      <c r="D6" s="55"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -53972,7 +54028,7 @@
       <c r="H6" s="24">
         <v>0.60651500000000003</v>
       </c>
-      <c r="I6" s="54"/>
+      <c r="I6" s="55"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
@@ -53982,7 +54038,7 @@
       <c r="M6" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N6" s="54"/>
+      <c r="N6" s="55"/>
     </row>
     <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -53994,7 +54050,7 @@
       <c r="C7" s="24">
         <v>0.61712999999999996</v>
       </c>
-      <c r="D7" s="54"/>
+      <c r="D7" s="55"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -54004,7 +54060,7 @@
       <c r="H7" s="24">
         <v>0.61786200000000002</v>
       </c>
-      <c r="I7" s="54"/>
+      <c r="I7" s="55"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
@@ -54014,7 +54070,7 @@
       <c r="M7" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N7" s="54"/>
+      <c r="N7" s="55"/>
     </row>
     <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -54026,7 +54082,7 @@
       <c r="C8" s="24">
         <v>0.620425</v>
       </c>
-      <c r="D8" s="54"/>
+      <c r="D8" s="55"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -54036,7 +54092,7 @@
       <c r="H8" s="24">
         <v>0.61090800000000001</v>
       </c>
-      <c r="I8" s="54"/>
+      <c r="I8" s="55"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
@@ -54046,7 +54102,7 @@
       <c r="M8" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N8" s="54"/>
+      <c r="N8" s="55"/>
     </row>
     <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -54058,7 +54114,7 @@
       <c r="C9" s="24">
         <v>0.633602</v>
       </c>
-      <c r="D9" s="54"/>
+      <c r="D9" s="55"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -54068,7 +54124,7 @@
       <c r="H9" s="24">
         <v>0.61786200000000002</v>
       </c>
-      <c r="I9" s="54"/>
+      <c r="I9" s="55"/>
       <c r="K9" s="1">
         <v>7</v>
       </c>
@@ -54078,7 +54134,7 @@
       <c r="M9" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N9" s="54"/>
+      <c r="N9" s="55"/>
     </row>
     <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -54090,7 +54146,7 @@
       <c r="C10" s="24">
         <v>0.62847699999999995</v>
       </c>
-      <c r="D10" s="54"/>
+      <c r="D10" s="55"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -54100,7 +54156,7 @@
       <c r="H10" s="24">
         <v>0.620425</v>
       </c>
-      <c r="I10" s="54"/>
+      <c r="I10" s="55"/>
       <c r="K10" s="1">
         <v>8</v>
       </c>
@@ -54110,7 +54166,7 @@
       <c r="M10" s="24">
         <v>0.57906299999999999</v>
       </c>
-      <c r="N10" s="54"/>
+      <c r="N10" s="55"/>
     </row>
     <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -54122,7 +54178,7 @@
       <c r="C11" s="24">
         <v>0.62664699999999995</v>
       </c>
-      <c r="D11" s="54"/>
+      <c r="D11" s="55"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -54132,7 +54188,7 @@
       <c r="H11" s="24">
         <v>0.61712999999999996</v>
       </c>
-      <c r="I11" s="54"/>
+      <c r="I11" s="55"/>
       <c r="K11" s="1">
         <v>9</v>
       </c>
@@ -54142,7 +54198,7 @@
       <c r="M11" s="24">
         <v>0.58491899999999997</v>
       </c>
-      <c r="N11" s="54"/>
+      <c r="N11" s="55"/>
     </row>
     <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -54154,7 +54210,7 @@
       <c r="C12" s="24">
         <v>0.63250399999999996</v>
       </c>
-      <c r="D12" s="54"/>
+      <c r="D12" s="55"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -54164,7 +54220,7 @@
       <c r="H12" s="24">
         <v>0.62005900000000003</v>
       </c>
-      <c r="I12" s="54"/>
+      <c r="I12" s="55"/>
       <c r="K12" s="1">
         <v>10</v>
       </c>
@@ -54174,7 +54230,7 @@
       <c r="M12" s="24">
         <v>0.59553400000000001</v>
       </c>
-      <c r="N12" s="54"/>
+      <c r="N12" s="55"/>
     </row>
     <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -54186,7 +54242,7 @@
       <c r="C13" s="24">
         <v>0.63689600000000002</v>
       </c>
-      <c r="D13" s="54"/>
+      <c r="D13" s="55"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -54196,7 +54252,7 @@
       <c r="H13" s="24">
         <v>0.62884300000000004</v>
       </c>
-      <c r="I13" s="54"/>
+      <c r="I13" s="55"/>
       <c r="K13" s="1">
         <v>11</v>
       </c>
@@ -54206,7 +54262,7 @@
       <c r="M13" s="24">
         <v>0.64055600000000001</v>
       </c>
-      <c r="N13" s="54"/>
+      <c r="N13" s="55"/>
     </row>
     <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -54218,7 +54274,7 @@
       <c r="C14" s="24">
         <v>0.64019000000000004</v>
       </c>
-      <c r="D14" s="54"/>
+      <c r="D14" s="55"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -54228,7 +54284,7 @@
       <c r="H14" s="24">
         <v>0.63872600000000002</v>
       </c>
-      <c r="I14" s="54"/>
+      <c r="I14" s="55"/>
       <c r="K14" s="1">
         <v>12</v>
       </c>
@@ -54238,7 +54294,7 @@
       <c r="M14" s="24">
         <v>0.66800899999999996</v>
       </c>
-      <c r="N14" s="54"/>
+      <c r="N14" s="55"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="42" t="s">
@@ -54279,7 +54335,7 @@
       <c r="C32" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="D32" s="54" t="s">
+      <c r="D32" s="55" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="42">
@@ -54291,7 +54347,7 @@
       <c r="H32" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="I32" s="54" t="s">
+      <c r="I32" s="55" t="s">
         <v>20</v>
       </c>
       <c r="K32" s="42">
@@ -54303,8 +54359,8 @@
       <c r="M32" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N32" s="54" t="s">
-        <v>59</v>
+      <c r="N32" s="55" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="16" x14ac:dyDescent="0.25">
@@ -54317,7 +54373,7 @@
       <c r="C33" s="24">
         <v>0.56844799999999995</v>
       </c>
-      <c r="D33" s="54"/>
+      <c r="D33" s="55"/>
       <c r="F33" s="42">
         <v>1</v>
       </c>
@@ -54327,7 +54383,7 @@
       <c r="H33" s="24">
         <v>0.53916500000000001</v>
       </c>
-      <c r="I33" s="54"/>
+      <c r="I33" s="55"/>
       <c r="K33" s="42">
         <v>1</v>
       </c>
@@ -54337,7 +54393,7 @@
       <c r="M33" s="24">
         <v>0.57357199999999997</v>
       </c>
-      <c r="N33" s="54"/>
+      <c r="N33" s="55"/>
     </row>
     <row r="34" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A34" s="42">
@@ -54349,7 +54405,7 @@
       <c r="C34" s="24">
         <v>0.57796499999999995</v>
       </c>
-      <c r="D34" s="54"/>
+      <c r="D34" s="55"/>
       <c r="F34" s="42">
         <v>2</v>
       </c>
@@ -54359,7 +54415,7 @@
       <c r="H34" s="24">
         <v>0.53074699999999997</v>
       </c>
-      <c r="I34" s="54"/>
+      <c r="I34" s="55"/>
       <c r="K34" s="42">
         <v>2</v>
       </c>
@@ -54369,7 +54425,7 @@
       <c r="M34" s="24">
         <v>0.57686700000000002</v>
       </c>
-      <c r="N34" s="54"/>
+      <c r="N34" s="55"/>
     </row>
     <row r="35" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A35" s="42">
@@ -54381,7 +54437,7 @@
       <c r="C35" s="24">
         <v>0.59516800000000003</v>
       </c>
-      <c r="D35" s="54"/>
+      <c r="D35" s="55"/>
       <c r="F35" s="42">
         <v>3</v>
       </c>
@@ -54391,7 +54447,7 @@
       <c r="H35" s="24">
         <v>0.554539</v>
       </c>
-      <c r="I35" s="54"/>
+      <c r="I35" s="55"/>
       <c r="K35" s="42">
         <v>3</v>
       </c>
@@ -54401,7 +54457,7 @@
       <c r="M35" s="24">
         <v>0.55307499999999998</v>
       </c>
-      <c r="N35" s="54"/>
+      <c r="N35" s="55"/>
     </row>
     <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A36" s="42">
@@ -54413,7 +54469,7 @@
       <c r="C36" s="24">
         <v>0.58565199999999995</v>
       </c>
-      <c r="D36" s="54"/>
+      <c r="D36" s="55"/>
       <c r="F36" s="42">
         <v>4</v>
       </c>
@@ -54423,7 +54479,7 @@
       <c r="H36" s="24">
         <v>0.439971</v>
       </c>
-      <c r="I36" s="54"/>
+      <c r="I36" s="55"/>
       <c r="K36" s="42">
         <v>4</v>
       </c>
@@ -54433,7 +54489,7 @@
       <c r="M36" s="24">
         <v>0.569546</v>
       </c>
-      <c r="N36" s="54"/>
+      <c r="N36" s="55"/>
     </row>
     <row r="37" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A37" s="42">
@@ -54445,7 +54501,7 @@
       <c r="C37" s="24">
         <v>0.59882899999999994</v>
       </c>
-      <c r="D37" s="54"/>
+      <c r="D37" s="55"/>
       <c r="F37" s="42">
         <v>5</v>
       </c>
@@ -54455,7 +54511,7 @@
       <c r="H37" s="24">
         <v>0.43447999999999998</v>
       </c>
-      <c r="I37" s="54"/>
+      <c r="I37" s="55"/>
       <c r="K37" s="42">
         <v>5</v>
       </c>
@@ -54465,7 +54521,7 @@
       <c r="M37" s="24">
         <v>0.470717</v>
       </c>
-      <c r="N37" s="54"/>
+      <c r="N37" s="55"/>
     </row>
     <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A38" s="42">
@@ -54477,7 +54533,7 @@
       <c r="C38" s="24">
         <v>0.59626599999999996</v>
       </c>
-      <c r="D38" s="54"/>
+      <c r="D38" s="55"/>
       <c r="F38" s="42">
         <v>6</v>
       </c>
@@ -54487,7 +54543,7 @@
       <c r="H38" s="24">
         <v>0.43447999999999998</v>
       </c>
-      <c r="I38" s="54"/>
+      <c r="I38" s="55"/>
       <c r="K38" s="42">
         <v>6</v>
       </c>
@@ -54497,7 +54553,7 @@
       <c r="M38" s="24">
         <v>0.453148</v>
       </c>
-      <c r="N38" s="54"/>
+      <c r="N38" s="55"/>
     </row>
     <row r="39" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A39" s="42">
@@ -54509,7 +54565,7 @@
       <c r="C39" s="24">
         <v>0.59370400000000001</v>
       </c>
-      <c r="D39" s="54"/>
+      <c r="D39" s="55"/>
       <c r="F39" s="42">
         <v>7</v>
       </c>
@@ -54519,7 +54575,7 @@
       <c r="H39" s="24">
         <v>0.58345499999999995</v>
       </c>
-      <c r="I39" s="54"/>
+      <c r="I39" s="55"/>
       <c r="K39" s="42">
         <v>7</v>
       </c>
@@ -54529,7 +54585,7 @@
       <c r="M39" s="24">
         <v>0.45497799999999999</v>
       </c>
-      <c r="N39" s="54"/>
+      <c r="N39" s="55"/>
     </row>
     <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A40" s="42">
@@ -54541,7 +54597,7 @@
       <c r="C40" s="24">
         <v>0.58821400000000001</v>
       </c>
-      <c r="D40" s="54"/>
+      <c r="D40" s="55"/>
       <c r="F40" s="42">
         <v>8</v>
       </c>
@@ -54551,7 +54607,7 @@
       <c r="H40" s="24">
         <v>0.60139100000000001</v>
       </c>
-      <c r="I40" s="54"/>
+      <c r="I40" s="55"/>
       <c r="K40" s="42">
         <v>8</v>
       </c>
@@ -54561,7 +54617,7 @@
       <c r="M40" s="24">
         <v>0.51573899999999995</v>
       </c>
-      <c r="N40" s="54"/>
+      <c r="N40" s="55"/>
     </row>
     <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A41" s="42">
@@ -54573,7 +54629,7 @@
       <c r="C41" s="24">
         <v>0.59846299999999997</v>
       </c>
-      <c r="D41" s="54"/>
+      <c r="D41" s="55"/>
       <c r="F41" s="42">
         <v>9</v>
       </c>
@@ -54583,7 +54639,7 @@
       <c r="H41" s="24">
         <v>0.44289899999999999</v>
       </c>
-      <c r="I41" s="54"/>
+      <c r="I41" s="55"/>
       <c r="K41" s="42">
         <v>9</v>
       </c>
@@ -54593,7 +54649,7 @@
       <c r="M41" s="24">
         <v>0.51939999999999997</v>
       </c>
-      <c r="N41" s="54"/>
+      <c r="N41" s="55"/>
     </row>
     <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A42" s="42">
@@ -54605,7 +54661,7 @@
       <c r="C42" s="24">
         <v>0.60212299999999996</v>
       </c>
-      <c r="D42" s="54"/>
+      <c r="D42" s="55"/>
       <c r="F42" s="42">
         <v>10</v>
       </c>
@@ -54615,7 +54671,7 @@
       <c r="H42" s="24">
         <v>0.62115699999999996</v>
       </c>
-      <c r="I42" s="54"/>
+      <c r="I42" s="55"/>
       <c r="K42" s="42">
         <v>10</v>
       </c>
@@ -54625,7 +54681,7 @@
       <c r="M42" s="24">
         <v>0.49194700000000002</v>
       </c>
-      <c r="N42" s="54"/>
+      <c r="N42" s="55"/>
     </row>
     <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A43" s="42">
@@ -54637,7 +54693,7 @@
       <c r="C43" s="24">
         <v>0.61127399999999998</v>
       </c>
-      <c r="D43" s="54"/>
+      <c r="D43" s="55"/>
       <c r="F43" s="42">
         <v>11</v>
       </c>
@@ -54647,7 +54703,7 @@
       <c r="H43" s="24">
         <v>0.46486100000000002</v>
       </c>
-      <c r="I43" s="54"/>
+      <c r="I43" s="55"/>
       <c r="K43" s="42">
         <v>11</v>
       </c>
@@ -54657,7 +54713,7 @@
       <c r="M43" s="24">
         <v>0.50073199999999995</v>
       </c>
-      <c r="N43" s="54"/>
+      <c r="N43" s="55"/>
     </row>
     <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A44" s="42">
@@ -54669,7 +54725,7 @@
       <c r="C44" s="24">
         <v>0.614568</v>
       </c>
-      <c r="D44" s="54"/>
+      <c r="D44" s="55"/>
       <c r="F44" s="42">
         <v>12</v>
       </c>
@@ -54679,7 +54735,7 @@
       <c r="H44" s="24">
         <v>0.612738</v>
       </c>
-      <c r="I44" s="54"/>
+      <c r="I44" s="55"/>
       <c r="K44" s="42">
         <v>12</v>
       </c>
@@ -54689,7 +54745,7 @@
       <c r="M44" s="24">
         <v>0.51390899999999995</v>
       </c>
-      <c r="N44" s="54"/>
+      <c r="N44" s="55"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="42" t="s">
@@ -54730,7 +54786,7 @@
       <c r="C61" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="D61" s="54" t="s">
+      <c r="D61" s="55" t="s">
         <v>22</v>
       </c>
       <c r="F61" s="42">
@@ -54742,8 +54798,8 @@
       <c r="H61" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="I61" s="54" t="s">
-        <v>60</v>
+      <c r="I61" s="55" t="s">
+        <v>58</v>
       </c>
       <c r="K61" s="42">
         <v>0</v>
@@ -54754,7 +54810,7 @@
       <c r="M61" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N61" s="54" t="s">
+      <c r="N61" s="55" t="s">
         <v>26</v>
       </c>
     </row>
@@ -54768,7 +54824,7 @@
       <c r="C62" s="24">
         <v>0.58748199999999995</v>
       </c>
-      <c r="D62" s="54"/>
+      <c r="D62" s="55"/>
       <c r="F62" s="42">
         <v>1</v>
       </c>
@@ -54778,7 +54834,7 @@
       <c r="H62" s="24">
         <v>0.56295799999999996</v>
       </c>
-      <c r="I62" s="54"/>
+      <c r="I62" s="55"/>
       <c r="K62" s="42">
         <v>1</v>
       </c>
@@ -54788,7 +54844,7 @@
       <c r="M62" s="24">
         <v>0.56698400000000004</v>
       </c>
-      <c r="N62" s="54"/>
+      <c r="N62" s="55"/>
     </row>
     <row r="63" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A63" s="42">
@@ -54800,7 +54856,7 @@
       <c r="C63" s="24">
         <v>0.60724699999999998</v>
       </c>
-      <c r="D63" s="54"/>
+      <c r="D63" s="55"/>
       <c r="F63" s="42">
         <v>2</v>
       </c>
@@ -54810,7 +54866,7 @@
       <c r="H63" s="24">
         <v>0.52928299999999995</v>
       </c>
-      <c r="I63" s="54"/>
+      <c r="I63" s="55"/>
       <c r="K63" s="42">
         <v>2</v>
       </c>
@@ -54820,7 +54876,7 @@
       <c r="M63" s="24">
         <v>0.57430499999999995</v>
       </c>
-      <c r="N63" s="54"/>
+      <c r="N63" s="55"/>
     </row>
     <row r="64" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A64" s="42">
@@ -54832,7 +54888,7 @@
       <c r="C64" s="24">
         <v>0.620425</v>
       </c>
-      <c r="D64" s="54"/>
+      <c r="D64" s="55"/>
       <c r="F64" s="42">
         <v>3</v>
       </c>
@@ -54842,7 +54898,7 @@
       <c r="H64" s="24">
         <v>0.54904799999999998</v>
       </c>
-      <c r="I64" s="54"/>
+      <c r="I64" s="55"/>
       <c r="K64" s="42">
         <v>3</v>
       </c>
@@ -54852,7 +54908,7 @@
       <c r="M64" s="24">
         <v>0.57979499999999995</v>
       </c>
-      <c r="N64" s="54"/>
+      <c r="N64" s="55"/>
     </row>
     <row r="65" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A65" s="42">
@@ -54864,7 +54920,7 @@
       <c r="C65" s="24">
         <v>0.60468500000000003</v>
       </c>
-      <c r="D65" s="54"/>
+      <c r="D65" s="55"/>
       <c r="F65" s="42">
         <v>4</v>
       </c>
@@ -54874,7 +54930,7 @@
       <c r="H65" s="24">
         <v>0.52964900000000004</v>
       </c>
-      <c r="I65" s="54"/>
+      <c r="I65" s="55"/>
       <c r="K65" s="42">
         <v>4</v>
       </c>
@@ -54884,7 +54940,7 @@
       <c r="M65" s="24">
         <v>0.571376</v>
       </c>
-      <c r="N65" s="54"/>
+      <c r="N65" s="55"/>
     </row>
     <row r="66" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A66" s="42">
@@ -54896,7 +54952,7 @@
       <c r="C66" s="24">
         <v>0.58199100000000004</v>
       </c>
-      <c r="D66" s="54"/>
+      <c r="D66" s="55"/>
       <c r="F66" s="42">
         <v>5</v>
       </c>
@@ -54906,7 +54962,7 @@
       <c r="H66" s="24">
         <v>0.46559299999999998</v>
       </c>
-      <c r="I66" s="54"/>
+      <c r="I66" s="55"/>
       <c r="K66" s="42">
         <v>5</v>
       </c>
@@ -54916,7 +54972,7 @@
       <c r="M66" s="24">
         <v>0.57906299999999999</v>
       </c>
-      <c r="N66" s="54"/>
+      <c r="N66" s="55"/>
     </row>
     <row r="67" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A67" s="42">
@@ -54928,7 +54984,7 @@
       <c r="C67" s="24">
         <v>0.47327999999999998</v>
       </c>
-      <c r="D67" s="54"/>
+      <c r="D67" s="55"/>
       <c r="F67" s="42">
         <v>6</v>
       </c>
@@ -54938,7 +54994,7 @@
       <c r="H67" s="24">
         <v>0.58821400000000001</v>
       </c>
-      <c r="I67" s="54"/>
+      <c r="I67" s="55"/>
       <c r="K67" s="42">
         <v>6</v>
       </c>
@@ -54948,7 +55004,7 @@
       <c r="M67" s="24">
         <v>0.57210799999999995</v>
       </c>
-      <c r="N67" s="54"/>
+      <c r="N67" s="55"/>
     </row>
     <row r="68" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A68" s="42">
@@ -54960,7 +55016,7 @@
       <c r="C68" s="24">
         <v>0.46486100000000002</v>
       </c>
-      <c r="D68" s="54"/>
+      <c r="D68" s="55"/>
       <c r="F68" s="42">
         <v>7</v>
       </c>
@@ -54970,7 +55026,7 @@
       <c r="H68" s="24">
         <v>0.58857999999999999</v>
       </c>
-      <c r="I68" s="54"/>
+      <c r="I68" s="55"/>
       <c r="K68" s="42">
         <v>7</v>
       </c>
@@ -54980,7 +55036,7 @@
       <c r="M68" s="24">
         <v>0.56625199999999998</v>
       </c>
-      <c r="N68" s="54"/>
+      <c r="N68" s="55"/>
     </row>
     <row r="69" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A69" s="42">
@@ -54992,7 +55048,7 @@
       <c r="C69" s="24">
         <v>0.51098100000000002</v>
       </c>
-      <c r="D69" s="54"/>
+      <c r="D69" s="55"/>
       <c r="F69" s="42">
         <v>8</v>
       </c>
@@ -55002,7 +55058,7 @@
       <c r="H69" s="24">
         <v>0.61420200000000003</v>
       </c>
-      <c r="I69" s="54"/>
+      <c r="I69" s="55"/>
       <c r="K69" s="42">
         <v>8</v>
       </c>
@@ -55012,7 +55068,7 @@
       <c r="M69" s="24">
         <v>0.57650100000000004</v>
       </c>
-      <c r="N69" s="54"/>
+      <c r="N69" s="55"/>
     </row>
     <row r="70" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A70" s="42">
@@ -55024,7 +55080,7 @@
       <c r="C70" s="24">
         <v>0.53623699999999996</v>
       </c>
-      <c r="D70" s="54"/>
+      <c r="D70" s="55"/>
       <c r="F70" s="42">
         <v>9</v>
       </c>
@@ -55034,7 +55090,7 @@
       <c r="H70" s="24">
         <v>0.60614900000000005</v>
       </c>
-      <c r="I70" s="54"/>
+      <c r="I70" s="55"/>
       <c r="K70" s="42">
         <v>9</v>
       </c>
@@ -55044,7 +55100,7 @@
       <c r="M70" s="24">
         <v>0.57503700000000002</v>
       </c>
-      <c r="N70" s="54"/>
+      <c r="N70" s="55"/>
     </row>
     <row r="71" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A71" s="42">
@@ -55056,7 +55112,7 @@
       <c r="C71" s="24">
         <v>0.61712999999999996</v>
       </c>
-      <c r="D71" s="54"/>
+      <c r="D71" s="55"/>
       <c r="F71" s="42">
         <v>10</v>
       </c>
@@ -55066,7 +55122,7 @@
       <c r="H71" s="24">
         <v>0.61603200000000002</v>
       </c>
-      <c r="I71" s="54"/>
+      <c r="I71" s="55"/>
       <c r="K71" s="42">
         <v>10</v>
       </c>
@@ -55076,7 +55132,7 @@
       <c r="M71" s="24">
         <v>0.57467100000000004</v>
       </c>
-      <c r="N71" s="54"/>
+      <c r="N71" s="55"/>
     </row>
     <row r="72" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A72" s="42">
@@ -55088,7 +55144,7 @@
       <c r="C72" s="24">
         <v>0.59223999999999999</v>
       </c>
-      <c r="D72" s="54"/>
+      <c r="D72" s="55"/>
       <c r="F72" s="42">
         <v>11</v>
       </c>
@@ -55098,7 +55154,7 @@
       <c r="H72" s="24">
         <v>0.59919500000000003</v>
       </c>
-      <c r="I72" s="54"/>
+      <c r="I72" s="55"/>
       <c r="K72" s="42">
         <v>11</v>
       </c>
@@ -55108,7 +55164,7 @@
       <c r="M72" s="24">
         <v>0.56625199999999998</v>
       </c>
-      <c r="N72" s="54"/>
+      <c r="N72" s="55"/>
     </row>
     <row r="73" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A73" s="42">
@@ -55120,7 +55176,7 @@
       <c r="C73" s="24">
         <v>0.63579799999999997</v>
       </c>
-      <c r="D73" s="54"/>
+      <c r="D73" s="55"/>
       <c r="F73" s="42">
         <v>12</v>
       </c>
@@ -55130,7 +55186,7 @@
       <c r="H73" s="24">
         <v>0.59260599999999997</v>
       </c>
-      <c r="I73" s="54"/>
+      <c r="I73" s="55"/>
       <c r="K73" s="42">
         <v>12</v>
       </c>
@@ -55140,7 +55196,7 @@
       <c r="M73" s="24">
         <v>0.57284000000000002</v>
       </c>
-      <c r="N73" s="54"/>
+      <c r="N73" s="55"/>
     </row>
     <row r="89" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A89" s="42" t="s">
@@ -55153,24 +55209,24 @@
         <v>32</v>
       </c>
       <c r="F89" s="48"/>
-      <c r="G89" s="55" t="s">
-        <v>47</v>
+      <c r="G89" s="50" t="s">
+        <v>45</v>
       </c>
       <c r="H89" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="I89" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="I89" s="30" t="s">
-        <v>54</v>
-      </c>
       <c r="L89" s="48"/>
-      <c r="M89" s="55" t="s">
-        <v>47</v>
+      <c r="M89" s="50" t="s">
+        <v>45</v>
       </c>
       <c r="N89" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="O89" s="30" t="s">
         <v>52</v>
-      </c>
-      <c r="O89" s="30" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="16" x14ac:dyDescent="0.25">
@@ -55183,7 +55239,7 @@
       <c r="C90" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="D90" s="54" t="s">
+      <c r="D90" s="55" t="s">
         <v>27</v>
       </c>
       <c r="F90" s="48">
@@ -55198,7 +55254,7 @@
       <c r="I90" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="J90" s="54" t="s">
+      <c r="J90" s="55" t="s">
         <v>31</v>
       </c>
       <c r="L90" s="48">
@@ -55213,7 +55269,7 @@
       <c r="O90" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="P90" s="54" t="s">
+      <c r="P90" s="55" t="s">
         <v>32</v>
       </c>
     </row>
@@ -55227,7 +55283,7 @@
       <c r="C91" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="D91" s="54"/>
+      <c r="D91" s="55"/>
       <c r="F91" s="48">
         <v>1</v>
       </c>
@@ -55240,7 +55296,7 @@
       <c r="I91" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="J91" s="54"/>
+      <c r="J91" s="55"/>
       <c r="L91" s="48">
         <v>1</v>
       </c>
@@ -55253,7 +55309,7 @@
       <c r="O91" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="P91" s="54"/>
+      <c r="P91" s="55"/>
     </row>
     <row r="92" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A92" s="42">
@@ -55265,7 +55321,7 @@
       <c r="C92" s="24">
         <v>0.56698400000000004</v>
       </c>
-      <c r="D92" s="54"/>
+      <c r="D92" s="55"/>
       <c r="F92" s="48">
         <v>2</v>
       </c>
@@ -55278,7 +55334,7 @@
       <c r="I92" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="J92" s="54"/>
+      <c r="J92" s="55"/>
       <c r="L92" s="48">
         <v>2</v>
       </c>
@@ -55291,7 +55347,7 @@
       <c r="O92" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="P92" s="54"/>
+      <c r="P92" s="55"/>
     </row>
     <row r="93" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A93" s="42">
@@ -55303,7 +55359,7 @@
       <c r="C93" s="24">
         <v>0.565886</v>
       </c>
-      <c r="D93" s="54"/>
+      <c r="D93" s="55"/>
       <c r="F93" s="48">
         <v>3</v>
       </c>
@@ -55316,7 +55372,7 @@
       <c r="I93" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="J93" s="54"/>
+      <c r="J93" s="55"/>
       <c r="L93" s="48">
         <v>3</v>
       </c>
@@ -55329,7 +55385,7 @@
       <c r="O93" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="P93" s="54"/>
+      <c r="P93" s="55"/>
     </row>
     <row r="94" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A94" s="42">
@@ -55341,7 +55397,7 @@
       <c r="C94" s="24">
         <v>0.569546</v>
       </c>
-      <c r="D94" s="54"/>
+      <c r="D94" s="55"/>
       <c r="F94" s="48">
         <v>4</v>
       </c>
@@ -55354,7 +55410,7 @@
       <c r="I94" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="J94" s="54"/>
+      <c r="J94" s="55"/>
       <c r="L94" s="48">
         <v>4</v>
       </c>
@@ -55367,7 +55423,7 @@
       <c r="O94" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="P94" s="54"/>
+      <c r="P94" s="55"/>
     </row>
     <row r="95" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A95" s="42">
@@ -55379,7 +55435,7 @@
       <c r="C95" s="24">
         <v>0.57284000000000002</v>
       </c>
-      <c r="D95" s="54"/>
+      <c r="D95" s="55"/>
       <c r="F95" s="48">
         <v>5</v>
       </c>
@@ -55392,7 +55448,7 @@
       <c r="I95" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="J95" s="54"/>
+      <c r="J95" s="55"/>
       <c r="L95" s="48">
         <v>5</v>
       </c>
@@ -55405,7 +55461,7 @@
       <c r="O95" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="P95" s="54"/>
+      <c r="P95" s="55"/>
     </row>
     <row r="96" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A96" s="42">
@@ -55417,7 +55473,7 @@
       <c r="C96" s="24">
         <v>0.51281100000000002</v>
       </c>
-      <c r="D96" s="54"/>
+      <c r="D96" s="55"/>
       <c r="F96" s="48">
         <v>6</v>
       </c>
@@ -55430,7 +55486,7 @@
       <c r="I96" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="J96" s="54"/>
+      <c r="J96" s="55"/>
       <c r="L96" s="48">
         <v>6</v>
       </c>
@@ -55443,7 +55499,7 @@
       <c r="O96" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="P96" s="54"/>
+      <c r="P96" s="55"/>
     </row>
     <row r="97" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A97" s="42">
@@ -55455,7 +55511,7 @@
       <c r="C97" s="24">
         <v>0.51207899999999995</v>
       </c>
-      <c r="D97" s="54"/>
+      <c r="D97" s="55"/>
       <c r="F97" s="48">
         <v>7</v>
       </c>
@@ -55468,7 +55524,7 @@
       <c r="I97" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="J97" s="54"/>
+      <c r="J97" s="55"/>
       <c r="L97" s="48">
         <v>7</v>
       </c>
@@ -55481,7 +55537,7 @@
       <c r="O97" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="P97" s="54"/>
+      <c r="P97" s="55"/>
     </row>
     <row r="98" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A98" s="42">
@@ -55493,7 +55549,7 @@
       <c r="C98" s="24">
         <v>0.52562200000000003</v>
       </c>
-      <c r="D98" s="54"/>
+      <c r="D98" s="55"/>
       <c r="F98" s="48">
         <v>8</v>
       </c>
@@ -55506,7 +55562,7 @@
       <c r="I98" s="24">
         <v>0.58089299999999999</v>
       </c>
-      <c r="J98" s="54"/>
+      <c r="J98" s="55"/>
       <c r="L98" s="48">
         <v>8</v>
       </c>
@@ -55519,7 +55575,7 @@
       <c r="O98" s="24">
         <v>0.57906299999999999</v>
       </c>
-      <c r="P98" s="54"/>
+      <c r="P98" s="55"/>
     </row>
     <row r="99" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A99" s="42">
@@ -55531,7 +55587,7 @@
       <c r="C99" s="24">
         <v>0.488653</v>
       </c>
-      <c r="D99" s="54"/>
+      <c r="D99" s="55"/>
       <c r="F99" s="48">
         <v>9</v>
       </c>
@@ -55544,7 +55600,7 @@
       <c r="I99" s="24">
         <v>0.59077599999999997</v>
       </c>
-      <c r="J99" s="54"/>
+      <c r="J99" s="55"/>
       <c r="L99" s="48">
         <v>9</v>
       </c>
@@ -55557,7 +55613,7 @@
       <c r="O99" s="24">
         <v>0.58491899999999997</v>
       </c>
-      <c r="P99" s="54"/>
+      <c r="P99" s="55"/>
     </row>
     <row r="100" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A100" s="42">
@@ -55569,7 +55625,7 @@
       <c r="C100" s="24">
         <v>0.48243000000000003</v>
       </c>
-      <c r="D100" s="54"/>
+      <c r="D100" s="55"/>
       <c r="F100" s="48">
         <v>10</v>
       </c>
@@ -55582,7 +55638,7 @@
       <c r="I100" s="24">
         <v>0.60505100000000001</v>
       </c>
-      <c r="J100" s="54"/>
+      <c r="J100" s="55"/>
       <c r="L100" s="48">
         <v>10</v>
       </c>
@@ -55595,7 +55651,7 @@
       <c r="O100" s="24">
         <v>0.59553400000000001</v>
       </c>
-      <c r="P100" s="54"/>
+      <c r="P100" s="55"/>
     </row>
     <row r="101" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A101" s="42">
@@ -55607,7 +55663,7 @@
       <c r="C101" s="24">
         <v>0.48169800000000002</v>
       </c>
-      <c r="D101" s="54"/>
+      <c r="D101" s="55"/>
       <c r="F101" s="48">
         <v>11</v>
       </c>
@@ -55620,7 +55676,7 @@
       <c r="I101" s="24">
         <v>0.64787700000000004</v>
       </c>
-      <c r="J101" s="54"/>
+      <c r="J101" s="55"/>
       <c r="L101" s="48">
         <v>11</v>
       </c>
@@ -55633,7 +55689,7 @@
       <c r="O101" s="24">
         <v>0.64055600000000001</v>
       </c>
-      <c r="P101" s="54"/>
+      <c r="P101" s="55"/>
     </row>
     <row r="102" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A102" s="42">
@@ -55645,7 +55701,7 @@
       <c r="C102" s="24">
         <v>0.48389500000000002</v>
       </c>
-      <c r="D102" s="54"/>
+      <c r="D102" s="55"/>
       <c r="F102" s="48">
         <v>12</v>
       </c>
@@ -55658,7 +55714,7 @@
       <c r="I102" s="24">
         <v>0.65739400000000003</v>
       </c>
-      <c r="J102" s="54"/>
+      <c r="J102" s="55"/>
       <c r="L102" s="48">
         <v>12</v>
       </c>
@@ -55671,22 +55727,22 @@
       <c r="O102" s="24">
         <v>0.66800899999999996</v>
       </c>
-      <c r="P102" s="54"/>
+      <c r="P102" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D2:D14"/>
+    <mergeCell ref="I2:I14"/>
+    <mergeCell ref="N2:N14"/>
+    <mergeCell ref="D32:D44"/>
+    <mergeCell ref="I32:I44"/>
+    <mergeCell ref="N32:N44"/>
     <mergeCell ref="J90:J102"/>
     <mergeCell ref="P90:P102"/>
     <mergeCell ref="D61:D73"/>
     <mergeCell ref="I61:I73"/>
     <mergeCell ref="N61:N73"/>
     <mergeCell ref="D90:D102"/>
-    <mergeCell ref="D2:D14"/>
-    <mergeCell ref="I2:I14"/>
-    <mergeCell ref="N2:N14"/>
-    <mergeCell ref="D32:D44"/>
-    <mergeCell ref="I32:I44"/>
-    <mergeCell ref="N32:N44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/POS Code/Experiments/attachments/detailed_results.xlsx
+++ b/POS Code/Experiments/attachments/detailed_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B207693B-DE73-5E40-80AC-7DB1F4BE8AEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756CD046-2112-0C4B-A55E-21BD2060D248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" activeTab="4" xr2:uid="{BEC22610-DBDE-49A5-ABDC-7DB261D6BA7F}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="60">
   <si>
     <t>Selection</t>
   </si>
@@ -358,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -503,6 +503,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -32158,7 +32161,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -32202,7 +32205,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="53"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -32244,7 +32247,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -32288,7 +32291,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
@@ -32330,7 +32333,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -32374,7 +32377,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -32416,7 +32419,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="26" t="s">
         <v>41</v>
       </c>
@@ -32470,7 +32473,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
@@ -32524,7 +32527,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -32568,7 +32571,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="52"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -32610,7 +32613,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="26" t="s">
         <v>41</v>
       </c>
@@ -32664,7 +32667,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
@@ -32718,7 +32721,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="52" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -32762,7 +32765,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -32804,7 +32807,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -32846,7 +32849,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="26" t="s">
         <v>41</v>
       </c>
@@ -32900,7 +32903,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="53"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
@@ -32954,7 +32957,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="55" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -32998,7 +33001,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
@@ -33040,7 +33043,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
@@ -33082,7 +33085,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
@@ -33124,7 +33127,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="52"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="26" t="s">
         <v>41</v>
       </c>
@@ -33178,7 +33181,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="4" t="s">
         <v>7</v>
       </c>
@@ -33232,7 +33235,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="52" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -33276,7 +33279,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="52"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
@@ -33318,7 +33321,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="52"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
@@ -33360,7 +33363,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="52"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
@@ -33402,7 +33405,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="52"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
@@ -33444,7 +33447,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="52"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="26" t="s">
         <v>41</v>
       </c>
@@ -33498,7 +33501,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="53"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="4" t="s">
         <v>7</v>
       </c>
@@ -33627,7 +33630,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -33665,7 +33668,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="53"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -33701,7 +33704,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -33739,7 +33742,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="52"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="25" t="s">
         <v>5</v>
       </c>
@@ -33775,7 +33778,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="25" t="s">
         <v>41</v>
       </c>
@@ -33821,7 +33824,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="53"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -33867,7 +33870,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="52" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -33905,7 +33908,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="25" t="s">
         <v>4</v>
       </c>
@@ -33941,7 +33944,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="25" t="s">
         <v>5</v>
       </c>
@@ -33977,7 +33980,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="52"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="25" t="s">
         <v>41</v>
       </c>
@@ -34023,7 +34026,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -34069,7 +34072,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="55" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -34107,7 +34110,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="25" t="s">
         <v>12</v>
       </c>
@@ -34143,7 +34146,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="25" t="s">
         <v>4</v>
       </c>
@@ -34185,7 +34188,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="25" t="s">
         <v>5</v>
       </c>
@@ -34221,7 +34224,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="25" t="s">
         <v>41</v>
       </c>
@@ -34267,7 +34270,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="53"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
@@ -34313,7 +34316,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="52" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -34351,7 +34354,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="25" t="s">
         <v>13</v>
       </c>
@@ -34387,7 +34390,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="25" t="s">
         <v>9</v>
       </c>
@@ -34423,7 +34426,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="25" t="s">
         <v>4</v>
       </c>
@@ -34459,7 +34462,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="52"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="25" t="s">
         <v>5</v>
       </c>
@@ -34495,7 +34498,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="25" t="s">
         <v>41</v>
       </c>
@@ -34541,7 +34544,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="53"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
@@ -34636,7 +34639,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -34662,7 +34665,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="53"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -34686,7 +34689,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -34712,7 +34715,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="52"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="28" t="s">
         <v>54</v>
       </c>
@@ -34736,7 +34739,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="28" t="s">
         <v>41</v>
       </c>
@@ -34766,7 +34769,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="53"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -34796,7 +34799,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="52" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -34822,7 +34825,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="28" t="s">
         <v>4</v>
       </c>
@@ -34846,7 +34849,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="28" t="s">
         <v>54</v>
       </c>
@@ -34870,7 +34873,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="52"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="28" t="s">
         <v>41</v>
       </c>
@@ -34900,7 +34903,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -34930,7 +34933,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="55" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -34956,7 +34959,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="28" t="s">
         <v>12</v>
       </c>
@@ -34980,7 +34983,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="28" t="s">
         <v>4</v>
       </c>
@@ -35010,7 +35013,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="28" t="s">
         <v>54</v>
       </c>
@@ -35034,7 +35037,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="28" t="s">
         <v>41</v>
       </c>
@@ -35064,7 +35067,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="53"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
@@ -35094,7 +35097,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="52" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -35120,7 +35123,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="28" t="s">
         <v>13</v>
       </c>
@@ -35144,7 +35147,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="28" t="s">
         <v>9</v>
       </c>
@@ -35168,7 +35171,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="28" t="s">
         <v>4</v>
       </c>
@@ -35192,7 +35195,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="52"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="28" t="s">
         <v>54</v>
       </c>
@@ -35216,7 +35219,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="28" t="s">
         <v>41</v>
       </c>
@@ -35246,7 +35249,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="53"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
@@ -35325,7 +35328,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -35351,7 +35354,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="53"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -35375,7 +35378,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -35401,7 +35404,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="52"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="45" t="s">
         <v>5</v>
       </c>
@@ -35425,7 +35428,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="45" t="s">
         <v>41</v>
       </c>
@@ -35455,7 +35458,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="53"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -35485,7 +35488,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="52" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -35511,7 +35514,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="45" t="s">
         <v>4</v>
       </c>
@@ -35535,7 +35538,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="45" t="s">
         <v>5</v>
       </c>
@@ -35559,7 +35562,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="52"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="45" t="s">
         <v>41</v>
       </c>
@@ -35589,7 +35592,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -35619,7 +35622,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="55" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -35645,7 +35648,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="45" t="s">
         <v>12</v>
       </c>
@@ -35669,7 +35672,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="45" t="s">
         <v>4</v>
       </c>
@@ -35699,7 +35702,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="45" t="s">
         <v>5</v>
       </c>
@@ -35723,7 +35726,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="45" t="s">
         <v>41</v>
       </c>
@@ -35753,7 +35756,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="53"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
@@ -35783,7 +35786,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="52" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -35809,7 +35812,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="45" t="s">
         <v>13</v>
       </c>
@@ -35833,7 +35836,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="45" t="s">
         <v>9</v>
       </c>
@@ -35857,7 +35860,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="45" t="s">
         <v>4</v>
       </c>
@@ -35881,7 +35884,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="52"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="45" t="s">
         <v>5</v>
       </c>
@@ -35905,7 +35908,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="45" t="s">
         <v>41</v>
       </c>
@@ -35935,7 +35938,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="53"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
@@ -35978,10 +35981,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F291A794-F81B-A94A-B246-9FC1326ED183}">
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:N141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="N134" sqref="N134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -36024,37 +36027,37 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="56">
+      <c r="B2" s="57">
         <v>0.89589041095890398</v>
       </c>
-      <c r="C2" s="56">
+      <c r="C2" s="57">
         <v>0.88835616438356102</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="56" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="56">
+      <c r="G2" s="57">
         <v>0.83698630136986296</v>
       </c>
-      <c r="H2" s="56">
+      <c r="H2" s="57">
         <v>0.83698630136986296</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="56" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="56">
+      <c r="L2" s="57">
         <v>0.88424657534246498</v>
       </c>
-      <c r="M2" s="56">
+      <c r="M2" s="57">
         <v>0.908904109589041</v>
       </c>
-      <c r="N2" s="55" t="s">
+      <c r="N2" s="56" t="s">
         <v>19</v>
       </c>
     </row>
@@ -36062,215 +36065,215 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="56">
+      <c r="B3" s="57">
         <v>0.87328767123287598</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="57">
         <v>0.87602739726027401</v>
       </c>
-      <c r="D3" s="55"/>
+      <c r="D3" s="56"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="56">
+      <c r="G3" s="57">
         <v>0.93561643835616404</v>
       </c>
-      <c r="H3" s="56">
+      <c r="H3" s="57">
         <v>0.93356164383561602</v>
       </c>
-      <c r="I3" s="55"/>
+      <c r="I3" s="56"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="L3" s="56">
+      <c r="L3" s="57">
         <v>0.89863013698630101</v>
       </c>
-      <c r="M3" s="56">
+      <c r="M3" s="57">
         <v>0.89931506849315002</v>
       </c>
-      <c r="N3" s="55"/>
+      <c r="N3" s="56"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="57">
         <v>0.88698630136986301</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="57">
         <v>0.86643835616438303</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="56"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="56">
+      <c r="G4" s="57">
         <v>0.98424657534246496</v>
       </c>
-      <c r="H4" s="56">
+      <c r="H4" s="57">
         <v>0.98013698630136903</v>
       </c>
-      <c r="I4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
-      <c r="L4" s="56">
+      <c r="L4" s="57">
         <v>0.90410958904109495</v>
       </c>
-      <c r="M4" s="56">
+      <c r="M4" s="57">
         <v>0.90410958904109495</v>
       </c>
-      <c r="N4" s="55"/>
+      <c r="N4" s="56"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="56">
+      <c r="B5" s="57">
         <v>0.95068493150684896</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="57">
         <v>0.93424657534246502</v>
       </c>
-      <c r="D5" s="55"/>
+      <c r="D5" s="56"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="56">
+      <c r="G5" s="57">
         <v>0.90068493150684903</v>
       </c>
-      <c r="H5" s="56">
+      <c r="H5" s="57">
         <v>0.97876712328767101</v>
       </c>
-      <c r="I5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
-      <c r="L5" s="56">
+      <c r="L5" s="57">
         <v>0.91369863013698605</v>
       </c>
-      <c r="M5" s="56">
+      <c r="M5" s="57">
         <v>0.90547945205479397</v>
       </c>
-      <c r="N5" s="55"/>
+      <c r="N5" s="56"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="56">
+      <c r="B6" s="57">
         <v>0.95205479452054798</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="57">
         <v>0.96506849315068399</v>
       </c>
-      <c r="D6" s="55"/>
+      <c r="D6" s="56"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="56">
+      <c r="G6" s="57">
         <v>0.96095890410958895</v>
       </c>
-      <c r="H6" s="56">
+      <c r="H6" s="57">
         <v>0.98493150684931496</v>
       </c>
-      <c r="I6" s="55"/>
+      <c r="I6" s="56"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
-      <c r="L6" s="56">
+      <c r="L6" s="57">
         <v>0.93013698630136898</v>
       </c>
-      <c r="M6" s="56">
+      <c r="M6" s="57">
         <v>0.90547945205479397</v>
       </c>
-      <c r="N6" s="55"/>
+      <c r="N6" s="56"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="56">
+      <c r="B7" s="57">
         <v>0.95616438356164302</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="57">
         <v>0.96095890410958895</v>
       </c>
-      <c r="D7" s="55"/>
+      <c r="D7" s="56"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
-      <c r="G7" s="56">
+      <c r="G7" s="57">
         <v>0.95958904109589005</v>
       </c>
-      <c r="H7" s="56">
+      <c r="H7" s="57">
         <v>0.98630136986301298</v>
       </c>
-      <c r="I7" s="55"/>
+      <c r="I7" s="56"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
-      <c r="L7" s="56">
+      <c r="L7" s="57">
         <v>0.92739726027397196</v>
       </c>
-      <c r="M7" s="56">
+      <c r="M7" s="57">
         <v>0.90342465753424595</v>
       </c>
-      <c r="N7" s="55"/>
+      <c r="N7" s="56"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="56">
+      <c r="B8" s="57">
         <v>0.965753424657534</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="57">
         <v>0.95958904109589005</v>
       </c>
-      <c r="D8" s="55"/>
+      <c r="D8" s="56"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
-      <c r="G8" s="56">
+      <c r="G8" s="57">
         <v>0.95068493150684896</v>
       </c>
-      <c r="H8" s="56">
+      <c r="H8" s="57">
         <v>0.98356164383561595</v>
       </c>
-      <c r="I8" s="55"/>
+      <c r="I8" s="56"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
-      <c r="L8" s="56">
+      <c r="L8" s="57">
         <v>0.91164383561643803</v>
       </c>
-      <c r="M8" s="56">
+      <c r="M8" s="57">
         <v>0.90684931506849298</v>
       </c>
-      <c r="N8" s="55"/>
+      <c r="N8" s="56"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="56">
+      <c r="B9" s="57">
         <v>0.965753424657534</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="57">
         <v>0.97671232876712299</v>
       </c>
-      <c r="D9" s="55"/>
+      <c r="D9" s="56"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="57">
         <v>0.94863013698630105</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H9" s="57">
         <v>0.98561643835616397</v>
       </c>
-      <c r="I9" s="55"/>
+      <c r="I9" s="56"/>
       <c r="K9" s="1"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
@@ -36280,23 +36283,23 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="56">
+      <c r="B10" s="57">
         <v>0.96712328767123201</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="57">
         <v>0.96506849315068399</v>
       </c>
-      <c r="D10" s="55"/>
+      <c r="D10" s="56"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
-      <c r="G10" s="56">
+      <c r="G10" s="57">
         <v>0.92465753424657504</v>
       </c>
-      <c r="H10" s="56">
+      <c r="H10" s="57">
         <v>0.98424657534246496</v>
       </c>
-      <c r="I10" s="55"/>
+      <c r="I10" s="56"/>
       <c r="K10" s="1"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
@@ -36306,23 +36309,23 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="56">
+      <c r="B11" s="57">
         <v>0.96643835616438301</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="57">
         <v>0.97397260273972597</v>
       </c>
-      <c r="D11" s="55"/>
+      <c r="D11" s="56"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
-      <c r="G11" s="56">
+      <c r="G11" s="57">
         <v>0.943150684931506</v>
       </c>
-      <c r="H11" s="56">
+      <c r="H11" s="57">
         <v>0.98013698630136903</v>
       </c>
-      <c r="I11" s="55"/>
+      <c r="I11" s="56"/>
       <c r="K11" s="1"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
@@ -36332,23 +36335,23 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="56">
+      <c r="B12" s="57">
         <v>0.96232876712328697</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C12" s="57">
         <v>0.96849315068493103</v>
       </c>
-      <c r="D12" s="55"/>
+      <c r="D12" s="56"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
-      <c r="G12" s="56">
+      <c r="G12" s="57">
         <v>0.94246575342465699</v>
       </c>
-      <c r="H12" s="56">
+      <c r="H12" s="57">
         <v>0.96027397260273895</v>
       </c>
-      <c r="I12" s="55"/>
+      <c r="I12" s="56"/>
       <c r="K12" s="1"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
@@ -36358,23 +36361,23 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="56">
+      <c r="B13" s="57">
         <v>0.96301369863013697</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="57">
         <v>0.96849315068493103</v>
       </c>
-      <c r="D13" s="55"/>
+      <c r="D13" s="56"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
-      <c r="G13" s="56">
+      <c r="G13" s="57">
         <v>0.94383561643835601</v>
       </c>
-      <c r="H13" s="56">
+      <c r="H13" s="57">
         <v>0.94931506849314995</v>
       </c>
-      <c r="I13" s="55"/>
+      <c r="I13" s="56"/>
       <c r="K13" s="1"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
@@ -36384,23 +36387,23 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="56">
+      <c r="B14" s="57">
         <v>0.954794520547945</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="57">
         <v>0.96986301369863004</v>
       </c>
-      <c r="D14" s="55"/>
+      <c r="D14" s="56"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
-      <c r="G14" s="56">
+      <c r="G14" s="57">
         <v>0.94178082191780799</v>
       </c>
-      <c r="H14" s="56">
+      <c r="H14" s="57">
         <v>0.95068493150684896</v>
       </c>
-      <c r="I14" s="55"/>
+      <c r="I14" s="56"/>
       <c r="K14" s="1"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
@@ -36439,37 +36442,37 @@
       <c r="A34" s="1">
         <v>0</v>
       </c>
-      <c r="B34" s="56">
+      <c r="B34" s="57">
         <v>0.87945205479452004</v>
       </c>
-      <c r="C34" s="56">
+      <c r="C34" s="57">
         <v>0.90068493150684903</v>
       </c>
-      <c r="D34" s="55" t="s">
+      <c r="D34" s="56" t="s">
         <v>20</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
       </c>
-      <c r="G34" s="56">
+      <c r="G34" s="57">
         <v>0.85068493150684898</v>
       </c>
-      <c r="H34" s="56">
+      <c r="H34" s="57">
         <v>0.90479452054794496</v>
       </c>
-      <c r="I34" s="55" t="s">
+      <c r="I34" s="56" t="s">
         <v>21</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
       </c>
-      <c r="L34" s="56">
+      <c r="L34" s="57">
         <v>0.96506849315068399</v>
       </c>
-      <c r="M34" s="56">
+      <c r="M34" s="57">
         <v>0.97123287671232805</v>
       </c>
-      <c r="N34" s="55" t="s">
+      <c r="N34" s="56" t="s">
         <v>22</v>
       </c>
     </row>
@@ -36477,385 +36480,385 @@
       <c r="A35" s="1">
         <v>1</v>
       </c>
-      <c r="B35" s="56">
+      <c r="B35" s="57">
         <v>0.89863013698630101</v>
       </c>
-      <c r="C35" s="56">
+      <c r="C35" s="57">
         <v>0.90547945205479397</v>
       </c>
-      <c r="D35" s="55"/>
+      <c r="D35" s="56"/>
       <c r="F35" s="1">
         <v>1</v>
       </c>
-      <c r="G35" s="56">
+      <c r="G35" s="57">
         <v>0.81986301369863002</v>
       </c>
-      <c r="H35" s="56">
+      <c r="H35" s="57">
         <v>0.90410958904109495</v>
       </c>
-      <c r="I35" s="55"/>
+      <c r="I35" s="56"/>
       <c r="K35" s="1">
         <v>1</v>
       </c>
-      <c r="L35" s="56">
+      <c r="L35" s="57">
         <v>0.92739726027397196</v>
       </c>
-      <c r="M35" s="56">
+      <c r="M35" s="57">
         <v>0.98287671232876705</v>
       </c>
-      <c r="N35" s="55"/>
+      <c r="N35" s="56"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2</v>
       </c>
-      <c r="B36" s="56">
+      <c r="B36" s="57">
         <v>0.90342465753424595</v>
       </c>
-      <c r="C36" s="56">
+      <c r="C36" s="57">
         <v>0.89383561643835596</v>
       </c>
-      <c r="D36" s="55"/>
+      <c r="D36" s="56"/>
       <c r="F36" s="1">
         <v>2</v>
       </c>
-      <c r="G36" s="56">
+      <c r="G36" s="57">
         <v>0.90753424657534199</v>
       </c>
-      <c r="H36" s="56">
+      <c r="H36" s="57">
         <v>0.90479452054794496</v>
       </c>
-      <c r="I36" s="55"/>
+      <c r="I36" s="56"/>
       <c r="K36" s="1">
         <v>2</v>
       </c>
-      <c r="L36" s="56">
+      <c r="L36" s="57">
         <v>0.91232876712328703</v>
       </c>
-      <c r="M36" s="56">
+      <c r="M36" s="57">
         <v>0.977397260273972</v>
       </c>
-      <c r="N36" s="55"/>
+      <c r="N36" s="56"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>3</v>
       </c>
-      <c r="B37" s="56">
+      <c r="B37" s="57">
         <v>0.90068493150684903</v>
       </c>
-      <c r="C37" s="56">
+      <c r="C37" s="57">
         <v>0.90547945205479397</v>
       </c>
-      <c r="D37" s="55"/>
+      <c r="D37" s="56"/>
       <c r="F37" s="1">
         <v>3</v>
       </c>
-      <c r="G37" s="56">
+      <c r="G37" s="57">
         <v>0.90958904109589001</v>
       </c>
-      <c r="H37" s="56">
+      <c r="H37" s="57">
         <v>0.89931506849315002</v>
       </c>
-      <c r="I37" s="55"/>
+      <c r="I37" s="56"/>
       <c r="K37" s="1">
         <v>3</v>
       </c>
-      <c r="L37" s="56">
+      <c r="L37" s="57">
         <v>0.91164383561643803</v>
       </c>
-      <c r="M37" s="56">
+      <c r="M37" s="57">
         <v>0.96986301369863004</v>
       </c>
-      <c r="N37" s="55"/>
+      <c r="N37" s="56"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>4</v>
       </c>
-      <c r="B38" s="56">
+      <c r="B38" s="57">
         <v>0.908904109589041</v>
       </c>
-      <c r="C38" s="56">
+      <c r="C38" s="57">
         <v>0.90547945205479397</v>
       </c>
-      <c r="D38" s="55"/>
+      <c r="D38" s="56"/>
       <c r="F38" s="1">
         <v>4</v>
       </c>
-      <c r="G38" s="56">
+      <c r="G38" s="57">
         <v>0.91506849315068495</v>
       </c>
-      <c r="H38" s="56">
+      <c r="H38" s="57">
         <v>0.89383561643835596</v>
       </c>
-      <c r="I38" s="55"/>
+      <c r="I38" s="56"/>
       <c r="K38" s="1">
         <v>4</v>
       </c>
-      <c r="L38" s="56">
+      <c r="L38" s="57">
         <v>0.95684931506849302</v>
       </c>
-      <c r="M38" s="56">
+      <c r="M38" s="57">
         <v>0.96986301369863004</v>
       </c>
-      <c r="N38" s="55"/>
+      <c r="N38" s="56"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>5</v>
       </c>
-      <c r="B39" s="56">
+      <c r="B39" s="57">
         <v>0.90479452054794496</v>
       </c>
-      <c r="C39" s="56">
+      <c r="C39" s="57">
         <v>0.89452054794520497</v>
       </c>
-      <c r="D39" s="55"/>
+      <c r="D39" s="56"/>
       <c r="F39" s="1">
         <v>5</v>
       </c>
-      <c r="G39" s="56">
+      <c r="G39" s="57">
         <v>0.91438356164383505</v>
       </c>
-      <c r="H39" s="56">
+      <c r="H39" s="57">
         <v>0.89041095890410904</v>
       </c>
-      <c r="I39" s="55"/>
+      <c r="I39" s="56"/>
       <c r="K39" s="1">
         <v>5</v>
       </c>
-      <c r="L39" s="56">
+      <c r="L39" s="57">
         <v>0.95136986301369797</v>
       </c>
-      <c r="M39" s="56">
+      <c r="M39" s="57">
         <v>0.97123287671232805</v>
       </c>
-      <c r="N39" s="55"/>
+      <c r="N39" s="56"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>6</v>
       </c>
-      <c r="B40" s="56">
+      <c r="B40" s="57">
         <v>0.90547945205479397</v>
       </c>
-      <c r="C40" s="56">
+      <c r="C40" s="57">
         <v>0.88972602739726003</v>
       </c>
-      <c r="D40" s="55"/>
+      <c r="D40" s="56"/>
       <c r="F40" s="1">
         <v>6</v>
       </c>
-      <c r="G40" s="56">
+      <c r="G40" s="57">
         <v>0.91027397260273901</v>
       </c>
-      <c r="H40" s="56">
+      <c r="H40" s="57">
         <v>0.897945205479452</v>
       </c>
-      <c r="I40" s="55"/>
+      <c r="I40" s="56"/>
       <c r="K40" s="1">
         <v>6</v>
       </c>
-      <c r="L40" s="56">
+      <c r="L40" s="57">
         <v>0.96369863013698598</v>
       </c>
-      <c r="M40" s="56">
+      <c r="M40" s="57">
         <v>0.97054794520547905</v>
       </c>
-      <c r="N40" s="55"/>
+      <c r="N40" s="56"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>7</v>
       </c>
-      <c r="B41" s="56">
+      <c r="B41" s="57">
         <v>0.90479452054794496</v>
       </c>
-      <c r="C41" s="56">
+      <c r="C41" s="57">
         <v>0.9</v>
       </c>
-      <c r="D41" s="55"/>
+      <c r="D41" s="56"/>
       <c r="F41" s="1">
         <v>7</v>
       </c>
-      <c r="G41" s="56">
+      <c r="G41" s="57">
         <v>0.91506849315068495</v>
       </c>
-      <c r="H41" s="56">
+      <c r="H41" s="57">
         <v>0.88904109589041003</v>
       </c>
-      <c r="I41" s="55"/>
+      <c r="I41" s="56"/>
       <c r="K41" s="1">
         <v>7</v>
       </c>
-      <c r="L41" s="56">
+      <c r="L41" s="57">
         <v>0.96232876712328697</v>
       </c>
-      <c r="M41" s="56">
+      <c r="M41" s="57">
         <v>0.96917808219178003</v>
       </c>
-      <c r="N41" s="55"/>
+      <c r="N41" s="56"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>8</v>
       </c>
-      <c r="B42" s="56">
+      <c r="B42" s="57">
         <v>0.90547945205479397</v>
       </c>
-      <c r="C42" s="56">
+      <c r="C42" s="57">
         <v>0.89246575342465695</v>
       </c>
-      <c r="D42" s="55"/>
+      <c r="D42" s="56"/>
       <c r="F42" s="1">
         <v>8</v>
       </c>
-      <c r="G42" s="56">
+      <c r="G42" s="57">
         <v>0.91369863013698605</v>
       </c>
-      <c r="H42" s="56">
+      <c r="H42" s="57">
         <v>0.86438356164383501</v>
       </c>
-      <c r="I42" s="55"/>
+      <c r="I42" s="56"/>
       <c r="K42" s="1">
         <v>8</v>
       </c>
-      <c r="L42" s="56">
+      <c r="L42" s="57">
         <v>0.96369863013698598</v>
       </c>
-      <c r="M42" s="56">
+      <c r="M42" s="57">
         <v>0.97397260273972597</v>
       </c>
-      <c r="N42" s="55"/>
+      <c r="N42" s="56"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>9</v>
       </c>
-      <c r="B43" s="56">
+      <c r="B43" s="57">
         <v>0.91369863013698605</v>
       </c>
-      <c r="C43" s="56">
+      <c r="C43" s="57">
         <v>0.89246575342465695</v>
       </c>
-      <c r="D43" s="55"/>
+      <c r="D43" s="56"/>
       <c r="F43" s="1">
         <v>9</v>
       </c>
-      <c r="G43" s="56">
+      <c r="G43" s="57">
         <v>0.91575342465753395</v>
       </c>
-      <c r="H43" s="56">
+      <c r="H43" s="57">
         <v>0.897260273972602</v>
       </c>
-      <c r="I43" s="55"/>
+      <c r="I43" s="56"/>
       <c r="K43" s="1">
         <v>9</v>
       </c>
-      <c r="L43" s="56">
+      <c r="L43" s="57">
         <v>0.97671232876712299</v>
       </c>
-      <c r="M43" s="56">
+      <c r="M43" s="57">
         <v>0.98424657534246496</v>
       </c>
-      <c r="N43" s="55"/>
+      <c r="N43" s="56"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>10</v>
       </c>
-      <c r="B44" s="56">
+      <c r="B44" s="57">
         <v>0.91849315068493098</v>
       </c>
-      <c r="C44" s="56">
+      <c r="C44" s="57">
         <v>0.90068493150684903</v>
       </c>
-      <c r="D44" s="55"/>
+      <c r="D44" s="56"/>
       <c r="F44" s="1">
         <v>10</v>
       </c>
-      <c r="G44" s="56">
+      <c r="G44" s="57">
         <v>0.91643835616438296</v>
       </c>
-      <c r="H44" s="56">
+      <c r="H44" s="57">
         <v>0.87876712328767104</v>
       </c>
-      <c r="I44" s="55"/>
+      <c r="I44" s="56"/>
       <c r="K44" s="1">
         <v>10</v>
       </c>
-      <c r="L44" s="56">
+      <c r="L44" s="57">
         <v>0.97602739726027399</v>
       </c>
-      <c r="M44" s="56">
+      <c r="M44" s="57">
         <v>0.92191780821917801</v>
       </c>
-      <c r="N44" s="55"/>
+      <c r="N44" s="56"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>11</v>
       </c>
-      <c r="B45" s="56">
+      <c r="B45" s="57">
         <v>0.91301369863013704</v>
       </c>
-      <c r="C45" s="56">
+      <c r="C45" s="57">
         <v>0.91027397260273901</v>
       </c>
-      <c r="D45" s="55"/>
+      <c r="D45" s="56"/>
       <c r="F45" s="1">
         <v>11</v>
       </c>
-      <c r="G45" s="56">
+      <c r="G45" s="57">
         <v>0.91712328767123197</v>
       </c>
-      <c r="H45" s="56">
+      <c r="H45" s="57">
         <v>0.88287671232876697</v>
       </c>
-      <c r="I45" s="55"/>
+      <c r="I45" s="56"/>
       <c r="K45" s="1">
         <v>11</v>
       </c>
-      <c r="L45" s="56">
+      <c r="L45" s="57">
         <v>0.99178082191780803</v>
       </c>
-      <c r="M45" s="56">
+      <c r="M45" s="57">
         <v>0.94794520547945205</v>
       </c>
-      <c r="N45" s="55"/>
+      <c r="N45" s="56"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>12</v>
       </c>
-      <c r="B46" s="56">
+      <c r="B46" s="57">
         <v>0.91506849315068495</v>
       </c>
-      <c r="C46" s="56">
+      <c r="C46" s="57">
         <v>0.9</v>
       </c>
-      <c r="D46" s="55"/>
+      <c r="D46" s="56"/>
       <c r="F46" s="1">
         <v>12</v>
       </c>
-      <c r="G46" s="56">
+      <c r="G46" s="57">
         <v>0.91849315068493098</v>
       </c>
-      <c r="H46" s="56">
+      <c r="H46" s="57">
         <v>0.89178082191780805</v>
       </c>
-      <c r="I46" s="55"/>
+      <c r="I46" s="56"/>
       <c r="K46" s="1">
         <v>12</v>
       </c>
-      <c r="L46" s="56">
+      <c r="L46" s="57">
         <v>0.99383561643835605</v>
       </c>
-      <c r="M46" s="56">
+      <c r="M46" s="57">
         <v>0.95684931506849302</v>
       </c>
-      <c r="N46" s="55"/>
+      <c r="N46" s="56"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -36890,37 +36893,37 @@
       <c r="A67" s="1">
         <v>0</v>
       </c>
-      <c r="B67" s="56">
+      <c r="B67" s="57">
         <v>0.81643835616438298</v>
       </c>
-      <c r="C67" s="56">
+      <c r="C67" s="57">
         <v>0.817808219178082</v>
       </c>
-      <c r="D67" s="55" t="s">
+      <c r="D67" s="56" t="s">
         <v>23</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
       </c>
-      <c r="G67" s="56">
+      <c r="G67" s="57">
         <v>0.87123287671232796</v>
       </c>
-      <c r="H67" s="56">
+      <c r="H67" s="57">
         <v>0.83219178082191703</v>
       </c>
-      <c r="I67" s="55" t="s">
+      <c r="I67" s="56" t="s">
         <v>24</v>
       </c>
       <c r="K67" s="1">
         <v>0</v>
       </c>
-      <c r="L67" s="56">
+      <c r="L67" s="57">
         <v>0.85958904109588996</v>
       </c>
-      <c r="M67" s="56">
+      <c r="M67" s="57">
         <v>0.86164383561643798</v>
       </c>
-      <c r="N67" s="55" t="s">
+      <c r="N67" s="56" t="s">
         <v>25</v>
       </c>
     </row>
@@ -36928,385 +36931,385 @@
       <c r="A68" s="1">
         <v>1</v>
       </c>
-      <c r="B68" s="56">
+      <c r="B68" s="57">
         <v>0.89246575342465695</v>
       </c>
-      <c r="C68" s="56">
+      <c r="C68" s="57">
         <v>0.89931506849315002</v>
       </c>
-      <c r="D68" s="55"/>
+      <c r="D68" s="56"/>
       <c r="F68" s="1">
         <v>1</v>
       </c>
-      <c r="G68" s="56">
+      <c r="G68" s="57">
         <v>0.9</v>
       </c>
-      <c r="H68" s="56">
+      <c r="H68" s="57">
         <v>0.90273972602739705</v>
       </c>
-      <c r="I68" s="55"/>
+      <c r="I68" s="56"/>
       <c r="K68" s="1">
         <v>1</v>
       </c>
-      <c r="L68" s="56">
+      <c r="L68" s="57">
         <v>0.89863013698630101</v>
       </c>
-      <c r="M68" s="56">
+      <c r="M68" s="57">
         <v>0.87671232876712302</v>
       </c>
-      <c r="N68" s="55"/>
+      <c r="N68" s="56"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>2</v>
       </c>
-      <c r="B69" s="56">
+      <c r="B69" s="57">
         <v>0.91643835616438296</v>
       </c>
-      <c r="C69" s="56">
+      <c r="C69" s="57">
         <v>0.92671232876712295</v>
       </c>
-      <c r="D69" s="55"/>
+      <c r="D69" s="56"/>
       <c r="F69" s="1">
         <v>2</v>
       </c>
-      <c r="G69" s="56">
+      <c r="G69" s="57">
         <v>0.90136986301369804</v>
       </c>
-      <c r="H69" s="56">
+      <c r="H69" s="57">
         <v>0.90684931506849298</v>
       </c>
-      <c r="I69" s="55"/>
+      <c r="I69" s="56"/>
       <c r="K69" s="1">
         <v>2</v>
       </c>
-      <c r="L69" s="56">
+      <c r="L69" s="57">
         <v>0.96027397260273895</v>
       </c>
-      <c r="M69" s="56">
+      <c r="M69" s="57">
         <v>0.92739726027397196</v>
       </c>
-      <c r="N69" s="55"/>
+      <c r="N69" s="56"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>3</v>
       </c>
-      <c r="B70" s="56">
+      <c r="B70" s="57">
         <v>0.93082191780821899</v>
       </c>
-      <c r="C70" s="56">
+      <c r="C70" s="57">
         <v>0.93287671232876701</v>
       </c>
-      <c r="D70" s="55"/>
+      <c r="D70" s="56"/>
       <c r="F70" s="1">
         <v>3</v>
       </c>
-      <c r="G70" s="56">
+      <c r="G70" s="57">
         <v>0.98082191780821903</v>
       </c>
-      <c r="H70" s="56">
+      <c r="H70" s="57">
         <v>0.943150684931506</v>
       </c>
-      <c r="I70" s="55"/>
+      <c r="I70" s="56"/>
       <c r="K70" s="1">
         <v>3</v>
       </c>
-      <c r="L70" s="56">
+      <c r="L70" s="57">
         <v>0.954109589041095</v>
       </c>
-      <c r="M70" s="56">
+      <c r="M70" s="57">
         <v>0.97054794520547905</v>
       </c>
-      <c r="N70" s="55"/>
+      <c r="N70" s="56"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>4</v>
       </c>
-      <c r="B71" s="56">
+      <c r="B71" s="57">
         <v>0.90684931506849298</v>
       </c>
-      <c r="C71" s="56">
+      <c r="C71" s="57">
         <v>0.91301369863013704</v>
       </c>
-      <c r="D71" s="55"/>
+      <c r="D71" s="56"/>
       <c r="F71" s="1">
         <v>4</v>
       </c>
-      <c r="G71" s="56">
+      <c r="G71" s="57">
         <v>0.96917808219178003</v>
       </c>
-      <c r="H71" s="56">
+      <c r="H71" s="57">
         <v>0.95753424657534203</v>
       </c>
-      <c r="I71" s="55"/>
+      <c r="I71" s="56"/>
       <c r="K71" s="1">
         <v>4</v>
       </c>
-      <c r="L71" s="56">
+      <c r="L71" s="57">
         <v>0.96095890410958895</v>
       </c>
-      <c r="M71" s="56">
+      <c r="M71" s="57">
         <v>0.98767123287671199</v>
       </c>
-      <c r="N71" s="55"/>
+      <c r="N71" s="56"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>5</v>
       </c>
-      <c r="B72" s="56">
+      <c r="B72" s="57">
         <v>0.95821917808219104</v>
       </c>
-      <c r="C72" s="56">
+      <c r="C72" s="57">
         <v>0.83767123287671197</v>
       </c>
-      <c r="D72" s="55"/>
+      <c r="D72" s="56"/>
       <c r="F72" s="1">
         <v>5</v>
       </c>
-      <c r="G72" s="56">
+      <c r="G72" s="57">
         <v>0.98219178082191705</v>
       </c>
-      <c r="H72" s="56">
+      <c r="H72" s="57">
         <v>0.91986301369862999</v>
       </c>
-      <c r="I72" s="55"/>
+      <c r="I72" s="56"/>
       <c r="K72" s="1">
         <v>5</v>
       </c>
-      <c r="L72" s="56">
+      <c r="L72" s="57">
         <v>0.96917808219178003</v>
       </c>
-      <c r="M72" s="56">
+      <c r="M72" s="57">
         <v>0.98972602739726001</v>
       </c>
-      <c r="N72" s="55"/>
+      <c r="N72" s="56"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>6</v>
       </c>
-      <c r="B73" s="56">
+      <c r="B73" s="57">
         <v>0.954109589041095</v>
       </c>
-      <c r="C73" s="56">
+      <c r="C73" s="57">
         <v>0.85547945205479403</v>
       </c>
-      <c r="D73" s="55"/>
+      <c r="D73" s="56"/>
       <c r="F73" s="1">
         <v>6</v>
       </c>
-      <c r="G73" s="56">
+      <c r="G73" s="57">
         <v>0.98287671232876705</v>
       </c>
-      <c r="H73" s="56">
+      <c r="H73" s="57">
         <v>0.97191780821917795</v>
       </c>
-      <c r="I73" s="55"/>
+      <c r="I73" s="56"/>
       <c r="K73" s="1">
         <v>6</v>
       </c>
-      <c r="L73" s="56">
+      <c r="L73" s="57">
         <v>0.97260273972602695</v>
       </c>
-      <c r="M73" s="56">
+      <c r="M73" s="57">
         <v>0.989041095890411</v>
       </c>
-      <c r="N73" s="55"/>
+      <c r="N73" s="56"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>7</v>
       </c>
-      <c r="B74" s="56">
+      <c r="B74" s="57">
         <v>0.96095890410958895</v>
       </c>
-      <c r="C74" s="56">
+      <c r="C74" s="57">
         <v>0.93561643835616404</v>
       </c>
-      <c r="D74" s="55"/>
+      <c r="D74" s="56"/>
       <c r="F74" s="1">
         <v>7</v>
       </c>
-      <c r="G74" s="56">
+      <c r="G74" s="57">
         <v>0.97876712328767101</v>
       </c>
-      <c r="H74" s="56">
+      <c r="H74" s="57">
         <v>0.96438356164383499</v>
       </c>
-      <c r="I74" s="55"/>
+      <c r="I74" s="56"/>
       <c r="K74" s="1">
         <v>7</v>
       </c>
-      <c r="L74" s="56">
+      <c r="L74" s="57">
         <v>0.97397260273972597</v>
       </c>
-      <c r="M74" s="56">
+      <c r="M74" s="57">
         <v>0.98972602739726001</v>
       </c>
-      <c r="N74" s="55"/>
+      <c r="N74" s="56"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>8</v>
       </c>
-      <c r="B75" s="56">
+      <c r="B75" s="57">
         <v>0.97123287671232805</v>
       </c>
-      <c r="C75" s="56">
+      <c r="C75" s="57">
         <v>0.93904109589041096</v>
       </c>
-      <c r="D75" s="55"/>
+      <c r="D75" s="56"/>
       <c r="F75" s="1">
         <v>8</v>
       </c>
-      <c r="G75" s="56">
+      <c r="G75" s="57">
         <v>0.94452054794520501</v>
       </c>
-      <c r="H75" s="56">
+      <c r="H75" s="57">
         <v>0.89931506849315002</v>
       </c>
-      <c r="I75" s="55"/>
+      <c r="I75" s="56"/>
       <c r="K75" s="1">
         <v>8</v>
       </c>
-      <c r="L75" s="56">
+      <c r="L75" s="57">
         <v>0.95821917808219104</v>
       </c>
-      <c r="M75" s="56">
+      <c r="M75" s="57">
         <v>0.99041095890410902</v>
       </c>
-      <c r="N75" s="55"/>
+      <c r="N75" s="56"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>9</v>
       </c>
-      <c r="B76" s="56">
+      <c r="B76" s="57">
         <v>0.98356164383561595</v>
       </c>
-      <c r="C76" s="56">
+      <c r="C76" s="57">
         <v>0.841095890410958</v>
       </c>
-      <c r="D76" s="55"/>
+      <c r="D76" s="56"/>
       <c r="F76" s="1">
         <v>9</v>
       </c>
-      <c r="G76" s="56">
+      <c r="G76" s="57">
         <v>0.98082191780821903</v>
       </c>
-      <c r="H76" s="56">
+      <c r="H76" s="57">
         <v>0.95</v>
       </c>
-      <c r="I76" s="55"/>
+      <c r="I76" s="56"/>
       <c r="K76" s="1">
         <v>9</v>
       </c>
-      <c r="L76" s="56">
+      <c r="L76" s="57">
         <v>0.95136986301369797</v>
       </c>
-      <c r="M76" s="56">
+      <c r="M76" s="57">
         <v>0.99109589041095802</v>
       </c>
-      <c r="N76" s="55"/>
+      <c r="N76" s="56"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>10</v>
       </c>
-      <c r="B77" s="56">
+      <c r="B77" s="57">
         <v>0.99383561643835605</v>
       </c>
-      <c r="C77" s="56">
+      <c r="C77" s="57">
         <v>0.94726027397260204</v>
       </c>
-      <c r="D77" s="55"/>
+      <c r="D77" s="56"/>
       <c r="F77" s="1">
         <v>10</v>
       </c>
-      <c r="G77" s="56">
+      <c r="G77" s="57">
         <v>0.97602739726027399</v>
       </c>
-      <c r="H77" s="56">
+      <c r="H77" s="57">
         <v>0.91369863013698605</v>
       </c>
-      <c r="I77" s="55"/>
+      <c r="I77" s="56"/>
       <c r="K77" s="1">
         <v>10</v>
       </c>
-      <c r="L77" s="56">
+      <c r="L77" s="57">
         <v>0.98013698630136903</v>
       </c>
-      <c r="M77" s="56">
+      <c r="M77" s="57">
         <v>0.99109589041095802</v>
       </c>
-      <c r="N77" s="55"/>
+      <c r="N77" s="56"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>11</v>
       </c>
-      <c r="B78" s="56">
+      <c r="B78" s="57">
         <v>0.99041095890410902</v>
       </c>
-      <c r="C78" s="56">
+      <c r="C78" s="57">
         <v>0.97191780821917795</v>
       </c>
-      <c r="D78" s="55"/>
+      <c r="D78" s="56"/>
       <c r="F78" s="1">
         <v>11</v>
       </c>
-      <c r="G78" s="56">
+      <c r="G78" s="57">
         <v>0.98356164383561595</v>
       </c>
-      <c r="H78" s="56">
+      <c r="H78" s="57">
         <v>0.95958904109589005</v>
       </c>
-      <c r="I78" s="55"/>
+      <c r="I78" s="56"/>
       <c r="K78" s="1">
         <v>11</v>
       </c>
-      <c r="L78" s="56">
+      <c r="L78" s="57">
         <v>0.977397260273972</v>
       </c>
-      <c r="M78" s="56">
+      <c r="M78" s="57">
         <v>0.98150684931506804</v>
       </c>
-      <c r="N78" s="55"/>
+      <c r="N78" s="56"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>12</v>
       </c>
-      <c r="B79" s="56">
+      <c r="B79" s="57">
         <v>0.99863013698630099</v>
       </c>
-      <c r="C79" s="56">
+      <c r="C79" s="57">
         <v>0.96643835616438301</v>
       </c>
-      <c r="D79" s="55"/>
+      <c r="D79" s="56"/>
       <c r="F79" s="1">
         <v>12</v>
       </c>
-      <c r="G79" s="56">
+      <c r="G79" s="57">
         <v>0.977397260273972</v>
       </c>
-      <c r="H79" s="56">
+      <c r="H79" s="57">
         <v>0.977397260273972</v>
       </c>
-      <c r="I79" s="55"/>
+      <c r="I79" s="56"/>
       <c r="K79" s="1">
         <v>12</v>
       </c>
-      <c r="L79" s="56">
+      <c r="L79" s="57">
         <v>0.96027397260273895</v>
       </c>
-      <c r="M79" s="56">
+      <c r="M79" s="57">
         <v>0.99109589041095802</v>
       </c>
-      <c r="N79" s="55"/>
+      <c r="N79" s="56"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
@@ -37341,29 +37344,37 @@
       <c r="A99" s="1">
         <v>0</v>
       </c>
-      <c r="B99" s="56">
+      <c r="B99" s="57">
         <v>0.88835616438356102</v>
       </c>
-      <c r="C99" s="56">
+      <c r="C99" s="57">
         <v>0.89589041095890398</v>
       </c>
-      <c r="D99" s="55" t="s">
+      <c r="D99" s="56" t="s">
         <v>26</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
       </c>
-      <c r="G99" s="20"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="55" t="s">
+      <c r="G99" s="57">
+        <v>0.8</v>
+      </c>
+      <c r="H99" s="57">
+        <v>0.79863013698630103</v>
+      </c>
+      <c r="I99" s="56" t="s">
         <v>27</v>
       </c>
       <c r="K99" s="1">
         <v>0</v>
       </c>
-      <c r="L99" s="20"/>
-      <c r="M99" s="20"/>
-      <c r="N99" s="55" t="s">
+      <c r="L99" s="57">
+        <v>0.91780821917808197</v>
+      </c>
+      <c r="M99" s="57">
+        <v>0.91643835616438296</v>
+      </c>
+      <c r="N99" s="56" t="s">
         <v>28</v>
       </c>
     </row>
@@ -37371,292 +37382,656 @@
       <c r="A100" s="1">
         <v>1</v>
       </c>
-      <c r="B100" s="56">
+      <c r="B100" s="57">
         <v>0.89315068493150596</v>
       </c>
-      <c r="C100" s="56">
+      <c r="C100" s="57">
         <v>0.897260273972602</v>
       </c>
-      <c r="D100" s="55"/>
+      <c r="D100" s="56"/>
       <c r="F100" s="1">
         <v>1</v>
       </c>
-      <c r="G100" s="1"/>
-      <c r="H100" s="20"/>
-      <c r="I100" s="55"/>
+      <c r="G100" s="57">
+        <v>0.88219178082191696</v>
+      </c>
+      <c r="H100" s="57">
+        <v>0.841095890410958</v>
+      </c>
+      <c r="I100" s="56"/>
       <c r="K100" s="1">
         <v>1</v>
       </c>
-      <c r="L100" s="1"/>
-      <c r="M100" s="20"/>
-      <c r="N100" s="55"/>
+      <c r="L100" s="57">
+        <v>0.92945205479451998</v>
+      </c>
+      <c r="M100" s="57">
+        <v>0.96780821917808202</v>
+      </c>
+      <c r="N100" s="56"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>2</v>
       </c>
-      <c r="B101" s="56">
+      <c r="B101" s="57">
         <v>0.89315068493150596</v>
       </c>
-      <c r="C101" s="56">
+      <c r="C101" s="57">
         <v>0.897260273972602</v>
       </c>
-      <c r="D101" s="55"/>
+      <c r="D101" s="56"/>
       <c r="F101" s="1">
         <v>2</v>
       </c>
-      <c r="G101" s="20"/>
-      <c r="H101" s="20"/>
-      <c r="I101" s="55"/>
+      <c r="G101" s="57">
+        <v>0.96849315068493103</v>
+      </c>
+      <c r="H101" s="57">
+        <v>0.91986301369862999</v>
+      </c>
+      <c r="I101" s="56"/>
       <c r="K101" s="1">
         <v>2</v>
       </c>
-      <c r="L101" s="20"/>
-      <c r="M101" s="20"/>
-      <c r="N101" s="55"/>
+      <c r="L101" s="57">
+        <v>0.93561643835616404</v>
+      </c>
+      <c r="M101" s="57">
+        <v>0.94383561643835601</v>
+      </c>
+      <c r="N101" s="56"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>3</v>
       </c>
-      <c r="B102" s="56">
+      <c r="B102" s="57">
         <v>0.89657534246575299</v>
       </c>
-      <c r="C102" s="56">
+      <c r="C102" s="57">
         <v>0.88835616438356102</v>
       </c>
-      <c r="D102" s="55"/>
+      <c r="D102" s="56"/>
       <c r="F102" s="1">
         <v>3</v>
       </c>
-      <c r="G102" s="20"/>
-      <c r="H102" s="20"/>
-      <c r="I102" s="55"/>
+      <c r="G102" s="57">
+        <v>0.989041095890411</v>
+      </c>
+      <c r="H102" s="57">
+        <v>0.96643835616438301</v>
+      </c>
+      <c r="I102" s="56"/>
       <c r="K102" s="1">
         <v>3</v>
       </c>
-      <c r="L102" s="20"/>
-      <c r="M102" s="20"/>
-      <c r="N102" s="55"/>
+      <c r="L102" s="57">
+        <v>0.95</v>
+      </c>
+      <c r="M102" s="57">
+        <v>0.97191780821917795</v>
+      </c>
+      <c r="N102" s="56"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>4</v>
       </c>
-      <c r="B103" s="56">
+      <c r="B103" s="57">
         <v>0.89178082191780805</v>
       </c>
-      <c r="C103" s="56">
+      <c r="C103" s="57">
         <v>0.88219178082191696</v>
       </c>
-      <c r="D103" s="55"/>
+      <c r="D103" s="56"/>
       <c r="F103" s="1">
         <v>4</v>
       </c>
-      <c r="G103" s="20"/>
-      <c r="H103" s="20"/>
-      <c r="I103" s="55"/>
+      <c r="G103" s="57">
+        <v>0.99041095890410902</v>
+      </c>
+      <c r="H103" s="57">
+        <v>0.98561643835616397</v>
+      </c>
+      <c r="I103" s="56"/>
       <c r="K103" s="1">
         <v>4</v>
       </c>
-      <c r="L103" s="20"/>
-      <c r="M103" s="20"/>
-      <c r="N103" s="55"/>
+      <c r="L103" s="57">
+        <v>0.95205479452054798</v>
+      </c>
+      <c r="M103" s="57">
+        <v>0.96643835616438301</v>
+      </c>
+      <c r="N103" s="56"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>5</v>
       </c>
-      <c r="B104" s="56">
+      <c r="B104" s="57">
         <v>0.89109589041095805</v>
       </c>
-      <c r="C104" s="56">
+      <c r="C104" s="57">
         <v>0.88013698630136905</v>
       </c>
-      <c r="D104" s="55"/>
+      <c r="D104" s="56"/>
       <c r="F104" s="1">
         <v>5</v>
       </c>
-      <c r="G104" s="20"/>
-      <c r="H104" s="20"/>
-      <c r="I104" s="55"/>
+      <c r="G104" s="57">
+        <v>0.99246575342465704</v>
+      </c>
+      <c r="H104" s="57">
+        <v>0.98698630136986298</v>
+      </c>
+      <c r="I104" s="56"/>
       <c r="K104" s="1">
         <v>5</v>
       </c>
-      <c r="L104" s="20"/>
-      <c r="M104" s="20"/>
-      <c r="N104" s="55"/>
+      <c r="L104" s="57">
+        <v>0.95342465753424599</v>
+      </c>
+      <c r="M104" s="57">
+        <v>0.97054794520547905</v>
+      </c>
+      <c r="N104" s="56"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>6</v>
       </c>
-      <c r="B105" s="56">
+      <c r="B105" s="57">
         <v>0.91438356164383505</v>
       </c>
-      <c r="C105" s="56">
+      <c r="C105" s="57">
         <v>0.89863013698630101</v>
       </c>
-      <c r="D105" s="55"/>
+      <c r="D105" s="56"/>
       <c r="F105" s="1">
         <v>6</v>
       </c>
-      <c r="G105" s="20"/>
-      <c r="H105" s="20"/>
-      <c r="I105" s="55"/>
+      <c r="G105" s="57">
+        <v>0.98767123287671199</v>
+      </c>
+      <c r="H105" s="57">
+        <v>0.989041095890411</v>
+      </c>
+      <c r="I105" s="56"/>
       <c r="K105" s="1">
         <v>6</v>
       </c>
-      <c r="L105" s="20"/>
-      <c r="M105" s="20"/>
-      <c r="N105" s="55"/>
+      <c r="L105" s="57">
+        <v>0.954794520547945</v>
+      </c>
+      <c r="M105" s="57">
+        <v>0.96849315068493103</v>
+      </c>
+      <c r="N105" s="56"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>7</v>
       </c>
-      <c r="B106" s="56">
+      <c r="B106" s="57">
         <v>0.94178082191780799</v>
       </c>
-      <c r="C106" s="56">
+      <c r="C106" s="57">
         <v>0.90821917808219099</v>
       </c>
-      <c r="D106" s="55"/>
+      <c r="D106" s="56"/>
       <c r="F106" s="1">
         <v>7</v>
       </c>
-      <c r="G106" s="20"/>
-      <c r="H106" s="20"/>
-      <c r="I106" s="55"/>
+      <c r="G106" s="57">
+        <v>0.99109589041095802</v>
+      </c>
+      <c r="H106" s="57">
+        <v>0.98630136986301298</v>
+      </c>
+      <c r="I106" s="56"/>
       <c r="K106" s="1">
         <v>7</v>
       </c>
-      <c r="L106" s="20"/>
-      <c r="M106" s="20"/>
-      <c r="N106" s="55"/>
+      <c r="L106" s="57">
+        <v>0.95068493150684896</v>
+      </c>
+      <c r="M106" s="57">
+        <v>0.97123287671232805</v>
+      </c>
+      <c r="N106" s="56"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>8</v>
       </c>
-      <c r="B107" s="56">
+      <c r="B107" s="57">
         <v>0.93424657534246502</v>
       </c>
-      <c r="C107" s="56">
+      <c r="C107" s="57">
         <v>0.91438356164383505</v>
       </c>
-      <c r="D107" s="55"/>
+      <c r="D107" s="56"/>
       <c r="F107" s="1">
         <v>8</v>
       </c>
-      <c r="G107" s="20"/>
-      <c r="H107" s="20"/>
-      <c r="I107" s="55"/>
+      <c r="G107" s="57">
+        <v>0.99178082191780803</v>
+      </c>
+      <c r="H107" s="57">
+        <v>0.989041095890411</v>
+      </c>
+      <c r="I107" s="56"/>
       <c r="K107" s="1">
         <v>8</v>
       </c>
-      <c r="L107" s="20"/>
-      <c r="M107" s="20"/>
-      <c r="N107" s="55"/>
+      <c r="L107" s="57">
+        <v>0.77397260273972601</v>
+      </c>
+      <c r="M107" s="57">
+        <v>0.95890410958904104</v>
+      </c>
+      <c r="N107" s="56"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>9</v>
       </c>
-      <c r="B108" s="56">
+      <c r="B108" s="57">
         <v>0.93424657534246502</v>
       </c>
-      <c r="C108" s="56">
+      <c r="C108" s="57">
         <v>0.90068493150684903</v>
       </c>
-      <c r="D108" s="55"/>
+      <c r="D108" s="56"/>
       <c r="F108" s="1">
         <v>9</v>
       </c>
-      <c r="G108" s="20"/>
-      <c r="H108" s="20"/>
-      <c r="I108" s="55"/>
+      <c r="G108" s="57">
+        <v>0.99383561643835605</v>
+      </c>
+      <c r="H108" s="57">
+        <v>0.97534246575342398</v>
+      </c>
+      <c r="I108" s="56"/>
       <c r="K108" s="1">
         <v>9</v>
       </c>
-      <c r="L108" s="20"/>
-      <c r="M108" s="20"/>
-      <c r="N108" s="55"/>
+      <c r="L108" s="57">
+        <v>0.76986301369862997</v>
+      </c>
+      <c r="M108" s="57">
+        <v>0.96986301369863004</v>
+      </c>
+      <c r="N108" s="56"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>10</v>
       </c>
-      <c r="B109" s="56">
+      <c r="B109" s="57">
         <v>0.92328767123287603</v>
       </c>
-      <c r="C109" s="56">
+      <c r="C109" s="57">
         <v>0.91369863013698605</v>
       </c>
-      <c r="D109" s="55"/>
+      <c r="D109" s="56"/>
       <c r="F109" s="1">
         <v>10</v>
       </c>
-      <c r="G109" s="20"/>
-      <c r="H109" s="20"/>
-      <c r="I109" s="55"/>
+      <c r="G109" s="57">
+        <v>0.99041095890410902</v>
+      </c>
+      <c r="H109" s="57">
+        <v>0.98013698630136903</v>
+      </c>
+      <c r="I109" s="56"/>
       <c r="K109" s="1">
         <v>10</v>
       </c>
-      <c r="L109" s="20"/>
-      <c r="M109" s="20"/>
-      <c r="N109" s="55"/>
+      <c r="L109" s="57">
+        <v>0.77397260273972601</v>
+      </c>
+      <c r="M109" s="57">
+        <v>0.96849315068493103</v>
+      </c>
+      <c r="N109" s="56"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>11</v>
       </c>
-      <c r="B110" s="56">
+      <c r="B110" s="57">
         <v>0.93013698630136898</v>
       </c>
-      <c r="C110" s="56">
+      <c r="C110" s="57">
         <v>0.90821917808219099</v>
       </c>
-      <c r="D110" s="55"/>
+      <c r="D110" s="56"/>
       <c r="F110" s="1">
         <v>11</v>
       </c>
-      <c r="G110" s="20"/>
-      <c r="H110" s="20"/>
-      <c r="I110" s="55"/>
+      <c r="G110" s="57">
+        <v>0.99520547945205395</v>
+      </c>
+      <c r="H110" s="57">
+        <v>0.989041095890411</v>
+      </c>
+      <c r="I110" s="56"/>
       <c r="K110" s="1">
         <v>11</v>
       </c>
-      <c r="L110" s="20"/>
-      <c r="M110" s="20"/>
-      <c r="N110" s="55"/>
+      <c r="L110" s="57">
+        <v>0.77534246575342403</v>
+      </c>
+      <c r="M110" s="57">
+        <v>0.96232876712328697</v>
+      </c>
+      <c r="N110" s="56"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>12</v>
       </c>
-      <c r="B111" s="56">
+      <c r="B111" s="57">
         <v>0.94726027397260204</v>
       </c>
-      <c r="C111" s="56">
+      <c r="C111" s="57">
         <v>0.91164383561643803</v>
       </c>
-      <c r="D111" s="55"/>
+      <c r="D111" s="56"/>
       <c r="F111" s="1">
         <v>12</v>
       </c>
-      <c r="G111" s="20"/>
-      <c r="H111" s="20"/>
-      <c r="I111" s="55"/>
+      <c r="G111" s="57">
+        <v>0.98150684931506804</v>
+      </c>
+      <c r="H111" s="57">
+        <v>0.92602739726027306</v>
+      </c>
+      <c r="I111" s="56"/>
       <c r="K111" s="1">
         <v>12</v>
       </c>
-      <c r="L111" s="20"/>
-      <c r="M111" s="20"/>
-      <c r="N111" s="55"/>
+      <c r="L111" s="57">
+        <v>0.90342465753424595</v>
+      </c>
+      <c r="M111" s="57">
+        <v>0.96986301369863004</v>
+      </c>
+      <c r="N111" s="56"/>
+    </row>
+    <row r="128" spans="1:11" ht="16" x14ac:dyDescent="0.25">
+      <c r="A128" s="50"/>
+      <c r="B128" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C128" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D128" t="s">
+        <v>49</v>
+      </c>
+      <c r="E128" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G128" s="50"/>
+      <c r="H128" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="I128" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="J128" t="s">
+        <v>49</v>
+      </c>
+      <c r="K128" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="16" x14ac:dyDescent="0.25">
+      <c r="A129" s="50">
+        <v>0</v>
+      </c>
+      <c r="B129" s="24"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="G129" s="50">
+        <v>0</v>
+      </c>
+      <c r="H129" s="24"/>
+      <c r="I129" s="24"/>
+      <c r="J129" s="24"/>
+      <c r="K129" s="19"/>
+      <c r="L129" s="56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="16" x14ac:dyDescent="0.25">
+      <c r="A130" s="50">
+        <v>1</v>
+      </c>
+      <c r="B130" s="24"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="56"/>
+      <c r="G130" s="50">
+        <v>1</v>
+      </c>
+      <c r="H130" s="24"/>
+      <c r="I130" s="24"/>
+      <c r="J130" s="24"/>
+      <c r="K130" s="19"/>
+      <c r="L130" s="56"/>
+    </row>
+    <row r="131" spans="1:12" ht="16" x14ac:dyDescent="0.25">
+      <c r="A131" s="50">
+        <v>2</v>
+      </c>
+      <c r="B131" s="24"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="56"/>
+      <c r="G131" s="50">
+        <v>2</v>
+      </c>
+      <c r="H131" s="24"/>
+      <c r="I131" s="24"/>
+      <c r="J131" s="24"/>
+      <c r="K131" s="19"/>
+      <c r="L131" s="56"/>
+    </row>
+    <row r="132" spans="1:12" ht="16" x14ac:dyDescent="0.25">
+      <c r="A132" s="50">
+        <v>3</v>
+      </c>
+      <c r="B132" s="24"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="56"/>
+      <c r="G132" s="50">
+        <v>3</v>
+      </c>
+      <c r="H132" s="24"/>
+      <c r="I132" s="24"/>
+      <c r="J132" s="24"/>
+      <c r="K132" s="19"/>
+      <c r="L132" s="56"/>
+    </row>
+    <row r="133" spans="1:12" ht="16" x14ac:dyDescent="0.25">
+      <c r="A133" s="50">
+        <v>4</v>
+      </c>
+      <c r="B133" s="24"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="56"/>
+      <c r="G133" s="50">
+        <v>4</v>
+      </c>
+      <c r="H133" s="24"/>
+      <c r="I133" s="24"/>
+      <c r="J133" s="24"/>
+      <c r="K133" s="19"/>
+      <c r="L133" s="56"/>
+    </row>
+    <row r="134" spans="1:12" ht="16" x14ac:dyDescent="0.25">
+      <c r="A134" s="50">
+        <v>5</v>
+      </c>
+      <c r="B134" s="24"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="56"/>
+      <c r="G134" s="50">
+        <v>5</v>
+      </c>
+      <c r="H134" s="24"/>
+      <c r="I134" s="24"/>
+      <c r="J134" s="24"/>
+      <c r="K134" s="19"/>
+      <c r="L134" s="56"/>
+    </row>
+    <row r="135" spans="1:12" ht="16" x14ac:dyDescent="0.25">
+      <c r="A135" s="50">
+        <v>6</v>
+      </c>
+      <c r="B135" s="24"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="56"/>
+      <c r="G135" s="50">
+        <v>6</v>
+      </c>
+      <c r="H135" s="24"/>
+      <c r="I135" s="24"/>
+      <c r="J135" s="24"/>
+      <c r="K135" s="19"/>
+      <c r="L135" s="56"/>
+    </row>
+    <row r="136" spans="1:12" ht="16" x14ac:dyDescent="0.25">
+      <c r="A136" s="50">
+        <v>7</v>
+      </c>
+      <c r="B136" s="24"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="56"/>
+      <c r="G136" s="50">
+        <v>7</v>
+      </c>
+      <c r="H136" s="24"/>
+      <c r="I136" s="24"/>
+      <c r="J136" s="24"/>
+      <c r="K136" s="19"/>
+      <c r="L136" s="56"/>
+    </row>
+    <row r="137" spans="1:12" ht="16" x14ac:dyDescent="0.25">
+      <c r="A137" s="50">
+        <v>8</v>
+      </c>
+      <c r="B137" s="24"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="24"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="56"/>
+      <c r="G137" s="50">
+        <v>8</v>
+      </c>
+      <c r="H137" s="24"/>
+      <c r="I137" s="24"/>
+      <c r="J137" s="24"/>
+      <c r="K137" s="19"/>
+      <c r="L137" s="56"/>
+    </row>
+    <row r="138" spans="1:12" ht="16" x14ac:dyDescent="0.25">
+      <c r="A138" s="50">
+        <v>9</v>
+      </c>
+      <c r="B138" s="24"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="56"/>
+      <c r="G138" s="50">
+        <v>9</v>
+      </c>
+      <c r="H138" s="24"/>
+      <c r="I138" s="24"/>
+      <c r="J138" s="24"/>
+      <c r="K138" s="19"/>
+      <c r="L138" s="56"/>
+    </row>
+    <row r="139" spans="1:12" ht="16" x14ac:dyDescent="0.25">
+      <c r="A139" s="50">
+        <v>10</v>
+      </c>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="56"/>
+      <c r="G139" s="50">
+        <v>10</v>
+      </c>
+      <c r="H139" s="24"/>
+      <c r="I139" s="24"/>
+      <c r="J139" s="24"/>
+      <c r="K139" s="19"/>
+      <c r="L139" s="56"/>
+    </row>
+    <row r="140" spans="1:12" ht="16" x14ac:dyDescent="0.25">
+      <c r="A140" s="50">
+        <v>11</v>
+      </c>
+      <c r="B140" s="24"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="56"/>
+      <c r="G140" s="50">
+        <v>11</v>
+      </c>
+      <c r="H140" s="24"/>
+      <c r="I140" s="24"/>
+      <c r="J140" s="24"/>
+      <c r="K140" s="19"/>
+      <c r="L140" s="56"/>
+    </row>
+    <row r="141" spans="1:12" ht="16" x14ac:dyDescent="0.25">
+      <c r="A141" s="50">
+        <v>12</v>
+      </c>
+      <c r="B141" s="24"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="56"/>
+      <c r="G141" s="50">
+        <v>12</v>
+      </c>
+      <c r="H141" s="24"/>
+      <c r="I141" s="24"/>
+      <c r="J141" s="24"/>
+      <c r="K141" s="19"/>
+      <c r="L141" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="F129:F141"/>
+    <mergeCell ref="L129:L141"/>
     <mergeCell ref="D67:D79"/>
     <mergeCell ref="I67:I79"/>
     <mergeCell ref="N67:N79"/>
@@ -37726,7 +38101,7 @@
       <c r="C2" s="24">
         <v>0.66666700000000001</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="56" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="1">
@@ -37738,7 +38113,7 @@
       <c r="H2" s="24">
         <v>0.66666700000000001</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="56" t="s">
         <v>28</v>
       </c>
       <c r="L2" s="1">
@@ -37750,7 +38125,7 @@
       <c r="N2" s="24">
         <v>0.66666700000000001</v>
       </c>
-      <c r="O2" s="55" t="s">
+      <c r="O2" s="56" t="s">
         <v>17</v>
       </c>
     </row>
@@ -37764,7 +38139,7 @@
       <c r="C3" s="24">
         <v>0.65348499999999998</v>
       </c>
-      <c r="D3" s="55"/>
+      <c r="D3" s="56"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -37774,7 +38149,7 @@
       <c r="H3" s="24">
         <v>0.27420099999999997</v>
       </c>
-      <c r="I3" s="55"/>
+      <c r="I3" s="56"/>
       <c r="L3" s="1">
         <v>1</v>
       </c>
@@ -37784,7 +38159,7 @@
       <c r="N3" s="24">
         <v>0.580538</v>
       </c>
-      <c r="O3" s="55"/>
+      <c r="O3" s="56"/>
     </row>
     <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -37796,7 +38171,7 @@
       <c r="C4" s="24">
         <v>0.66902099999999998</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="56"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -37806,7 +38181,7 @@
       <c r="H4" s="24">
         <v>2.7483E-2</v>
       </c>
-      <c r="I4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="L4" s="1">
         <v>2</v>
       </c>
@@ -37816,7 +38191,7 @@
       <c r="N4" s="24">
         <v>0.66517199999999999</v>
       </c>
-      <c r="O4" s="55"/>
+      <c r="O4" s="56"/>
     </row>
     <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -37828,7 +38203,7 @@
       <c r="C5" s="24">
         <v>0.70086899999999996</v>
       </c>
-      <c r="D5" s="55"/>
+      <c r="D5" s="56"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -37838,7 +38213,7 @@
       <c r="H5" s="24">
         <v>0</v>
       </c>
-      <c r="I5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="L5" s="1">
         <v>3</v>
       </c>
@@ -37848,7 +38223,7 @@
       <c r="N5" s="24">
         <v>0.70030700000000001</v>
       </c>
-      <c r="O5" s="55"/>
+      <c r="O5" s="56"/>
     </row>
     <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -37860,7 +38235,7 @@
       <c r="C6" s="24">
         <v>0.77109499999999997</v>
       </c>
-      <c r="D6" s="55"/>
+      <c r="D6" s="56"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -37870,7 +38245,7 @@
       <c r="H6" s="24">
         <v>0</v>
       </c>
-      <c r="I6" s="55"/>
+      <c r="I6" s="56"/>
       <c r="L6" s="1">
         <v>4</v>
       </c>
@@ -37880,7 +38255,7 @@
       <c r="N6" s="24">
         <v>0.719943</v>
       </c>
-      <c r="O6" s="55"/>
+      <c r="O6" s="56"/>
     </row>
     <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -37892,7 +38267,7 @@
       <c r="C7" s="24">
         <v>0.77710599999999996</v>
       </c>
-      <c r="D7" s="55"/>
+      <c r="D7" s="56"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -37902,7 +38277,7 @@
       <c r="H7" s="24">
         <v>0</v>
       </c>
-      <c r="I7" s="55"/>
+      <c r="I7" s="56"/>
       <c r="L7" s="1">
         <v>5</v>
       </c>
@@ -37912,7 +38287,7 @@
       <c r="N7" s="24">
         <v>0.73305900000000002</v>
       </c>
-      <c r="O7" s="55"/>
+      <c r="O7" s="56"/>
     </row>
     <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -37924,7 +38299,7 @@
       <c r="C8" s="24">
         <v>0.78310199999999996</v>
       </c>
-      <c r="D8" s="55"/>
+      <c r="D8" s="56"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -37934,7 +38309,7 @@
       <c r="H8" s="24">
         <v>0</v>
       </c>
-      <c r="I8" s="55"/>
+      <c r="I8" s="56"/>
       <c r="L8" s="1">
         <v>6</v>
       </c>
@@ -37944,7 +38319,7 @@
       <c r="N8" s="24">
         <v>0.76053599999999999</v>
       </c>
-      <c r="O8" s="55"/>
+      <c r="O8" s="56"/>
     </row>
     <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -37956,7 +38331,7 @@
       <c r="C9" s="24">
         <v>0.77618500000000001</v>
       </c>
-      <c r="D9" s="55"/>
+      <c r="D9" s="56"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -37966,7 +38341,7 @@
       <c r="H9" s="24">
         <v>0</v>
       </c>
-      <c r="I9" s="55"/>
+      <c r="I9" s="56"/>
       <c r="L9" s="1">
         <v>7</v>
       </c>
@@ -37976,7 +38351,7 @@
       <c r="N9" s="24">
         <v>0.79497499999999999</v>
       </c>
-      <c r="O9" s="55"/>
+      <c r="O9" s="56"/>
     </row>
     <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -37988,7 +38363,7 @@
       <c r="C10" s="24">
         <v>0.77377200000000002</v>
       </c>
-      <c r="D10" s="55"/>
+      <c r="D10" s="56"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -37998,7 +38373,7 @@
       <c r="H10" s="24">
         <v>0.70416000000000001</v>
       </c>
-      <c r="I10" s="55"/>
+      <c r="I10" s="56"/>
       <c r="L10" s="1">
         <v>8</v>
       </c>
@@ -38008,7 +38383,7 @@
       <c r="N10" s="24">
         <v>0.80194399999999999</v>
       </c>
-      <c r="O10" s="55"/>
+      <c r="O10" s="56"/>
     </row>
     <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -38020,7 +38395,7 @@
       <c r="C11" s="24">
         <v>0.76970400000000005</v>
       </c>
-      <c r="D11" s="55"/>
+      <c r="D11" s="56"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -38030,7 +38405,7 @@
       <c r="H11" s="24">
         <v>0.68451700000000004</v>
       </c>
-      <c r="I11" s="55"/>
+      <c r="I11" s="56"/>
       <c r="L11" s="1">
         <v>9</v>
       </c>
@@ -38040,7 +38415,7 @@
       <c r="N11" s="24">
         <v>0.79460600000000003</v>
       </c>
-      <c r="O11" s="55"/>
+      <c r="O11" s="56"/>
     </row>
     <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -38052,7 +38427,7 @@
       <c r="C12" s="24">
         <v>0.76261299999999999</v>
       </c>
-      <c r="D12" s="55"/>
+      <c r="D12" s="56"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -38062,7 +38437,7 @@
       <c r="H12" s="24">
         <v>0.46307300000000001</v>
       </c>
-      <c r="I12" s="55"/>
+      <c r="I12" s="56"/>
       <c r="L12" s="1">
         <v>10</v>
       </c>
@@ -38072,7 +38447,7 @@
       <c r="N12" s="24">
         <v>0.80569400000000002</v>
       </c>
-      <c r="O12" s="55"/>
+      <c r="O12" s="56"/>
     </row>
     <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -38084,7 +38459,7 @@
       <c r="C13" s="24">
         <v>0.80696299999999999</v>
       </c>
-      <c r="D13" s="55"/>
+      <c r="D13" s="56"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -38094,7 +38469,7 @@
       <c r="H13" s="24">
         <v>0.77209799999999995</v>
       </c>
-      <c r="I13" s="55"/>
+      <c r="I13" s="56"/>
       <c r="L13" s="1">
         <v>11</v>
       </c>
@@ -38104,7 +38479,7 @@
       <c r="N13" s="24">
         <v>0.81855800000000001</v>
       </c>
-      <c r="O13" s="55"/>
+      <c r="O13" s="56"/>
     </row>
     <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -38116,7 +38491,7 @@
       <c r="C14" s="24">
         <v>0.80464199999999997</v>
       </c>
-      <c r="D14" s="55"/>
+      <c r="D14" s="56"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -38126,7 +38501,7 @@
       <c r="H14" s="24">
         <v>0.82798700000000003</v>
       </c>
-      <c r="I14" s="55"/>
+      <c r="I14" s="56"/>
       <c r="L14" s="1">
         <v>12</v>
       </c>
@@ -38136,7 +38511,7 @@
       <c r="N14" s="24">
         <v>0.80542800000000003</v>
       </c>
-      <c r="O14" s="55"/>
+      <c r="O14" s="56"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="31" t="s">
@@ -38177,7 +38552,7 @@
       <c r="C37" s="24">
         <v>0</v>
       </c>
-      <c r="D37" s="55" t="s">
+      <c r="D37" s="56" t="s">
         <v>16</v>
       </c>
       <c r="F37" s="31">
@@ -38189,7 +38564,7 @@
       <c r="H37" s="24">
         <v>0</v>
       </c>
-      <c r="I37" s="55" t="s">
+      <c r="I37" s="56" t="s">
         <v>26</v>
       </c>
       <c r="K37" s="31">
@@ -38201,7 +38576,7 @@
       <c r="M37" s="24">
         <v>0</v>
       </c>
-      <c r="N37" s="55" t="s">
+      <c r="N37" s="56" t="s">
         <v>27</v>
       </c>
     </row>
@@ -38215,7 +38590,7 @@
       <c r="C38" s="24">
         <v>0.66893400000000003</v>
       </c>
-      <c r="D38" s="55"/>
+      <c r="D38" s="56"/>
       <c r="F38" s="31">
         <v>1</v>
       </c>
@@ -38225,7 +38600,7 @@
       <c r="H38" s="24">
         <v>0.73725099999999999</v>
       </c>
-      <c r="I38" s="55"/>
+      <c r="I38" s="56"/>
       <c r="K38" s="31">
         <v>1</v>
       </c>
@@ -38235,7 +38610,7 @@
       <c r="M38" s="24">
         <v>0.760988</v>
       </c>
-      <c r="N38" s="55"/>
+      <c r="N38" s="56"/>
     </row>
     <row r="39" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A39" s="31">
@@ -38247,7 +38622,7 @@
       <c r="C39" s="24">
         <v>0.70960599999999996</v>
       </c>
-      <c r="D39" s="55"/>
+      <c r="D39" s="56"/>
       <c r="F39" s="31">
         <v>2</v>
       </c>
@@ -38257,7 +38632,7 @@
       <c r="H39" s="24">
         <v>0.78292700000000004</v>
       </c>
-      <c r="I39" s="55"/>
+      <c r="I39" s="56"/>
       <c r="K39" s="31">
         <v>2</v>
       </c>
@@ -38267,7 +38642,7 @@
       <c r="M39" s="24">
         <v>0.68244000000000005</v>
       </c>
-      <c r="N39" s="55"/>
+      <c r="N39" s="56"/>
     </row>
     <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A40" s="31">
@@ -38279,7 +38654,7 @@
       <c r="C40" s="24">
         <v>0.71426400000000001</v>
       </c>
-      <c r="D40" s="55"/>
+      <c r="D40" s="56"/>
       <c r="F40" s="31">
         <v>3</v>
       </c>
@@ -38289,7 +38664,7 @@
       <c r="H40" s="24">
         <v>0.78676100000000004</v>
       </c>
-      <c r="I40" s="55"/>
+      <c r="I40" s="56"/>
       <c r="K40" s="31">
         <v>3</v>
       </c>
@@ -38299,7 +38674,7 @@
       <c r="M40" s="24">
         <v>0.63009599999999999</v>
       </c>
-      <c r="N40" s="55"/>
+      <c r="N40" s="56"/>
     </row>
     <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A41" s="31">
@@ -38311,7 +38686,7 @@
       <c r="C41" s="24">
         <v>0.71233500000000005</v>
       </c>
-      <c r="D41" s="55"/>
+      <c r="D41" s="56"/>
       <c r="F41" s="31">
         <v>4</v>
       </c>
@@ -38321,7 +38696,7 @@
       <c r="H41" s="24">
         <v>0.79497300000000004</v>
       </c>
-      <c r="I41" s="55"/>
+      <c r="I41" s="56"/>
       <c r="K41" s="31">
         <v>4</v>
       </c>
@@ -38331,7 +38706,7 @@
       <c r="M41" s="24">
         <v>0.602321</v>
       </c>
-      <c r="N41" s="55"/>
+      <c r="N41" s="56"/>
     </row>
     <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A42" s="31">
@@ -38343,7 +38718,7 @@
       <c r="C42" s="24">
         <v>0.69982599999999995</v>
       </c>
-      <c r="D42" s="55"/>
+      <c r="D42" s="56"/>
       <c r="F42" s="31">
         <v>5</v>
       </c>
@@ -38353,7 +38728,7 @@
       <c r="H42" s="24">
         <v>0.80255600000000005</v>
       </c>
-      <c r="I42" s="55"/>
+      <c r="I42" s="56"/>
       <c r="K42" s="31">
         <v>5</v>
       </c>
@@ -38363,7 +38738,7 @@
       <c r="M42" s="24">
         <v>0.51061299999999998</v>
       </c>
-      <c r="N42" s="55"/>
+      <c r="N42" s="56"/>
     </row>
     <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A43" s="31">
@@ -38375,7 +38750,7 @@
       <c r="C43" s="24">
         <v>0.68592900000000001</v>
       </c>
-      <c r="D43" s="55"/>
+      <c r="D43" s="56"/>
       <c r="F43" s="31">
         <v>6</v>
       </c>
@@ -38385,7 +38760,7 @@
       <c r="H43" s="24">
         <v>0.81109799999999999</v>
       </c>
-      <c r="I43" s="55"/>
+      <c r="I43" s="56"/>
       <c r="K43" s="31">
         <v>6</v>
       </c>
@@ -38395,7 +38770,7 @@
       <c r="M43" s="24">
         <v>0.83428199999999997</v>
       </c>
-      <c r="N43" s="55"/>
+      <c r="N43" s="56"/>
     </row>
     <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A44" s="31">
@@ -38407,7 +38782,7 @@
       <c r="C44" s="24">
         <v>0.703457</v>
       </c>
-      <c r="D44" s="55"/>
+      <c r="D44" s="56"/>
       <c r="F44" s="31">
         <v>7</v>
       </c>
@@ -38417,7 +38792,7 @@
       <c r="H44" s="24">
         <v>0.81226100000000001</v>
       </c>
-      <c r="I44" s="55"/>
+      <c r="I44" s="56"/>
       <c r="K44" s="31">
         <v>7</v>
       </c>
@@ -38427,7 +38802,7 @@
       <c r="M44" s="24">
         <v>0.73528800000000005</v>
       </c>
-      <c r="N44" s="55"/>
+      <c r="N44" s="56"/>
     </row>
     <row r="45" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A45" s="31">
@@ -38439,7 +38814,7 @@
       <c r="C45" s="24">
         <v>0.70218199999999997</v>
       </c>
-      <c r="D45" s="55"/>
+      <c r="D45" s="56"/>
       <c r="F45" s="31">
         <v>8</v>
       </c>
@@ -38449,7 +38824,7 @@
       <c r="H45" s="24">
         <v>0.83114600000000005</v>
       </c>
-      <c r="I45" s="55"/>
+      <c r="I45" s="56"/>
       <c r="K45" s="31">
         <v>8</v>
       </c>
@@ -38459,7 +38834,7 @@
       <c r="M45" s="24">
         <v>0.73614999999999997</v>
       </c>
-      <c r="N45" s="55"/>
+      <c r="N45" s="56"/>
     </row>
     <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A46" s="31">
@@ -38471,7 +38846,7 @@
       <c r="C46" s="24">
         <v>0.70156200000000002</v>
       </c>
-      <c r="D46" s="55"/>
+      <c r="D46" s="56"/>
       <c r="F46" s="31">
         <v>9</v>
       </c>
@@ -38481,7 +38856,7 @@
       <c r="H46" s="24">
         <v>0.83831100000000003</v>
       </c>
-      <c r="I46" s="55"/>
+      <c r="I46" s="56"/>
       <c r="K46" s="31">
         <v>9</v>
       </c>
@@ -38491,7 +38866,7 @@
       <c r="M46" s="24">
         <v>0.77739499999999995</v>
       </c>
-      <c r="N46" s="55"/>
+      <c r="N46" s="56"/>
     </row>
     <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A47" s="31">
@@ -38503,7 +38878,7 @@
       <c r="C47" s="24">
         <v>0.70720899999999998</v>
       </c>
-      <c r="D47" s="55"/>
+      <c r="D47" s="56"/>
       <c r="F47" s="31">
         <v>10</v>
       </c>
@@ -38513,7 +38888,7 @@
       <c r="H47" s="24">
         <v>0.84065400000000001</v>
       </c>
-      <c r="I47" s="55"/>
+      <c r="I47" s="56"/>
       <c r="K47" s="31">
         <v>10</v>
       </c>
@@ -38523,7 +38898,7 @@
       <c r="M47" s="24">
         <v>0.77222100000000005</v>
       </c>
-      <c r="N47" s="55"/>
+      <c r="N47" s="56"/>
     </row>
     <row r="48" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A48" s="31">
@@ -38535,7 +38910,7 @@
       <c r="C48" s="24">
         <v>0.71660900000000005</v>
       </c>
-      <c r="D48" s="55"/>
+      <c r="D48" s="56"/>
       <c r="F48" s="31">
         <v>11</v>
       </c>
@@ -38545,7 +38920,7 @@
       <c r="H48" s="24">
         <v>0.82713000000000003</v>
       </c>
-      <c r="I48" s="55"/>
+      <c r="I48" s="56"/>
       <c r="K48" s="31">
         <v>11</v>
       </c>
@@ -38555,7 +38930,7 @@
       <c r="M48" s="24">
         <v>0.73933599999999999</v>
       </c>
-      <c r="N48" s="55"/>
+      <c r="N48" s="56"/>
     </row>
     <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A49" s="31">
@@ -38567,7 +38942,7 @@
       <c r="C49" s="24">
         <v>0.722522</v>
       </c>
-      <c r="D49" s="55"/>
+      <c r="D49" s="56"/>
       <c r="F49" s="31">
         <v>12</v>
       </c>
@@ -38577,7 +38952,7 @@
       <c r="H49" s="24">
         <v>0.80716100000000002</v>
       </c>
-      <c r="I49" s="55"/>
+      <c r="I49" s="56"/>
       <c r="K49" s="31">
         <v>12</v>
       </c>
@@ -38587,7 +38962,7 @@
       <c r="M49" s="24">
         <v>0.814998</v>
       </c>
-      <c r="N49" s="55"/>
+      <c r="N49" s="56"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="31"/>
@@ -38602,7 +38977,7 @@
     </row>
     <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A68" s="48"/>
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="51" t="s">
         <v>45</v>
       </c>
       <c r="C68" s="48" t="s">
@@ -38612,7 +38987,7 @@
         <v>52</v>
       </c>
       <c r="G68" s="48"/>
-      <c r="H68" s="50" t="s">
+      <c r="H68" s="51" t="s">
         <v>45</v>
       </c>
       <c r="I68" s="48" t="s">
@@ -38635,7 +39010,7 @@
       <c r="D69" s="24">
         <v>0.66666700000000001</v>
       </c>
-      <c r="E69" s="55" t="s">
+      <c r="E69" s="56" t="s">
         <v>31</v>
       </c>
       <c r="G69" s="48">
@@ -38650,7 +39025,7 @@
       <c r="J69" s="24">
         <v>0.66666700000000001</v>
       </c>
-      <c r="K69" s="55" t="s">
+      <c r="K69" s="56" t="s">
         <v>32</v>
       </c>
     </row>
@@ -38667,7 +39042,7 @@
       <c r="D70" s="24">
         <v>0.63708100000000001</v>
       </c>
-      <c r="E70" s="55"/>
+      <c r="E70" s="56"/>
       <c r="G70" s="48">
         <v>1</v>
       </c>
@@ -38680,7 +39055,7 @@
       <c r="J70" s="24">
         <v>0.27420099999999997</v>
       </c>
-      <c r="K70" s="55"/>
+      <c r="K70" s="56"/>
     </row>
     <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A71" s="48">
@@ -38695,7 +39070,7 @@
       <c r="D71" s="24">
         <v>0.62224000000000002</v>
       </c>
-      <c r="E71" s="55"/>
+      <c r="E71" s="56"/>
       <c r="G71" s="48">
         <v>2</v>
       </c>
@@ -38708,7 +39083,7 @@
       <c r="J71" s="24">
         <v>2.7483E-2</v>
       </c>
-      <c r="K71" s="55"/>
+      <c r="K71" s="56"/>
     </row>
     <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A72" s="48">
@@ -38723,7 +39098,7 @@
       <c r="D72" s="24">
         <v>0.73658000000000001</v>
       </c>
-      <c r="E72" s="55"/>
+      <c r="E72" s="56"/>
       <c r="G72" s="48">
         <v>3</v>
       </c>
@@ -38736,7 +39111,7 @@
       <c r="J72" s="24">
         <v>0</v>
       </c>
-      <c r="K72" s="55"/>
+      <c r="K72" s="56"/>
     </row>
     <row r="73" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A73" s="48">
@@ -38751,7 +39126,7 @@
       <c r="D73" s="24">
         <v>0.66658399999999995</v>
       </c>
-      <c r="E73" s="55"/>
+      <c r="E73" s="56"/>
       <c r="G73" s="48">
         <v>4</v>
       </c>
@@ -38764,7 +39139,7 @@
       <c r="J73" s="24">
         <v>0</v>
       </c>
-      <c r="K73" s="55"/>
+      <c r="K73" s="56"/>
     </row>
     <row r="74" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A74" s="48">
@@ -38779,7 +39154,7 @@
       <c r="D74" s="24">
         <v>0.69312200000000002</v>
       </c>
-      <c r="E74" s="55"/>
+      <c r="E74" s="56"/>
       <c r="G74" s="48">
         <v>5</v>
       </c>
@@ -38792,7 +39167,7 @@
       <c r="J74" s="24">
         <v>0</v>
       </c>
-      <c r="K74" s="55"/>
+      <c r="K74" s="56"/>
     </row>
     <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A75" s="48">
@@ -38807,7 +39182,7 @@
       <c r="D75" s="24">
         <v>0.65337599999999996</v>
       </c>
-      <c r="E75" s="55"/>
+      <c r="E75" s="56"/>
       <c r="G75" s="48">
         <v>6</v>
       </c>
@@ -38820,7 +39195,7 @@
       <c r="J75" s="24">
         <v>0</v>
       </c>
-      <c r="K75" s="55"/>
+      <c r="K75" s="56"/>
     </row>
     <row r="76" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A76" s="48">
@@ -38835,7 +39210,7 @@
       <c r="D76" s="24">
         <v>0.63788199999999995</v>
       </c>
-      <c r="E76" s="55"/>
+      <c r="E76" s="56"/>
       <c r="G76" s="48">
         <v>7</v>
       </c>
@@ -38848,7 +39223,7 @@
       <c r="J76" s="24">
         <v>0</v>
       </c>
-      <c r="K76" s="55"/>
+      <c r="K76" s="56"/>
     </row>
     <row r="77" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A77" s="48">
@@ -38863,7 +39238,7 @@
       <c r="D77" s="24">
         <v>0.70514100000000002</v>
       </c>
-      <c r="E77" s="55"/>
+      <c r="E77" s="56"/>
       <c r="G77" s="48">
         <v>8</v>
       </c>
@@ -38876,7 +39251,7 @@
       <c r="J77" s="24">
         <v>0.70416000000000001</v>
       </c>
-      <c r="K77" s="55"/>
+      <c r="K77" s="56"/>
     </row>
     <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A78" s="48">
@@ -38891,7 +39266,7 @@
       <c r="D78" s="24">
         <v>0.55663300000000004</v>
       </c>
-      <c r="E78" s="55"/>
+      <c r="E78" s="56"/>
       <c r="G78" s="48">
         <v>9</v>
       </c>
@@ -38904,7 +39279,7 @@
       <c r="J78" s="24">
         <v>0.68451700000000004</v>
       </c>
-      <c r="K78" s="55"/>
+      <c r="K78" s="56"/>
     </row>
     <row r="79" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A79" s="48">
@@ -38919,7 +39294,7 @@
       <c r="D79" s="24">
         <v>0.45468399999999998</v>
       </c>
-      <c r="E79" s="55"/>
+      <c r="E79" s="56"/>
       <c r="G79" s="48">
         <v>10</v>
       </c>
@@ -38932,7 +39307,7 @@
       <c r="J79" s="24">
         <v>0.46307300000000001</v>
       </c>
-      <c r="K79" s="55"/>
+      <c r="K79" s="56"/>
     </row>
     <row r="80" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A80" s="48">
@@ -38947,7 +39322,7 @@
       <c r="D80" s="24">
         <v>0.79524300000000003</v>
       </c>
-      <c r="E80" s="55"/>
+      <c r="E80" s="56"/>
       <c r="G80" s="48">
         <v>11</v>
       </c>
@@ -38960,7 +39335,7 @@
       <c r="J80" s="24">
         <v>0.77209799999999995</v>
       </c>
-      <c r="K80" s="55"/>
+      <c r="K80" s="56"/>
     </row>
     <row r="81" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A81" s="48">
@@ -38975,7 +39350,7 @@
       <c r="D81" s="24">
         <v>0.83022700000000005</v>
       </c>
-      <c r="E81" s="55"/>
+      <c r="E81" s="56"/>
       <c r="G81" s="48">
         <v>12</v>
       </c>
@@ -38988,7 +39363,7 @@
       <c r="J81" s="24">
         <v>0.82798700000000003</v>
       </c>
-      <c r="K81" s="55"/>
+      <c r="K81" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -39059,7 +39434,7 @@
       <c r="C2" s="24">
         <v>0.53476800000000002</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="56" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="1">
@@ -39071,7 +39446,7 @@
       <c r="H2" s="24">
         <v>0.50165599999999999</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="56" t="s">
         <v>28</v>
       </c>
       <c r="K2" s="1">
@@ -39083,7 +39458,7 @@
       <c r="M2" s="24">
         <v>0.50165599999999999</v>
       </c>
-      <c r="N2" s="55" t="s">
+      <c r="N2" s="56" t="s">
         <v>25</v>
       </c>
     </row>
@@ -39097,7 +39472,7 @@
       <c r="C3" s="24">
         <v>0.54635800000000001</v>
       </c>
-      <c r="D3" s="55"/>
+      <c r="D3" s="56"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -39107,7 +39482,7 @@
       <c r="H3" s="24">
         <v>0.50827800000000001</v>
       </c>
-      <c r="I3" s="55"/>
+      <c r="I3" s="56"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
@@ -39117,7 +39492,7 @@
       <c r="M3" s="24">
         <v>0.52152299999999996</v>
       </c>
-      <c r="N3" s="55"/>
+      <c r="N3" s="56"/>
     </row>
     <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -39129,7 +39504,7 @@
       <c r="C4" s="24">
         <v>0.50331099999999995</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="56"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -39139,7 +39514,7 @@
       <c r="H4" s="24">
         <v>0.51324499999999995</v>
       </c>
-      <c r="I4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
@@ -39149,7 +39524,7 @@
       <c r="M4" s="24">
         <v>0.51490100000000005</v>
       </c>
-      <c r="N4" s="55"/>
+      <c r="N4" s="56"/>
     </row>
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -39161,7 +39536,7 @@
       <c r="C5" s="24">
         <v>0.50165599999999999</v>
       </c>
-      <c r="D5" s="55"/>
+      <c r="D5" s="56"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -39171,7 +39546,7 @@
       <c r="H5" s="24">
         <v>0.50827800000000001</v>
       </c>
-      <c r="I5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
@@ -39181,7 +39556,7 @@
       <c r="M5" s="24">
         <v>0.490066</v>
       </c>
-      <c r="N5" s="55"/>
+      <c r="N5" s="56"/>
     </row>
     <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -39193,7 +39568,7 @@
       <c r="C6" s="24">
         <v>0.51490100000000005</v>
       </c>
-      <c r="D6" s="55"/>
+      <c r="D6" s="56"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -39203,7 +39578,7 @@
       <c r="H6" s="24">
         <v>0.50331099999999995</v>
       </c>
-      <c r="I6" s="55"/>
+      <c r="I6" s="56"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
@@ -39213,7 +39588,7 @@
       <c r="M6" s="24">
         <v>0.51324499999999995</v>
       </c>
-      <c r="N6" s="55"/>
+      <c r="N6" s="56"/>
     </row>
     <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -39225,7 +39600,7 @@
       <c r="C7" s="24">
         <v>0.50496700000000005</v>
       </c>
-      <c r="D7" s="55"/>
+      <c r="D7" s="56"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -39235,7 +39610,7 @@
       <c r="H7" s="24">
         <v>0.50331099999999995</v>
       </c>
-      <c r="I7" s="55"/>
+      <c r="I7" s="56"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
@@ -39245,7 +39620,7 @@
       <c r="M7" s="24">
         <v>0.50662300000000005</v>
       </c>
-      <c r="N7" s="55"/>
+      <c r="N7" s="56"/>
     </row>
     <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -39257,7 +39632,7 @@
       <c r="C8" s="24">
         <v>0.51158899999999996</v>
       </c>
-      <c r="D8" s="55"/>
+      <c r="D8" s="56"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -39267,7 +39642,7 @@
       <c r="H8" s="24">
         <v>0.50331099999999995</v>
       </c>
-      <c r="I8" s="55"/>
+      <c r="I8" s="56"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
@@ -39277,7 +39652,7 @@
       <c r="M8" s="24">
         <v>0.49337700000000001</v>
       </c>
-      <c r="N8" s="55"/>
+      <c r="N8" s="56"/>
     </row>
     <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -39289,7 +39664,7 @@
       <c r="C9" s="24">
         <v>0.49668899999999999</v>
       </c>
-      <c r="D9" s="55"/>
+      <c r="D9" s="56"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -39299,7 +39674,7 @@
       <c r="H9" s="24">
         <v>0.49834400000000001</v>
       </c>
-      <c r="I9" s="55"/>
+      <c r="I9" s="56"/>
       <c r="K9" s="1">
         <v>7</v>
       </c>
@@ -39309,7 +39684,7 @@
       <c r="M9" s="24">
         <v>0.46192100000000003</v>
       </c>
-      <c r="N9" s="55"/>
+      <c r="N9" s="56"/>
     </row>
     <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -39321,7 +39696,7 @@
       <c r="C10" s="24">
         <v>0.50496700000000005</v>
       </c>
-      <c r="D10" s="55"/>
+      <c r="D10" s="56"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -39331,7 +39706,7 @@
       <c r="H10" s="24">
         <v>0.495033</v>
       </c>
-      <c r="I10" s="55"/>
+      <c r="I10" s="56"/>
       <c r="K10" s="1">
         <v>8</v>
       </c>
@@ -39341,7 +39716,7 @@
       <c r="M10" s="24">
         <v>0.46523199999999998</v>
       </c>
-      <c r="N10" s="55"/>
+      <c r="N10" s="56"/>
     </row>
     <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -39353,7 +39728,7 @@
       <c r="C11" s="24">
         <v>0.51490100000000005</v>
       </c>
-      <c r="D11" s="55"/>
+      <c r="D11" s="56"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -39363,7 +39738,7 @@
       <c r="H11" s="24">
         <v>0.5</v>
       </c>
-      <c r="I11" s="55"/>
+      <c r="I11" s="56"/>
       <c r="K11" s="1">
         <v>9</v>
       </c>
@@ -39373,7 +39748,7 @@
       <c r="M11" s="24">
         <v>0.47516599999999998</v>
       </c>
-      <c r="N11" s="55"/>
+      <c r="N11" s="56"/>
     </row>
     <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -39385,7 +39760,7 @@
       <c r="C12" s="24">
         <v>0.54635800000000001</v>
       </c>
-      <c r="D12" s="55"/>
+      <c r="D12" s="56"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -39395,7 +39770,7 @@
       <c r="H12" s="24">
         <v>0.51158899999999996</v>
       </c>
-      <c r="I12" s="55"/>
+      <c r="I12" s="56"/>
       <c r="K12" s="1">
         <v>10</v>
       </c>
@@ -39405,7 +39780,7 @@
       <c r="M12" s="24">
         <v>0.485099</v>
       </c>
-      <c r="N12" s="55"/>
+      <c r="N12" s="56"/>
     </row>
     <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -39417,7 +39792,7 @@
       <c r="C13" s="24">
         <v>0.51490100000000005</v>
       </c>
-      <c r="D13" s="55"/>
+      <c r="D13" s="56"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -39427,7 +39802,7 @@
       <c r="H13" s="24">
         <v>0.528146</v>
       </c>
-      <c r="I13" s="55"/>
+      <c r="I13" s="56"/>
       <c r="K13" s="1">
         <v>11</v>
       </c>
@@ -39437,7 +39812,7 @@
       <c r="M13" s="24">
         <v>0.48344399999999998</v>
       </c>
-      <c r="N13" s="55"/>
+      <c r="N13" s="56"/>
     </row>
     <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -39449,7 +39824,7 @@
       <c r="C14" s="24">
         <v>0.54139099999999996</v>
       </c>
-      <c r="D14" s="55"/>
+      <c r="D14" s="56"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -39459,7 +39834,7 @@
       <c r="H14" s="24">
         <v>0.509934</v>
       </c>
-      <c r="I14" s="55"/>
+      <c r="I14" s="56"/>
       <c r="K14" s="1">
         <v>12</v>
       </c>
@@ -39469,7 +39844,7 @@
       <c r="M14" s="24">
         <v>0.46523199999999998</v>
       </c>
-      <c r="N14" s="55"/>
+      <c r="N14" s="56"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="45" t="s">
@@ -39510,7 +39885,7 @@
       <c r="C35" s="24">
         <v>0.49172199999999999</v>
       </c>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="56" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="45">
@@ -39522,7 +39897,7 @@
       <c r="H35" s="24">
         <v>0.49172199999999999</v>
       </c>
-      <c r="I35" s="55" t="s">
+      <c r="I35" s="56" t="s">
         <v>26</v>
       </c>
       <c r="K35" s="45">
@@ -39534,7 +39909,7 @@
       <c r="M35" s="24">
         <v>0.50165599999999999</v>
       </c>
-      <c r="N35" s="55" t="s">
+      <c r="N35" s="56" t="s">
         <v>27</v>
       </c>
     </row>
@@ -39548,7 +39923,7 @@
       <c r="C36" s="24">
         <v>0.495033</v>
       </c>
-      <c r="D36" s="55"/>
+      <c r="D36" s="56"/>
       <c r="F36" s="45">
         <v>1</v>
       </c>
@@ -39558,7 +39933,7 @@
       <c r="H36" s="24">
         <v>0.47516599999999998</v>
       </c>
-      <c r="I36" s="55"/>
+      <c r="I36" s="56"/>
       <c r="K36" s="45">
         <v>1</v>
       </c>
@@ -39568,7 +39943,7 @@
       <c r="M36" s="24">
         <v>0.52152299999999996</v>
       </c>
-      <c r="N36" s="55"/>
+      <c r="N36" s="56"/>
     </row>
     <row r="37" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A37" s="45">
@@ -39580,7 +39955,7 @@
       <c r="C37" s="24">
         <v>0.47847699999999999</v>
       </c>
-      <c r="D37" s="55"/>
+      <c r="D37" s="56"/>
       <c r="F37" s="45">
         <v>2</v>
       </c>
@@ -39590,7 +39965,7 @@
       <c r="H37" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I37" s="55"/>
+      <c r="I37" s="56"/>
       <c r="K37" s="45">
         <v>2</v>
       </c>
@@ -39600,7 +39975,7 @@
       <c r="M37" s="24">
         <v>0.51324499999999995</v>
       </c>
-      <c r="N37" s="55"/>
+      <c r="N37" s="56"/>
     </row>
     <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A38" s="45">
@@ -39612,7 +39987,7 @@
       <c r="C38" s="24">
         <v>0.48841099999999998</v>
       </c>
-      <c r="D38" s="55"/>
+      <c r="D38" s="56"/>
       <c r="F38" s="45">
         <v>3</v>
       </c>
@@ -39622,7 +39997,7 @@
       <c r="H38" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I38" s="55"/>
+      <c r="I38" s="56"/>
       <c r="K38" s="45">
         <v>3</v>
       </c>
@@ -39632,7 +40007,7 @@
       <c r="M38" s="24">
         <v>0.480132</v>
       </c>
-      <c r="N38" s="55"/>
+      <c r="N38" s="56"/>
     </row>
     <row r="39" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A39" s="45">
@@ -39644,7 +40019,7 @@
       <c r="C39" s="24">
         <v>0.47847699999999999</v>
       </c>
-      <c r="D39" s="55"/>
+      <c r="D39" s="56"/>
       <c r="F39" s="45">
         <v>4</v>
       </c>
@@ -39654,7 +40029,7 @@
       <c r="H39" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I39" s="55"/>
+      <c r="I39" s="56"/>
       <c r="K39" s="45">
         <v>4</v>
       </c>
@@ -39664,7 +40039,7 @@
       <c r="M39" s="24">
         <v>0.490066</v>
       </c>
-      <c r="N39" s="55"/>
+      <c r="N39" s="56"/>
     </row>
     <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A40" s="45">
@@ -39676,7 +40051,7 @@
       <c r="C40" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="D40" s="55"/>
+      <c r="D40" s="56"/>
       <c r="F40" s="45">
         <v>5</v>
       </c>
@@ -39686,7 +40061,7 @@
       <c r="H40" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I40" s="55"/>
+      <c r="I40" s="56"/>
       <c r="K40" s="45">
         <v>5</v>
       </c>
@@ -39696,7 +40071,7 @@
       <c r="M40" s="24">
         <v>0.49337700000000001</v>
       </c>
-      <c r="N40" s="55"/>
+      <c r="N40" s="56"/>
     </row>
     <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A41" s="45">
@@ -39708,7 +40083,7 @@
       <c r="C41" s="24">
         <v>0.50165599999999999</v>
       </c>
-      <c r="D41" s="55"/>
+      <c r="D41" s="56"/>
       <c r="F41" s="45">
         <v>6</v>
       </c>
@@ -39718,7 +40093,7 @@
       <c r="H41" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I41" s="55"/>
+      <c r="I41" s="56"/>
       <c r="K41" s="45">
         <v>6</v>
       </c>
@@ -39728,7 +40103,7 @@
       <c r="M41" s="24">
         <v>0.49834400000000001</v>
       </c>
-      <c r="N41" s="55"/>
+      <c r="N41" s="56"/>
     </row>
     <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A42" s="45">
@@ -39740,7 +40115,7 @@
       <c r="C42" s="24">
         <v>0.51324499999999995</v>
       </c>
-      <c r="D42" s="55"/>
+      <c r="D42" s="56"/>
       <c r="F42" s="45">
         <v>7</v>
       </c>
@@ -39750,7 +40125,7 @@
       <c r="H42" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I42" s="55"/>
+      <c r="I42" s="56"/>
       <c r="K42" s="45">
         <v>7</v>
       </c>
@@ -39760,7 +40135,7 @@
       <c r="M42" s="24">
         <v>0.51158899999999996</v>
       </c>
-      <c r="N42" s="55"/>
+      <c r="N42" s="56"/>
     </row>
     <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A43" s="45">
@@ -39772,7 +40147,7 @@
       <c r="C43" s="24">
         <v>0.50662300000000005</v>
       </c>
-      <c r="D43" s="55"/>
+      <c r="D43" s="56"/>
       <c r="F43" s="45">
         <v>8</v>
       </c>
@@ -39782,7 +40157,7 @@
       <c r="H43" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="I43" s="55"/>
+      <c r="I43" s="56"/>
       <c r="K43" s="45">
         <v>8</v>
       </c>
@@ -39792,7 +40167,7 @@
       <c r="M43" s="24">
         <v>0.49834400000000001</v>
       </c>
-      <c r="N43" s="55"/>
+      <c r="N43" s="56"/>
     </row>
     <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A44" s="45">
@@ -39804,7 +40179,7 @@
       <c r="C44" s="24">
         <v>0.51655600000000002</v>
       </c>
-      <c r="D44" s="55"/>
+      <c r="D44" s="56"/>
       <c r="F44" s="45">
         <v>9</v>
       </c>
@@ -39814,7 +40189,7 @@
       <c r="H44" s="24">
         <v>0.48344399999999998</v>
       </c>
-      <c r="I44" s="55"/>
+      <c r="I44" s="56"/>
       <c r="K44" s="45">
         <v>9</v>
       </c>
@@ -39824,7 +40199,7 @@
       <c r="M44" s="24">
         <v>0.50827800000000001</v>
       </c>
-      <c r="N44" s="55"/>
+      <c r="N44" s="56"/>
     </row>
     <row r="45" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A45" s="45">
@@ -39836,7 +40211,7 @@
       <c r="C45" s="24">
         <v>0.51158899999999996</v>
       </c>
-      <c r="D45" s="55"/>
+      <c r="D45" s="56"/>
       <c r="F45" s="45">
         <v>10</v>
       </c>
@@ -39846,7 +40221,7 @@
       <c r="H45" s="24">
         <v>0.485099</v>
       </c>
-      <c r="I45" s="55"/>
+      <c r="I45" s="56"/>
       <c r="K45" s="45">
         <v>10</v>
       </c>
@@ -39856,7 +40231,7 @@
       <c r="M45" s="24">
         <v>0.49172199999999999</v>
       </c>
-      <c r="N45" s="55"/>
+      <c r="N45" s="56"/>
     </row>
     <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A46" s="45">
@@ -39868,7 +40243,7 @@
       <c r="C46" s="24">
         <v>0.51158899999999996</v>
       </c>
-      <c r="D46" s="55"/>
+      <c r="D46" s="56"/>
       <c r="F46" s="45">
         <v>11</v>
       </c>
@@ -39878,7 +40253,7 @@
       <c r="H46" s="24">
         <v>0.485099</v>
       </c>
-      <c r="I46" s="55"/>
+      <c r="I46" s="56"/>
       <c r="K46" s="45">
         <v>11</v>
       </c>
@@ -39888,7 +40263,7 @@
       <c r="M46" s="24">
         <v>0.471854</v>
       </c>
-      <c r="N46" s="55"/>
+      <c r="N46" s="56"/>
     </row>
     <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A47" s="45">
@@ -39900,7 +40275,7 @@
       <c r="C47" s="24">
         <v>0.50165599999999999</v>
       </c>
-      <c r="D47" s="55"/>
+      <c r="D47" s="56"/>
       <c r="F47" s="45">
         <v>12</v>
       </c>
@@ -39910,7 +40285,7 @@
       <c r="H47" s="24">
         <v>0.485099</v>
       </c>
-      <c r="I47" s="55"/>
+      <c r="I47" s="56"/>
       <c r="K47" s="45">
         <v>12</v>
       </c>
@@ -39920,11 +40295,11 @@
       <c r="M47" s="24">
         <v>0.49172199999999999</v>
       </c>
-      <c r="N47" s="55"/>
+      <c r="N47" s="56"/>
     </row>
     <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A65" s="48"/>
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="51" t="s">
         <v>45</v>
       </c>
       <c r="C65" s="48" t="s">
@@ -39934,7 +40309,7 @@
         <v>52</v>
       </c>
       <c r="G65" s="48"/>
-      <c r="H65" s="50" t="s">
+      <c r="H65" s="51" t="s">
         <v>45</v>
       </c>
       <c r="I65" s="48" t="s">
@@ -39957,7 +40332,7 @@
       <c r="D66" s="24">
         <v>0.49834400000000001</v>
       </c>
-      <c r="E66" s="55" t="s">
+      <c r="E66" s="56" t="s">
         <v>31</v>
       </c>
       <c r="G66" s="48">
@@ -39972,7 +40347,7 @@
       <c r="J66" s="24">
         <v>0.50165599999999999</v>
       </c>
-      <c r="K66" s="55" t="s">
+      <c r="K66" s="56" t="s">
         <v>32</v>
       </c>
     </row>
@@ -39989,7 +40364,7 @@
       <c r="D67" s="24">
         <v>0.51490100000000005</v>
       </c>
-      <c r="E67" s="55"/>
+      <c r="E67" s="56"/>
       <c r="G67" s="48">
         <v>1</v>
       </c>
@@ -40002,7 +40377,7 @@
       <c r="J67" s="24">
         <v>0.50827800000000001</v>
       </c>
-      <c r="K67" s="55"/>
+      <c r="K67" s="56"/>
     </row>
     <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A68" s="48">
@@ -40017,7 +40392,7 @@
       <c r="D68" s="24">
         <v>0.528146</v>
       </c>
-      <c r="E68" s="55"/>
+      <c r="E68" s="56"/>
       <c r="G68" s="48">
         <v>2</v>
       </c>
@@ -40030,7 +40405,7 @@
       <c r="J68" s="24">
         <v>0.51324499999999995</v>
       </c>
-      <c r="K68" s="55"/>
+      <c r="K68" s="56"/>
     </row>
     <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A69" s="48">
@@ -40045,7 +40420,7 @@
       <c r="D69" s="24">
         <v>0.50827800000000001</v>
       </c>
-      <c r="E69" s="55"/>
+      <c r="E69" s="56"/>
       <c r="G69" s="48">
         <v>3</v>
       </c>
@@ -40058,7 +40433,7 @@
       <c r="J69" s="24">
         <v>0.50827800000000001</v>
       </c>
-      <c r="K69" s="55"/>
+      <c r="K69" s="56"/>
     </row>
     <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A70" s="48">
@@ -40073,7 +40448,7 @@
       <c r="D70" s="24">
         <v>0.47350999999999999</v>
       </c>
-      <c r="E70" s="55"/>
+      <c r="E70" s="56"/>
       <c r="G70" s="48">
         <v>4</v>
       </c>
@@ -40086,7 +40461,7 @@
       <c r="J70" s="24">
         <v>0.50331099999999995</v>
       </c>
-      <c r="K70" s="55"/>
+      <c r="K70" s="56"/>
     </row>
     <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A71" s="48">
@@ -40101,7 +40476,7 @@
       <c r="D71" s="24">
         <v>0.48178799999999999</v>
       </c>
-      <c r="E71" s="55"/>
+      <c r="E71" s="56"/>
       <c r="G71" s="48">
         <v>5</v>
       </c>
@@ -40114,7 +40489,7 @@
       <c r="J71" s="24">
         <v>0.50331099999999995</v>
       </c>
-      <c r="K71" s="55"/>
+      <c r="K71" s="56"/>
     </row>
     <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A72" s="48">
@@ -40129,7 +40504,7 @@
       <c r="D72" s="24">
         <v>0.495033</v>
       </c>
-      <c r="E72" s="55"/>
+      <c r="E72" s="56"/>
       <c r="G72" s="48">
         <v>6</v>
       </c>
@@ -40142,7 +40517,7 @@
       <c r="J72" s="24">
         <v>0.50331099999999995</v>
       </c>
-      <c r="K72" s="55"/>
+      <c r="K72" s="56"/>
     </row>
     <row r="73" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A73" s="48">
@@ -40157,7 +40532,7 @@
       <c r="D73" s="24">
         <v>0.48675499999999999</v>
       </c>
-      <c r="E73" s="55"/>
+      <c r="E73" s="56"/>
       <c r="G73" s="48">
         <v>7</v>
       </c>
@@ -40170,7 +40545,7 @@
       <c r="J73" s="24">
         <v>0.49834400000000001</v>
       </c>
-      <c r="K73" s="55"/>
+      <c r="K73" s="56"/>
     </row>
     <row r="74" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A74" s="48">
@@ -40185,7 +40560,7 @@
       <c r="D74" s="24">
         <v>0.5</v>
       </c>
-      <c r="E74" s="55"/>
+      <c r="E74" s="56"/>
       <c r="G74" s="48">
         <v>8</v>
       </c>
@@ -40198,7 +40573,7 @@
       <c r="J74" s="24">
         <v>0.495033</v>
       </c>
-      <c r="K74" s="55"/>
+      <c r="K74" s="56"/>
     </row>
     <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A75" s="48">
@@ -40213,7 +40588,7 @@
       <c r="D75" s="24">
         <v>0.50662300000000005</v>
       </c>
-      <c r="E75" s="55"/>
+      <c r="E75" s="56"/>
       <c r="G75" s="48">
         <v>9</v>
       </c>
@@ -40226,7 +40601,7 @@
       <c r="J75" s="24">
         <v>0.5</v>
       </c>
-      <c r="K75" s="55"/>
+      <c r="K75" s="56"/>
     </row>
     <row r="76" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A76" s="48">
@@ -40241,7 +40616,7 @@
       <c r="D76" s="24">
         <v>0.48675499999999999</v>
       </c>
-      <c r="E76" s="55"/>
+      <c r="E76" s="56"/>
       <c r="G76" s="48">
         <v>10</v>
       </c>
@@ -40254,7 +40629,7 @@
       <c r="J76" s="24">
         <v>0.51158899999999996</v>
       </c>
-      <c r="K76" s="55"/>
+      <c r="K76" s="56"/>
     </row>
     <row r="77" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A77" s="48">
@@ -40269,7 +40644,7 @@
       <c r="D77" s="24">
         <v>0.52649000000000001</v>
       </c>
-      <c r="E77" s="55"/>
+      <c r="E77" s="56"/>
       <c r="G77" s="48">
         <v>11</v>
       </c>
@@ -40282,7 +40657,7 @@
       <c r="J77" s="24">
         <v>0.528146</v>
       </c>
-      <c r="K77" s="55"/>
+      <c r="K77" s="56"/>
     </row>
     <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.25">
       <c r="A78" s="48">
@@ -40297,7 +40672,7 @@
       <c r="D78" s="24">
         <v>0.509934</v>
       </c>
-      <c r="E78" s="55"/>
+      <c r="E78" s="56"/>
       <c r="G78" s="48">
         <v>12</v>
       </c>
@@ -40310,7 +40685,7 @@
       <c r="J78" s="24">
         <v>0.509934</v>
       </c>
-      <c r="K78" s="55"/>
+      <c r="K78" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -40381,7 +40756,7 @@
       <c r="C2" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="56" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="1">
@@ -40393,7 +40768,7 @@
       <c r="H2" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="1">
@@ -40405,7 +40780,7 @@
       <c r="M2" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N2" s="55" t="s">
+      <c r="N2" s="56" t="s">
         <v>28</v>
       </c>
     </row>
@@ -40419,7 +40794,7 @@
       <c r="C3" s="24">
         <v>0.569546</v>
       </c>
-      <c r="D3" s="55"/>
+      <c r="D3" s="56"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -40429,7 +40804,7 @@
       <c r="H3" s="24">
         <v>0.56991199999999997</v>
       </c>
-      <c r="I3" s="55"/>
+      <c r="I3" s="56"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
@@ -40439,7 +40814,7 @@
       <c r="M3" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N3" s="55"/>
+      <c r="N3" s="56"/>
     </row>
     <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -40451,7 +40826,7 @@
       <c r="C4" s="24">
         <v>0.567716</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="56"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -40461,7 +40836,7 @@
       <c r="H4" s="24">
         <v>0.56881400000000004</v>
       </c>
-      <c r="I4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
@@ -40471,7 +40846,7 @@
       <c r="M4" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N4" s="55"/>
+      <c r="N4" s="56"/>
     </row>
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -40483,7 +40858,7 @@
       <c r="C5" s="24">
         <v>0.58894599999999997</v>
       </c>
-      <c r="D5" s="55"/>
+      <c r="D5" s="56"/>
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -40493,7 +40868,7 @@
       <c r="H5" s="24">
         <v>0.58308899999999997</v>
       </c>
-      <c r="I5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
@@ -40503,7 +40878,7 @@
       <c r="M5" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N5" s="55"/>
+      <c r="N5" s="56"/>
     </row>
     <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -40515,7 +40890,7 @@
       <c r="C6" s="24">
         <v>0.60175699999999999</v>
       </c>
-      <c r="D6" s="55"/>
+      <c r="D6" s="56"/>
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -40525,7 +40900,7 @@
       <c r="H6" s="24">
         <v>0.60651500000000003</v>
       </c>
-      <c r="I6" s="55"/>
+      <c r="I6" s="56"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
@@ -40535,7 +40910,7 @@
       <c r="M6" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N6" s="55"/>
+      <c r="N6" s="56"/>
     </row>
     <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -40547,7 +40922,7 @@
       <c r="C7" s="24">
         <v>0.61712999999999996</v>
       </c>
-      <c r="D7" s="55"/>
+      <c r="D7" s="56"/>
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -40557,7 +40932,7 @@
       <c r="H7" s="24">
         <v>0.61786200000000002</v>
       </c>
-      <c r="I7" s="55"/>
+      <c r="I7" s="56"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
@@ -40567,7 +40942,7 @@
       <c r="M7" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N7" s="55"/>
+      <c r="N7" s="56"/>
     </row>
     <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -40579,7 +40954,7 @@
       <c r="C8" s="24">
         <v>0.620425</v>
       </c>
-      <c r="D8" s="55"/>
+      <c r="D8" s="56"/>
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -40589,7 +40964,7 @@
       <c r="H8" s="24">
         <v>0.61090800000000001</v>
       </c>
-      <c r="I8" s="55"/>
+      <c r="I8" s="56"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
@@ -40599,7 +40974,7 @@
       <c r="M8" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N8" s="55"/>
+      <c r="N8" s="56"/>
     </row>
     <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -40611,7 +40986,7 @@
       <c r="C9" s="24">
         <v>0.633602</v>
       </c>
-      <c r="D9" s="55"/>
+      <c r="D9" s="56"/>
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -40621,7 +40996,7 @@
       <c r="H9" s="24">
         <v>0.61786200000000002</v>
       </c>
-      <c r="I9" s="55"/>
+      <c r="I9" s="56"/>
       <c r="K9" s="1">
         <v>7</v>
       </c>
@@ -40631,7 +41006,7 @@
       <c r="M9" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N9" s="55"/>
+      <c r="N9" s="56"/>
     </row>
     <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -40643,7 +41018,7 @@
       <c r="C10" s="24">
         <v>0.62847699999999995</v>
       </c>
-      <c r="D10" s="55"/>
+      <c r="D10" s="56"/>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -40653,7 +41028,7 @@
       <c r="H10" s="24">
         <v>0.620425</v>
       </c>
-      <c r="I10" s="55"/>
+      <c r="I10" s="56"/>
       <c r="K10" s="1">
         <v>8</v>
       </c>
@@ -40663,7 +41038,7 @@
       <c r="M10" s="24">
         <v>0.57906299999999999</v>
       </c>
-      <c r="N10" s="55"/>
+      <c r="N10" s="56"/>
     </row>
     <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -40675,7 +41050,7 @@
       <c r="C11" s="24">
         <v>0.62664699999999995</v>
       </c>
-      <c r="D11" s="55"/>
+      <c r="D11" s="56"/>
       <c r="F11" s="1">
         <v>9</v>
       </c>
@@ -40685,7 +41060,7 @@
       <c r="H11" s="24">
         <v>0.61712999999999996</v>
       </c>
-      <c r="I11" s="55"/>
+      <c r="I11" s="56"/>
       <c r="K11" s="1">
         <v>9</v>
       </c>
@@ -40695,7 +41070,7 @@
       <c r="M11" s="24">
         <v>0.58491899999999997</v>
       </c>
-      <c r="N11" s="55"/>
+      <c r="N11" s="56"/>
     </row>
     <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -40707,7 +41082,7 @@
       <c r="C12" s="24">
         <v>0.63250399999999996</v>
       </c>
-      <c r="D12" s="55"/>
+      <c r="D12" s="56"/>
       <c r="F12" s="1">
         <v>10</v>
       </c>
@@ -40717,7 +41092,7 @@
       <c r="H12" s="24">
         <v>0.62005900000000003</v>
       </c>
-      <c r="I12" s="55"/>
+      <c r="I12" s="56"/>
       <c r="K12" s="1">
         <v>10</v>
       </c>
@@ -40727,7 +41102,7 @@
       <c r="M12" s="24">
         <v>0.59553400000000001</v>
       </c>
-      <c r="N12" s="55"/>
+      <c r="N12" s="56"/>
     </row>
     <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -40739,7 +41114,7 @@
       <c r="C13" s="24">
         <v>0.63689600000000002</v>
       </c>
-      <c r="D13" s="55"/>
+      <c r="D13" s="56"/>
       <c r="F13" s="1">
         <v>11</v>
       </c>
@@ -40749,7 +41124,7 @@
       <c r="H13" s="24">
         <v>0.62884300000000004</v>
       </c>
-      <c r="I13" s="55"/>
+      <c r="I13" s="56"/>
       <c r="K13" s="1">
         <v>11</v>
       </c>
@@ -40759,7 +41134,7 @@
       <c r="M13" s="24">
         <v>0.64055600000000001</v>
       </c>
-      <c r="N13" s="55"/>
+      <c r="N13" s="56"/>
     </row>
     <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -40771,7 +41146,7 @@
       <c r="C14" s="24">
         <v>0.64019000000000004</v>
       </c>
-      <c r="D14" s="55"/>
+      <c r="D14" s="56"/>
       <c r="F14" s="1">
         <v>12</v>
       </c>
@@ -40781,7 +41156,7 @@
       <c r="H14" s="24">
         <v>0.63872600000000002</v>
       </c>
-      <c r="I14" s="55"/>
+      <c r="I14" s="56"/>
       <c r="K14" s="1">
         <v>12</v>
       </c>
@@ -40791,7 +41166,7 @@
       <c r="M14" s="24">
         <v>0.66800899999999996</v>
       </c>
-      <c r="N14" s="55"/>
+      <c r="N14" s="56"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="42" t="s">
@@ -40832,7 +41207,7 @@
       <c r="C32" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="56" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="42">
@@ -40844,7 +41219,7 @@
       <c r="H32" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="I32" s="55" t="s">
+      <c r="I32" s="56" t="s">
         <v>20</v>
       </c>
       <c r="K32" s="42">
@@ -40856,7 +41231,7 @@
       <c r="M32" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N32" s="55" t="s">
+      <c r="N32" s="56" t="s">
         <v>57</v>
       </c>
     </row>
@@ -40870,7 +41245,7 @@
       <c r="C33" s="24">
         <v>0.56844799999999995</v>
       </c>
-      <c r="D33" s="55"/>
+      <c r="D33" s="56"/>
       <c r="F33" s="42">
         <v>1</v>
       </c>
@@ -40880,7 +41255,7 @@
       <c r="H33" s="24">
         <v>0.53916500000000001</v>
       </c>
-      <c r="I33" s="55"/>
+      <c r="I33" s="56"/>
       <c r="K33" s="42">
         <v>1</v>
       </c>
@@ -40890,7 +41265,7 @@
       <c r="M33" s="24">
         <v>0.57357199999999997</v>
       </c>
-      <c r="N33" s="55"/>
+      <c r="N33" s="56"/>
     </row>
     <row r="34" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A34" s="42">
@@ -40902,7 +41277,7 @@
       <c r="C34" s="24">
         <v>0.57796499999999995</v>
       </c>
-      <c r="D34" s="55"/>
+      <c r="D34" s="56"/>
       <c r="F34" s="42">
         <v>2</v>
       </c>
@@ -40912,7 +41287,7 @@
       <c r="H34" s="24">
         <v>0.53074699999999997</v>
       </c>
-      <c r="I34" s="55"/>
+      <c r="I34" s="56"/>
       <c r="K34" s="42">
         <v>2</v>
       </c>
@@ -40922,7 +41297,7 @@
       <c r="M34" s="24">
         <v>0.57686700000000002</v>
       </c>
-      <c r="N34" s="55"/>
+      <c r="N34" s="56"/>
     </row>
     <row r="35" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A35" s="42">
@@ -40934,7 +41309,7 @@
       <c r="C35" s="24">
         <v>0.59516800000000003</v>
       </c>
-      <c r="D35" s="55"/>
+      <c r="D35" s="56"/>
       <c r="F35" s="42">
         <v>3</v>
       </c>
@@ -40944,7 +41319,7 @@
       <c r="H35" s="24">
         <v>0.554539</v>
       </c>
-      <c r="I35" s="55"/>
+      <c r="I35" s="56"/>
       <c r="K35" s="42">
         <v>3</v>
       </c>
@@ -40954,7 +41329,7 @@
       <c r="M35" s="24">
         <v>0.55307499999999998</v>
       </c>
-      <c r="N35" s="55"/>
+      <c r="N35" s="56"/>
     </row>
     <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A36" s="42">
@@ -40966,7 +41341,7 @@
       <c r="C36" s="24">
         <v>0.58565199999999995</v>
       </c>
-      <c r="D36" s="55"/>
+      <c r="D36" s="56"/>
       <c r="F36" s="42">
         <v>4</v>
       </c>
@@ -40976,7 +41351,7 @@
       <c r="H36" s="24">
         <v>0.439971</v>
       </c>
-      <c r="I36" s="55"/>
+      <c r="I36" s="56"/>
       <c r="K36" s="42">
         <v>4</v>
       </c>
@@ -40986,7 +41361,7 @@
       <c r="M36" s="24">
         <v>0.569546</v>
       </c>
-      <c r="N36" s="55"/>
+      <c r="N36" s="56"/>
     </row>
     <row r="37" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A37" s="42">
@@ -40998,7 +41373,7 @@
       <c r="C37" s="24">
         <v>0.59882899999999994</v>
       </c>
-      <c r="D37" s="55"/>
+      <c r="D37" s="56"/>
       <c r="F37" s="42">
         <v>5</v>
       </c>
@@ -41008,7 +41383,7 @@
       <c r="H37" s="24">
         <v>0.43447999999999998</v>
       </c>
-      <c r="I37" s="55"/>
+      <c r="I37" s="56"/>
       <c r="K37" s="42">
         <v>5</v>
       </c>
@@ -41018,7 +41393,7 @@
       <c r="M37" s="24">
         <v>0.470717</v>
       </c>
-      <c r="N37" s="55"/>
+      <c r="N37" s="56"/>
     </row>
     <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A38" s="42">
@@ -41030,7 +41405,7 @@
       <c r="C38" s="24">
         <v>0.59626599999999996</v>
       </c>
-      <c r="D38" s="55"/>
+      <c r="D38" s="56"/>
       <c r="F38" s="42">
         <v>6</v>
       </c>
@@ -41040,7 +41415,7 @@
       <c r="H38" s="24">
         <v>0.43447999999999998</v>
       </c>
-      <c r="I38" s="55"/>
+      <c r="I38" s="56"/>
       <c r="K38" s="42">
         <v>6</v>
       </c>
@@ -41050,7 +41425,7 @@
       <c r="M38" s="24">
         <v>0.453148</v>
       </c>
-      <c r="N38" s="55"/>
+      <c r="N38" s="56"/>
     </row>
     <row r="39" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A39" s="42">
@@ -41062,7 +41437,7 @@
       <c r="C39" s="24">
         <v>0.59370400000000001</v>
       </c>
-      <c r="D39" s="55"/>
+      <c r="D39" s="56"/>
       <c r="F39" s="42">
         <v>7</v>
       </c>
@@ -41072,7 +41447,7 @@
       <c r="H39" s="24">
         <v>0.58345499999999995</v>
       </c>
-      <c r="I39" s="55"/>
+      <c r="I39" s="56"/>
       <c r="K39" s="42">
         <v>7</v>
       </c>
@@ -41082,7 +41457,7 @@
       <c r="M39" s="24">
         <v>0.45497799999999999</v>
       </c>
-      <c r="N39" s="55"/>
+      <c r="N39" s="56"/>
     </row>
     <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A40" s="42">
@@ -41094,7 +41469,7 @@
       <c r="C40" s="24">
         <v>0.58821400000000001</v>
       </c>
-      <c r="D40" s="55"/>
+      <c r="D40" s="56"/>
       <c r="F40" s="42">
         <v>8</v>
       </c>
@@ -41104,7 +41479,7 @@
       <c r="H40" s="24">
         <v>0.60139100000000001</v>
       </c>
-      <c r="I40" s="55"/>
+      <c r="I40" s="56"/>
       <c r="K40" s="42">
         <v>8</v>
       </c>
@@ -41114,7 +41489,7 @@
       <c r="M40" s="24">
         <v>0.51573899999999995</v>
       </c>
-      <c r="N40" s="55"/>
+      <c r="N40" s="56"/>
     </row>
     <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A41" s="42">
@@ -41126,7 +41501,7 @@
       <c r="C41" s="24">
         <v>0.59846299999999997</v>
       </c>
-      <c r="D41" s="55"/>
+      <c r="D41" s="56"/>
       <c r="F41" s="42">
         <v>9</v>
       </c>
@@ -41136,7 +41511,7 @@
       <c r="H41" s="24">
         <v>0.44289899999999999</v>
       </c>
-      <c r="I41" s="55"/>
+      <c r="I41" s="56"/>
       <c r="K41" s="42">
         <v>9</v>
       </c>
@@ -41146,7 +41521,7 @@
       <c r="M41" s="24">
         <v>0.51939999999999997</v>
       </c>
-      <c r="N41" s="55"/>
+      <c r="N41" s="56"/>
     </row>
     <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A42" s="42">
@@ -41158,7 +41533,7 @@
       <c r="C42" s="24">
         <v>0.60212299999999996</v>
       </c>
-      <c r="D42" s="55"/>
+      <c r="D42" s="56"/>
       <c r="F42" s="42">
         <v>10</v>
       </c>
@@ -41168,7 +41543,7 @@
       <c r="H42" s="24">
         <v>0.62115699999999996</v>
       </c>
-      <c r="I42" s="55"/>
+      <c r="I42" s="56"/>
       <c r="K42" s="42">
         <v>10</v>
       </c>
@@ -41178,7 +41553,7 @@
       <c r="M42" s="24">
         <v>0.49194700000000002</v>
       </c>
-      <c r="N42" s="55"/>
+      <c r="N42" s="56"/>
     </row>
     <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A43" s="42">
@@ -41190,7 +41565,7 @@
       <c r="C43" s="24">
         <v>0.61127399999999998</v>
       </c>
-      <c r="D43" s="55"/>
+      <c r="D43" s="56"/>
       <c r="F43" s="42">
         <v>11</v>
       </c>
@@ -41200,7 +41575,7 @@
       <c r="H43" s="24">
         <v>0.46486100000000002</v>
       </c>
-      <c r="I43" s="55"/>
+      <c r="I43" s="56"/>
       <c r="K43" s="42">
         <v>11</v>
       </c>
@@ -41210,7 +41585,7 @@
       <c r="M43" s="24">
         <v>0.50073199999999995</v>
       </c>
-      <c r="N43" s="55"/>
+      <c r="N43" s="56"/>
     </row>
     <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A44" s="42">
@@ -41222,7 +41597,7 @@
       <c r="C44" s="24">
         <v>0.614568</v>
       </c>
-      <c r="D44" s="55"/>
+      <c r="D44" s="56"/>
       <c r="F44" s="42">
         <v>12</v>
       </c>
@@ -41232,7 +41607,7 @@
       <c r="H44" s="24">
         <v>0.612738</v>
       </c>
-      <c r="I44" s="55"/>
+      <c r="I44" s="56"/>
       <c r="K44" s="42">
         <v>12</v>
       </c>
@@ -41242,7 +41617,7 @@
       <c r="M44" s="24">
         <v>0.51390899999999995</v>
       </c>
-      <c r="N44" s="55"/>
+      <c r="N44" s="56"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="42" t="s">
@@ -41283,7 +41658,7 @@
       <c r="C61" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="D61" s="55" t="s">
+      <c r="D61" s="56" t="s">
         <v>22</v>
       </c>
       <c r="F61" s="42">
@@ -41295,7 +41670,7 @@
       <c r="H61" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="I61" s="55" t="s">
+      <c r="I61" s="56" t="s">
         <v>58</v>
       </c>
       <c r="K61" s="42">
@@ -41307,7 +41682,7 @@
       <c r="M61" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="N61" s="55" t="s">
+      <c r="N61" s="56" t="s">
         <v>26</v>
       </c>
     </row>
@@ -41321,7 +41696,7 @@
       <c r="C62" s="24">
         <v>0.58748199999999995</v>
       </c>
-      <c r="D62" s="55"/>
+      <c r="D62" s="56"/>
       <c r="F62" s="42">
         <v>1</v>
       </c>
@@ -41331,7 +41706,7 @@
       <c r="H62" s="24">
         <v>0.56295799999999996</v>
       </c>
-      <c r="I62" s="55"/>
+      <c r="I62" s="56"/>
       <c r="K62" s="42">
         <v>1</v>
       </c>
@@ -41341,7 +41716,7 @@
       <c r="M62" s="24">
         <v>0.56698400000000004</v>
       </c>
-      <c r="N62" s="55"/>
+      <c r="N62" s="56"/>
     </row>
     <row r="63" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A63" s="42">
@@ -41353,7 +41728,7 @@
       <c r="C63" s="24">
         <v>0.60724699999999998</v>
       </c>
-      <c r="D63" s="55"/>
+      <c r="D63" s="56"/>
       <c r="F63" s="42">
         <v>2</v>
       </c>
@@ -41363,7 +41738,7 @@
       <c r="H63" s="24">
         <v>0.52928299999999995</v>
       </c>
-      <c r="I63" s="55"/>
+      <c r="I63" s="56"/>
       <c r="K63" s="42">
         <v>2</v>
       </c>
@@ -41373,7 +41748,7 @@
       <c r="M63" s="24">
         <v>0.57430499999999995</v>
       </c>
-      <c r="N63" s="55"/>
+      <c r="N63" s="56"/>
     </row>
     <row r="64" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A64" s="42">
@@ -41385,7 +41760,7 @@
       <c r="C64" s="24">
         <v>0.620425</v>
       </c>
-      <c r="D64" s="55"/>
+      <c r="D64" s="56"/>
       <c r="F64" s="42">
         <v>3</v>
       </c>
@@ -41395,7 +41770,7 @@
       <c r="H64" s="24">
         <v>0.54904799999999998</v>
       </c>
-      <c r="I64" s="55"/>
+      <c r="I64" s="56"/>
       <c r="K64" s="42">
         <v>3</v>
       </c>
@@ -41405,7 +41780,7 @@
       <c r="M64" s="24">
         <v>0.57979499999999995</v>
       </c>
-      <c r="N64" s="55"/>
+      <c r="N64" s="56"/>
     </row>
     <row r="65" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A65" s="42">
@@ -41417,7 +41792,7 @@
       <c r="C65" s="24">
         <v>0.60468500000000003</v>
       </c>
-      <c r="D65" s="55"/>
+      <c r="D65" s="56"/>
       <c r="F65" s="42">
         <v>4</v>
       </c>
@@ -41427,7 +41802,7 @@
       <c r="H65" s="24">
         <v>0.52964900000000004</v>
       </c>
-      <c r="I65" s="55"/>
+      <c r="I65" s="56"/>
       <c r="K65" s="42">
         <v>4</v>
       </c>
@@ -41437,7 +41812,7 @@
       <c r="M65" s="24">
         <v>0.571376</v>
       </c>
-      <c r="N65" s="55"/>
+      <c r="N65" s="56"/>
     </row>
     <row r="66" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A66" s="42">
@@ -41449,7 +41824,7 @@
       <c r="C66" s="24">
         <v>0.58199100000000004</v>
       </c>
-      <c r="D66" s="55"/>
+      <c r="D66" s="56"/>
       <c r="F66" s="42">
         <v>5</v>
       </c>
@@ -41459,7 +41834,7 @@
       <c r="H66" s="24">
         <v>0.46559299999999998</v>
       </c>
-      <c r="I66" s="55"/>
+      <c r="I66" s="56"/>
       <c r="K66" s="42">
         <v>5</v>
       </c>
@@ -41469,7 +41844,7 @@
       <c r="M66" s="24">
         <v>0.57906299999999999</v>
       </c>
-      <c r="N66" s="55"/>
+      <c r="N66" s="56"/>
     </row>
     <row r="67" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A67" s="42">
@@ -41481,7 +41856,7 @@
       <c r="C67" s="24">
         <v>0.47327999999999998</v>
       </c>
-      <c r="D67" s="55"/>
+      <c r="D67" s="56"/>
       <c r="F67" s="42">
         <v>6</v>
       </c>
@@ -41491,7 +41866,7 @@
       <c r="H67" s="24">
         <v>0.58821400000000001</v>
       </c>
-      <c r="I67" s="55"/>
+      <c r="I67" s="56"/>
       <c r="K67" s="42">
         <v>6</v>
       </c>
@@ -41501,7 +41876,7 @@
       <c r="M67" s="24">
         <v>0.57210799999999995</v>
       </c>
-      <c r="N67" s="55"/>
+      <c r="N67" s="56"/>
     </row>
     <row r="68" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A68" s="42">
@@ -41513,7 +41888,7 @@
       <c r="C68" s="24">
         <v>0.46486100000000002</v>
       </c>
-      <c r="D68" s="55"/>
+      <c r="D68" s="56"/>
       <c r="F68" s="42">
         <v>7</v>
       </c>
@@ -41523,7 +41898,7 @@
       <c r="H68" s="24">
         <v>0.58857999999999999</v>
       </c>
-      <c r="I68" s="55"/>
+      <c r="I68" s="56"/>
       <c r="K68" s="42">
         <v>7</v>
       </c>
@@ -41533,7 +41908,7 @@
       <c r="M68" s="24">
         <v>0.56625199999999998</v>
       </c>
-      <c r="N68" s="55"/>
+      <c r="N68" s="56"/>
     </row>
     <row r="69" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A69" s="42">
@@ -41545,7 +41920,7 @@
       <c r="C69" s="24">
         <v>0.51098100000000002</v>
       </c>
-      <c r="D69" s="55"/>
+      <c r="D69" s="56"/>
       <c r="F69" s="42">
         <v>8</v>
       </c>
@@ -41555,7 +41930,7 @@
       <c r="H69" s="24">
         <v>0.61420200000000003</v>
       </c>
-      <c r="I69" s="55"/>
+      <c r="I69" s="56"/>
       <c r="K69" s="42">
         <v>8</v>
       </c>
@@ -41565,7 +41940,7 @@
       <c r="M69" s="24">
         <v>0.57650100000000004</v>
       </c>
-      <c r="N69" s="55"/>
+      <c r="N69" s="56"/>
     </row>
     <row r="70" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A70" s="42">
@@ -41577,7 +41952,7 @@
       <c r="C70" s="24">
         <v>0.53623699999999996</v>
       </c>
-      <c r="D70" s="55"/>
+      <c r="D70" s="56"/>
       <c r="F70" s="42">
         <v>9</v>
       </c>
@@ -41587,7 +41962,7 @@
       <c r="H70" s="24">
         <v>0.60614900000000005</v>
       </c>
-      <c r="I70" s="55"/>
+      <c r="I70" s="56"/>
       <c r="K70" s="42">
         <v>9</v>
       </c>
@@ -41597,7 +41972,7 @@
       <c r="M70" s="24">
         <v>0.57503700000000002</v>
       </c>
-      <c r="N70" s="55"/>
+      <c r="N70" s="56"/>
     </row>
     <row r="71" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A71" s="42">
@@ -41609,7 +41984,7 @@
       <c r="C71" s="24">
         <v>0.61712999999999996</v>
       </c>
-      <c r="D71" s="55"/>
+      <c r="D71" s="56"/>
       <c r="F71" s="42">
         <v>10</v>
       </c>
@@ -41619,7 +41994,7 @@
       <c r="H71" s="24">
         <v>0.61603200000000002</v>
       </c>
-      <c r="I71" s="55"/>
+      <c r="I71" s="56"/>
       <c r="K71" s="42">
         <v>10</v>
       </c>
@@ -41629,7 +42004,7 @@
       <c r="M71" s="24">
         <v>0.57467100000000004</v>
       </c>
-      <c r="N71" s="55"/>
+      <c r="N71" s="56"/>
     </row>
     <row r="72" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A72" s="42">
@@ -41641,7 +42016,7 @@
       <c r="C72" s="24">
         <v>0.59223999999999999</v>
       </c>
-      <c r="D72" s="55"/>
+      <c r="D72" s="56"/>
       <c r="F72" s="42">
         <v>11</v>
       </c>
@@ -41651,7 +42026,7 @@
       <c r="H72" s="24">
         <v>0.59919500000000003</v>
       </c>
-      <c r="I72" s="55"/>
+      <c r="I72" s="56"/>
       <c r="K72" s="42">
         <v>11</v>
       </c>
@@ -41661,7 +42036,7 @@
       <c r="M72" s="24">
         <v>0.56625199999999998</v>
       </c>
-      <c r="N72" s="55"/>
+      <c r="N72" s="56"/>
     </row>
     <row r="73" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A73" s="42">
@@ -41673,7 +42048,7 @@
       <c r="C73" s="24">
         <v>0.63579799999999997</v>
       </c>
-      <c r="D73" s="55"/>
+      <c r="D73" s="56"/>
       <c r="F73" s="42">
         <v>12</v>
       </c>
@@ -41683,7 +42058,7 @@
       <c r="H73" s="24">
         <v>0.59260599999999997</v>
       </c>
-      <c r="I73" s="55"/>
+      <c r="I73" s="56"/>
       <c r="K73" s="42">
         <v>12</v>
       </c>
@@ -41693,7 +42068,7 @@
       <c r="M73" s="24">
         <v>0.57284000000000002</v>
       </c>
-      <c r="N73" s="55"/>
+      <c r="N73" s="56"/>
     </row>
     <row r="89" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A89" s="42" t="s">
@@ -41706,7 +42081,7 @@
         <v>32</v>
       </c>
       <c r="F89" s="48"/>
-      <c r="G89" s="50" t="s">
+      <c r="G89" s="51" t="s">
         <v>45</v>
       </c>
       <c r="H89" s="48" t="s">
@@ -41716,7 +42091,7 @@
         <v>52</v>
       </c>
       <c r="L89" s="48"/>
-      <c r="M89" s="50" t="s">
+      <c r="M89" s="51" t="s">
         <v>45</v>
       </c>
       <c r="N89" s="48" t="s">
@@ -41736,7 +42111,7 @@
       <c r="C90" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="D90" s="55" t="s">
+      <c r="D90" s="56" t="s">
         <v>27</v>
       </c>
       <c r="F90" s="48">
@@ -41751,7 +42126,7 @@
       <c r="I90" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="J90" s="55" t="s">
+      <c r="J90" s="56" t="s">
         <v>31</v>
       </c>
       <c r="L90" s="48">
@@ -41766,7 +42141,7 @@
       <c r="O90" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="P90" s="55" t="s">
+      <c r="P90" s="56" t="s">
         <v>32</v>
       </c>
     </row>
@@ -41780,7 +42155,7 @@
       <c r="C91" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="D91" s="55"/>
+      <c r="D91" s="56"/>
       <c r="F91" s="48">
         <v>1</v>
       </c>
@@ -41793,7 +42168,7 @@
       <c r="I91" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="J91" s="55"/>
+      <c r="J91" s="56"/>
       <c r="L91" s="48">
         <v>1</v>
       </c>
@@ -41806,7 +42181,7 @@
       <c r="O91" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="P91" s="55"/>
+      <c r="P91" s="56"/>
     </row>
     <row r="92" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A92" s="42">
@@ -41818,7 +42193,7 @@
       <c r="C92" s="24">
         <v>0.56698400000000004</v>
       </c>
-      <c r="D92" s="55"/>
+      <c r="D92" s="56"/>
       <c r="F92" s="48">
         <v>2</v>
       </c>
@@ -41831,7 +42206,7 @@
       <c r="I92" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="J92" s="55"/>
+      <c r="J92" s="56"/>
       <c r="L92" s="48">
         <v>2</v>
       </c>
@@ -41844,7 +42219,7 @@
       <c r="O92" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="P92" s="55"/>
+      <c r="P92" s="56"/>
     </row>
     <row r="93" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A93" s="42">
@@ -41856,7 +42231,7 @@
       <c r="C93" s="24">
         <v>0.565886</v>
       </c>
-      <c r="D93" s="55"/>
+      <c r="D93" s="56"/>
       <c r="F93" s="48">
         <v>3</v>
       </c>
@@ -41869,7 +42244,7 @@
       <c r="I93" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="J93" s="55"/>
+      <c r="J93" s="56"/>
       <c r="L93" s="48">
         <v>3</v>
       </c>
@@ -41882,7 +42257,7 @@
       <c r="O93" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="P93" s="55"/>
+      <c r="P93" s="56"/>
     </row>
     <row r="94" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A94" s="42">
@@ -41894,7 +42269,7 @@
       <c r="C94" s="24">
         <v>0.569546</v>
       </c>
-      <c r="D94" s="55"/>
+      <c r="D94" s="56"/>
       <c r="F94" s="48">
         <v>4</v>
       </c>
@@ -41907,7 +42282,7 @@
       <c r="I94" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="J94" s="55"/>
+      <c r="J94" s="56"/>
       <c r="L94" s="48">
         <v>4</v>
       </c>
@@ -41920,7 +42295,7 @@
       <c r="O94" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="P94" s="55"/>
+      <c r="P94" s="56"/>
     </row>
     <row r="95" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A95" s="42">
@@ -41932,7 +42307,7 @@
       <c r="C95" s="24">
         <v>0.57284000000000002</v>
       </c>
-      <c r="D95" s="55"/>
+      <c r="D95" s="56"/>
       <c r="F95" s="48">
         <v>5</v>
       </c>
@@ -41945,7 +42320,7 @@
       <c r="I95" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="J95" s="55"/>
+      <c r="J95" s="56"/>
       <c r="L95" s="48">
         <v>5</v>
       </c>
@@ -41958,7 +42333,7 @@
       <c r="O95" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="P95" s="55"/>
+      <c r="P95" s="56"/>
     </row>
     <row r="96" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A96" s="42">
@@ -41970,7 +42345,7 @@
       <c r="C96" s="24">
         <v>0.51281100000000002</v>
       </c>
-      <c r="D96" s="55"/>
+      <c r="D96" s="56"/>
       <c r="F96" s="48">
         <v>6</v>
       </c>
@@ -41983,7 +42358,7 @@
       <c r="I96" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="J96" s="55"/>
+      <c r="J96" s="56"/>
       <c r="L96" s="48">
         <v>6</v>
       </c>
@@ -41996,7 +42371,7 @@
       <c r="O96" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="P96" s="55"/>
+      <c r="P96" s="56"/>
     </row>
     <row r="97" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A97" s="42">
@@ -42008,7 +42383,7 @@
       <c r="C97" s="24">
         <v>0.51207899999999995</v>
       </c>
-      <c r="D97" s="55"/>
+      <c r="D97" s="56"/>
       <c r="F97" s="48">
         <v>7</v>
       </c>
@@ -42021,7 +42396,7 @@
       <c r="I97" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="J97" s="55"/>
+      <c r="J97" s="56"/>
       <c r="L97" s="48">
         <v>7</v>
       </c>
@@ -42034,7 +42409,7 @@
       <c r="O97" s="24">
         <v>0.56552000000000002</v>
       </c>
-      <c r="P97" s="55"/>
+      <c r="P97" s="56"/>
     </row>
     <row r="98" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A98" s="42">
@@ -42046,7 +42421,7 @@
       <c r="C98" s="24">
         <v>0.52562200000000003</v>
       </c>
-      <c r="D98" s="55"/>
+      <c r="D98" s="56"/>
       <c r="F98" s="48">
         <v>8</v>
       </c>
@@ -42059,7 +42434,7 @@
       <c r="I98" s="24">
         <v>0.58089299999999999</v>
       </c>
-      <c r="J98" s="55"/>
+      <c r="J98" s="56"/>
       <c r="L98" s="48">
         <v>8</v>
       </c>
@@ -42072,7 +42447,7 @@
       <c r="O98" s="24">
         <v>0.57906299999999999</v>
       </c>
-      <c r="P98" s="55"/>
+      <c r="P98" s="56"/>
     </row>
     <row r="99" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A99" s="42">
@@ -42084,7 +42459,7 @@
       <c r="C99" s="24">
         <v>0.488653</v>
       </c>
-      <c r="D99" s="55"/>
+      <c r="D99" s="56"/>
       <c r="F99" s="48">
         <v>9</v>
       </c>
@@ -42097,7 +42472,7 @@
       <c r="I99" s="24">
         <v>0.59077599999999997</v>
       </c>
-      <c r="J99" s="55"/>
+      <c r="J99" s="56"/>
       <c r="L99" s="48">
         <v>9</v>
       </c>
@@ -42110,7 +42485,7 @@
       <c r="O99" s="24">
         <v>0.58491899999999997</v>
       </c>
-      <c r="P99" s="55"/>
+      <c r="P99" s="56"/>
     </row>
     <row r="100" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A100" s="42">
@@ -42122,7 +42497,7 @@
       <c r="C100" s="24">
         <v>0.48243000000000003</v>
       </c>
-      <c r="D100" s="55"/>
+      <c r="D100" s="56"/>
       <c r="F100" s="48">
         <v>10</v>
       </c>
@@ -42135,7 +42510,7 @@
       <c r="I100" s="24">
         <v>0.60505100000000001</v>
       </c>
-      <c r="J100" s="55"/>
+      <c r="J100" s="56"/>
       <c r="L100" s="48">
         <v>10</v>
       </c>
@@ -42148,7 +42523,7 @@
       <c r="O100" s="24">
         <v>0.59553400000000001</v>
       </c>
-      <c r="P100" s="55"/>
+      <c r="P100" s="56"/>
     </row>
     <row r="101" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A101" s="42">
@@ -42160,7 +42535,7 @@
       <c r="C101" s="24">
         <v>0.48169800000000002</v>
       </c>
-      <c r="D101" s="55"/>
+      <c r="D101" s="56"/>
       <c r="F101" s="48">
         <v>11</v>
       </c>
@@ -42173,7 +42548,7 @@
       <c r="I101" s="24">
         <v>0.64787700000000004</v>
       </c>
-      <c r="J101" s="55"/>
+      <c r="J101" s="56"/>
       <c r="L101" s="48">
         <v>11</v>
       </c>
@@ -42186,7 +42561,7 @@
       <c r="O101" s="24">
         <v>0.64055600000000001</v>
       </c>
-      <c r="P101" s="55"/>
+      <c r="P101" s="56"/>
     </row>
     <row r="102" spans="1:16" ht="16" x14ac:dyDescent="0.25">
       <c r="A102" s="42">
@@ -42198,7 +42573,7 @@
       <c r="C102" s="24">
         <v>0.48389500000000002</v>
       </c>
-      <c r="D102" s="55"/>
+      <c r="D102" s="56"/>
       <c r="F102" s="48">
         <v>12</v>
       </c>
@@ -42211,7 +42586,7 @@
       <c r="I102" s="24">
         <v>0.65739400000000003</v>
       </c>
-      <c r="J102" s="55"/>
+      <c r="J102" s="56"/>
       <c r="L102" s="48">
         <v>12</v>
       </c>
@@ -42224,7 +42599,7 @@
       <c r="O102" s="24">
         <v>0.66800899999999996</v>
       </c>
-      <c r="P102" s="55"/>
+      <c r="P102" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/POS Code/Experiments/attachments/detailed_results.xlsx
+++ b/POS Code/Experiments/attachments/detailed_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756CD046-2112-0C4B-A55E-21BD2060D248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69801B3-EB67-2D40-B751-4D2C471F916B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" activeTab="4" xr2:uid="{BEC22610-DBDE-49A5-ABDC-7DB261D6BA7F}"/>
   </bookViews>
@@ -35983,8 +35983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F291A794-F81B-A94A-B246-9FC1326ED183}">
   <dimension ref="A1:N141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="N134" sqref="N134"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -37790,242 +37790,450 @@
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="50">
         <v>0</v>
       </c>
-      <c r="B129" s="24"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="24"/>
-      <c r="E129" s="19"/>
+      <c r="B129" s="57">
+        <v>0.83698630136986296</v>
+      </c>
+      <c r="C129" s="57">
+        <v>0.85958904109588996</v>
+      </c>
+      <c r="D129" s="57">
+        <v>0.81643835616438298</v>
+      </c>
+      <c r="E129" s="57">
+        <v>0.91780821917808197</v>
+      </c>
       <c r="F129" s="56" t="s">
         <v>31</v>
       </c>
       <c r="G129" s="50">
         <v>0</v>
       </c>
-      <c r="H129" s="24"/>
-      <c r="I129" s="24"/>
-      <c r="J129" s="24"/>
-      <c r="K129" s="19"/>
+      <c r="H129" s="57">
+        <v>0.83698630136986296</v>
+      </c>
+      <c r="I129" s="57">
+        <v>0.86164383561643798</v>
+      </c>
+      <c r="J129" s="57">
+        <v>0.817808219178082</v>
+      </c>
+      <c r="K129" s="57">
+        <v>0.91643835616438296</v>
+      </c>
       <c r="L129" s="56" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="50">
         <v>1</v>
       </c>
-      <c r="B130" s="24"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="24"/>
-      <c r="E130" s="19"/>
+      <c r="B130" s="57">
+        <v>0.93561643835616404</v>
+      </c>
+      <c r="C130" s="57">
+        <v>0.89863013698630101</v>
+      </c>
+      <c r="D130" s="57">
+        <v>0.89246575342465695</v>
+      </c>
+      <c r="E130" s="57">
+        <v>0.92945205479451998</v>
+      </c>
       <c r="F130" s="56"/>
       <c r="G130" s="50">
         <v>1</v>
       </c>
-      <c r="H130" s="24"/>
-      <c r="I130" s="24"/>
-      <c r="J130" s="24"/>
-      <c r="K130" s="19"/>
+      <c r="H130" s="57">
+        <v>0.93356164383561602</v>
+      </c>
+      <c r="I130" s="57">
+        <v>0.87671232876712302</v>
+      </c>
+      <c r="J130" s="57">
+        <v>0.89931506849315002</v>
+      </c>
+      <c r="K130" s="57">
+        <v>0.96780821917808202</v>
+      </c>
       <c r="L130" s="56"/>
     </row>
-    <row r="131" spans="1:12" ht="16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="50">
         <v>2</v>
       </c>
-      <c r="B131" s="24"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="24"/>
-      <c r="E131" s="19"/>
+      <c r="B131" s="57">
+        <v>0.98424657534246496</v>
+      </c>
+      <c r="C131" s="57">
+        <v>0.96027397260273895</v>
+      </c>
+      <c r="D131" s="57">
+        <v>0.91643835616438296</v>
+      </c>
+      <c r="E131" s="57">
+        <v>0.93561643835616404</v>
+      </c>
       <c r="F131" s="56"/>
       <c r="G131" s="50">
         <v>2</v>
       </c>
-      <c r="H131" s="24"/>
-      <c r="I131" s="24"/>
-      <c r="J131" s="24"/>
-      <c r="K131" s="19"/>
+      <c r="H131" s="57">
+        <v>0.98013698630136903</v>
+      </c>
+      <c r="I131" s="57">
+        <v>0.92739726027397196</v>
+      </c>
+      <c r="J131" s="57">
+        <v>0.92671232876712295</v>
+      </c>
+      <c r="K131" s="57">
+        <v>0.94383561643835601</v>
+      </c>
       <c r="L131" s="56"/>
     </row>
-    <row r="132" spans="1:12" ht="16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="50">
         <v>3</v>
       </c>
-      <c r="B132" s="24"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="24"/>
-      <c r="E132" s="19"/>
+      <c r="B132" s="57">
+        <v>0.90068493150684903</v>
+      </c>
+      <c r="C132" s="57">
+        <v>0.954109589041095</v>
+      </c>
+      <c r="D132" s="57">
+        <v>0.93082191780821899</v>
+      </c>
+      <c r="E132" s="57">
+        <v>0.95</v>
+      </c>
       <c r="F132" s="56"/>
       <c r="G132" s="50">
         <v>3</v>
       </c>
-      <c r="H132" s="24"/>
-      <c r="I132" s="24"/>
-      <c r="J132" s="24"/>
-      <c r="K132" s="19"/>
+      <c r="H132" s="57">
+        <v>0.97876712328767101</v>
+      </c>
+      <c r="I132" s="57">
+        <v>0.97054794520547905</v>
+      </c>
+      <c r="J132" s="57">
+        <v>0.93287671232876701</v>
+      </c>
+      <c r="K132" s="57">
+        <v>0.97191780821917795</v>
+      </c>
       <c r="L132" s="56"/>
     </row>
-    <row r="133" spans="1:12" ht="16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="50">
         <v>4</v>
       </c>
-      <c r="B133" s="24"/>
-      <c r="C133" s="24"/>
-      <c r="D133" s="24"/>
-      <c r="E133" s="19"/>
+      <c r="B133" s="57">
+        <v>0.96095890410958895</v>
+      </c>
+      <c r="C133" s="57">
+        <v>0.96095890410958895</v>
+      </c>
+      <c r="D133" s="57">
+        <v>0.90684931506849298</v>
+      </c>
+      <c r="E133" s="57">
+        <v>0.95205479452054798</v>
+      </c>
       <c r="F133" s="56"/>
       <c r="G133" s="50">
         <v>4</v>
       </c>
-      <c r="H133" s="24"/>
-      <c r="I133" s="24"/>
-      <c r="J133" s="24"/>
-      <c r="K133" s="19"/>
+      <c r="H133" s="57">
+        <v>0.98493150684931496</v>
+      </c>
+      <c r="I133" s="57">
+        <v>0.98767123287671199</v>
+      </c>
+      <c r="J133" s="57">
+        <v>0.91301369863013704</v>
+      </c>
+      <c r="K133" s="57">
+        <v>0.96643835616438301</v>
+      </c>
       <c r="L133" s="56"/>
     </row>
-    <row r="134" spans="1:12" ht="16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="50">
         <v>5</v>
       </c>
-      <c r="B134" s="24"/>
-      <c r="C134" s="24"/>
-      <c r="D134" s="24"/>
-      <c r="E134" s="19"/>
+      <c r="B134" s="57">
+        <v>0.95958904109589005</v>
+      </c>
+      <c r="C134" s="57">
+        <v>0.96917808219178003</v>
+      </c>
+      <c r="D134" s="57">
+        <v>0.95821917808219104</v>
+      </c>
+      <c r="E134" s="57">
+        <v>0.95342465753424599</v>
+      </c>
       <c r="F134" s="56"/>
       <c r="G134" s="50">
         <v>5</v>
       </c>
-      <c r="H134" s="24"/>
-      <c r="I134" s="24"/>
-      <c r="J134" s="24"/>
-      <c r="K134" s="19"/>
+      <c r="H134" s="57">
+        <v>0.98630136986301298</v>
+      </c>
+      <c r="I134" s="57">
+        <v>0.98972602739726001</v>
+      </c>
+      <c r="J134" s="57">
+        <v>0.83767123287671197</v>
+      </c>
+      <c r="K134" s="57">
+        <v>0.97054794520547905</v>
+      </c>
       <c r="L134" s="56"/>
     </row>
-    <row r="135" spans="1:12" ht="16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="50">
         <v>6</v>
       </c>
-      <c r="B135" s="24"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="24"/>
-      <c r="E135" s="19"/>
+      <c r="B135" s="57">
+        <v>0.95068493150684896</v>
+      </c>
+      <c r="C135" s="57">
+        <v>0.97260273972602695</v>
+      </c>
+      <c r="D135" s="57">
+        <v>0.954109589041095</v>
+      </c>
+      <c r="E135" s="57">
+        <v>0.954794520547945</v>
+      </c>
       <c r="F135" s="56"/>
       <c r="G135" s="50">
         <v>6</v>
       </c>
-      <c r="H135" s="24"/>
-      <c r="I135" s="24"/>
-      <c r="J135" s="24"/>
-      <c r="K135" s="19"/>
+      <c r="H135" s="57">
+        <v>0.98356164383561595</v>
+      </c>
+      <c r="I135" s="57">
+        <v>0.989041095890411</v>
+      </c>
+      <c r="J135" s="57">
+        <v>0.85547945205479403</v>
+      </c>
+      <c r="K135" s="57">
+        <v>0.96849315068493103</v>
+      </c>
       <c r="L135" s="56"/>
     </row>
-    <row r="136" spans="1:12" ht="16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="50">
         <v>7</v>
       </c>
-      <c r="B136" s="24"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="24"/>
-      <c r="E136" s="19"/>
+      <c r="B136" s="57">
+        <v>0.94863013698630105</v>
+      </c>
+      <c r="C136" s="57">
+        <v>0.97397260273972597</v>
+      </c>
+      <c r="D136" s="57">
+        <v>0.96095890410958895</v>
+      </c>
+      <c r="E136" s="57">
+        <v>0.95068493150684896</v>
+      </c>
       <c r="F136" s="56"/>
       <c r="G136" s="50">
         <v>7</v>
       </c>
-      <c r="H136" s="24"/>
-      <c r="I136" s="24"/>
-      <c r="J136" s="24"/>
-      <c r="K136" s="19"/>
+      <c r="H136" s="57">
+        <v>0.98561643835616397</v>
+      </c>
+      <c r="I136" s="57">
+        <v>0.98972602739726001</v>
+      </c>
+      <c r="J136" s="57">
+        <v>0.93561643835616404</v>
+      </c>
+      <c r="K136" s="57">
+        <v>0.97123287671232805</v>
+      </c>
       <c r="L136" s="56"/>
     </row>
-    <row r="137" spans="1:12" ht="16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="50">
         <v>8</v>
       </c>
-      <c r="B137" s="24"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="24"/>
-      <c r="E137" s="19"/>
+      <c r="B137" s="57">
+        <v>0.92465753424657504</v>
+      </c>
+      <c r="C137" s="57">
+        <v>0.95821917808219104</v>
+      </c>
+      <c r="D137" s="57">
+        <v>0.97123287671232805</v>
+      </c>
+      <c r="E137" s="57">
+        <v>0.77397260273972601</v>
+      </c>
       <c r="F137" s="56"/>
       <c r="G137" s="50">
         <v>8</v>
       </c>
-      <c r="H137" s="24"/>
-      <c r="I137" s="24"/>
-      <c r="J137" s="24"/>
-      <c r="K137" s="19"/>
+      <c r="H137" s="57">
+        <v>0.98424657534246496</v>
+      </c>
+      <c r="I137" s="57">
+        <v>0.99041095890410902</v>
+      </c>
+      <c r="J137" s="57">
+        <v>0.93904109589041096</v>
+      </c>
+      <c r="K137" s="57">
+        <v>0.95890410958904104</v>
+      </c>
       <c r="L137" s="56"/>
     </row>
-    <row r="138" spans="1:12" ht="16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="50">
         <v>9</v>
       </c>
-      <c r="B138" s="24"/>
-      <c r="C138" s="24"/>
-      <c r="D138" s="24"/>
-      <c r="E138" s="19"/>
+      <c r="B138" s="57">
+        <v>0.943150684931506</v>
+      </c>
+      <c r="C138" s="57">
+        <v>0.95136986301369797</v>
+      </c>
+      <c r="D138" s="57">
+        <v>0.98356164383561595</v>
+      </c>
+      <c r="E138" s="57">
+        <v>0.76986301369862997</v>
+      </c>
       <c r="F138" s="56"/>
       <c r="G138" s="50">
         <v>9</v>
       </c>
-      <c r="H138" s="24"/>
-      <c r="I138" s="24"/>
-      <c r="J138" s="24"/>
-      <c r="K138" s="19"/>
+      <c r="H138" s="57">
+        <v>0.98013698630136903</v>
+      </c>
+      <c r="I138" s="57">
+        <v>0.99109589041095802</v>
+      </c>
+      <c r="J138" s="57">
+        <v>0.841095890410958</v>
+      </c>
+      <c r="K138" s="57">
+        <v>0.96986301369863004</v>
+      </c>
       <c r="L138" s="56"/>
     </row>
-    <row r="139" spans="1:12" ht="16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="50">
         <v>10</v>
       </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="24"/>
-      <c r="E139" s="19"/>
+      <c r="B139" s="57">
+        <v>0.94246575342465699</v>
+      </c>
+      <c r="C139" s="57">
+        <v>0.98013698630136903</v>
+      </c>
+      <c r="D139" s="57">
+        <v>0.99383561643835605</v>
+      </c>
+      <c r="E139" s="57">
+        <v>0.77397260273972601</v>
+      </c>
       <c r="F139" s="56"/>
       <c r="G139" s="50">
         <v>10</v>
       </c>
-      <c r="H139" s="24"/>
-      <c r="I139" s="24"/>
-      <c r="J139" s="24"/>
-      <c r="K139" s="19"/>
+      <c r="H139" s="57">
+        <v>0.96027397260273895</v>
+      </c>
+      <c r="I139" s="57">
+        <v>0.99109589041095802</v>
+      </c>
+      <c r="J139" s="57">
+        <v>0.94726027397260204</v>
+      </c>
+      <c r="K139" s="57">
+        <v>0.96849315068493103</v>
+      </c>
       <c r="L139" s="56"/>
     </row>
-    <row r="140" spans="1:12" ht="16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="50">
         <v>11</v>
       </c>
-      <c r="B140" s="24"/>
-      <c r="C140" s="24"/>
-      <c r="D140" s="24"/>
-      <c r="E140" s="19"/>
+      <c r="B140" s="57">
+        <v>0.94383561643835601</v>
+      </c>
+      <c r="C140" s="57">
+        <v>0.977397260273972</v>
+      </c>
+      <c r="D140" s="57">
+        <v>0.99041095890410902</v>
+      </c>
+      <c r="E140" s="57">
+        <v>0.77534246575342403</v>
+      </c>
       <c r="F140" s="56"/>
       <c r="G140" s="50">
         <v>11</v>
       </c>
-      <c r="H140" s="24"/>
-      <c r="I140" s="24"/>
-      <c r="J140" s="24"/>
-      <c r="K140" s="19"/>
+      <c r="H140" s="57">
+        <v>0.94931506849314995</v>
+      </c>
+      <c r="I140" s="57">
+        <v>0.98150684931506804</v>
+      </c>
+      <c r="J140" s="57">
+        <v>0.97191780821917795</v>
+      </c>
+      <c r="K140" s="57">
+        <v>0.96232876712328697</v>
+      </c>
       <c r="L140" s="56"/>
     </row>
-    <row r="141" spans="1:12" ht="16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="50">
         <v>12</v>
       </c>
-      <c r="B141" s="24"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="24"/>
-      <c r="E141" s="19"/>
+      <c r="B141" s="57">
+        <v>0.94178082191780799</v>
+      </c>
+      <c r="C141" s="57">
+        <v>0.96027397260273895</v>
+      </c>
+      <c r="D141" s="57">
+        <v>0.99863013698630099</v>
+      </c>
+      <c r="E141" s="57">
+        <v>0.90342465753424595</v>
+      </c>
       <c r="F141" s="56"/>
       <c r="G141" s="50">
         <v>12</v>
       </c>
-      <c r="H141" s="24"/>
-      <c r="I141" s="24"/>
-      <c r="J141" s="24"/>
-      <c r="K141" s="19"/>
+      <c r="H141" s="57">
+        <v>0.95068493150684896</v>
+      </c>
+      <c r="I141" s="57">
+        <v>0.99109589041095802</v>
+      </c>
+      <c r="J141" s="57">
+        <v>0.96643835616438301</v>
+      </c>
+      <c r="K141" s="57">
+        <v>0.96986301369863004</v>
+      </c>
       <c r="L141" s="56"/>
     </row>
   </sheetData>

--- a/POS Code/Experiments/attachments/detailed_results.xlsx
+++ b/POS Code/Experiments/attachments/detailed_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zefuhu/Documents/workspace/papers/PhD_research/NLP/probing/datasets_creation/cubert/interpretability-of-source-code-transformers/POS Code/Experiments/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69801B3-EB67-2D40-B751-4D2C471F916B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB992E85-1CDC-B447-A874-38A980152365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20620" activeTab="4" xr2:uid="{BEC22610-DBDE-49A5-ABDC-7DB261D6BA7F}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <definedName name="_xlchart.v1.2" hidden="1">POSLayerwise!$C$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">POSLayerwise!$C$2:$C$14</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -567,15 +567,156 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>CloneDetecLayerwise!$B$1</c:f>
+              <c:f>POSLayerwise!$B$128</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Independent</c:v>
+                  <c:v>CB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>POSLayerwise!$A$129:$A$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>POSLayerwise!$B$129:$B$141</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.83698630136986296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93561643835616404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98424657534246496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90068493150684903</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96095890410958895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95958904109589005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95068493150684896</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94863013698630105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92465753424657504</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.943150684931506</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94246575342465699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94383561643835601</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94178082191780799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-187F-2C42-AEBC-958A53F9DCFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>POSLayerwise!$C$128</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GCB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -606,7 +747,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>CloneDetecLayerwise!$A$2:$A$14</c:f>
+              <c:f>POSLayerwise!$A$129:$A$141</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -654,48 +795,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CloneDetecLayerwise!$B$2:$B$14</c:f>
+              <c:f>POSLayerwise!$C$129:$C$141</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.85958904109588996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67111500000000002</c:v>
+                  <c:v>0.89863013698630101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66526300000000005</c:v>
+                  <c:v>0.96027397260273895</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70175799999999999</c:v>
+                  <c:v>0.954109589041095</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77296600000000004</c:v>
+                  <c:v>0.96095890410958895</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78684900000000002</c:v>
+                  <c:v>0.96917808219178003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7853</c:v>
+                  <c:v>0.97260273972602695</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.77339400000000003</c:v>
+                  <c:v>0.97397260273972597</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.72686499999999998</c:v>
+                  <c:v>0.95821917808219104</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.72160400000000002</c:v>
+                  <c:v>0.95136986301369797</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.73547200000000001</c:v>
+                  <c:v>0.98013698630136903</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.81508199999999997</c:v>
+                  <c:v>0.977397260273972</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.81955900000000004</c:v>
+                  <c:v>0.96027397260273895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -703,20 +844,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-188F-2648-8EAF-22FF9A3BA9A8}"/>
+              <c16:uniqueId val="{00000001-187F-2C42-AEBC-958A53F9DCFD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>CloneDetecLayerwise!$C$1</c:f>
+              <c:f>POSLayerwise!$D$128</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Incremental</c:v>
+                  <c:v>CGPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -747,7 +888,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>CloneDetecLayerwise!$A$2:$A$14</c:f>
+              <c:f>POSLayerwise!$A$129:$A$141</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -795,48 +936,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CloneDetecLayerwise!$C$2:$C$14</c:f>
+              <c:f>POSLayerwise!$D$129:$D$141</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.66666700000000001</c:v>
+                  <c:v>0.81643835616438298</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65348499999999998</c:v>
+                  <c:v>0.89246575342465695</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66902099999999998</c:v>
+                  <c:v>0.91643835616438296</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70086899999999996</c:v>
+                  <c:v>0.93082191780821899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77109499999999997</c:v>
+                  <c:v>0.90684931506849298</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77710599999999996</c:v>
+                  <c:v>0.95821917808219104</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78310199999999996</c:v>
+                  <c:v>0.954109589041095</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.77618500000000001</c:v>
+                  <c:v>0.96095890410958895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.77377200000000002</c:v>
+                  <c:v>0.97123287671232805</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.76970400000000005</c:v>
+                  <c:v>0.98356164383561595</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.76261299999999999</c:v>
+                  <c:v>0.99383561643835605</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.80696299999999999</c:v>
+                  <c:v>0.99041095890410902</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.80464199999999997</c:v>
+                  <c:v>0.99863013698630099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -844,7 +985,148 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-188F-2648-8EAF-22FF9A3BA9A8}"/>
+              <c16:uniqueId val="{00000002-187F-2C42-AEBC-958A53F9DCFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>POSLayerwise!$E$128</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>POSLayerwise!$A$129:$A$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>POSLayerwise!$E$129:$E$141</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.91780821917808197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92945205479451998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93561643835616404</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95205479452054798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95342465753424599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.954794520547945</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95068493150684896</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77397260273972601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76986301369862997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.77397260273972601</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.77534246575342403</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.90342465753424595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-187F-2C42-AEBC-958A53F9DCFD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -858,11 +1140,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1154472784"/>
-        <c:axId val="1154474416"/>
+        <c:axId val="708310543"/>
+        <c:axId val="708292559"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1154472784"/>
+        <c:axId val="708310543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -905,7 +1187,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1154474416"/>
+        <c:crossAx val="708292559"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -913,10 +1195,658 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1154474416"/>
+        <c:axId val="708292559"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.9"/>
+          <c:max val="1"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="708310543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="4.0000000000000008E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CloneDetecLayerwise!$H$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CloneDetecLayerwise!$G$69:$G$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CloneDetecLayerwise!$H$69:$H$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.66666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.580538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66517199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70030700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.719943</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73305900000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76053599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79497499999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80194399999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79460600000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.80569400000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.81855800000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.80542800000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6FAA-D842-B912-4177BAAB36F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CloneDetecLayerwise!$I$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GCB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CloneDetecLayerwise!$G$69:$G$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CloneDetecLayerwise!$I$69:$I$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.66666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65348499999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66902099999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70086899999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77109499999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77710599999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78310199999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77618500000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77377200000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76970400000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76261299999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.80696299999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.80464199999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6FAA-D842-B912-4177BAAB36F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CloneDetecLayerwise!$J$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CloneDetecLayerwise!$G$69:$G$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CloneDetecLayerwise!$J$69:$J$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.66666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27420099999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7483E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70416000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68451700000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.46307300000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.77209799999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.82798700000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6FAA-D842-B912-4177BAAB36F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1656639215"/>
+        <c:axId val="1656647311"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1656639215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1656647311"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1656647311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -965,7 +1895,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1154472784"/>
+        <c:crossAx val="1656639215"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1052,7 +1982,514 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CodeSearchLayerwise!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Independent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CodeSearchLayerwise!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CodeSearchLayerwise!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.53476800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53311299999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50827800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51821200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50662300000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50331099999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.509934</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50827800000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53311299999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54470200000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53476800000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.53642400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-99E4-5C45-B021-500C7064FEF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CodeSearchLayerwise!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Incremental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CodeSearchLayerwise!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CodeSearchLayerwise!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.53476800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54635800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50331099999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50165599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51490100000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50496700000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51158899999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49668899999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50496700000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51490100000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54635800000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.51490100000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.54139099999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-99E4-5C45-B021-500C7064FEF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1336362111"/>
+        <c:axId val="1336701151"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1336362111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1336701151"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1336701151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1336362111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1559,7 +2996,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2066,7 +3503,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2573,7 +4010,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3080,7 +4517,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3587,7 +5024,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4235,7 +5672,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4883,7 +6320,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5390,7 +6827,798 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>POSLayerwise!$H$128</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>POSLayerwise!$G$129:$G$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>POSLayerwise!$H$129:$H$141</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.83698630136986296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93356164383561602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98013698630136903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97876712328767101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98493150684931496</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98630136986301298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98356164383561595</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98561643835616397</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98424657534246496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98013698630136903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.96027397260273895</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94931506849314995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95068493150684896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E58F-F048-A077-A5FE74E843BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>POSLayerwise!$I$128</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GCB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>POSLayerwise!$G$129:$G$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>POSLayerwise!$I$129:$I$141</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.86164383561643798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87671232876712302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92739726027397196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97054794520547905</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98767123287671199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98972602739726001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.989041095890411</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98972602739726001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99041095890410902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99109589041095802</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99109589041095802</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.98150684931506804</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99109589041095802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E58F-F048-A077-A5FE74E843BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>POSLayerwise!$J$128</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CGPA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>POSLayerwise!$G$129:$G$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>POSLayerwise!$J$129:$J$141</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.817808219178082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89931506849315002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92671232876712295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93287671232876701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91301369863013704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83767123287671197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85547945205479403</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93561643835616404</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93904109589041096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.841095890410958</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94726027397260204</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97191780821917795</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.96643835616438301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E58F-F048-A077-A5FE74E843BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>POSLayerwise!$K$128</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>POSLayerwise!$G$129:$G$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>POSLayerwise!$K$129:$K$141</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.91643835616438296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96780821917808202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94383561643835601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97191780821917795</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96643835616438301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97054794520547905</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96849315068493103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97123287671232805</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95890410958904104</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96986301369863004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.96849315068493103</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.96232876712328697</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.96986301369863004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E58F-F048-A077-A5FE74E843BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="712399263"/>
+        <c:axId val="712536831"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="712399263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="712536831"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="712536831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="712399263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
+        <c:minorUnit val="4.0000000000000008E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printS